--- a/Jashera 2022/Jashera 2022.xlsx
+++ b/Jashera 2022/Jashera 2022.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="683">
   <si>
     <t>ОБОРУДОВАНИЕ</t>
   </si>
@@ -1967,6 +1967,9 @@
   </si>
   <si>
     <t>Шилонцева</t>
+  </si>
+  <si>
+    <t>89213026506</t>
   </si>
   <si>
     <t xml:space="preserve"> 10.07.2009 отдел ЗАГС приморского района СПб 1</t>
@@ -2178,19 +2181,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
-    <numFmt numFmtId="176" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="[$-419]d\ mm\ yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="dd\.mm\.yyyy\ h:mm"/>
-    <numFmt numFmtId="180" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="182" formatCode="dd\.mmm"/>
-    <numFmt numFmtId="183" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="184" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
-    <numFmt numFmtId="185" formatCode="dd\.mm\.yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy\ h:mm"/>
+    <numFmt numFmtId="181" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="182" formatCode="dd\.mm\.yyyy;@"/>
+    <numFmt numFmtId="183" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="184" formatCode="[$-419]d\ mm\ yyyy;@"/>
+    <numFmt numFmtId="185" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
     <numFmt numFmtId="186" formatCode="0.0"/>
   </numFmts>
-  <fonts count="53">
+  <fonts count="52">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2235,11 +2238,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <charset val="204"/>
@@ -2400,26 +2398,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2430,25 +2413,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2462,23 +2438,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2499,16 +2459,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2524,9 +2515,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2569,7 +2567,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2581,7 +2579,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2593,31 +2615,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2635,7 +2639,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2647,7 +2705,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2659,91 +2729,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2923,10 +2921,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2956,6 +2971,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2979,203 +3018,162 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="29" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="18" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="28" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="29" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -3186,28 +3184,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -3216,7 +3214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -3225,7 +3223,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3234,7 +3232,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3246,7 +3244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3264,7 +3262,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3274,18 +3272,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -3299,7 +3295,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
@@ -3326,7 +3323,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3335,114 +3331,114 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="183" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3452,41 +3448,41 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3495,53 +3491,53 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="25" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3551,71 +3547,71 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="183" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="183" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="186" fontId="25" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="186" fontId="26" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="36" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="36" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="36" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="36" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4647,11 +4643,11 @@
   <dimension ref="A1:AF27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomRight" activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
@@ -4768,7 +4764,7 @@
       <c r="AE1" s="10"/>
       <c r="AF1" s="10"/>
     </row>
-    <row r="2" ht="15.15" hidden="1" spans="2:30">
+    <row r="2" ht="15.15" spans="2:30">
       <c r="B2" s="6" t="s">
         <v>316</v>
       </c>
@@ -4837,7 +4833,7 @@
         <v>Атаманов Иван Валерьевич</v>
       </c>
     </row>
-    <row r="3" ht="15.15" hidden="1" spans="2:32">
+    <row r="3" ht="15.15" spans="2:32">
       <c r="B3" s="31" t="s">
         <v>323</v>
       </c>
@@ -4932,8 +4928,12 @@
       <c r="G4" s="6">
         <v>5</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
+      <c r="H4" s="38">
+        <v>16</v>
+      </c>
+      <c r="I4" s="38">
+        <v>13</v>
+      </c>
       <c r="J4" s="37"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
@@ -5004,8 +5004,10 @@
       <c r="G5" s="6">
         <v>8</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="37">
+        <v>14</v>
+      </c>
       <c r="J5" s="37"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
@@ -5057,7 +5059,7 @@
       <c r="AE5" s="10"/>
       <c r="AF5" s="10"/>
     </row>
-    <row r="6" hidden="1" spans="2:32">
+    <row r="6" spans="2:32">
       <c r="B6" s="6" t="s">
         <v>340</v>
       </c>
@@ -5155,8 +5157,8 @@
       <c r="H7" s="6">
         <v>3</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="38"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="39"/>
       <c r="K7" s="6" t="s">
         <v>567</v>
       </c>
@@ -5208,7 +5210,7 @@
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
     </row>
-    <row r="8" hidden="1" spans="2:32">
+    <row r="8" spans="2:32">
       <c r="B8" s="6" t="s">
         <v>346</v>
       </c>
@@ -5227,8 +5229,8 @@
       <c r="G8" s="6">
         <v>7</v>
       </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="40">
+      <c r="H8" s="39"/>
+      <c r="I8" s="38">
         <v>12</v>
       </c>
       <c r="J8" s="37"/>
@@ -5280,7 +5282,7 @@
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
     </row>
-    <row r="9" hidden="1" spans="2:30">
+    <row r="9" spans="2:30">
       <c r="B9" s="6" t="s">
         <v>351</v>
       </c>
@@ -5302,7 +5304,7 @@
       <c r="H9" s="6">
         <v>8</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="41">
         <v>6</v>
       </c>
       <c r="J9" s="37"/>
@@ -5364,8 +5366,10 @@
       <c r="G10" s="20">
         <v>3</v>
       </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="25">
+        <v>16</v>
+      </c>
       <c r="J10" s="37"/>
       <c r="M10" s="24">
         <v>56</v>
@@ -5406,7 +5410,7 @@
         <v>Иванова Мария Владимировна</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="2:32">
+    <row r="11" spans="2:32">
       <c r="B11" s="6" t="s">
         <v>361</v>
       </c>
@@ -5505,8 +5509,12 @@
       <c r="G12" s="6">
         <v>10</v>
       </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
+      <c r="H12" s="39">
+        <v>15</v>
+      </c>
+      <c r="I12" s="43">
+        <v>15</v>
+      </c>
       <c r="J12" s="37"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -5568,14 +5576,14 @@
       <c r="D13" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="41">
         <v>3</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6">
+      <c r="G13" s="41"/>
+      <c r="H13" s="41">
         <v>9</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="41"/>
       <c r="J13" s="37"/>
       <c r="K13" s="6" t="s">
         <v>567</v>
@@ -5598,7 +5606,7 @@
       <c r="R13" s="25" t="s">
         <v>551</v>
       </c>
-      <c r="S13" s="40" t="s">
+      <c r="S13" s="50" t="s">
         <v>430</v>
       </c>
       <c r="U13" s="6" t="s">
@@ -5628,14 +5636,14 @@
         <v>331</v>
       </c>
       <c r="E14" s="10"/>
-      <c r="F14" s="40">
+      <c r="F14" s="38">
         <v>23</v>
       </c>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40">
+      <c r="G14" s="38"/>
+      <c r="H14" s="38">
         <v>1</v>
       </c>
-      <c r="I14" s="40"/>
+      <c r="I14" s="38"/>
       <c r="J14" s="37"/>
       <c r="K14" s="6" t="s">
         <v>567</v>
@@ -5659,7 +5667,7 @@
       <c r="R14" s="25" t="s">
         <v>551</v>
       </c>
-      <c r="S14" s="50" t="s">
+      <c r="S14" s="51" t="s">
         <v>435</v>
       </c>
       <c r="T14" s="6" t="s">
@@ -5692,7 +5700,7 @@
       <c r="AE14" s="10"/>
       <c r="AF14" s="10"/>
     </row>
-    <row r="15" spans="2:25">
+    <row r="15" hidden="1" spans="2:25">
       <c r="B15" s="20" t="s">
         <v>436</v>
       </c>
@@ -5705,10 +5713,10 @@
       <c r="F15" s="15">
         <v>19</v>
       </c>
-      <c r="G15" s="39"/>
-      <c r="H15" s="41"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="20"/>
       <c r="I15" s="20"/>
-      <c r="J15" s="43">
+      <c r="J15" s="14">
         <v>1</v>
       </c>
       <c r="M15" s="15">
@@ -5746,7 +5754,7 @@
       </c>
       <c r="Y15" s="15"/>
     </row>
-    <row r="16" hidden="1" spans="2:32">
+    <row r="16" spans="2:32">
       <c r="B16" s="6" t="s">
         <v>372</v>
       </c>
@@ -5822,7 +5830,7 @@
       <c r="AE16" s="10"/>
       <c r="AF16" s="10"/>
     </row>
-    <row r="17" hidden="1" spans="2:30">
+    <row r="17" spans="2:30">
       <c r="B17" s="6" t="s">
         <v>378</v>
       </c>
@@ -5866,7 +5874,7 @@
       <c r="R17" s="25" t="s">
         <v>544</v>
       </c>
-      <c r="S17" s="40">
+      <c r="S17" s="50">
         <v>4021966729</v>
       </c>
       <c r="U17" s="6" t="s">
@@ -5889,7 +5897,7 @@
         <v>Попова Юлия Юрьевна</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="2:30">
+    <row r="18" spans="2:30">
       <c r="B18" s="20" t="s">
         <v>382</v>
       </c>
@@ -5954,7 +5962,7 @@
         <v>Сайчик Татьяна Борисовна</v>
       </c>
     </row>
-    <row r="19" spans="2:32">
+    <row r="19" hidden="1" spans="2:32">
       <c r="B19" s="6" t="s">
         <v>439</v>
       </c>
@@ -5969,9 +5977,9 @@
         <v>15</v>
       </c>
       <c r="G19" s="6"/>
-      <c r="H19" s="38"/>
+      <c r="H19" s="39"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="38"/>
+      <c r="J19" s="39"/>
       <c r="K19" s="6" t="s">
         <v>603</v>
       </c>
@@ -6025,7 +6033,7 @@
       <c r="AE19" s="10"/>
       <c r="AF19" s="10"/>
     </row>
-    <row r="20" ht="15.15" spans="2:32">
+    <row r="20" spans="2:32">
       <c r="B20" s="6" t="s">
         <v>387</v>
       </c>
@@ -6044,8 +6052,8 @@
       <c r="G20" s="6">
         <v>1</v>
       </c>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
       <c r="J20" s="37"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
@@ -6097,7 +6105,7 @@
       <c r="AE20" s="10"/>
       <c r="AF20" s="10"/>
     </row>
-    <row r="21" s="37" customFormat="1" ht="15.15" hidden="1" spans="1:32">
+    <row r="21" s="37" customFormat="1" ht="15.15" spans="1:32">
       <c r="A21" s="14"/>
       <c r="B21" s="6" t="s">
         <v>393</v>
@@ -6230,8 +6238,8 @@
       <c r="W22" s="24" t="s">
         <v>611</v>
       </c>
-      <c r="X22" s="51">
-        <v>89213026506</v>
+      <c r="X22" s="52" t="s">
+        <v>620</v>
       </c>
       <c r="Y22" s="15"/>
       <c r="Z22" s="10"/>
@@ -6239,13 +6247,13 @@
       <c r="AB22" s="10"/>
       <c r="AC22" s="10"/>
       <c r="AD22" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(U22," ",V22," ",W22)</f>
         <v>Шилонцева Татьяна Александровна</v>
       </c>
       <c r="AE22" s="10"/>
       <c r="AF22" s="10"/>
     </row>
-    <row r="23" hidden="1" spans="2:32">
+    <row r="23" spans="2:32">
       <c r="B23" s="6" t="s">
         <v>403</v>
       </c>
@@ -6295,28 +6303,28 @@
         <v>408</v>
       </c>
       <c r="T23" s="10" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="U23" s="6" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="V23" s="6" t="s">
         <v>575</v>
       </c>
       <c r="W23" s="6" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="X23" s="48" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="Y23" s="31" t="s">
         <v>564</v>
       </c>
       <c r="Z23" s="6" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AB23" s="10"/>
       <c r="AC23" s="10"/>
@@ -6327,7 +6335,7 @@
       <c r="AE23" s="10"/>
       <c r="AF23" s="10"/>
     </row>
-    <row r="24" hidden="1" spans="2:30">
+    <row r="24" spans="2:30">
       <c r="B24" s="6" t="s">
         <v>403</v>
       </c>
@@ -6375,19 +6383,19 @@
         <v>4018029738</v>
       </c>
       <c r="U24" s="6" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="V24" s="6" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="W24" s="6" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="X24" s="5">
         <v>89218717677</v>
       </c>
       <c r="Y24" s="6" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AD24" s="25" t="str">
         <f t="shared" si="0"/>
@@ -6421,13 +6429,13 @@
     </row>
     <row r="26" spans="2:30">
       <c r="B26" s="6" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F26" s="6">
         <v>1</v>
@@ -6439,7 +6447,7 @@
       <c r="I26" s="6"/>
       <c r="J26" s="37"/>
       <c r="M26" s="6" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="N26" s="24">
         <v>7</v>
@@ -6448,19 +6456,19 @@
         <v>89111291746</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="Q26" s="11">
         <v>39606</v>
       </c>
       <c r="S26" s="6" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="U26" s="6" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="V26" s="6" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="W26" s="6" t="s">
         <v>331</v>
@@ -6469,7 +6477,7 @@
         <v>79119331333</v>
       </c>
       <c r="Y26" s="6" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AD26" s="25" t="str">
         <f t="shared" si="0"/>
@@ -6478,13 +6486,13 @@
     </row>
     <row r="27" spans="2:30">
       <c r="B27" s="6" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -6498,25 +6506,25 @@
         <v>7</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="Q27" s="11">
         <v>39485</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="U27" s="6" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="V27" s="6" t="s">
         <v>336</v>
       </c>
       <c r="W27" s="6" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="X27" s="5">
         <v>89213132221</v>
@@ -6531,11 +6539,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Y24">
-    <filterColumn colId="7">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="8">
-      <filters blank="1"/>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="1"/>
+      </filters>
     </filterColumn>
     <extLst/>
   </autoFilter>
@@ -6578,13 +6585,13 @@
         <v>303</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7065,19 +7072,19 @@
     </row>
     <row r="27" s="29" customFormat="1" ht="13.2" spans="1:4">
       <c r="A27" s="35" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D27" s="36"/>
     </row>
     <row r="28" s="29" customFormat="1" ht="13.2" spans="1:4">
       <c r="A28" s="29" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D28" s="36"/>
     </row>
@@ -7876,7 +7883,7 @@
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>513</v>
@@ -7894,7 +7901,7 @@
     <row r="2" ht="15.15" spans="1:5">
       <c r="A2" s="4"/>
       <c r="B2" s="3" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>322</v>
@@ -7909,7 +7916,7 @@
     <row r="3" ht="15.15" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C3" s="7">
         <v>39367</v>
@@ -7924,7 +7931,7 @@
     <row r="4" ht="15.15" spans="1:5">
       <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C4" s="9">
         <v>39857</v>
@@ -7939,7 +7946,7 @@
     <row r="5" ht="15.15" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C5" s="11">
         <v>38553</v>
@@ -7954,7 +7961,7 @@
     <row r="6" ht="15.15" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="3" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C6" s="12">
         <v>39849</v>
@@ -7969,7 +7976,7 @@
     <row r="7" ht="15.15" spans="1:5">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C7" s="12">
         <v>39462</v>
@@ -7984,7 +7991,7 @@
     <row r="8" ht="15.15" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="3" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C8" s="11">
         <v>38137</v>
@@ -7999,7 +8006,7 @@
     <row r="9" ht="15.15" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C9" s="11">
         <v>39166</v>
@@ -8014,7 +8021,7 @@
     <row r="10" ht="15.15" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C10" s="13">
         <v>38917</v>
@@ -8029,7 +8036,7 @@
     <row r="11" ht="15.15" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C11" s="12">
         <v>40363</v>
@@ -8044,7 +8051,7 @@
     <row r="12" ht="15.15" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C12" s="11">
         <v>38434</v>
@@ -8059,7 +8066,7 @@
     <row r="13" ht="15.15" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C13" s="11">
         <v>39581</v>
@@ -8074,7 +8081,7 @@
     <row r="14" ht="15.15" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C14" s="12">
         <v>39916</v>
@@ -8089,7 +8096,7 @@
     <row r="15" ht="15.15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C15" s="16">
         <v>38933</v>
@@ -8104,7 +8111,7 @@
     <row r="16" ht="15.15" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C16" s="11">
         <v>40070</v>
@@ -8119,7 +8126,7 @@
     <row r="17" ht="15.15" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C17" s="11">
         <v>39331</v>
@@ -8134,7 +8141,7 @@
     <row r="18" ht="15.15" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C18" s="19">
         <v>38982</v>
@@ -8149,7 +8156,7 @@
     <row r="19" ht="15.15" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C19" s="12">
         <v>39810</v>
@@ -8164,7 +8171,7 @@
     <row r="20" ht="15.15" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="3" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C20" s="11">
         <v>40195</v>
@@ -8179,7 +8186,7 @@
     <row r="21" ht="15.15" spans="1:5">
       <c r="A21" s="21"/>
       <c r="B21" s="3" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C21" s="12">
         <v>39529</v>
@@ -8194,7 +8201,7 @@
     <row r="22" ht="15.15" spans="1:5">
       <c r="A22" s="21"/>
       <c r="B22" s="3" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C22" s="22">
         <v>38989</v>
@@ -8209,7 +8216,7 @@
     <row r="23" ht="15.15" spans="1:5">
       <c r="A23" s="21"/>
       <c r="B23" s="3" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C23" s="12">
         <v>39987</v>
@@ -8224,7 +8231,7 @@
     <row r="24" ht="15.15" spans="1:5">
       <c r="A24" s="21"/>
       <c r="B24" s="3" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C24" s="11">
         <v>38070</v>
@@ -8239,7 +8246,7 @@
     <row r="25" ht="15.15" spans="1:5">
       <c r="A25" s="21"/>
       <c r="B25" s="3" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C25" s="11">
         <v>39606</v>
@@ -8248,13 +8255,13 @@
         <v>9111291746</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="26" ht="15.15" spans="1:5">
       <c r="A26" s="21"/>
       <c r="B26" s="3" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C26" s="11">
         <v>39485</v>
@@ -8263,7 +8270,7 @@
         <v>9312244315</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="27" ht="15.15" spans="1:5">
@@ -8276,7 +8283,7 @@
     <row r="28" ht="15.15" spans="1:5">
       <c r="A28" s="21"/>
       <c r="B28" s="3" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="8"/>
@@ -8285,7 +8292,7 @@
     <row r="29" ht="15.15" spans="1:5">
       <c r="A29" s="21"/>
       <c r="B29" s="3" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
@@ -8294,7 +8301,7 @@
     <row r="30" ht="15.15" spans="1:5">
       <c r="A30" s="21"/>
       <c r="B30" s="3" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
@@ -8303,7 +8310,7 @@
     <row r="31" ht="15.15" spans="1:5">
       <c r="A31" s="21"/>
       <c r="B31" s="3" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="3"/>
@@ -8312,7 +8319,7 @@
     <row r="32" ht="15.15" spans="1:5">
       <c r="A32" s="21"/>
       <c r="B32" s="3" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="3"/>
@@ -9164,7 +9171,7 @@
         <v>409</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="4" ht="39.6" spans="1:3">
@@ -9180,13 +9187,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="6" ht="52.8" spans="1:3">
@@ -11541,7 +11548,7 @@
       <c r="N16" s="5">
         <v>89610717771</v>
       </c>
-      <c r="O16" s="40">
+      <c r="O16" s="50">
         <v>4021966729</v>
       </c>
       <c r="P16" s="11">
@@ -11922,7 +11929,7 @@
       <c r="L34" s="154"/>
       <c r="M34" s="155"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="40" t="s">
+      <c r="O34" s="50" t="s">
         <v>430</v>
       </c>
       <c r="P34" s="11">
@@ -11956,7 +11963,7 @@
       </c>
       <c r="L35" s="154"/>
       <c r="N35" s="8"/>
-      <c r="O35" s="50" t="s">
+      <c r="O35" s="51" t="s">
         <v>435</v>
       </c>
       <c r="P35" s="12">
@@ -12108,21 +12115,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.42592592592593" style="52" customWidth="1"/>
-    <col min="2" max="2" width="18" style="52" customWidth="1"/>
-    <col min="3" max="3" width="10.8518518518519" style="52"/>
-    <col min="4" max="4" width="11.1388888888889" style="52" customWidth="1"/>
-    <col min="5" max="5" width="6.71296296296296" style="52" customWidth="1"/>
-    <col min="6" max="6" width="29.8518518518519" style="52" customWidth="1"/>
-    <col min="7" max="7" width="8.42592592592593" style="52" customWidth="1"/>
-    <col min="8" max="8" width="11" style="52" customWidth="1"/>
-    <col min="9" max="9" width="3.71296296296296" style="52" customWidth="1"/>
-    <col min="10" max="10" width="7.85185185185185" style="52"/>
-    <col min="11" max="11" width="17.8518518518519" style="52" customWidth="1"/>
-    <col min="12" max="12" width="5" style="52" customWidth="1"/>
-    <col min="13" max="13" width="12.5740740740741" style="52" customWidth="1"/>
-    <col min="14" max="256" width="8.28703703703704" style="52"/>
-    <col min="257" max="16384" width="8" style="52"/>
+    <col min="1" max="1" width="3.42592592592593" style="53" customWidth="1"/>
+    <col min="2" max="2" width="18" style="53" customWidth="1"/>
+    <col min="3" max="3" width="10.8518518518519" style="53"/>
+    <col min="4" max="4" width="11.1388888888889" style="53" customWidth="1"/>
+    <col min="5" max="5" width="6.71296296296296" style="53" customWidth="1"/>
+    <col min="6" max="6" width="29.8518518518519" style="53" customWidth="1"/>
+    <col min="7" max="7" width="8.42592592592593" style="53" customWidth="1"/>
+    <col min="8" max="8" width="11" style="53" customWidth="1"/>
+    <col min="9" max="9" width="3.71296296296296" style="53" customWidth="1"/>
+    <col min="10" max="10" width="7.85185185185185" style="53"/>
+    <col min="11" max="11" width="17.8518518518519" style="53" customWidth="1"/>
+    <col min="12" max="12" width="5" style="53" customWidth="1"/>
+    <col min="13" max="13" width="12.5740740740741" style="53" customWidth="1"/>
+    <col min="14" max="256" width="8.28703703703704" style="53"/>
+    <col min="257" max="16384" width="8" style="53"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" spans="1:13">
@@ -12148,19 +12155,19 @@
       <c r="A2" s="100" t="s">
         <v>446</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>447</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="56" t="s">
         <v>448</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="56" t="s">
         <v>449</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="56" t="s">
         <v>308</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="56" t="s">
         <v>450</v>
       </c>
       <c r="G2" s="101" t="s">
@@ -12172,13 +12179,13 @@
       <c r="I2" s="100" t="s">
         <v>446</v>
       </c>
-      <c r="J2" s="55" t="s">
+      <c r="J2" s="56" t="s">
         <v>273</v>
       </c>
       <c r="K2" s="132" t="s">
         <v>453</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="L2" s="56" t="s">
         <v>454</v>
       </c>
       <c r="M2" s="133" t="s">
@@ -12201,7 +12208,7 @@
         <f>'Информация для бумаг'!H5</f>
         <v>630</v>
       </c>
-      <c r="E3" s="54">
+      <c r="E3" s="55">
         <f>'Информация для бумаг'!I5</f>
         <v>10</v>
       </c>
@@ -12248,7 +12255,7 @@
         <f>'Информация для бумаг'!H6</f>
         <v>197</v>
       </c>
-      <c r="E4" s="54">
+      <c r="E4" s="55">
         <f>'Информация для бумаг'!I6</f>
         <v>7</v>
       </c>
@@ -12291,7 +12298,7 @@
         <f>'Информация для бумаг'!H7</f>
         <v>503</v>
       </c>
-      <c r="E5" s="54">
+      <c r="E5" s="55">
         <f>'Информация для бумаг'!I7</f>
         <v>6</v>
       </c>
@@ -12336,7 +12343,7 @@
         <f>'Информация для бумаг'!H8</f>
         <v>225</v>
       </c>
-      <c r="E6" s="54">
+      <c r="E6" s="55">
         <f>'Информация для бумаг'!I8</f>
         <v>10</v>
       </c>
@@ -12371,7 +12378,7 @@
         <f>'Информация для бумаг'!H9</f>
         <v>56</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7" s="55">
         <f>'Информация для бумаг'!I9</f>
         <v>7</v>
       </c>
@@ -12406,7 +12413,7 @@
         <f>'Информация для бумаг'!H10</f>
         <v>225</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E8" s="55">
         <f>'Информация для бумаг'!I10</f>
         <v>11</v>
       </c>
@@ -12436,7 +12443,7 @@
         <f>'Информация для бумаг'!H11</f>
         <v>441</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="55">
         <f>'Информация для бумаг'!I11</f>
         <v>8</v>
       </c>
@@ -12470,7 +12477,7 @@
         <f>'Информация для бумаг'!H12</f>
         <v>56</v>
       </c>
-      <c r="E10" s="54">
+      <c r="E10" s="55">
         <f>'Информация для бумаг'!I12</f>
         <v>9</v>
       </c>
@@ -12504,7 +12511,7 @@
         <f>'Информация для бумаг'!H13</f>
         <v>Гимназия №92</v>
       </c>
-      <c r="E11" s="54">
+      <c r="E11" s="55">
         <f>'Информация для бумаг'!I13</f>
         <v>5</v>
       </c>
@@ -12538,7 +12545,7 @@
         <f>'Информация для бумаг'!H14</f>
         <v>504</v>
       </c>
-      <c r="E12" s="54">
+      <c r="E12" s="55">
         <f>'Информация для бумаг'!I14</f>
         <v>11</v>
       </c>
@@ -12572,7 +12579,7 @@
         <f>'Информация для бумаг'!H15</f>
         <v>518</v>
       </c>
-      <c r="E13" s="54">
+      <c r="E13" s="55">
         <f>'Информация для бумаг'!I15</f>
         <v>6</v>
       </c>
@@ -12606,7 +12613,7 @@
         <f>'Информация для бумаг'!H16</f>
         <v>183</v>
       </c>
-      <c r="E14" s="54">
+      <c r="E14" s="55">
         <f>'Информация для бумаг'!I16</f>
         <v>8</v>
       </c>
@@ -12640,7 +12647,7 @@
         <f>'Информация для бумаг'!H17</f>
         <v>586</v>
       </c>
-      <c r="E15" s="54">
+      <c r="E15" s="55">
         <f>'Информация для бумаг'!I17</f>
         <v>9</v>
       </c>
@@ -12674,7 +12681,7 @@
         <f>'Информация для бумаг'!H18</f>
         <v>64</v>
       </c>
-      <c r="E16" s="54">
+      <c r="E16" s="55">
         <f>'Информация для бумаг'!I18</f>
         <v>6</v>
       </c>
@@ -12708,7 +12715,7 @@
         <f>'Информация для бумаг'!H19</f>
         <v>№ 471</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="55">
         <f>'Информация для бумаг'!I19</f>
         <v>7</v>
       </c>
@@ -12742,7 +12749,7 @@
         <f>'Информация для бумаг'!H20</f>
         <v>0</v>
       </c>
-      <c r="E18" s="54">
+      <c r="E18" s="55">
         <f>'Информация для бумаг'!I20</f>
         <v>0</v>
       </c>
@@ -12776,7 +12783,7 @@
         <f>'Информация для бумаг'!H21</f>
         <v>43</v>
       </c>
-      <c r="E19" s="54">
+      <c r="E19" s="55">
         <f>'Информация для бумаг'!I21</f>
         <v>6</v>
       </c>
@@ -12810,7 +12817,7 @@
         <f>'Информация для бумаг'!H22</f>
         <v>246</v>
       </c>
-      <c r="E20" s="54">
+      <c r="E20" s="55">
         <f>'Информация для бумаг'!I22</f>
         <v>11</v>
       </c>
@@ -12859,7 +12866,7 @@
         <f>'Информация для бумаг'!H33</f>
         <v>58</v>
       </c>
-      <c r="E22" s="54">
+      <c r="E22" s="55">
         <f>'Информация для бумаг'!I33</f>
         <v>7</v>
       </c>
@@ -12891,7 +12898,7 @@
         <f>'Информация для бумаг'!H34</f>
         <v>49</v>
       </c>
-      <c r="E23" s="54">
+      <c r="E23" s="55">
         <f>'Информация для бумаг'!I34</f>
         <v>7</v>
       </c>
@@ -12923,7 +12930,7 @@
         <f>'Информация для бумаг'!H35</f>
         <v>533 лицей</v>
       </c>
-      <c r="E24" s="54">
+      <c r="E24" s="55">
         <f>'Информация для бумаг'!I35</f>
         <v>6</v>
       </c>
@@ -12955,7 +12962,7 @@
         <f>'Информация для бумаг'!H36</f>
         <v>30</v>
       </c>
-      <c r="E25" s="54">
+      <c r="E25" s="55">
         <f>'Информация для бумаг'!I36</f>
         <v>8</v>
       </c>
@@ -12987,7 +12994,7 @@
         <f>'Информация для бумаг'!H37</f>
         <v>555</v>
       </c>
-      <c r="E26" s="54">
+      <c r="E26" s="55">
         <f>'Информация для бумаг'!I37</f>
         <v>6</v>
       </c>
@@ -13037,7 +13044,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="108"/>
-      <c r="B29" s="54" t="str">
+      <c r="B29" s="55" t="str">
         <f>'Информация для бумаг'!C26</f>
         <v>Котельникова Валентина Сергеевна</v>
       </c>
@@ -13068,18 +13075,18 @@
       <c r="F30" s="125"/>
       <c r="G30" s="125"/>
       <c r="H30" s="126"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
     </row>
     <row r="31" ht="15.75" customHeight="1" spans="1:13">
       <c r="A31" s="127" t="s">
         <v>470</v>
       </c>
       <c r="B31" s="128"/>
-      <c r="C31" s="52">
+      <c r="C31" s="53">
         <f>'Информация для бумаг'!C30</f>
         <v>0</v>
       </c>
@@ -13088,14 +13095,14 @@
       <c r="F31" s="129"/>
       <c r="G31" s="130"/>
       <c r="H31" s="125"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
     </row>
     <row r="32" ht="15.75" customHeight="1" spans="1:13">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="53" t="s">
         <v>471</v>
       </c>
       <c r="H32" s="131" t="s">
@@ -13108,7 +13115,7 @@
       <c r="M32" s="143"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" spans="8:8">
-      <c r="H33" s="52" t="s">
+      <c r="H33" s="53" t="s">
         <v>473</v>
       </c>
     </row>
@@ -13149,18 +13156,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="10" style="52" customWidth="1"/>
-    <col min="2" max="6" width="8" style="52"/>
-    <col min="7" max="7" width="23.5740740740741" style="52" customWidth="1"/>
-    <col min="8" max="8" width="10.712962962963" style="52" customWidth="1"/>
-    <col min="9" max="9" width="3.85185185185185" style="52" customWidth="1"/>
-    <col min="10" max="10" width="9.42592592592593" style="52" customWidth="1"/>
-    <col min="11" max="11" width="8" style="52"/>
-    <col min="12" max="12" width="13.1388888888889" style="52"/>
-    <col min="13" max="13" width="9.85185185185185" style="52"/>
-    <col min="14" max="14" width="8" style="52"/>
-    <col min="15" max="15" width="1.57407407407407" style="52" customWidth="1"/>
-    <col min="16" max="16384" width="8" style="52"/>
+    <col min="1" max="1" width="10" style="53" customWidth="1"/>
+    <col min="2" max="6" width="8" style="53"/>
+    <col min="7" max="7" width="23.5740740740741" style="53" customWidth="1"/>
+    <col min="8" max="8" width="10.712962962963" style="53" customWidth="1"/>
+    <col min="9" max="9" width="3.85185185185185" style="53" customWidth="1"/>
+    <col min="10" max="10" width="9.42592592592593" style="53" customWidth="1"/>
+    <col min="11" max="11" width="8" style="53"/>
+    <col min="12" max="12" width="13.1388888888889" style="53"/>
+    <col min="13" max="13" width="9.85185185185185" style="53"/>
+    <col min="14" max="14" width="8" style="53"/>
+    <col min="15" max="15" width="1.57407407407407" style="53" customWidth="1"/>
+    <col min="16" max="16384" width="8" style="53"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1" spans="1:14">
@@ -13282,7 +13289,7 @@
       <c r="H9" s="68" t="s">
         <v>485</v>
       </c>
-      <c r="I9" s="52">
+      <c r="I9" s="53">
         <v>18</v>
       </c>
       <c r="J9" s="88" t="s">
@@ -13319,14 +13326,14 @@
       <c r="D11" s="83"/>
       <c r="E11" s="83"/>
       <c r="F11" s="83"/>
-      <c r="H11" s="61" t="s">
+      <c r="H11" s="62" t="s">
         <v>490</v>
       </c>
       <c r="I11" s="94">
         <f>DAYS360('Информация для бумаг'!C2,'Информация для бумаг'!D2)-1</f>
         <v>4</v>
       </c>
-      <c r="J11" s="52" t="s">
+      <c r="J11" s="53" t="s">
         <v>491</v>
       </c>
     </row>
@@ -13390,10 +13397,10 @@
       <c r="D15" s="87"/>
       <c r="E15" s="87"/>
       <c r="F15" s="87"/>
-      <c r="K15" s="61" t="s">
+      <c r="K15" s="62" t="s">
         <v>415</v>
       </c>
-      <c r="L15" s="52">
+      <c r="L15" s="53">
         <f>'Информация для бумаг'!F25</f>
         <v>89217427984</v>
       </c>
@@ -13447,10 +13454,10 @@
       <c r="N19" s="96"/>
     </row>
     <row r="20" spans="11:12">
-      <c r="K20" s="61" t="s">
+      <c r="K20" s="62" t="s">
         <v>415</v>
       </c>
-      <c r="L20" s="52">
+      <c r="L20" s="53">
         <f>'Информация для бумаг'!F26</f>
         <v>89679796720</v>
       </c>
@@ -13504,11 +13511,11 @@
       <c r="H29" s="88" t="s">
         <v>505</v>
       </c>
-      <c r="K29" s="52">
+      <c r="K29" s="53">
         <f>'Информация для бумаг'!C29</f>
         <v>2022</v>
       </c>
-      <c r="L29" s="52" t="s">
+      <c r="L29" s="53" t="s">
         <v>506</v>
       </c>
     </row>
@@ -13527,11 +13534,11 @@
       <c r="H32" s="88" t="s">
         <v>509</v>
       </c>
-      <c r="K32" s="52">
+      <c r="K32" s="53">
         <f>'Информация для бумаг'!C29</f>
         <v>2022</v>
       </c>
-      <c r="L32" s="52" t="s">
+      <c r="L32" s="53" t="s">
         <v>506</v>
       </c>
     </row>
@@ -13582,24 +13589,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.42592592592593" style="52"/>
-    <col min="2" max="2" width="35.712962962963" style="52" customWidth="1"/>
-    <col min="3" max="4" width="8" style="52"/>
-    <col min="5" max="5" width="12.8518518518519" style="52"/>
-    <col min="6" max="6" width="27.4259259259259" style="52" customWidth="1"/>
-    <col min="7" max="7" width="17.287037037037" style="61" customWidth="1"/>
-    <col min="8" max="8" width="30.287037037037" style="52" customWidth="1"/>
-    <col min="9" max="9" width="24.287037037037" style="52" customWidth="1"/>
-    <col min="10" max="16384" width="8" style="52"/>
+    <col min="1" max="1" width="3.42592592592593" style="53"/>
+    <col min="2" max="2" width="35.712962962963" style="53" customWidth="1"/>
+    <col min="3" max="4" width="8" style="53"/>
+    <col min="5" max="5" width="12.8518518518519" style="53"/>
+    <col min="6" max="6" width="27.4259259259259" style="53" customWidth="1"/>
+    <col min="7" max="7" width="17.287037037037" style="62" customWidth="1"/>
+    <col min="8" max="8" width="30.287037037037" style="53" customWidth="1"/>
+    <col min="9" max="9" width="24.287037037037" style="53" customWidth="1"/>
+    <col min="10" max="16384" width="8" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="53" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="53" t="s">
         <v>512</v>
       </c>
     </row>
@@ -13623,18 +13630,18 @@
       <c r="G4" s="64" t="s">
         <v>314</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="55" t="s">
         <v>515</v>
       </c>
-      <c r="I4" s="54" t="s">
+      <c r="I4" s="55" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="54">
+      <c r="A5" s="55">
         <v>1</v>
       </c>
-      <c r="B5" s="54" t="str">
+      <c r="B5" s="55" t="str">
         <f>CONCATENATE('Информация для бумаг'!B5," ",'Информация для бумаг'!C5," ",'Информация для бумаг'!D5)</f>
         <v>Атаманов Андрей Иванович</v>
       </c>
@@ -13646,7 +13653,7 @@
         <f>'Информация для бумаг'!I5</f>
         <v>10</v>
       </c>
-      <c r="E5" s="54">
+      <c r="E5" s="55">
         <f>'Информация для бумаг'!J5</f>
         <v>89118124048</v>
       </c>
@@ -13658,7 +13665,7 @@
         <f>'Информация для бумаг'!O5</f>
         <v>4018281460</v>
       </c>
-      <c r="H5" s="54" t="str">
+      <c r="H5" s="55" t="str">
         <f>'Информация для бумаг'!L5</f>
         <v>Атаманов Иван Валерьевич</v>
       </c>
@@ -13668,10 +13675,10 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="54">
+      <c r="A6" s="55">
         <v>2</v>
       </c>
-      <c r="B6" s="54" t="str">
+      <c r="B6" s="55" t="str">
         <f>CONCATENATE('Информация для бумаг'!B6," ",'Информация для бумаг'!C6," ",'Информация для бумаг'!D6)</f>
         <v>Башилов Константин Вячеславович</v>
       </c>
@@ -13683,7 +13690,7 @@
         <f>'Информация для бумаг'!I6</f>
         <v>7</v>
       </c>
-      <c r="E6" s="54">
+      <c r="E6" s="55">
         <f>'Информация для бумаг'!J6</f>
         <v>89650953153</v>
       </c>
@@ -13695,7 +13702,7 @@
         <f>'Информация для бумаг'!O6</f>
         <v>4022050606</v>
       </c>
-      <c r="H6" s="54" t="str">
+      <c r="H6" s="55" t="str">
         <f>'Информация для бумаг'!L6</f>
         <v>Батаковская Мария Павловна</v>
       </c>
@@ -13705,10 +13712,10 @@
       </c>
     </row>
     <row r="7" ht="26.4" spans="1:9">
-      <c r="A7" s="54">
+      <c r="A7" s="55">
         <v>3</v>
       </c>
-      <c r="B7" s="54" t="str">
+      <c r="B7" s="55" t="str">
         <f>CONCATENATE('Информация для бумаг'!B7," ",'Информация для бумаг'!C7," ",'Информация для бумаг'!D7)</f>
         <v>Бекасов Емельян Игоревич</v>
       </c>
@@ -13720,7 +13727,7 @@
         <f>'Информация для бумаг'!I7</f>
         <v>6</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7" s="55">
         <f>'Информация для бумаг'!J7</f>
         <v>89818295984</v>
       </c>
@@ -13732,7 +13739,7 @@
         <f>'Информация для бумаг'!O7</f>
         <v>II-AK 709233</v>
       </c>
-      <c r="H7" s="54" t="str">
+      <c r="H7" s="55" t="str">
         <f>'Информация для бумаг'!L7</f>
         <v>Калачева Мария Анатольевна</v>
       </c>
@@ -13742,10 +13749,10 @@
       </c>
     </row>
     <row r="8" ht="26.4" spans="1:9">
-      <c r="A8" s="54">
+      <c r="A8" s="55">
         <v>4</v>
       </c>
-      <c r="B8" s="54" t="str">
+      <c r="B8" s="55" t="str">
         <f>CONCATENATE('Информация для бумаг'!B8," ",'Информация для бумаг'!C8," ",'Информация для бумаг'!D8)</f>
         <v>Белокуров Михаил Сергеевич</v>
       </c>
@@ -13757,7 +13764,7 @@
         <f>'Информация для бумаг'!I8</f>
         <v>10</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E8" s="55">
         <f>'Информация для бумаг'!J8</f>
         <v>89215575265</v>
       </c>
@@ -13769,7 +13776,7 @@
         <f>'Информация для бумаг'!O8</f>
         <v>4019397258</v>
       </c>
-      <c r="H8" s="54" t="str">
+      <c r="H8" s="55" t="str">
         <f>'Информация для бумаг'!L8</f>
         <v>Белокурова Елена Валентиновна</v>
       </c>
@@ -13779,10 +13786,10 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="54">
+      <c r="A9" s="55">
         <v>5</v>
       </c>
-      <c r="B9" s="54" t="str">
+      <c r="B9" s="55" t="str">
         <f>CONCATENATE('Информация для бумаг'!B9," ",'Информация для бумаг'!C9," ",'Информация для бумаг'!D9)</f>
         <v>Бритиков Александр Ильич</v>
       </c>
@@ -13794,7 +13801,7 @@
         <f>'Информация для бумаг'!I9</f>
         <v>7</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="55">
         <f>'Информация для бумаг'!J9</f>
         <v>89291040939</v>
       </c>
@@ -13806,7 +13813,7 @@
         <f>'Информация для бумаг'!O9</f>
         <v>I I-АК 703140</v>
       </c>
-      <c r="H9" s="54" t="str">
+      <c r="H9" s="55" t="str">
         <f>'Информация для бумаг'!L9</f>
         <v>Бритикова Ольга Николаевна</v>
       </c>
@@ -13816,10 +13823,10 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="54">
+      <c r="A10" s="55">
         <v>6</v>
       </c>
-      <c r="B10" s="54" t="str">
+      <c r="B10" s="55" t="str">
         <f>CONCATENATE('Информация для бумаг'!B10," ",'Информация для бумаг'!C10," ",'Информация для бумаг'!D10)</f>
         <v>Евдокимова Алёна Игоревна</v>
       </c>
@@ -13831,7 +13838,7 @@
         <f>'Информация для бумаг'!I10</f>
         <v>11</v>
       </c>
-      <c r="E10" s="54">
+      <c r="E10" s="55">
         <f>'Информация для бумаг'!J10</f>
         <v>89818346175</v>
       </c>
@@ -13843,7 +13850,7 @@
         <f>'Информация для бумаг'!O10</f>
         <v>4018085917</v>
       </c>
-      <c r="H10" s="54" t="str">
+      <c r="H10" s="55" t="str">
         <f>'Информация для бумаг'!L10</f>
         <v>Пасько Ольга Владимировна</v>
       </c>
@@ -13853,10 +13860,10 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="54">
+      <c r="A11" s="55">
         <v>7</v>
       </c>
-      <c r="B11" s="54" t="str">
+      <c r="B11" s="55" t="str">
         <f>CONCATENATE('Информация для бумаг'!B11," ",'Информация для бумаг'!C11," ",'Информация для бумаг'!D11)</f>
         <v>Ершова Татьяна Алексеевна</v>
       </c>
@@ -13868,7 +13875,7 @@
         <f>'Информация для бумаг'!I11</f>
         <v>8</v>
       </c>
-      <c r="E11" s="54">
+      <c r="E11" s="55">
         <f>'Информация для бумаг'!J11</f>
         <v>89213354865</v>
       </c>
@@ -13880,7 +13887,7 @@
         <f>'Информация для бумаг'!O11</f>
         <v>4020831130</v>
       </c>
-      <c r="H11" s="54" t="str">
+      <c r="H11" s="55" t="str">
         <f>'Информация для бумаг'!L11</f>
         <v>Ершова Ирина Алексеевна</v>
       </c>
@@ -13890,10 +13897,10 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="54">
+      <c r="A12" s="55">
         <v>8</v>
       </c>
-      <c r="B12" s="54" t="str">
+      <c r="B12" s="55" t="str">
         <f>CONCATENATE('Информация для бумаг'!B12," ",'Информация для бумаг'!C12," ",'Информация для бумаг'!D12)</f>
         <v>Иванов Тимофей Кириллович</v>
       </c>
@@ -13905,7 +13912,7 @@
         <f>'Информация для бумаг'!I12</f>
         <v>9</v>
       </c>
-      <c r="E12" s="54">
+      <c r="E12" s="55">
         <f>'Информация для бумаг'!J12</f>
         <v>89214136722</v>
       </c>
@@ -13917,7 +13924,7 @@
         <f>'Информация для бумаг'!O12</f>
         <v>4002634542</v>
       </c>
-      <c r="H12" s="54" t="str">
+      <c r="H12" s="55" t="str">
         <f>'Информация для бумаг'!L12</f>
         <v>Иванова Мария Владимировна</v>
       </c>
@@ -13927,10 +13934,10 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="54">
+      <c r="A13" s="55">
         <v>9</v>
       </c>
-      <c r="B13" s="54" t="str">
+      <c r="B13" s="55" t="str">
         <f>CONCATENATE('Информация для бумаг'!B13," ",'Информация для бумаг'!C13," ",'Информация для бумаг'!D13)</f>
         <v>Киселев Вениамин Алексеевич</v>
       </c>
@@ -13942,7 +13949,7 @@
         <f>'Информация для бумаг'!I13</f>
         <v>5</v>
       </c>
-      <c r="E13" s="54">
+      <c r="E13" s="55">
         <f>'Информация для бумаг'!J13</f>
         <v>89219845986</v>
       </c>
@@ -13954,7 +13961,7 @@
         <f>'Информация для бумаг'!O13</f>
         <v>II-AK №798373</v>
       </c>
-      <c r="H13" s="54" t="str">
+      <c r="H13" s="55" t="str">
         <f>'Информация для бумаг'!L13</f>
         <v>Киселева Марина Игоревна</v>
       </c>
@@ -13964,10 +13971,10 @@
       </c>
     </row>
     <row r="14" ht="26.4" spans="1:9">
-      <c r="A14" s="54">
+      <c r="A14" s="55">
         <v>10</v>
       </c>
-      <c r="B14" s="54" t="str">
+      <c r="B14" s="55" t="str">
         <f>CONCATENATE('Информация для бумаг'!B14," ",'Информация для бумаг'!C14," ",'Информация для бумаг'!D14)</f>
         <v>Кудряшов Тимофей Андреевич</v>
       </c>
@@ -13979,7 +13986,7 @@
         <f>'Информация для бумаг'!I14</f>
         <v>11</v>
       </c>
-      <c r="E14" s="54">
+      <c r="E14" s="55">
         <f>'Информация для бумаг'!J14</f>
         <v>89111652301</v>
       </c>
@@ -13991,7 +13998,7 @@
         <f>'Информация для бумаг'!O14</f>
         <v>4018287872</v>
       </c>
-      <c r="H14" s="54" t="str">
+      <c r="H14" s="55" t="str">
         <f>'Информация для бумаг'!L14</f>
         <v>Кудряшов Андрей Николаевич</v>
       </c>
@@ -14001,10 +14008,10 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="54">
+      <c r="A15" s="55">
         <v>11</v>
       </c>
-      <c r="B15" s="54" t="str">
+      <c r="B15" s="55" t="str">
         <f>CONCATENATE('Информация для бумаг'!B15," ",'Информация для бумаг'!C15," ",'Информация для бумаг'!D15)</f>
         <v>Островский Виктор Владиславович</v>
       </c>
@@ -14016,7 +14023,7 @@
         <f>'Информация для бумаг'!I15</f>
         <v>6</v>
       </c>
-      <c r="E15" s="54">
+      <c r="E15" s="55">
         <f>'Информация для бумаг'!J15</f>
         <v>89313127300</v>
       </c>
@@ -14028,7 +14035,7 @@
         <f>'Информация для бумаг'!O15</f>
         <v>II-АК 745451</v>
       </c>
-      <c r="H15" s="54" t="str">
+      <c r="H15" s="55" t="str">
         <f>'Информация для бумаг'!L15</f>
         <v>островская любовь юрьевна</v>
       </c>
@@ -14038,10 +14045,10 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="54">
+      <c r="A16" s="55">
         <v>12</v>
       </c>
-      <c r="B16" s="54" t="str">
+      <c r="B16" s="55" t="str">
         <f>CONCATENATE('Информация для бумаг'!B16," ",'Информация для бумаг'!C16," ",'Информация для бумаг'!D16)</f>
         <v>Попов Василий Владиславович</v>
       </c>
@@ -14053,7 +14060,7 @@
         <f>'Информация для бумаг'!I16</f>
         <v>8</v>
       </c>
-      <c r="E16" s="54">
+      <c r="E16" s="55">
         <f>'Информация для бумаг'!J16</f>
         <v>89610752525</v>
       </c>
@@ -14065,7 +14072,7 @@
         <f>'Информация для бумаг'!O16</f>
         <v>4021966729</v>
       </c>
-      <c r="H16" s="54" t="str">
+      <c r="H16" s="55" t="str">
         <f>'Информация для бумаг'!L16</f>
         <v>Попова Юлия Юрьевна</v>
       </c>
@@ -14075,10 +14082,10 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="54">
+      <c r="A17" s="55">
         <v>13</v>
       </c>
-      <c r="B17" s="54" t="str">
+      <c r="B17" s="55" t="str">
         <f>CONCATENATE('Информация для бумаг'!B17," ",'Информация для бумаг'!C17," ",'Информация для бумаг'!D17)</f>
         <v>Сайчик Мария Владимировна</v>
       </c>
@@ -14090,7 +14097,7 @@
         <f>'Информация для бумаг'!I17</f>
         <v>9</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="55">
         <f>'Информация для бумаг'!J17</f>
         <v>89818723635</v>
       </c>
@@ -14102,7 +14109,7 @@
         <f>'Информация для бумаг'!O17</f>
         <v>4020691039</v>
       </c>
-      <c r="H17" s="54" t="str">
+      <c r="H17" s="55" t="str">
         <f>'Информация для бумаг'!L17</f>
         <v>Сайчик Татьяна Борисовна</v>
       </c>
@@ -14112,10 +14119,10 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="54">
+      <c r="A18" s="55">
         <v>14</v>
       </c>
-      <c r="B18" s="54" t="str">
+      <c r="B18" s="55" t="str">
         <f>CONCATENATE('Информация для бумаг'!B18," ",'Информация для бумаг'!C18," ",'Информация для бумаг'!D18)</f>
         <v>Федорова Ксения Сергеевна</v>
       </c>
@@ -14127,7 +14134,7 @@
         <f>'Информация для бумаг'!I18</f>
         <v>6</v>
       </c>
-      <c r="E18" s="54">
+      <c r="E18" s="55">
         <f>'Информация для бумаг'!J18</f>
         <v>89633411161</v>
       </c>
@@ -14139,7 +14146,7 @@
         <f>'Информация для бумаг'!O18</f>
         <v>II-АК 789060</v>
       </c>
-      <c r="H18" s="54" t="str">
+      <c r="H18" s="55" t="str">
         <f>'Информация для бумаг'!L18</f>
         <v>Федорова Марина Александровна</v>
       </c>
@@ -14149,10 +14156,10 @@
       </c>
     </row>
     <row r="19" ht="39.6" spans="1:9">
-      <c r="A19" s="54">
+      <c r="A19" s="55">
         <v>15</v>
       </c>
-      <c r="B19" s="54" t="str">
+      <c r="B19" s="55" t="str">
         <f>CONCATENATE('Информация для бумаг'!B19," ",'Информация для бумаг'!C19," ",'Информация для бумаг'!D19)</f>
         <v>Шеламова Виктория Сергеевна</v>
       </c>
@@ -14164,7 +14171,7 @@
         <f>'Информация для бумаг'!I19</f>
         <v>7</v>
       </c>
-      <c r="E19" s="54">
+      <c r="E19" s="55">
         <f>'Информация для бумаг'!J19</f>
         <v>89817032760</v>
       </c>
@@ -14176,7 +14183,7 @@
         <f>'Информация для бумаг'!O19</f>
         <v>II-BO № 585040</v>
       </c>
-      <c r="H19" s="54" t="str">
+      <c r="H19" s="55" t="str">
         <f>'Информация для бумаг'!L19</f>
         <v>Шеламова Галина Анатольевна</v>
       </c>
@@ -14186,10 +14193,10 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="54">
+      <c r="A20" s="55">
         <v>16</v>
       </c>
-      <c r="B20" s="54" t="str">
+      <c r="B20" s="55" t="str">
         <f>CONCATENATE('Информация для бумаг'!B20," ",'Информация для бумаг'!C20," ",'Информация для бумаг'!D20)</f>
         <v>Шилонцев Андрей Александрович</v>
       </c>
@@ -14201,7 +14208,7 @@
         <f>'Информация для бумаг'!I20</f>
         <v>0</v>
       </c>
-      <c r="E20" s="54">
+      <c r="E20" s="55">
         <f>'Информация для бумаг'!J20</f>
         <v>89213026506</v>
       </c>
@@ -14213,7 +14220,7 @@
         <f>'Информация для бумаг'!O20</f>
         <v>4020684651</v>
       </c>
-      <c r="H20" s="54" t="str">
+      <c r="H20" s="55" t="str">
         <f>'Информация для бумаг'!L20</f>
         <v>Шилонцева Татьяна Александровна</v>
       </c>
@@ -14223,10 +14230,10 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="54">
+      <c r="A21" s="55">
         <v>17</v>
       </c>
-      <c r="B21" s="54" t="str">
+      <c r="B21" s="55" t="str">
         <f>CONCATENATE('Информация для бумаг'!B21," ",'Информация для бумаг'!C21," ",'Информация для бумаг'!D21)</f>
         <v>Шишкина Анна Андреевна</v>
       </c>
@@ -14238,7 +14245,7 @@
         <f>'Информация для бумаг'!I21</f>
         <v>6</v>
       </c>
-      <c r="E21" s="54">
+      <c r="E21" s="55">
         <f>'Информация для бумаг'!J21</f>
         <v>89819793731</v>
       </c>
@@ -14250,7 +14257,7 @@
         <f>'Информация для бумаг'!O21</f>
         <v>II АК 731804</v>
       </c>
-      <c r="H21" s="54" t="str">
+      <c r="H21" s="55" t="str">
         <f>'Информация для бумаг'!L21</f>
         <v>Шишкина  Ирина Викторовна</v>
       </c>
@@ -14260,10 +14267,10 @@
       </c>
     </row>
     <row r="22" ht="26.4" spans="1:9">
-      <c r="A22" s="54">
+      <c r="A22" s="55">
         <v>18</v>
       </c>
-      <c r="B22" s="54" t="str">
+      <c r="B22" s="55" t="str">
         <f>CONCATENATE('Информация для бумаг'!B22," ",'Информация для бумаг'!C22," ",'Информация для бумаг'!D22)</f>
         <v>Шишкина Алина Денисовна</v>
       </c>
@@ -14275,7 +14282,7 @@
         <f>'Информация для бумаг'!I22</f>
         <v>11</v>
       </c>
-      <c r="E22" s="54">
+      <c r="E22" s="55">
         <f>'Информация для бумаг'!J22</f>
         <v>89312711134</v>
       </c>
@@ -14287,7 +14294,7 @@
         <f>'Информация для бумаг'!O22</f>
         <v>4018029738</v>
       </c>
-      <c r="H22" s="54" t="str">
+      <c r="H22" s="55" t="str">
         <f>'Информация для бумаг'!L22</f>
         <v>Шишкин Денис Витальевич</v>
       </c>
@@ -14297,31 +14304,31 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="64"/>
       <c r="D23" s="64"/>
-      <c r="E23" s="54"/>
+      <c r="E23" s="55"/>
       <c r="F23" s="66"/>
       <c r="G23" s="64"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="52" t="str">
+      <c r="B25" s="53" t="str">
         <f>'Информация для бумаг'!C25</f>
         <v>Хайтов Вадим Михайлович</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="53" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="52" t="str">
+      <c r="B27" s="53" t="str">
         <f>'Информация для бумаг'!C26</f>
         <v>Котельникова Валентина Сергеевна</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="53" t="s">
         <v>517</v>
       </c>
     </row>
@@ -14343,193 +14350,193 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="32.1388888888889" style="52" customWidth="1"/>
-    <col min="2" max="2" width="16.8518518518519" style="52" customWidth="1"/>
-    <col min="3" max="3" width="16.4259259259259" style="52" customWidth="1"/>
-    <col min="4" max="4" width="18.712962962963" style="52" customWidth="1"/>
-    <col min="5" max="5" width="13.1388888888889" style="52" customWidth="1"/>
-    <col min="6" max="6" width="11.1388888888889" style="52" customWidth="1"/>
-    <col min="7" max="7" width="16.5740740740741" style="52" customWidth="1"/>
-    <col min="8" max="8" width="19.287037037037" style="52" customWidth="1"/>
-    <col min="9" max="16384" width="8" style="52"/>
+    <col min="1" max="1" width="32.1388888888889" style="53" customWidth="1"/>
+    <col min="2" max="2" width="16.8518518518519" style="53" customWidth="1"/>
+    <col min="3" max="3" width="16.4259259259259" style="53" customWidth="1"/>
+    <col min="4" max="4" width="18.712962962963" style="53" customWidth="1"/>
+    <col min="5" max="5" width="13.1388888888889" style="53" customWidth="1"/>
+    <col min="6" max="6" width="11.1388888888889" style="53" customWidth="1"/>
+    <col min="7" max="7" width="16.5740740740741" style="53" customWidth="1"/>
+    <col min="8" max="8" width="19.287037037037" style="53" customWidth="1"/>
+    <col min="9" max="16384" width="8" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="2" ht="82.5" customHeight="1" spans="1:8">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>513</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>304</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="56" t="s">
         <v>519</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="56" t="s">
         <v>520</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="56" t="s">
         <v>305</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="56" t="s">
         <v>521</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="54"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="54"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="55"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="54"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="54"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="55"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="54"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="54"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="55"/>
     </row>
     <row r="6" ht="14.4" spans="1:8">
-      <c r="A6" s="54"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="54"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="55"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="54"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="54"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="55"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="54"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="54"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="55"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="54"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="54"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="55"/>
     </row>
     <row r="10" ht="14.4" spans="1:8">
-      <c r="A10" s="54"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="54"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="55"/>
     </row>
     <row r="11" ht="14.4" spans="1:8">
-      <c r="A11" s="54"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="54"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="55"/>
     </row>
     <row r="12" ht="14.4" spans="1:8">
-      <c r="A12" s="54"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="54"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="55"/>
     </row>
     <row r="13" ht="14.4" spans="1:8">
-      <c r="A13" s="54"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="54"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="55"/>
     </row>
     <row r="14" ht="14.4" spans="1:8">
-      <c r="A14" s="54"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="54"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="55"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="54"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="54"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="55"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="54"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="54"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="55"/>
     </row>
     <row r="17" ht="14.4" spans="1:8">
-      <c r="A17" s="54"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="54"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jashera 2022/Jashera 2022.xlsx
+++ b/Jashera 2022/Jashera 2022.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" tabRatio="804" firstSheet="5" activeTab="9"/>
+    <workbookView windowWidth="22368" windowHeight="9264" tabRatio="804" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Список оборудования" sheetId="12" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="682">
   <si>
     <t>ОБОРУДОВАНИЕ</t>
   </si>
@@ -1666,13 +1666,10 @@
     <t>Ведомость документов</t>
   </si>
   <si>
-    <t>Заявление о включении в группу</t>
-  </si>
-  <si>
     <t>Страховка</t>
   </si>
   <si>
-    <t>Род.собрание</t>
+    <t>SYS2165250903</t>
   </si>
   <si>
     <t>Фамилия (ребенка)</t>
@@ -2182,11 +2179,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
     <numFmt numFmtId="176" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy\ h:mm"/>
-    <numFmt numFmtId="181" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="177" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="181" formatCode="dd\.mm\.yyyy\ h:mm"/>
     <numFmt numFmtId="182" formatCode="dd\.mm\.yyyy;@"/>
     <numFmt numFmtId="183" formatCode="dd\.mmm"/>
     <numFmt numFmtId="184" formatCode="[$-419]d\ mm\ yyyy;@"/>
@@ -2407,7 +2404,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2421,18 +2426,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2453,22 +2451,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2484,14 +2482,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2515,7 +2505,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2525,6 +2515,13 @@
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2567,7 +2564,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2579,7 +2576,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2597,19 +2672,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2621,127 +2738,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2922,6 +2919,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2938,11 +2950,29 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2965,8 +2995,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2985,95 +3015,62 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3082,100 +3079,100 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="29" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="30" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="18" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3184,16 +3181,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3201,11 +3198,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -3214,7 +3211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -3223,7 +3220,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3232,7 +3229,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3244,7 +3241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3262,7 +3259,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3272,16 +3269,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -3295,7 +3287,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
@@ -3310,16 +3302,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3348,7 +3330,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3394,7 +3376,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3406,7 +3388,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="185" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3425,7 +3407,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3536,8 +3518,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="25" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -4032,601 +4014,601 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85185185185185" defaultRowHeight="13.2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="4.13888888888889" style="178" customWidth="1"/>
-    <col min="2" max="2" width="29" style="178" customWidth="1"/>
-    <col min="3" max="3" width="14.712962962963" style="178" customWidth="1"/>
-    <col min="4" max="4" width="10.4259259259259" style="178" customWidth="1"/>
-    <col min="5" max="5" width="17.8518518518519" style="178" customWidth="1"/>
-    <col min="6" max="6" width="7.85185185185185" style="178" customWidth="1"/>
-    <col min="7" max="16384" width="7.85185185185185" style="178"/>
+    <col min="1" max="1" width="4.13888888888889" style="171" customWidth="1"/>
+    <col min="2" max="2" width="29" style="171" customWidth="1"/>
+    <col min="3" max="3" width="14.712962962963" style="171" customWidth="1"/>
+    <col min="4" max="4" width="10.4259259259259" style="171" customWidth="1"/>
+    <col min="5" max="5" width="17.8518518518519" style="171" customWidth="1"/>
+    <col min="6" max="6" width="7.85185185185185" style="171" customWidth="1"/>
+    <col min="7" max="16384" width="7.85185185185185" style="171"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="179"/>
-      <c r="B1" s="180" t="s">
+      <c r="A1" s="172"/>
+      <c r="B1" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="180" t="s">
+      <c r="D1" s="173" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="179"/>
-      <c r="B2" s="181" t="s">
+      <c r="A2" s="172"/>
+      <c r="B2" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="182"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="183" t="s">
+      <c r="C2" s="175"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="176" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="181" t="s">
+      <c r="B3" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="182"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180" t="s">
+      <c r="C3" s="175"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="178">
+      <c r="F3" s="171">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="184" t="s">
+      <c r="B4" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="182"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="180" t="s">
+      <c r="C4" s="175"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="178">
+      <c r="F4" s="171">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="181" t="s">
+      <c r="B5" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="182"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="180" t="s">
+      <c r="C5" s="175"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="173" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="178">
+      <c r="F5" s="171">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="181" t="s">
+      <c r="B6" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="182"/>
-      <c r="E6" s="180" t="s">
+      <c r="C6" s="175"/>
+      <c r="E6" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="178">
+      <c r="F6" s="171">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="181" t="s">
+      <c r="B7" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="182"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="180" t="s">
+      <c r="C7" s="175"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="173" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="178">
+      <c r="F7" s="171">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="181" t="s">
+      <c r="B8" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="182"/>
-      <c r="D8" s="180"/>
-      <c r="E8" s="178" t="s">
+      <c r="C8" s="175"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="178">
+      <c r="F8" s="171">
         <v>3</v>
       </c>
     </row>
     <row r="9" ht="13.9" customHeight="1" spans="2:6">
-      <c r="B9" s="181" t="s">
+      <c r="B9" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="182"/>
-      <c r="D9" s="180"/>
-      <c r="E9" s="178" t="s">
+      <c r="C9" s="175"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="178">
+      <c r="F9" s="171">
         <v>4</v>
       </c>
     </row>
     <row r="10" ht="13.9" customHeight="1" spans="2:6">
-      <c r="B10" s="184" t="s">
+      <c r="B10" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="182"/>
-      <c r="E10" s="178" t="s">
+      <c r="C10" s="175"/>
+      <c r="E10" s="171" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="178">
+      <c r="F10" s="171">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="181" t="s">
+      <c r="B11" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="182"/>
-      <c r="D11" s="180"/>
+      <c r="C11" s="175"/>
+      <c r="D11" s="173"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="181" t="s">
+      <c r="B12" s="174" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="182"/>
-      <c r="E12" s="185" t="s">
+      <c r="C12" s="175"/>
+      <c r="E12" s="178" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="181" t="s">
+      <c r="B13" s="174" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="182"/>
-      <c r="E13" s="178" t="s">
+      <c r="C13" s="175"/>
+      <c r="E13" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="178">
+      <c r="F13" s="171">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="181" t="s">
+      <c r="B14" s="174" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="182"/>
+      <c r="C14" s="175"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="181" t="s">
+      <c r="B15" s="174" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="182"/>
-      <c r="E15" s="180" t="s">
+      <c r="C15" s="175"/>
+      <c r="E15" s="173" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="178" t="s">
+      <c r="F15" s="171" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="181" t="s">
+      <c r="B16" s="174" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="182"/>
+      <c r="C16" s="175"/>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="181" t="s">
+      <c r="B17" s="174" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="182"/>
+      <c r="C17" s="175"/>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="181" t="s">
+      <c r="B18" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="182"/>
+      <c r="C18" s="175"/>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="181" t="s">
+      <c r="B19" s="174" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="182"/>
+      <c r="C19" s="175"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="186"/>
-      <c r="B20" s="181" t="s">
+      <c r="A20" s="179"/>
+      <c r="B20" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="182"/>
+      <c r="C20" s="175"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="186"/>
-      <c r="B21" s="181" t="s">
+      <c r="A21" s="179"/>
+      <c r="B21" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="182"/>
+      <c r="C21" s="175"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="186"/>
-      <c r="B22" s="181" t="s">
+      <c r="A22" s="179"/>
+      <c r="B22" s="174" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="182"/>
+      <c r="C22" s="175"/>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="181" t="s">
+      <c r="B23" s="174" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="182"/>
+      <c r="C23" s="175"/>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="181" t="s">
+      <c r="B24" s="174" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="182"/>
+      <c r="C24" s="175"/>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="181" t="s">
+      <c r="B25" s="174" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="182"/>
+      <c r="C25" s="175"/>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="181" t="s">
+      <c r="B26" s="174" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="182"/>
+      <c r="C26" s="175"/>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="181" t="s">
+      <c r="B27" s="174" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="182"/>
+      <c r="C27" s="175"/>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="181" t="s">
+      <c r="B28" s="174" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="182"/>
+      <c r="C28" s="175"/>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="181" t="s">
+      <c r="B29" s="174" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="182"/>
+      <c r="C29" s="175"/>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="182" t="s">
+      <c r="B30" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="182"/>
+      <c r="C30" s="175"/>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="181" t="s">
+      <c r="B31" s="174" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="182"/>
+      <c r="C31" s="175"/>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" s="181" t="s">
+      <c r="B32" s="174" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="182"/>
+      <c r="C32" s="175"/>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="181" t="s">
+      <c r="B33" s="174" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="182"/>
+      <c r="C33" s="175"/>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="181" t="s">
+      <c r="B34" s="174" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="182"/>
+      <c r="C34" s="175"/>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="181" t="s">
+      <c r="B35" s="174" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="182"/>
+      <c r="C35" s="175"/>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="184" t="s">
+      <c r="B36" s="177" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="182"/>
+      <c r="C36" s="175"/>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="181" t="s">
+      <c r="B37" s="174" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="182"/>
+      <c r="C37" s="175"/>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="181" t="s">
+      <c r="B38" s="174" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="182"/>
+      <c r="C38" s="175"/>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="181" t="s">
+      <c r="B39" s="174" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="182"/>
+      <c r="C39" s="175"/>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="181" t="s">
+      <c r="B40" s="174" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="182"/>
+      <c r="C40" s="175"/>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="181" t="s">
+      <c r="B41" s="174" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="182"/>
+      <c r="C41" s="175"/>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="181" t="s">
+      <c r="B42" s="174" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="182"/>
+      <c r="C42" s="175"/>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="181" t="s">
+      <c r="B43" s="174" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="182"/>
+      <c r="C43" s="175"/>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="181" t="s">
+      <c r="B44" s="174" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="182"/>
+      <c r="C44" s="175"/>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="181" t="s">
+      <c r="B45" s="174" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="182"/>
+      <c r="C45" s="175"/>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="181" t="s">
+      <c r="B46" s="174" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="182"/>
+      <c r="C46" s="175"/>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="181" t="s">
+      <c r="B47" s="174" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="182"/>
+      <c r="C47" s="175"/>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="181" t="s">
+      <c r="B48" s="174" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="182"/>
+      <c r="C48" s="175"/>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="184" t="s">
+      <c r="B49" s="177" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="182"/>
+      <c r="C49" s="175"/>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="181" t="s">
+      <c r="B50" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="182"/>
+      <c r="C50" s="175"/>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="181" t="s">
+      <c r="B51" s="174" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="182"/>
+      <c r="C51" s="175"/>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="181" t="s">
+      <c r="B52" s="174" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="182"/>
+      <c r="C52" s="175"/>
     </row>
     <row r="53" spans="2:3">
-      <c r="B53" s="187" t="s">
+      <c r="B53" s="180" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="182"/>
+      <c r="C53" s="175"/>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="181" t="s">
+      <c r="B54" s="174" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="182"/>
+      <c r="C54" s="175"/>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="181" t="s">
+      <c r="B55" s="174" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="182"/>
+      <c r="C55" s="175"/>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="181" t="s">
+      <c r="B56" s="174" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="182"/>
+      <c r="C56" s="175"/>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="181" t="s">
+      <c r="B57" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="182"/>
+      <c r="C57" s="175"/>
     </row>
     <row r="58" spans="2:3">
-      <c r="B58" s="181" t="s">
+      <c r="B58" s="174" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="182"/>
+      <c r="C58" s="175"/>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="182" t="s">
+      <c r="B59" s="175" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="182"/>
+      <c r="C59" s="175"/>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="181" t="s">
+      <c r="B60" s="174" t="s">
         <v>72</v>
       </c>
-      <c r="C60" s="182"/>
+      <c r="C60" s="175"/>
     </row>
     <row r="61" spans="2:3">
-      <c r="B61" s="181" t="s">
+      <c r="B61" s="174" t="s">
         <v>73</v>
       </c>
-      <c r="C61" s="182"/>
+      <c r="C61" s="175"/>
     </row>
     <row r="62" spans="2:3">
-      <c r="B62" s="181" t="s">
+      <c r="B62" s="174" t="s">
         <v>74</v>
       </c>
-      <c r="C62" s="182"/>
+      <c r="C62" s="175"/>
     </row>
     <row r="63" spans="2:3">
-      <c r="B63" s="181" t="s">
+      <c r="B63" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="C63" s="182"/>
+      <c r="C63" s="175"/>
     </row>
     <row r="64" spans="2:3">
-      <c r="B64" s="181" t="s">
+      <c r="B64" s="174" t="s">
         <v>76</v>
       </c>
-      <c r="C64" s="182"/>
+      <c r="C64" s="175"/>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="181" t="s">
+      <c r="B65" s="174" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="182"/>
+      <c r="C65" s="175"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="181" t="s">
+      <c r="B66" s="174" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="182"/>
+      <c r="C66" s="175"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="182" t="s">
+      <c r="B67" s="175" t="s">
         <v>79</v>
       </c>
-      <c r="C67" s="182"/>
+      <c r="C67" s="175"/>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="181" t="s">
+      <c r="B68" s="174" t="s">
         <v>80</v>
       </c>
-      <c r="C68" s="182"/>
+      <c r="C68" s="175"/>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="181" t="s">
+      <c r="B69" s="174" t="s">
         <v>81</v>
       </c>
-      <c r="C69" s="182"/>
+      <c r="C69" s="175"/>
     </row>
     <row r="70" spans="2:3">
-      <c r="B70" s="181" t="s">
+      <c r="B70" s="174" t="s">
         <v>82</v>
       </c>
-      <c r="C70" s="182"/>
+      <c r="C70" s="175"/>
     </row>
     <row r="71" spans="2:3">
-      <c r="B71" s="181" t="s">
+      <c r="B71" s="174" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="182"/>
+      <c r="C71" s="175"/>
     </row>
     <row r="72" spans="2:3">
-      <c r="B72" s="181" t="s">
+      <c r="B72" s="174" t="s">
         <v>84</v>
       </c>
-      <c r="C72" s="182"/>
+      <c r="C72" s="175"/>
     </row>
     <row r="73" spans="2:3">
-      <c r="B73" s="181" t="s">
+      <c r="B73" s="174" t="s">
         <v>85</v>
       </c>
-      <c r="C73" s="182"/>
+      <c r="C73" s="175"/>
     </row>
     <row r="74" spans="2:3">
-      <c r="B74" s="181" t="s">
+      <c r="B74" s="174" t="s">
         <v>86</v>
       </c>
-      <c r="C74" s="182"/>
+      <c r="C74" s="175"/>
     </row>
     <row r="75" spans="2:3">
-      <c r="B75" s="181" t="s">
+      <c r="B75" s="174" t="s">
         <v>87</v>
       </c>
-      <c r="C75" s="182"/>
+      <c r="C75" s="175"/>
     </row>
     <row r="76" spans="2:3">
-      <c r="B76" s="181" t="s">
+      <c r="B76" s="174" t="s">
         <v>88</v>
       </c>
-      <c r="C76" s="182"/>
+      <c r="C76" s="175"/>
     </row>
     <row r="77" spans="2:3">
-      <c r="B77" s="184" t="s">
+      <c r="B77" s="177" t="s">
         <v>89</v>
       </c>
-      <c r="C77" s="182"/>
+      <c r="C77" s="175"/>
     </row>
     <row r="78" spans="2:3">
-      <c r="B78" s="182" t="s">
+      <c r="B78" s="175" t="s">
         <v>90</v>
       </c>
-      <c r="C78" s="182"/>
+      <c r="C78" s="175"/>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="183" t="s">
+      <c r="B80" s="176" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="178" t="s">
+      <c r="B81" s="171" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="178" t="s">
+      <c r="B82" s="171" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="178" t="s">
+      <c r="B83" s="171" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="178" t="s">
+      <c r="B84" s="171" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="178" t="s">
+      <c r="B85" s="171" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="178" t="s">
+      <c r="B86" s="171" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="178" t="s">
+      <c r="B87" s="171" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4642,7 +4624,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
@@ -4681,16 +4663,16 @@
   <sheetData>
     <row r="1" spans="2:32">
       <c r="B1" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>524</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>525</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>304</v>
@@ -4699,19 +4681,19 @@
         <v>305</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>529</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>530</v>
       </c>
       <c r="M1" s="10" t="s">
         <v>449</v>
@@ -4720,43 +4702,43 @@
         <v>308</v>
       </c>
       <c r="O1" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="P1" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>536</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="W1" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="X1" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="Y1" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="AA1" s="10" t="s">
         <v>542</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>543</v>
       </c>
       <c r="AB1" s="10"/>
       <c r="AC1" s="10"/>
@@ -4808,7 +4790,7 @@
         <v>322</v>
       </c>
       <c r="R2" s="25" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S2" s="5">
         <v>4018281460</v>
@@ -4817,16 +4799,16 @@
         <v>316</v>
       </c>
       <c r="V2" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="W2" s="6" t="s">
         <v>545</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>546</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>321</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AD2" s="25" t="str">
         <f>CONCATENATE(U2," ",V2," ",W2)</f>
@@ -4877,28 +4859,28 @@
         <v>39367</v>
       </c>
       <c r="R3" s="25" t="s">
-        <v>544</v>
-      </c>
-      <c r="S3" s="45">
+        <v>543</v>
+      </c>
+      <c r="S3" s="42">
         <v>4022050606</v>
       </c>
-      <c r="T3" s="46"/>
+      <c r="T3" s="43"/>
       <c r="U3" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="V3" s="3" t="s">
         <v>383</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="X3" s="8">
         <v>89052006465</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="Z3" s="46"/>
+        <v>549</v>
+      </c>
+      <c r="Z3" s="43"/>
       <c r="AA3" s="37"/>
       <c r="AB3" s="37"/>
       <c r="AC3" s="37"/>
@@ -4928,10 +4910,10 @@
       <c r="G4" s="6">
         <v>5</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="6">
         <v>16</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="6">
         <v>13</v>
       </c>
       <c r="J4" s="37"/>
@@ -4953,28 +4935,28 @@
         <v>39857</v>
       </c>
       <c r="R4" s="25" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="S4" s="10" t="s">
         <v>334</v>
       </c>
       <c r="T4" s="10"/>
       <c r="U4" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V4" s="10" t="s">
         <v>383</v>
       </c>
       <c r="W4" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="X4" s="10" t="s">
         <v>553</v>
-      </c>
-      <c r="X4" s="10" t="s">
-        <v>554</v>
       </c>
       <c r="Y4" s="15"/>
       <c r="Z4" s="10"/>
       <c r="AA4" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AB4" s="10"/>
       <c r="AC4" s="10"/>
@@ -5004,7 +4986,7 @@
       <c r="G5" s="6">
         <v>8</v>
       </c>
-      <c r="H5" s="39"/>
+      <c r="H5" s="38"/>
       <c r="I5" s="37">
         <v>14</v>
       </c>
@@ -5027,26 +5009,26 @@
         <v>38553</v>
       </c>
       <c r="R5" s="25" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S5" s="5">
         <v>4019397258</v>
       </c>
       <c r="T5" s="10"/>
       <c r="U5" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="V5" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="V5" s="6" t="s">
+      <c r="W5" s="6" t="s">
         <v>557</v>
-      </c>
-      <c r="W5" s="6" t="s">
-        <v>558</v>
       </c>
       <c r="X5" s="5">
         <v>89213205528</v>
       </c>
       <c r="Y5" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="Z5" s="10"/>
       <c r="AA5" s="10"/>
@@ -5103,32 +5085,32 @@
         <v>39849</v>
       </c>
       <c r="R6" s="25" t="s">
-        <v>551</v>
-      </c>
-      <c r="S6" s="47" t="s">
+        <v>550</v>
+      </c>
+      <c r="S6" s="44" t="s">
         <v>345</v>
       </c>
       <c r="T6" s="10"/>
       <c r="U6" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="V6" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="V6" s="6" t="s">
+      <c r="W6" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="W6" s="6" t="s">
+      <c r="X6" s="45" t="s">
         <v>562</v>
       </c>
-      <c r="X6" s="48" t="s">
+      <c r="Y6" s="31" t="s">
         <v>563</v>
       </c>
-      <c r="Y6" s="31" t="s">
+      <c r="Z6" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="Z6" s="6" t="s">
+      <c r="AA6" s="6" t="s">
         <v>565</v>
-      </c>
-      <c r="AA6" s="6" t="s">
-        <v>566</v>
       </c>
       <c r="AB6" s="10"/>
       <c r="AC6" s="10"/>
@@ -5157,10 +5139,10 @@
       <c r="H7" s="6">
         <v>3</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="39"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="38"/>
       <c r="K7" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="6">
@@ -5173,35 +5155,35 @@
         <v>89112625350</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="Q7" s="12">
         <v>39462</v>
       </c>
       <c r="R7" s="25" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="S7" s="6" t="s">
         <v>425</v>
       </c>
       <c r="T7" s="10"/>
       <c r="U7" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="V7" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="V7" s="6" t="s">
+      <c r="W7" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="W7" s="6" t="s">
+      <c r="X7" s="45" t="s">
         <v>571</v>
       </c>
-      <c r="X7" s="48" t="s">
+      <c r="Y7" s="31" t="s">
+        <v>563</v>
+      </c>
+      <c r="Z7" s="6" t="s">
         <v>572</v>
-      </c>
-      <c r="Y7" s="31" t="s">
-        <v>564</v>
-      </c>
-      <c r="Z7" s="6" t="s">
-        <v>573</v>
       </c>
       <c r="AA7" s="31"/>
       <c r="AB7" s="10"/>
@@ -5229,8 +5211,8 @@
       <c r="G8" s="6">
         <v>7</v>
       </c>
-      <c r="H8" s="39"/>
-      <c r="I8" s="38">
+      <c r="H8" s="38"/>
+      <c r="I8" s="6">
         <v>12</v>
       </c>
       <c r="J8" s="37"/>
@@ -5252,17 +5234,17 @@
         <v>38137</v>
       </c>
       <c r="R8" s="25" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S8" s="5">
         <v>4018085917</v>
       </c>
       <c r="T8" s="10"/>
       <c r="U8" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="V8" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="W8" s="6" t="s">
         <v>384</v>
@@ -5304,7 +5286,7 @@
       <c r="H9" s="6">
         <v>8</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="6">
         <v>6</v>
       </c>
       <c r="J9" s="37"/>
@@ -5324,7 +5306,7 @@
         <v>39166</v>
       </c>
       <c r="R9" s="25" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S9" s="6">
         <v>4020831130</v>
@@ -5333,7 +5315,7 @@
         <v>351</v>
       </c>
       <c r="V9" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="W9" s="6" t="s">
         <v>353</v>
@@ -5366,7 +5348,7 @@
       <c r="G10" s="20">
         <v>3</v>
       </c>
-      <c r="H10" s="40"/>
+      <c r="H10" s="39"/>
       <c r="I10" s="25">
         <v>16</v>
       </c>
@@ -5387,13 +5369,13 @@
         <v>38917</v>
       </c>
       <c r="R10" s="25" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S10" s="20">
         <v>4002634542</v>
       </c>
       <c r="U10" s="15" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="V10" s="15" t="s">
         <v>383</v>
@@ -5454,31 +5436,31 @@
         <v>40363</v>
       </c>
       <c r="R11" s="25" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="S11" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="T11" s="49" t="s">
+      <c r="T11" s="46" t="s">
+        <v>576</v>
+      </c>
+      <c r="U11" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="U11" s="6" t="s">
+      <c r="V11" s="6" t="s">
         <v>578</v>
-      </c>
-      <c r="V11" s="6" t="s">
-        <v>579</v>
       </c>
       <c r="W11" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="X11" s="48" t="s">
+      <c r="X11" s="45" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y11" s="31" t="s">
+        <v>563</v>
+      </c>
+      <c r="Z11" s="6" t="s">
         <v>580</v>
-      </c>
-      <c r="Y11" s="31" t="s">
-        <v>564</v>
-      </c>
-      <c r="Z11" s="6" t="s">
-        <v>581</v>
       </c>
       <c r="AA11" s="31"/>
       <c r="AB11" s="10"/>
@@ -5509,10 +5491,10 @@
       <c r="G12" s="6">
         <v>10</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="38">
         <v>15</v>
       </c>
-      <c r="I12" s="43">
+      <c r="I12" s="20">
         <v>15</v>
       </c>
       <c r="J12" s="37"/>
@@ -5528,13 +5510,13 @@
         <v>89111652301</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="Q12" s="11">
         <v>38434</v>
       </c>
       <c r="R12" s="25" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S12" s="5">
         <v>4018287872</v>
@@ -5547,13 +5529,13 @@
         <v>317</v>
       </c>
       <c r="W12" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="X12" s="5">
         <v>89817910834</v>
       </c>
       <c r="Y12" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="Z12" s="10"/>
       <c r="AA12" s="10"/>
@@ -5576,17 +5558,17 @@
       <c r="D13" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="6">
         <v>3</v>
       </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41">
+      <c r="G13" s="6"/>
+      <c r="H13" s="6">
         <v>9</v>
       </c>
-      <c r="I13" s="41"/>
+      <c r="I13" s="6"/>
       <c r="J13" s="37"/>
       <c r="K13" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="M13" s="6">
         <v>49</v>
@@ -5598,31 +5580,31 @@
         <v>89259175393</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q13" s="11">
         <v>39581</v>
       </c>
       <c r="R13" s="25" t="s">
-        <v>551</v>
-      </c>
-      <c r="S13" s="50" t="s">
+        <v>550</v>
+      </c>
+      <c r="S13" s="47" t="s">
         <v>430</v>
       </c>
       <c r="U13" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="V13" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="V13" s="6" t="s">
-        <v>587</v>
-      </c>
       <c r="W13" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="X13" s="5">
         <v>89165382822</v>
       </c>
       <c r="Y13" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="14" hidden="1" spans="2:32">
@@ -5636,17 +5618,17 @@
         <v>331</v>
       </c>
       <c r="E14" s="10"/>
-      <c r="F14" s="38">
+      <c r="F14" s="6">
         <v>23</v>
       </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38">
+      <c r="G14" s="6"/>
+      <c r="H14" s="6">
         <v>1</v>
       </c>
-      <c r="I14" s="38"/>
+      <c r="I14" s="6"/>
       <c r="J14" s="37"/>
       <c r="K14" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="6" t="s">
@@ -5665,16 +5647,16 @@
         <v>39916</v>
       </c>
       <c r="R14" s="25" t="s">
-        <v>551</v>
-      </c>
-      <c r="S14" s="51" t="s">
+        <v>550</v>
+      </c>
+      <c r="S14" s="48" t="s">
         <v>435</v>
       </c>
       <c r="T14" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="U14" s="6" t="s">
         <v>589</v>
-      </c>
-      <c r="U14" s="6" t="s">
-        <v>590</v>
       </c>
       <c r="V14" s="6" t="s">
         <v>388</v>
@@ -5682,17 +5664,17 @@
       <c r="W14" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="X14" s="48">
+      <c r="X14" s="45">
         <v>79213290657</v>
       </c>
       <c r="Y14" s="31" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="Z14" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA14" s="6" t="s">
         <v>591</v>
-      </c>
-      <c r="AA14" s="6" t="s">
-        <v>592</v>
       </c>
       <c r="AB14" s="10"/>
       <c r="AC14" s="10"/>
@@ -5713,7 +5695,7 @@
       <c r="F15" s="15">
         <v>19</v>
       </c>
-      <c r="G15" s="40"/>
+      <c r="G15" s="39"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="14">
@@ -5725,7 +5707,7 @@
       <c r="N15" s="15">
         <v>8</v>
       </c>
-      <c r="O15" s="44">
+      <c r="O15" s="41">
         <v>89219583612</v>
       </c>
       <c r="P15" s="18" t="s">
@@ -5735,16 +5717,16 @@
         <v>38933</v>
       </c>
       <c r="R15" s="25" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S15" s="10">
         <v>4020668443</v>
       </c>
       <c r="U15" s="18" t="s">
+        <v>592</v>
+      </c>
+      <c r="V15" s="18" t="s">
         <v>593</v>
-      </c>
-      <c r="V15" s="18" t="s">
-        <v>594</v>
       </c>
       <c r="W15" s="18" t="s">
         <v>405</v>
@@ -5792,32 +5774,32 @@
         <v>89313127300</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="Q16" s="11">
         <v>40070</v>
       </c>
       <c r="R16" s="25" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="S16" s="6" t="s">
         <v>377</v>
       </c>
       <c r="T16" s="10"/>
       <c r="U16" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="V16" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="V16" s="6" t="s">
+      <c r="W16" s="6" t="s">
         <v>597</v>
-      </c>
-      <c r="W16" s="6" t="s">
-        <v>598</v>
       </c>
       <c r="X16" s="5">
         <v>89213409406</v>
       </c>
       <c r="Y16" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="Z16" s="10"/>
       <c r="AA16" s="10"/>
@@ -5872,25 +5854,25 @@
         <v>39331</v>
       </c>
       <c r="R17" s="25" t="s">
-        <v>544</v>
-      </c>
-      <c r="S17" s="50">
+        <v>543</v>
+      </c>
+      <c r="S17" s="47">
         <v>4021966729</v>
       </c>
       <c r="U17" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="W17" s="6" t="s">
         <v>599</v>
-      </c>
-      <c r="V17" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="W17" s="6" t="s">
-        <v>600</v>
       </c>
       <c r="X17" s="5">
         <v>89610717771</v>
       </c>
       <c r="Y17" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AD17" s="25" t="str">
         <f>CONCATENATE(U17," ",V17," ",W17)</f>
@@ -5939,7 +5921,7 @@
         <v>38982</v>
       </c>
       <c r="R18" s="25" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S18" s="15">
         <v>4020691039</v>
@@ -5951,7 +5933,7 @@
         <v>352</v>
       </c>
       <c r="W18" s="20" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="X18" s="20">
         <v>9818417041</v>
@@ -5977,11 +5959,11 @@
         <v>15</v>
       </c>
       <c r="G19" s="6"/>
-      <c r="H19" s="39"/>
+      <c r="H19" s="38"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="39"/>
+      <c r="J19" s="38"/>
       <c r="K19" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L19" s="10"/>
       <c r="M19" s="6">
@@ -5994,37 +5976,37 @@
         <v>89200043637</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="Q19" s="12">
         <v>39810</v>
       </c>
       <c r="R19" s="25" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="S19" s="6" t="s">
         <v>443</v>
       </c>
       <c r="T19" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="U19" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="U19" s="6" t="s">
+      <c r="V19" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="V19" s="6" t="s">
+      <c r="W19" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="W19" s="6" t="s">
+      <c r="X19" s="45" t="s">
         <v>608</v>
       </c>
-      <c r="X19" s="48" t="s">
+      <c r="Y19" s="31" t="s">
+        <v>563</v>
+      </c>
+      <c r="Z19" s="6" t="s">
         <v>609</v>
-      </c>
-      <c r="Y19" s="31" t="s">
-        <v>564</v>
-      </c>
-      <c r="Z19" s="6" t="s">
-        <v>610</v>
       </c>
       <c r="AA19" s="31"/>
       <c r="AB19" s="10"/>
@@ -6052,8 +6034,8 @@
       <c r="G20" s="6">
         <v>1</v>
       </c>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
       <c r="J20" s="37"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
@@ -6073,7 +6055,7 @@
         <v>40195</v>
       </c>
       <c r="R20" s="25" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="S20" s="6" t="s">
         <v>392</v>
@@ -6083,16 +6065,16 @@
         <v>387</v>
       </c>
       <c r="V20" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="W20" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="X20" s="5">
         <v>89657737525</v>
       </c>
       <c r="Y20" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="Z20" s="10"/>
       <c r="AA20" s="10"/>
@@ -6143,40 +6125,40 @@
         <v>89817032760</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="Q21" s="12">
         <v>39529</v>
       </c>
       <c r="R21" s="25" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="S21" s="6" t="s">
         <v>398</v>
       </c>
       <c r="T21" s="10" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="U21" s="6" t="s">
         <v>393</v>
       </c>
       <c r="V21" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="W21" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="X21" s="45" t="s">
         <v>615</v>
       </c>
-      <c r="W21" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="X21" s="48" t="s">
+      <c r="Y21" s="31" t="s">
+        <v>563</v>
+      </c>
+      <c r="Z21" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="Y21" s="31" t="s">
-        <v>564</v>
-      </c>
-      <c r="Z21" s="6" t="s">
+      <c r="AA21" s="6" t="s">
         <v>617</v>
-      </c>
-      <c r="AA21" s="6" t="s">
-        <v>618</v>
       </c>
       <c r="AB21" s="10"/>
       <c r="AC21" s="10"/>
@@ -6206,8 +6188,8 @@
       <c r="G22" s="24">
         <v>2</v>
       </c>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
       <c r="J22" s="37"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
@@ -6223,23 +6205,23 @@
         <v>38989</v>
       </c>
       <c r="R22" s="25" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S22" s="8">
         <v>4020684651</v>
       </c>
       <c r="T22" s="10"/>
       <c r="U22" s="24" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="V22" s="24" t="s">
         <v>352</v>
       </c>
       <c r="W22" s="24" t="s">
-        <v>611</v>
-      </c>
-      <c r="X22" s="52" t="s">
-        <v>620</v>
+        <v>610</v>
+      </c>
+      <c r="X22" s="49" t="s">
+        <v>619</v>
       </c>
       <c r="Y22" s="15"/>
       <c r="Z22" s="10"/>
@@ -6247,7 +6229,7 @@
       <c r="AB22" s="10"/>
       <c r="AC22" s="10"/>
       <c r="AD22" s="25" t="str">
-        <f>CONCATENATE(U22," ",V22," ",W22)</f>
+        <f t="shared" si="0"/>
         <v>Шилонцева Татьяна Александровна</v>
       </c>
       <c r="AE22" s="10"/>
@@ -6297,34 +6279,34 @@
         <v>39987</v>
       </c>
       <c r="R23" s="25" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="S23" s="6" t="s">
         <v>408</v>
       </c>
       <c r="T23" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="U23" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="U23" s="6" t="s">
+      <c r="V23" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="W23" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="V23" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="W23" s="6" t="s">
+      <c r="X23" s="45" t="s">
         <v>623</v>
       </c>
-      <c r="X23" s="48" t="s">
+      <c r="Y23" s="31" t="s">
+        <v>563</v>
+      </c>
+      <c r="Z23" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="Y23" s="31" t="s">
-        <v>564</v>
-      </c>
-      <c r="Z23" s="6" t="s">
-        <v>625</v>
-      </c>
       <c r="AA23" s="6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AB23" s="10"/>
       <c r="AC23" s="10"/>
@@ -6377,25 +6359,25 @@
         <v>38070</v>
       </c>
       <c r="R24" s="25" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S24" s="5">
         <v>4018029738</v>
       </c>
       <c r="U24" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="V24" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="V24" s="6" t="s">
+      <c r="W24" s="6" t="s">
         <v>627</v>
-      </c>
-      <c r="W24" s="6" t="s">
-        <v>628</v>
       </c>
       <c r="X24" s="5">
         <v>89218717677</v>
       </c>
       <c r="Y24" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AD24" s="25" t="str">
         <f t="shared" si="0"/>
@@ -6429,13 +6411,13 @@
     </row>
     <row r="26" spans="2:30">
       <c r="B26" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>631</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>632</v>
       </c>
       <c r="F26" s="6">
         <v>1</v>
@@ -6447,7 +6429,7 @@
       <c r="I26" s="6"/>
       <c r="J26" s="37"/>
       <c r="M26" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="N26" s="24">
         <v>7</v>
@@ -6456,19 +6438,19 @@
         <v>89111291746</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="Q26" s="11">
         <v>39606</v>
       </c>
       <c r="S26" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="U26" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="V26" s="6" t="s">
         <v>635</v>
-      </c>
-      <c r="U26" s="6" t="s">
-        <v>630</v>
-      </c>
-      <c r="V26" s="6" t="s">
-        <v>636</v>
       </c>
       <c r="W26" s="6" t="s">
         <v>331</v>
@@ -6477,7 +6459,7 @@
         <v>79119331333</v>
       </c>
       <c r="Y26" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AD26" s="25" t="str">
         <f t="shared" si="0"/>
@@ -6486,13 +6468,13 @@
     </row>
     <row r="27" spans="2:30">
       <c r="B27" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>639</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>640</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -6506,31 +6488,31 @@
         <v>7</v>
       </c>
       <c r="O27" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="P27" s="6" t="s">
         <v>641</v>
-      </c>
-      <c r="P27" s="6" t="s">
-        <v>642</v>
       </c>
       <c r="Q27" s="11">
         <v>39485</v>
       </c>
       <c r="S27" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="U27" s="6" t="s">
         <v>643</v>
-      </c>
-      <c r="U27" s="6" t="s">
-        <v>644</v>
       </c>
       <c r="V27" s="6" t="s">
         <v>336</v>
       </c>
       <c r="W27" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="X27" s="5">
         <v>89213132221</v>
       </c>
       <c r="Y27" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AD27" s="25" t="str">
         <f t="shared" si="0"/>
@@ -6540,9 +6522,9 @@
   </sheetData>
   <autoFilter ref="A1:Y24">
     <filterColumn colId="4">
-      <filters>
-        <filter val="1"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="equal" val="1"/>
+      </customFilters>
     </filterColumn>
     <extLst/>
   </autoFilter>
@@ -6585,13 +6567,13 @@
         <v>303</v>
       </c>
       <c r="D1" s="30" t="s">
+        <v>645</v>
+      </c>
+      <c r="E1" s="30" t="s">
         <v>646</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="F1" s="30" t="s">
         <v>647</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6608,7 +6590,7 @@
         <v>322</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F2" s="5">
         <v>4018281460</v>
@@ -6628,7 +6610,7 @@
         <v>39367</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F3" s="6">
         <v>4022050606</v>
@@ -6648,7 +6630,7 @@
         <v>39857</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>334</v>
@@ -6668,7 +6650,7 @@
         <v>38553</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F5" s="5">
         <v>4019397258</v>
@@ -6688,7 +6670,7 @@
         <v>39849</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>345</v>
@@ -6708,7 +6690,7 @@
         <v>39462</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>425</v>
@@ -6728,7 +6710,7 @@
         <v>38137</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F8" s="5">
         <v>4018085917</v>
@@ -6748,7 +6730,7 @@
         <v>39166</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F9" s="6">
         <v>4020831130</v>
@@ -6768,7 +6750,7 @@
         <v>38917</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F10" s="20">
         <v>4002634542</v>
@@ -6788,7 +6770,7 @@
         <v>40363</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>367</v>
@@ -6808,7 +6790,7 @@
         <v>38434</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F12" s="5">
         <v>4018287872</v>
@@ -6828,7 +6810,7 @@
         <v>39581</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>430</v>
@@ -6848,7 +6830,7 @@
         <v>39916</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F14" s="32" t="s">
         <v>435</v>
@@ -6868,7 +6850,7 @@
         <v>38933</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F15" s="6">
         <v>4020668443</v>
@@ -6888,7 +6870,7 @@
         <v>40070</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>377</v>
@@ -6908,7 +6890,7 @@
         <v>39331</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F17" s="6">
         <v>4021966729</v>
@@ -6928,7 +6910,7 @@
         <v>38982</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F18" s="20">
         <v>4020691039</v>
@@ -6948,7 +6930,7 @@
         <v>39810</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>443</v>
@@ -6968,7 +6950,7 @@
         <v>40195</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>392</v>
@@ -6988,7 +6970,7 @@
         <v>39529</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>398</v>
@@ -7008,7 +6990,7 @@
         <v>38989</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F22" s="5">
         <v>4020684651</v>
@@ -7028,7 +7010,7 @@
         <v>39987</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>408</v>
@@ -7048,7 +7030,7 @@
         <v>38070</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F24" s="5">
         <v>4018029738</v>
@@ -7072,19 +7054,19 @@
     </row>
     <row r="27" s="29" customFormat="1" ht="13.2" spans="1:4">
       <c r="A27" s="35" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D27" s="36"/>
     </row>
     <row r="28" s="29" customFormat="1" ht="13.2" spans="1:4">
       <c r="A28" s="29" t="s">
+        <v>649</v>
+      </c>
+      <c r="B28" s="29" t="s">
         <v>650</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="C28" s="29" t="s">
         <v>651</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>652</v>
       </c>
       <c r="D28" s="36"/>
     </row>
@@ -7883,25 +7865,25 @@
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>513</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>531</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="2" ht="15.15" spans="1:5">
       <c r="A2" s="4"/>
       <c r="B2" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>322</v>
@@ -7916,7 +7898,7 @@
     <row r="3" ht="15.15" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C3" s="7">
         <v>39367</v>
@@ -7931,7 +7913,7 @@
     <row r="4" ht="15.15" spans="1:5">
       <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C4" s="9">
         <v>39857</v>
@@ -7946,7 +7928,7 @@
     <row r="5" ht="15.15" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C5" s="11">
         <v>38553</v>
@@ -7961,7 +7943,7 @@
     <row r="6" ht="15.15" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C6" s="12">
         <v>39849</v>
@@ -7976,7 +7958,7 @@
     <row r="7" ht="15.15" spans="1:5">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C7" s="12">
         <v>39462</v>
@@ -7985,13 +7967,13 @@
         <v>9112625350</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="8" ht="15.15" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C8" s="11">
         <v>38137</v>
@@ -8006,7 +7988,7 @@
     <row r="9" ht="15.15" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C9" s="11">
         <v>39166</v>
@@ -8021,7 +8003,7 @@
     <row r="10" ht="15.15" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C10" s="13">
         <v>38917</v>
@@ -8036,7 +8018,7 @@
     <row r="11" ht="15.15" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C11" s="12">
         <v>40363</v>
@@ -8051,7 +8033,7 @@
     <row r="12" ht="15.15" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C12" s="11">
         <v>38434</v>
@@ -8060,13 +8042,13 @@
         <v>9111652301</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="13" ht="15.15" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C13" s="11">
         <v>39581</v>
@@ -8075,13 +8057,13 @@
         <v>9259175393</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="14" ht="15.15" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C14" s="12">
         <v>39916</v>
@@ -8096,7 +8078,7 @@
     <row r="15" ht="15.15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C15" s="16">
         <v>38933</v>
@@ -8111,7 +8093,7 @@
     <row r="16" ht="15.15" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C16" s="11">
         <v>40070</v>
@@ -8120,13 +8102,13 @@
         <v>9313127300</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="17" ht="15.15" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C17" s="11">
         <v>39331</v>
@@ -8141,7 +8123,7 @@
     <row r="18" ht="15.15" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C18" s="19">
         <v>38982</v>
@@ -8156,7 +8138,7 @@
     <row r="19" ht="15.15" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C19" s="12">
         <v>39810</v>
@@ -8165,13 +8147,13 @@
         <v>9200043637</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="20" ht="15.15" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C20" s="11">
         <v>40195</v>
@@ -8186,7 +8168,7 @@
     <row r="21" ht="15.15" spans="1:5">
       <c r="A21" s="21"/>
       <c r="B21" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C21" s="12">
         <v>39529</v>
@@ -8201,7 +8183,7 @@
     <row r="22" ht="15.15" spans="1:5">
       <c r="A22" s="21"/>
       <c r="B22" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C22" s="22">
         <v>38989</v>
@@ -8216,7 +8198,7 @@
     <row r="23" ht="15.15" spans="1:5">
       <c r="A23" s="21"/>
       <c r="B23" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C23" s="12">
         <v>39987</v>
@@ -8231,7 +8213,7 @@
     <row r="24" ht="15.15" spans="1:5">
       <c r="A24" s="21"/>
       <c r="B24" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C24" s="11">
         <v>38070</v>
@@ -8246,7 +8228,7 @@
     <row r="25" ht="15.15" spans="1:5">
       <c r="A25" s="21"/>
       <c r="B25" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C25" s="11">
         <v>39606</v>
@@ -8255,13 +8237,13 @@
         <v>9111291746</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="26" ht="15.15" spans="1:5">
       <c r="A26" s="21"/>
       <c r="B26" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C26" s="11">
         <v>39485</v>
@@ -8270,7 +8252,7 @@
         <v>9312244315</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="27" ht="15.15" spans="1:5">
@@ -8283,7 +8265,7 @@
     <row r="28" ht="15.15" spans="1:5">
       <c r="A28" s="21"/>
       <c r="B28" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="8"/>
@@ -8292,7 +8274,7 @@
     <row r="29" ht="15.15" spans="1:5">
       <c r="A29" s="21"/>
       <c r="B29" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
@@ -8301,7 +8283,7 @@
     <row r="30" ht="15.15" spans="1:5">
       <c r="A30" s="21"/>
       <c r="B30" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
@@ -8310,7 +8292,7 @@
     <row r="31" ht="15.15" spans="1:5">
       <c r="A31" s="21"/>
       <c r="B31" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="3"/>
@@ -8319,7 +8301,7 @@
     <row r="32" ht="15.15" spans="1:5">
       <c r="A32" s="21"/>
       <c r="B32" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="3"/>
@@ -9149,7 +9131,7 @@
         <v>388</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -9160,7 +9142,7 @@
         <v>336</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3" ht="79.2" spans="1:3">
@@ -9171,7 +9153,7 @@
         <v>409</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="4" ht="39.6" spans="1:3">
@@ -9182,18 +9164,18 @@
         <v>379</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>681</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="6" ht="52.8" spans="1:3">
@@ -9204,7 +9186,7 @@
         <v>317</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -9224,21 +9206,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="25.8518518518519" style="156" customWidth="1"/>
-    <col min="3" max="3" width="15.8518518518519" style="174" customWidth="1"/>
-    <col min="4" max="4" width="29.5740740740741" style="156" customWidth="1"/>
-    <col min="5" max="7" width="9" style="156"/>
-    <col min="8" max="8" width="22.712962962963" style="156" customWidth="1"/>
-    <col min="9" max="9" width="22.712962962963" style="175" customWidth="1"/>
-    <col min="10" max="11" width="8.85185185185185" style="175"/>
-    <col min="12" max="16384" width="9" style="156"/>
+    <col min="2" max="2" width="25.8518518518519" style="149" customWidth="1"/>
+    <col min="3" max="3" width="15.8518518518519" style="167" customWidth="1"/>
+    <col min="4" max="4" width="29.5740740740741" style="149" customWidth="1"/>
+    <col min="5" max="7" width="9" style="149"/>
+    <col min="8" max="8" width="22.712962962963" style="149" customWidth="1"/>
+    <col min="9" max="9" width="22.712962962963" style="168" customWidth="1"/>
+    <col min="10" max="11" width="8.85185185185185" style="168"/>
+    <col min="12" max="16384" width="9" style="149"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="156" t="s">
+      <c r="B1" s="149" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="174" t="s">
+      <c r="C1" s="167" t="s">
         <v>99</v>
       </c>
     </row>
@@ -9246,10 +9228,10 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="169" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="177" t="s">
+      <c r="C2" s="170" t="s">
         <v>101</v>
       </c>
       <c r="D2" s="25"/>
@@ -9258,13 +9240,13 @@
       <c r="A3" s="25">
         <v>1</v>
       </c>
-      <c r="B3" s="176" t="s">
+      <c r="B3" s="169" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="177" t="s">
+      <c r="C3" s="170" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="156" t="s">
+      <c r="D3" s="149" t="s">
         <v>104</v>
       </c>
     </row>
@@ -9272,13 +9254,13 @@
       <c r="A4" s="25">
         <v>1</v>
       </c>
-      <c r="B4" s="176" t="s">
+      <c r="B4" s="169" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="177" t="s">
+      <c r="C4" s="170" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="156" t="s">
+      <c r="D4" s="149" t="s">
         <v>104</v>
       </c>
     </row>
@@ -9286,13 +9268,13 @@
       <c r="A5" s="25">
         <v>1</v>
       </c>
-      <c r="B5" s="176" t="s">
+      <c r="B5" s="169" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="177" t="s">
+      <c r="C5" s="170" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="156" t="s">
+      <c r="D5" s="149" t="s">
         <v>104</v>
       </c>
     </row>
@@ -9300,13 +9282,13 @@
       <c r="A6" s="25">
         <v>1</v>
       </c>
-      <c r="B6" s="176" t="s">
+      <c r="B6" s="169" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="177">
+      <c r="C6" s="170">
         <v>4</v>
       </c>
-      <c r="D6" s="156" t="s">
+      <c r="D6" s="149" t="s">
         <v>104</v>
       </c>
     </row>
@@ -9314,10 +9296,10 @@
       <c r="A7" s="25">
         <v>1</v>
       </c>
-      <c r="B7" s="176" t="s">
+      <c r="B7" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="177" t="s">
+      <c r="C7" s="170" t="s">
         <v>110</v>
       </c>
     </row>
@@ -9325,13 +9307,13 @@
       <c r="A8" s="25">
         <v>1</v>
       </c>
-      <c r="B8" s="176" t="s">
+      <c r="B8" s="169" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="174">
+      <c r="C8" s="167">
         <v>2</v>
       </c>
-      <c r="D8" s="156" t="s">
+      <c r="D8" s="149" t="s">
         <v>104</v>
       </c>
     </row>
@@ -9339,13 +9321,13 @@
       <c r="A9" s="25">
         <v>1</v>
       </c>
-      <c r="B9" s="176" t="s">
+      <c r="B9" s="169" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="177" t="s">
+      <c r="C9" s="170" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="156" t="s">
+      <c r="D9" s="149" t="s">
         <v>104</v>
       </c>
     </row>
@@ -9353,10 +9335,10 @@
       <c r="A10" s="25">
         <v>1</v>
       </c>
-      <c r="B10" s="176" t="s">
+      <c r="B10" s="169" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="177">
+      <c r="C10" s="170">
         <v>1</v>
       </c>
     </row>
@@ -9364,7 +9346,7 @@
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="176" t="s">
+      <c r="B11" s="169" t="s">
         <v>115</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -9375,13 +9357,13 @@
       <c r="A12" s="25">
         <v>2</v>
       </c>
-      <c r="B12" s="176" t="s">
+      <c r="B12" s="169" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="177" t="s">
+      <c r="C12" s="170" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="156" t="s">
+      <c r="D12" s="149" t="s">
         <v>119</v>
       </c>
     </row>
@@ -9389,10 +9371,10 @@
       <c r="A13">
         <v>2</v>
       </c>
-      <c r="B13" s="156" t="s">
+      <c r="B13" s="149" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="174">
+      <c r="C13" s="167">
         <v>2</v>
       </c>
     </row>
@@ -9400,13 +9382,13 @@
       <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14" s="156" t="s">
+      <c r="B14" s="149" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="174" t="s">
+      <c r="C14" s="167" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="156" t="s">
+      <c r="D14" s="149" t="s">
         <v>123</v>
       </c>
     </row>
@@ -9414,10 +9396,10 @@
       <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15" s="156" t="s">
+      <c r="B15" s="149" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="174">
+      <c r="C15" s="167">
         <v>2</v>
       </c>
     </row>
@@ -9425,10 +9407,10 @@
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="B16" s="156" t="s">
+      <c r="B16" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="167">
         <v>2</v>
       </c>
     </row>
@@ -9436,13 +9418,13 @@
       <c r="A17">
         <v>2</v>
       </c>
-      <c r="B17" s="176" t="s">
+      <c r="B17" s="169" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="177">
+      <c r="C17" s="170">
         <v>10</v>
       </c>
-      <c r="D17" s="156" t="s">
+      <c r="D17" s="149" t="s">
         <v>119</v>
       </c>
     </row>
@@ -9450,10 +9432,10 @@
       <c r="A18" s="25">
         <v>2</v>
       </c>
-      <c r="B18" s="176" t="s">
+      <c r="B18" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="177" t="s">
+      <c r="C18" s="170" t="s">
         <v>128</v>
       </c>
     </row>
@@ -9461,10 +9443,10 @@
       <c r="A19" s="25">
         <v>2</v>
       </c>
-      <c r="B19" s="176" t="s">
+      <c r="B19" s="169" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="177" t="s">
+      <c r="C19" s="170" t="s">
         <v>122</v>
       </c>
     </row>
@@ -9472,10 +9454,10 @@
       <c r="A20" s="25">
         <v>2</v>
       </c>
-      <c r="B20" s="176" t="s">
+      <c r="B20" s="169" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="177" t="s">
+      <c r="C20" s="170" t="s">
         <v>131</v>
       </c>
     </row>
@@ -9483,10 +9465,10 @@
       <c r="A21" s="25">
         <v>2</v>
       </c>
-      <c r="B21" s="176" t="s">
+      <c r="B21" s="169" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="177" t="s">
+      <c r="C21" s="170" t="s">
         <v>133</v>
       </c>
     </row>
@@ -9494,10 +9476,10 @@
       <c r="A22" s="25">
         <v>2</v>
       </c>
-      <c r="B22" s="176" t="s">
+      <c r="B22" s="169" t="s">
         <v>134</v>
       </c>
-      <c r="C22" s="177" t="s">
+      <c r="C22" s="170" t="s">
         <v>135</v>
       </c>
     </row>
@@ -9505,10 +9487,10 @@
       <c r="A23" s="25">
         <v>3</v>
       </c>
-      <c r="B23" s="176" t="s">
+      <c r="B23" s="169" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="177" t="s">
+      <c r="C23" s="170" t="s">
         <v>103</v>
       </c>
     </row>
@@ -9516,7 +9498,7 @@
       <c r="A24" s="25">
         <v>3</v>
       </c>
-      <c r="B24" s="176" t="s">
+      <c r="B24" s="169" t="s">
         <v>137</v>
       </c>
       <c r="C24" s="25" t="s">
@@ -9527,10 +9509,10 @@
       <c r="A25" s="25">
         <v>3</v>
       </c>
-      <c r="B25" s="176" t="s">
+      <c r="B25" s="169" t="s">
         <v>139</v>
       </c>
-      <c r="C25" s="177" t="s">
+      <c r="C25" s="170" t="s">
         <v>140</v>
       </c>
     </row>
@@ -9538,10 +9520,10 @@
       <c r="A26" s="25">
         <v>3</v>
       </c>
-      <c r="B26" s="176" t="s">
+      <c r="B26" s="169" t="s">
         <v>141</v>
       </c>
-      <c r="C26" s="177">
+      <c r="C26" s="170">
         <v>15</v>
       </c>
     </row>
@@ -9549,10 +9531,10 @@
       <c r="A27" s="25">
         <v>3</v>
       </c>
-      <c r="B27" s="176" t="s">
+      <c r="B27" s="169" t="s">
         <v>142</v>
       </c>
-      <c r="C27" s="174" t="s">
+      <c r="C27" s="167" t="s">
         <v>143</v>
       </c>
     </row>
@@ -9560,10 +9542,10 @@
       <c r="A28" s="25">
         <v>3</v>
       </c>
-      <c r="B28" s="176" t="s">
+      <c r="B28" s="169" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="177" t="s">
+      <c r="C28" s="170" t="s">
         <v>145</v>
       </c>
     </row>
@@ -9571,10 +9553,10 @@
       <c r="A29" s="25">
         <v>3</v>
       </c>
-      <c r="B29" s="176" t="s">
+      <c r="B29" s="169" t="s">
         <v>146</v>
       </c>
-      <c r="C29" s="177" t="s">
+      <c r="C29" s="170" t="s">
         <v>147</v>
       </c>
     </row>
@@ -9582,10 +9564,10 @@
       <c r="A30" s="25">
         <v>3</v>
       </c>
-      <c r="B30" s="176" t="s">
+      <c r="B30" s="169" t="s">
         <v>148</v>
       </c>
-      <c r="C30" s="177" t="s">
+      <c r="C30" s="170" t="s">
         <v>149</v>
       </c>
     </row>
@@ -9593,10 +9575,10 @@
       <c r="A31" s="25">
         <v>3</v>
       </c>
-      <c r="B31" s="176" t="s">
+      <c r="B31" s="169" t="s">
         <v>150</v>
       </c>
-      <c r="C31" s="177">
+      <c r="C31" s="170">
         <v>2</v>
       </c>
     </row>
@@ -9604,10 +9586,10 @@
       <c r="A32" s="25">
         <v>4</v>
       </c>
-      <c r="B32" s="176" t="s">
+      <c r="B32" s="169" t="s">
         <v>151</v>
       </c>
-      <c r="C32" s="177" t="s">
+      <c r="C32" s="170" t="s">
         <v>152</v>
       </c>
     </row>
@@ -9615,10 +9597,10 @@
       <c r="A33" s="25">
         <v>4</v>
       </c>
-      <c r="B33" s="176" t="s">
+      <c r="B33" s="169" t="s">
         <v>153</v>
       </c>
-      <c r="C33" s="174" t="s">
+      <c r="C33" s="167" t="s">
         <v>154</v>
       </c>
     </row>
@@ -9626,10 +9608,10 @@
       <c r="A34" s="25">
         <v>4</v>
       </c>
-      <c r="B34" s="176" t="s">
+      <c r="B34" s="169" t="s">
         <v>155</v>
       </c>
-      <c r="C34" s="177" t="s">
+      <c r="C34" s="170" t="s">
         <v>156</v>
       </c>
     </row>
@@ -9637,10 +9619,10 @@
       <c r="A35" s="25">
         <v>4</v>
       </c>
-      <c r="B35" s="176" t="s">
+      <c r="B35" s="169" t="s">
         <v>157</v>
       </c>
-      <c r="C35" s="177" t="s">
+      <c r="C35" s="170" t="s">
         <v>158</v>
       </c>
     </row>
@@ -9648,10 +9630,10 @@
       <c r="A36">
         <v>4</v>
       </c>
-      <c r="B36" s="176" t="s">
+      <c r="B36" s="169" t="s">
         <v>159</v>
       </c>
-      <c r="C36" s="177" t="s">
+      <c r="C36" s="170" t="s">
         <v>160</v>
       </c>
     </row>
@@ -9659,10 +9641,10 @@
       <c r="A37" s="25">
         <v>4</v>
       </c>
-      <c r="B37" s="176" t="s">
+      <c r="B37" s="169" t="s">
         <v>161</v>
       </c>
-      <c r="C37" s="177" t="s">
+      <c r="C37" s="170" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9670,10 +9652,10 @@
       <c r="A38">
         <v>4</v>
       </c>
-      <c r="B38" s="176" t="s">
+      <c r="B38" s="169" t="s">
         <v>162</v>
       </c>
-      <c r="C38" s="177">
+      <c r="C38" s="170">
         <v>8</v>
       </c>
     </row>
@@ -9681,88 +9663,88 @@
       <c r="A39" s="25">
         <v>4</v>
       </c>
-      <c r="B39" s="176" t="s">
+      <c r="B39" s="169" t="s">
         <v>163</v>
       </c>
-      <c r="C39" s="177" t="s">
+      <c r="C39" s="170" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="25"/>
-      <c r="B40" s="176" t="s">
+      <c r="B40" s="169" t="s">
         <v>165</v>
       </c>
-      <c r="C40" s="177" t="s">
+      <c r="C40" s="170" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="25"/>
-      <c r="B41" s="176" t="s">
+      <c r="B41" s="169" t="s">
         <v>167</v>
       </c>
-      <c r="C41" s="177" t="s">
+      <c r="C41" s="170" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="25"/>
-      <c r="B42" s="176" t="s">
+      <c r="B42" s="169" t="s">
         <v>169</v>
       </c>
-      <c r="C42" s="177" t="s">
+      <c r="C42" s="170" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="156" t="s">
+      <c r="B43" s="149" t="s">
         <v>170</v>
       </c>
-      <c r="C43" s="174" t="s">
+      <c r="C43" s="167" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="25"/>
-      <c r="B45" s="176" t="s">
+      <c r="B45" s="169" t="s">
         <v>172</v>
       </c>
-      <c r="C45" s="177" t="s">
+      <c r="C45" s="170" t="s">
         <v>173</v>
       </c>
-      <c r="D45" s="156" t="s">
+      <c r="D45" s="149" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="25"/>
-      <c r="B46" s="176" t="s">
+      <c r="B46" s="169" t="s">
         <v>175</v>
       </c>
-      <c r="C46" s="177" t="s">
+      <c r="C46" s="170" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="156" t="s">
+      <c r="B48" s="149" t="s">
         <v>177</v>
       </c>
-      <c r="C48" s="174" t="s">
+      <c r="C48" s="167" t="s">
         <v>178</v>
       </c>
-      <c r="D48" s="156" t="s">
+      <c r="D48" s="149" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="156" t="s">
+      <c r="B49" s="149" t="s">
         <v>180</v>
       </c>
-      <c r="C49" s="174">
+      <c r="C49" s="167">
         <v>4</v>
       </c>
-      <c r="D49" s="156" t="s">
+      <c r="D49" s="149" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9770,11 +9752,11 @@
       <c r="A50" s="25">
         <v>4</v>
       </c>
-      <c r="B50" s="176" t="s">
+      <c r="B50" s="169" t="s">
         <v>181</v>
       </c>
       <c r="C50" s="25"/>
-      <c r="D50" s="156" t="s">
+      <c r="D50" s="149" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9795,941 +9777,941 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="6.85185185185185" style="161"/>
-    <col min="2" max="2" width="18.287037037037" style="161" customWidth="1"/>
-    <col min="3" max="3" width="17.712962962963" style="161" customWidth="1"/>
-    <col min="4" max="4" width="22" style="161"/>
-    <col min="5" max="5" width="14.5740740740741" style="161" customWidth="1"/>
-    <col min="6" max="6" width="12.287037037037" style="161" customWidth="1"/>
-    <col min="7" max="7" width="13" style="161" customWidth="1"/>
-    <col min="8" max="8" width="17.4259259259259" style="161" customWidth="1"/>
-    <col min="9" max="9" width="19.712962962963" style="161"/>
-    <col min="10" max="10" width="10.5740740740741" style="161"/>
-    <col min="11" max="11" width="18.4259259259259" style="161" customWidth="1"/>
-    <col min="12" max="16384" width="8.85185185185185" style="161"/>
+    <col min="1" max="1" width="6.85185185185185" style="154"/>
+    <col min="2" max="2" width="18.287037037037" style="154" customWidth="1"/>
+    <col min="3" max="3" width="17.712962962963" style="154" customWidth="1"/>
+    <col min="4" max="4" width="22" style="154"/>
+    <col min="5" max="5" width="14.5740740740741" style="154" customWidth="1"/>
+    <col min="6" max="6" width="12.287037037037" style="154" customWidth="1"/>
+    <col min="7" max="7" width="13" style="154" customWidth="1"/>
+    <col min="8" max="8" width="17.4259259259259" style="154" customWidth="1"/>
+    <col min="9" max="9" width="19.712962962963" style="154"/>
+    <col min="10" max="10" width="10.5740740740741" style="154"/>
+    <col min="11" max="11" width="18.4259259259259" style="154" customWidth="1"/>
+    <col min="12" max="16384" width="8.85185185185185" style="154"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="162"/>
-      <c r="B1" s="163" t="s">
+      <c r="A1" s="155"/>
+      <c r="B1" s="156" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="164"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="166" t="s">
+      <c r="C1" s="157"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="159" t="s">
         <v>183</v>
       </c>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166" t="s">
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159" t="s">
         <v>184</v>
       </c>
-      <c r="J1" s="166"/>
-      <c r="K1" s="166"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="162"/>
-      <c r="B2" s="167" t="s">
+      <c r="A2" s="155"/>
+      <c r="B2" s="160" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="167" t="s">
+      <c r="C2" s="160" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="167" t="s">
+      <c r="D2" s="160" t="s">
         <v>187</v>
       </c>
-      <c r="E2" s="167" t="s">
+      <c r="E2" s="160" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="167" t="s">
+      <c r="F2" s="160" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="167" t="s">
+      <c r="G2" s="160" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="167" t="s">
+      <c r="H2" s="160" t="s">
         <v>186</v>
       </c>
-      <c r="I2" s="167" t="s">
+      <c r="I2" s="160" t="s">
         <v>190</v>
       </c>
-      <c r="J2" s="167" t="s">
+      <c r="J2" s="160" t="s">
         <v>191</v>
       </c>
-      <c r="K2" s="167" t="s">
+      <c r="K2" s="160" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="168">
+      <c r="A3" s="161">
         <v>41759</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="170" t="s">
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="163" t="s">
         <v>192</v>
       </c>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="168">
+      <c r="A4" s="161">
         <v>41760</v>
       </c>
-      <c r="B4" s="162" t="s">
+      <c r="B4" s="155" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="162" t="s">
+      <c r="C4" s="155" t="s">
         <v>194</v>
       </c>
-      <c r="D4" s="161" t="s">
+      <c r="D4" s="154" t="s">
         <v>195</v>
       </c>
-      <c r="E4" s="161" t="s">
+      <c r="E4" s="154" t="s">
         <v>196</v>
       </c>
-      <c r="F4" s="162" t="s">
+      <c r="F4" s="155" t="s">
         <v>197</v>
       </c>
-      <c r="G4" s="162" t="s">
+      <c r="G4" s="155" t="s">
         <v>198</v>
       </c>
-      <c r="H4" s="162" t="s">
+      <c r="H4" s="155" t="s">
         <v>194</v>
       </c>
-      <c r="I4" s="162" t="s">
+      <c r="I4" s="155" t="s">
         <v>199</v>
       </c>
-      <c r="J4" s="162" t="s">
+      <c r="J4" s="155" t="s">
         <v>200</v>
       </c>
-      <c r="K4" s="162" t="s">
+      <c r="K4" s="155" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="168">
+      <c r="A5" s="161">
         <v>41761</v>
       </c>
-      <c r="B5" s="162" t="s">
+      <c r="B5" s="155" t="s">
         <v>201</v>
       </c>
-      <c r="C5" s="162" t="s">
+      <c r="C5" s="155" t="s">
         <v>194</v>
       </c>
-      <c r="D5" s="162" t="s">
+      <c r="D5" s="155" t="s">
         <v>202</v>
       </c>
-      <c r="E5" s="162" t="s">
+      <c r="E5" s="155" t="s">
         <v>203</v>
       </c>
-      <c r="F5" s="162" t="s">
+      <c r="F5" s="155" t="s">
         <v>204</v>
       </c>
-      <c r="G5" s="162" t="s">
+      <c r="G5" s="155" t="s">
         <v>205</v>
       </c>
-      <c r="H5" s="162" t="s">
+      <c r="H5" s="155" t="s">
         <v>194</v>
       </c>
-      <c r="I5" s="162" t="s">
+      <c r="I5" s="155" t="s">
         <v>206</v>
       </c>
-      <c r="J5" s="162" t="s">
+      <c r="J5" s="155" t="s">
         <v>207</v>
       </c>
-      <c r="K5" s="162" t="s">
+      <c r="K5" s="155" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="168">
+      <c r="A6" s="161">
         <v>41762</v>
       </c>
-      <c r="B6" s="162" t="s">
+      <c r="B6" s="155" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="162" t="s">
+      <c r="C6" s="155" t="s">
         <v>194</v>
       </c>
-      <c r="D6" s="162" t="s">
+      <c r="D6" s="155" t="s">
         <v>208</v>
       </c>
-      <c r="E6" s="162" t="s">
+      <c r="E6" s="155" t="s">
         <v>209</v>
       </c>
-      <c r="F6" s="162" t="s">
+      <c r="F6" s="155" t="s">
         <v>201</v>
       </c>
-      <c r="G6" s="162" t="s">
+      <c r="G6" s="155" t="s">
         <v>198</v>
       </c>
-      <c r="H6" s="162" t="s">
+      <c r="H6" s="155" t="s">
         <v>194</v>
       </c>
-      <c r="I6" s="162" t="s">
+      <c r="I6" s="155" t="s">
         <v>210</v>
       </c>
-      <c r="J6" s="162" t="s">
+      <c r="J6" s="155" t="s">
         <v>211</v>
       </c>
-      <c r="K6" s="162" t="s">
+      <c r="K6" s="155" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="168">
+      <c r="A7" s="161">
         <v>41763</v>
       </c>
-      <c r="B7" s="162" t="s">
+      <c r="B7" s="155" t="s">
         <v>204</v>
       </c>
-      <c r="C7" s="162" t="s">
+      <c r="C7" s="155" t="s">
         <v>194</v>
       </c>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="155" t="s">
         <v>202</v>
       </c>
-      <c r="E7" s="167" t="s">
+      <c r="E7" s="160" t="s">
         <v>212</v>
       </c>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="J7" s="162"/>
-      <c r="K7" s="162"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="155"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="155"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="168">
+      <c r="A8" s="161">
         <v>41764</v>
       </c>
-      <c r="B8" s="162"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="162"/>
-      <c r="J8" s="162"/>
-      <c r="K8" s="162"/>
+      <c r="B8" s="155"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="155"/>
+      <c r="J8" s="155"/>
+      <c r="K8" s="155"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="168">
+      <c r="A9" s="161">
         <v>41765</v>
       </c>
-      <c r="B9" s="162"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="162"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="162"/>
-      <c r="J9" s="162"/>
-      <c r="K9" s="162"/>
+      <c r="B9" s="155"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="155"/>
+      <c r="J9" s="155"/>
+      <c r="K9" s="155"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="169">
+      <c r="A10" s="162">
         <v>41766</v>
       </c>
-      <c r="B10" s="162"/>
-      <c r="C10" s="162"/>
-      <c r="D10" s="162"/>
-      <c r="F10" s="162"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="162" t="s">
+      <c r="B10" s="155"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="155" t="s">
         <v>199</v>
       </c>
-      <c r="J10" s="161" t="s">
+      <c r="J10" s="154" t="s">
         <v>213</v>
       </c>
-      <c r="K10" s="162" t="s">
+      <c r="K10" s="155" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="169">
+      <c r="A11" s="162">
         <v>41767</v>
       </c>
-      <c r="B11" s="162" t="s">
+      <c r="B11" s="155" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="162" t="s">
+      <c r="C11" s="155" t="s">
         <v>194</v>
       </c>
-      <c r="D11" s="161" t="s">
+      <c r="D11" s="154" t="s">
         <v>202</v>
       </c>
-      <c r="E11" s="161" t="s">
+      <c r="E11" s="154" t="s">
         <v>214</v>
       </c>
-      <c r="F11" s="162" t="s">
+      <c r="F11" s="155" t="s">
         <v>197</v>
       </c>
-      <c r="G11" s="162" t="s">
+      <c r="G11" s="155" t="s">
         <v>198</v>
       </c>
-      <c r="H11" s="162" t="s">
+      <c r="H11" s="155" t="s">
         <v>194</v>
       </c>
-      <c r="I11" s="162" t="s">
+      <c r="I11" s="155" t="s">
         <v>215</v>
       </c>
-      <c r="J11" s="162"/>
-      <c r="K11" s="162" t="s">
+      <c r="J11" s="155"/>
+      <c r="K11" s="155" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="169">
+      <c r="A12" s="162">
         <v>41768</v>
       </c>
-      <c r="B12" s="162" t="s">
+      <c r="B12" s="155" t="s">
         <v>201</v>
       </c>
-      <c r="C12" s="162" t="s">
+      <c r="C12" s="155" t="s">
         <v>194</v>
       </c>
-      <c r="D12" s="162" t="s">
+      <c r="D12" s="155" t="s">
         <v>195</v>
       </c>
-      <c r="E12" s="162" t="s">
+      <c r="E12" s="155" t="s">
         <v>216</v>
       </c>
-      <c r="F12" s="162" t="s">
+      <c r="F12" s="155" t="s">
         <v>204</v>
       </c>
-      <c r="G12" s="162" t="s">
+      <c r="G12" s="155" t="s">
         <v>205</v>
       </c>
-      <c r="H12" s="162" t="s">
+      <c r="H12" s="155" t="s">
         <v>194</v>
       </c>
-      <c r="I12" s="162" t="s">
+      <c r="I12" s="155" t="s">
         <v>217</v>
       </c>
-      <c r="K12" s="162" t="s">
+      <c r="K12" s="155" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="169">
+      <c r="A13" s="162">
         <v>41769</v>
       </c>
-      <c r="B13" s="162" t="s">
+      <c r="B13" s="155" t="s">
         <v>218</v>
       </c>
-      <c r="C13" s="162" t="s">
+      <c r="C13" s="155" t="s">
         <v>194</v>
       </c>
-      <c r="D13" s="162" t="s">
+      <c r="D13" s="155" t="s">
         <v>219</v>
       </c>
-      <c r="E13" s="170" t="s">
+      <c r="E13" s="163" t="s">
         <v>220</v>
       </c>
-      <c r="F13" s="166"/>
-      <c r="G13" s="166"/>
-      <c r="H13" s="166"/>
-      <c r="I13" s="162"/>
-      <c r="J13" s="162"/>
-      <c r="K13" s="162"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="155"/>
+      <c r="K13" s="155"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="168"/>
+      <c r="A14" s="161"/>
     </row>
     <row r="15" spans="3:7">
-      <c r="C15" s="161" t="s">
+      <c r="C15" s="154" t="s">
         <v>221</v>
       </c>
-      <c r="E15" s="161" t="s">
+      <c r="E15" s="154" t="s">
         <v>222</v>
       </c>
-      <c r="F15" s="161" t="s">
+      <c r="F15" s="154" t="s">
         <v>223</v>
       </c>
-      <c r="G15" s="161" t="s">
+      <c r="G15" s="154" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="161" t="s">
+      <c r="B16" s="154" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="161">
+      <c r="C16" s="154">
         <v>5</v>
       </c>
-      <c r="E16" s="171">
+      <c r="E16" s="164">
         <v>2.5</v>
       </c>
-      <c r="F16" s="161">
+      <c r="F16" s="154">
         <f t="shared" ref="F16:F18" si="0">C16*E16</f>
         <v>12.5</v>
       </c>
-      <c r="G16" s="161" t="s">
+      <c r="G16" s="154" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="161" t="s">
+      <c r="B17" s="154" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="161">
+      <c r="C17" s="154">
         <v>3</v>
       </c>
-      <c r="E17" s="171">
+      <c r="E17" s="164">
         <v>2.5</v>
       </c>
-      <c r="F17" s="161">
+      <c r="F17" s="154">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="G17" s="172" t="s">
+      <c r="G17" s="165" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="161" t="s">
+      <c r="B18" s="154" t="s">
         <v>226</v>
       </c>
-      <c r="C18" s="161">
+      <c r="C18" s="154">
         <v>4</v>
       </c>
-      <c r="E18" s="171">
+      <c r="E18" s="164">
         <v>3</v>
       </c>
-      <c r="F18" s="161">
+      <c r="F18" s="154">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G18" s="161" t="s">
+      <c r="G18" s="154" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="161" t="s">
+      <c r="B19" s="154" t="s">
         <v>206</v>
       </c>
-      <c r="C19" s="161">
+      <c r="C19" s="154">
         <v>1</v>
       </c>
-      <c r="E19" s="171"/>
+      <c r="E19" s="164"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="161" t="s">
+      <c r="B20" s="154" t="s">
         <v>210</v>
       </c>
-      <c r="C20" s="161">
+      <c r="C20" s="154">
         <v>1</v>
       </c>
-      <c r="E20" s="171"/>
+      <c r="E20" s="164"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="161" t="s">
+      <c r="B21" s="154" t="s">
         <v>227</v>
       </c>
-      <c r="C21" s="161">
+      <c r="C21" s="154">
         <v>2</v>
       </c>
-      <c r="E21" s="171">
+      <c r="E21" s="164">
         <v>2.5</v>
       </c>
-      <c r="F21" s="161">
+      <c r="F21" s="154">
         <f t="shared" ref="F21:F23" si="1">C21*E21</f>
         <v>5</v>
       </c>
-      <c r="G21" s="161" t="s">
+      <c r="G21" s="154" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="161" t="s">
+      <c r="B22" s="154" t="s">
         <v>228</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="154">
         <v>7</v>
       </c>
-      <c r="E22" s="171">
+      <c r="E22" s="164">
         <v>5</v>
       </c>
-      <c r="F22" s="161">
+      <c r="F22" s="154">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="G22" s="161" t="s">
+      <c r="G22" s="154" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="161" t="s">
+      <c r="B23" s="154" t="s">
         <v>230</v>
       </c>
-      <c r="C23" s="161">
+      <c r="C23" s="154">
         <v>5</v>
       </c>
-      <c r="E23" s="171">
+      <c r="E23" s="164">
         <v>3</v>
       </c>
-      <c r="F23" s="161">
+      <c r="F23" s="154">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G23" s="161" t="s">
+      <c r="G23" s="154" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="161" t="s">
+      <c r="B24" s="154" t="s">
         <v>231</v>
       </c>
-      <c r="C24" s="161">
+      <c r="C24" s="154">
         <v>5</v>
       </c>
-      <c r="E24" s="171"/>
+      <c r="E24" s="164"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="161" t="s">
+      <c r="B25" s="154" t="s">
         <v>232</v>
       </c>
-      <c r="C25" s="161">
+      <c r="C25" s="154">
         <v>3</v>
       </c>
-      <c r="E25" s="171"/>
+      <c r="E25" s="164"/>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="161" t="s">
+      <c r="B26" s="154" t="s">
         <v>233</v>
       </c>
-      <c r="C26" s="161">
+      <c r="C26" s="154">
         <v>5</v>
       </c>
-      <c r="E26" s="171"/>
+      <c r="E26" s="164"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="161" t="s">
+      <c r="B27" s="154" t="s">
         <v>234</v>
       </c>
-      <c r="C27" s="161">
+      <c r="C27" s="154">
         <v>1</v>
       </c>
-      <c r="E27" s="173">
+      <c r="E27" s="166">
         <v>1.5</v>
       </c>
-      <c r="F27" s="161">
+      <c r="F27" s="154">
         <f>C27*E27</f>
         <v>1.5</v>
       </c>
-      <c r="G27" s="161" t="s">
+      <c r="G27" s="154" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="161" t="s">
+      <c r="B28" s="154" t="s">
         <v>235</v>
       </c>
-      <c r="C28" s="161">
+      <c r="C28" s="154">
         <v>1</v>
       </c>
-      <c r="E28" s="173"/>
+      <c r="E28" s="166"/>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="161" t="s">
+      <c r="B29" s="154" t="s">
         <v>236</v>
       </c>
-      <c r="C29" s="161">
+      <c r="C29" s="154">
         <v>1</v>
       </c>
-      <c r="E29" s="173"/>
+      <c r="E29" s="166"/>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="161" t="s">
+      <c r="B30" s="154" t="s">
         <v>237</v>
       </c>
-      <c r="C30" s="161">
+      <c r="C30" s="154">
         <v>12</v>
       </c>
-      <c r="E30" s="173"/>
+      <c r="E30" s="166"/>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="161" t="s">
+      <c r="B31" s="154" t="s">
         <v>238</v>
       </c>
-      <c r="C31" s="161">
+      <c r="C31" s="154">
         <v>12</v>
       </c>
-      <c r="E31" s="173"/>
+      <c r="E31" s="166"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="161" t="s">
+      <c r="B32" s="154" t="s">
         <v>239</v>
       </c>
-      <c r="C32" s="161">
+      <c r="C32" s="154">
         <v>8</v>
       </c>
-      <c r="E32" s="171">
+      <c r="E32" s="164">
         <v>2</v>
       </c>
-      <c r="F32" s="161">
+      <c r="F32" s="154">
         <f t="shared" ref="F32:F40" si="2">C32*E32</f>
         <v>16</v>
       </c>
-      <c r="G32" s="161" t="s">
+      <c r="G32" s="154" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="161" t="s">
+      <c r="B33" s="154" t="s">
         <v>241</v>
       </c>
-      <c r="C33" s="161">
+      <c r="C33" s="154">
         <v>5</v>
       </c>
-      <c r="E33" s="171">
+      <c r="E33" s="164">
         <v>1</v>
       </c>
-      <c r="F33" s="161">
+      <c r="F33" s="154">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="G33" s="161" t="s">
+      <c r="G33" s="154" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="161" t="s">
+      <c r="B34" s="154" t="s">
         <v>242</v>
       </c>
-      <c r="C34" s="161">
+      <c r="C34" s="154">
         <v>5</v>
       </c>
-      <c r="E34" s="171">
+      <c r="E34" s="164">
         <v>3</v>
       </c>
-      <c r="F34" s="161">
+      <c r="F34" s="154">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="G34" s="161" t="s">
+      <c r="G34" s="154" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="161" t="s">
+      <c r="B35" s="154" t="s">
         <v>243</v>
       </c>
-      <c r="C35" s="161">
+      <c r="C35" s="154">
         <v>23</v>
       </c>
-      <c r="E35" s="171">
+      <c r="E35" s="164">
         <v>0.15</v>
       </c>
-      <c r="F35" s="161">
+      <c r="F35" s="154">
         <f t="shared" si="2"/>
         <v>3.45</v>
       </c>
-      <c r="G35" s="161" t="s">
+      <c r="G35" s="154" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="161" t="s">
+      <c r="B36" s="154" t="s">
         <v>244</v>
       </c>
-      <c r="C36" s="161">
+      <c r="C36" s="154">
         <v>1</v>
       </c>
-      <c r="E36" s="171">
+      <c r="E36" s="164">
         <v>2</v>
       </c>
-      <c r="F36" s="161">
+      <c r="F36" s="154">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G36" s="161" t="s">
+      <c r="G36" s="154" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="161" t="s">
+      <c r="B37" s="154" t="s">
         <v>245</v>
       </c>
-      <c r="C37" s="161">
+      <c r="C37" s="154">
         <v>4</v>
       </c>
-      <c r="E37" s="171">
+      <c r="E37" s="164">
         <v>1</v>
       </c>
-      <c r="F37" s="161">
+      <c r="F37" s="154">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G37" s="161" t="s">
+      <c r="G37" s="154" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="161" t="s">
+      <c r="B38" s="154" t="s">
         <v>246</v>
       </c>
-      <c r="C38" s="161">
+      <c r="C38" s="154">
         <v>18</v>
       </c>
-      <c r="E38" s="171">
+      <c r="E38" s="164">
         <v>0.6</v>
       </c>
-      <c r="F38" s="161">
+      <c r="F38" s="154">
         <f t="shared" si="2"/>
         <v>10.8</v>
       </c>
-      <c r="G38" s="161" t="s">
+      <c r="G38" s="154" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="161" t="s">
+      <c r="B39" s="154" t="s">
         <v>247</v>
       </c>
-      <c r="C39" s="161">
+      <c r="C39" s="154">
         <v>3</v>
       </c>
-      <c r="E39" s="171">
+      <c r="E39" s="164">
         <v>5</v>
       </c>
-      <c r="F39" s="161">
+      <c r="F39" s="154">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="G39" s="161" t="s">
+      <c r="G39" s="154" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="161" t="s">
+      <c r="B40" s="154" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="161">
+      <c r="C40" s="154">
         <v>5</v>
       </c>
-      <c r="D40" s="161" t="s">
+      <c r="D40" s="154" t="s">
         <v>249</v>
       </c>
-      <c r="E40" s="171">
+      <c r="E40" s="164">
         <v>0.5</v>
       </c>
-      <c r="F40" s="161">
+      <c r="F40" s="154">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="G40" s="161" t="s">
+      <c r="G40" s="154" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="161" t="s">
+      <c r="B41" s="154" t="s">
         <v>250</v>
       </c>
-      <c r="C41" s="161">
+      <c r="C41" s="154">
         <v>3</v>
       </c>
-      <c r="E41" s="171"/>
+      <c r="E41" s="164"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="161" t="s">
+      <c r="B42" s="154" t="s">
         <v>117</v>
       </c>
-      <c r="C42" s="161">
+      <c r="C42" s="154">
         <v>5</v>
       </c>
-      <c r="D42" s="161" t="s">
+      <c r="D42" s="154" t="s">
         <v>251</v>
       </c>
-      <c r="E42" s="171">
+      <c r="E42" s="164">
         <v>0.2</v>
       </c>
-      <c r="F42" s="161">
+      <c r="F42" s="154">
         <v>3</v>
       </c>
-      <c r="G42" s="161" t="s">
+      <c r="G42" s="154" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="161" t="s">
+      <c r="B43" s="154" t="s">
         <v>252</v>
       </c>
-      <c r="C43" s="161">
+      <c r="C43" s="154">
         <v>3</v>
       </c>
-      <c r="E43" s="171">
+      <c r="E43" s="164">
         <v>1.5</v>
       </c>
-      <c r="F43" s="161">
+      <c r="F43" s="154">
         <f t="shared" ref="F43:F47" si="3">C43*E43</f>
         <v>4.5</v>
       </c>
-      <c r="G43" s="161" t="s">
+      <c r="G43" s="154" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="161" t="s">
+      <c r="B44" s="154" t="s">
         <v>253</v>
       </c>
-      <c r="C44" s="161">
+      <c r="C44" s="154">
         <v>3</v>
       </c>
-      <c r="E44" s="171">
+      <c r="E44" s="164">
         <v>1</v>
       </c>
-      <c r="F44" s="161">
+      <c r="F44" s="154">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="G44" s="161" t="s">
+      <c r="G44" s="154" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="161" t="s">
+      <c r="B45" s="154" t="s">
         <v>254</v>
       </c>
-      <c r="C45" s="161">
+      <c r="C45" s="154">
         <v>3</v>
       </c>
-      <c r="E45" s="171">
+      <c r="E45" s="164">
         <v>2</v>
       </c>
-      <c r="F45" s="161">
+      <c r="F45" s="154">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="G45" s="161" t="s">
+      <c r="G45" s="154" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="161" t="s">
+      <c r="B46" s="154" t="s">
         <v>175</v>
       </c>
-      <c r="F46" s="161">
+      <c r="F46" s="154">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="161" t="s">
+      <c r="B47" s="154" t="s">
         <v>172</v>
       </c>
-      <c r="F47" s="161">
+      <c r="F47" s="154">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="161" t="s">
+      <c r="B48" s="154" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="161" t="s">
+      <c r="B49" s="154" t="s">
         <v>194</v>
       </c>
-      <c r="C49" s="161">
+      <c r="C49" s="154">
         <v>20</v>
       </c>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="161" t="s">
+      <c r="B50" s="154" t="s">
         <v>256</v>
       </c>
-      <c r="C50" s="161">
+      <c r="C50" s="154">
         <v>4</v>
       </c>
-      <c r="D50" s="161" t="s">
+      <c r="D50" s="154" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="161" t="s">
+      <c r="B51" s="154" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="161" t="s">
+      <c r="B52" s="154" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="53" spans="2:3">
-      <c r="B53" s="161" t="s">
+      <c r="B53" s="154" t="s">
         <v>259</v>
       </c>
-      <c r="C53" s="161" t="s">
+      <c r="C53" s="154" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="161" t="s">
+      <c r="B54" s="154" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="161" t="s">
+      <c r="B55" s="154" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="161" t="s">
+      <c r="B56" s="154" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="161" t="s">
+      <c r="B57" s="154" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="161" t="s">
+      <c r="B58" s="154" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="161" t="s">
+      <c r="B59" s="154" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="161" t="s">
+      <c r="B60" s="154" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="161" t="s">
+      <c r="B61" s="154" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="161" t="s">
+      <c r="B62" s="154" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="161" t="s">
+      <c r="B63" s="154" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="161" t="s">
+      <c r="B64" s="154" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="161" t="s">
+      <c r="B65" s="154" t="s">
         <v>272</v>
       </c>
     </row>
@@ -10758,152 +10740,152 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="156"/>
-    <col min="2" max="2" width="30.287037037037" style="157" customWidth="1"/>
-    <col min="3" max="3" width="24.4259259259259" style="157" customWidth="1"/>
-    <col min="4" max="4" width="47.287037037037" style="157" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="156"/>
+    <col min="1" max="1" width="9" style="149"/>
+    <col min="2" max="2" width="30.287037037037" style="150" customWidth="1"/>
+    <col min="3" max="3" width="24.4259259259259" style="150" customWidth="1"/>
+    <col min="4" max="4" width="47.287037037037" style="150" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="149"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="151" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="152" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="159" t="s">
+      <c r="C1" s="152" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="159" t="s">
+      <c r="D1" s="152" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="158">
+      <c r="A2" s="151">
         <v>1.05</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="159" t="s">
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="152" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="3" ht="43.2" spans="1:4">
-      <c r="A3" s="158">
+      <c r="A3" s="151">
         <v>2.05</v>
       </c>
-      <c r="B3" s="159" t="s">
+      <c r="B3" s="152" t="s">
         <v>275</v>
       </c>
-      <c r="C3" s="159" t="s">
+      <c r="C3" s="152" t="s">
         <v>276</v>
       </c>
-      <c r="D3" s="159" t="s">
+      <c r="D3" s="152" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="1:4">
-      <c r="A4" s="158">
+      <c r="A4" s="151">
         <v>3.05</v>
       </c>
-      <c r="B4" s="159" t="s">
+      <c r="B4" s="152" t="s">
         <v>278</v>
       </c>
-      <c r="C4" s="159" t="s">
+      <c r="C4" s="152" t="s">
         <v>279</v>
       </c>
-      <c r="D4" s="159" t="s">
+      <c r="D4" s="152" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:4">
-      <c r="A5" s="158">
+      <c r="A5" s="151">
         <v>4.05</v>
       </c>
-      <c r="B5" s="159" t="s">
+      <c r="B5" s="152" t="s">
         <v>281</v>
       </c>
-      <c r="C5" s="159" t="s">
+      <c r="C5" s="152" t="s">
         <v>282</v>
       </c>
-      <c r="D5" s="159" t="s">
+      <c r="D5" s="152" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:4">
-      <c r="A6" s="158">
+      <c r="A6" s="151">
         <v>5.05</v>
       </c>
-      <c r="B6" s="159" t="s">
+      <c r="B6" s="152" t="s">
         <v>284</v>
       </c>
-      <c r="C6" s="160"/>
-      <c r="D6" s="160"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
     </row>
     <row r="7" ht="28.8" spans="1:4">
-      <c r="A7" s="158">
+      <c r="A7" s="151">
         <v>8.05</v>
       </c>
-      <c r="B7" s="160"/>
-      <c r="C7" s="160"/>
-      <c r="D7" s="159" t="s">
+      <c r="B7" s="153"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="152" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="8" ht="28.8" spans="1:4">
-      <c r="A8" s="158">
+      <c r="A8" s="151">
         <v>9.05</v>
       </c>
-      <c r="B8" s="159" t="s">
+      <c r="B8" s="152" t="s">
         <v>286</v>
       </c>
-      <c r="C8" s="159" t="s">
+      <c r="C8" s="152" t="s">
         <v>287</v>
       </c>
-      <c r="D8" s="159" t="s">
+      <c r="D8" s="152" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="9" ht="43.2" spans="1:4">
-      <c r="A9" s="158">
+      <c r="A9" s="151">
         <v>10.05</v>
       </c>
-      <c r="B9" s="159" t="s">
+      <c r="B9" s="152" t="s">
         <v>289</v>
       </c>
-      <c r="C9" s="159" t="s">
+      <c r="C9" s="152" t="s">
         <v>290</v>
       </c>
-      <c r="D9" s="159" t="s">
+      <c r="D9" s="152" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:4">
-      <c r="A10" s="158">
+      <c r="A10" s="151">
         <v>11.05</v>
       </c>
-      <c r="B10" s="159" t="s">
+      <c r="B10" s="152" t="s">
         <v>292</v>
       </c>
-      <c r="C10" s="159" t="s">
+      <c r="C10" s="152" t="s">
         <v>293</v>
       </c>
-      <c r="D10" s="159" t="s">
+      <c r="D10" s="152" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="158">
+      <c r="A11" s="151">
         <v>12.05</v>
       </c>
-      <c r="B11" s="159" t="s">
+      <c r="B11" s="152" t="s">
         <v>295</v>
       </c>
-      <c r="C11" s="159" t="s">
+      <c r="C11" s="152" t="s">
         <v>296</v>
       </c>
-      <c r="D11" s="160"/>
+      <c r="D11" s="153"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10952,22 +10934,22 @@
       <c r="B2" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="C2" s="144">
+      <c r="C2" s="137">
         <v>44680</v>
       </c>
-      <c r="D2" s="144">
+      <c r="D2" s="137">
         <v>44685</v>
       </c>
-      <c r="E2" s="145"/>
+      <c r="E2" s="138"/>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="C3" s="144" t="s">
+      <c r="C3" s="137" t="s">
         <v>300</v>
       </c>
-      <c r="D3" s="145"/>
+      <c r="D3" s="138"/>
     </row>
     <row r="4" spans="2:16">
       <c r="B4" s="35" t="s">
@@ -10988,13 +10970,13 @@
       <c r="G4" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="H4" s="146" t="s">
+      <c r="H4" s="139" t="s">
         <v>307</v>
       </c>
       <c r="I4" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="J4" s="152" t="s">
+      <c r="J4" s="145" t="s">
         <v>309</v>
       </c>
       <c r="K4" s="35" t="s">
@@ -11009,7 +10991,7 @@
       <c r="N4" s="35" t="s">
         <v>313</v>
       </c>
-      <c r="O4" s="153" t="s">
+      <c r="O4" s="146" t="s">
         <v>314</v>
       </c>
       <c r="P4" s="35" t="s">
@@ -11035,7 +11017,7 @@
       <c r="F5" s="6">
         <v>13</v>
       </c>
-      <c r="G5" s="147"/>
+      <c r="G5" s="140"/>
       <c r="H5" s="6">
         <v>630</v>
       </c>
@@ -11080,7 +11062,7 @@
       <c r="F6" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="G6" s="148"/>
+      <c r="G6" s="141"/>
       <c r="H6" s="20">
         <v>197</v>
       </c>
@@ -11099,7 +11081,7 @@
       <c r="N6" s="8">
         <v>89052006465</v>
       </c>
-      <c r="O6" s="45">
+      <c r="O6" s="42">
         <v>4022050606</v>
       </c>
       <c r="P6" s="7">
@@ -11125,7 +11107,7 @@
       <c r="F7" s="6">
         <v>5</v>
       </c>
-      <c r="G7" s="148"/>
+      <c r="G7" s="141"/>
       <c r="H7" s="5">
         <v>503</v>
       </c>
@@ -11215,7 +11197,7 @@
       <c r="F9" s="6">
         <v>16</v>
       </c>
-      <c r="G9" s="148"/>
+      <c r="G9" s="141"/>
       <c r="H9" s="6">
         <v>56</v>
       </c>
@@ -11234,7 +11216,7 @@
       <c r="N9" s="5">
         <v>89052622652</v>
       </c>
-      <c r="O9" s="47" t="s">
+      <c r="O9" s="44" t="s">
         <v>345</v>
       </c>
       <c r="P9" s="12">
@@ -11304,7 +11286,7 @@
       <c r="F11" s="6">
         <v>9</v>
       </c>
-      <c r="G11" s="147"/>
+      <c r="G11" s="140"/>
       <c r="H11" s="5">
         <v>441</v>
       </c>
@@ -11349,7 +11331,7 @@
       <c r="F12" s="20">
         <v>3</v>
       </c>
-      <c r="G12" s="148"/>
+      <c r="G12" s="141"/>
       <c r="H12" s="24">
         <v>56</v>
       </c>
@@ -11548,7 +11530,7 @@
       <c r="N16" s="5">
         <v>89610717771</v>
       </c>
-      <c r="O16" s="50">
+      <c r="O16" s="47">
         <v>4021966729</v>
       </c>
       <c r="P16" s="11">
@@ -11574,7 +11556,7 @@
       <c r="F17" s="20">
         <v>15</v>
       </c>
-      <c r="G17" s="148"/>
+      <c r="G17" s="141"/>
       <c r="H17" s="20">
         <v>586</v>
       </c>
@@ -11619,7 +11601,7 @@
       <c r="F18" s="6">
         <v>1</v>
       </c>
-      <c r="G18" s="148"/>
+      <c r="G18" s="141"/>
       <c r="H18" s="5">
         <v>64</v>
       </c>
@@ -11822,13 +11804,13 @@
       <c r="B25" s="29" t="s">
         <v>413</v>
       </c>
-      <c r="C25" s="149" t="s">
+      <c r="C25" s="142" t="s">
         <v>414</v>
       </c>
       <c r="E25" s="36" t="s">
         <v>415</v>
       </c>
-      <c r="F25" s="149">
+      <c r="F25" s="142">
         <v>89217427984</v>
       </c>
     </row>
@@ -11836,13 +11818,13 @@
       <c r="B26" s="29" t="s">
         <v>416</v>
       </c>
-      <c r="C26" s="149" t="s">
+      <c r="C26" s="142" t="s">
         <v>417</v>
       </c>
       <c r="E26" s="36" t="s">
         <v>415</v>
       </c>
-      <c r="F26" s="149">
+      <c r="F26" s="142">
         <v>89679796720</v>
       </c>
     </row>
@@ -11850,7 +11832,7 @@
       <c r="B28" s="29" t="s">
         <v>418</v>
       </c>
-      <c r="C28" s="144">
+      <c r="C28" s="137">
         <v>44669</v>
       </c>
     </row>
@@ -11858,7 +11840,7 @@
       <c r="B29" s="29" t="s">
         <v>419</v>
       </c>
-      <c r="C29" s="149">
+      <c r="C29" s="142">
         <v>2022</v>
       </c>
     </row>
@@ -11866,10 +11848,10 @@
       <c r="B30" s="29" t="s">
         <v>420</v>
       </c>
-      <c r="C30" s="150"/>
+      <c r="C30" s="143"/>
     </row>
     <row r="32" ht="13.95" spans="2:2">
-      <c r="B32" s="151" t="s">
+      <c r="B32" s="144" t="s">
         <v>421</v>
       </c>
     </row>
@@ -11895,7 +11877,7 @@
       <c r="K33" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="L33" s="154"/>
+      <c r="L33" s="147"/>
       <c r="N33" s="3"/>
       <c r="O33" s="6" t="s">
         <v>425</v>
@@ -11926,18 +11908,18 @@
       <c r="K34" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="L34" s="154"/>
-      <c r="M34" s="155"/>
+      <c r="L34" s="147"/>
+      <c r="M34" s="148"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="50" t="s">
+      <c r="O34" s="47" t="s">
         <v>430</v>
       </c>
       <c r="P34" s="11">
         <v>39581</v>
       </c>
-      <c r="V34" s="155"/>
-      <c r="W34" s="155"/>
-      <c r="X34" s="155"/>
+      <c r="V34" s="148"/>
+      <c r="W34" s="148"/>
+      <c r="X34" s="148"/>
     </row>
     <row r="35" ht="15.15" spans="2:16">
       <c r="B35" s="6" t="s">
@@ -11961,9 +11943,9 @@
       <c r="K35" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="L35" s="154"/>
+      <c r="L35" s="147"/>
       <c r="N35" s="8"/>
-      <c r="O35" s="51" t="s">
+      <c r="O35" s="48" t="s">
         <v>435</v>
       </c>
       <c r="P35" s="12">
@@ -11992,7 +11974,7 @@
       <c r="K36" s="18" t="s">
         <v>438</v>
       </c>
-      <c r="L36" s="154"/>
+      <c r="L36" s="147"/>
       <c r="N36" s="8"/>
       <c r="O36" s="15"/>
       <c r="P36" s="16">
@@ -12021,7 +12003,7 @@
       <c r="K37" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="L37" s="154"/>
+      <c r="L37" s="147"/>
       <c r="N37" s="8"/>
       <c r="O37" s="6" t="s">
         <v>443</v>
@@ -12038,7 +12020,7 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="154"/>
+      <c r="L38" s="147"/>
       <c r="N38" s="3"/>
       <c r="O38" s="8"/>
       <c r="P38" s="7"/>
@@ -12051,7 +12033,7 @@
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="154"/>
+      <c r="L39" s="147"/>
       <c r="N39" s="8"/>
       <c r="O39" s="3"/>
       <c r="P39" s="7"/>
@@ -12064,7 +12046,7 @@
       <c r="I40" s="3"/>
       <c r="J40" s="8"/>
       <c r="K40" s="3"/>
-      <c r="L40" s="154"/>
+      <c r="L40" s="147"/>
       <c r="N40" s="8"/>
       <c r="O40" s="3"/>
       <c r="P40" s="7"/>
@@ -12077,7 +12059,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="8"/>
       <c r="K41" s="3"/>
-      <c r="L41" s="154"/>
+      <c r="L41" s="147"/>
       <c r="N41" s="8"/>
       <c r="O41" s="3"/>
       <c r="P41" s="7"/>
@@ -12090,7 +12072,7 @@
       <c r="I42" s="3"/>
       <c r="J42" s="8"/>
       <c r="K42" s="3"/>
-      <c r="L42" s="154"/>
+      <c r="L42" s="147"/>
       <c r="N42" s="8"/>
       <c r="O42" s="3"/>
       <c r="P42" s="7"/>
@@ -12115,1007 +12097,1007 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.42592592592593" style="53" customWidth="1"/>
-    <col min="2" max="2" width="18" style="53" customWidth="1"/>
-    <col min="3" max="3" width="10.8518518518519" style="53"/>
-    <col min="4" max="4" width="11.1388888888889" style="53" customWidth="1"/>
-    <col min="5" max="5" width="6.71296296296296" style="53" customWidth="1"/>
-    <col min="6" max="6" width="29.8518518518519" style="53" customWidth="1"/>
-    <col min="7" max="7" width="8.42592592592593" style="53" customWidth="1"/>
-    <col min="8" max="8" width="11" style="53" customWidth="1"/>
-    <col min="9" max="9" width="3.71296296296296" style="53" customWidth="1"/>
-    <col min="10" max="10" width="7.85185185185185" style="53"/>
-    <col min="11" max="11" width="17.8518518518519" style="53" customWidth="1"/>
-    <col min="12" max="12" width="5" style="53" customWidth="1"/>
-    <col min="13" max="13" width="12.5740740740741" style="53" customWidth="1"/>
-    <col min="14" max="256" width="8.28703703703704" style="53"/>
-    <col min="257" max="16384" width="8" style="53"/>
+    <col min="1" max="1" width="3.42592592592593" style="50" customWidth="1"/>
+    <col min="2" max="2" width="18" style="50" customWidth="1"/>
+    <col min="3" max="3" width="10.8518518518519" style="50"/>
+    <col min="4" max="4" width="11.1388888888889" style="50" customWidth="1"/>
+    <col min="5" max="5" width="6.71296296296296" style="50" customWidth="1"/>
+    <col min="6" max="6" width="29.8518518518519" style="50" customWidth="1"/>
+    <col min="7" max="7" width="8.42592592592593" style="50" customWidth="1"/>
+    <col min="8" max="8" width="11" style="50" customWidth="1"/>
+    <col min="9" max="9" width="3.71296296296296" style="50" customWidth="1"/>
+    <col min="10" max="10" width="7.85185185185185" style="50"/>
+    <col min="11" max="11" width="17.8518518518519" style="50" customWidth="1"/>
+    <col min="12" max="12" width="5" style="50" customWidth="1"/>
+    <col min="13" max="13" width="12.5740740740741" style="50" customWidth="1"/>
+    <col min="14" max="256" width="8.28703703703704" style="50"/>
+    <col min="257" max="16384" width="8" style="50"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" spans="1:13">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="92" t="s">
         <v>444</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92" t="s">
         <v>445</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" ht="51.95" customHeight="1" spans="1:13">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="93" t="s">
         <v>446</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="53" t="s">
         <v>447</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="53" t="s">
         <v>448</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="53" t="s">
         <v>449</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="53" t="s">
         <v>308</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="53" t="s">
         <v>450</v>
       </c>
-      <c r="G2" s="101" t="s">
+      <c r="G2" s="94" t="s">
         <v>451</v>
       </c>
-      <c r="H2" s="102" t="s">
+      <c r="H2" s="95" t="s">
         <v>452</v>
       </c>
-      <c r="I2" s="100" t="s">
+      <c r="I2" s="93" t="s">
         <v>446</v>
       </c>
-      <c r="J2" s="56" t="s">
+      <c r="J2" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="K2" s="132" t="s">
+      <c r="K2" s="125" t="s">
         <v>453</v>
       </c>
-      <c r="L2" s="56" t="s">
+      <c r="L2" s="53" t="s">
         <v>454</v>
       </c>
-      <c r="M2" s="133" t="s">
+      <c r="M2" s="126" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="3" s="89" customFormat="1" ht="15.6" spans="1:14">
-      <c r="A3" s="103">
+    <row r="3" s="82" customFormat="1" ht="15.6" spans="1:14">
+      <c r="A3" s="96">
         <v>1</v>
       </c>
-      <c r="B3" s="104" t="str">
+      <c r="B3" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B5," ",'Информация для бумаг'!C5)</f>
         <v>Атаманов Андрей</v>
       </c>
-      <c r="C3" s="105" t="str">
+      <c r="C3" s="98" t="str">
         <f>'Информация для бумаг'!P5</f>
         <v>02.03.0005</v>
       </c>
-      <c r="D3" s="64">
+      <c r="D3" s="57">
         <f>'Информация для бумаг'!H5</f>
         <v>630</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="52">
         <f>'Информация для бумаг'!I5</f>
         <v>10</v>
       </c>
-      <c r="F3" s="87" t="str">
+      <c r="F3" s="80" t="str">
         <f>'Информация для бумаг'!K5</f>
         <v>Шуваловский пр. д. 90 к. кв.180</v>
       </c>
-      <c r="G3" s="106" t="s">
+      <c r="G3" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H3" s="107" t="s">
+      <c r="H3" s="100" t="s">
         <v>457</v>
       </c>
-      <c r="I3" s="108">
+      <c r="I3" s="101">
         <v>1</v>
       </c>
-      <c r="J3" s="134" t="s">
+      <c r="J3" s="127" t="s">
         <v>458</v>
       </c>
-      <c r="K3" s="135" t="s">
+      <c r="K3" s="128" t="s">
         <v>459</v>
       </c>
-      <c r="L3" s="136">
+      <c r="L3" s="129">
         <v>117</v>
       </c>
-      <c r="M3" s="136" t="s">
+      <c r="M3" s="129" t="s">
         <v>460</v>
       </c>
-      <c r="N3" s="137"/>
-    </row>
-    <row r="4" s="89" customFormat="1" ht="26.4" spans="1:14">
-      <c r="A4" s="108">
+      <c r="N3" s="130"/>
+    </row>
+    <row r="4" s="82" customFormat="1" ht="26.4" spans="1:14">
+      <c r="A4" s="101">
         <v>2</v>
       </c>
-      <c r="B4" s="104" t="str">
+      <c r="B4" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B6," ",'Информация для бумаг'!C6)</f>
         <v>Башилов Константин</v>
       </c>
-      <c r="C4" s="105">
+      <c r="C4" s="98">
         <f>'Информация для бумаг'!P6</f>
         <v>39367</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="57">
         <f>'Информация для бумаг'!H6</f>
         <v>197</v>
       </c>
-      <c r="E4" s="55">
+      <c r="E4" s="52">
         <f>'Информация для бумаг'!I6</f>
         <v>7</v>
       </c>
-      <c r="F4" s="87" t="str">
+      <c r="F4" s="80" t="str">
         <f>'Информация для бумаг'!K6</f>
         <v>СПб, Пестеля д. 13-15 кв. 108</v>
       </c>
-      <c r="G4" s="106" t="s">
+      <c r="G4" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H4" s="109"/>
-      <c r="I4" s="103">
+      <c r="H4" s="102"/>
+      <c r="I4" s="96">
         <v>2</v>
       </c>
-      <c r="J4" s="134" t="s">
+      <c r="J4" s="127" t="s">
         <v>461</v>
       </c>
-      <c r="K4" s="135" t="s">
+      <c r="K4" s="128" t="s">
         <v>462</v>
       </c>
-      <c r="L4" s="136"/>
-      <c r="M4" s="136" t="s">
+      <c r="L4" s="129"/>
+      <c r="M4" s="129" t="s">
         <v>463</v>
       </c>
-      <c r="N4" s="137"/>
-    </row>
-    <row r="5" s="89" customFormat="1" ht="24" spans="1:14">
-      <c r="A5" s="103">
+      <c r="N4" s="130"/>
+    </row>
+    <row r="5" s="82" customFormat="1" ht="24" spans="1:14">
+      <c r="A5" s="96">
         <v>3</v>
       </c>
-      <c r="B5" s="104" t="str">
+      <c r="B5" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B7," ",'Информация для бумаг'!C7)</f>
         <v>Бекасов Емельян</v>
       </c>
-      <c r="C5" s="105">
+      <c r="C5" s="98">
         <f>'Информация для бумаг'!P7</f>
         <v>39857</v>
       </c>
-      <c r="D5" s="64">
+      <c r="D5" s="57">
         <f>'Информация для бумаг'!H7</f>
         <v>503</v>
       </c>
-      <c r="E5" s="55">
+      <c r="E5" s="52">
         <f>'Информация для бумаг'!I7</f>
         <v>6</v>
       </c>
-      <c r="F5" s="87" t="str">
+      <c r="F5" s="80" t="str">
         <f>'Информация для бумаг'!K7</f>
         <v>Г. Санкт-Петербург, проспект Ветеранов д.3 к.3 лит.А кв.167</v>
       </c>
-      <c r="G5" s="106" t="s">
+      <c r="G5" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H5" s="109"/>
-      <c r="I5" s="108">
+      <c r="H5" s="102"/>
+      <c r="I5" s="101">
         <v>3</v>
       </c>
-      <c r="J5" s="138" t="s">
+      <c r="J5" s="131" t="s">
         <v>464</v>
       </c>
-      <c r="K5" s="135" t="s">
+      <c r="K5" s="128" t="s">
         <v>465</v>
       </c>
-      <c r="L5" s="136">
+      <c r="L5" s="129">
         <v>117</v>
       </c>
-      <c r="M5" s="136" t="s">
+      <c r="M5" s="129" t="s">
         <v>460</v>
       </c>
-      <c r="N5" s="137"/>
-    </row>
-    <row r="6" s="89" customFormat="1" ht="15.6" spans="1:14">
-      <c r="A6" s="108">
+      <c r="N5" s="130"/>
+    </row>
+    <row r="6" s="82" customFormat="1" ht="15.6" spans="1:14">
+      <c r="A6" s="101">
         <v>4</v>
       </c>
-      <c r="B6" s="104" t="str">
+      <c r="B6" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B8," ",'Информация для бумаг'!C8)</f>
         <v>Белокуров Михаил</v>
       </c>
-      <c r="C6" s="105">
+      <c r="C6" s="98">
         <f>'Информация для бумаг'!P8</f>
         <v>38553</v>
       </c>
-      <c r="D6" s="64">
+      <c r="D6" s="57">
         <f>'Информация для бумаг'!H8</f>
         <v>225</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="52">
         <f>'Информация для бумаг'!I8</f>
         <v>10</v>
       </c>
-      <c r="F6" s="87" t="str">
+      <c r="F6" s="80" t="str">
         <f>'Информация для бумаг'!K8</f>
         <v>ул. Ставропольская д. 12/15 кв. 46</v>
       </c>
-      <c r="G6" s="106" t="s">
+      <c r="G6" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H6" s="109"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="135"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="137"/>
-    </row>
-    <row r="7" s="89" customFormat="1" ht="15.6" spans="1:14">
-      <c r="A7" s="103">
+      <c r="H6" s="102"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="130"/>
+    </row>
+    <row r="7" s="82" customFormat="1" ht="15.6" spans="1:14">
+      <c r="A7" s="96">
         <v>5</v>
       </c>
-      <c r="B7" s="104" t="str">
+      <c r="B7" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B9," ",'Информация для бумаг'!C9)</f>
         <v>Бритиков Александр</v>
       </c>
-      <c r="C7" s="105">
+      <c r="C7" s="98">
         <f>'Информация для бумаг'!P9</f>
         <v>39849</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="57">
         <f>'Информация для бумаг'!H9</f>
         <v>56</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7" s="52">
         <f>'Информация для бумаг'!I9</f>
         <v>7</v>
       </c>
-      <c r="F7" s="110" t="str">
+      <c r="F7" s="103" t="str">
         <f>'Информация для бумаг'!K9</f>
         <v>Ул. Лахтинская 20-36</v>
       </c>
-      <c r="G7" s="106" t="s">
+      <c r="G7" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H7" s="109"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="134"/>
-      <c r="K7" s="135"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="137"/>
-    </row>
-    <row r="8" s="89" customFormat="1" spans="1:14">
-      <c r="A8" s="108">
+      <c r="H7" s="102"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="130"/>
+    </row>
+    <row r="8" s="82" customFormat="1" spans="1:14">
+      <c r="A8" s="101">
         <v>6</v>
       </c>
-      <c r="B8" s="104" t="str">
+      <c r="B8" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B10," ",'Информация для бумаг'!C10)</f>
         <v>Евдокимова Алёна</v>
       </c>
-      <c r="C8" s="105">
+      <c r="C8" s="98">
         <f>'Информация для бумаг'!P10</f>
         <v>38137</v>
       </c>
-      <c r="D8" s="64">
+      <c r="D8" s="57">
         <f>'Информация для бумаг'!H10</f>
         <v>225</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="52">
         <f>'Информация для бумаг'!I10</f>
         <v>11</v>
       </c>
-      <c r="F8" s="87" t="str">
+      <c r="F8" s="80" t="str">
         <f>'Информация для бумаг'!K12</f>
         <v>Каменноостровский 69-29</v>
       </c>
-      <c r="G8" s="106" t="s">
+      <c r="G8" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H8" s="109"/>
-      <c r="N8" s="139"/>
-    </row>
-    <row r="9" s="89" customFormat="1" spans="1:13">
-      <c r="A9" s="103">
+      <c r="H8" s="102"/>
+      <c r="N8" s="132"/>
+    </row>
+    <row r="9" s="82" customFormat="1" spans="1:13">
+      <c r="A9" s="96">
         <v>7</v>
       </c>
-      <c r="B9" s="104" t="str">
+      <c r="B9" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B11," ",'Информация для бумаг'!C11)</f>
         <v>Ершова Татьяна</v>
       </c>
-      <c r="C9" s="105">
+      <c r="C9" s="98">
         <f>'Информация для бумаг'!P11</f>
         <v>39166</v>
       </c>
-      <c r="D9" s="64">
+      <c r="D9" s="57">
         <f>'Информация для бумаг'!H11</f>
         <v>441</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="52">
         <f>'Информация для бумаг'!I11</f>
         <v>8</v>
       </c>
-      <c r="F9" s="87" t="str">
+      <c r="F9" s="80" t="str">
         <f>'Информация для бумаг'!K11</f>
         <v>ул. Малая Карпатская д.17 кв 275</v>
       </c>
-      <c r="G9" s="106" t="s">
+      <c r="G9" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H9" s="109"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="108"/>
-    </row>
-    <row r="10" s="89" customFormat="1" spans="1:13">
-      <c r="A10" s="108">
+      <c r="H9" s="102"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
+    </row>
+    <row r="10" s="82" customFormat="1" spans="1:13">
+      <c r="A10" s="101">
         <v>8</v>
       </c>
-      <c r="B10" s="104" t="str">
+      <c r="B10" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B12," ",'Информация для бумаг'!C12)</f>
         <v>Иванов Тимофей</v>
       </c>
-      <c r="C10" s="105">
+      <c r="C10" s="98">
         <f>'Информация для бумаг'!P12</f>
         <v>38917</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="57">
         <f>'Информация для бумаг'!H12</f>
         <v>56</v>
       </c>
-      <c r="E10" s="55">
+      <c r="E10" s="52">
         <f>'Информация для бумаг'!I12</f>
         <v>9</v>
       </c>
-      <c r="F10" s="87" t="str">
+      <c r="F10" s="80" t="str">
         <f>'Информация для бумаг'!K12</f>
         <v>Каменноостровский 69-29</v>
       </c>
-      <c r="G10" s="106" t="s">
+      <c r="G10" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H10" s="109"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
-      <c r="L10" s="108"/>
-      <c r="M10" s="108"/>
-    </row>
-    <row r="11" s="89" customFormat="1" spans="1:13">
-      <c r="A11" s="103">
+      <c r="H10" s="102"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
+    </row>
+    <row r="11" s="82" customFormat="1" spans="1:13">
+      <c r="A11" s="96">
         <v>9</v>
       </c>
-      <c r="B11" s="104" t="str">
+      <c r="B11" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B13," ",'Информация для бумаг'!C13)</f>
         <v>Киселев Вениамин</v>
       </c>
-      <c r="C11" s="105">
+      <c r="C11" s="98">
         <f>'Информация для бумаг'!P13</f>
         <v>40363</v>
       </c>
-      <c r="D11" s="64" t="str">
+      <c r="D11" s="57" t="str">
         <f>'Информация для бумаг'!H13</f>
         <v>Гимназия №92</v>
       </c>
-      <c r="E11" s="55">
+      <c r="E11" s="52">
         <f>'Информация для бумаг'!I13</f>
         <v>5</v>
       </c>
-      <c r="F11" s="87" t="str">
+      <c r="F11" s="80" t="str">
         <f>'Информация для бумаг'!K13</f>
         <v>пр.Тореза, д.80, кв.78</v>
       </c>
-      <c r="G11" s="106" t="s">
+      <c r="G11" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H11" s="109"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="108"/>
-    </row>
-    <row r="12" s="89" customFormat="1" spans="1:13">
-      <c r="A12" s="108">
+      <c r="H11" s="102"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="101"/>
+    </row>
+    <row r="12" s="82" customFormat="1" spans="1:13">
+      <c r="A12" s="101">
         <v>10</v>
       </c>
-      <c r="B12" s="104" t="str">
+      <c r="B12" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B14," ",'Информация для бумаг'!C14)</f>
         <v>Кудряшов Тимофей</v>
       </c>
-      <c r="C12" s="105">
+      <c r="C12" s="98">
         <f>'Информация для бумаг'!P14</f>
         <v>38434</v>
       </c>
-      <c r="D12" s="64">
+      <c r="D12" s="57">
         <f>'Информация для бумаг'!H14</f>
         <v>504</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="52">
         <f>'Информация для бумаг'!I14</f>
         <v>11</v>
       </c>
-      <c r="F12" s="87" t="str">
+      <c r="F12" s="80" t="str">
         <f>'Информация для бумаг'!K14</f>
         <v>пр. Маршала Жукова, д.45, кв 222</v>
       </c>
-      <c r="G12" s="106" t="s">
+      <c r="G12" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H12" s="109"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="108"/>
-    </row>
-    <row r="13" s="89" customFormat="1" spans="1:13">
-      <c r="A13" s="103">
+      <c r="H12" s="102"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="101"/>
+    </row>
+    <row r="13" s="82" customFormat="1" spans="1:13">
+      <c r="A13" s="96">
         <v>11</v>
       </c>
-      <c r="B13" s="104" t="str">
+      <c r="B13" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B15," ",'Информация для бумаг'!C15)</f>
         <v>Островский Виктор</v>
       </c>
-      <c r="C13" s="105">
+      <c r="C13" s="98">
         <f>'Информация для бумаг'!P15</f>
         <v>40070</v>
       </c>
-      <c r="D13" s="64">
+      <c r="D13" s="57">
         <f>'Информация для бумаг'!H15</f>
         <v>518</v>
       </c>
-      <c r="E13" s="55">
+      <c r="E13" s="52">
         <f>'Информация для бумаг'!I15</f>
         <v>6</v>
       </c>
-      <c r="F13" s="87" t="str">
+      <c r="F13" s="80" t="str">
         <f>'Информация для бумаг'!K15</f>
         <v>Парголово ул.Шишкина 58</v>
       </c>
-      <c r="G13" s="106" t="s">
+      <c r="G13" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H13" s="109"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="108"/>
-    </row>
-    <row r="14" s="89" customFormat="1" spans="1:13">
-      <c r="A14" s="108">
+      <c r="H13" s="102"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="101"/>
+    </row>
+    <row r="14" s="82" customFormat="1" spans="1:13">
+      <c r="A14" s="101">
         <v>12</v>
       </c>
-      <c r="B14" s="104" t="str">
+      <c r="B14" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B16," ",'Информация для бумаг'!C16)</f>
         <v>Попов Василий</v>
       </c>
-      <c r="C14" s="105">
+      <c r="C14" s="98">
         <f>'Информация для бумаг'!P16</f>
         <v>39331</v>
       </c>
-      <c r="D14" s="64">
+      <c r="D14" s="57">
         <f>'Информация для бумаг'!H16</f>
         <v>183</v>
       </c>
-      <c r="E14" s="55">
+      <c r="E14" s="52">
         <f>'Информация для бумаг'!I16</f>
         <v>8</v>
       </c>
-      <c r="F14" s="87" t="str">
+      <c r="F14" s="80" t="str">
         <f>'Информация для бумаг'!K16</f>
         <v>Ул.Бутлерова, 11 к.4 , кв 385</v>
       </c>
-      <c r="G14" s="106" t="s">
+      <c r="G14" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H14" s="109"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="108"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="108"/>
-    </row>
-    <row r="15" s="89" customFormat="1" spans="1:13">
-      <c r="A15" s="103">
+      <c r="H14" s="102"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="101"/>
+    </row>
+    <row r="15" s="82" customFormat="1" spans="1:13">
+      <c r="A15" s="96">
         <v>13</v>
       </c>
-      <c r="B15" s="104" t="str">
+      <c r="B15" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B17," ",'Информация для бумаг'!C17)</f>
         <v>Сайчик Мария</v>
       </c>
-      <c r="C15" s="105">
+      <c r="C15" s="98">
         <f>'Информация для бумаг'!P17</f>
         <v>38982</v>
       </c>
-      <c r="D15" s="64">
+      <c r="D15" s="57">
         <f>'Информация для бумаг'!H17</f>
         <v>586</v>
       </c>
-      <c r="E15" s="55">
+      <c r="E15" s="52">
         <f>'Информация для бумаг'!I17</f>
         <v>9</v>
       </c>
-      <c r="F15" s="87" t="str">
+      <c r="F15" s="80" t="str">
         <f>'Информация для бумаг'!K17</f>
         <v>Кораблестроителей 39-871</v>
       </c>
-      <c r="G15" s="106" t="s">
+      <c r="G15" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H15" s="109"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="108"/>
-      <c r="M15" s="108"/>
-    </row>
-    <row r="16" s="89" customFormat="1" spans="1:13">
-      <c r="A16" s="108">
+      <c r="H15" s="102"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="101"/>
+    </row>
+    <row r="16" s="82" customFormat="1" spans="1:13">
+      <c r="A16" s="101">
         <v>14</v>
       </c>
-      <c r="B16" s="104" t="str">
+      <c r="B16" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B18," ",'Информация для бумаг'!C18)</f>
         <v>Федорова Ксения</v>
       </c>
-      <c r="C16" s="105">
+      <c r="C16" s="98">
         <f>'Информация для бумаг'!P18</f>
         <v>40195</v>
       </c>
-      <c r="D16" s="64">
+      <c r="D16" s="57">
         <f>'Информация для бумаг'!H18</f>
         <v>64</v>
       </c>
-      <c r="E16" s="55">
+      <c r="E16" s="52">
         <f>'Информация для бумаг'!I18</f>
         <v>6</v>
       </c>
-      <c r="F16" s="87" t="str">
+      <c r="F16" s="80" t="str">
         <f>'Информация для бумаг'!K18</f>
         <v>Камышовая 14 КВ 163</v>
       </c>
-      <c r="G16" s="106" t="s">
+      <c r="G16" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H16" s="109"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="108"/>
-    </row>
-    <row r="17" s="89" customFormat="1" ht="24" spans="1:13">
-      <c r="A17" s="103">
+      <c r="H16" s="102"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="101"/>
+    </row>
+    <row r="17" s="82" customFormat="1" ht="24" spans="1:13">
+      <c r="A17" s="96">
         <v>15</v>
       </c>
-      <c r="B17" s="104" t="str">
+      <c r="B17" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B19," ",'Информация для бумаг'!C19)</f>
         <v>Шеламова Виктория</v>
       </c>
-      <c r="C17" s="105">
+      <c r="C17" s="98">
         <f>'Информация для бумаг'!P19</f>
         <v>39529</v>
       </c>
-      <c r="D17" s="64" t="str">
+      <c r="D17" s="57" t="str">
         <f>'Информация для бумаг'!H19</f>
         <v>№ 471</v>
       </c>
-      <c r="E17" s="55">
+      <c r="E17" s="52">
         <f>'Информация для бумаг'!I19</f>
         <v>7</v>
       </c>
-      <c r="F17" s="87" t="str">
+      <c r="F17" s="80" t="str">
         <f>'Информация для бумаг'!K19</f>
         <v>п. Парголово, Приозерское шоссе (Осиновая роща),  д.16 к.4 кв.46</v>
       </c>
-      <c r="G17" s="106" t="s">
+      <c r="G17" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H17" s="109"/>
-      <c r="I17" s="108"/>
-      <c r="J17" s="108"/>
-      <c r="K17" s="108"/>
-      <c r="L17" s="108"/>
-      <c r="M17" s="108"/>
-    </row>
-    <row r="18" s="89" customFormat="1" spans="1:13">
-      <c r="A18" s="108">
+      <c r="H17" s="102"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="101"/>
+    </row>
+    <row r="18" s="82" customFormat="1" spans="1:13">
+      <c r="A18" s="101">
         <v>16</v>
       </c>
-      <c r="B18" s="104" t="str">
+      <c r="B18" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B20," ",'Информация для бумаг'!C20)</f>
         <v>Шилонцев Андрей</v>
       </c>
-      <c r="C18" s="105">
+      <c r="C18" s="98">
         <f>'Информация для бумаг'!P20</f>
         <v>38989</v>
       </c>
-      <c r="D18" s="64">
+      <c r="D18" s="57">
         <f>'Информация для бумаг'!H20</f>
         <v>0</v>
       </c>
-      <c r="E18" s="55">
+      <c r="E18" s="52">
         <f>'Информация для бумаг'!I20</f>
         <v>0</v>
       </c>
-      <c r="F18" s="87" t="str">
+      <c r="F18" s="80" t="str">
         <f>'Информация для бумаг'!K20</f>
         <v>Ленинский пр. 117-1-603</v>
       </c>
-      <c r="G18" s="106" t="s">
+      <c r="G18" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H18" s="109"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="108"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="108"/>
-      <c r="M18" s="108"/>
-    </row>
-    <row r="19" s="89" customFormat="1" spans="1:13">
-      <c r="A19" s="103">
+      <c r="H18" s="102"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="101"/>
+    </row>
+    <row r="19" s="82" customFormat="1" spans="1:13">
+      <c r="A19" s="96">
         <v>17</v>
       </c>
-      <c r="B19" s="104" t="str">
+      <c r="B19" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B21," ",'Информация для бумаг'!C21)</f>
         <v>Шишкина Анна</v>
       </c>
-      <c r="C19" s="105">
+      <c r="C19" s="98">
         <f>'Информация для бумаг'!P21</f>
         <v>39987</v>
       </c>
-      <c r="D19" s="64">
+      <c r="D19" s="57">
         <f>'Информация для бумаг'!H21</f>
         <v>43</v>
       </c>
-      <c r="E19" s="55">
+      <c r="E19" s="52">
         <f>'Информация для бумаг'!I21</f>
         <v>6</v>
       </c>
-      <c r="F19" s="87" t="str">
+      <c r="F19" s="80" t="str">
         <f>'Информация для бумаг'!K21</f>
         <v>Проспект Сизова 14 кв.90</v>
       </c>
-      <c r="G19" s="106" t="s">
+      <c r="G19" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H19" s="109"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="108"/>
-      <c r="L19" s="108"/>
-      <c r="M19" s="108"/>
-    </row>
-    <row r="20" s="89" customFormat="1" ht="24" spans="1:13">
-      <c r="A20" s="108">
+      <c r="H19" s="102"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="101"/>
+    </row>
+    <row r="20" s="82" customFormat="1" ht="24" spans="1:13">
+      <c r="A20" s="101">
         <v>18</v>
       </c>
-      <c r="B20" s="104" t="str">
+      <c r="B20" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B22," ",'Информация для бумаг'!C22)</f>
         <v>Шишкина Алина</v>
       </c>
-      <c r="C20" s="105">
+      <c r="C20" s="98">
         <f>'Информация для бумаг'!P22</f>
         <v>38070</v>
       </c>
-      <c r="D20" s="64">
+      <c r="D20" s="57">
         <f>'Информация для бумаг'!H22</f>
         <v>246</v>
       </c>
-      <c r="E20" s="55">
+      <c r="E20" s="52">
         <f>'Информация для бумаг'!I22</f>
         <v>11</v>
       </c>
-      <c r="F20" s="87" t="str">
+      <c r="F20" s="80" t="str">
         <f>'Информация для бумаг'!K22</f>
         <v>Проспект Авиаконструкторов, дом 47, квартира 4</v>
       </c>
-      <c r="G20" s="106" t="s">
+      <c r="G20" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H20" s="109"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="108"/>
-      <c r="K20" s="108"/>
-      <c r="L20" s="108"/>
-      <c r="M20" s="108"/>
-    </row>
-    <row r="21" s="89" customFormat="1" ht="24" customHeight="1" spans="1:13">
-      <c r="A21" s="103"/>
-      <c r="B21" s="111" t="s">
+      <c r="H20" s="102"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="101"/>
+    </row>
+    <row r="21" s="82" customFormat="1" ht="24" customHeight="1" spans="1:13">
+      <c r="A21" s="96"/>
+      <c r="B21" s="104" t="s">
         <v>421</v>
       </c>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="108"/>
-      <c r="K21" s="108"/>
-      <c r="L21" s="108"/>
-      <c r="M21" s="108"/>
-    </row>
-    <row r="22" s="89" customFormat="1" ht="21.95" customHeight="1" spans="1:13">
-      <c r="A22" s="108"/>
-      <c r="B22" s="104" t="str">
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="101"/>
+      <c r="M21" s="101"/>
+    </row>
+    <row r="22" s="82" customFormat="1" ht="21.95" customHeight="1" spans="1:13">
+      <c r="A22" s="101"/>
+      <c r="B22" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B33," ",'Информация для бумаг'!C33)</f>
         <v>Васильев Илья</v>
       </c>
-      <c r="C22" s="105">
+      <c r="C22" s="98">
         <f>'Информация для бумаг'!P33</f>
         <v>39462</v>
       </c>
-      <c r="D22" s="114">
+      <c r="D22" s="107">
         <f>'Информация для бумаг'!H33</f>
         <v>58</v>
       </c>
-      <c r="E22" s="55">
+      <c r="E22" s="52">
         <f>'Информация для бумаг'!I33</f>
         <v>7</v>
       </c>
-      <c r="F22" s="115" t="str">
+      <c r="F22" s="108" t="str">
         <f>'Информация для бумаг'!K33</f>
         <v>алл. Котельникова, д. 6, к. 1, кв. 300</v>
       </c>
-      <c r="G22" s="106" t="s">
+      <c r="G22" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H22" s="109"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="108"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="108"/>
-    </row>
-    <row r="23" s="89" customFormat="1" spans="1:13">
-      <c r="A23" s="103"/>
-      <c r="B23" s="104" t="str">
+      <c r="H22" s="102"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="101"/>
+      <c r="M22" s="101"/>
+    </row>
+    <row r="23" s="82" customFormat="1" spans="1:13">
+      <c r="A23" s="96"/>
+      <c r="B23" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B34," ",'Информация для бумаг'!C34)</f>
         <v>Мелентьева Эмма</v>
       </c>
-      <c r="C23" s="105">
+      <c r="C23" s="98">
         <f>'Информация для бумаг'!P34</f>
         <v>39581</v>
       </c>
-      <c r="D23" s="114">
+      <c r="D23" s="107">
         <f>'Информация для бумаг'!H34</f>
         <v>49</v>
       </c>
-      <c r="E23" s="55">
+      <c r="E23" s="52">
         <f>'Информация для бумаг'!I34</f>
         <v>7</v>
       </c>
-      <c r="F23" s="115" t="str">
+      <c r="F23" s="108" t="str">
         <f>'Информация для бумаг'!K34</f>
         <v>ул. Б. Разночинная 4-14</v>
       </c>
-      <c r="G23" s="106" t="s">
+      <c r="G23" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H23" s="109"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="108"/>
-      <c r="K23" s="108"/>
-      <c r="L23" s="108"/>
-      <c r="M23" s="108"/>
-    </row>
-    <row r="24" s="89" customFormat="1" spans="1:13">
-      <c r="A24" s="108"/>
-      <c r="B24" s="104" t="str">
+      <c r="H23" s="102"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="101"/>
+      <c r="K23" s="101"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="101"/>
+    </row>
+    <row r="24" s="82" customFormat="1" spans="1:13">
+      <c r="A24" s="101"/>
+      <c r="B24" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B35," ",'Информация для бумаг'!C35)</f>
         <v>Меньшиков  Савва</v>
       </c>
-      <c r="C24" s="105">
+      <c r="C24" s="98">
         <f>'Информация для бумаг'!P35</f>
         <v>39916</v>
       </c>
-      <c r="D24" s="114" t="str">
+      <c r="D24" s="107" t="str">
         <f>'Информация для бумаг'!H35</f>
         <v>533 лицей</v>
       </c>
-      <c r="E24" s="55">
+      <c r="E24" s="52">
         <f>'Информация для бумаг'!I35</f>
         <v>6</v>
       </c>
-      <c r="F24" s="115" t="str">
+      <c r="F24" s="108" t="str">
         <f>'Информация для бумаг'!K35</f>
         <v>г.СПб, Железноводская 62, 98</v>
       </c>
-      <c r="G24" s="106" t="s">
+      <c r="G24" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H24" s="109"/>
-      <c r="I24" s="108"/>
-      <c r="J24" s="108"/>
-      <c r="K24" s="108"/>
-      <c r="L24" s="108"/>
-      <c r="M24" s="108"/>
-    </row>
-    <row r="25" s="89" customFormat="1" spans="1:13">
-      <c r="A25" s="103"/>
-      <c r="B25" s="104" t="str">
+      <c r="H24" s="102"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
+      <c r="K24" s="101"/>
+      <c r="L24" s="101"/>
+      <c r="M24" s="101"/>
+    </row>
+    <row r="25" s="82" customFormat="1" spans="1:13">
+      <c r="A25" s="96"/>
+      <c r="B25" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B36," ",'Информация для бумаг'!C36)</f>
         <v>Нужин Илья</v>
       </c>
-      <c r="C25" s="105">
+      <c r="C25" s="98">
         <f>'Информация для бумаг'!P36</f>
         <v>38933</v>
       </c>
-      <c r="D25" s="114">
+      <c r="D25" s="107">
         <f>'Информация для бумаг'!H36</f>
         <v>30</v>
       </c>
-      <c r="E25" s="55">
+      <c r="E25" s="52">
         <f>'Информация для бумаг'!I36</f>
         <v>8</v>
       </c>
-      <c r="F25" s="115" t="str">
+      <c r="F25" s="108" t="str">
         <f>'Информация для бумаг'!K36</f>
         <v>Наличная 37-1-4</v>
       </c>
-      <c r="G25" s="106" t="s">
+      <c r="G25" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H25" s="109"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="108"/>
-      <c r="K25" s="108"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="108"/>
-    </row>
-    <row r="26" s="89" customFormat="1" spans="1:13">
-      <c r="A26" s="103"/>
-      <c r="B26" s="104" t="str">
+      <c r="H25" s="102"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="101"/>
+    </row>
+    <row r="26" s="82" customFormat="1" spans="1:13">
+      <c r="A26" s="96"/>
+      <c r="B26" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B37," ",'Информация для бумаг'!C37)</f>
         <v>Тюпин Арсений</v>
       </c>
-      <c r="C26" s="105">
+      <c r="C26" s="98">
         <f>'Информация для бумаг'!P37</f>
         <v>39810</v>
       </c>
-      <c r="D26" s="114">
+      <c r="D26" s="107">
         <f>'Информация для бумаг'!H37</f>
         <v>555</v>
       </c>
-      <c r="E26" s="55">
+      <c r="E26" s="52">
         <f>'Информация для бумаг'!I37</f>
         <v>6</v>
       </c>
-      <c r="F26" s="115" t="str">
+      <c r="F26" s="108" t="str">
         <f>'Информация для бумаг'!K37</f>
         <v>пр.Комендантский д.23 к.1 кв 112</v>
       </c>
-      <c r="G26" s="106" t="s">
+      <c r="G26" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H26" s="109"/>
-      <c r="I26" s="108"/>
-      <c r="J26" s="108"/>
-      <c r="K26" s="108"/>
-      <c r="L26" s="108"/>
-      <c r="M26" s="108"/>
-    </row>
-    <row r="27" s="89" customFormat="1" ht="12" spans="1:13">
-      <c r="A27" s="116"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="108"/>
-      <c r="J27" s="108"/>
-      <c r="K27" s="108"/>
-      <c r="L27" s="108"/>
-      <c r="M27" s="108"/>
-    </row>
-    <row r="28" s="89" customFormat="1" spans="1:13">
-      <c r="A28" s="103"/>
-      <c r="B28" s="118" t="str">
+      <c r="H26" s="102"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="101"/>
+      <c r="L26" s="101"/>
+      <c r="M26" s="101"/>
+    </row>
+    <row r="27" s="82" customFormat="1" ht="12" spans="1:13">
+      <c r="A27" s="109"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="101"/>
+      <c r="J27" s="101"/>
+      <c r="K27" s="101"/>
+      <c r="L27" s="101"/>
+      <c r="M27" s="101"/>
+    </row>
+    <row r="28" s="82" customFormat="1" spans="1:13">
+      <c r="A28" s="96"/>
+      <c r="B28" s="111" t="str">
         <f>'Информация для бумаг'!C25</f>
         <v>Хайтов Вадим Михайлович</v>
       </c>
-      <c r="C28" s="105"/>
-      <c r="D28" s="119" t="s">
+      <c r="C28" s="98"/>
+      <c r="D28" s="112" t="s">
         <v>466</v>
       </c>
-      <c r="E28" s="120"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="108"/>
-      <c r="J28" s="108"/>
-      <c r="K28" s="108"/>
-      <c r="L28" s="108"/>
-      <c r="M28" s="108"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="101"/>
+      <c r="K28" s="101"/>
+      <c r="L28" s="101"/>
+      <c r="M28" s="101"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="108"/>
-      <c r="B29" s="55" t="str">
+      <c r="A29" s="101"/>
+      <c r="B29" s="52" t="str">
         <f>'Информация для бумаг'!C26</f>
         <v>Котельникова Валентина Сергеевна</v>
       </c>
-      <c r="C29" s="105"/>
-      <c r="D29" s="122" t="s">
+      <c r="C29" s="98"/>
+      <c r="D29" s="115" t="s">
         <v>467</v>
       </c>
-      <c r="E29" s="123"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="109"/>
-      <c r="I29" s="140" t="s">
+      <c r="E29" s="116"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="133" t="s">
         <v>468</v>
       </c>
-      <c r="J29" s="141"/>
-      <c r="K29" s="141"/>
-      <c r="L29" s="141"/>
-      <c r="M29" s="142"/>
+      <c r="J29" s="134"/>
+      <c r="K29" s="134"/>
+      <c r="L29" s="134"/>
+      <c r="M29" s="135"/>
     </row>
     <row r="30" ht="15.6" spans="1:13">
-      <c r="A30" s="124" t="s">
+      <c r="A30" s="117" t="s">
         <v>469</v>
       </c>
-      <c r="B30" s="125"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="126"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="118"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
     </row>
     <row r="31" ht="15.75" customHeight="1" spans="1:13">
-      <c r="A31" s="127" t="s">
+      <c r="A31" s="120" t="s">
         <v>470</v>
       </c>
-      <c r="B31" s="128"/>
-      <c r="C31" s="53">
+      <c r="B31" s="121"/>
+      <c r="C31" s="50">
         <f>'Информация для бумаг'!C30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="129"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="118"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
     </row>
     <row r="32" ht="15.75" customHeight="1" spans="1:13">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="50" t="s">
         <v>471</v>
       </c>
-      <c r="H32" s="131" t="s">
+      <c r="H32" s="124" t="s">
         <v>472</v>
       </c>
-      <c r="I32" s="131"/>
-      <c r="J32" s="131"/>
-      <c r="K32" s="131"/>
-      <c r="L32" s="143"/>
-      <c r="M32" s="143"/>
+      <c r="I32" s="124"/>
+      <c r="J32" s="124"/>
+      <c r="K32" s="124"/>
+      <c r="L32" s="136"/>
+      <c r="M32" s="136"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" spans="8:8">
-      <c r="H33" s="53" t="s">
+      <c r="H33" s="50" t="s">
         <v>473</v>
       </c>
     </row>
@@ -13156,394 +13138,394 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="10" style="53" customWidth="1"/>
-    <col min="2" max="6" width="8" style="53"/>
-    <col min="7" max="7" width="23.5740740740741" style="53" customWidth="1"/>
-    <col min="8" max="8" width="10.712962962963" style="53" customWidth="1"/>
-    <col min="9" max="9" width="3.85185185185185" style="53" customWidth="1"/>
-    <col min="10" max="10" width="9.42592592592593" style="53" customWidth="1"/>
-    <col min="11" max="11" width="8" style="53"/>
-    <col min="12" max="12" width="13.1388888888889" style="53"/>
-    <col min="13" max="13" width="9.85185185185185" style="53"/>
-    <col min="14" max="14" width="8" style="53"/>
-    <col min="15" max="15" width="1.57407407407407" style="53" customWidth="1"/>
-    <col min="16" max="16384" width="8" style="53"/>
+    <col min="1" max="1" width="10" style="50" customWidth="1"/>
+    <col min="2" max="6" width="8" style="50"/>
+    <col min="7" max="7" width="23.5740740740741" style="50" customWidth="1"/>
+    <col min="8" max="8" width="10.712962962963" style="50" customWidth="1"/>
+    <col min="9" max="9" width="3.85185185185185" style="50" customWidth="1"/>
+    <col min="10" max="10" width="9.42592592592593" style="50" customWidth="1"/>
+    <col min="11" max="11" width="8" style="50"/>
+    <col min="12" max="12" width="13.1388888888889" style="50"/>
+    <col min="13" max="13" width="9.85185185185185" style="50"/>
+    <col min="14" max="14" width="8" style="50"/>
+    <col min="15" max="15" width="1.57407407407407" style="50" customWidth="1"/>
+    <col min="16" max="16384" width="8" style="50"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1" spans="1:14">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="60" t="s">
         <v>474</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="H1" s="61" t="s">
         <v>475</v>
       </c>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:14">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="62" t="s">
         <v>476</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="68" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="61" t="s">
         <v>477</v>
       </c>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
     </row>
     <row r="3" ht="12.75" customHeight="1" spans="1:7">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="71"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="64"/>
     </row>
     <row r="4" ht="12.75" customHeight="1" spans="1:14">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72" t="s">
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="65" t="s">
         <v>478</v>
       </c>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="70"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
     </row>
     <row r="6" ht="18" spans="1:14">
-      <c r="A6" s="70"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="H6" s="68" t="s">
+      <c r="A6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="H6" s="61" t="s">
         <v>479</v>
       </c>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="66" t="s">
         <v>480</v>
       </c>
-      <c r="I7" s="91" t="s">
+      <c r="I7" s="84" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:8">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="67" t="s">
         <v>482</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="68" t="s">
         <v>483</v>
       </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="77"/>
-      <c r="H8" s="78" t="s">
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
+      <c r="H8" s="71" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="9" ht="15.6" spans="1:10">
-      <c r="A9" s="74"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="81"/>
-      <c r="H9" s="68" t="s">
+      <c r="A9" s="67"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="74"/>
+      <c r="H9" s="61" t="s">
         <v>485</v>
       </c>
-      <c r="I9" s="53">
+      <c r="I9" s="50">
         <v>18</v>
       </c>
-      <c r="J9" s="88" t="s">
+      <c r="J9" s="81" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="10" ht="45" customHeight="1" spans="1:14">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="75" t="s">
         <v>487</v>
       </c>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="76" t="s">
         <v>488</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="H10" s="71" t="s">
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="H10" s="64" t="s">
         <v>489</v>
       </c>
-      <c r="J10" s="92" t="str">
+      <c r="J10" s="85" t="str">
         <f>'Информация для бумаг'!C3</f>
         <v>Санкт-Петербург - Толмачево- д.Ящера-Толмачево- Санкт-Петербург</v>
       </c>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="82"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="H11" s="62" t="s">
+      <c r="A11" s="75"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="H11" s="55" t="s">
         <v>490</v>
       </c>
-      <c r="I11" s="94">
+      <c r="I11" s="87">
         <f>DAYS360('Информация для бумаг'!C2,'Информация для бумаг'!D2)-1</f>
         <v>4</v>
       </c>
-      <c r="J11" s="53" t="s">
+      <c r="J11" s="50" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="12" ht="15.6" spans="1:12">
-      <c r="A12" s="84">
+      <c r="A12" s="77">
         <v>44320</v>
       </c>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="78" t="s">
         <v>492</v>
       </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="H12" s="86" t="s">
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="H12" s="79" t="s">
         <v>493</v>
       </c>
-      <c r="I12" s="86"/>
-      <c r="J12" s="95">
+      <c r="I12" s="79"/>
+      <c r="J12" s="88">
         <f>'Информация для бумаг'!C2</f>
         <v>44680</v>
       </c>
-      <c r="K12" s="96" t="s">
+      <c r="K12" s="89" t="s">
         <v>494</v>
       </c>
-      <c r="L12" s="97">
+      <c r="L12" s="90">
         <f>'Информация для бумаг'!D2</f>
         <v>44685</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1" spans="1:6">
-      <c r="A13" s="82"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
     </row>
     <row r="14" ht="15.6" spans="1:14">
-      <c r="A14" s="82"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="H14" s="88" t="s">
+      <c r="A14" s="75"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="H14" s="81" t="s">
         <v>495</v>
       </c>
-      <c r="K14" s="96" t="str">
+      <c r="K14" s="89" t="str">
         <f>'Информация для бумаг'!C25</f>
         <v>Хайтов Вадим Михайлович</v>
       </c>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="96"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="82"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="K15" s="62" t="s">
+      <c r="A15" s="75"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="K15" s="55" t="s">
         <v>415</v>
       </c>
-      <c r="L15" s="53">
+      <c r="L15" s="50">
         <f>'Информация для бумаг'!F25</f>
         <v>89217427984</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A16" s="82"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="H16" s="89" t="s">
+      <c r="A16" s="75"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="H16" s="82" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="82"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="H17" s="90" t="s">
+      <c r="A17" s="75"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="H17" s="83" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="82"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
     </row>
     <row r="19" ht="15.6" spans="1:14">
-      <c r="A19" s="82"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="H19" s="88" t="s">
+      <c r="A19" s="75"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="H19" s="81" t="s">
         <v>498</v>
       </c>
-      <c r="K19" s="96" t="str">
+      <c r="K19" s="89" t="str">
         <f>'Информация для бумаг'!C26</f>
         <v>Котельникова Валентина Сергеевна</v>
       </c>
-      <c r="L19" s="96"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="96"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="89"/>
     </row>
     <row r="20" spans="11:12">
-      <c r="K20" s="62" t="s">
+      <c r="K20" s="55" t="s">
         <v>415</v>
       </c>
-      <c r="L20" s="53">
+      <c r="L20" s="50">
         <f>'Информация для бумаг'!F26</f>
         <v>89679796720</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1" spans="8:14">
-      <c r="H22" s="68" t="s">
+      <c r="H22" s="61" t="s">
         <v>499</v>
       </c>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
     </row>
     <row r="23" ht="12.75" customHeight="1" spans="8:14">
-      <c r="H23" s="68" t="s">
+      <c r="H23" s="61" t="s">
         <v>500</v>
       </c>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
     </row>
     <row r="25" ht="15.6" spans="8:13">
-      <c r="H25" s="88" t="s">
+      <c r="H25" s="81" t="s">
         <v>501</v>
       </c>
-      <c r="M25" s="98">
+      <c r="M25" s="91">
         <f>'Информация для бумаг'!C28</f>
         <v>44669</v>
       </c>
     </row>
     <row r="26" ht="15.6" spans="1:9">
-      <c r="A26" s="88" t="s">
+      <c r="A26" s="81" t="s">
         <v>502</v>
       </c>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88" t="s">
+      <c r="H26" s="81"/>
+      <c r="I26" s="81" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="28" ht="15.6" spans="8:8">
-      <c r="H28" s="88" t="s">
+      <c r="H28" s="81" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="29" ht="15.6" spans="8:12">
-      <c r="H29" s="88" t="s">
+      <c r="H29" s="81" t="s">
         <v>505</v>
       </c>
-      <c r="K29" s="53">
+      <c r="K29" s="50">
         <f>'Информация для бумаг'!C29</f>
         <v>2022</v>
       </c>
-      <c r="L29" s="53" t="s">
+      <c r="L29" s="50" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="30" ht="15.6" spans="1:8">
-      <c r="A30" s="88" t="s">
+      <c r="A30" s="81" t="s">
         <v>507</v>
       </c>
-      <c r="H30" s="88"/>
+      <c r="H30" s="81"/>
     </row>
     <row r="31" ht="15.6" spans="8:8">
-      <c r="H31" s="88" t="s">
+      <c r="H31" s="81" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="32" ht="15.6" spans="8:12">
-      <c r="H32" s="88" t="s">
+      <c r="H32" s="81" t="s">
         <v>509</v>
       </c>
-      <c r="K32" s="53">
+      <c r="K32" s="50">
         <f>'Информация для бумаг'!C29</f>
         <v>2022</v>
       </c>
-      <c r="L32" s="53" t="s">
+      <c r="L32" s="50" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="33" ht="15.6" spans="8:8">
-      <c r="H33" s="90" t="s">
+      <c r="H33" s="83" t="s">
         <v>510</v>
       </c>
     </row>
@@ -13589,746 +13571,746 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.42592592592593" style="53"/>
-    <col min="2" max="2" width="35.712962962963" style="53" customWidth="1"/>
-    <col min="3" max="4" width="8" style="53"/>
-    <col min="5" max="5" width="12.8518518518519" style="53"/>
-    <col min="6" max="6" width="27.4259259259259" style="53" customWidth="1"/>
-    <col min="7" max="7" width="17.287037037037" style="62" customWidth="1"/>
-    <col min="8" max="8" width="30.287037037037" style="53" customWidth="1"/>
-    <col min="9" max="9" width="24.287037037037" style="53" customWidth="1"/>
-    <col min="10" max="16384" width="8" style="53"/>
+    <col min="1" max="1" width="3.42592592592593" style="50"/>
+    <col min="2" max="2" width="35.712962962963" style="50" customWidth="1"/>
+    <col min="3" max="4" width="8" style="50"/>
+    <col min="5" max="5" width="12.8518518518519" style="50"/>
+    <col min="6" max="6" width="27.4259259259259" style="50" customWidth="1"/>
+    <col min="7" max="7" width="17.287037037037" style="55" customWidth="1"/>
+    <col min="8" max="8" width="30.287037037037" style="50" customWidth="1"/>
+    <col min="9" max="9" width="24.287037037037" style="50" customWidth="1"/>
+    <col min="10" max="16384" width="8" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="50" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="50" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63" t="s">
+      <c r="A4" s="56"/>
+      <c r="B4" s="56" t="s">
         <v>513</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="56" t="s">
         <v>307</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="56" t="s">
         <v>308</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="56" t="s">
         <v>415</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="56" t="s">
         <v>514</v>
       </c>
-      <c r="G4" s="64" t="s">
+      <c r="G4" s="57" t="s">
         <v>314</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="52" t="s">
         <v>515</v>
       </c>
-      <c r="I4" s="55" t="s">
+      <c r="I4" s="52" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="55">
+      <c r="A5" s="52">
         <v>1</v>
       </c>
-      <c r="B5" s="55" t="str">
+      <c r="B5" s="52" t="str">
         <f>CONCATENATE('Информация для бумаг'!B5," ",'Информация для бумаг'!C5," ",'Информация для бумаг'!D5)</f>
         <v>Атаманов Андрей Иванович</v>
       </c>
-      <c r="C5" s="64">
+      <c r="C5" s="57">
         <f>'Информация для бумаг'!H5</f>
         <v>630</v>
       </c>
-      <c r="D5" s="64">
+      <c r="D5" s="57">
         <f>'Информация для бумаг'!I5</f>
         <v>10</v>
       </c>
-      <c r="E5" s="55">
+      <c r="E5" s="52">
         <f>'Информация для бумаг'!J5</f>
         <v>89118124048</v>
       </c>
-      <c r="F5" s="65" t="str">
+      <c r="F5" s="58" t="str">
         <f>'Информация для бумаг'!K5</f>
         <v>Шуваловский пр. д. 90 к. кв.180</v>
       </c>
-      <c r="G5" s="64">
+      <c r="G5" s="57">
         <f>'Информация для бумаг'!O5</f>
         <v>4018281460</v>
       </c>
-      <c r="H5" s="55" t="str">
+      <c r="H5" s="52" t="str">
         <f>'Информация для бумаг'!L5</f>
         <v>Атаманов Иван Валерьевич</v>
       </c>
-      <c r="I5" s="64" t="str">
+      <c r="I5" s="57" t="str">
         <f>'Информация для бумаг'!N5</f>
         <v>8 921 7476129, 8 921 9942973</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="55">
+      <c r="A6" s="52">
         <v>2</v>
       </c>
-      <c r="B6" s="55" t="str">
+      <c r="B6" s="52" t="str">
         <f>CONCATENATE('Информация для бумаг'!B6," ",'Информация для бумаг'!C6," ",'Информация для бумаг'!D6)</f>
         <v>Башилов Константин Вячеславович</v>
       </c>
-      <c r="C6" s="64">
+      <c r="C6" s="57">
         <f>'Информация для бумаг'!H6</f>
         <v>197</v>
       </c>
-      <c r="D6" s="64">
+      <c r="D6" s="57">
         <f>'Информация для бумаг'!I6</f>
         <v>7</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="52">
         <f>'Информация для бумаг'!J6</f>
         <v>89650953153</v>
       </c>
-      <c r="F6" s="65" t="str">
+      <c r="F6" s="58" t="str">
         <f>'Информация для бумаг'!K6</f>
         <v>СПб, Пестеля д. 13-15 кв. 108</v>
       </c>
-      <c r="G6" s="64">
+      <c r="G6" s="57">
         <f>'Информация для бумаг'!O6</f>
         <v>4022050606</v>
       </c>
-      <c r="H6" s="55" t="str">
+      <c r="H6" s="52" t="str">
         <f>'Информация для бумаг'!L6</f>
         <v>Батаковская Мария Павловна</v>
       </c>
-      <c r="I6" s="64">
+      <c r="I6" s="57">
         <f>'Информация для бумаг'!N6</f>
         <v>89052006465</v>
       </c>
     </row>
     <row r="7" ht="26.4" spans="1:9">
-      <c r="A7" s="55">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
-      <c r="B7" s="55" t="str">
+      <c r="B7" s="52" t="str">
         <f>CONCATENATE('Информация для бумаг'!B7," ",'Информация для бумаг'!C7," ",'Информация для бумаг'!D7)</f>
         <v>Бекасов Емельян Игоревич</v>
       </c>
-      <c r="C7" s="64">
+      <c r="C7" s="57">
         <f>'Информация для бумаг'!H7</f>
         <v>503</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="57">
         <f>'Информация для бумаг'!I7</f>
         <v>6</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7" s="52">
         <f>'Информация для бумаг'!J7</f>
         <v>89818295984</v>
       </c>
-      <c r="F7" s="65" t="str">
+      <c r="F7" s="58" t="str">
         <f>'Информация для бумаг'!K7</f>
         <v>Г. Санкт-Петербург, проспект Ветеранов д.3 к.3 лит.А кв.167</v>
       </c>
-      <c r="G7" s="64" t="str">
+      <c r="G7" s="57" t="str">
         <f>'Информация для бумаг'!O7</f>
         <v>II-AK 709233</v>
       </c>
-      <c r="H7" s="55" t="str">
+      <c r="H7" s="52" t="str">
         <f>'Информация для бумаг'!L7</f>
         <v>Калачева Мария Анатольевна</v>
       </c>
-      <c r="I7" s="64">
+      <c r="I7" s="57">
         <f>'Информация для бумаг'!N7</f>
         <v>89213414725</v>
       </c>
     </row>
     <row r="8" ht="26.4" spans="1:9">
-      <c r="A8" s="55">
+      <c r="A8" s="52">
         <v>4</v>
       </c>
-      <c r="B8" s="55" t="str">
+      <c r="B8" s="52" t="str">
         <f>CONCATENATE('Информация для бумаг'!B8," ",'Информация для бумаг'!C8," ",'Информация для бумаг'!D8)</f>
         <v>Белокуров Михаил Сергеевич</v>
       </c>
-      <c r="C8" s="64">
+      <c r="C8" s="57">
         <f>'Информация для бумаг'!H8</f>
         <v>225</v>
       </c>
-      <c r="D8" s="64">
+      <c r="D8" s="57">
         <f>'Информация для бумаг'!I8</f>
         <v>10</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="52">
         <f>'Информация для бумаг'!J8</f>
         <v>89215575265</v>
       </c>
-      <c r="F8" s="65" t="str">
+      <c r="F8" s="58" t="str">
         <f>'Информация для бумаг'!K8</f>
         <v>ул. Ставропольская д. 12/15 кв. 46</v>
       </c>
-      <c r="G8" s="64">
+      <c r="G8" s="57">
         <f>'Информация для бумаг'!O8</f>
         <v>4019397258</v>
       </c>
-      <c r="H8" s="55" t="str">
+      <c r="H8" s="52" t="str">
         <f>'Информация для бумаг'!L8</f>
         <v>Белокурова Елена Валентиновна</v>
       </c>
-      <c r="I8" s="64">
+      <c r="I8" s="57">
         <f>'Информация для бумаг'!N8</f>
         <v>89213205528</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>5</v>
       </c>
-      <c r="B9" s="55" t="str">
+      <c r="B9" s="52" t="str">
         <f>CONCATENATE('Информация для бумаг'!B9," ",'Информация для бумаг'!C9," ",'Информация для бумаг'!D9)</f>
         <v>Бритиков Александр Ильич</v>
       </c>
-      <c r="C9" s="64">
+      <c r="C9" s="57">
         <f>'Информация для бумаг'!H9</f>
         <v>56</v>
       </c>
-      <c r="D9" s="64">
+      <c r="D9" s="57">
         <f>'Информация для бумаг'!I9</f>
         <v>7</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="52">
         <f>'Информация для бумаг'!J9</f>
         <v>89291040939</v>
       </c>
-      <c r="F9" s="65" t="str">
+      <c r="F9" s="58" t="str">
         <f>'Информация для бумаг'!K9</f>
         <v>Ул. Лахтинская 20-36</v>
       </c>
-      <c r="G9" s="64" t="str">
+      <c r="G9" s="57" t="str">
         <f>'Информация для бумаг'!O9</f>
         <v>I I-АК 703140</v>
       </c>
-      <c r="H9" s="55" t="str">
+      <c r="H9" s="52" t="str">
         <f>'Информация для бумаг'!L9</f>
         <v>Бритикова Ольга Николаевна</v>
       </c>
-      <c r="I9" s="64">
+      <c r="I9" s="57">
         <f>'Информация для бумаг'!N9</f>
         <v>89052622652</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="55">
+      <c r="A10" s="52">
         <v>6</v>
       </c>
-      <c r="B10" s="55" t="str">
+      <c r="B10" s="52" t="str">
         <f>CONCATENATE('Информация для бумаг'!B10," ",'Информация для бумаг'!C10," ",'Информация для бумаг'!D10)</f>
         <v>Евдокимова Алёна Игоревна</v>
       </c>
-      <c r="C10" s="64">
+      <c r="C10" s="57">
         <f>'Информация для бумаг'!H10</f>
         <v>225</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="57">
         <f>'Информация для бумаг'!I10</f>
         <v>11</v>
       </c>
-      <c r="E10" s="55">
+      <c r="E10" s="52">
         <f>'Информация для бумаг'!J10</f>
         <v>89818346175</v>
       </c>
-      <c r="F10" s="65" t="str">
+      <c r="F10" s="58" t="str">
         <f>'Информация для бумаг'!K10</f>
         <v>ул. Витебская, д.10, кв.14</v>
       </c>
-      <c r="G10" s="64">
+      <c r="G10" s="57">
         <f>'Информация для бумаг'!O10</f>
         <v>4018085917</v>
       </c>
-      <c r="H10" s="55" t="str">
+      <c r="H10" s="52" t="str">
         <f>'Информация для бумаг'!L10</f>
         <v>Пасько Ольга Владимировна</v>
       </c>
-      <c r="I10" s="64">
+      <c r="I10" s="57">
         <f>'Информация для бумаг'!N10</f>
         <v>89117966505</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>7</v>
       </c>
-      <c r="B11" s="55" t="str">
+      <c r="B11" s="52" t="str">
         <f>CONCATENATE('Информация для бумаг'!B11," ",'Информация для бумаг'!C11," ",'Информация для бумаг'!D11)</f>
         <v>Ершова Татьяна Алексеевна</v>
       </c>
-      <c r="C11" s="64">
+      <c r="C11" s="57">
         <f>'Информация для бумаг'!H11</f>
         <v>441</v>
       </c>
-      <c r="D11" s="64">
+      <c r="D11" s="57">
         <f>'Информация для бумаг'!I11</f>
         <v>8</v>
       </c>
-      <c r="E11" s="55">
+      <c r="E11" s="52">
         <f>'Информация для бумаг'!J11</f>
         <v>89213354865</v>
       </c>
-      <c r="F11" s="65" t="str">
+      <c r="F11" s="58" t="str">
         <f>'Информация для бумаг'!K11</f>
         <v>ул. Малая Карпатская д.17 кв 275</v>
       </c>
-      <c r="G11" s="64">
+      <c r="G11" s="57">
         <f>'Информация для бумаг'!O11</f>
         <v>4020831130</v>
       </c>
-      <c r="H11" s="55" t="str">
+      <c r="H11" s="52" t="str">
         <f>'Информация для бумаг'!L11</f>
         <v>Ершова Ирина Алексеевна</v>
       </c>
-      <c r="I11" s="64">
+      <c r="I11" s="57">
         <f>'Информация для бумаг'!N11</f>
         <v>89522270284</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="55">
+      <c r="A12" s="52">
         <v>8</v>
       </c>
-      <c r="B12" s="55" t="str">
+      <c r="B12" s="52" t="str">
         <f>CONCATENATE('Информация для бумаг'!B12," ",'Информация для бумаг'!C12," ",'Информация для бумаг'!D12)</f>
         <v>Иванов Тимофей Кириллович</v>
       </c>
-      <c r="C12" s="64">
+      <c r="C12" s="57">
         <f>'Информация для бумаг'!H12</f>
         <v>56</v>
       </c>
-      <c r="D12" s="64">
+      <c r="D12" s="57">
         <f>'Информация для бумаг'!I12</f>
         <v>9</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="52">
         <f>'Информация для бумаг'!J12</f>
         <v>89214136722</v>
       </c>
-      <c r="F12" s="65" t="str">
+      <c r="F12" s="58" t="str">
         <f>'Информация для бумаг'!K12</f>
         <v>Каменноостровский 69-29</v>
       </c>
-      <c r="G12" s="64">
+      <c r="G12" s="57">
         <f>'Информация для бумаг'!O12</f>
         <v>4002634542</v>
       </c>
-      <c r="H12" s="55" t="str">
+      <c r="H12" s="52" t="str">
         <f>'Информация для бумаг'!L12</f>
         <v>Иванова Мария Владимировна</v>
       </c>
-      <c r="I12" s="64">
+      <c r="I12" s="57">
         <f>'Информация для бумаг'!N12</f>
         <v>89533722040</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="55">
+      <c r="A13" s="52">
         <v>9</v>
       </c>
-      <c r="B13" s="55" t="str">
+      <c r="B13" s="52" t="str">
         <f>CONCATENATE('Информация для бумаг'!B13," ",'Информация для бумаг'!C13," ",'Информация для бумаг'!D13)</f>
         <v>Киселев Вениамин Алексеевич</v>
       </c>
-      <c r="C13" s="64" t="str">
+      <c r="C13" s="57" t="str">
         <f>'Информация для бумаг'!H13</f>
         <v>Гимназия №92</v>
       </c>
-      <c r="D13" s="64">
+      <c r="D13" s="57">
         <f>'Информация для бумаг'!I13</f>
         <v>5</v>
       </c>
-      <c r="E13" s="55">
+      <c r="E13" s="52">
         <f>'Информация для бумаг'!J13</f>
         <v>89219845986</v>
       </c>
-      <c r="F13" s="65" t="str">
+      <c r="F13" s="58" t="str">
         <f>'Информация для бумаг'!K13</f>
         <v>пр.Тореза, д.80, кв.78</v>
       </c>
-      <c r="G13" s="64" t="str">
+      <c r="G13" s="57" t="str">
         <f>'Информация для бумаг'!O13</f>
         <v>II-AK №798373</v>
       </c>
-      <c r="H13" s="55" t="str">
+      <c r="H13" s="52" t="str">
         <f>'Информация для бумаг'!L13</f>
         <v>Киселева Марина Игоревна</v>
       </c>
-      <c r="I13" s="64">
+      <c r="I13" s="57">
         <f>'Информация для бумаг'!N13</f>
         <v>89213323160</v>
       </c>
     </row>
     <row r="14" ht="26.4" spans="1:9">
-      <c r="A14" s="55">
+      <c r="A14" s="52">
         <v>10</v>
       </c>
-      <c r="B14" s="55" t="str">
+      <c r="B14" s="52" t="str">
         <f>CONCATENATE('Информация для бумаг'!B14," ",'Информация для бумаг'!C14," ",'Информация для бумаг'!D14)</f>
         <v>Кудряшов Тимофей Андреевич</v>
       </c>
-      <c r="C14" s="64">
+      <c r="C14" s="57">
         <f>'Информация для бумаг'!H14</f>
         <v>504</v>
       </c>
-      <c r="D14" s="64">
+      <c r="D14" s="57">
         <f>'Информация для бумаг'!I14</f>
         <v>11</v>
       </c>
-      <c r="E14" s="55">
+      <c r="E14" s="52">
         <f>'Информация для бумаг'!J14</f>
         <v>89111652301</v>
       </c>
-      <c r="F14" s="65" t="str">
+      <c r="F14" s="58" t="str">
         <f>'Информация для бумаг'!K14</f>
         <v>пр. Маршала Жукова, д.45, кв 222</v>
       </c>
-      <c r="G14" s="64">
+      <c r="G14" s="57">
         <f>'Информация для бумаг'!O14</f>
         <v>4018287872</v>
       </c>
-      <c r="H14" s="55" t="str">
+      <c r="H14" s="52" t="str">
         <f>'Информация для бумаг'!L14</f>
         <v>Кудряшов Андрей Николаевич</v>
       </c>
-      <c r="I14" s="64">
+      <c r="I14" s="57">
         <f>'Информация для бумаг'!N14</f>
         <v>89817910834</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="55">
+      <c r="A15" s="52">
         <v>11</v>
       </c>
-      <c r="B15" s="55" t="str">
+      <c r="B15" s="52" t="str">
         <f>CONCATENATE('Информация для бумаг'!B15," ",'Информация для бумаг'!C15," ",'Информация для бумаг'!D15)</f>
         <v>Островский Виктор Владиславович</v>
       </c>
-      <c r="C15" s="64">
+      <c r="C15" s="57">
         <f>'Информация для бумаг'!H15</f>
         <v>518</v>
       </c>
-      <c r="D15" s="64">
+      <c r="D15" s="57">
         <f>'Информация для бумаг'!I15</f>
         <v>6</v>
       </c>
-      <c r="E15" s="55">
+      <c r="E15" s="52">
         <f>'Информация для бумаг'!J15</f>
         <v>89313127300</v>
       </c>
-      <c r="F15" s="65" t="str">
+      <c r="F15" s="58" t="str">
         <f>'Информация для бумаг'!K15</f>
         <v>Парголово ул.Шишкина 58</v>
       </c>
-      <c r="G15" s="64" t="str">
+      <c r="G15" s="57" t="str">
         <f>'Информация для бумаг'!O15</f>
         <v>II-АК 745451</v>
       </c>
-      <c r="H15" s="55" t="str">
+      <c r="H15" s="52" t="str">
         <f>'Информация для бумаг'!L15</f>
         <v>островская любовь юрьевна</v>
       </c>
-      <c r="I15" s="64">
+      <c r="I15" s="57">
         <f>'Информация для бумаг'!N15</f>
         <v>89213409406</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="55">
+      <c r="A16" s="52">
         <v>12</v>
       </c>
-      <c r="B16" s="55" t="str">
+      <c r="B16" s="52" t="str">
         <f>CONCATENATE('Информация для бумаг'!B16," ",'Информация для бумаг'!C16," ",'Информация для бумаг'!D16)</f>
         <v>Попов Василий Владиславович</v>
       </c>
-      <c r="C16" s="64">
+      <c r="C16" s="57">
         <f>'Информация для бумаг'!H16</f>
         <v>183</v>
       </c>
-      <c r="D16" s="64">
+      <c r="D16" s="57">
         <f>'Информация для бумаг'!I16</f>
         <v>8</v>
       </c>
-      <c r="E16" s="55">
+      <c r="E16" s="52">
         <f>'Информация для бумаг'!J16</f>
         <v>89610752525</v>
       </c>
-      <c r="F16" s="65" t="str">
+      <c r="F16" s="58" t="str">
         <f>'Информация для бумаг'!K16</f>
         <v>Ул.Бутлерова, 11 к.4 , кв 385</v>
       </c>
-      <c r="G16" s="64">
+      <c r="G16" s="57">
         <f>'Информация для бумаг'!O16</f>
         <v>4021966729</v>
       </c>
-      <c r="H16" s="55" t="str">
+      <c r="H16" s="52" t="str">
         <f>'Информация для бумаг'!L16</f>
         <v>Попова Юлия Юрьевна</v>
       </c>
-      <c r="I16" s="64">
+      <c r="I16" s="57">
         <f>'Информация для бумаг'!N16</f>
         <v>89610717771</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="55">
+      <c r="A17" s="52">
         <v>13</v>
       </c>
-      <c r="B17" s="55" t="str">
+      <c r="B17" s="52" t="str">
         <f>CONCATENATE('Информация для бумаг'!B17," ",'Информация для бумаг'!C17," ",'Информация для бумаг'!D17)</f>
         <v>Сайчик Мария Владимировна</v>
       </c>
-      <c r="C17" s="64">
+      <c r="C17" s="57">
         <f>'Информация для бумаг'!H17</f>
         <v>586</v>
       </c>
-      <c r="D17" s="64">
+      <c r="D17" s="57">
         <f>'Информация для бумаг'!I17</f>
         <v>9</v>
       </c>
-      <c r="E17" s="55">
+      <c r="E17" s="52">
         <f>'Информация для бумаг'!J17</f>
         <v>89818723635</v>
       </c>
-      <c r="F17" s="65" t="str">
+      <c r="F17" s="58" t="str">
         <f>'Информация для бумаг'!K17</f>
         <v>Кораблестроителей 39-871</v>
       </c>
-      <c r="G17" s="64">
+      <c r="G17" s="57">
         <f>'Информация для бумаг'!O17</f>
         <v>4020691039</v>
       </c>
-      <c r="H17" s="55" t="str">
+      <c r="H17" s="52" t="str">
         <f>'Информация для бумаг'!L17</f>
         <v>Сайчик Татьяна Борисовна</v>
       </c>
-      <c r="I17" s="64">
+      <c r="I17" s="57">
         <f>'Информация для бумаг'!N17</f>
         <v>89818417041</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="55">
+      <c r="A18" s="52">
         <v>14</v>
       </c>
-      <c r="B18" s="55" t="str">
+      <c r="B18" s="52" t="str">
         <f>CONCATENATE('Информация для бумаг'!B18," ",'Информация для бумаг'!C18," ",'Информация для бумаг'!D18)</f>
         <v>Федорова Ксения Сергеевна</v>
       </c>
-      <c r="C18" s="64">
+      <c r="C18" s="57">
         <f>'Информация для бумаг'!H18</f>
         <v>64</v>
       </c>
-      <c r="D18" s="64">
+      <c r="D18" s="57">
         <f>'Информация для бумаг'!I18</f>
         <v>6</v>
       </c>
-      <c r="E18" s="55">
+      <c r="E18" s="52">
         <f>'Информация для бумаг'!J18</f>
         <v>89633411161</v>
       </c>
-      <c r="F18" s="65" t="str">
+      <c r="F18" s="58" t="str">
         <f>'Информация для бумаг'!K18</f>
         <v>Камышовая 14 КВ 163</v>
       </c>
-      <c r="G18" s="64" t="str">
+      <c r="G18" s="57" t="str">
         <f>'Информация для бумаг'!O18</f>
         <v>II-АК 789060</v>
       </c>
-      <c r="H18" s="55" t="str">
+      <c r="H18" s="52" t="str">
         <f>'Информация для бумаг'!L18</f>
         <v>Федорова Марина Александровна</v>
       </c>
-      <c r="I18" s="64">
+      <c r="I18" s="57">
         <f>'Информация для бумаг'!N18</f>
         <v>89657737525</v>
       </c>
     </row>
     <row r="19" ht="39.6" spans="1:9">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>15</v>
       </c>
-      <c r="B19" s="55" t="str">
+      <c r="B19" s="52" t="str">
         <f>CONCATENATE('Информация для бумаг'!B19," ",'Информация для бумаг'!C19," ",'Информация для бумаг'!D19)</f>
         <v>Шеламова Виктория Сергеевна</v>
       </c>
-      <c r="C19" s="64" t="str">
+      <c r="C19" s="57" t="str">
         <f>'Информация для бумаг'!H19</f>
         <v>№ 471</v>
       </c>
-      <c r="D19" s="64">
+      <c r="D19" s="57">
         <f>'Информация для бумаг'!I19</f>
         <v>7</v>
       </c>
-      <c r="E19" s="55">
+      <c r="E19" s="52">
         <f>'Информация для бумаг'!J19</f>
         <v>89817032760</v>
       </c>
-      <c r="F19" s="65" t="str">
+      <c r="F19" s="58" t="str">
         <f>'Информация для бумаг'!K19</f>
         <v>п. Парголово, Приозерское шоссе (Осиновая роща),  д.16 к.4 кв.46</v>
       </c>
-      <c r="G19" s="64" t="str">
+      <c r="G19" s="57" t="str">
         <f>'Информация для бумаг'!O19</f>
         <v>II-BO № 585040</v>
       </c>
-      <c r="H19" s="55" t="str">
+      <c r="H19" s="52" t="str">
         <f>'Информация для бумаг'!L19</f>
         <v>Шеламова Галина Анатольевна</v>
       </c>
-      <c r="I19" s="64">
+      <c r="I19" s="57">
         <f>'Информация для бумаг'!N19</f>
         <v>89111407222</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="55">
+      <c r="A20" s="52">
         <v>16</v>
       </c>
-      <c r="B20" s="55" t="str">
+      <c r="B20" s="52" t="str">
         <f>CONCATENATE('Информация для бумаг'!B20," ",'Информация для бумаг'!C20," ",'Информация для бумаг'!D20)</f>
         <v>Шилонцев Андрей Александрович</v>
       </c>
-      <c r="C20" s="64">
+      <c r="C20" s="57">
         <f>'Информация для бумаг'!H20</f>
         <v>0</v>
       </c>
-      <c r="D20" s="64">
+      <c r="D20" s="57">
         <f>'Информация для бумаг'!I20</f>
         <v>0</v>
       </c>
-      <c r="E20" s="55">
+      <c r="E20" s="52">
         <f>'Информация для бумаг'!J20</f>
         <v>89213026506</v>
       </c>
-      <c r="F20" s="65" t="str">
+      <c r="F20" s="58" t="str">
         <f>'Информация для бумаг'!K20</f>
         <v>Ленинский пр. 117-1-603</v>
       </c>
-      <c r="G20" s="64">
+      <c r="G20" s="57">
         <f>'Информация для бумаг'!O20</f>
         <v>4020684651</v>
       </c>
-      <c r="H20" s="55" t="str">
+      <c r="H20" s="52" t="str">
         <f>'Информация для бумаг'!L20</f>
         <v>Шилонцева Татьяна Александровна</v>
       </c>
-      <c r="I20" s="64">
+      <c r="I20" s="57">
         <f>'Информация для бумаг'!N20</f>
         <v>89213026506</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>17</v>
       </c>
-      <c r="B21" s="55" t="str">
+      <c r="B21" s="52" t="str">
         <f>CONCATENATE('Информация для бумаг'!B21," ",'Информация для бумаг'!C21," ",'Информация для бумаг'!D21)</f>
         <v>Шишкина Анна Андреевна</v>
       </c>
-      <c r="C21" s="64">
+      <c r="C21" s="57">
         <f>'Информация для бумаг'!H21</f>
         <v>43</v>
       </c>
-      <c r="D21" s="64">
+      <c r="D21" s="57">
         <f>'Информация для бумаг'!I21</f>
         <v>6</v>
       </c>
-      <c r="E21" s="55">
+      <c r="E21" s="52">
         <f>'Информация для бумаг'!J21</f>
         <v>89819793731</v>
       </c>
-      <c r="F21" s="65" t="str">
+      <c r="F21" s="58" t="str">
         <f>'Информация для бумаг'!K21</f>
         <v>Проспект Сизова 14 кв.90</v>
       </c>
-      <c r="G21" s="64" t="str">
+      <c r="G21" s="57" t="str">
         <f>'Информация для бумаг'!O21</f>
         <v>II АК 731804</v>
       </c>
-      <c r="H21" s="55" t="str">
+      <c r="H21" s="52" t="str">
         <f>'Информация для бумаг'!L21</f>
         <v>Шишкина  Ирина Викторовна</v>
       </c>
-      <c r="I21" s="64">
+      <c r="I21" s="57">
         <f>'Информация для бумаг'!N21</f>
         <v>89118110171</v>
       </c>
     </row>
     <row r="22" ht="26.4" spans="1:9">
-      <c r="A22" s="55">
+      <c r="A22" s="52">
         <v>18</v>
       </c>
-      <c r="B22" s="55" t="str">
+      <c r="B22" s="52" t="str">
         <f>CONCATENATE('Информация для бумаг'!B22," ",'Информация для бумаг'!C22," ",'Информация для бумаг'!D22)</f>
         <v>Шишкина Алина Денисовна</v>
       </c>
-      <c r="C22" s="64">
+      <c r="C22" s="57">
         <f>'Информация для бумаг'!H22</f>
         <v>246</v>
       </c>
-      <c r="D22" s="64">
+      <c r="D22" s="57">
         <f>'Информация для бумаг'!I22</f>
         <v>11</v>
       </c>
-      <c r="E22" s="55">
+      <c r="E22" s="52">
         <f>'Информация для бумаг'!J22</f>
         <v>89312711134</v>
       </c>
-      <c r="F22" s="65" t="str">
+      <c r="F22" s="58" t="str">
         <f>'Информация для бумаг'!K22</f>
         <v>Проспект Авиаконструкторов, дом 47, квартира 4</v>
       </c>
-      <c r="G22" s="64">
+      <c r="G22" s="57">
         <f>'Информация для бумаг'!O22</f>
         <v>4018029738</v>
       </c>
-      <c r="H22" s="55" t="str">
+      <c r="H22" s="52" t="str">
         <f>'Информация для бумаг'!L22</f>
         <v>Шишкин Денис Витальевич</v>
       </c>
-      <c r="I22" s="64">
+      <c r="I22" s="57">
         <f>'Информация для бумаг'!N22</f>
         <v>89218717677</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="53" t="str">
+      <c r="B25" s="50" t="str">
         <f>'Информация для бумаг'!C25</f>
         <v>Хайтов Вадим Михайлович</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="50" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="53" t="str">
+      <c r="B27" s="50" t="str">
         <f>'Информация для бумаг'!C26</f>
         <v>Котельникова Валентина Сергеевна</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="50" t="s">
         <v>517</v>
       </c>
     </row>
@@ -14342,201 +14324,345 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="32.1388888888889" style="53" customWidth="1"/>
-    <col min="2" max="2" width="16.8518518518519" style="53" customWidth="1"/>
-    <col min="3" max="3" width="16.4259259259259" style="53" customWidth="1"/>
-    <col min="4" max="4" width="18.712962962963" style="53" customWidth="1"/>
-    <col min="5" max="5" width="13.1388888888889" style="53" customWidth="1"/>
-    <col min="6" max="6" width="11.1388888888889" style="53" customWidth="1"/>
-    <col min="7" max="7" width="16.5740740740741" style="53" customWidth="1"/>
-    <col min="8" max="8" width="19.287037037037" style="53" customWidth="1"/>
-    <col min="9" max="16384" width="8" style="53"/>
+    <col min="1" max="1" width="32.1388888888889" style="50" customWidth="1"/>
+    <col min="2" max="2" width="16.8518518518519" style="50" customWidth="1"/>
+    <col min="3" max="3" width="18.712962962963" style="50" customWidth="1"/>
+    <col min="4" max="4" width="13.1388888888889" style="50" customWidth="1"/>
+    <col min="5" max="16384" width="8" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="51" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="2" ht="82.5" customHeight="1" spans="1:8">
-      <c r="A2" s="55" t="s">
+    <row r="2" ht="82.5" customHeight="1" spans="1:4">
+      <c r="A2" s="52" t="s">
         <v>513</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="53" t="s">
         <v>304</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="53" t="s">
         <v>519</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="53" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="52" t="str">
+        <f>'Cписок для приказа'!B5</f>
+        <v>Атаманов Андрей Иванович</v>
+      </c>
+      <c r="B3" s="54">
+        <f>'Информация для бумаг'!E5</f>
+        <v>13</v>
+      </c>
+      <c r="C3" s="54" t="s">
         <v>520</v>
       </c>
-      <c r="E2" s="56" t="s">
-        <v>305</v>
-      </c>
-      <c r="F2" s="56" t="s">
-        <v>521</v>
-      </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="55"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="55"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="55"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="55"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="55"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="55"/>
-    </row>
-    <row r="6" ht="14.4" spans="1:8">
-      <c r="A6" s="55"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="55"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="55"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="55"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="55"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="55"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="55"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="55"/>
-    </row>
-    <row r="10" ht="14.4" spans="1:8">
-      <c r="A10" s="55"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="55"/>
-    </row>
-    <row r="11" ht="14.4" spans="1:8">
-      <c r="A11" s="55"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="55"/>
-    </row>
-    <row r="12" ht="14.4" spans="1:8">
-      <c r="A12" s="55"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="55"/>
-    </row>
-    <row r="13" ht="14.4" spans="1:8">
-      <c r="A13" s="55"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="55"/>
-    </row>
-    <row r="14" ht="14.4" spans="1:8">
-      <c r="A14" s="55"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="55"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="55"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="55"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="55"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="55"/>
-    </row>
-    <row r="17" ht="14.4" spans="1:8">
-      <c r="A17" s="55"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="55"/>
+      <c r="D3" s="54">
+        <f>'Информация для бумаг'!F5</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="52" t="str">
+        <f>'Cписок для приказа'!B6</f>
+        <v>Башилов Константин Вячеславович</v>
+      </c>
+      <c r="B4" s="54">
+        <f>'Информация для бумаг'!E6</f>
+        <v>10</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="D4" s="54" t="str">
+        <f>'Информация для бумаг'!F6</f>
+        <v>вместе со справкой о здоровье</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="52" t="str">
+        <f>'Cписок для приказа'!B7</f>
+        <v>Бекасов Емельян Игоревич</v>
+      </c>
+      <c r="B5" s="54">
+        <f>'Информация для бумаг'!E7</f>
+        <v>22</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="D5" s="54">
+        <f>'Информация для бумаг'!F7</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="52" t="str">
+        <f>'Cписок для приказа'!B8</f>
+        <v>Белокуров Михаил Сергеевич</v>
+      </c>
+      <c r="B6" s="54">
+        <f>'Информация для бумаг'!E8</f>
+        <v>16</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="D6" s="54">
+        <f>'Информация для бумаг'!F8</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="52" t="str">
+        <f>'Cписок для приказа'!B9</f>
+        <v>Бритиков Александр Ильич</v>
+      </c>
+      <c r="B7" s="54">
+        <f>'Информация для бумаг'!E9</f>
+        <v>4</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="D7" s="54">
+        <f>'Информация для бумаг'!F9</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="52" t="str">
+        <f>'Cписок для приказа'!B10</f>
+        <v>Евдокимова Алёна Игоревна</v>
+      </c>
+      <c r="B8" s="54">
+        <f>'Информация для бумаг'!E10</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="D8" s="54">
+        <f>'Информация для бумаг'!F10</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="52" t="str">
+        <f>'Cписок для приказа'!B11</f>
+        <v>Ершова Татьяна Алексеевна</v>
+      </c>
+      <c r="B9" s="54">
+        <f>'Информация для бумаг'!E11</f>
+        <v>5</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="D9" s="54">
+        <f>'Информация для бумаг'!F11</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="52" t="str">
+        <f>'Cписок для приказа'!B12</f>
+        <v>Иванов Тимофей Кириллович</v>
+      </c>
+      <c r="B10" s="54">
+        <f>'Информация для бумаг'!E12</f>
+        <v>11</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="D10" s="54">
+        <f>'Информация для бумаг'!F12</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="52" t="str">
+        <f>'Cписок для приказа'!B13</f>
+        <v>Киселев Вениамин Алексеевич</v>
+      </c>
+      <c r="B11" s="54">
+        <f>'Информация для бумаг'!E13</f>
+        <v>6</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="D11" s="54">
+        <f>'Информация для бумаг'!F13</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="52" t="str">
+        <f>'Cписок для приказа'!B14</f>
+        <v>Кудряшов Тимофей Андреевич</v>
+      </c>
+      <c r="B12" s="54">
+        <f>'Информация для бумаг'!E14</f>
+        <v>12</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="D12" s="54">
+        <f>'Информация для бумаг'!F14</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="52" t="str">
+        <f>'Cписок для приказа'!B15</f>
+        <v>Островский Виктор Владиславович</v>
+      </c>
+      <c r="B13" s="54">
+        <f>'Информация для бумаг'!E15</f>
+        <v>9</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="D13" s="54">
+        <f>'Информация для бумаг'!F15</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="52" t="str">
+        <f>'Cписок для приказа'!B16</f>
+        <v>Попов Василий Владиславович</v>
+      </c>
+      <c r="B14" s="54">
+        <f>'Информация для бумаг'!E16</f>
+        <v>8</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="D14" s="54">
+        <f>'Информация для бумаг'!F16</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="52" t="str">
+        <f>'Cписок для приказа'!B17</f>
+        <v>Сайчик Мария Владимировна</v>
+      </c>
+      <c r="B15" s="54">
+        <f>'Информация для бумаг'!E17</f>
+        <v>2</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="D15" s="54">
+        <f>'Информация для бумаг'!F17</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="52" t="str">
+        <f>'Cписок для приказа'!B18</f>
+        <v>Федорова Ксения Сергеевна</v>
+      </c>
+      <c r="B16" s="54">
+        <f>'Информация для бумаг'!E18</f>
+        <v>14</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="D16" s="54">
+        <f>'Информация для бумаг'!F18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="52" t="str">
+        <f>'Cписок для приказа'!B19</f>
+        <v>Шеламова Виктория Сергеевна</v>
+      </c>
+      <c r="B17" s="54">
+        <f>'Информация для бумаг'!E19</f>
+        <v>7</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="D17" s="54">
+        <f>'Информация для бумаг'!F19</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="52" t="str">
+        <f>'Cписок для приказа'!B20</f>
+        <v>Шилонцев Андрей Александрович</v>
+      </c>
+      <c r="B18" s="54">
+        <f>'Информация для бумаг'!E20</f>
+        <v>17</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="D18" s="54">
+        <f>'Информация для бумаг'!F20</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="52" t="str">
+        <f>'Cписок для приказа'!B21</f>
+        <v>Шишкина Анна Андреевна</v>
+      </c>
+      <c r="B19" s="54">
+        <f>'Информация для бумаг'!E21</f>
+        <v>20</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="D19" s="54">
+        <f>'Информация для бумаг'!F21</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="52" t="str">
+        <f>'Cписок для приказа'!B22</f>
+        <v>Шишкина Алина Денисовна</v>
+      </c>
+      <c r="B20" s="54">
+        <f>'Информация для бумаг'!E22</f>
+        <v>18</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="D20" s="54">
+        <f>'Информация для бумаг'!F22</f>
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jashera 2022/Jashera 2022.xlsx
+++ b/Jashera 2022/Jashera 2022.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VM_space\Text\Article\Lab-processings\Jashera 2022\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" tabRatio="804" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9270" tabRatio="804" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Список оборудования" sheetId="12" r:id="rId1"/>
@@ -28,10 +33,10 @@
     <externalReference r:id="rId17"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Участники!$A$1:$Y$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Список для страховки'!$A$1:$F$25</definedName>
     <definedName name="_ftn1" localSheetId="6">'Маршлист внешняя сторона'!$H$29</definedName>
     <definedName name="_ftnref1" localSheetId="6">'Маршлист внешняя сторона'!$H$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Список для страховки'!$A$1:$F$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Участники!$A$1:$Y$24</definedName>
     <definedName name="class" localSheetId="7">[1]Справочник!$H$2:$H$14</definedName>
     <definedName name="class" localSheetId="2">[2]Справочник!$H$2:$H$14</definedName>
     <definedName name="class">[3]Справочник!$H$2:$H$14</definedName>
@@ -39,7 +44,7 @@
     <definedName name="dist" localSheetId="2">[2]Справочник!$F$2:$F$19</definedName>
     <definedName name="dist">[4]Справочник!$F$2:$F$19</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -2176,21 +2181,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="11">
-    <numFmt numFmtId="176" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="181" formatCode="dd\.mm\.yyyy\ h:mm"/>
-    <numFmt numFmtId="182" formatCode="dd\.mm\.yyyy;@"/>
-    <numFmt numFmtId="183" formatCode="dd\.mmm"/>
-    <numFmt numFmtId="184" formatCode="[$-419]d\ mm\ yyyy;@"/>
-    <numFmt numFmtId="185" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
-    <numFmt numFmtId="186" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="7">
+    <numFmt numFmtId="168" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="169" formatCode="dd\.mm\.yyyy\ h:mm"/>
+    <numFmt numFmtId="170" formatCode="dd\.mm\.yyyy;@"/>
+    <numFmt numFmtId="171" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="172" formatCode="[$-419]d\ mm\ yyyy;@"/>
+    <numFmt numFmtId="173" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
+    <numFmt numFmtId="174" formatCode="0.0"/>
   </numFmts>
-  <fonts count="52">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2382,146 +2383,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2531,7 +2395,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2562,188 +2426,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="23">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2917,262 +2601,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="56">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="30" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3181,28 +2626,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -3211,7 +2656,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -3220,7 +2665,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3229,7 +2674,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3241,7 +2686,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3259,7 +2704,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3287,7 +2732,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
@@ -3301,7 +2746,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3317,57 +2762,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3376,22 +2779,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3404,31 +2798,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3439,24 +2818,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3464,22 +2831,13 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3488,16 +2846,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3506,27 +2864,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="25" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3546,11 +2895,41 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="25" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3563,109 +2942,141 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="183" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="183" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="186" fontId="25" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="36" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="36" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="56">
+  <cellStyles count="9">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
-    <cellStyle name="Обычный_СПИСОК ОБОРУДОВАНИЯ_1" xfId="2"/>
-    <cellStyle name="Денежный [0]" xfId="3" builtinId="7"/>
-    <cellStyle name="40% — Акцент5" xfId="4" builtinId="47"/>
-    <cellStyle name="Хороший" xfId="5" builtinId="26"/>
-    <cellStyle name="Запятая [0]" xfId="6" builtinId="6"/>
-    <cellStyle name="Денежный" xfId="7" builtinId="4"/>
-    <cellStyle name="Запятая" xfId="8" builtinId="3"/>
-    <cellStyle name="Обычный_общий список" xfId="9"/>
-    <cellStyle name="40% — Акцент6" xfId="10" builtinId="51"/>
-    <cellStyle name="Процент" xfId="11" builtinId="5"/>
-    <cellStyle name="20% — Акцент2" xfId="12" builtinId="34"/>
-    <cellStyle name="Итого" xfId="13" builtinId="25"/>
-    <cellStyle name="Вывод" xfId="14" builtinId="21"/>
-    <cellStyle name="Гиперссылка" xfId="15" builtinId="8"/>
-    <cellStyle name="40% — Акцент4" xfId="16" builtinId="43"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="17" builtinId="9"/>
-    <cellStyle name="Примечание" xfId="18" builtinId="10"/>
-    <cellStyle name="Предупреждающий текст" xfId="19" builtinId="11"/>
-    <cellStyle name="Заголовок" xfId="20" builtinId="15"/>
-    <cellStyle name="Пояснительный текст" xfId="21" builtinId="53"/>
-    <cellStyle name="Заголовок 1" xfId="22" builtinId="16"/>
-    <cellStyle name="Заголовок 2" xfId="23" builtinId="17"/>
-    <cellStyle name="Заголовок 3" xfId="24" builtinId="18"/>
-    <cellStyle name="Обычный_МАРШ.ЛИСТ ПЕРВАЯ ЯЩЕРА" xfId="25"/>
-    <cellStyle name="Заголовок 4" xfId="26" builtinId="19"/>
-    <cellStyle name="Ввод" xfId="27" builtinId="20"/>
-    <cellStyle name="Проверить ячейку" xfId="28" builtinId="23"/>
-    <cellStyle name="Вычисление" xfId="29" builtinId="22"/>
-    <cellStyle name="Связанная ячейка" xfId="30" builtinId="24"/>
-    <cellStyle name="Плохой" xfId="31" builtinId="27"/>
-    <cellStyle name="Акцент5" xfId="32" builtinId="45"/>
-    <cellStyle name="Нейтральный" xfId="33" builtinId="28"/>
-    <cellStyle name="Акцент1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% — Акцент1" xfId="35" builtinId="30"/>
-    <cellStyle name="Обычный_СПИСОК ОБОРУДОВАНИЯ" xfId="36"/>
-    <cellStyle name="40% — Акцент1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% — Акцент5" xfId="38" builtinId="46"/>
-    <cellStyle name="60% — Акцент1" xfId="39" builtinId="32"/>
-    <cellStyle name="Акцент2" xfId="40" builtinId="33"/>
-    <cellStyle name="40% — Акцент2" xfId="41" builtinId="35"/>
-    <cellStyle name="20% — Акцент6" xfId="42" builtinId="50"/>
-    <cellStyle name="60% — Акцент2" xfId="43" builtinId="36"/>
-    <cellStyle name="Акцент3" xfId="44" builtinId="37"/>
-    <cellStyle name="40% — Акцент3" xfId="45" builtinId="39"/>
-    <cellStyle name="60% — Акцент3" xfId="46" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="47" builtinId="41"/>
-    <cellStyle name="20% — Акцент4" xfId="48" builtinId="42"/>
-    <cellStyle name="60% — Акцент4" xfId="49" builtinId="44"/>
-    <cellStyle name="60% — Акцент5" xfId="50" builtinId="48"/>
-    <cellStyle name="Акцент6" xfId="51" builtinId="49"/>
-    <cellStyle name="60% — Акцент6" xfId="52" builtinId="52"/>
-    <cellStyle name="Обычный_Jaschera_07" xfId="53"/>
-    <cellStyle name="Обычный_Jashera 2018" xfId="54"/>
-    <cellStyle name="Обычный_Внутренняя таблица марш. листа" xfId="55"/>
+    <cellStyle name="Обычный_Jaschera_07" xfId="6"/>
+    <cellStyle name="Обычный_Jashera 2018" xfId="7"/>
+    <cellStyle name="Обычный_Внутренняя таблица марш. листа" xfId="8"/>
+    <cellStyle name="Обычный_МАРШ.ЛИСТ ПЕРВАЯ ЯЩЕРА" xfId="3"/>
+    <cellStyle name="Обычный_общий список" xfId="2"/>
+    <cellStyle name="Обычный_СПИСОК ОБОРУДОВАНИЯ" xfId="5"/>
+    <cellStyle name="Обычный_СПИСОК ОБОРУДОВАНИЯ_1" xfId="1"/>
+    <cellStyle name="Плохой" xfId="4" builtinId="27"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Шаблон"/>
@@ -3686,7 +3097,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Шаблон"/>
@@ -3707,7 +3118,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Шаблон"/>
@@ -3728,7 +3139,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Шаблон"/>
@@ -4000,665 +3411,664 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.85185185185185" defaultRowHeight="13.2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.13888888888889" style="171" customWidth="1"/>
-    <col min="2" max="2" width="29" style="171" customWidth="1"/>
-    <col min="3" max="3" width="14.712962962963" style="171" customWidth="1"/>
-    <col min="4" max="4" width="10.4259259259259" style="171" customWidth="1"/>
-    <col min="5" max="5" width="17.8518518518519" style="171" customWidth="1"/>
-    <col min="6" max="6" width="7.85185185185185" style="171" customWidth="1"/>
-    <col min="7" max="16384" width="7.85185185185185" style="171"/>
+    <col min="1" max="1" width="4.140625" style="134" customWidth="1"/>
+    <col min="2" max="2" width="29" style="134" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="134" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="134" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="134" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="134" customWidth="1"/>
+    <col min="7" max="16384" width="7.85546875" style="134"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="172"/>
-      <c r="B1" s="173" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="135"/>
+      <c r="B1" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="173" t="s">
+      <c r="D1" s="136" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="172"/>
-      <c r="B2" s="174" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="135"/>
+      <c r="B2" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="175"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="176" t="s">
+      <c r="C2" s="138"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="139" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="174" t="s">
+    <row r="3" spans="1:6">
+      <c r="B3" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="175"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173" t="s">
+      <c r="C3" s="138"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="171">
+      <c r="F3" s="134">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="177" t="s">
+    <row r="4" spans="1:6">
+      <c r="B4" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="175"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="173" t="s">
+      <c r="C4" s="138"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="171">
+      <c r="F4" s="134">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="174" t="s">
+    <row r="5" spans="1:6">
+      <c r="B5" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="175"/>
-      <c r="D5" s="173"/>
-      <c r="E5" s="173" t="s">
+      <c r="C5" s="138"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="171">
+      <c r="F5" s="134">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="174" t="s">
+    <row r="6" spans="1:6">
+      <c r="B6" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="175"/>
-      <c r="E6" s="173" t="s">
+      <c r="C6" s="138"/>
+      <c r="E6" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="171">
+      <c r="F6" s="134">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="174" t="s">
+    <row r="7" spans="1:6">
+      <c r="B7" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="175"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173" t="s">
+      <c r="C7" s="138"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="171">
+      <c r="F7" s="134">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="174" t="s">
+    <row r="8" spans="1:6">
+      <c r="B8" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="175"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="171" t="s">
+      <c r="C8" s="138"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="171">
+      <c r="F8" s="134">
         <v>3</v>
       </c>
     </row>
-    <row r="9" ht="13.9" customHeight="1" spans="2:6">
-      <c r="B9" s="174" t="s">
+    <row r="9" spans="1:6" ht="13.9" customHeight="1">
+      <c r="B9" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="175"/>
-      <c r="D9" s="173"/>
-      <c r="E9" s="171" t="s">
+      <c r="C9" s="138"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="171">
+      <c r="F9" s="134">
         <v>4</v>
       </c>
     </row>
-    <row r="10" ht="13.9" customHeight="1" spans="2:6">
-      <c r="B10" s="177" t="s">
+    <row r="10" spans="1:6" ht="13.9" customHeight="1">
+      <c r="B10" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="175"/>
-      <c r="E10" s="171" t="s">
+      <c r="C10" s="138"/>
+      <c r="E10" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="171">
+      <c r="F10" s="134">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="174" t="s">
+    <row r="11" spans="1:6">
+      <c r="B11" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="175"/>
-      <c r="D11" s="173"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="174" t="s">
+      <c r="C11" s="138"/>
+      <c r="D11" s="136"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="175"/>
-      <c r="E12" s="178" t="s">
+      <c r="C12" s="138"/>
+      <c r="E12" s="141" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="174" t="s">
+    <row r="13" spans="1:6">
+      <c r="B13" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="175"/>
-      <c r="E13" s="171" t="s">
+      <c r="C13" s="138"/>
+      <c r="E13" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="171">
+      <c r="F13" s="134">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="174" t="s">
+    <row r="14" spans="1:6">
+      <c r="B14" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="175"/>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="174" t="s">
+      <c r="C14" s="138"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="175"/>
-      <c r="E15" s="173" t="s">
+      <c r="C15" s="138"/>
+      <c r="E15" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="171" t="s">
+      <c r="F15" s="134" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="174" t="s">
+    <row r="16" spans="1:6">
+      <c r="B16" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="175"/>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="174" t="s">
+      <c r="C16" s="138"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="175"/>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="174" t="s">
+      <c r="C17" s="138"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="175"/>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="174" t="s">
+      <c r="C18" s="138"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="175"/>
+      <c r="C19" s="138"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="179"/>
-      <c r="B20" s="174" t="s">
+      <c r="A20" s="142"/>
+      <c r="B20" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="175"/>
+      <c r="C20" s="138"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="179"/>
-      <c r="B21" s="174" t="s">
+      <c r="A21" s="142"/>
+      <c r="B21" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="175"/>
+      <c r="C21" s="138"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="179"/>
-      <c r="B22" s="174" t="s">
+      <c r="A22" s="142"/>
+      <c r="B22" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="175"/>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="174" t="s">
+      <c r="C22" s="138"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="175"/>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="174" t="s">
+      <c r="C23" s="138"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="175"/>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="174" t="s">
+      <c r="C24" s="138"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="175"/>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="174" t="s">
+      <c r="C25" s="138"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="175"/>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="174" t="s">
+      <c r="C26" s="138"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="175"/>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="174" t="s">
+      <c r="C27" s="138"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="175"/>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="174" t="s">
+      <c r="C28" s="138"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="175"/>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="175" t="s">
+      <c r="C29" s="138"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="175"/>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="174" t="s">
+      <c r="C30" s="138"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="B31" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="175"/>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="174" t="s">
+      <c r="C31" s="138"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="B32" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="175"/>
+      <c r="C32" s="138"/>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="174" t="s">
+      <c r="B33" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="175"/>
+      <c r="C33" s="138"/>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="174" t="s">
+      <c r="B34" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="175"/>
+      <c r="C34" s="138"/>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="174" t="s">
+      <c r="B35" s="137" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="175"/>
+      <c r="C35" s="138"/>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="177" t="s">
+      <c r="B36" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="175"/>
+      <c r="C36" s="138"/>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="174" t="s">
+      <c r="B37" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="175"/>
+      <c r="C37" s="138"/>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="174" t="s">
+      <c r="B38" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="175"/>
+      <c r="C38" s="138"/>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="174" t="s">
+      <c r="B39" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="175"/>
+      <c r="C39" s="138"/>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="174" t="s">
+      <c r="B40" s="137" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="175"/>
+      <c r="C40" s="138"/>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="174" t="s">
+      <c r="B41" s="137" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="175"/>
+      <c r="C41" s="138"/>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="174" t="s">
+      <c r="B42" s="137" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="175"/>
+      <c r="C42" s="138"/>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="174" t="s">
+      <c r="B43" s="137" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="175"/>
+      <c r="C43" s="138"/>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="174" t="s">
+      <c r="B44" s="137" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="175"/>
+      <c r="C44" s="138"/>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="174" t="s">
+      <c r="B45" s="137" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="175"/>
+      <c r="C45" s="138"/>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="174" t="s">
+      <c r="B46" s="137" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="175"/>
+      <c r="C46" s="138"/>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="174" t="s">
+      <c r="B47" s="137" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="175"/>
+      <c r="C47" s="138"/>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="174" t="s">
+      <c r="B48" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="175"/>
+      <c r="C48" s="138"/>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="177" t="s">
+      <c r="B49" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="175"/>
+      <c r="C49" s="138"/>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="174" t="s">
+      <c r="B50" s="137" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="175"/>
+      <c r="C50" s="138"/>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="174" t="s">
+      <c r="B51" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="175"/>
+      <c r="C51" s="138"/>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="174" t="s">
+      <c r="B52" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="175"/>
+      <c r="C52" s="138"/>
     </row>
     <row r="53" spans="2:3">
-      <c r="B53" s="180" t="s">
+      <c r="B53" s="143" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="175"/>
+      <c r="C53" s="138"/>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="174" t="s">
+      <c r="B54" s="137" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="175"/>
+      <c r="C54" s="138"/>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="174" t="s">
+      <c r="B55" s="137" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="175"/>
+      <c r="C55" s="138"/>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="174" t="s">
+      <c r="B56" s="137" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="175"/>
+      <c r="C56" s="138"/>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="174" t="s">
+      <c r="B57" s="137" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="175"/>
+      <c r="C57" s="138"/>
     </row>
     <row r="58" spans="2:3">
-      <c r="B58" s="174" t="s">
+      <c r="B58" s="137" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="175"/>
+      <c r="C58" s="138"/>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="175" t="s">
+      <c r="B59" s="138" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="175"/>
+      <c r="C59" s="138"/>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="174" t="s">
+      <c r="B60" s="137" t="s">
         <v>72</v>
       </c>
-      <c r="C60" s="175"/>
+      <c r="C60" s="138"/>
     </row>
     <row r="61" spans="2:3">
-      <c r="B61" s="174" t="s">
+      <c r="B61" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="C61" s="175"/>
+      <c r="C61" s="138"/>
     </row>
     <row r="62" spans="2:3">
-      <c r="B62" s="174" t="s">
+      <c r="B62" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="C62" s="175"/>
+      <c r="C62" s="138"/>
     </row>
     <row r="63" spans="2:3">
-      <c r="B63" s="174" t="s">
+      <c r="B63" s="137" t="s">
         <v>75</v>
       </c>
-      <c r="C63" s="175"/>
+      <c r="C63" s="138"/>
     </row>
     <row r="64" spans="2:3">
-      <c r="B64" s="174" t="s">
+      <c r="B64" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="C64" s="175"/>
+      <c r="C64" s="138"/>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="174" t="s">
+      <c r="B65" s="137" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="175"/>
+      <c r="C65" s="138"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="174" t="s">
+      <c r="B66" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="175"/>
+      <c r="C66" s="138"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="175" t="s">
+      <c r="B67" s="138" t="s">
         <v>79</v>
       </c>
-      <c r="C67" s="175"/>
+      <c r="C67" s="138"/>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="174" t="s">
+      <c r="B68" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="C68" s="175"/>
+      <c r="C68" s="138"/>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="174" t="s">
+      <c r="B69" s="137" t="s">
         <v>81</v>
       </c>
-      <c r="C69" s="175"/>
+      <c r="C69" s="138"/>
     </row>
     <row r="70" spans="2:3">
-      <c r="B70" s="174" t="s">
+      <c r="B70" s="137" t="s">
         <v>82</v>
       </c>
-      <c r="C70" s="175"/>
+      <c r="C70" s="138"/>
     </row>
     <row r="71" spans="2:3">
-      <c r="B71" s="174" t="s">
+      <c r="B71" s="137" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="175"/>
+      <c r="C71" s="138"/>
     </row>
     <row r="72" spans="2:3">
-      <c r="B72" s="174" t="s">
+      <c r="B72" s="137" t="s">
         <v>84</v>
       </c>
-      <c r="C72" s="175"/>
+      <c r="C72" s="138"/>
     </row>
     <row r="73" spans="2:3">
-      <c r="B73" s="174" t="s">
+      <c r="B73" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="C73" s="175"/>
+      <c r="C73" s="138"/>
     </row>
     <row r="74" spans="2:3">
-      <c r="B74" s="174" t="s">
+      <c r="B74" s="137" t="s">
         <v>86</v>
       </c>
-      <c r="C74" s="175"/>
+      <c r="C74" s="138"/>
     </row>
     <row r="75" spans="2:3">
-      <c r="B75" s="174" t="s">
+      <c r="B75" s="137" t="s">
         <v>87</v>
       </c>
-      <c r="C75" s="175"/>
+      <c r="C75" s="138"/>
     </row>
     <row r="76" spans="2:3">
-      <c r="B76" s="174" t="s">
+      <c r="B76" s="137" t="s">
         <v>88</v>
       </c>
-      <c r="C76" s="175"/>
+      <c r="C76" s="138"/>
     </row>
     <row r="77" spans="2:3">
-      <c r="B77" s="177" t="s">
+      <c r="B77" s="140" t="s">
         <v>89</v>
       </c>
-      <c r="C77" s="175"/>
+      <c r="C77" s="138"/>
     </row>
     <row r="78" spans="2:3">
-      <c r="B78" s="175" t="s">
+      <c r="B78" s="138" t="s">
         <v>90</v>
       </c>
-      <c r="C78" s="175"/>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="176" t="s">
+      <c r="C78" s="138"/>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="B80" s="139" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="171" t="s">
+      <c r="B81" s="134" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="171" t="s">
+      <c r="B82" s="134" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="171" t="s">
+      <c r="B83" s="134" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="171" t="s">
+      <c r="B84" s="134" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="171" t="s">
+      <c r="B85" s="134" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="171" t="s">
+      <c r="B86" s="134" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="171" t="s">
+      <c r="B87" s="134" t="s">
         <v>97</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AF27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozenSplit"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.85185185185185" style="25"/>
-    <col min="2" max="2" width="19.1388888888889" style="25" customWidth="1"/>
-    <col min="3" max="3" width="14.4259259259259" style="25" customWidth="1"/>
-    <col min="4" max="5" width="19.5740740740741" style="25" customWidth="1"/>
-    <col min="6" max="6" width="8.71296296296296" style="25" customWidth="1"/>
-    <col min="7" max="8" width="9.71296296296296" style="25" customWidth="1"/>
-    <col min="9" max="9" width="27.4259259259259" style="25" customWidth="1"/>
-    <col min="10" max="10" width="9.71296296296296" style="25" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="25"/>
+    <col min="2" max="2" width="19.140625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="25" customWidth="1"/>
+    <col min="4" max="5" width="19.5703125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="25" customWidth="1"/>
+    <col min="7" max="8" width="9.7109375" style="25" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" style="25" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="25" customWidth="1"/>
     <col min="11" max="11" width="36" style="25" customWidth="1"/>
-    <col min="12" max="12" width="20.5740740740741" style="25" customWidth="1"/>
-    <col min="13" max="13" width="10.1388888888889" style="25" customWidth="1"/>
-    <col min="14" max="14" width="8.85185185185185" style="25"/>
-    <col min="15" max="15" width="29.712962962963" style="25" customWidth="1"/>
-    <col min="16" max="16" width="37.1388888888889" style="25" customWidth="1"/>
-    <col min="17" max="17" width="16.8518518518519" style="25" customWidth="1"/>
-    <col min="18" max="18" width="11.1388888888889" style="25" customWidth="1"/>
-    <col min="19" max="19" width="11.712962962963" style="25"/>
-    <col min="20" max="20" width="10.8518518518519" style="25"/>
-    <col min="21" max="23" width="8.85185185185185" style="25"/>
-    <col min="24" max="24" width="12.8888888888889" style="25"/>
-    <col min="25" max="25" width="8.85185185185185" style="25"/>
-    <col min="26" max="26" width="27.287037037037" style="25" customWidth="1"/>
-    <col min="27" max="29" width="8.85185185185185" style="25"/>
-    <col min="30" max="30" width="12.8518518518519" style="25"/>
-    <col min="31" max="16384" width="8.85185185185185" style="25"/>
+    <col min="12" max="12" width="20.5703125" style="25" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" style="25" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="25"/>
+    <col min="15" max="15" width="29.7109375" style="25" customWidth="1"/>
+    <col min="16" max="16" width="37.140625" style="25" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" style="25" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" style="25" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="25"/>
+    <col min="20" max="20" width="10.85546875" style="25"/>
+    <col min="21" max="23" width="8.85546875" style="25"/>
+    <col min="24" max="24" width="12.85546875" style="25"/>
+    <col min="25" max="25" width="8.85546875" style="25"/>
+    <col min="26" max="26" width="27.28515625" style="25" customWidth="1"/>
+    <col min="27" max="29" width="8.85546875" style="25"/>
+    <col min="30" max="30" width="12.85546875" style="25"/>
+    <col min="31" max="16384" width="8.85546875" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:32">
@@ -4746,7 +4156,7 @@
       <c r="AE1" s="10"/>
       <c r="AF1" s="10"/>
     </row>
-    <row r="2" ht="15.15" spans="2:30">
+    <row r="2" spans="2:32">
       <c r="B2" s="6" t="s">
         <v>316</v>
       </c>
@@ -4815,7 +4225,7 @@
         <v>Атаманов Иван Валерьевич</v>
       </c>
     </row>
-    <row r="3" ht="15.15" spans="2:32">
+    <row r="3" spans="2:32">
       <c r="B3" s="31" t="s">
         <v>323</v>
       </c>
@@ -5121,7 +4531,7 @@
       <c r="AE6" s="10"/>
       <c r="AF6" s="10"/>
     </row>
-    <row r="7" hidden="1" spans="2:32">
+    <row r="7" spans="2:32" hidden="1">
       <c r="B7" s="6" t="s">
         <v>422</v>
       </c>
@@ -5264,7 +4674,7 @@
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
     </row>
-    <row r="9" spans="2:30">
+    <row r="9" spans="2:32">
       <c r="B9" s="6" t="s">
         <v>351</v>
       </c>
@@ -5329,7 +4739,7 @@
         <v>Ершова Ирина Алексеевна</v>
       </c>
     </row>
-    <row r="10" spans="2:30">
+    <row r="10" spans="2:32">
       <c r="B10" s="15" t="s">
         <v>356</v>
       </c>
@@ -5548,7 +4958,7 @@
       <c r="AE12" s="10"/>
       <c r="AF12" s="10"/>
     </row>
-    <row r="13" hidden="1" spans="2:25">
+    <row r="13" spans="2:32" hidden="1">
       <c r="B13" s="6" t="s">
         <v>426</v>
       </c>
@@ -5607,7 +5017,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="2:32">
+    <row r="14" spans="2:32" hidden="1">
       <c r="B14" s="6" t="s">
         <v>431</v>
       </c>
@@ -5682,7 +5092,7 @@
       <c r="AE14" s="10"/>
       <c r="AF14" s="10"/>
     </row>
-    <row r="15" hidden="1" spans="2:25">
+    <row r="15" spans="2:32" hidden="1">
       <c r="B15" s="20" t="s">
         <v>436</v>
       </c>
@@ -5812,7 +5222,7 @@
       <c r="AE16" s="10"/>
       <c r="AF16" s="10"/>
     </row>
-    <row r="17" spans="2:30">
+    <row r="17" spans="1:32">
       <c r="B17" s="6" t="s">
         <v>378</v>
       </c>
@@ -5879,7 +5289,7 @@
         <v>Попова Юлия Юрьевна</v>
       </c>
     </row>
-    <row r="18" spans="2:30">
+    <row r="18" spans="1:32">
       <c r="B18" s="20" t="s">
         <v>382</v>
       </c>
@@ -5944,7 +5354,7 @@
         <v>Сайчик Татьяна Борисовна</v>
       </c>
     </row>
-    <row r="19" hidden="1" spans="2:32">
+    <row r="19" spans="1:32" hidden="1">
       <c r="B19" s="6" t="s">
         <v>439</v>
       </c>
@@ -6015,7 +5425,7 @@
       <c r="AE19" s="10"/>
       <c r="AF19" s="10"/>
     </row>
-    <row r="20" spans="2:32">
+    <row r="20" spans="1:32">
       <c r="B20" s="6" t="s">
         <v>387</v>
       </c>
@@ -6087,7 +5497,7 @@
       <c r="AE20" s="10"/>
       <c r="AF20" s="10"/>
     </row>
-    <row r="21" s="37" customFormat="1" ht="15.15" spans="1:32">
+    <row r="21" spans="1:32" s="37" customFormat="1">
       <c r="A21" s="14"/>
       <c r="B21" s="6" t="s">
         <v>393</v>
@@ -6169,7 +5579,7 @@
       <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
     </row>
-    <row r="22" ht="15.15" spans="2:32">
+    <row r="22" spans="1:32">
       <c r="B22" s="24" t="s">
         <v>399</v>
       </c>
@@ -6235,7 +5645,7 @@
       <c r="AE22" s="10"/>
       <c r="AF22" s="10"/>
     </row>
-    <row r="23" spans="2:32">
+    <row r="23" spans="1:32">
       <c r="B23" s="6" t="s">
         <v>403</v>
       </c>
@@ -6317,7 +5727,7 @@
       <c r="AE23" s="10"/>
       <c r="AF23" s="10"/>
     </row>
-    <row r="24" spans="2:30">
+    <row r="24" spans="1:32">
       <c r="B24" s="6" t="s">
         <v>403</v>
       </c>
@@ -6384,7 +5794,7 @@
         <v>Шишкин Денис Витальевич</v>
       </c>
     </row>
-    <row r="25" spans="2:30">
+    <row r="25" spans="1:32">
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -6406,10 +5816,10 @@
       <c r="Y25" s="15"/>
       <c r="AD25" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="26" spans="2:30">
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:32">
       <c r="B26" s="6" t="s">
         <v>629</v>
       </c>
@@ -6466,7 +5876,7 @@
         <v>Богатушин Антон Игоревич</v>
       </c>
     </row>
-    <row r="27" spans="2:30">
+    <row r="27" spans="1:32">
       <c r="B27" s="6" t="s">
         <v>637</v>
       </c>
@@ -6522,38 +5932,35 @@
   </sheetData>
   <autoFilter ref="A1:Y24">
     <filterColumn colId="4">
-      <customFilters>
-        <customFilter operator="equal" val="1"/>
-      </customFilters>
+      <filters>
+        <filter val="1"/>
+      </filters>
     </filterColumn>
-    <extLst/>
   </autoFilter>
   <sortState ref="B2:AE24">
     <sortCondition ref="B2:B24"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.1388888888889" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18.712962962963" style="14" customWidth="1"/>
-    <col min="3" max="3" width="14.287037037037" style="14" customWidth="1"/>
-    <col min="4" max="4" width="23.712962962963" style="14" customWidth="1"/>
-    <col min="5" max="5" width="37.1388888888889" style="14" customWidth="1"/>
-    <col min="6" max="6" width="31.712962962963" style="14" customWidth="1"/>
-    <col min="7" max="16384" width="8.85185185185185" style="14"/>
+    <col min="1" max="1" width="19.140625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -7052,13 +6459,13 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" s="29" customFormat="1" ht="13.2" spans="1:4">
+    <row r="27" spans="1:6" s="29" customFormat="1" ht="12.75">
       <c r="A27" s="35" t="s">
         <v>648</v>
       </c>
       <c r="D27" s="36"/>
     </row>
-    <row r="28" s="29" customFormat="1" ht="13.2" spans="1:4">
+    <row r="28" spans="1:6" s="29" customFormat="1" ht="12.75">
       <c r="A28" s="29" t="s">
         <v>649</v>
       </c>
@@ -7070,7 +6477,7 @@
       </c>
       <c r="D28" s="36"/>
     </row>
-    <row r="29" s="29" customFormat="1" ht="13.2" spans="1:4">
+    <row r="29" spans="1:6" s="29" customFormat="1" ht="12.75">
       <c r="A29" s="29">
         <v>89217427984</v>
       </c>
@@ -7837,33 +7244,29 @@
       <c r="F124" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F25">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:F25"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.712962962963"/>
-    <col min="2" max="2" width="35.712962962963" customWidth="1"/>
-    <col min="3" max="3" width="21.8518518518519" customWidth="1"/>
-    <col min="4" max="4" width="22.287037037037" customWidth="1"/>
-    <col min="5" max="5" width="72.5740740740741" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="72.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15" spans="1:5">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>652</v>
       </c>
@@ -7880,7 +7283,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="2" ht="15.15" spans="1:5">
+    <row r="2" spans="1:5">
       <c r="A2" s="4"/>
       <c r="B2" s="3" t="s">
         <v>653</v>
@@ -7895,7 +7298,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="3" ht="15.15" spans="1:5">
+    <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>654</v>
@@ -7910,7 +7313,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="4" ht="15.15" spans="1:5">
+    <row r="4" spans="1:5">
       <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
         <v>655</v>
@@ -7925,7 +7328,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="5" ht="15.15" spans="1:5">
+    <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>656</v>
@@ -7940,7 +7343,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="6" ht="15.15" spans="1:5">
+    <row r="6" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="3" t="s">
         <v>657</v>
@@ -7955,7 +7358,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="7" ht="15.15" spans="1:5">
+    <row r="7" spans="1:5">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>658</v>
@@ -7970,7 +7373,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="8" ht="15.15" spans="1:5">
+    <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="3" t="s">
         <v>659</v>
@@ -7985,7 +7388,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="9" ht="15.15" spans="1:5">
+    <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>660</v>
@@ -8000,7 +7403,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="10" ht="15.15" spans="1:5">
+    <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
         <v>661</v>
@@ -8015,7 +7418,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="11" ht="15.15" spans="1:5">
+    <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
         <v>662</v>
@@ -8030,7 +7433,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="12" ht="15.15" spans="1:5">
+    <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
         <v>663</v>
@@ -8045,7 +7448,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="13" ht="15.15" spans="1:5">
+    <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
         <v>664</v>
@@ -8060,7 +7463,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="14" ht="15.15" spans="1:5">
+    <row r="14" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
         <v>665</v>
@@ -8075,7 +7478,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="15" ht="15.15" spans="1:5">
+    <row r="15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
         <v>666</v>
@@ -8090,7 +7493,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="16" ht="15.15" spans="1:5">
+    <row r="16" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
         <v>667</v>
@@ -8105,7 +7508,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="17" ht="15.15" spans="1:5">
+    <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
         <v>668</v>
@@ -8120,7 +7523,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="18" ht="15.15" spans="1:5">
+    <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
         <v>669</v>
@@ -8135,7 +7538,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="19" ht="15.15" spans="1:5">
+    <row r="19" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
         <v>670</v>
@@ -8150,7 +7553,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="20" ht="15.15" spans="1:5">
+    <row r="20" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="3" t="s">
         <v>671</v>
@@ -8165,7 +7568,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="21" ht="15.15" spans="1:5">
+    <row r="21" spans="1:5">
       <c r="A21" s="21"/>
       <c r="B21" s="3" t="s">
         <v>672</v>
@@ -8180,7 +7583,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="22" ht="15.15" spans="1:5">
+    <row r="22" spans="1:5">
       <c r="A22" s="21"/>
       <c r="B22" s="3" t="s">
         <v>673</v>
@@ -8195,7 +7598,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="23" ht="15.15" spans="1:5">
+    <row r="23" spans="1:5">
       <c r="A23" s="21"/>
       <c r="B23" s="3" t="s">
         <v>674</v>
@@ -8210,7 +7613,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="24" ht="15.15" spans="1:5">
+    <row r="24" spans="1:5">
       <c r="A24" s="21"/>
       <c r="B24" s="3" t="s">
         <v>675</v>
@@ -8225,7 +7628,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="25" ht="15.15" spans="1:5">
+    <row r="25" spans="1:5">
       <c r="A25" s="21"/>
       <c r="B25" s="3" t="s">
         <v>676</v>
@@ -8240,7 +7643,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="26" ht="15.15" spans="1:5">
+    <row r="26" spans="1:5">
       <c r="A26" s="21"/>
       <c r="B26" s="3" t="s">
         <v>677</v>
@@ -8255,14 +7658,14 @@
         <v>641</v>
       </c>
     </row>
-    <row r="27" ht="15.15" spans="1:5">
+    <row r="27" spans="1:5">
       <c r="A27" s="21"/>
       <c r="B27" s="3"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" ht="15.15" spans="1:5">
+    <row r="28" spans="1:5">
       <c r="A28" s="21"/>
       <c r="B28" s="3" t="s">
         <v>678</v>
@@ -8271,7 +7674,7 @@
       <c r="D28" s="8"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" ht="15.15" spans="1:5">
+    <row r="29" spans="1:5">
       <c r="A29" s="21"/>
       <c r="B29" s="3" t="s">
         <v>678</v>
@@ -8280,7 +7683,7 @@
       <c r="D29" s="8"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" ht="15.15" spans="1:5">
+    <row r="30" spans="1:5">
       <c r="A30" s="21"/>
       <c r="B30" s="3" t="s">
         <v>678</v>
@@ -8289,7 +7692,7 @@
       <c r="D30" s="8"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" ht="15.15" spans="1:5">
+    <row r="31" spans="1:5">
       <c r="A31" s="21"/>
       <c r="B31" s="3" t="s">
         <v>678</v>
@@ -8298,7 +7701,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" ht="15.15" spans="1:5">
+    <row r="32" spans="1:5">
       <c r="A32" s="21"/>
       <c r="B32" s="3" t="s">
         <v>678</v>
@@ -8307,791 +7710,791 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" ht="15.15" spans="1:5">
+    <row r="33" spans="1:5">
       <c r="A33" s="21"/>
       <c r="B33" s="3"/>
       <c r="C33" s="7"/>
       <c r="D33" s="8"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" ht="15.15" spans="1:5">
+    <row r="34" spans="1:5">
       <c r="A34" s="21"/>
       <c r="B34" s="3"/>
       <c r="C34" s="7"/>
       <c r="D34" s="8"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" ht="15.15" spans="1:5">
+    <row r="35" spans="1:5">
       <c r="A35" s="21"/>
       <c r="B35" s="3"/>
       <c r="C35" s="7"/>
       <c r="D35" s="8"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" ht="15.15" spans="1:5">
+    <row r="36" spans="1:5">
       <c r="A36" s="21"/>
       <c r="B36" s="3"/>
       <c r="C36" s="7"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" ht="15.15" spans="1:5">
+    <row r="37" spans="1:5">
       <c r="A37" s="21"/>
       <c r="B37" s="3"/>
       <c r="C37" s="7"/>
       <c r="D37" s="8"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" ht="15.15" spans="1:5">
+    <row r="38" spans="1:5">
       <c r="A38" s="21"/>
       <c r="B38" s="3"/>
       <c r="C38" s="7"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" ht="15.15" spans="1:5">
+    <row r="39" spans="1:5">
       <c r="A39" s="21"/>
       <c r="B39" s="3"/>
       <c r="C39" s="7"/>
       <c r="D39" s="8"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" ht="15.15" spans="1:5">
+    <row r="40" spans="1:5">
       <c r="A40" s="21"/>
       <c r="B40" s="3"/>
       <c r="C40" s="7"/>
       <c r="D40" s="8"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" ht="15.15" spans="1:5">
+    <row r="41" spans="1:5">
       <c r="A41" s="21"/>
       <c r="B41" s="3"/>
       <c r="C41" s="7"/>
       <c r="D41" s="8"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" ht="15.15" spans="1:5">
+    <row r="42" spans="1:5">
       <c r="A42" s="21"/>
       <c r="B42" s="3"/>
       <c r="C42" s="7"/>
       <c r="D42" s="8"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" ht="15.15" spans="1:5">
+    <row r="43" spans="1:5">
       <c r="A43" s="21"/>
       <c r="B43" s="3"/>
       <c r="C43" s="7"/>
       <c r="D43" s="8"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" ht="15.15" spans="1:5">
+    <row r="44" spans="1:5">
       <c r="A44" s="21"/>
       <c r="B44" s="3"/>
       <c r="C44" s="7"/>
       <c r="D44" s="8"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" ht="15.15" spans="1:5">
+    <row r="45" spans="1:5">
       <c r="A45" s="21"/>
       <c r="B45" s="3"/>
       <c r="C45" s="7"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" ht="15.15" spans="1:5">
+    <row r="46" spans="1:5">
       <c r="A46" s="25"/>
       <c r="B46" s="3"/>
       <c r="C46" s="26"/>
       <c r="D46" s="27"/>
       <c r="E46" s="28"/>
     </row>
-    <row r="47" ht="15.15" spans="1:5">
+    <row r="47" spans="1:5">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" ht="15.15" spans="1:5">
+    <row r="48" spans="1:5">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" ht="15.15" spans="1:5">
+    <row r="49" spans="1:5">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" ht="15.15" spans="1:5">
+    <row r="50" spans="1:5">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" ht="15.15" spans="1:5">
+    <row r="51" spans="1:5">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" ht="15.15" spans="1:5">
+    <row r="52" spans="1:5">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" ht="15.15" spans="1:5">
+    <row r="53" spans="1:5">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" ht="15.15" spans="1:5">
+    <row r="54" spans="1:5">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" ht="15.15" spans="1:5">
+    <row r="55" spans="1:5">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" ht="15.15" spans="1:5">
+    <row r="56" spans="1:5">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" ht="15.15" spans="1:5">
+    <row r="57" spans="1:5">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" ht="15.15" spans="1:5">
+    <row r="58" spans="1:5">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" ht="15.15" spans="1:5">
+    <row r="59" spans="1:5">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" ht="15.15" spans="1:5">
+    <row r="60" spans="1:5">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" ht="15.15" spans="1:5">
+    <row r="61" spans="1:5">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" ht="15.15" spans="1:5">
+    <row r="62" spans="1:5">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" ht="15.15" spans="1:5">
+    <row r="63" spans="1:5">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" ht="15.15" spans="1:5">
+    <row r="64" spans="1:5">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" ht="15.15" spans="1:5">
+    <row r="65" spans="1:5">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" ht="15.15" spans="1:5">
+    <row r="66" spans="1:5">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" ht="15.15" spans="1:5">
+    <row r="67" spans="1:5">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" ht="15.15" spans="1:5">
+    <row r="68" spans="1:5">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" ht="15.15" spans="1:5">
+    <row r="69" spans="1:5">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" ht="15.15" spans="1:5">
+    <row r="70" spans="1:5">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" ht="15.15" spans="1:5">
+    <row r="71" spans="1:5">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" ht="15.15" spans="1:5">
+    <row r="72" spans="1:5">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" ht="15.15" spans="1:5">
+    <row r="73" spans="1:5">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" ht="15.15" spans="1:5">
+    <row r="74" spans="1:5">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" ht="15.15" spans="1:5">
+    <row r="75" spans="1:5">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" ht="15.15" spans="1:5">
+    <row r="76" spans="1:5">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" ht="15.15" spans="1:5">
+    <row r="77" spans="1:5">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" ht="15.15" spans="1:5">
+    <row r="78" spans="1:5">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" ht="15.15" spans="1:5">
+    <row r="79" spans="1:5">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" ht="15.15" spans="1:5">
+    <row r="80" spans="1:5">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" ht="15.15" spans="1:5">
+    <row r="81" spans="1:5">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" ht="15.15" spans="1:5">
+    <row r="82" spans="1:5">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" ht="15.15" spans="1:5">
+    <row r="83" spans="1:5">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" ht="15.15" spans="1:5">
+    <row r="84" spans="1:5">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" ht="15.15" spans="1:5">
+    <row r="85" spans="1:5">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" ht="15.15" spans="1:5">
+    <row r="86" spans="1:5">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" ht="15.15" spans="1:5">
+    <row r="87" spans="1:5">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" ht="15.15" spans="1:5">
+    <row r="88" spans="1:5">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" ht="15.15" spans="1:5">
+    <row r="89" spans="1:5">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" ht="15.15" spans="1:5">
+    <row r="90" spans="1:5">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" ht="15.15" spans="1:5">
+    <row r="91" spans="1:5">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" ht="15.15" spans="1:5">
+    <row r="92" spans="1:5">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" ht="15.15" spans="1:5">
+    <row r="93" spans="1:5">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" ht="15.15" spans="1:5">
+    <row r="94" spans="1:5">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" ht="15.15" spans="1:5">
+    <row r="95" spans="1:5">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" ht="15.15" spans="1:5">
+    <row r="96" spans="1:5">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" ht="15.15" spans="1:5">
+    <row r="97" spans="1:5">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" ht="15.15" spans="1:5">
+    <row r="98" spans="1:5">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" ht="15.15" spans="1:5">
+    <row r="99" spans="1:5">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" ht="15.15" spans="1:5">
+    <row r="100" spans="1:5">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" ht="15.15" spans="1:5">
+    <row r="101" spans="1:5">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" ht="15.15" spans="1:5">
+    <row r="102" spans="1:5">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" ht="15.15" spans="1:5">
+    <row r="103" spans="1:5">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
     </row>
-    <row r="104" ht="15.15" spans="1:5">
+    <row r="104" spans="1:5">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
     </row>
-    <row r="105" ht="15.15" spans="1:5">
+    <row r="105" spans="1:5">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
     </row>
-    <row r="106" ht="15.15" spans="1:5">
+    <row r="106" spans="1:5">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
     </row>
-    <row r="107" ht="15.15" spans="1:5">
+    <row r="107" spans="1:5">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
     </row>
-    <row r="108" ht="15.15" spans="1:5">
+    <row r="108" spans="1:5">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
     </row>
-    <row r="109" ht="15.15" spans="1:5">
+    <row r="109" spans="1:5">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
     </row>
-    <row r="110" ht="15.15" spans="1:5">
+    <row r="110" spans="1:5">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
     </row>
-    <row r="111" ht="15.15" spans="1:5">
+    <row r="111" spans="1:5">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
     </row>
-    <row r="112" ht="15.15" spans="1:5">
+    <row r="112" spans="1:5">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
     </row>
-    <row r="113" ht="15.15" spans="1:5">
+    <row r="113" spans="1:5">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
     </row>
-    <row r="114" ht="15.15" spans="1:5">
+    <row r="114" spans="1:5">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
     </row>
-    <row r="115" ht="15.15" spans="1:5">
+    <row r="115" spans="1:5">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
     </row>
-    <row r="116" ht="15.15" spans="1:5">
+    <row r="116" spans="1:5">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
     </row>
-    <row r="117" ht="15.15" spans="1:5">
+    <row r="117" spans="1:5">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
     </row>
-    <row r="118" ht="15.15" spans="1:5">
+    <row r="118" spans="1:5">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
     </row>
-    <row r="119" ht="15.15" spans="1:5">
+    <row r="119" spans="1:5">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
     </row>
-    <row r="120" ht="15.15" spans="1:5">
+    <row r="120" spans="1:5">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
     </row>
-    <row r="121" ht="15.15" spans="1:5">
+    <row r="121" spans="1:5">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
     </row>
-    <row r="122" ht="15.15" spans="1:5">
+    <row r="122" spans="1:5">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
     </row>
-    <row r="123" ht="15.15" spans="1:5">
+    <row r="123" spans="1:5">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
     </row>
-    <row r="124" ht="15.15" spans="1:5">
+    <row r="124" spans="1:5">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
     </row>
-    <row r="125" ht="15.15" spans="1:5">
+    <row r="125" spans="1:5">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
     </row>
-    <row r="126" ht="15.15" spans="1:5">
+    <row r="126" spans="1:5">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
     </row>
-    <row r="127" ht="15.15" spans="1:5">
+    <row r="127" spans="1:5">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
     </row>
-    <row r="128" ht="15.15" spans="1:5">
+    <row r="128" spans="1:5">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
     </row>
-    <row r="129" ht="15.15" spans="1:5">
+    <row r="129" spans="1:5">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
     </row>
-    <row r="130" ht="15.15" spans="1:5">
+    <row r="130" spans="1:5">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
     </row>
-    <row r="131" ht="15.15" spans="1:5">
+    <row r="131" spans="1:5">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
     </row>
-    <row r="132" ht="15.15" spans="1:5">
+    <row r="132" spans="1:5">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
     </row>
-    <row r="133" ht="15.15" spans="1:5">
+    <row r="133" spans="1:5">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
     </row>
-    <row r="134" ht="15.15" spans="1:5">
+    <row r="134" spans="1:5">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
     </row>
-    <row r="135" ht="15.15" spans="1:5">
+    <row r="135" spans="1:5">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
     </row>
-    <row r="136" ht="15.15" spans="1:5">
+    <row r="136" spans="1:5">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
     </row>
-    <row r="137" ht="15.15" spans="1:5">
+    <row r="137" spans="1:5">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
     </row>
-    <row r="138" ht="15.15" spans="1:5">
+    <row r="138" spans="1:5">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
     </row>
-    <row r="139" ht="15.15" spans="1:5">
+    <row r="139" spans="1:5">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
     </row>
-    <row r="140" ht="15.15" spans="1:5">
+    <row r="140" spans="1:5">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
     </row>
-    <row r="141" ht="15.15" spans="1:5">
+    <row r="141" spans="1:5">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
     </row>
-    <row r="142" ht="15.15" spans="1:5">
+    <row r="142" spans="1:5">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
     </row>
-    <row r="143" ht="15.15" spans="1:5">
+    <row r="143" spans="1:5">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
     </row>
-    <row r="144" ht="15.15" spans="1:5">
+    <row r="144" spans="1:5">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
     </row>
-    <row r="145" ht="15.15" spans="1:5">
+    <row r="145" spans="1:5">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -9100,27 +8503,25 @@
     </row>
   </sheetData>
   <sortState ref="A3:L46">
-    <sortCondition ref="A3" descending="1"/>
+    <sortCondition descending="1" ref="A3"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.4259259259259" customWidth="1"/>
-    <col min="2" max="2" width="13.1388888888889" customWidth="1"/>
-    <col min="3" max="3" width="47.287037037037" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9145,7 +8546,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="3" ht="79.2" spans="1:3">
+    <row r="3" spans="1:3" ht="76.5">
       <c r="A3" s="1" t="s">
         <v>403</v>
       </c>
@@ -9156,7 +8557,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="4" ht="39.6" spans="1:3">
+    <row r="4" spans="1:3" ht="38.25">
       <c r="A4" s="1" t="s">
         <v>378</v>
       </c>
@@ -9178,7 +8579,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="6" ht="52.8" spans="1:3">
+    <row r="6" spans="1:3" ht="51">
       <c r="A6" s="1" t="s">
         <v>316</v>
       </c>
@@ -9191,36 +8592,34 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D46"/>
+      <selection sqref="A1:D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="25.8518518518519" style="149" customWidth="1"/>
-    <col min="3" max="3" width="15.8518518518519" style="167" customWidth="1"/>
-    <col min="4" max="4" width="29.5740740740741" style="149" customWidth="1"/>
-    <col min="5" max="7" width="9" style="149"/>
-    <col min="8" max="8" width="22.712962962963" style="149" customWidth="1"/>
-    <col min="9" max="9" width="22.712962962963" style="168" customWidth="1"/>
-    <col min="10" max="11" width="8.85185185185185" style="168"/>
-    <col min="12" max="16384" width="9" style="149"/>
+    <col min="2" max="2" width="25.85546875" style="117" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="130" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" style="117" customWidth="1"/>
+    <col min="5" max="7" width="9" style="117"/>
+    <col min="8" max="8" width="22.7109375" style="117" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" style="131" customWidth="1"/>
+    <col min="10" max="11" width="8.85546875" style="131"/>
+    <col min="12" max="16384" width="9" style="117"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="149" t="s">
+    <row r="1" spans="1:4">
+      <c r="B1" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="167" t="s">
+      <c r="C1" s="130" t="s">
         <v>99</v>
       </c>
     </row>
@@ -9228,10 +8627,10 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="132" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="170" t="s">
+      <c r="C2" s="133" t="s">
         <v>101</v>
       </c>
       <c r="D2" s="25"/>
@@ -9240,13 +8639,13 @@
       <c r="A3" s="25">
         <v>1</v>
       </c>
-      <c r="B3" s="169" t="s">
+      <c r="B3" s="132" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="170" t="s">
+      <c r="C3" s="133" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="149" t="s">
+      <c r="D3" s="117" t="s">
         <v>104</v>
       </c>
     </row>
@@ -9254,13 +8653,13 @@
       <c r="A4" s="25">
         <v>1</v>
       </c>
-      <c r="B4" s="169" t="s">
+      <c r="B4" s="132" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="170" t="s">
+      <c r="C4" s="133" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="149" t="s">
+      <c r="D4" s="117" t="s">
         <v>104</v>
       </c>
     </row>
@@ -9268,38 +8667,38 @@
       <c r="A5" s="25">
         <v>1</v>
       </c>
-      <c r="B5" s="169" t="s">
+      <c r="B5" s="132" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="170" t="s">
+      <c r="C5" s="133" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="149" t="s">
+      <c r="D5" s="117" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" ht="15.6" customHeight="1" spans="1:4">
+    <row r="6" spans="1:4" ht="15.6" customHeight="1">
       <c r="A6" s="25">
         <v>1</v>
       </c>
-      <c r="B6" s="169" t="s">
+      <c r="B6" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="170">
+      <c r="C6" s="133">
         <v>4</v>
       </c>
-      <c r="D6" s="149" t="s">
+      <c r="D6" s="117" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" ht="15.6" customHeight="1" spans="1:3">
+    <row r="7" spans="1:4" ht="15.6" customHeight="1">
       <c r="A7" s="25">
         <v>1</v>
       </c>
-      <c r="B7" s="169" t="s">
+      <c r="B7" s="132" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="170" t="s">
+      <c r="C7" s="133" t="s">
         <v>110</v>
       </c>
     </row>
@@ -9307,13 +8706,13 @@
       <c r="A8" s="25">
         <v>1</v>
       </c>
-      <c r="B8" s="169" t="s">
+      <c r="B8" s="132" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="167">
+      <c r="C8" s="130">
         <v>2</v>
       </c>
-      <c r="D8" s="149" t="s">
+      <c r="D8" s="117" t="s">
         <v>104</v>
       </c>
     </row>
@@ -9321,32 +8720,32 @@
       <c r="A9" s="25">
         <v>1</v>
       </c>
-      <c r="B9" s="169" t="s">
+      <c r="B9" s="132" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="170" t="s">
+      <c r="C9" s="133" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="149" t="s">
+      <c r="D9" s="117" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="25">
         <v>1</v>
       </c>
-      <c r="B10" s="169" t="s">
+      <c r="B10" s="132" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="170">
+      <c r="C10" s="133">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="169" t="s">
+      <c r="B11" s="132" t="s">
         <v>115</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -9357,24 +8756,24 @@
       <c r="A12" s="25">
         <v>2</v>
       </c>
-      <c r="B12" s="169" t="s">
+      <c r="B12" s="132" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="170" t="s">
+      <c r="C12" s="133" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="149" t="s">
+      <c r="D12" s="117" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>2</v>
       </c>
-      <c r="B13" s="149" t="s">
+      <c r="B13" s="117" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="167">
+      <c r="C13" s="130">
         <v>2</v>
       </c>
     </row>
@@ -9382,35 +8781,35 @@
       <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14" s="149" t="s">
+      <c r="B14" s="117" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="167" t="s">
+      <c r="C14" s="130" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="149" t="s">
+      <c r="D14" s="117" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15" s="149" t="s">
+      <c r="B15" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="167">
+      <c r="C15" s="130">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="B16" s="149" t="s">
+      <c r="B16" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="167">
+      <c r="C16" s="130">
         <v>2</v>
       </c>
     </row>
@@ -9418,333 +8817,333 @@
       <c r="A17">
         <v>2</v>
       </c>
-      <c r="B17" s="169" t="s">
+      <c r="B17" s="132" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="170">
+      <c r="C17" s="133">
         <v>10</v>
       </c>
-      <c r="D17" s="149" t="s">
+      <c r="D17" s="117" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" s="25">
         <v>2</v>
       </c>
-      <c r="B18" s="169" t="s">
+      <c r="B18" s="132" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="170" t="s">
+      <c r="C18" s="133" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" s="25">
         <v>2</v>
       </c>
-      <c r="B19" s="169" t="s">
+      <c r="B19" s="132" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="170" t="s">
+      <c r="C19" s="133" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" s="25">
         <v>2</v>
       </c>
-      <c r="B20" s="169" t="s">
+      <c r="B20" s="132" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="170" t="s">
+      <c r="C20" s="133" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" s="25">
         <v>2</v>
       </c>
-      <c r="B21" s="169" t="s">
+      <c r="B21" s="132" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="170" t="s">
+      <c r="C21" s="133" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" s="25">
         <v>2</v>
       </c>
-      <c r="B22" s="169" t="s">
+      <c r="B22" s="132" t="s">
         <v>134</v>
       </c>
-      <c r="C22" s="170" t="s">
+      <c r="C22" s="133" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" s="25">
         <v>3</v>
       </c>
-      <c r="B23" s="169" t="s">
+      <c r="B23" s="132" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="170" t="s">
+      <c r="C23" s="133" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" s="25">
         <v>3</v>
       </c>
-      <c r="B24" s="169" t="s">
+      <c r="B24" s="132" t="s">
         <v>137</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" s="25">
         <v>3</v>
       </c>
-      <c r="B25" s="169" t="s">
+      <c r="B25" s="132" t="s">
         <v>139</v>
       </c>
-      <c r="C25" s="170" t="s">
+      <c r="C25" s="133" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" s="25">
         <v>3</v>
       </c>
-      <c r="B26" s="169" t="s">
+      <c r="B26" s="132" t="s">
         <v>141</v>
       </c>
-      <c r="C26" s="170">
+      <c r="C26" s="133">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" s="25">
         <v>3</v>
       </c>
-      <c r="B27" s="169" t="s">
+      <c r="B27" s="132" t="s">
         <v>142</v>
       </c>
-      <c r="C27" s="167" t="s">
+      <c r="C27" s="130" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" s="25">
         <v>3</v>
       </c>
-      <c r="B28" s="169" t="s">
+      <c r="B28" s="132" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="170" t="s">
+      <c r="C28" s="133" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" s="25">
         <v>3</v>
       </c>
-      <c r="B29" s="169" t="s">
+      <c r="B29" s="132" t="s">
         <v>146</v>
       </c>
-      <c r="C29" s="170" t="s">
+      <c r="C29" s="133" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30" s="25">
         <v>3</v>
       </c>
-      <c r="B30" s="169" t="s">
+      <c r="B30" s="132" t="s">
         <v>148</v>
       </c>
-      <c r="C30" s="170" t="s">
+      <c r="C30" s="133" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" s="25">
         <v>3</v>
       </c>
-      <c r="B31" s="169" t="s">
+      <c r="B31" s="132" t="s">
         <v>150</v>
       </c>
-      <c r="C31" s="170">
+      <c r="C31" s="133">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="A32" s="25">
         <v>4</v>
       </c>
-      <c r="B32" s="169" t="s">
+      <c r="B32" s="132" t="s">
         <v>151</v>
       </c>
-      <c r="C32" s="170" t="s">
+      <c r="C32" s="133" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" s="25">
         <v>4</v>
       </c>
-      <c r="B33" s="169" t="s">
+      <c r="B33" s="132" t="s">
         <v>153</v>
       </c>
-      <c r="C33" s="167" t="s">
+      <c r="C33" s="130" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" s="25">
         <v>4</v>
       </c>
-      <c r="B34" s="169" t="s">
+      <c r="B34" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="C34" s="170" t="s">
+      <c r="C34" s="133" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="A35" s="25">
         <v>4</v>
       </c>
-      <c r="B35" s="169" t="s">
+      <c r="B35" s="132" t="s">
         <v>157</v>
       </c>
-      <c r="C35" s="170" t="s">
+      <c r="C35" s="133" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>4</v>
       </c>
-      <c r="B36" s="169" t="s">
+      <c r="B36" s="132" t="s">
         <v>159</v>
       </c>
-      <c r="C36" s="170" t="s">
+      <c r="C36" s="133" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4">
       <c r="A37" s="25">
         <v>4</v>
       </c>
-      <c r="B37" s="169" t="s">
+      <c r="B37" s="132" t="s">
         <v>161</v>
       </c>
-      <c r="C37" s="170" t="s">
+      <c r="C37" s="133" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>4</v>
       </c>
-      <c r="B38" s="169" t="s">
+      <c r="B38" s="132" t="s">
         <v>162</v>
       </c>
-      <c r="C38" s="170">
+      <c r="C38" s="133">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="A39" s="25">
         <v>4</v>
       </c>
-      <c r="B39" s="169" t="s">
+      <c r="B39" s="132" t="s">
         <v>163</v>
       </c>
-      <c r="C39" s="170" t="s">
+      <c r="C39" s="133" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4">
       <c r="A40" s="25"/>
-      <c r="B40" s="169" t="s">
+      <c r="B40" s="132" t="s">
         <v>165</v>
       </c>
-      <c r="C40" s="170" t="s">
+      <c r="C40" s="133" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:4">
       <c r="A41" s="25"/>
-      <c r="B41" s="169" t="s">
+      <c r="B41" s="132" t="s">
         <v>167</v>
       </c>
-      <c r="C41" s="170" t="s">
+      <c r="C41" s="133" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:4">
       <c r="A42" s="25"/>
-      <c r="B42" s="169" t="s">
+      <c r="B42" s="132" t="s">
         <v>169</v>
       </c>
-      <c r="C42" s="170" t="s">
+      <c r="C42" s="133" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
-      <c r="B43" s="149" t="s">
+    <row r="43" spans="1:4">
+      <c r="B43" s="117" t="s">
         <v>170</v>
       </c>
-      <c r="C43" s="167" t="s">
+      <c r="C43" s="130" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="25"/>
-      <c r="B45" s="169" t="s">
+      <c r="B45" s="132" t="s">
         <v>172</v>
       </c>
-      <c r="C45" s="170" t="s">
+      <c r="C45" s="133" t="s">
         <v>173</v>
       </c>
-      <c r="D45" s="149" t="s">
+      <c r="D45" s="117" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:4">
       <c r="A46" s="25"/>
-      <c r="B46" s="169" t="s">
+      <c r="B46" s="132" t="s">
         <v>175</v>
       </c>
-      <c r="C46" s="170" t="s">
+      <c r="C46" s="133" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="149" t="s">
+    <row r="48" spans="1:4">
+      <c r="B48" s="117" t="s">
         <v>177</v>
       </c>
-      <c r="C48" s="167" t="s">
+      <c r="C48" s="130" t="s">
         <v>178</v>
       </c>
-      <c r="D48" s="149" t="s">
+      <c r="D48" s="117" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="149" t="s">
+    <row r="49" spans="1:4">
+      <c r="B49" s="117" t="s">
         <v>180</v>
       </c>
-      <c r="C49" s="167">
+      <c r="C49" s="130">
         <v>4</v>
       </c>
-      <c r="D49" s="149" t="s">
+      <c r="D49" s="117" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9752,966 +9151,964 @@
       <c r="A50" s="25">
         <v>4</v>
       </c>
-      <c r="B50" s="169" t="s">
+      <c r="B50" s="132" t="s">
         <v>181</v>
       </c>
       <c r="C50" s="25"/>
-      <c r="D50" s="149" t="s">
+      <c r="D50" s="117" t="s">
         <v>179</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="6.85185185185185" style="154"/>
-    <col min="2" max="2" width="18.287037037037" style="154" customWidth="1"/>
-    <col min="3" max="3" width="17.712962962963" style="154" customWidth="1"/>
-    <col min="4" max="4" width="22" style="154"/>
-    <col min="5" max="5" width="14.5740740740741" style="154" customWidth="1"/>
-    <col min="6" max="6" width="12.287037037037" style="154" customWidth="1"/>
-    <col min="7" max="7" width="13" style="154" customWidth="1"/>
-    <col min="8" max="8" width="17.4259259259259" style="154" customWidth="1"/>
-    <col min="9" max="9" width="19.712962962963" style="154"/>
-    <col min="10" max="10" width="10.5740740740741" style="154"/>
-    <col min="11" max="11" width="18.4259259259259" style="154" customWidth="1"/>
-    <col min="12" max="16384" width="8.85185185185185" style="154"/>
+    <col min="1" max="1" width="6.85546875" style="122"/>
+    <col min="2" max="2" width="18.28515625" style="122" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="122" customWidth="1"/>
+    <col min="4" max="4" width="22" style="122"/>
+    <col min="5" max="5" width="14.5703125" style="122" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="122" customWidth="1"/>
+    <col min="7" max="7" width="13" style="122" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="122" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" style="122"/>
+    <col min="10" max="10" width="10.5703125" style="122"/>
+    <col min="11" max="11" width="18.42578125" style="122" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="122"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="155"/>
-      <c r="B1" s="156" t="s">
+      <c r="A1" s="123"/>
+      <c r="B1" s="144" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="157"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="159" t="s">
+      <c r="C1" s="145"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="147" t="s">
         <v>183</v>
       </c>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159" t="s">
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147" t="s">
         <v>184</v>
       </c>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="155"/>
-      <c r="B2" s="160" t="s">
+      <c r="A2" s="123"/>
+      <c r="B2" s="124" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="160" t="s">
+      <c r="C2" s="124" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="160" t="s">
+      <c r="D2" s="124" t="s">
         <v>187</v>
       </c>
-      <c r="E2" s="160" t="s">
+      <c r="E2" s="124" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="160" t="s">
+      <c r="F2" s="124" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="160" t="s">
+      <c r="G2" s="124" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="160" t="s">
+      <c r="H2" s="124" t="s">
         <v>186</v>
       </c>
-      <c r="I2" s="160" t="s">
+      <c r="I2" s="124" t="s">
         <v>190</v>
       </c>
-      <c r="J2" s="160" t="s">
+      <c r="J2" s="124" t="s">
         <v>191</v>
       </c>
-      <c r="K2" s="160" t="s">
+      <c r="K2" s="124" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="161">
+      <c r="A3" s="125">
         <v>41759</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="163" t="s">
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="148" t="s">
         <v>192</v>
       </c>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="161">
+      <c r="A4" s="125">
         <v>41760</v>
       </c>
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="155" t="s">
+      <c r="C4" s="123" t="s">
         <v>194</v>
       </c>
-      <c r="D4" s="154" t="s">
+      <c r="D4" s="122" t="s">
         <v>195</v>
       </c>
-      <c r="E4" s="154" t="s">
+      <c r="E4" s="122" t="s">
         <v>196</v>
       </c>
-      <c r="F4" s="155" t="s">
+      <c r="F4" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="G4" s="155" t="s">
+      <c r="G4" s="123" t="s">
         <v>198</v>
       </c>
-      <c r="H4" s="155" t="s">
+      <c r="H4" s="123" t="s">
         <v>194</v>
       </c>
-      <c r="I4" s="155" t="s">
+      <c r="I4" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="J4" s="155" t="s">
+      <c r="J4" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="K4" s="155" t="s">
+      <c r="K4" s="123" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="161">
+      <c r="A5" s="125">
         <v>41761</v>
       </c>
-      <c r="B5" s="155" t="s">
+      <c r="B5" s="123" t="s">
         <v>201</v>
       </c>
-      <c r="C5" s="155" t="s">
+      <c r="C5" s="123" t="s">
         <v>194</v>
       </c>
-      <c r="D5" s="155" t="s">
+      <c r="D5" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="E5" s="155" t="s">
+      <c r="E5" s="123" t="s">
         <v>203</v>
       </c>
-      <c r="F5" s="155" t="s">
+      <c r="F5" s="123" t="s">
         <v>204</v>
       </c>
-      <c r="G5" s="155" t="s">
+      <c r="G5" s="123" t="s">
         <v>205</v>
       </c>
-      <c r="H5" s="155" t="s">
+      <c r="H5" s="123" t="s">
         <v>194</v>
       </c>
-      <c r="I5" s="155" t="s">
+      <c r="I5" s="123" t="s">
         <v>206</v>
       </c>
-      <c r="J5" s="155" t="s">
+      <c r="J5" s="123" t="s">
         <v>207</v>
       </c>
-      <c r="K5" s="155" t="s">
+      <c r="K5" s="123" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="161">
+      <c r="A6" s="125">
         <v>41762</v>
       </c>
-      <c r="B6" s="155" t="s">
+      <c r="B6" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="155" t="s">
+      <c r="C6" s="123" t="s">
         <v>194</v>
       </c>
-      <c r="D6" s="155" t="s">
+      <c r="D6" s="123" t="s">
         <v>208</v>
       </c>
-      <c r="E6" s="155" t="s">
+      <c r="E6" s="123" t="s">
         <v>209</v>
       </c>
-      <c r="F6" s="155" t="s">
+      <c r="F6" s="123" t="s">
         <v>201</v>
       </c>
-      <c r="G6" s="155" t="s">
+      <c r="G6" s="123" t="s">
         <v>198</v>
       </c>
-      <c r="H6" s="155" t="s">
+      <c r="H6" s="123" t="s">
         <v>194</v>
       </c>
-      <c r="I6" s="155" t="s">
+      <c r="I6" s="123" t="s">
         <v>210</v>
       </c>
-      <c r="J6" s="155" t="s">
+      <c r="J6" s="123" t="s">
         <v>211</v>
       </c>
-      <c r="K6" s="155" t="s">
+      <c r="K6" s="123" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="161">
+      <c r="A7" s="125">
         <v>41763</v>
       </c>
-      <c r="B7" s="155" t="s">
+      <c r="B7" s="123" t="s">
         <v>204</v>
       </c>
-      <c r="C7" s="155" t="s">
+      <c r="C7" s="123" t="s">
         <v>194</v>
       </c>
-      <c r="D7" s="155" t="s">
+      <c r="D7" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="E7" s="160" t="s">
+      <c r="E7" s="124" t="s">
         <v>212</v>
       </c>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="155"/>
-      <c r="J7" s="155"/>
-      <c r="K7" s="155"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="123"/>
+      <c r="J7" s="123"/>
+      <c r="K7" s="123"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="161">
+      <c r="A8" s="125">
         <v>41764</v>
       </c>
-      <c r="B8" s="155"/>
-      <c r="C8" s="155"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="155"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="155"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="123"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="161">
+      <c r="A9" s="125">
         <v>41765</v>
       </c>
-      <c r="B9" s="155"/>
-      <c r="C9" s="155"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="155"/>
-      <c r="J9" s="155"/>
-      <c r="K9" s="155"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="123"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="162">
+      <c r="A10" s="126">
         <v>41766</v>
       </c>
-      <c r="B10" s="155"/>
-      <c r="C10" s="155"/>
-      <c r="D10" s="155"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="155"/>
-      <c r="I10" s="155" t="s">
+      <c r="B10" s="123"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="J10" s="154" t="s">
+      <c r="J10" s="122" t="s">
         <v>213</v>
       </c>
-      <c r="K10" s="155" t="s">
+      <c r="K10" s="123" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="162">
+      <c r="A11" s="126">
         <v>41767</v>
       </c>
-      <c r="B11" s="155" t="s">
+      <c r="B11" s="123" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="155" t="s">
+      <c r="C11" s="123" t="s">
         <v>194</v>
       </c>
-      <c r="D11" s="154" t="s">
+      <c r="D11" s="122" t="s">
         <v>202</v>
       </c>
-      <c r="E11" s="154" t="s">
+      <c r="E11" s="122" t="s">
         <v>214</v>
       </c>
-      <c r="F11" s="155" t="s">
+      <c r="F11" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="G11" s="155" t="s">
+      <c r="G11" s="123" t="s">
         <v>198</v>
       </c>
-      <c r="H11" s="155" t="s">
+      <c r="H11" s="123" t="s">
         <v>194</v>
       </c>
-      <c r="I11" s="155" t="s">
+      <c r="I11" s="123" t="s">
         <v>215</v>
       </c>
-      <c r="J11" s="155"/>
-      <c r="K11" s="155" t="s">
+      <c r="J11" s="123"/>
+      <c r="K11" s="123" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="162">
+      <c r="A12" s="126">
         <v>41768</v>
       </c>
-      <c r="B12" s="155" t="s">
+      <c r="B12" s="123" t="s">
         <v>201</v>
       </c>
-      <c r="C12" s="155" t="s">
+      <c r="C12" s="123" t="s">
         <v>194</v>
       </c>
-      <c r="D12" s="155" t="s">
+      <c r="D12" s="123" t="s">
         <v>195</v>
       </c>
-      <c r="E12" s="155" t="s">
+      <c r="E12" s="123" t="s">
         <v>216</v>
       </c>
-      <c r="F12" s="155" t="s">
+      <c r="F12" s="123" t="s">
         <v>204</v>
       </c>
-      <c r="G12" s="155" t="s">
+      <c r="G12" s="123" t="s">
         <v>205</v>
       </c>
-      <c r="H12" s="155" t="s">
+      <c r="H12" s="123" t="s">
         <v>194</v>
       </c>
-      <c r="I12" s="155" t="s">
+      <c r="I12" s="123" t="s">
         <v>217</v>
       </c>
-      <c r="K12" s="155" t="s">
+      <c r="K12" s="123" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="162">
+      <c r="A13" s="126">
         <v>41769</v>
       </c>
-      <c r="B13" s="155" t="s">
+      <c r="B13" s="123" t="s">
         <v>218</v>
       </c>
-      <c r="C13" s="155" t="s">
+      <c r="C13" s="123" t="s">
         <v>194</v>
       </c>
-      <c r="D13" s="155" t="s">
+      <c r="D13" s="123" t="s">
         <v>219</v>
       </c>
-      <c r="E13" s="163" t="s">
+      <c r="E13" s="148" t="s">
         <v>220</v>
       </c>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="155"/>
-      <c r="J13" s="155"/>
-      <c r="K13" s="155"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="161"/>
-    </row>
-    <row r="15" spans="3:7">
-      <c r="C15" s="154" t="s">
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="125"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="C15" s="122" t="s">
         <v>221</v>
       </c>
-      <c r="E15" s="154" t="s">
+      <c r="E15" s="122" t="s">
         <v>222</v>
       </c>
-      <c r="F15" s="154" t="s">
+      <c r="F15" s="122" t="s">
         <v>223</v>
       </c>
-      <c r="G15" s="154" t="s">
+      <c r="G15" s="122" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="154" t="s">
+    <row r="16" spans="1:11">
+      <c r="B16" s="122" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="154">
+      <c r="C16" s="122">
         <v>5</v>
       </c>
-      <c r="E16" s="164">
+      <c r="E16" s="127">
         <v>2.5</v>
       </c>
-      <c r="F16" s="154">
+      <c r="F16" s="122">
         <f t="shared" ref="F16:F18" si="0">C16*E16</f>
         <v>12.5</v>
       </c>
-      <c r="G16" s="154" t="s">
+      <c r="G16" s="122" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="154" t="s">
+      <c r="B17" s="122" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="154">
+      <c r="C17" s="122">
         <v>3</v>
       </c>
-      <c r="E17" s="164">
+      <c r="E17" s="127">
         <v>2.5</v>
       </c>
-      <c r="F17" s="154">
+      <c r="F17" s="122">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="G17" s="165" t="s">
+      <c r="G17" s="128" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="154" t="s">
+      <c r="B18" s="122" t="s">
         <v>226</v>
       </c>
-      <c r="C18" s="154">
+      <c r="C18" s="122">
         <v>4</v>
       </c>
-      <c r="E18" s="164">
+      <c r="E18" s="127">
         <v>3</v>
       </c>
-      <c r="F18" s="154">
+      <c r="F18" s="122">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G18" s="154" t="s">
+      <c r="G18" s="122" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="154" t="s">
+    <row r="19" spans="2:7">
+      <c r="B19" s="122" t="s">
         <v>206</v>
       </c>
-      <c r="C19" s="154">
+      <c r="C19" s="122">
         <v>1</v>
       </c>
-      <c r="E19" s="164"/>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="154" t="s">
+      <c r="E19" s="127"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="122" t="s">
         <v>210</v>
       </c>
-      <c r="C20" s="154">
+      <c r="C20" s="122">
         <v>1</v>
       </c>
-      <c r="E20" s="164"/>
+      <c r="E20" s="127"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="154" t="s">
+      <c r="B21" s="122" t="s">
         <v>227</v>
       </c>
-      <c r="C21" s="154">
+      <c r="C21" s="122">
         <v>2</v>
       </c>
-      <c r="E21" s="164">
+      <c r="E21" s="127">
         <v>2.5</v>
       </c>
-      <c r="F21" s="154">
+      <c r="F21" s="122">
         <f t="shared" ref="F21:F23" si="1">C21*E21</f>
         <v>5</v>
       </c>
-      <c r="G21" s="154" t="s">
+      <c r="G21" s="122" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="154" t="s">
+      <c r="B22" s="122" t="s">
         <v>228</v>
       </c>
-      <c r="C22" s="154">
+      <c r="C22" s="122">
         <v>7</v>
       </c>
-      <c r="E22" s="164">
+      <c r="E22" s="127">
         <v>5</v>
       </c>
-      <c r="F22" s="154">
+      <c r="F22" s="122">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="G22" s="154" t="s">
+      <c r="G22" s="122" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="154" t="s">
+      <c r="B23" s="122" t="s">
         <v>230</v>
       </c>
-      <c r="C23" s="154">
+      <c r="C23" s="122">
         <v>5</v>
       </c>
-      <c r="E23" s="164">
+      <c r="E23" s="127">
         <v>3</v>
       </c>
-      <c r="F23" s="154">
+      <c r="F23" s="122">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G23" s="154" t="s">
+      <c r="G23" s="122" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="154" t="s">
+    <row r="24" spans="2:7">
+      <c r="B24" s="122" t="s">
         <v>231</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="122">
         <v>5</v>
       </c>
-      <c r="E24" s="164"/>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="154" t="s">
+      <c r="E24" s="127"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="122" t="s">
         <v>232</v>
       </c>
-      <c r="C25" s="154">
+      <c r="C25" s="122">
         <v>3</v>
       </c>
-      <c r="E25" s="164"/>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="154" t="s">
+      <c r="E25" s="127"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="122" t="s">
         <v>233</v>
       </c>
-      <c r="C26" s="154">
+      <c r="C26" s="122">
         <v>5</v>
       </c>
-      <c r="E26" s="164"/>
+      <c r="E26" s="127"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="154" t="s">
+      <c r="B27" s="122" t="s">
         <v>234</v>
       </c>
-      <c r="C27" s="154">
+      <c r="C27" s="122">
         <v>1</v>
       </c>
-      <c r="E27" s="166">
+      <c r="E27" s="129">
         <v>1.5</v>
       </c>
-      <c r="F27" s="154">
+      <c r="F27" s="122">
         <f>C27*E27</f>
         <v>1.5</v>
       </c>
-      <c r="G27" s="154" t="s">
+      <c r="G27" s="122" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="154" t="s">
+    <row r="28" spans="2:7">
+      <c r="B28" s="122" t="s">
         <v>235</v>
       </c>
-      <c r="C28" s="154">
+      <c r="C28" s="122">
         <v>1</v>
       </c>
-      <c r="E28" s="166"/>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="154" t="s">
+      <c r="E28" s="129"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="122" t="s">
         <v>236</v>
       </c>
-      <c r="C29" s="154">
+      <c r="C29" s="122">
         <v>1</v>
       </c>
-      <c r="E29" s="166"/>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="154" t="s">
+      <c r="E29" s="129"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="122" t="s">
         <v>237</v>
       </c>
-      <c r="C30" s="154">
+      <c r="C30" s="122">
         <v>12</v>
       </c>
-      <c r="E30" s="166"/>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="154" t="s">
+      <c r="E30" s="129"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="122" t="s">
         <v>238</v>
       </c>
-      <c r="C31" s="154">
+      <c r="C31" s="122">
         <v>12</v>
       </c>
-      <c r="E31" s="166"/>
+      <c r="E31" s="129"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="154" t="s">
+      <c r="B32" s="122" t="s">
         <v>239</v>
       </c>
-      <c r="C32" s="154">
+      <c r="C32" s="122">
         <v>8</v>
       </c>
-      <c r="E32" s="164">
+      <c r="E32" s="127">
         <v>2</v>
       </c>
-      <c r="F32" s="154">
+      <c r="F32" s="122">
         <f t="shared" ref="F32:F40" si="2">C32*E32</f>
         <v>16</v>
       </c>
-      <c r="G32" s="154" t="s">
+      <c r="G32" s="122" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="154" t="s">
+      <c r="B33" s="122" t="s">
         <v>241</v>
       </c>
-      <c r="C33" s="154">
+      <c r="C33" s="122">
         <v>5</v>
       </c>
-      <c r="E33" s="164">
+      <c r="E33" s="127">
         <v>1</v>
       </c>
-      <c r="F33" s="154">
+      <c r="F33" s="122">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="G33" s="154" t="s">
+      <c r="G33" s="122" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="154" t="s">
+      <c r="B34" s="122" t="s">
         <v>242</v>
       </c>
-      <c r="C34" s="154">
+      <c r="C34" s="122">
         <v>5</v>
       </c>
-      <c r="E34" s="164">
+      <c r="E34" s="127">
         <v>3</v>
       </c>
-      <c r="F34" s="154">
+      <c r="F34" s="122">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="G34" s="154" t="s">
+      <c r="G34" s="122" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="154" t="s">
+      <c r="B35" s="122" t="s">
         <v>243</v>
       </c>
-      <c r="C35" s="154">
+      <c r="C35" s="122">
         <v>23</v>
       </c>
-      <c r="E35" s="164">
+      <c r="E35" s="127">
         <v>0.15</v>
       </c>
-      <c r="F35" s="154">
+      <c r="F35" s="122">
         <f t="shared" si="2"/>
-        <v>3.45</v>
-      </c>
-      <c r="G35" s="154" t="s">
+        <v>3.4499999999999997</v>
+      </c>
+      <c r="G35" s="122" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="154" t="s">
+      <c r="B36" s="122" t="s">
         <v>244</v>
       </c>
-      <c r="C36" s="154">
+      <c r="C36" s="122">
         <v>1</v>
       </c>
-      <c r="E36" s="164">
+      <c r="E36" s="127">
         <v>2</v>
       </c>
-      <c r="F36" s="154">
+      <c r="F36" s="122">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G36" s="154" t="s">
+      <c r="G36" s="122" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="154" t="s">
+      <c r="B37" s="122" t="s">
         <v>245</v>
       </c>
-      <c r="C37" s="154">
+      <c r="C37" s="122">
         <v>4</v>
       </c>
-      <c r="E37" s="164">
+      <c r="E37" s="127">
         <v>1</v>
       </c>
-      <c r="F37" s="154">
+      <c r="F37" s="122">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G37" s="154" t="s">
+      <c r="G37" s="122" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="154" t="s">
+      <c r="B38" s="122" t="s">
         <v>246</v>
       </c>
-      <c r="C38" s="154">
+      <c r="C38" s="122">
         <v>18</v>
       </c>
-      <c r="E38" s="164">
+      <c r="E38" s="127">
         <v>0.6</v>
       </c>
-      <c r="F38" s="154">
+      <c r="F38" s="122">
         <f t="shared" si="2"/>
-        <v>10.8</v>
-      </c>
-      <c r="G38" s="154" t="s">
+        <v>10.799999999999999</v>
+      </c>
+      <c r="G38" s="122" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="154" t="s">
+      <c r="B39" s="122" t="s">
         <v>247</v>
       </c>
-      <c r="C39" s="154">
+      <c r="C39" s="122">
         <v>3</v>
       </c>
-      <c r="E39" s="164">
+      <c r="E39" s="127">
         <v>5</v>
       </c>
-      <c r="F39" s="154">
+      <c r="F39" s="122">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="G39" s="154" t="s">
+      <c r="G39" s="122" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="154" t="s">
+      <c r="B40" s="122" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="154">
+      <c r="C40" s="122">
         <v>5</v>
       </c>
-      <c r="D40" s="154" t="s">
+      <c r="D40" s="122" t="s">
         <v>249</v>
       </c>
-      <c r="E40" s="164">
+      <c r="E40" s="127">
         <v>0.5</v>
       </c>
-      <c r="F40" s="154">
+      <c r="F40" s="122">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="G40" s="154" t="s">
+      <c r="G40" s="122" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="2:5">
-      <c r="B41" s="154" t="s">
+    <row r="41" spans="2:7">
+      <c r="B41" s="122" t="s">
         <v>250</v>
       </c>
-      <c r="C41" s="154">
+      <c r="C41" s="122">
         <v>3</v>
       </c>
-      <c r="E41" s="164"/>
+      <c r="E41" s="127"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="154" t="s">
+      <c r="B42" s="122" t="s">
         <v>117</v>
       </c>
-      <c r="C42" s="154">
+      <c r="C42" s="122">
         <v>5</v>
       </c>
-      <c r="D42" s="154" t="s">
+      <c r="D42" s="122" t="s">
         <v>251</v>
       </c>
-      <c r="E42" s="164">
+      <c r="E42" s="127">
         <v>0.2</v>
       </c>
-      <c r="F42" s="154">
+      <c r="F42" s="122">
         <v>3</v>
       </c>
-      <c r="G42" s="154" t="s">
+      <c r="G42" s="122" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="154" t="s">
+      <c r="B43" s="122" t="s">
         <v>252</v>
       </c>
-      <c r="C43" s="154">
+      <c r="C43" s="122">
         <v>3</v>
       </c>
-      <c r="E43" s="164">
+      <c r="E43" s="127">
         <v>1.5</v>
       </c>
-      <c r="F43" s="154">
+      <c r="F43" s="122">
         <f t="shared" ref="F43:F47" si="3">C43*E43</f>
         <v>4.5</v>
       </c>
-      <c r="G43" s="154" t="s">
+      <c r="G43" s="122" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="154" t="s">
+      <c r="B44" s="122" t="s">
         <v>253</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="122">
         <v>3</v>
       </c>
-      <c r="E44" s="164">
+      <c r="E44" s="127">
         <v>1</v>
       </c>
-      <c r="F44" s="154">
+      <c r="F44" s="122">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="G44" s="154" t="s">
+      <c r="G44" s="122" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="154" t="s">
+      <c r="B45" s="122" t="s">
         <v>254</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="122">
         <v>3</v>
       </c>
-      <c r="E45" s="164">
+      <c r="E45" s="127">
         <v>2</v>
       </c>
-      <c r="F45" s="154">
+      <c r="F45" s="122">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="G45" s="154" t="s">
+      <c r="G45" s="122" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="154" t="s">
+    <row r="46" spans="2:7">
+      <c r="B46" s="122" t="s">
         <v>175</v>
       </c>
-      <c r="F46" s="154">
+      <c r="F46" s="122">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:6">
-      <c r="B47" s="154" t="s">
+    <row r="47" spans="2:7">
+      <c r="B47" s="122" t="s">
         <v>172</v>
       </c>
-      <c r="F47" s="154">
+      <c r="F47" s="122">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="154" t="s">
+    <row r="48" spans="2:7">
+      <c r="B48" s="122" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
-      <c r="B49" s="154" t="s">
+    <row r="49" spans="2:4">
+      <c r="B49" s="122" t="s">
         <v>194</v>
       </c>
-      <c r="C49" s="154">
+      <c r="C49" s="122">
         <v>20</v>
       </c>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="154" t="s">
+      <c r="B50" s="122" t="s">
         <v>256</v>
       </c>
-      <c r="C50" s="154">
+      <c r="C50" s="122">
         <v>4</v>
       </c>
-      <c r="D50" s="154" t="s">
+      <c r="D50" s="122" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="154" t="s">
+    <row r="51" spans="2:4">
+      <c r="B51" s="122" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="154" t="s">
+    <row r="52" spans="2:4">
+      <c r="B52" s="122" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="53" spans="2:3">
-      <c r="B53" s="154" t="s">
+    <row r="53" spans="2:4">
+      <c r="B53" s="122" t="s">
         <v>259</v>
       </c>
-      <c r="C53" s="154" t="s">
+      <c r="C53" s="122" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="154" t="s">
+    <row r="54" spans="2:4">
+      <c r="B54" s="122" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="154" t="s">
+    <row r="55" spans="2:4">
+      <c r="B55" s="122" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="154" t="s">
+    <row r="56" spans="2:4">
+      <c r="B56" s="122" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="154" t="s">
+    <row r="57" spans="2:4">
+      <c r="B57" s="122" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="154" t="s">
+    <row r="58" spans="2:4">
+      <c r="B58" s="122" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="154" t="s">
+    <row r="59" spans="2:4">
+      <c r="B59" s="122" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="154" t="s">
+    <row r="60" spans="2:4">
+      <c r="B60" s="122" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="154" t="s">
+    <row r="61" spans="2:4">
+      <c r="B61" s="122" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="154" t="s">
+    <row r="62" spans="2:4">
+      <c r="B62" s="122" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="154" t="s">
+    <row r="63" spans="2:4">
+      <c r="B63" s="122" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="154" t="s">
+    <row r="64" spans="2:4">
+      <c r="B64" s="122" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="154" t="s">
+      <c r="B65" s="122" t="s">
         <v>272</v>
       </c>
     </row>
@@ -10723,235 +10120,232 @@
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="E13:H13"/>
   </mergeCells>
-  <pageMargins left="0.78740157480315" right="0.78740157480315" top="0.31" bottom="0.32" header="0.19" footer="0.32"/>
+  <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.31" bottom="0.32" header="0.19" footer="0.32"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="B4 J6 J6 J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" style="149"/>
-    <col min="2" max="2" width="30.287037037037" style="150" customWidth="1"/>
-    <col min="3" max="3" width="24.4259259259259" style="150" customWidth="1"/>
-    <col min="4" max="4" width="47.287037037037" style="150" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="149"/>
+    <col min="1" max="1" width="9" style="117"/>
+    <col min="2" max="2" width="30.28515625" style="118" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="118" customWidth="1"/>
+    <col min="4" max="4" width="47.28515625" style="118" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="117"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="119" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="120" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="152" t="s">
+      <c r="C1" s="120" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="152" t="s">
+      <c r="D1" s="120" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="151">
+    <row r="2" spans="1:4" ht="30">
+      <c r="A2" s="119">
         <v>1.05</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="152" t="s">
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="120" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="3" ht="43.2" spans="1:4">
-      <c r="A3" s="151">
-        <v>2.05</v>
-      </c>
-      <c r="B3" s="152" t="s">
+    <row r="3" spans="1:4" ht="45">
+      <c r="A3" s="119">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="B3" s="120" t="s">
         <v>275</v>
       </c>
-      <c r="C3" s="152" t="s">
+      <c r="C3" s="120" t="s">
         <v>276</v>
       </c>
-      <c r="D3" s="152" t="s">
+      <c r="D3" s="120" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="4" ht="28.8" spans="1:4">
-      <c r="A4" s="151">
+    <row r="4" spans="1:4" ht="30">
+      <c r="A4" s="119">
         <v>3.05</v>
       </c>
-      <c r="B4" s="152" t="s">
+      <c r="B4" s="120" t="s">
         <v>278</v>
       </c>
-      <c r="C4" s="152" t="s">
+      <c r="C4" s="120" t="s">
         <v>279</v>
       </c>
-      <c r="D4" s="152" t="s">
+      <c r="D4" s="120" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="5" ht="28.8" spans="1:4">
-      <c r="A5" s="151">
+    <row r="5" spans="1:4" ht="45">
+      <c r="A5" s="119">
         <v>4.05</v>
       </c>
-      <c r="B5" s="152" t="s">
+      <c r="B5" s="120" t="s">
         <v>281</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="120" t="s">
         <v>282</v>
       </c>
-      <c r="D5" s="152" t="s">
+      <c r="D5" s="120" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="6" ht="28.8" spans="1:4">
-      <c r="A6" s="151">
+    <row r="6" spans="1:4" ht="30">
+      <c r="A6" s="119">
         <v>5.05</v>
       </c>
-      <c r="B6" s="152" t="s">
+      <c r="B6" s="120" t="s">
         <v>284</v>
       </c>
-      <c r="C6" s="153"/>
-      <c r="D6" s="153"/>
-    </row>
-    <row r="7" ht="28.8" spans="1:4">
-      <c r="A7" s="151">
-        <v>8.05</v>
-      </c>
-      <c r="B7" s="153"/>
-      <c r="C7" s="153"/>
-      <c r="D7" s="152" t="s">
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+    </row>
+    <row r="7" spans="1:4" ht="30">
+      <c r="A7" s="119">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="120" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="8" ht="28.8" spans="1:4">
-      <c r="A8" s="151">
-        <v>9.05</v>
-      </c>
-      <c r="B8" s="152" t="s">
+    <row r="8" spans="1:4" ht="30">
+      <c r="A8" s="119">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="B8" s="120" t="s">
         <v>286</v>
       </c>
-      <c r="C8" s="152" t="s">
+      <c r="C8" s="120" t="s">
         <v>287</v>
       </c>
-      <c r="D8" s="152" t="s">
+      <c r="D8" s="120" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="9" ht="43.2" spans="1:4">
-      <c r="A9" s="151">
-        <v>10.05</v>
-      </c>
-      <c r="B9" s="152" t="s">
+    <row r="9" spans="1:4" ht="45">
+      <c r="A9" s="119">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="B9" s="120" t="s">
         <v>289</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="120" t="s">
         <v>290</v>
       </c>
-      <c r="D9" s="152" t="s">
+      <c r="D9" s="120" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="10" ht="28.8" spans="1:4">
-      <c r="A10" s="151">
+    <row r="10" spans="1:4" ht="30">
+      <c r="A10" s="119">
         <v>11.05</v>
       </c>
-      <c r="B10" s="152" t="s">
+      <c r="B10" s="120" t="s">
         <v>292</v>
       </c>
-      <c r="C10" s="152" t="s">
+      <c r="C10" s="120" t="s">
         <v>293</v>
       </c>
-      <c r="D10" s="152" t="s">
+      <c r="D10" s="120" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="151">
+    <row r="11" spans="1:4" ht="30">
+      <c r="A11" s="119">
         <v>12.05</v>
       </c>
-      <c r="B11" s="152" t="s">
+      <c r="B11" s="120" t="s">
         <v>295</v>
       </c>
-      <c r="C11" s="152" t="s">
+      <c r="C11" s="120" t="s">
         <v>296</v>
       </c>
-      <c r="D11" s="153"/>
+      <c r="D11" s="121"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X42"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J6" sqref="B4 J6 J6 J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8" style="29"/>
-    <col min="2" max="2" width="28.8518518518519" style="29" customWidth="1"/>
-    <col min="3" max="3" width="10.8518518518519" style="29"/>
-    <col min="4" max="4" width="13.1388888888889" style="29"/>
-    <col min="5" max="5" width="21.4259259259259" style="29"/>
-    <col min="6" max="6" width="12.8518518518519" style="29"/>
-    <col min="7" max="7" width="9.28703703703704" style="29"/>
+    <col min="2" max="2" width="28.85546875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="29"/>
+    <col min="4" max="4" width="13.140625" style="29"/>
+    <col min="5" max="5" width="21.42578125" style="29"/>
+    <col min="6" max="6" width="12.85546875" style="29"/>
+    <col min="7" max="7" width="9.28515625" style="29"/>
     <col min="8" max="8" width="9" style="29"/>
-    <col min="9" max="9" width="12.1388888888889" style="36"/>
-    <col min="10" max="10" width="19.4259259259259" style="29"/>
-    <col min="11" max="11" width="28.1388888888889" style="29"/>
-    <col min="12" max="12" width="31.4259259259259" style="29"/>
-    <col min="13" max="13" width="18.5740740740741" style="29" customWidth="1"/>
-    <col min="14" max="14" width="14.1388888888889" style="29"/>
-    <col min="15" max="15" width="14.5740740740741" style="29" customWidth="1"/>
-    <col min="16" max="16" width="18.8518518518519" style="29"/>
-    <col min="17" max="17" width="14.1388888888889" style="29"/>
+    <col min="9" max="9" width="12.140625" style="36"/>
+    <col min="10" max="10" width="19.42578125" style="29"/>
+    <col min="11" max="11" width="28.140625" style="29"/>
+    <col min="12" max="12" width="31.42578125" style="29"/>
+    <col min="13" max="13" width="18.5703125" style="29" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="29"/>
+    <col min="15" max="15" width="14.5703125" style="29" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" style="29"/>
+    <col min="17" max="17" width="14.140625" style="29"/>
     <col min="18" max="16384" width="8" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:16">
       <c r="B1" s="35" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="1:16">
       <c r="B2" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="C2" s="137">
+      <c r="C2" s="105">
         <v>44680</v>
       </c>
-      <c r="D2" s="137">
+      <c r="D2" s="105">
         <v>44685</v>
       </c>
-      <c r="E2" s="138"/>
-    </row>
-    <row r="3" spans="2:4">
+      <c r="E2" s="106"/>
+    </row>
+    <row r="3" spans="1:16">
       <c r="B3" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="C3" s="137" t="s">
+      <c r="C3" s="105" t="s">
         <v>300</v>
       </c>
-      <c r="D3" s="138"/>
-    </row>
-    <row r="4" spans="2:16">
+      <c r="D3" s="106"/>
+    </row>
+    <row r="4" spans="1:16">
       <c r="B4" s="35" t="s">
         <v>301</v>
       </c>
@@ -10970,13 +10364,13 @@
       <c r="G4" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="H4" s="139" t="s">
+      <c r="H4" s="107" t="s">
         <v>307</v>
       </c>
       <c r="I4" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="J4" s="145" t="s">
+      <c r="J4" s="113" t="s">
         <v>309</v>
       </c>
       <c r="K4" s="35" t="s">
@@ -10991,14 +10385,14 @@
       <c r="N4" s="35" t="s">
         <v>313</v>
       </c>
-      <c r="O4" s="146" t="s">
+      <c r="O4" s="114" t="s">
         <v>314</v>
       </c>
       <c r="P4" s="35" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="5" ht="15.15" spans="1:16">
+    <row r="5" spans="1:16" ht="15">
       <c r="A5" s="29">
         <v>1</v>
       </c>
@@ -11017,7 +10411,7 @@
       <c r="F5" s="6">
         <v>13</v>
       </c>
-      <c r="G5" s="140"/>
+      <c r="G5" s="108"/>
       <c r="H5" s="6">
         <v>630</v>
       </c>
@@ -11043,7 +10437,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="6" ht="15.15" spans="1:16">
+    <row r="6" spans="1:16" ht="15">
       <c r="A6" s="29">
         <v>2</v>
       </c>
@@ -11062,7 +10456,7 @@
       <c r="F6" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="G6" s="141"/>
+      <c r="G6" s="109"/>
       <c r="H6" s="20">
         <v>197</v>
       </c>
@@ -11088,7 +10482,7 @@
         <v>39367</v>
       </c>
     </row>
-    <row r="7" ht="14.4" spans="1:16">
+    <row r="7" spans="1:16" ht="15">
       <c r="A7" s="29">
         <v>3</v>
       </c>
@@ -11107,7 +10501,7 @@
       <c r="F7" s="6">
         <v>5</v>
       </c>
-      <c r="G7" s="141"/>
+      <c r="G7" s="109"/>
       <c r="H7" s="5">
         <v>503</v>
       </c>
@@ -11133,7 +10527,7 @@
         <v>39857</v>
       </c>
     </row>
-    <row r="8" ht="14.4" spans="1:16">
+    <row r="8" spans="1:16" ht="15">
       <c r="A8" s="29">
         <v>4</v>
       </c>
@@ -11178,7 +10572,7 @@
         <v>38553</v>
       </c>
     </row>
-    <row r="9" ht="14.4" spans="1:16">
+    <row r="9" spans="1:16" ht="15">
       <c r="A9" s="29">
         <v>5</v>
       </c>
@@ -11197,7 +10591,7 @@
       <c r="F9" s="6">
         <v>16</v>
       </c>
-      <c r="G9" s="141"/>
+      <c r="G9" s="109"/>
       <c r="H9" s="6">
         <v>56</v>
       </c>
@@ -11223,7 +10617,7 @@
         <v>39849</v>
       </c>
     </row>
-    <row r="10" ht="14.4" spans="1:16">
+    <row r="10" spans="1:16" ht="15">
       <c r="A10" s="29">
         <v>6</v>
       </c>
@@ -11267,7 +10661,7 @@
         <v>38137</v>
       </c>
     </row>
-    <row r="11" ht="14.4" spans="1:16">
+    <row r="11" spans="1:16" ht="15">
       <c r="A11" s="29">
         <v>7</v>
       </c>
@@ -11286,7 +10680,7 @@
       <c r="F11" s="6">
         <v>9</v>
       </c>
-      <c r="G11" s="140"/>
+      <c r="G11" s="108"/>
       <c r="H11" s="5">
         <v>441</v>
       </c>
@@ -11312,7 +10706,7 @@
         <v>39166</v>
       </c>
     </row>
-    <row r="12" ht="14.4" spans="1:16">
+    <row r="12" spans="1:16" ht="15">
       <c r="A12" s="29">
         <v>8</v>
       </c>
@@ -11331,7 +10725,7 @@
       <c r="F12" s="20">
         <v>3</v>
       </c>
-      <c r="G12" s="141"/>
+      <c r="G12" s="109"/>
       <c r="H12" s="24">
         <v>56</v>
       </c>
@@ -11357,7 +10751,7 @@
         <v>38917</v>
       </c>
     </row>
-    <row r="13" ht="14.4" spans="1:16">
+    <row r="13" spans="1:16" ht="15">
       <c r="A13" s="29">
         <v>9</v>
       </c>
@@ -11402,7 +10796,7 @@
         <v>40363</v>
       </c>
     </row>
-    <row r="14" ht="14.4" spans="1:16">
+    <row r="14" spans="1:16" ht="15">
       <c r="A14" s="29">
         <v>10</v>
       </c>
@@ -11447,7 +10841,7 @@
         <v>38434</v>
       </c>
     </row>
-    <row r="15" ht="14.4" spans="1:16">
+    <row r="15" spans="1:16" ht="15">
       <c r="A15" s="29">
         <v>11</v>
       </c>
@@ -11492,7 +10886,7 @@
         <v>40070</v>
       </c>
     </row>
-    <row r="16" ht="14.4" spans="1:16">
+    <row r="16" spans="1:16" ht="15">
       <c r="A16" s="29">
         <v>12</v>
       </c>
@@ -11537,7 +10931,7 @@
         <v>39331</v>
       </c>
     </row>
-    <row r="17" ht="14.4" spans="1:16">
+    <row r="17" spans="1:16" ht="15">
       <c r="A17" s="29">
         <v>13</v>
       </c>
@@ -11556,7 +10950,7 @@
       <c r="F17" s="20">
         <v>15</v>
       </c>
-      <c r="G17" s="141"/>
+      <c r="G17" s="109"/>
       <c r="H17" s="20">
         <v>586</v>
       </c>
@@ -11582,7 +10976,7 @@
         <v>38982</v>
       </c>
     </row>
-    <row r="18" ht="14.4" spans="1:16">
+    <row r="18" spans="1:16" ht="15">
       <c r="A18" s="29">
         <v>14</v>
       </c>
@@ -11601,7 +10995,7 @@
       <c r="F18" s="6">
         <v>1</v>
       </c>
-      <c r="G18" s="141"/>
+      <c r="G18" s="109"/>
       <c r="H18" s="5">
         <v>64</v>
       </c>
@@ -11627,7 +11021,7 @@
         <v>40195</v>
       </c>
     </row>
-    <row r="19" ht="15.15" spans="1:16">
+    <row r="19" spans="1:16" ht="15">
       <c r="A19" s="29">
         <v>15</v>
       </c>
@@ -11672,7 +11066,7 @@
         <v>39529</v>
       </c>
     </row>
-    <row r="20" ht="15.15" spans="1:16">
+    <row r="20" spans="1:16" ht="15">
       <c r="A20" s="29">
         <v>16</v>
       </c>
@@ -11712,7 +11106,7 @@
         <v>38989</v>
       </c>
     </row>
-    <row r="21" ht="14.4" spans="1:16">
+    <row r="21" spans="1:16" ht="15">
       <c r="A21" s="29">
         <v>17</v>
       </c>
@@ -11756,7 +11150,7 @@
         <v>39987</v>
       </c>
     </row>
-    <row r="22" ht="14.4" spans="1:16">
+    <row r="22" spans="1:16" ht="15">
       <c r="A22" s="29">
         <v>18</v>
       </c>
@@ -11800,62 +11194,62 @@
         <v>38070</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="1:16">
       <c r="B25" s="29" t="s">
         <v>413</v>
       </c>
-      <c r="C25" s="142" t="s">
+      <c r="C25" s="110" t="s">
         <v>414</v>
       </c>
       <c r="E25" s="36" t="s">
         <v>415</v>
       </c>
-      <c r="F25" s="142">
+      <c r="F25" s="110">
         <v>89217427984</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="1:16">
       <c r="B26" s="29" t="s">
         <v>416</v>
       </c>
-      <c r="C26" s="142" t="s">
+      <c r="C26" s="110" t="s">
         <v>417</v>
       </c>
       <c r="E26" s="36" t="s">
         <v>415</v>
       </c>
-      <c r="F26" s="142">
+      <c r="F26" s="110">
         <v>89679796720</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="1:16">
       <c r="B28" s="29" t="s">
         <v>418</v>
       </c>
-      <c r="C28" s="137">
+      <c r="C28" s="105">
         <v>44669</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:16">
       <c r="B29" s="29" t="s">
         <v>419</v>
       </c>
-      <c r="C29" s="142">
+      <c r="C29" s="110">
         <v>2022</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="1:16">
       <c r="B30" s="29" t="s">
         <v>420</v>
       </c>
-      <c r="C30" s="143"/>
-    </row>
-    <row r="32" ht="13.95" spans="2:2">
-      <c r="B32" s="144" t="s">
+      <c r="C30" s="111"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="B32" s="112" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="33" ht="15.15" spans="2:16">
+    <row r="33" spans="2:24" ht="15">
       <c r="B33" s="6" t="s">
         <v>422</v>
       </c>
@@ -11877,7 +11271,7 @@
       <c r="K33" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="L33" s="147"/>
+      <c r="L33" s="115"/>
       <c r="N33" s="3"/>
       <c r="O33" s="6" t="s">
         <v>425</v>
@@ -11886,7 +11280,7 @@
         <v>39462</v>
       </c>
     </row>
-    <row r="34" ht="15.75" spans="2:24">
+    <row r="34" spans="2:24" ht="15">
       <c r="B34" s="6" t="s">
         <v>426</v>
       </c>
@@ -11908,8 +11302,8 @@
       <c r="K34" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="L34" s="147"/>
-      <c r="M34" s="148"/>
+      <c r="L34" s="115"/>
+      <c r="M34" s="116"/>
       <c r="N34" s="3"/>
       <c r="O34" s="47" t="s">
         <v>430</v>
@@ -11917,11 +11311,11 @@
       <c r="P34" s="11">
         <v>39581</v>
       </c>
-      <c r="V34" s="148"/>
-      <c r="W34" s="148"/>
-      <c r="X34" s="148"/>
-    </row>
-    <row r="35" ht="15.15" spans="2:16">
+      <c r="V34" s="116"/>
+      <c r="W34" s="116"/>
+      <c r="X34" s="116"/>
+    </row>
+    <row r="35" spans="2:24" ht="15">
       <c r="B35" s="6" t="s">
         <v>431</v>
       </c>
@@ -11943,7 +11337,7 @@
       <c r="K35" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="L35" s="147"/>
+      <c r="L35" s="115"/>
       <c r="N35" s="8"/>
       <c r="O35" s="48" t="s">
         <v>435</v>
@@ -11952,7 +11346,7 @@
         <v>39916</v>
       </c>
     </row>
-    <row r="36" ht="15.15" spans="2:16">
+    <row r="36" spans="2:24" ht="15">
       <c r="B36" s="20" t="s">
         <v>436</v>
       </c>
@@ -11974,14 +11368,14 @@
       <c r="K36" s="18" t="s">
         <v>438</v>
       </c>
-      <c r="L36" s="147"/>
+      <c r="L36" s="115"/>
       <c r="N36" s="8"/>
       <c r="O36" s="15"/>
       <c r="P36" s="16">
         <v>38933</v>
       </c>
     </row>
-    <row r="37" ht="15.15" spans="2:16">
+    <row r="37" spans="2:24" ht="15">
       <c r="B37" s="6" t="s">
         <v>439</v>
       </c>
@@ -12003,7 +11397,7 @@
       <c r="K37" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="L37" s="147"/>
+      <c r="L37" s="115"/>
       <c r="N37" s="8"/>
       <c r="O37" s="6" t="s">
         <v>443</v>
@@ -12012,7 +11406,7 @@
         <v>39810</v>
       </c>
     </row>
-    <row r="38" ht="15.15" spans="2:16">
+    <row r="38" spans="2:24" ht="15">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -12020,12 +11414,12 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="147"/>
+      <c r="L38" s="115"/>
       <c r="N38" s="3"/>
       <c r="O38" s="8"/>
       <c r="P38" s="7"/>
     </row>
-    <row r="39" ht="15.15" spans="2:16">
+    <row r="39" spans="2:24" ht="15">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -12033,12 +11427,12 @@
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="147"/>
+      <c r="L39" s="115"/>
       <c r="N39" s="8"/>
       <c r="O39" s="3"/>
       <c r="P39" s="7"/>
     </row>
-    <row r="40" ht="15.15" spans="2:16">
+    <row r="40" spans="2:24" ht="15">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -12046,12 +11440,12 @@
       <c r="I40" s="3"/>
       <c r="J40" s="8"/>
       <c r="K40" s="3"/>
-      <c r="L40" s="147"/>
+      <c r="L40" s="115"/>
       <c r="N40" s="8"/>
       <c r="O40" s="3"/>
       <c r="P40" s="7"/>
     </row>
-    <row r="41" ht="15.15" spans="2:16">
+    <row r="41" spans="2:24" ht="15">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -12059,12 +11453,12 @@
       <c r="I41" s="3"/>
       <c r="J41" s="8"/>
       <c r="K41" s="3"/>
-      <c r="L41" s="147"/>
+      <c r="L41" s="115"/>
       <c r="N41" s="8"/>
       <c r="O41" s="3"/>
       <c r="P41" s="7"/>
     </row>
-    <row r="42" ht="15.15" spans="2:16">
+    <row r="42" spans="2:24" ht="15">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -12072,7 +11466,7 @@
       <c r="I42" s="3"/>
       <c r="J42" s="8"/>
       <c r="K42" s="3"/>
-      <c r="L42" s="147"/>
+      <c r="L42" s="115"/>
       <c r="N42" s="8"/>
       <c r="O42" s="3"/>
       <c r="P42" s="7"/>
@@ -12080,12 +11474,12 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -12095,46 +11489,46 @@
       <selection activeCell="J6" sqref="B4 J6 J6 J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.42592592592593" style="50" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="50" customWidth="1"/>
     <col min="2" max="2" width="18" style="50" customWidth="1"/>
-    <col min="3" max="3" width="10.8518518518519" style="50"/>
-    <col min="4" max="4" width="11.1388888888889" style="50" customWidth="1"/>
-    <col min="5" max="5" width="6.71296296296296" style="50" customWidth="1"/>
-    <col min="6" max="6" width="29.8518518518519" style="50" customWidth="1"/>
-    <col min="7" max="7" width="8.42592592592593" style="50" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="50"/>
+    <col min="4" max="4" width="11.140625" style="50" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="50" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" style="50" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="50" customWidth="1"/>
     <col min="8" max="8" width="11" style="50" customWidth="1"/>
-    <col min="9" max="9" width="3.71296296296296" style="50" customWidth="1"/>
-    <col min="10" max="10" width="7.85185185185185" style="50"/>
-    <col min="11" max="11" width="17.8518518518519" style="50" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" style="50" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="50"/>
+    <col min="11" max="11" width="17.85546875" style="50" customWidth="1"/>
     <col min="12" max="12" width="5" style="50" customWidth="1"/>
-    <col min="13" max="13" width="12.5740740740741" style="50" customWidth="1"/>
-    <col min="14" max="256" width="8.28703703703704" style="50"/>
+    <col min="13" max="13" width="12.5703125" style="50" customWidth="1"/>
+    <col min="14" max="256" width="8.28515625" style="50"/>
     <col min="257" max="16384" width="8" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" spans="1:13">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A1" s="149" t="s">
         <v>444</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92" t="s">
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149" t="s">
         <v>445</v>
       </c>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-    </row>
-    <row r="2" ht="51.95" customHeight="1" spans="1:13">
-      <c r="A2" s="93" t="s">
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+    </row>
+    <row r="2" spans="1:14" ht="51.95" customHeight="1">
+      <c r="A2" s="76" t="s">
         <v>446</v>
       </c>
       <c r="B2" s="53" t="s">
@@ -12152,37 +11546,37 @@
       <c r="F2" s="53" t="s">
         <v>450</v>
       </c>
-      <c r="G2" s="94" t="s">
+      <c r="G2" s="77" t="s">
         <v>451</v>
       </c>
-      <c r="H2" s="95" t="s">
+      <c r="H2" s="78" t="s">
         <v>452</v>
       </c>
-      <c r="I2" s="93" t="s">
+      <c r="I2" s="76" t="s">
         <v>446</v>
       </c>
       <c r="J2" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="K2" s="125" t="s">
+      <c r="K2" s="96" t="s">
         <v>453</v>
       </c>
       <c r="L2" s="53" t="s">
         <v>454</v>
       </c>
-      <c r="M2" s="126" t="s">
+      <c r="M2" s="97" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="3" s="82" customFormat="1" ht="15.6" spans="1:14">
-      <c r="A3" s="96">
+    <row r="3" spans="1:14" s="68" customFormat="1" ht="15.75">
+      <c r="A3" s="79">
         <v>1</v>
       </c>
-      <c r="B3" s="97" t="str">
+      <c r="B3" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B5," ",'Информация для бумаг'!C5)</f>
         <v>Атаманов Андрей</v>
       </c>
-      <c r="C3" s="98" t="str">
+      <c r="C3" s="81" t="str">
         <f>'Информация для бумаг'!P5</f>
         <v>02.03.0005</v>
       </c>
@@ -12194,42 +11588,42 @@
         <f>'Информация для бумаг'!I5</f>
         <v>10</v>
       </c>
-      <c r="F3" s="80" t="str">
+      <c r="F3" s="66" t="str">
         <f>'Информация для бумаг'!K5</f>
         <v>Шуваловский пр. д. 90 к. кв.180</v>
       </c>
-      <c r="G3" s="99" t="s">
+      <c r="G3" s="82" t="s">
         <v>456</v>
       </c>
-      <c r="H3" s="100" t="s">
+      <c r="H3" s="162" t="s">
         <v>457</v>
       </c>
-      <c r="I3" s="101">
+      <c r="I3" s="83">
         <v>1</v>
       </c>
-      <c r="J3" s="127" t="s">
+      <c r="J3" s="98" t="s">
         <v>458</v>
       </c>
-      <c r="K3" s="128" t="s">
+      <c r="K3" s="99" t="s">
         <v>459</v>
       </c>
-      <c r="L3" s="129">
+      <c r="L3" s="100">
         <v>117</v>
       </c>
-      <c r="M3" s="129" t="s">
+      <c r="M3" s="100" t="s">
         <v>460</v>
       </c>
-      <c r="N3" s="130"/>
-    </row>
-    <row r="4" s="82" customFormat="1" ht="26.4" spans="1:14">
-      <c r="A4" s="101">
+      <c r="N3" s="101"/>
+    </row>
+    <row r="4" spans="1:14" s="68" customFormat="1" ht="25.5">
+      <c r="A4" s="83">
         <v>2</v>
       </c>
-      <c r="B4" s="97" t="str">
+      <c r="B4" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B6," ",'Информация для бумаг'!C6)</f>
         <v>Башилов Константин</v>
       </c>
-      <c r="C4" s="98">
+      <c r="C4" s="81">
         <f>'Информация для бумаг'!P6</f>
         <v>39367</v>
       </c>
@@ -12241,38 +11635,38 @@
         <f>'Информация для бумаг'!I6</f>
         <v>7</v>
       </c>
-      <c r="F4" s="80" t="str">
+      <c r="F4" s="66" t="str">
         <f>'Информация для бумаг'!K6</f>
         <v>СПб, Пестеля д. 13-15 кв. 108</v>
       </c>
-      <c r="G4" s="99" t="s">
+      <c r="G4" s="82" t="s">
         <v>456</v>
       </c>
-      <c r="H4" s="102"/>
-      <c r="I4" s="96">
+      <c r="H4" s="163"/>
+      <c r="I4" s="79">
         <v>2</v>
       </c>
-      <c r="J4" s="127" t="s">
+      <c r="J4" s="98" t="s">
         <v>461</v>
       </c>
-      <c r="K4" s="128" t="s">
+      <c r="K4" s="99" t="s">
         <v>462</v>
       </c>
-      <c r="L4" s="129"/>
-      <c r="M4" s="129" t="s">
+      <c r="L4" s="100"/>
+      <c r="M4" s="100" t="s">
         <v>463</v>
       </c>
-      <c r="N4" s="130"/>
-    </row>
-    <row r="5" s="82" customFormat="1" ht="24" spans="1:14">
-      <c r="A5" s="96">
+      <c r="N4" s="101"/>
+    </row>
+    <row r="5" spans="1:14" s="68" customFormat="1" ht="24">
+      <c r="A5" s="79">
         <v>3</v>
       </c>
-      <c r="B5" s="97" t="str">
+      <c r="B5" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B7," ",'Информация для бумаг'!C7)</f>
         <v>Бекасов Емельян</v>
       </c>
-      <c r="C5" s="98">
+      <c r="C5" s="81">
         <f>'Информация для бумаг'!P7</f>
         <v>39857</v>
       </c>
@@ -12284,40 +11678,40 @@
         <f>'Информация для бумаг'!I7</f>
         <v>6</v>
       </c>
-      <c r="F5" s="80" t="str">
+      <c r="F5" s="66" t="str">
         <f>'Информация для бумаг'!K7</f>
         <v>Г. Санкт-Петербург, проспект Ветеранов д.3 к.3 лит.А кв.167</v>
       </c>
-      <c r="G5" s="99" t="s">
+      <c r="G5" s="82" t="s">
         <v>456</v>
       </c>
-      <c r="H5" s="102"/>
-      <c r="I5" s="101">
+      <c r="H5" s="163"/>
+      <c r="I5" s="83">
         <v>3</v>
       </c>
-      <c r="J5" s="131" t="s">
+      <c r="J5" s="102" t="s">
         <v>464</v>
       </c>
-      <c r="K5" s="128" t="s">
+      <c r="K5" s="99" t="s">
         <v>465</v>
       </c>
-      <c r="L5" s="129">
+      <c r="L5" s="100">
         <v>117</v>
       </c>
-      <c r="M5" s="129" t="s">
+      <c r="M5" s="100" t="s">
         <v>460</v>
       </c>
-      <c r="N5" s="130"/>
-    </row>
-    <row r="6" s="82" customFormat="1" ht="15.6" spans="1:14">
-      <c r="A6" s="101">
+      <c r="N5" s="101"/>
+    </row>
+    <row r="6" spans="1:14" s="68" customFormat="1" ht="15.75">
+      <c r="A6" s="83">
         <v>4</v>
       </c>
-      <c r="B6" s="97" t="str">
+      <c r="B6" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B8," ",'Информация для бумаг'!C8)</f>
         <v>Белокуров Михаил</v>
       </c>
-      <c r="C6" s="98">
+      <c r="C6" s="81">
         <f>'Информация для бумаг'!P8</f>
         <v>38553</v>
       </c>
@@ -12329,30 +11723,30 @@
         <f>'Информация для бумаг'!I8</f>
         <v>10</v>
       </c>
-      <c r="F6" s="80" t="str">
+      <c r="F6" s="66" t="str">
         <f>'Информация для бумаг'!K8</f>
         <v>ул. Ставропольская д. 12/15 кв. 46</v>
       </c>
-      <c r="G6" s="99" t="s">
+      <c r="G6" s="82" t="s">
         <v>456</v>
       </c>
-      <c r="H6" s="102"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="129"/>
-      <c r="N6" s="130"/>
-    </row>
-    <row r="7" s="82" customFormat="1" ht="15.6" spans="1:14">
-      <c r="A7" s="96">
+      <c r="H6" s="163"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="101"/>
+    </row>
+    <row r="7" spans="1:14" s="68" customFormat="1" ht="15.75">
+      <c r="A7" s="79">
         <v>5</v>
       </c>
-      <c r="B7" s="97" t="str">
+      <c r="B7" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B9," ",'Информация для бумаг'!C9)</f>
         <v>Бритиков Александр</v>
       </c>
-      <c r="C7" s="98">
+      <c r="C7" s="81">
         <f>'Информация для бумаг'!P9</f>
         <v>39849</v>
       </c>
@@ -12364,30 +11758,30 @@
         <f>'Информация для бумаг'!I9</f>
         <v>7</v>
       </c>
-      <c r="F7" s="103" t="str">
+      <c r="F7" s="84" t="str">
         <f>'Информация для бумаг'!K9</f>
         <v>Ул. Лахтинская 20-36</v>
       </c>
-      <c r="G7" s="99" t="s">
+      <c r="G7" s="82" t="s">
         <v>456</v>
       </c>
-      <c r="H7" s="102"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="130"/>
-    </row>
-    <row r="8" s="82" customFormat="1" spans="1:14">
-      <c r="A8" s="101">
+      <c r="H7" s="163"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="101"/>
+    </row>
+    <row r="8" spans="1:14" s="68" customFormat="1">
+      <c r="A8" s="83">
         <v>6</v>
       </c>
-      <c r="B8" s="97" t="str">
+      <c r="B8" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B10," ",'Информация для бумаг'!C10)</f>
         <v>Евдокимова Алёна</v>
       </c>
-      <c r="C8" s="98">
+      <c r="C8" s="81">
         <f>'Информация для бумаг'!P10</f>
         <v>38137</v>
       </c>
@@ -12399,25 +11793,25 @@
         <f>'Информация для бумаг'!I10</f>
         <v>11</v>
       </c>
-      <c r="F8" s="80" t="str">
+      <c r="F8" s="66" t="str">
         <f>'Информация для бумаг'!K12</f>
         <v>Каменноостровский 69-29</v>
       </c>
-      <c r="G8" s="99" t="s">
+      <c r="G8" s="82" t="s">
         <v>456</v>
       </c>
-      <c r="H8" s="102"/>
-      <c r="N8" s="132"/>
-    </row>
-    <row r="9" s="82" customFormat="1" spans="1:13">
-      <c r="A9" s="96">
+      <c r="H8" s="163"/>
+      <c r="N8" s="103"/>
+    </row>
+    <row r="9" spans="1:14" s="68" customFormat="1">
+      <c r="A9" s="79">
         <v>7</v>
       </c>
-      <c r="B9" s="97" t="str">
+      <c r="B9" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B11," ",'Информация для бумаг'!C11)</f>
         <v>Ершова Татьяна</v>
       </c>
-      <c r="C9" s="98">
+      <c r="C9" s="81">
         <f>'Информация для бумаг'!P11</f>
         <v>39166</v>
       </c>
@@ -12429,29 +11823,29 @@
         <f>'Информация для бумаг'!I11</f>
         <v>8</v>
       </c>
-      <c r="F9" s="80" t="str">
+      <c r="F9" s="66" t="str">
         <f>'Информация для бумаг'!K11</f>
         <v>ул. Малая Карпатская д.17 кв 275</v>
       </c>
-      <c r="G9" s="99" t="s">
+      <c r="G9" s="82" t="s">
         <v>456</v>
       </c>
-      <c r="H9" s="102"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-    </row>
-    <row r="10" s="82" customFormat="1" spans="1:13">
-      <c r="A10" s="101">
+      <c r="H9" s="163"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+    </row>
+    <row r="10" spans="1:14" s="68" customFormat="1">
+      <c r="A10" s="83">
         <v>8</v>
       </c>
-      <c r="B10" s="97" t="str">
+      <c r="B10" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B12," ",'Информация для бумаг'!C12)</f>
         <v>Иванов Тимофей</v>
       </c>
-      <c r="C10" s="98">
+      <c r="C10" s="81">
         <f>'Информация для бумаг'!P12</f>
         <v>38917</v>
       </c>
@@ -12463,29 +11857,29 @@
         <f>'Информация для бумаг'!I12</f>
         <v>9</v>
       </c>
-      <c r="F10" s="80" t="str">
+      <c r="F10" s="66" t="str">
         <f>'Информация для бумаг'!K12</f>
         <v>Каменноостровский 69-29</v>
       </c>
-      <c r="G10" s="99" t="s">
+      <c r="G10" s="82" t="s">
         <v>456</v>
       </c>
-      <c r="H10" s="102"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-    </row>
-    <row r="11" s="82" customFormat="1" spans="1:13">
-      <c r="A11" s="96">
+      <c r="H10" s="163"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+    </row>
+    <row r="11" spans="1:14" s="68" customFormat="1">
+      <c r="A11" s="79">
         <v>9</v>
       </c>
-      <c r="B11" s="97" t="str">
+      <c r="B11" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B13," ",'Информация для бумаг'!C13)</f>
         <v>Киселев Вениамин</v>
       </c>
-      <c r="C11" s="98">
+      <c r="C11" s="81">
         <f>'Информация для бумаг'!P13</f>
         <v>40363</v>
       </c>
@@ -12497,29 +11891,29 @@
         <f>'Информация для бумаг'!I13</f>
         <v>5</v>
       </c>
-      <c r="F11" s="80" t="str">
+      <c r="F11" s="66" t="str">
         <f>'Информация для бумаг'!K13</f>
         <v>пр.Тореза, д.80, кв.78</v>
       </c>
-      <c r="G11" s="99" t="s">
+      <c r="G11" s="82" t="s">
         <v>456</v>
       </c>
-      <c r="H11" s="102"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-    </row>
-    <row r="12" s="82" customFormat="1" spans="1:13">
-      <c r="A12" s="101">
+      <c r="H11" s="163"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+    </row>
+    <row r="12" spans="1:14" s="68" customFormat="1">
+      <c r="A12" s="83">
         <v>10</v>
       </c>
-      <c r="B12" s="97" t="str">
+      <c r="B12" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B14," ",'Информация для бумаг'!C14)</f>
         <v>Кудряшов Тимофей</v>
       </c>
-      <c r="C12" s="98">
+      <c r="C12" s="81">
         <f>'Информация для бумаг'!P14</f>
         <v>38434</v>
       </c>
@@ -12531,29 +11925,29 @@
         <f>'Информация для бумаг'!I14</f>
         <v>11</v>
       </c>
-      <c r="F12" s="80" t="str">
+      <c r="F12" s="66" t="str">
         <f>'Информация для бумаг'!K14</f>
         <v>пр. Маршала Жукова, д.45, кв 222</v>
       </c>
-      <c r="G12" s="99" t="s">
+      <c r="G12" s="82" t="s">
         <v>456</v>
       </c>
-      <c r="H12" s="102"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-    </row>
-    <row r="13" s="82" customFormat="1" spans="1:13">
-      <c r="A13" s="96">
+      <c r="H12" s="163"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="83"/>
+    </row>
+    <row r="13" spans="1:14" s="68" customFormat="1">
+      <c r="A13" s="79">
         <v>11</v>
       </c>
-      <c r="B13" s="97" t="str">
+      <c r="B13" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B15," ",'Информация для бумаг'!C15)</f>
         <v>Островский Виктор</v>
       </c>
-      <c r="C13" s="98">
+      <c r="C13" s="81">
         <f>'Информация для бумаг'!P15</f>
         <v>40070</v>
       </c>
@@ -12565,29 +11959,29 @@
         <f>'Информация для бумаг'!I15</f>
         <v>6</v>
       </c>
-      <c r="F13" s="80" t="str">
+      <c r="F13" s="66" t="str">
         <f>'Информация для бумаг'!K15</f>
         <v>Парголово ул.Шишкина 58</v>
       </c>
-      <c r="G13" s="99" t="s">
+      <c r="G13" s="82" t="s">
         <v>456</v>
       </c>
-      <c r="H13" s="102"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-    </row>
-    <row r="14" s="82" customFormat="1" spans="1:13">
-      <c r="A14" s="101">
+      <c r="H13" s="163"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+    </row>
+    <row r="14" spans="1:14" s="68" customFormat="1">
+      <c r="A14" s="83">
         <v>12</v>
       </c>
-      <c r="B14" s="97" t="str">
+      <c r="B14" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B16," ",'Информация для бумаг'!C16)</f>
         <v>Попов Василий</v>
       </c>
-      <c r="C14" s="98">
+      <c r="C14" s="81">
         <f>'Информация для бумаг'!P16</f>
         <v>39331</v>
       </c>
@@ -12599,29 +11993,29 @@
         <f>'Информация для бумаг'!I16</f>
         <v>8</v>
       </c>
-      <c r="F14" s="80" t="str">
+      <c r="F14" s="66" t="str">
         <f>'Информация для бумаг'!K16</f>
         <v>Ул.Бутлерова, 11 к.4 , кв 385</v>
       </c>
-      <c r="G14" s="99" t="s">
+      <c r="G14" s="82" t="s">
         <v>456</v>
       </c>
-      <c r="H14" s="102"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-    </row>
-    <row r="15" s="82" customFormat="1" spans="1:13">
-      <c r="A15" s="96">
+      <c r="H14" s="163"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+    </row>
+    <row r="15" spans="1:14" s="68" customFormat="1">
+      <c r="A15" s="79">
         <v>13</v>
       </c>
-      <c r="B15" s="97" t="str">
+      <c r="B15" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B17," ",'Информация для бумаг'!C17)</f>
         <v>Сайчик Мария</v>
       </c>
-      <c r="C15" s="98">
+      <c r="C15" s="81">
         <f>'Информация для бумаг'!P17</f>
         <v>38982</v>
       </c>
@@ -12633,29 +12027,29 @@
         <f>'Информация для бумаг'!I17</f>
         <v>9</v>
       </c>
-      <c r="F15" s="80" t="str">
+      <c r="F15" s="66" t="str">
         <f>'Информация для бумаг'!K17</f>
         <v>Кораблестроителей 39-871</v>
       </c>
-      <c r="G15" s="99" t="s">
+      <c r="G15" s="82" t="s">
         <v>456</v>
       </c>
-      <c r="H15" s="102"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-    </row>
-    <row r="16" s="82" customFormat="1" spans="1:13">
-      <c r="A16" s="101">
+      <c r="H15" s="163"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="83"/>
+    </row>
+    <row r="16" spans="1:14" s="68" customFormat="1">
+      <c r="A16" s="83">
         <v>14</v>
       </c>
-      <c r="B16" s="97" t="str">
+      <c r="B16" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B18," ",'Информация для бумаг'!C18)</f>
         <v>Федорова Ксения</v>
       </c>
-      <c r="C16" s="98">
+      <c r="C16" s="81">
         <f>'Информация для бумаг'!P18</f>
         <v>40195</v>
       </c>
@@ -12667,29 +12061,29 @@
         <f>'Информация для бумаг'!I18</f>
         <v>6</v>
       </c>
-      <c r="F16" s="80" t="str">
+      <c r="F16" s="66" t="str">
         <f>'Информация для бумаг'!K18</f>
         <v>Камышовая 14 КВ 163</v>
       </c>
-      <c r="G16" s="99" t="s">
+      <c r="G16" s="82" t="s">
         <v>456</v>
       </c>
-      <c r="H16" s="102"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-    </row>
-    <row r="17" s="82" customFormat="1" ht="24" spans="1:13">
-      <c r="A17" s="96">
+      <c r="H16" s="163"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="83"/>
+    </row>
+    <row r="17" spans="1:13" s="68" customFormat="1" ht="24">
+      <c r="A17" s="79">
         <v>15</v>
       </c>
-      <c r="B17" s="97" t="str">
+      <c r="B17" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B19," ",'Информация для бумаг'!C19)</f>
         <v>Шеламова Виктория</v>
       </c>
-      <c r="C17" s="98">
+      <c r="C17" s="81">
         <f>'Информация для бумаг'!P19</f>
         <v>39529</v>
       </c>
@@ -12701,29 +12095,29 @@
         <f>'Информация для бумаг'!I19</f>
         <v>7</v>
       </c>
-      <c r="F17" s="80" t="str">
+      <c r="F17" s="66" t="str">
         <f>'Информация для бумаг'!K19</f>
         <v>п. Парголово, Приозерское шоссе (Осиновая роща),  д.16 к.4 кв.46</v>
       </c>
-      <c r="G17" s="99" t="s">
+      <c r="G17" s="82" t="s">
         <v>456</v>
       </c>
-      <c r="H17" s="102"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-    </row>
-    <row r="18" s="82" customFormat="1" spans="1:13">
-      <c r="A18" s="101">
+      <c r="H17" s="163"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
+    </row>
+    <row r="18" spans="1:13" s="68" customFormat="1">
+      <c r="A18" s="83">
         <v>16</v>
       </c>
-      <c r="B18" s="97" t="str">
+      <c r="B18" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B20," ",'Информация для бумаг'!C20)</f>
         <v>Шилонцев Андрей</v>
       </c>
-      <c r="C18" s="98">
+      <c r="C18" s="81">
         <f>'Информация для бумаг'!P20</f>
         <v>38989</v>
       </c>
@@ -12735,29 +12129,29 @@
         <f>'Информация для бумаг'!I20</f>
         <v>0</v>
       </c>
-      <c r="F18" s="80" t="str">
+      <c r="F18" s="66" t="str">
         <f>'Информация для бумаг'!K20</f>
         <v>Ленинский пр. 117-1-603</v>
       </c>
-      <c r="G18" s="99" t="s">
+      <c r="G18" s="82" t="s">
         <v>456</v>
       </c>
-      <c r="H18" s="102"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-    </row>
-    <row r="19" s="82" customFormat="1" spans="1:13">
-      <c r="A19" s="96">
+      <c r="H18" s="163"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+    </row>
+    <row r="19" spans="1:13" s="68" customFormat="1">
+      <c r="A19" s="79">
         <v>17</v>
       </c>
-      <c r="B19" s="97" t="str">
+      <c r="B19" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B21," ",'Информация для бумаг'!C21)</f>
         <v>Шишкина Анна</v>
       </c>
-      <c r="C19" s="98">
+      <c r="C19" s="81">
         <f>'Информация для бумаг'!P21</f>
         <v>39987</v>
       </c>
@@ -12769,29 +12163,29 @@
         <f>'Информация для бумаг'!I21</f>
         <v>6</v>
       </c>
-      <c r="F19" s="80" t="str">
+      <c r="F19" s="66" t="str">
         <f>'Информация для бумаг'!K21</f>
         <v>Проспект Сизова 14 кв.90</v>
       </c>
-      <c r="G19" s="99" t="s">
+      <c r="G19" s="82" t="s">
         <v>456</v>
       </c>
-      <c r="H19" s="102"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
-    </row>
-    <row r="20" s="82" customFormat="1" ht="24" spans="1:13">
-      <c r="A20" s="101">
+      <c r="H19" s="163"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+    </row>
+    <row r="20" spans="1:13" s="68" customFormat="1" ht="24">
+      <c r="A20" s="83">
         <v>18</v>
       </c>
-      <c r="B20" s="97" t="str">
+      <c r="B20" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B22," ",'Информация для бумаг'!C22)</f>
         <v>Шишкина Алина</v>
       </c>
-      <c r="C20" s="98">
+      <c r="C20" s="81">
         <f>'Информация для бумаг'!P22</f>
         <v>38070</v>
       </c>
@@ -12803,48 +12197,48 @@
         <f>'Информация для бумаг'!I22</f>
         <v>11</v>
       </c>
-      <c r="F20" s="80" t="str">
+      <c r="F20" s="66" t="str">
         <f>'Информация для бумаг'!K22</f>
         <v>Проспект Авиаконструкторов, дом 47, квартира 4</v>
       </c>
-      <c r="G20" s="99" t="s">
+      <c r="G20" s="82" t="s">
         <v>456</v>
       </c>
-      <c r="H20" s="102"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
-    </row>
-    <row r="21" s="82" customFormat="1" ht="24" customHeight="1" spans="1:13">
-      <c r="A21" s="96"/>
-      <c r="B21" s="104" t="s">
+      <c r="H20" s="163"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+    </row>
+    <row r="21" spans="1:13" s="68" customFormat="1" ht="24" customHeight="1">
+      <c r="A21" s="79"/>
+      <c r="B21" s="150" t="s">
         <v>421</v>
       </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="101"/>
-    </row>
-    <row r="22" s="82" customFormat="1" ht="21.95" customHeight="1" spans="1:13">
-      <c r="A22" s="101"/>
-      <c r="B22" s="97" t="str">
+      <c r="C21" s="151"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="163"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="83"/>
+    </row>
+    <row r="22" spans="1:13" s="68" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A22" s="83"/>
+      <c r="B22" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B33," ",'Информация для бумаг'!C33)</f>
         <v>Васильев Илья</v>
       </c>
-      <c r="C22" s="98">
+      <c r="C22" s="81">
         <f>'Информация для бумаг'!P33</f>
         <v>39462</v>
       </c>
-      <c r="D22" s="107">
+      <c r="D22" s="85">
         <f>'Информация для бумаг'!H33</f>
         <v>58</v>
       </c>
@@ -12852,31 +12246,31 @@
         <f>'Информация для бумаг'!I33</f>
         <v>7</v>
       </c>
-      <c r="F22" s="108" t="str">
+      <c r="F22" s="86" t="str">
         <f>'Информация для бумаг'!K33</f>
         <v>алл. Котельникова, д. 6, к. 1, кв. 300</v>
       </c>
-      <c r="G22" s="99" t="s">
+      <c r="G22" s="82" t="s">
         <v>456</v>
       </c>
-      <c r="H22" s="102"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="101"/>
-      <c r="L22" s="101"/>
-      <c r="M22" s="101"/>
-    </row>
-    <row r="23" s="82" customFormat="1" spans="1:13">
-      <c r="A23" s="96"/>
-      <c r="B23" s="97" t="str">
+      <c r="H22" s="163"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="83"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="83"/>
+    </row>
+    <row r="23" spans="1:13" s="68" customFormat="1">
+      <c r="A23" s="79"/>
+      <c r="B23" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B34," ",'Информация для бумаг'!C34)</f>
         <v>Мелентьева Эмма</v>
       </c>
-      <c r="C23" s="98">
+      <c r="C23" s="81">
         <f>'Информация для бумаг'!P34</f>
         <v>39581</v>
       </c>
-      <c r="D23" s="107">
+      <c r="D23" s="85">
         <f>'Информация для бумаг'!H34</f>
         <v>49</v>
       </c>
@@ -12884,31 +12278,31 @@
         <f>'Информация для бумаг'!I34</f>
         <v>7</v>
       </c>
-      <c r="F23" s="108" t="str">
+      <c r="F23" s="86" t="str">
         <f>'Информация для бумаг'!K34</f>
         <v>ул. Б. Разночинная 4-14</v>
       </c>
-      <c r="G23" s="99" t="s">
+      <c r="G23" s="82" t="s">
         <v>456</v>
       </c>
-      <c r="H23" s="102"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="101"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="101"/>
-    </row>
-    <row r="24" s="82" customFormat="1" spans="1:13">
-      <c r="A24" s="101"/>
-      <c r="B24" s="97" t="str">
+      <c r="H23" s="163"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="83"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="83"/>
+    </row>
+    <row r="24" spans="1:13" s="68" customFormat="1">
+      <c r="A24" s="83"/>
+      <c r="B24" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B35," ",'Информация для бумаг'!C35)</f>
         <v>Меньшиков  Савва</v>
       </c>
-      <c r="C24" s="98">
+      <c r="C24" s="81">
         <f>'Информация для бумаг'!P35</f>
         <v>39916</v>
       </c>
-      <c r="D24" s="107" t="str">
+      <c r="D24" s="85" t="str">
         <f>'Информация для бумаг'!H35</f>
         <v>533 лицей</v>
       </c>
@@ -12916,31 +12310,31 @@
         <f>'Информация для бумаг'!I35</f>
         <v>6</v>
       </c>
-      <c r="F24" s="108" t="str">
+      <c r="F24" s="86" t="str">
         <f>'Информация для бумаг'!K35</f>
         <v>г.СПб, Железноводская 62, 98</v>
       </c>
-      <c r="G24" s="99" t="s">
+      <c r="G24" s="82" t="s">
         <v>456</v>
       </c>
-      <c r="H24" s="102"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="101"/>
-      <c r="M24" s="101"/>
-    </row>
-    <row r="25" s="82" customFormat="1" spans="1:13">
-      <c r="A25" s="96"/>
-      <c r="B25" s="97" t="str">
+      <c r="H24" s="163"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="83"/>
+    </row>
+    <row r="25" spans="1:13" s="68" customFormat="1">
+      <c r="A25" s="79"/>
+      <c r="B25" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B36," ",'Информация для бумаг'!C36)</f>
         <v>Нужин Илья</v>
       </c>
-      <c r="C25" s="98">
+      <c r="C25" s="81">
         <f>'Информация для бумаг'!P36</f>
         <v>38933</v>
       </c>
-      <c r="D25" s="107">
+      <c r="D25" s="85">
         <f>'Информация для бумаг'!H36</f>
         <v>30</v>
       </c>
@@ -12948,31 +12342,31 @@
         <f>'Информация для бумаг'!I36</f>
         <v>8</v>
       </c>
-      <c r="F25" s="108" t="str">
+      <c r="F25" s="86" t="str">
         <f>'Информация для бумаг'!K36</f>
         <v>Наличная 37-1-4</v>
       </c>
-      <c r="G25" s="99" t="s">
+      <c r="G25" s="82" t="s">
         <v>456</v>
       </c>
-      <c r="H25" s="102"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="101"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="101"/>
-    </row>
-    <row r="26" s="82" customFormat="1" spans="1:13">
-      <c r="A26" s="96"/>
-      <c r="B26" s="97" t="str">
+      <c r="H25" s="163"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="83"/>
+    </row>
+    <row r="26" spans="1:13" s="68" customFormat="1">
+      <c r="A26" s="79"/>
+      <c r="B26" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B37," ",'Информация для бумаг'!C37)</f>
         <v>Тюпин Арсений</v>
       </c>
-      <c r="C26" s="98">
+      <c r="C26" s="81">
         <f>'Информация для бумаг'!P37</f>
         <v>39810</v>
       </c>
-      <c r="D26" s="107">
+      <c r="D26" s="85">
         <f>'Информация для бумаг'!H37</f>
         <v>555</v>
       </c>
@@ -12980,338 +12374,337 @@
         <f>'Информация для бумаг'!I37</f>
         <v>6</v>
       </c>
-      <c r="F26" s="108" t="str">
+      <c r="F26" s="86" t="str">
         <f>'Информация для бумаг'!K37</f>
         <v>пр.Комендантский д.23 к.1 кв 112</v>
       </c>
-      <c r="G26" s="99" t="s">
+      <c r="G26" s="82" t="s">
         <v>456</v>
       </c>
-      <c r="H26" s="102"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="101"/>
-      <c r="K26" s="101"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="101"/>
-    </row>
-    <row r="27" s="82" customFormat="1" ht="12" spans="1:13">
-      <c r="A27" s="109"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="101"/>
-      <c r="L27" s="101"/>
-      <c r="M27" s="101"/>
-    </row>
-    <row r="28" s="82" customFormat="1" spans="1:13">
-      <c r="A28" s="96"/>
-      <c r="B28" s="111" t="str">
+      <c r="H26" s="163"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="83"/>
+      <c r="L26" s="83"/>
+      <c r="M26" s="83"/>
+    </row>
+    <row r="27" spans="1:13" s="68" customFormat="1" ht="12">
+      <c r="A27" s="87"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="163"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="83"/>
+    </row>
+    <row r="28" spans="1:13" s="68" customFormat="1">
+      <c r="A28" s="79"/>
+      <c r="B28" s="89" t="str">
         <f>'Информация для бумаг'!C25</f>
         <v>Хайтов Вадим Михайлович</v>
       </c>
-      <c r="C28" s="98"/>
-      <c r="D28" s="112" t="s">
+      <c r="C28" s="81"/>
+      <c r="D28" s="153" t="s">
         <v>466</v>
       </c>
-      <c r="E28" s="113"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="101"/>
-      <c r="J28" s="101"/>
-      <c r="K28" s="101"/>
-      <c r="L28" s="101"/>
-      <c r="M28" s="101"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="83"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="101"/>
+      <c r="A29" s="83"/>
       <c r="B29" s="52" t="str">
         <f>'Информация для бумаг'!C26</f>
         <v>Котельникова Валентина Сергеевна</v>
       </c>
-      <c r="C29" s="98"/>
-      <c r="D29" s="115" t="s">
+      <c r="C29" s="81"/>
+      <c r="D29" s="155" t="s">
         <v>467</v>
       </c>
-      <c r="E29" s="116"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="102"/>
-      <c r="I29" s="133" t="s">
+      <c r="E29" s="156"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="163"/>
+      <c r="I29" s="157" t="s">
         <v>468</v>
       </c>
-      <c r="J29" s="134"/>
-      <c r="K29" s="134"/>
-      <c r="L29" s="134"/>
-      <c r="M29" s="135"/>
-    </row>
-    <row r="30" ht="15.6" spans="1:13">
-      <c r="A30" s="117" t="s">
+      <c r="J29" s="158"/>
+      <c r="K29" s="158"/>
+      <c r="L29" s="158"/>
+      <c r="M29" s="159"/>
+    </row>
+    <row r="30" spans="1:13" ht="15.75">
+      <c r="A30" s="91" t="s">
         <v>469</v>
       </c>
-      <c r="B30" s="118"/>
-      <c r="C30" s="118"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="118"/>
-      <c r="G30" s="118"/>
-      <c r="H30" s="119"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="164"/>
       <c r="I30" s="52"/>
       <c r="J30" s="52"/>
       <c r="K30" s="52"/>
       <c r="L30" s="52"/>
       <c r="M30" s="52"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1" spans="1:13">
-      <c r="A31" s="120" t="s">
+    <row r="31" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A31" s="160" t="s">
         <v>470</v>
       </c>
-      <c r="B31" s="121"/>
+      <c r="B31" s="161"/>
       <c r="C31" s="50">
         <f>'Информация для бумаг'!C30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="122"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="118"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="92"/>
       <c r="I31" s="52"/>
       <c r="J31" s="52"/>
       <c r="K31" s="52"/>
       <c r="L31" s="52"/>
       <c r="M31" s="52"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1" spans="1:13">
+    <row r="32" spans="1:13" ht="15.75" customHeight="1">
       <c r="A32" s="50" t="s">
         <v>471</v>
       </c>
-      <c r="H32" s="124" t="s">
+      <c r="H32" s="95" t="s">
         <v>472</v>
       </c>
-      <c r="I32" s="124"/>
-      <c r="J32" s="124"/>
-      <c r="K32" s="124"/>
-      <c r="L32" s="136"/>
-      <c r="M32" s="136"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1" spans="8:8">
+      <c r="I32" s="95"/>
+      <c r="J32" s="95"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="104"/>
+      <c r="M32" s="104"/>
+    </row>
+    <row r="33" spans="8:8" ht="15.75" customHeight="1">
       <c r="H33" s="50" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="34" ht="23.25" customHeight="1"/>
-    <row r="35" ht="23.25" customHeight="1"/>
-    <row r="36" ht="23.25" customHeight="1"/>
-    <row r="37" ht="23.25" customHeight="1"/>
-    <row r="38" ht="23.25" customHeight="1"/>
-    <row r="39" ht="23.25" customHeight="1"/>
-    <row r="40" ht="23.25" customHeight="1"/>
-    <row r="41" ht="23.25" customHeight="1"/>
-    <row r="42" ht="23.25" customHeight="1"/>
+    <row r="34" spans="8:8" ht="23.25" customHeight="1"/>
+    <row r="35" spans="8:8" ht="23.25" customHeight="1"/>
+    <row r="36" spans="8:8" ht="23.25" customHeight="1"/>
+    <row r="37" spans="8:8" ht="23.25" customHeight="1"/>
+    <row r="38" spans="8:8" ht="23.25" customHeight="1"/>
+    <row r="39" spans="8:8" ht="23.25" customHeight="1"/>
+    <row r="40" spans="8:8" ht="23.25" customHeight="1"/>
+    <row r="41" spans="8:8" ht="23.25" customHeight="1"/>
+    <row r="42" spans="8:8" ht="23.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="H3:H30"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="I29:M29"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="H3:H30"/>
   </mergeCells>
-  <pageMargins left="0.2" right="0.229166666666667" top="0.25" bottom="0.25" header="0" footer="0"/>
+  <pageMargins left="0.2" right="0.22916666666666699" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="97" orientation="landscape"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="A2:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" style="50" customWidth="1"/>
     <col min="2" max="6" width="8" style="50"/>
-    <col min="7" max="7" width="23.5740740740741" style="50" customWidth="1"/>
-    <col min="8" max="8" width="10.712962962963" style="50" customWidth="1"/>
-    <col min="9" max="9" width="3.85185185185185" style="50" customWidth="1"/>
-    <col min="10" max="10" width="9.42592592592593" style="50" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="50" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="50" customWidth="1"/>
+    <col min="9" max="9" width="3.85546875" style="50" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="50" customWidth="1"/>
     <col min="11" max="11" width="8" style="50"/>
-    <col min="12" max="12" width="13.1388888888889" style="50"/>
-    <col min="13" max="13" width="9.85185185185185" style="50"/>
+    <col min="12" max="12" width="13.140625" style="50"/>
+    <col min="13" max="13" width="9.85546875" style="50"/>
     <col min="14" max="14" width="8" style="50"/>
-    <col min="15" max="15" width="1.57407407407407" style="50" customWidth="1"/>
+    <col min="15" max="15" width="1.5703125" style="50" customWidth="1"/>
     <col min="16" max="16384" width="8" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" spans="1:14">
+    <row r="1" spans="1:14" ht="12.75" customHeight="1">
       <c r="A1" s="60" t="s">
         <v>474</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="165" t="s">
         <v>475</v>
       </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:14">
-      <c r="A2" s="62" t="s">
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A2" s="174" t="s">
         <v>476</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="61" t="s">
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="165" t="s">
         <v>477</v>
       </c>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-    </row>
-    <row r="3" ht="12.75" customHeight="1" spans="1:7">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="64"/>
-    </row>
-    <row r="4" ht="12.75" customHeight="1" spans="1:14">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="65" t="s">
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+    </row>
+    <row r="3" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A3" s="175"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="62"/>
+    </row>
+    <row r="4" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A4" s="175"/>
+      <c r="B4" s="175"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="166" t="s">
         <v>478</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-    </row>
-    <row r="6" ht="18" spans="1:14">
-      <c r="A6" s="63"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="H6" s="61" t="s">
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="166"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="175"/>
+      <c r="B5" s="175"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+    </row>
+    <row r="6" spans="1:14" ht="18.75">
+      <c r="A6" s="175"/>
+      <c r="B6" s="175"/>
+      <c r="C6" s="175"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="175"/>
+      <c r="F6" s="175"/>
+      <c r="H6" s="165" t="s">
         <v>479</v>
       </c>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="66" t="s">
+      <c r="I6" s="165"/>
+      <c r="J6" s="165"/>
+      <c r="K6" s="165"/>
+      <c r="L6" s="165"/>
+      <c r="M6" s="165"/>
+      <c r="N6" s="165"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" s="63" t="s">
         <v>480</v>
       </c>
-      <c r="I7" s="84" t="s">
+      <c r="I7" s="70" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1" spans="1:8">
-      <c r="A8" s="67" t="s">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A8" s="172" t="s">
         <v>482</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="176" t="s">
         <v>483</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
-      <c r="H8" s="71" t="s">
+      <c r="C8" s="177"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="178"/>
+      <c r="H8" s="64" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="1:10">
-      <c r="A9" s="67"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="74"/>
+    <row r="9" spans="1:14" ht="15.75">
+      <c r="A9" s="172"/>
+      <c r="B9" s="179"/>
+      <c r="C9" s="180"/>
+      <c r="D9" s="180"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="181"/>
       <c r="H9" s="61" t="s">
         <v>485</v>
       </c>
       <c r="I9" s="50">
         <v>18</v>
       </c>
-      <c r="J9" s="81" t="s">
+      <c r="J9" s="67" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="10" ht="45" customHeight="1" spans="1:14">
-      <c r="A10" s="75" t="s">
+    <row r="10" spans="1:14" ht="45" customHeight="1">
+      <c r="A10" s="173" t="s">
         <v>487</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="182" t="s">
         <v>488</v>
       </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="H10" s="64" t="s">
+      <c r="C10" s="182"/>
+      <c r="D10" s="182"/>
+      <c r="E10" s="182"/>
+      <c r="F10" s="182"/>
+      <c r="H10" s="62" t="s">
         <v>489</v>
       </c>
-      <c r="J10" s="85" t="str">
+      <c r="J10" s="167" t="str">
         <f>'Информация для бумаг'!C3</f>
         <v>Санкт-Петербург - Толмачево- д.Ящера-Толмачево- Санкт-Петербург</v>
       </c>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="75"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
+      <c r="K10" s="168"/>
+      <c r="L10" s="168"/>
+      <c r="M10" s="168"/>
+      <c r="N10" s="168"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="173"/>
+      <c r="B11" s="182"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="182"/>
+      <c r="F11" s="182"/>
       <c r="H11" s="55" t="s">
         <v>490</v>
       </c>
-      <c r="I11" s="87">
+      <c r="I11" s="71">
         <f>DAYS360('Информация для бумаг'!C2,'Информация для бумаг'!D2)-1</f>
         <v>4</v>
       </c>
@@ -13319,66 +12712,66 @@
         <v>491</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="1:12">
-      <c r="A12" s="77">
+    <row r="12" spans="1:14" ht="15.75">
+      <c r="A12" s="65">
         <v>44320</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="169" t="s">
         <v>492</v>
       </c>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="H12" s="79" t="s">
+      <c r="C12" s="169"/>
+      <c r="D12" s="169"/>
+      <c r="E12" s="169"/>
+      <c r="F12" s="169"/>
+      <c r="H12" s="170" t="s">
         <v>493</v>
       </c>
-      <c r="I12" s="79"/>
-      <c r="J12" s="88">
+      <c r="I12" s="170"/>
+      <c r="J12" s="72">
         <f>'Информация для бумаг'!C2</f>
         <v>44680</v>
       </c>
-      <c r="K12" s="89" t="s">
+      <c r="K12" s="73" t="s">
         <v>494</v>
       </c>
-      <c r="L12" s="90">
+      <c r="L12" s="74">
         <f>'Информация для бумаг'!D2</f>
         <v>44685</v>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1" spans="1:6">
-      <c r="A13" s="75"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-    </row>
-    <row r="14" ht="15.6" spans="1:14">
-      <c r="A14" s="75"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="H14" s="81" t="s">
+    <row r="13" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A13" s="173"/>
+      <c r="B13" s="183"/>
+      <c r="C13" s="183"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="183"/>
+      <c r="F13" s="183"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75">
+      <c r="A14" s="173"/>
+      <c r="B14" s="183"/>
+      <c r="C14" s="183"/>
+      <c r="D14" s="183"/>
+      <c r="E14" s="183"/>
+      <c r="F14" s="183"/>
+      <c r="H14" s="67" t="s">
         <v>495</v>
       </c>
-      <c r="K14" s="89" t="str">
+      <c r="K14" s="171" t="str">
         <f>'Информация для бумаг'!C25</f>
         <v>Хайтов Вадим Михайлович</v>
       </c>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="75"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
+      <c r="L14" s="171"/>
+      <c r="M14" s="171"/>
+      <c r="N14" s="171"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="173"/>
+      <c r="B15" s="183"/>
+      <c r="C15" s="183"/>
+      <c r="D15" s="183"/>
+      <c r="E15" s="183"/>
+      <c r="F15" s="183"/>
       <c r="K15" s="55" t="s">
         <v>415</v>
       </c>
@@ -13387,55 +12780,55 @@
         <v>89217427984</v>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A16" s="75"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="H16" s="82" t="s">
+    <row r="16" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A16" s="173"/>
+      <c r="B16" s="182"/>
+      <c r="C16" s="182"/>
+      <c r="D16" s="182"/>
+      <c r="E16" s="182"/>
+      <c r="F16" s="182"/>
+      <c r="H16" s="68" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="75"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="H17" s="83" t="s">
+    <row r="17" spans="1:14">
+      <c r="A17" s="173"/>
+      <c r="B17" s="182"/>
+      <c r="C17" s="182"/>
+      <c r="D17" s="182"/>
+      <c r="E17" s="182"/>
+      <c r="F17" s="182"/>
+      <c r="H17" s="69" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="75"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-    </row>
-    <row r="19" ht="15.6" spans="1:14">
-      <c r="A19" s="75"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="H19" s="81" t="s">
+    <row r="18" spans="1:14">
+      <c r="A18" s="173"/>
+      <c r="B18" s="182"/>
+      <c r="C18" s="182"/>
+      <c r="D18" s="182"/>
+      <c r="E18" s="182"/>
+      <c r="F18" s="182"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75">
+      <c r="A19" s="173"/>
+      <c r="B19" s="182"/>
+      <c r="C19" s="182"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="182"/>
+      <c r="F19" s="182"/>
+      <c r="H19" s="67" t="s">
         <v>498</v>
       </c>
-      <c r="K19" s="89" t="str">
+      <c r="K19" s="171" t="str">
         <f>'Информация для бумаг'!C26</f>
         <v>Котельникова Валентина Сергеевна</v>
       </c>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="89"/>
-    </row>
-    <row r="20" spans="11:12">
+      <c r="L19" s="171"/>
+      <c r="M19" s="171"/>
+      <c r="N19" s="171"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="K20" s="55" t="s">
         <v>415</v>
       </c>
@@ -13444,53 +12837,53 @@
         <v>89679796720</v>
       </c>
     </row>
-    <row r="22" ht="12.75" customHeight="1" spans="8:14">
-      <c r="H22" s="61" t="s">
+    <row r="22" spans="1:14" ht="12.75" customHeight="1">
+      <c r="H22" s="165" t="s">
         <v>499</v>
       </c>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-    </row>
-    <row r="23" ht="12.75" customHeight="1" spans="8:14">
-      <c r="H23" s="61" t="s">
+      <c r="I22" s="165"/>
+      <c r="J22" s="165"/>
+      <c r="K22" s="165"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="165"/>
+      <c r="N22" s="165"/>
+    </row>
+    <row r="23" spans="1:14" ht="12.75" customHeight="1">
+      <c r="H23" s="165" t="s">
         <v>500</v>
       </c>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-    </row>
-    <row r="25" ht="15.6" spans="8:13">
-      <c r="H25" s="81" t="s">
+      <c r="I23" s="165"/>
+      <c r="J23" s="165"/>
+      <c r="K23" s="165"/>
+      <c r="L23" s="165"/>
+      <c r="M23" s="165"/>
+      <c r="N23" s="165"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75">
+      <c r="H25" s="67" t="s">
         <v>501</v>
       </c>
-      <c r="M25" s="91">
+      <c r="M25" s="75">
         <f>'Информация для бумаг'!C28</f>
         <v>44669</v>
       </c>
     </row>
-    <row r="26" ht="15.6" spans="1:9">
-      <c r="A26" s="81" t="s">
+    <row r="26" spans="1:14" ht="15.75">
+      <c r="A26" s="67" t="s">
         <v>502</v>
       </c>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81" t="s">
+      <c r="H26" s="67"/>
+      <c r="I26" s="67" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="28" ht="15.6" spans="8:8">
-      <c r="H28" s="81" t="s">
+    <row r="28" spans="1:14" ht="15.75">
+      <c r="H28" s="67" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="29" ht="15.6" spans="8:12">
-      <c r="H29" s="81" t="s">
+    <row r="29" spans="1:14" ht="15.75">
+      <c r="H29" s="67" t="s">
         <v>505</v>
       </c>
       <c r="K29" s="50">
@@ -13501,19 +12894,19 @@
         <v>506</v>
       </c>
     </row>
-    <row r="30" ht="15.6" spans="1:8">
-      <c r="A30" s="81" t="s">
+    <row r="30" spans="1:14" ht="15.75">
+      <c r="A30" s="67" t="s">
         <v>507</v>
       </c>
-      <c r="H30" s="81"/>
-    </row>
-    <row r="31" ht="15.6" spans="8:8">
-      <c r="H31" s="81" t="s">
+      <c r="H30" s="67"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.75">
+      <c r="H31" s="67" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="32" ht="15.6" spans="8:12">
-      <c r="H32" s="81" t="s">
+    <row r="32" spans="1:14" ht="15.75">
+      <c r="H32" s="67" t="s">
         <v>509</v>
       </c>
       <c r="K32" s="50">
@@ -13524,42 +12917,42 @@
         <v>506</v>
       </c>
     </row>
-    <row r="33" ht="15.6" spans="8:8">
-      <c r="H33" s="83" t="s">
+    <row r="33" spans="8:8" ht="15.75">
+      <c r="H33" s="69" t="s">
         <v>510</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A2:F6"/>
+    <mergeCell ref="B8:F9"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="B13:F15"/>
+    <mergeCell ref="B16:F19"/>
+    <mergeCell ref="H23:N23"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="H22:N22"/>
     <mergeCell ref="H1:N1"/>
     <mergeCell ref="H2:N2"/>
     <mergeCell ref="H4:N4"/>
     <mergeCell ref="H6:N6"/>
     <mergeCell ref="J10:N10"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="H23:N23"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A2:F6"/>
-    <mergeCell ref="B8:F9"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="B13:F15"/>
-    <mergeCell ref="B16:F19"/>
   </mergeCells>
-  <pageMargins left="0.388888888888889" right="0.388888888888889" top="0.388888888888889" bottom="0.588888888888889" header="0" footer="0.509027777777778"/>
+  <pageMargins left="0.38888888888888901" right="0.38888888888888901" top="0.38888888888888901" bottom="0.58888888888888902" header="0" footer="0.50902777777777797"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -13569,25 +12962,25 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.42592592592593" style="50"/>
-    <col min="2" max="2" width="35.712962962963" style="50" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="50"/>
+    <col min="2" max="2" width="35.7109375" style="50" customWidth="1"/>
     <col min="3" max="4" width="8" style="50"/>
-    <col min="5" max="5" width="12.8518518518519" style="50"/>
-    <col min="6" max="6" width="27.4259259259259" style="50" customWidth="1"/>
-    <col min="7" max="7" width="17.287037037037" style="55" customWidth="1"/>
-    <col min="8" max="8" width="30.287037037037" style="50" customWidth="1"/>
-    <col min="9" max="9" width="24.287037037037" style="50" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="50"/>
+    <col min="6" max="6" width="27.42578125" style="50" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="55" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" style="50" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" style="50" customWidth="1"/>
     <col min="10" max="16384" width="8" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:9">
       <c r="B1" s="50" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:9">
       <c r="B2" s="50" t="s">
         <v>512</v>
       </c>
@@ -13693,7 +13086,7 @@
         <v>89052006465</v>
       </c>
     </row>
-    <row r="7" ht="26.4" spans="1:9">
+    <row r="7" spans="1:9" ht="25.5">
       <c r="A7" s="52">
         <v>3</v>
       </c>
@@ -13730,7 +13123,7 @@
         <v>89213414725</v>
       </c>
     </row>
-    <row r="8" ht="26.4" spans="1:9">
+    <row r="8" spans="1:9" ht="25.5">
       <c r="A8" s="52">
         <v>4</v>
       </c>
@@ -13952,7 +13345,7 @@
         <v>89213323160</v>
       </c>
     </row>
-    <row r="14" ht="26.4" spans="1:9">
+    <row r="14" spans="1:9" ht="25.5">
       <c r="A14" s="52">
         <v>10</v>
       </c>
@@ -14137,7 +13530,7 @@
         <v>89657737525</v>
       </c>
     </row>
-    <row r="19" ht="39.6" spans="1:9">
+    <row r="19" spans="1:9" ht="38.25">
       <c r="A19" s="52">
         <v>15</v>
       </c>
@@ -14248,7 +13641,7 @@
         <v>89118110171</v>
       </c>
     </row>
-    <row r="22" ht="26.4" spans="1:9">
+    <row r="22" spans="1:9" ht="25.5">
       <c r="A22" s="52">
         <v>18</v>
       </c>
@@ -14296,7 +13689,7 @@
       <c r="H23" s="52"/>
       <c r="I23" s="52"/>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:9">
       <c r="B25" s="50" t="str">
         <f>'Информация для бумаг'!C25</f>
         <v>Хайтов Вадим Михайлович</v>
@@ -14305,7 +13698,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="1:9">
       <c r="B27" s="50" t="str">
         <f>'Информация для бумаг'!C26</f>
         <v>Котельникова Валентина Сергеевна</v>
@@ -14317,34 +13710,33 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="32.1388888888889" style="50" customWidth="1"/>
-    <col min="2" max="2" width="16.8518518518519" style="50" customWidth="1"/>
-    <col min="3" max="3" width="18.712962962963" style="50" customWidth="1"/>
-    <col min="4" max="4" width="13.1388888888889" style="50" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" style="50" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="50" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="50" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="50" customWidth="1"/>
     <col min="5" max="16384" width="8" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1" s="51" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="2" ht="82.5" customHeight="1" spans="1:4">
+    <row r="2" spans="1:4" ht="82.5" customHeight="1">
       <c r="A2" s="52" t="s">
         <v>513</v>
       </c>
@@ -14666,7 +14058,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/Jashera 2022/Jashera 2022.xlsx
+++ b/Jashera 2022/Jashera 2022.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" tabRatio="804" firstSheet="4" activeTab="8"/>
+    <workbookView windowWidth="22368" windowHeight="9264" tabRatio="804" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Список оборудования" sheetId="12" r:id="rId1"/>
@@ -17,19 +17,20 @@
     <sheet name="Cписок для приказа" sheetId="4" r:id="rId8"/>
     <sheet name="Ведомость документов" sheetId="5" r:id="rId9"/>
     <sheet name="Участники" sheetId="10" r:id="rId10"/>
-    <sheet name="Список для страховки" sheetId="8" r:id="rId11"/>
-    <sheet name="МЧС" sheetId="9" r:id="rId12"/>
-    <sheet name="Ограничения" sheetId="17" r:id="rId13"/>
+    <sheet name="Дежурство и форпост" sheetId="18" r:id="rId11"/>
+    <sheet name="Список для страховки" sheetId="8" r:id="rId12"/>
+    <sheet name="МЧС" sheetId="9" r:id="rId13"/>
+    <sheet name="Ограничения" sheetId="17" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Участники!$A$1:$Y$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Список для страховки'!$A$1:$F$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Участники!$A$1:$Z$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Список для страховки'!$A$1:$F$25</definedName>
     <definedName name="_ftn1" localSheetId="6">'Маршлист внешняя сторона'!$H$29</definedName>
     <definedName name="_ftnref1" localSheetId="6">'Маршлист внешняя сторона'!$H$26</definedName>
     <definedName name="class" localSheetId="7">[1]Справочник!$H$2:$H$14</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="693">
   <si>
     <t>ОБОРУДОВАНИЕ</t>
   </si>
@@ -1681,6 +1682,9 @@
     <t>Отчество (ребенка)</t>
   </si>
   <si>
+    <t>Общий сбор</t>
+  </si>
+  <si>
     <t>В официальном списке</t>
   </si>
   <si>
@@ -1828,6 +1832,9 @@
     <t>Natalyad878@yandex.ru</t>
   </si>
   <si>
+    <t>Ленинский пр. 87 к.1 кв 46</t>
+  </si>
+  <si>
     <t>Пасько</t>
   </si>
   <si>
@@ -1885,6 +1892,12 @@
     <t>sawwamensh@gmail.com</t>
   </si>
   <si>
+    <t>расписка</t>
+  </si>
+  <si>
+    <t>Гаванская 2/97-36</t>
+  </si>
+  <si>
     <t>Нужина</t>
   </si>
   <si>
@@ -1903,6 +1916,9 @@
     <t>юрьевна</t>
   </si>
   <si>
+    <t>Лиговский пр. 271-536</t>
+  </si>
+  <si>
     <t>Попова</t>
   </si>
   <si>
@@ -1915,9 +1931,6 @@
     <t>Борисовна</t>
   </si>
   <si>
-    <t>расписка</t>
-  </si>
-  <si>
     <t>Г. Санкт-Петербург пр.Комендантский д.23 к.1 кв 112</t>
   </si>
   <si>
@@ -1961,6 +1974,9 @@
   </si>
   <si>
     <t>ShelamovaV@yandex.ru</t>
+  </si>
+  <si>
+    <t>89217627582</t>
   </si>
   <si>
     <t>Шилонцева</t>
@@ -2014,6 +2030,27 @@
     </r>
   </si>
   <si>
+    <t>Каретная</t>
+  </si>
+  <si>
+    <t>Вероника</t>
+  </si>
+  <si>
+    <t>Михайловна</t>
+  </si>
+  <si>
+    <t>С-Пб., ул. Кораблестроителей д.19-1, кв. 168</t>
+  </si>
+  <si>
+    <t>II-АК 606923</t>
+  </si>
+  <si>
+    <t>Халтурин</t>
+  </si>
+  <si>
+    <t>Дмитриевич</t>
+  </si>
+  <si>
     <t>Богатушин</t>
   </si>
   <si>
@@ -2038,127 +2075,124 @@
     <t>Врожденная косолапость крайне тяжелой степени (прооперирован до ремиссии), привычный вывих надколенников. Не рекомендованы физ нагрузки с переносом тяжелых грузов.</t>
   </si>
   <si>
-    <t>Каретная</t>
-  </si>
-  <si>
-    <t>Вероника</t>
-  </si>
-  <si>
-    <t>Михайловна</t>
-  </si>
-  <si>
-    <t>89312244315  89319803214</t>
+    <t>Понедельник</t>
+  </si>
+  <si>
+    <t>Вторник</t>
+  </si>
+  <si>
+    <t>Среда</t>
+  </si>
+  <si>
+    <t>Четверг (погрузка)</t>
+  </si>
+  <si>
+    <t>Форпост</t>
+  </si>
+  <si>
+    <t>Тим</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата рождения </t>
+  </si>
+  <si>
+    <t>Тип удостоверения личности</t>
+  </si>
+  <si>
+    <t>Номер удостоверения личности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Страхователь </t>
+  </si>
+  <si>
+    <t>Хайтов</t>
+  </si>
+  <si>
+    <t>Вадим</t>
+  </si>
+  <si>
+    <t>Михайлович</t>
+  </si>
+  <si>
+    <t>Группа</t>
+  </si>
+  <si>
+    <t>Атаманов Андрей Иванович</t>
+  </si>
+  <si>
+    <t>Башилов Константин Вячеславович</t>
+  </si>
+  <si>
+    <t>Бекасов Емельян Игоревич</t>
+  </si>
+  <si>
+    <t>Белокуров Михаил Сергеевич</t>
+  </si>
+  <si>
+    <t>Бритиков Александр Ильич</t>
+  </si>
+  <si>
+    <t>Васильев Илья Игоревич</t>
+  </si>
+  <si>
+    <t>Евдокимова Алёна Игоревна</t>
+  </si>
+  <si>
+    <t>Ершова Татьяна Алексеевна</t>
+  </si>
+  <si>
+    <t>Иванов Тимофей Кириллович</t>
+  </si>
+  <si>
+    <t>Киселев Вениамин Алексеевич</t>
+  </si>
+  <si>
+    <t>Кудряшов Тимофей Андреевич</t>
+  </si>
+  <si>
+    <t>Мелентьева Эмма Алексевна</t>
+  </si>
+  <si>
+    <t>Меньшиков  Савва Игоревич</t>
+  </si>
+  <si>
+    <t>Нужин Илья Мулложонович</t>
+  </si>
+  <si>
+    <t>Островский Виктор Владиславович</t>
+  </si>
+  <si>
+    <t>Попов Василий Владиславович</t>
+  </si>
+  <si>
+    <t>Сайчик Мария Владимировна</t>
+  </si>
+  <si>
+    <t>Тюпин Арсений Евгеньевич</t>
+  </si>
+  <si>
+    <t>Федорова Ксения Сергеевна</t>
+  </si>
+  <si>
+    <t>Шеламова Виктория Сергеевна</t>
+  </si>
+  <si>
+    <t>Шилонцев Андрей Александрович</t>
+  </si>
+  <si>
+    <t>Шишкина Анна Андреевна</t>
+  </si>
+  <si>
+    <t>Шишкина Алина Денисовна</t>
+  </si>
+  <si>
+    <t>Богатушин Матвей Антонович</t>
+  </si>
+  <si>
+    <t>Каретная Вероника Михайловна</t>
   </si>
   <si>
     <t>С-Пб., ул. Кораблестроителей д.19/1, кв. 168</t>
-  </si>
-  <si>
-    <t>II-АК 606923</t>
-  </si>
-  <si>
-    <t>Халтурин</t>
-  </si>
-  <si>
-    <t>Дмитриевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дата рождения </t>
-  </si>
-  <si>
-    <t>Тип удостоверения личности</t>
-  </si>
-  <si>
-    <t>Номер удостоверения личности</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Страхователь </t>
-  </si>
-  <si>
-    <t>Хайтов</t>
-  </si>
-  <si>
-    <t>Вадим</t>
-  </si>
-  <si>
-    <t>Михайлович</t>
-  </si>
-  <si>
-    <t>Группа</t>
-  </si>
-  <si>
-    <t>Атаманов Андрей Иванович</t>
-  </si>
-  <si>
-    <t>Башилов Константин Вячеславович</t>
-  </si>
-  <si>
-    <t>Бекасов Емельян Игоревич</t>
-  </si>
-  <si>
-    <t>Белокуров Михаил Сергеевич</t>
-  </si>
-  <si>
-    <t>Бритиков Александр Ильич</t>
-  </si>
-  <si>
-    <t>Васильев Илья Игоревич</t>
-  </si>
-  <si>
-    <t>Евдокимова Алёна Игоревна</t>
-  </si>
-  <si>
-    <t>Ершова Татьяна Алексеевна</t>
-  </si>
-  <si>
-    <t>Иванов Тимофей Кириллович</t>
-  </si>
-  <si>
-    <t>Киселев Вениамин Алексеевич</t>
-  </si>
-  <si>
-    <t>Кудряшов Тимофей Андреевич</t>
-  </si>
-  <si>
-    <t>Мелентьева Эмма Алексевна</t>
-  </si>
-  <si>
-    <t>Меньшиков  Савва Игоревич</t>
-  </si>
-  <si>
-    <t>Нужин Илья Мулложонович</t>
-  </si>
-  <si>
-    <t>Островский Виктор Владиславович</t>
-  </si>
-  <si>
-    <t>Попов Василий Владиславович</t>
-  </si>
-  <si>
-    <t>Сайчик Мария Владимировна</t>
-  </si>
-  <si>
-    <t>Тюпин Арсений Евгеньевич</t>
-  </si>
-  <si>
-    <t>Федорова Ксения Сергеевна</t>
-  </si>
-  <si>
-    <t>Шеламова Виктория Сергеевна</t>
-  </si>
-  <si>
-    <t>Шилонцев Андрей Александрович</t>
-  </si>
-  <si>
-    <t>Шишкина Анна Андреевна</t>
-  </si>
-  <si>
-    <t>Шишкина Алина Денисовна</t>
-  </si>
-  <si>
-    <t>Богатушин Матвей Антонович</t>
-  </si>
-  <si>
-    <t>Каретная Вероника Михайловна</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -2178,12 +2212,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
-    <numFmt numFmtId="176" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="181" formatCode="dd\.mm\.yyyy\ h:mm"/>
+    <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy\ h:mm"/>
+    <numFmt numFmtId="181" formatCode="dd\.mm\.yyyy"/>
     <numFmt numFmtId="182" formatCode="dd\.mm\.yyyy;@"/>
     <numFmt numFmtId="183" formatCode="dd\.mmm"/>
     <numFmt numFmtId="184" formatCode="[$-419]d\ mm\ yyyy;@"/>
@@ -2381,8 +2415,25 @@
       <charset val="204"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2395,9 +2446,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2412,9 +2462,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2426,40 +2476,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2480,6 +2499,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -2489,7 +2516,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2503,18 +2530,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2564,25 +2598,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2600,13 +2700,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2618,127 +2760,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2918,17 +2952,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2944,35 +2989,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2996,22 +3012,40 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3020,152 +3054,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="28" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="30" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -3181,16 +3215,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="181" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3198,11 +3232,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -3211,7 +3245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -3220,7 +3254,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3229,7 +3263,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3241,7 +3275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3259,7 +3293,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3269,14 +3303,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3284,13 +3318,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3330,7 +3364,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3376,7 +3410,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3388,7 +3422,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="185" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3407,7 +3441,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3518,8 +3552,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="25" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -4621,15 +4655,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AF27"/>
+  <sheetPr/>
+  <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S22" sqref="S22"/>
+      <selection pane="bottomRight" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
@@ -4637,31 +4671,31 @@
     <col min="1" max="1" width="8.85185185185185" style="25"/>
     <col min="2" max="2" width="19.1388888888889" style="25" customWidth="1"/>
     <col min="3" max="3" width="14.4259259259259" style="25" customWidth="1"/>
-    <col min="4" max="5" width="19.5740740740741" style="25" customWidth="1"/>
-    <col min="6" max="6" width="8.71296296296296" style="25" customWidth="1"/>
-    <col min="7" max="8" width="9.71296296296296" style="25" customWidth="1"/>
-    <col min="9" max="9" width="27.4259259259259" style="25" customWidth="1"/>
-    <col min="10" max="10" width="9.71296296296296" style="25" customWidth="1"/>
-    <col min="11" max="11" width="36" style="25" customWidth="1"/>
-    <col min="12" max="12" width="20.5740740740741" style="25" customWidth="1"/>
-    <col min="13" max="13" width="10.1388888888889" style="25" customWidth="1"/>
-    <col min="14" max="14" width="8.85185185185185" style="25"/>
-    <col min="15" max="15" width="29.712962962963" style="25" customWidth="1"/>
-    <col min="16" max="16" width="37.1388888888889" style="25" customWidth="1"/>
-    <col min="17" max="17" width="16.8518518518519" style="25" customWidth="1"/>
-    <col min="18" max="18" width="11.1388888888889" style="25" customWidth="1"/>
-    <col min="19" max="19" width="11.712962962963" style="25"/>
-    <col min="20" max="20" width="10.8518518518519" style="25"/>
-    <col min="21" max="23" width="8.85185185185185" style="25"/>
-    <col min="24" max="24" width="12.8888888888889" style="25"/>
-    <col min="25" max="25" width="8.85185185185185" style="25"/>
-    <col min="26" max="26" width="27.287037037037" style="25" customWidth="1"/>
-    <col min="27" max="29" width="8.85185185185185" style="25"/>
-    <col min="30" max="30" width="12.8518518518519" style="25"/>
-    <col min="31" max="16384" width="8.85185185185185" style="25"/>
+    <col min="4" max="6" width="19.5740740740741" style="25" customWidth="1"/>
+    <col min="7" max="7" width="8.71296296296296" style="25" customWidth="1"/>
+    <col min="8" max="9" width="9.71296296296296" style="25" customWidth="1"/>
+    <col min="10" max="10" width="27.4259259259259" style="25" customWidth="1"/>
+    <col min="11" max="11" width="9.71296296296296" style="25" customWidth="1"/>
+    <col min="12" max="12" width="36" style="25" customWidth="1"/>
+    <col min="13" max="13" width="20.5740740740741" style="25" customWidth="1"/>
+    <col min="14" max="14" width="10.1388888888889" style="25" customWidth="1"/>
+    <col min="15" max="15" width="8.85185185185185" style="25"/>
+    <col min="16" max="16" width="29.712962962963" style="25" customWidth="1"/>
+    <col min="17" max="17" width="37.1388888888889" style="25" customWidth="1"/>
+    <col min="18" max="18" width="16.8518518518519" style="25" customWidth="1"/>
+    <col min="19" max="19" width="11.1388888888889" style="25" customWidth="1"/>
+    <col min="20" max="20" width="11.7777777777778" style="25"/>
+    <col min="21" max="21" width="10.8518518518519" style="25"/>
+    <col min="22" max="24" width="8.85185185185185" style="25"/>
+    <col min="25" max="25" width="26.6574074074074" style="25" customWidth="1"/>
+    <col min="26" max="26" width="8.85185185185185" style="25"/>
+    <col min="27" max="27" width="27.287037037037" style="25" customWidth="1"/>
+    <col min="28" max="30" width="8.85185185185185" style="25"/>
+    <col min="31" max="31" width="12.8518518518519" style="25"/>
+    <col min="32" max="16384" width="8.85185185185185" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32">
+    <row r="1" spans="2:33">
       <c r="B1" s="10" t="s">
         <v>521</v>
       </c>
@@ -4675,13 +4709,13 @@
         <v>524</v>
       </c>
       <c r="F1" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>305</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>525</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>526</v>
@@ -4696,13 +4730,13 @@
         <v>529</v>
       </c>
       <c r="M1" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>308</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>530</v>
       </c>
       <c r="P1" s="10" t="s">
         <v>531</v>
@@ -4740,13 +4774,16 @@
       <c r="AA1" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="AB1" s="10"/>
+      <c r="AB1" s="10" t="s">
+        <v>543</v>
+      </c>
       <c r="AC1" s="10"/>
       <c r="AD1" s="10"/>
       <c r="AE1" s="10"/>
       <c r="AF1" s="10"/>
-    </row>
-    <row r="2" ht="15.15" spans="2:30">
+      <c r="AG1" s="10"/>
+    </row>
+    <row r="2" ht="15.15" spans="2:31">
       <c r="B2" s="6" t="s">
         <v>316</v>
       </c>
@@ -4756,66 +4793,69 @@
       <c r="D2" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="6">
         <v>1</v>
       </c>
-      <c r="F2" s="6">
-        <v>13</v>
+      <c r="F2" s="14">
+        <v>1</v>
       </c>
       <c r="G2" s="6">
         <v>13</v>
       </c>
       <c r="H2" s="6">
+        <v>13</v>
+      </c>
+      <c r="I2" s="6">
         <v>6</v>
       </c>
-      <c r="I2" s="6">
+      <c r="J2" s="6">
         <v>1</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="14"/>
+      <c r="K2" s="37"/>
       <c r="L2" s="14"/>
-      <c r="M2" s="6">
+      <c r="M2" s="14"/>
+      <c r="N2" s="6">
         <v>630</v>
       </c>
-      <c r="N2" s="24">
+      <c r="O2" s="24">
         <v>10</v>
       </c>
-      <c r="O2" s="5">
+      <c r="P2" s="5">
         <v>89118124048</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="R2" s="25" t="s">
-        <v>543</v>
-      </c>
-      <c r="S2" s="5">
+      <c r="S2" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="T2" s="5">
         <v>4018281460</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>316</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>544</v>
       </c>
       <c r="W2" s="6" t="s">
         <v>545</v>
       </c>
       <c r="X2" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="Y2" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="Y2" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="AD2" s="25" t="str">
-        <f>CONCATENATE(U2," ",V2," ",W2)</f>
+      <c r="Z2" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="AE2" s="25" t="str">
+        <f>CONCATENATE(V2," ",W2," ",X2)</f>
         <v>Атаманов Иван Валерьевич</v>
       </c>
     </row>
-    <row r="3" ht="15.15" spans="2:32">
+    <row r="3" spans="2:33">
       <c r="B3" s="31" t="s">
         <v>323</v>
       </c>
@@ -4825,73 +4865,76 @@
       <c r="D3" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="31">
         <v>1</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="14">
+        <v>1</v>
+      </c>
+      <c r="G3" s="31">
         <v>10</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="H3" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="H3" s="31">
+      <c r="I3" s="31">
         <v>5</v>
       </c>
-      <c r="I3" s="31">
+      <c r="J3" s="31">
         <v>3</v>
       </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="14"/>
+      <c r="K3" s="37"/>
       <c r="L3" s="14"/>
-      <c r="M3" s="20">
+      <c r="M3" s="14"/>
+      <c r="N3" s="20">
         <v>225</v>
       </c>
-      <c r="N3" s="20">
+      <c r="O3" s="20">
         <v>7</v>
       </c>
-      <c r="O3" s="8">
+      <c r="P3" s="8">
         <v>89650953153</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="R3" s="7">
         <v>39367</v>
       </c>
-      <c r="R3" s="25" t="s">
-        <v>543</v>
-      </c>
-      <c r="S3" s="42">
+      <c r="S3" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="T3" s="42">
         <v>4022050606</v>
       </c>
-      <c r="T3" s="43"/>
-      <c r="U3" s="3" t="s">
-        <v>547</v>
-      </c>
+      <c r="U3" s="43"/>
       <c r="V3" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="W3" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="W3" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="X3" s="8">
+      <c r="X3" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y3" s="8">
         <v>89052006465</v>
       </c>
-      <c r="Y3" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="37"/>
+      <c r="Z3" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="AA3" s="43"/>
       <c r="AB3" s="37"/>
       <c r="AC3" s="37"/>
-      <c r="AD3" s="25" t="str">
-        <f>CONCATENATE(U3," ",V3," ",W3)</f>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="25" t="str">
+        <f>CONCATENATE(V3," ",W3," ",X3)</f>
         <v>Батаковская Мария Павловна</v>
       </c>
-      <c r="AE3" s="37"/>
       <c r="AF3" s="37"/>
-    </row>
-    <row r="4" spans="2:32">
+      <c r="AG3" s="37"/>
+    </row>
+    <row r="4" spans="2:33">
       <c r="B4" s="6" t="s">
         <v>329</v>
       </c>
@@ -4905,69 +4948,72 @@
         <v>1</v>
       </c>
       <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
         <v>22</v>
       </c>
-      <c r="G4" s="6">
+      <c r="H4" s="6">
         <v>5</v>
       </c>
-      <c r="H4" s="6">
+      <c r="I4" s="6">
         <v>16</v>
       </c>
-      <c r="I4" s="6">
+      <c r="J4" s="6">
         <v>13</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="6"/>
+      <c r="K4" s="37"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="5">
+      <c r="M4" s="6"/>
+      <c r="N4" s="5">
         <v>503</v>
       </c>
-      <c r="N4" s="5">
+      <c r="O4" s="5">
         <v>6</v>
       </c>
-      <c r="O4" s="10">
+      <c r="P4" s="10">
         <v>89818295984</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="Q4" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="R4" s="9">
         <v>39857</v>
       </c>
-      <c r="R4" s="25" t="s">
-        <v>550</v>
-      </c>
-      <c r="S4" s="10" t="s">
+      <c r="S4" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="T4" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10" t="s">
-        <v>551</v>
-      </c>
+      <c r="U4" s="10"/>
       <c r="V4" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="W4" s="10" t="s">
         <v>383</v>
-      </c>
-      <c r="W4" s="10" t="s">
-        <v>552</v>
       </c>
       <c r="X4" s="10" t="s">
         <v>553</v>
       </c>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10" t="s">
+      <c r="Y4" s="10" t="s">
         <v>554</v>
       </c>
-      <c r="AB4" s="10"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10" t="s">
+        <v>555</v>
+      </c>
       <c r="AC4" s="10"/>
-      <c r="AD4" s="25" t="str">
-        <f>CONCATENATE(U4," ",V4," ",W4)</f>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="25" t="str">
+        <f>CONCATENATE(V4," ",W4," ",X4)</f>
         <v>Калачева Мария Анатольевна</v>
       </c>
-      <c r="AE4" s="10"/>
       <c r="AF4" s="10"/>
-    </row>
-    <row r="5" spans="2:32">
+      <c r="AG4" s="10"/>
+    </row>
+    <row r="5" spans="2:33">
       <c r="B5" s="6" t="s">
         <v>335</v>
       </c>
@@ -4977,71 +5023,74 @@
       <c r="D5" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="6">
         <v>1</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
         <v>16</v>
       </c>
-      <c r="G5" s="6">
+      <c r="H5" s="6">
         <v>8</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="37">
+      <c r="I5" s="39"/>
+      <c r="J5" s="37">
         <v>14</v>
       </c>
-      <c r="J5" s="37"/>
-      <c r="K5" s="10"/>
+      <c r="K5" s="37"/>
       <c r="L5" s="10"/>
-      <c r="M5" s="6">
+      <c r="M5" s="10"/>
+      <c r="N5" s="6">
         <v>225</v>
       </c>
-      <c r="N5" s="24">
+      <c r="O5" s="24">
         <v>10</v>
       </c>
-      <c r="O5" s="5">
+      <c r="P5" s="5">
         <v>89215575265</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="Q5" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="R5" s="11">
         <v>38553</v>
       </c>
-      <c r="R5" s="25" t="s">
-        <v>543</v>
-      </c>
-      <c r="S5" s="5">
+      <c r="S5" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="T5" s="5">
         <v>4019397258</v>
       </c>
-      <c r="T5" s="10"/>
-      <c r="U5" s="6" t="s">
-        <v>555</v>
-      </c>
+      <c r="U5" s="10"/>
       <c r="V5" s="6" t="s">
         <v>556</v>
       </c>
       <c r="W5" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="X5" s="5">
+      <c r="X5" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="Y5" s="5">
         <v>89213205528</v>
       </c>
-      <c r="Y5" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="Z5" s="10"/>
+      <c r="Z5" s="6" t="s">
+        <v>559</v>
+      </c>
       <c r="AA5" s="10"/>
       <c r="AB5" s="10"/>
       <c r="AC5" s="10"/>
-      <c r="AD5" s="25" t="str">
-        <f>CONCATENATE(U5," ",V5," ",W5)</f>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="25" t="str">
+        <f>CONCATENATE(V5," ",W5," ",X5)</f>
         <v>Белокурова Елена Валентиновна</v>
       </c>
-      <c r="AE5" s="10"/>
       <c r="AF5" s="10"/>
-    </row>
-    <row r="6" spans="2:32">
+      <c r="AG5" s="10"/>
+    </row>
+    <row r="6" spans="2:33">
       <c r="B6" s="6" t="s">
         <v>340</v>
       </c>
@@ -5051,77 +5100,80 @@
       <c r="D6" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="6">
         <v>1</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
         <v>4</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="6">
         <v>16</v>
-      </c>
-      <c r="H6" s="6">
-        <v>7</v>
       </c>
       <c r="I6" s="6">
         <v>7</v>
       </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="10"/>
+      <c r="J6" s="6">
+        <v>7</v>
+      </c>
+      <c r="K6" s="37"/>
       <c r="L6" s="10"/>
-      <c r="M6" s="6">
+      <c r="M6" s="10"/>
+      <c r="N6" s="6">
         <v>56</v>
       </c>
-      <c r="N6" s="6">
+      <c r="O6" s="6">
         <v>7</v>
       </c>
-      <c r="O6" s="6">
+      <c r="P6" s="6">
         <v>89291040939</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="Q6" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="R6" s="12">
         <v>39849</v>
       </c>
-      <c r="R6" s="25" t="s">
-        <v>550</v>
-      </c>
-      <c r="S6" s="44" t="s">
+      <c r="S6" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="T6" s="44" t="s">
         <v>345</v>
       </c>
-      <c r="T6" s="10"/>
-      <c r="U6" s="6" t="s">
-        <v>559</v>
-      </c>
+      <c r="U6" s="10"/>
       <c r="V6" s="6" t="s">
         <v>560</v>
       </c>
       <c r="W6" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="X6" s="45" t="s">
+      <c r="X6" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="Y6" s="31" t="s">
+      <c r="Y6" s="48" t="s">
         <v>563</v>
       </c>
-      <c r="Z6" s="6" t="s">
+      <c r="Z6" s="31" t="s">
         <v>564</v>
       </c>
       <c r="AA6" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="AB6" s="10"/>
+      <c r="AB6" s="6" t="s">
+        <v>566</v>
+      </c>
       <c r="AC6" s="10"/>
-      <c r="AD6" s="25" t="str">
-        <f>CONCATENATE(U6," ",V6," ",W6)</f>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="25" t="str">
+        <f>CONCATENATE(V6," ",W6," ",X6)</f>
         <v>Бритикова Ольга Николаевна</v>
       </c>
-      <c r="AE6" s="10"/>
       <c r="AF6" s="10"/>
-    </row>
-    <row r="7" hidden="1" spans="2:32">
+      <c r="AG6" s="10"/>
+    </row>
+    <row r="7" spans="2:33">
       <c r="B7" s="6" t="s">
         <v>422</v>
       </c>
@@ -5131,68 +5183,71 @@
       <c r="D7" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="6">
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="6">
         <v>21</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6">
+      <c r="H7" s="6"/>
+      <c r="I7" s="6">
         <v>3</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="6">
+      <c r="J7" s="6"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="M7" s="10"/>
+      <c r="N7" s="6">
         <v>58</v>
       </c>
-      <c r="N7" s="6">
+      <c r="O7" s="6">
         <v>7</v>
       </c>
-      <c r="O7" s="6">
+      <c r="P7" s="6">
         <v>89112625350</v>
       </c>
-      <c r="P7" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="R7" s="12">
         <v>39462</v>
       </c>
-      <c r="R7" s="25" t="s">
-        <v>550</v>
-      </c>
-      <c r="S7" s="6" t="s">
+      <c r="S7" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="T7" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="T7" s="10"/>
-      <c r="U7" s="6" t="s">
-        <v>568</v>
-      </c>
+      <c r="U7" s="10"/>
       <c r="V7" s="6" t="s">
         <v>569</v>
       </c>
       <c r="W7" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="X7" s="45" t="s">
+      <c r="X7" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="Y7" s="31" t="s">
-        <v>563</v>
-      </c>
-      <c r="Z7" s="6" t="s">
+      <c r="Y7" s="48" t="s">
         <v>572</v>
       </c>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="10"/>
+      <c r="Z7" s="31" t="s">
+        <v>564</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="AB7" s="31"/>
       <c r="AC7" s="10"/>
       <c r="AD7" s="10"/>
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
-    </row>
-    <row r="8" spans="2:32">
+      <c r="AG7" s="10"/>
+    </row>
+    <row r="8" spans="2:33">
       <c r="B8" s="6" t="s">
         <v>346</v>
       </c>
@@ -5202,69 +5257,72 @@
       <c r="D8" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="6">
         <v>1</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="10">
         <v>1</v>
       </c>
       <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
         <v>7</v>
       </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="6">
+      <c r="I8" s="39"/>
+      <c r="J8" s="6">
         <v>12</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="10"/>
+      <c r="K8" s="37"/>
       <c r="L8" s="10"/>
-      <c r="M8" s="6">
+      <c r="M8" s="10"/>
+      <c r="N8" s="6">
         <v>225</v>
       </c>
-      <c r="N8" s="24">
+      <c r="O8" s="24">
         <v>11</v>
       </c>
-      <c r="O8" s="5">
+      <c r="P8" s="5">
         <v>89818346175</v>
       </c>
-      <c r="P8" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="R8" s="11">
         <v>38137</v>
       </c>
-      <c r="R8" s="25" t="s">
-        <v>543</v>
-      </c>
-      <c r="S8" s="5">
+      <c r="S8" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="T8" s="5">
         <v>4018085917</v>
       </c>
-      <c r="T8" s="10"/>
-      <c r="U8" s="6" t="s">
-        <v>573</v>
-      </c>
+      <c r="U8" s="10"/>
       <c r="V8" s="6" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="W8" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="X8" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="X8" s="5">
+      <c r="Y8" s="5">
         <v>89117966505</v>
       </c>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="10"/>
+      <c r="Z8" s="6"/>
       <c r="AA8" s="10"/>
       <c r="AB8" s="10"/>
       <c r="AC8" s="10"/>
-      <c r="AD8" s="25" t="str">
-        <f>CONCATENATE(U8," ",V8," ",W8)</f>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="25" t="str">
+        <f>CONCATENATE(V8," ",W8," ",X8)</f>
         <v>Пасько Ольга Владимировна</v>
       </c>
-      <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
-    </row>
-    <row r="9" spans="2:30">
+      <c r="AG8" s="10"/>
+    </row>
+    <row r="9" spans="2:31">
       <c r="B9" s="6" t="s">
         <v>351</v>
       </c>
@@ -5274,62 +5332,65 @@
       <c r="D9" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="6">
         <v>1</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="25">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
         <v>5</v>
       </c>
-      <c r="G9" s="6">
+      <c r="H9" s="6">
         <v>9</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9" s="6">
         <v>8</v>
       </c>
-      <c r="I9" s="6">
+      <c r="J9" s="6">
         <v>6</v>
       </c>
-      <c r="J9" s="37"/>
-      <c r="M9" s="5">
+      <c r="K9" s="37"/>
+      <c r="N9" s="5">
         <v>441</v>
       </c>
-      <c r="N9" s="24">
+      <c r="O9" s="24">
         <v>8</v>
       </c>
-      <c r="O9" s="6">
+      <c r="P9" s="6">
         <v>89213354865</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="Q9" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="R9" s="11">
         <v>39166</v>
       </c>
-      <c r="R9" s="25" t="s">
-        <v>543</v>
-      </c>
-      <c r="S9" s="6">
+      <c r="S9" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="T9" s="6">
         <v>4020831130</v>
       </c>
-      <c r="U9" s="6" t="s">
+      <c r="V9" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="V9" s="6" t="s">
-        <v>574</v>
-      </c>
       <c r="W9" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="X9" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="X9" s="6">
-        <v>79522270284</v>
-      </c>
-      <c r="Y9" s="6"/>
-      <c r="AD9" s="25" t="str">
-        <f>CONCATENATE(U9," ",V9," ",W9)</f>
+      <c r="Y9" s="6">
+        <v>9522270284</v>
+      </c>
+      <c r="Z9" s="6"/>
+      <c r="AE9" s="25" t="str">
+        <f>CONCATENATE(V9," ",W9," ",X9)</f>
         <v>Ершова Ирина Алексеевна</v>
       </c>
     </row>
-    <row r="10" spans="2:30">
+    <row r="10" spans="2:31">
       <c r="B10" s="15" t="s">
         <v>356</v>
       </c>
@@ -5339,60 +5400,61 @@
       <c r="D10" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="15"/>
+      <c r="F10" s="25">
         <v>1</v>
       </c>
-      <c r="F10" s="15">
+      <c r="G10" s="15">
         <v>11</v>
       </c>
-      <c r="G10" s="20">
+      <c r="H10" s="20">
         <v>3</v>
       </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="25">
+      <c r="I10" s="38"/>
+      <c r="J10" s="25">
         <v>16</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="M10" s="24">
+      <c r="K10" s="37"/>
+      <c r="N10" s="24">
         <v>56</v>
       </c>
-      <c r="N10" s="24">
+      <c r="O10" s="24">
         <v>9</v>
       </c>
-      <c r="O10" s="14">
+      <c r="P10" s="14">
         <v>89214136722</v>
       </c>
-      <c r="P10" s="15" t="s">
+      <c r="Q10" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="R10" s="13">
         <v>38917</v>
       </c>
-      <c r="R10" s="25" t="s">
-        <v>543</v>
-      </c>
-      <c r="S10" s="20">
+      <c r="S10" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="T10" s="20">
         <v>4002634542</v>
       </c>
-      <c r="U10" s="15" t="s">
-        <v>575</v>
-      </c>
       <c r="V10" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="W10" s="15" t="s">
         <v>383</v>
       </c>
-      <c r="W10" s="15" t="s">
+      <c r="X10" s="15" t="s">
         <v>384</v>
       </c>
-      <c r="X10" s="15">
-        <v>9533722040</v>
-      </c>
-      <c r="Y10" s="15"/>
-      <c r="AD10" s="25" t="str">
-        <f>CONCATENATE(U10," ",V10," ",W10)</f>
+      <c r="Y10" s="15">
+        <v>9219312294</v>
+      </c>
+      <c r="Z10" s="15"/>
+      <c r="AE10" s="25" t="str">
+        <f>CONCATENATE(V10," ",W10," ",X10)</f>
         <v>Иванова Мария Владимировна</v>
       </c>
     </row>
-    <row r="11" spans="2:32">
+    <row r="11" spans="2:33">
       <c r="B11" s="6" t="s">
         <v>361</v>
       </c>
@@ -5402,77 +5464,80 @@
       <c r="D11" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="6">
         <v>1</v>
       </c>
-      <c r="F11" s="6">
-        <v>6</v>
+      <c r="F11" s="10">
+        <v>1</v>
       </c>
       <c r="G11" s="6">
         <v>6</v>
       </c>
       <c r="H11" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I11" s="6">
         <v>4</v>
       </c>
-      <c r="J11" s="37"/>
-      <c r="K11" s="10"/>
+      <c r="J11" s="6">
+        <v>4</v>
+      </c>
+      <c r="K11" s="37"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="10"/>
+      <c r="N11" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="N11" s="6">
+      <c r="O11" s="6">
         <v>5</v>
       </c>
-      <c r="O11" s="6">
+      <c r="P11" s="6">
         <v>89219845986</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="Q11" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="R11" s="12">
         <v>40363</v>
       </c>
-      <c r="R11" s="25" t="s">
-        <v>550</v>
-      </c>
-      <c r="S11" s="6" t="s">
+      <c r="S11" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="T11" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="T11" s="46" t="s">
-        <v>576</v>
-      </c>
-      <c r="U11" s="6" t="s">
-        <v>577</v>
+      <c r="U11" s="45" t="s">
+        <v>578</v>
       </c>
       <c r="V11" s="6" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="W11" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="X11" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="X11" s="45" t="s">
-        <v>579</v>
-      </c>
-      <c r="Y11" s="31" t="s">
-        <v>563</v>
-      </c>
-      <c r="Z11" s="6" t="s">
-        <v>580</v>
-      </c>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="10"/>
+      <c r="Y11" s="48" t="s">
+        <v>581</v>
+      </c>
+      <c r="Z11" s="31" t="s">
+        <v>564</v>
+      </c>
+      <c r="AA11" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="AB11" s="31"/>
       <c r="AC11" s="10"/>
-      <c r="AD11" s="25" t="str">
-        <f>CONCATENATE(U11," ",V11," ",W11)</f>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="25" t="str">
+        <f>CONCATENATE(V11," ",W11," ",X11)</f>
         <v>Киселева Марина Игоревна</v>
       </c>
-      <c r="AE11" s="10"/>
       <c r="AF11" s="10"/>
-    </row>
-    <row r="12" spans="2:32">
+      <c r="AG11" s="10"/>
+    </row>
+    <row r="12" spans="2:33">
       <c r="B12" s="6" t="s">
         <v>368</v>
       </c>
@@ -5482,73 +5547,76 @@
       <c r="D12" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="6">
         <v>1</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="10">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
         <v>12</v>
       </c>
-      <c r="G12" s="6">
+      <c r="H12" s="6">
         <v>10</v>
       </c>
-      <c r="H12" s="38">
+      <c r="I12" s="39">
         <v>15</v>
       </c>
-      <c r="I12" s="20">
+      <c r="J12" s="20">
         <v>15</v>
       </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="10"/>
+      <c r="K12" s="37"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="5">
+      <c r="M12" s="10"/>
+      <c r="N12" s="5">
         <v>504</v>
       </c>
-      <c r="N12" s="24">
+      <c r="O12" s="24">
         <v>11</v>
       </c>
-      <c r="O12" s="5">
+      <c r="P12" s="5">
         <v>89111652301</v>
       </c>
-      <c r="P12" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="Q12" s="11">
+      <c r="Q12" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="R12" s="11">
         <v>38434</v>
       </c>
-      <c r="R12" s="25" t="s">
-        <v>543</v>
-      </c>
-      <c r="S12" s="5">
+      <c r="S12" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="T12" s="5">
         <v>4018287872</v>
       </c>
-      <c r="T12" s="10"/>
-      <c r="U12" s="6" t="s">
+      <c r="U12" s="10"/>
+      <c r="V12" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="V12" s="6" t="s">
+      <c r="W12" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="W12" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="X12" s="5">
+      <c r="X12" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="Y12" s="5">
         <v>89817910834</v>
       </c>
-      <c r="Y12" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="Z12" s="10"/>
+      <c r="Z12" s="6" t="s">
+        <v>585</v>
+      </c>
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
       <c r="AC12" s="10"/>
-      <c r="AD12" s="25" t="str">
-        <f>CONCATENATE(U12," ",V12," ",W12)</f>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="25" t="str">
+        <f>CONCATENATE(V12," ",W12," ",X12)</f>
         <v>Кудряшов Андрей Николаевич</v>
       </c>
-      <c r="AE12" s="10"/>
       <c r="AF12" s="10"/>
-    </row>
-    <row r="13" hidden="1" spans="2:25">
+      <c r="AG12" s="10"/>
+    </row>
+    <row r="13" spans="2:26">
       <c r="B13" s="6" t="s">
         <v>426</v>
       </c>
@@ -5558,56 +5626,59 @@
       <c r="D13" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="F13" s="6">
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6">
         <v>3</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6">
+      <c r="H13" s="6"/>
+      <c r="I13" s="6">
         <v>9</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="M13" s="6">
+      <c r="J13" s="6"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="N13" s="6">
         <v>49</v>
       </c>
-      <c r="N13" s="24">
+      <c r="O13" s="24">
         <v>7</v>
       </c>
-      <c r="O13" s="5">
+      <c r="P13" s="5">
         <v>89259175393</v>
       </c>
-      <c r="P13" s="6" t="s">
+      <c r="Q13" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="R13" s="11">
+        <v>39581</v>
+      </c>
+      <c r="S13" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="T13" s="46" t="s">
+        <v>430</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="W13" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="X13" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="Q13" s="11">
-        <v>39581</v>
-      </c>
-      <c r="R13" s="25" t="s">
-        <v>550</v>
-      </c>
-      <c r="S13" s="47" t="s">
-        <v>430</v>
-      </c>
-      <c r="U13" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="V13" s="6" t="s">
-        <v>586</v>
-      </c>
-      <c r="W13" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="X13" s="5">
+      <c r="Y13" s="5">
         <v>89165382822</v>
       </c>
-      <c r="Y13" s="6" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="14" hidden="1" spans="2:32">
+      <c r="Z13" s="6" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="14" spans="2:33">
       <c r="B14" s="6" t="s">
         <v>431</v>
       </c>
@@ -5617,72 +5688,73 @@
       <c r="D14" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="6">
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="6">
         <v>23</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6">
+      <c r="H14" s="6"/>
+      <c r="I14" s="6">
         <v>1</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="6" t="s">
+      <c r="J14" s="6"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c r="N14" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="N14" s="6">
+      <c r="O14" s="6">
         <v>6</v>
       </c>
-      <c r="O14" s="6">
+      <c r="P14" s="6">
         <v>89218718088</v>
       </c>
-      <c r="P14" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q14" s="12">
+      <c r="Q14" s="6"/>
+      <c r="R14" s="12">
         <v>39916</v>
       </c>
-      <c r="R14" s="25" t="s">
-        <v>550</v>
-      </c>
-      <c r="S14" s="48" t="s">
+      <c r="S14" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="T14" s="47" t="s">
         <v>435</v>
       </c>
-      <c r="T14" s="6" t="s">
-        <v>588</v>
-      </c>
       <c r="U14" s="6" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="V14" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="W14" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="W14" s="6" t="s">
+      <c r="X14" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="X14" s="45">
+      <c r="Y14" s="48">
         <v>79213290657</v>
       </c>
-      <c r="Y14" s="31" t="s">
-        <v>563</v>
-      </c>
-      <c r="Z14" s="6" t="s">
-        <v>590</v>
+      <c r="Z14" s="31" t="s">
+        <v>564</v>
       </c>
       <c r="AA14" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="AB14" s="10"/>
+        <v>592</v>
+      </c>
+      <c r="AB14" s="6" t="s">
+        <v>593</v>
+      </c>
       <c r="AC14" s="10"/>
       <c r="AD14" s="10"/>
       <c r="AE14" s="10"/>
       <c r="AF14" s="10"/>
-    </row>
-    <row r="15" hidden="1" spans="2:25">
+      <c r="AG14" s="10"/>
+    </row>
+    <row r="15" spans="2:26">
       <c r="B15" s="20" t="s">
         <v>436</v>
       </c>
@@ -5692,51 +5764,57 @@
       <c r="D15" s="20" t="s">
         <v>437</v>
       </c>
-      <c r="F15" s="15">
+      <c r="E15" s="20">
+        <v>1</v>
+      </c>
+      <c r="G15" s="15">
         <v>19</v>
       </c>
-      <c r="G15" s="39"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="38"/>
       <c r="I15" s="20"/>
-      <c r="J15" s="14">
+      <c r="J15" s="20"/>
+      <c r="K15" s="14">
         <v>1</v>
       </c>
-      <c r="M15" s="15">
+      <c r="L15" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="N15" s="15">
         <v>30</v>
       </c>
-      <c r="N15" s="15">
+      <c r="O15" s="15">
         <v>8</v>
       </c>
-      <c r="O15" s="41">
+      <c r="P15" s="40">
         <v>89219583612</v>
       </c>
-      <c r="P15" s="18" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q15" s="16">
+      <c r="Q15" s="18" t="s">
+        <v>595</v>
+      </c>
+      <c r="R15" s="16">
         <v>38933</v>
       </c>
-      <c r="R15" s="25" t="s">
-        <v>543</v>
-      </c>
-      <c r="S15" s="10">
+      <c r="S15" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="T15" s="10">
         <v>4020668443</v>
       </c>
-      <c r="U15" s="18" t="s">
-        <v>592</v>
-      </c>
       <c r="V15" s="18" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="W15" s="18" t="s">
+        <v>597</v>
+      </c>
+      <c r="X15" s="18" t="s">
         <v>405</v>
       </c>
-      <c r="X15" s="18">
+      <c r="Y15" s="18">
         <v>89213827100</v>
       </c>
-      <c r="Y15" s="15"/>
-    </row>
-    <row r="16" spans="2:32">
+      <c r="Z15" s="15"/>
+    </row>
+    <row r="16" spans="2:33">
       <c r="B16" s="6" t="s">
         <v>372</v>
       </c>
@@ -5746,73 +5824,76 @@
       <c r="D16" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="6">
         <v>1</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="10">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6">
         <v>9</v>
       </c>
-      <c r="G16" s="6">
+      <c r="H16" s="6">
         <v>11</v>
       </c>
-      <c r="H16" s="6">
+      <c r="I16" s="6">
         <v>10</v>
       </c>
-      <c r="I16" s="6">
+      <c r="J16" s="6">
         <v>8</v>
       </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="10"/>
+      <c r="K16" s="37"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="5">
+      <c r="M16" s="10"/>
+      <c r="N16" s="5">
         <v>518</v>
       </c>
-      <c r="N16" s="24">
+      <c r="O16" s="24">
         <v>6</v>
       </c>
-      <c r="O16" s="5">
+      <c r="P16" s="5">
         <v>89313127300</v>
       </c>
-      <c r="P16" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="Q16" s="11">
+      <c r="Q16" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="R16" s="11">
         <v>40070</v>
       </c>
-      <c r="R16" s="25" t="s">
-        <v>550</v>
-      </c>
-      <c r="S16" s="6" t="s">
+      <c r="S16" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="T16" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="T16" s="10"/>
-      <c r="U16" s="6" t="s">
-        <v>595</v>
-      </c>
+      <c r="U16" s="10"/>
       <c r="V16" s="6" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="W16" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="X16" s="5">
+        <v>600</v>
+      </c>
+      <c r="X16" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y16" s="5">
         <v>89213409406</v>
       </c>
-      <c r="Y16" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="Z16" s="10"/>
+      <c r="Z16" s="6" t="s">
+        <v>585</v>
+      </c>
       <c r="AA16" s="10"/>
       <c r="AB16" s="10"/>
       <c r="AC16" s="10"/>
-      <c r="AD16" s="25" t="str">
-        <f>CONCATENATE(U16," ",V16," ",W16)</f>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="25" t="str">
+        <f>CONCATENATE(V16," ",W16," ",X16)</f>
         <v>островская любовь юрьевна</v>
       </c>
-      <c r="AE16" s="10"/>
       <c r="AF16" s="10"/>
-    </row>
-    <row r="17" spans="2:30">
+      <c r="AG16" s="10"/>
+    </row>
+    <row r="17" spans="2:31">
       <c r="B17" s="6" t="s">
         <v>378</v>
       </c>
@@ -5822,64 +5903,67 @@
       <c r="D17" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="6">
         <v>1</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="25">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
         <v>8</v>
       </c>
-      <c r="G17" s="6">
+      <c r="H17" s="6">
         <v>12</v>
       </c>
-      <c r="H17" s="6">
+      <c r="I17" s="6">
         <v>11</v>
       </c>
-      <c r="I17" s="6">
+      <c r="J17" s="6">
         <v>2</v>
       </c>
-      <c r="J17" s="37"/>
-      <c r="M17" s="5">
+      <c r="K17" s="37"/>
+      <c r="N17" s="5">
         <v>183</v>
       </c>
-      <c r="N17" s="24">
+      <c r="O17" s="24">
         <v>8</v>
       </c>
-      <c r="O17" s="5">
+      <c r="P17" s="5">
         <v>89610752525</v>
       </c>
-      <c r="P17" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q17" s="11">
+      <c r="Q17" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="R17" s="11">
         <v>39331</v>
       </c>
-      <c r="R17" s="25" t="s">
-        <v>543</v>
-      </c>
-      <c r="S17" s="47">
+      <c r="S17" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="T17" s="46">
         <v>4021966729</v>
       </c>
-      <c r="U17" s="6" t="s">
-        <v>598</v>
-      </c>
       <c r="V17" s="6" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="W17" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="X17" s="5">
+        <v>597</v>
+      </c>
+      <c r="X17" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="Y17" s="5">
         <v>89610717771</v>
       </c>
-      <c r="Y17" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="AD17" s="25" t="str">
-        <f>CONCATENATE(U17," ",V17," ",W17)</f>
+      <c r="Z17" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="AE17" s="25" t="str">
+        <f>CONCATENATE(V17," ",W17," ",X17)</f>
         <v>Попова Юлия Юрьевна</v>
       </c>
     </row>
-    <row r="18" spans="2:30">
+    <row r="18" spans="2:31">
       <c r="B18" s="20" t="s">
         <v>382</v>
       </c>
@@ -5889,62 +5973,63 @@
       <c r="D18" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="20"/>
+      <c r="F18" s="25">
         <v>1</v>
       </c>
-      <c r="F18" s="6">
+      <c r="G18" s="6">
         <v>2</v>
       </c>
-      <c r="G18" s="20">
+      <c r="H18" s="20">
         <v>15</v>
       </c>
-      <c r="H18" s="20">
+      <c r="I18" s="20">
         <v>12</v>
       </c>
-      <c r="I18" s="20">
+      <c r="J18" s="20">
         <v>9</v>
       </c>
-      <c r="J18" s="37"/>
-      <c r="M18" s="20">
+      <c r="K18" s="37"/>
+      <c r="N18" s="20">
         <v>586</v>
       </c>
-      <c r="N18" s="24">
+      <c r="O18" s="24">
         <v>9</v>
       </c>
-      <c r="O18" s="20">
+      <c r="P18" s="20">
         <v>89818723635</v>
       </c>
-      <c r="P18" s="20" t="s">
+      <c r="Q18" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="Q18" s="19">
+      <c r="R18" s="19">
         <v>38982</v>
       </c>
-      <c r="R18" s="25" t="s">
-        <v>543</v>
-      </c>
-      <c r="S18" s="15">
+      <c r="S18" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="T18" s="15">
         <v>4020691039</v>
       </c>
-      <c r="U18" s="20" t="s">
+      <c r="V18" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="V18" s="20" t="s">
+      <c r="W18" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="W18" s="20" t="s">
-        <v>601</v>
-      </c>
-      <c r="X18" s="20">
+      <c r="X18" s="20" t="s">
+        <v>606</v>
+      </c>
+      <c r="Y18" s="20">
         <v>9818417041</v>
       </c>
-      <c r="Y18" s="15"/>
-      <c r="AD18" s="25" t="str">
-        <f>CONCATENATE(U18," ",V18," ",W18)</f>
+      <c r="Z18" s="15"/>
+      <c r="AE18" s="25" t="str">
+        <f>CONCATENATE(V18," ",W18," ",X18)</f>
         <v>Сайчик Татьяна Борисовна</v>
       </c>
     </row>
-    <row r="19" hidden="1" spans="2:32">
+    <row r="19" spans="2:33">
       <c r="B19" s="6" t="s">
         <v>439</v>
       </c>
@@ -5954,68 +6039,71 @@
       <c r="D19" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="6">
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="6">
         <v>15</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="L19" s="10"/>
-      <c r="M19" s="6">
+      <c r="H19" s="6"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c r="N19" s="6">
         <v>555</v>
       </c>
-      <c r="N19" s="6">
+      <c r="O19" s="6">
         <v>6</v>
       </c>
-      <c r="O19" s="6">
+      <c r="P19" s="6">
         <v>89200043637</v>
       </c>
-      <c r="P19" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="Q19" s="12">
+      <c r="Q19" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="R19" s="12">
         <v>39810</v>
       </c>
-      <c r="R19" s="25" t="s">
-        <v>550</v>
-      </c>
-      <c r="S19" s="6" t="s">
+      <c r="S19" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="T19" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="T19" s="10" t="s">
-        <v>604</v>
-      </c>
-      <c r="U19" s="6" t="s">
-        <v>605</v>
+      <c r="U19" s="10" t="s">
+        <v>608</v>
       </c>
       <c r="V19" s="6" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="W19" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="X19" s="45" t="s">
-        <v>608</v>
-      </c>
-      <c r="Y19" s="31" t="s">
-        <v>563</v>
-      </c>
-      <c r="Z19" s="6" t="s">
-        <v>609</v>
-      </c>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="10"/>
+        <v>610</v>
+      </c>
+      <c r="X19" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y19" s="48" t="s">
+        <v>612</v>
+      </c>
+      <c r="Z19" s="31" t="s">
+        <v>564</v>
+      </c>
+      <c r="AA19" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="AB19" s="31"/>
       <c r="AC19" s="10"/>
       <c r="AD19" s="10"/>
       <c r="AE19" s="10"/>
       <c r="AF19" s="10"/>
-    </row>
-    <row r="20" spans="2:32">
+      <c r="AG19" s="10"/>
+    </row>
+    <row r="20" spans="2:33">
       <c r="B20" s="6" t="s">
         <v>387</v>
       </c>
@@ -6025,69 +6113,72 @@
       <c r="D20" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="6">
         <v>1</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="10">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6">
         <v>14</v>
       </c>
-      <c r="G20" s="6">
+      <c r="H20" s="6">
         <v>1</v>
       </c>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="10"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="37"/>
       <c r="L20" s="10"/>
-      <c r="M20" s="5">
+      <c r="M20" s="10"/>
+      <c r="N20" s="5">
         <v>64</v>
       </c>
-      <c r="N20" s="24">
+      <c r="O20" s="24">
         <v>6</v>
       </c>
-      <c r="O20" s="5">
+      <c r="P20" s="5">
         <v>89633411161</v>
       </c>
-      <c r="P20" s="6" t="s">
+      <c r="Q20" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="Q20" s="11">
+      <c r="R20" s="11">
         <v>40195</v>
       </c>
-      <c r="R20" s="25" t="s">
-        <v>550</v>
-      </c>
-      <c r="S20" s="6" t="s">
+      <c r="S20" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="T20" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="T20" s="10"/>
-      <c r="U20" s="6" t="s">
+      <c r="U20" s="10"/>
+      <c r="V20" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="V20" s="6" t="s">
-        <v>578</v>
-      </c>
       <c r="W20" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="X20" s="5">
+        <v>580</v>
+      </c>
+      <c r="X20" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y20" s="5">
         <v>89657737525</v>
       </c>
-      <c r="Y20" s="6" t="s">
-        <v>611</v>
-      </c>
-      <c r="Z20" s="10"/>
+      <c r="Z20" s="6" t="s">
+        <v>615</v>
+      </c>
       <c r="AA20" s="10"/>
       <c r="AB20" s="10"/>
       <c r="AC20" s="10"/>
-      <c r="AD20" s="25" t="str">
-        <f t="shared" ref="AD20:AD27" si="0">CONCATENATE(U20," ",V20," ",W20)</f>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="25" t="str">
+        <f>CONCATENATE(V20," ",W20," ",X20)</f>
         <v>Федорова Марина Александровна</v>
       </c>
-      <c r="AE20" s="10"/>
       <c r="AF20" s="10"/>
-    </row>
-    <row r="21" s="37" customFormat="1" ht="15.15" spans="1:32">
+      <c r="AG20" s="10"/>
+    </row>
+    <row r="21" s="37" customFormat="1" ht="15.15" spans="1:33">
       <c r="A21" s="14"/>
       <c r="B21" s="6" t="s">
         <v>393</v>
@@ -6098,78 +6189,81 @@
       <c r="D21" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="6">
         <v>1</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="10">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6">
         <v>7</v>
       </c>
-      <c r="G21" s="6">
+      <c r="H21" s="6">
         <v>14</v>
       </c>
-      <c r="H21" s="6">
+      <c r="I21" s="6">
         <v>2</v>
       </c>
-      <c r="I21" s="6">
+      <c r="J21" s="6">
         <v>11</v>
       </c>
-      <c r="K21" s="10"/>
       <c r="L21" s="10"/>
-      <c r="M21" s="6" t="s">
+      <c r="M21" s="10"/>
+      <c r="N21" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="N21" s="6">
+      <c r="O21" s="6">
         <v>7</v>
       </c>
-      <c r="O21" s="6">
+      <c r="P21" s="6">
         <v>89817032760</v>
       </c>
-      <c r="P21" s="6" t="s">
-        <v>612</v>
-      </c>
-      <c r="Q21" s="12">
+      <c r="Q21" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="R21" s="12">
         <v>39529</v>
       </c>
-      <c r="R21" s="25" t="s">
-        <v>550</v>
-      </c>
-      <c r="S21" s="6" t="s">
+      <c r="S21" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="T21" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="T21" s="10" t="s">
-        <v>613</v>
-      </c>
-      <c r="U21" s="6" t="s">
+      <c r="U21" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="V21" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="V21" s="6" t="s">
-        <v>614</v>
-      </c>
       <c r="W21" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="X21" s="45" t="s">
-        <v>615</v>
-      </c>
-      <c r="Y21" s="31" t="s">
-        <v>563</v>
-      </c>
-      <c r="Z21" s="6" t="s">
-        <v>616</v>
+        <v>618</v>
+      </c>
+      <c r="X21" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y21" s="48" t="s">
+        <v>619</v>
+      </c>
+      <c r="Z21" s="31" t="s">
+        <v>564</v>
       </c>
       <c r="AA21" s="6" t="s">
-        <v>617</v>
-      </c>
-      <c r="AB21" s="10"/>
+        <v>620</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>621</v>
+      </c>
       <c r="AC21" s="10"/>
-      <c r="AD21" s="25" t="str">
-        <f t="shared" si="0"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="25" t="str">
+        <f>CONCATENATE(V21," ",W21," ",X21)</f>
         <v>Шеламова Галина Анатольевна</v>
       </c>
-      <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
-    </row>
-    <row r="22" ht="15.15" spans="2:32">
+      <c r="AG21" s="10"/>
+    </row>
+    <row r="22" spans="2:33">
       <c r="B22" s="24" t="s">
         <v>399</v>
       </c>
@@ -6179,63 +6273,66 @@
       <c r="D22" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="24">
         <v>1</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="10">
+        <v>1</v>
+      </c>
+      <c r="G22" s="25">
         <v>17</v>
       </c>
-      <c r="G22" s="24">
+      <c r="H22" s="24">
         <v>2</v>
       </c>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="10"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="37"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="24"/>
+      <c r="M22" s="10"/>
       <c r="N22" s="24"/>
-      <c r="O22" s="23">
-        <v>89213026506</v>
-      </c>
-      <c r="P22" s="24" t="s">
+      <c r="O22" s="24"/>
+      <c r="P22" s="23" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q22" s="24" t="s">
         <v>401</v>
       </c>
-      <c r="Q22" s="22">
+      <c r="R22" s="22">
         <v>38989</v>
       </c>
-      <c r="R22" s="25" t="s">
-        <v>543</v>
-      </c>
-      <c r="S22" s="8">
+      <c r="S22" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="T22" s="8">
         <v>4020684651</v>
       </c>
-      <c r="T22" s="10"/>
-      <c r="U22" s="24" t="s">
-        <v>618</v>
-      </c>
+      <c r="U22" s="10"/>
       <c r="V22" s="24" t="s">
+        <v>623</v>
+      </c>
+      <c r="W22" s="24" t="s">
         <v>352</v>
       </c>
-      <c r="W22" s="24" t="s">
-        <v>610</v>
-      </c>
-      <c r="X22" s="49" t="s">
-        <v>619</v>
-      </c>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="10"/>
+      <c r="X22" s="24" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y22" s="49" t="s">
+        <v>624</v>
+      </c>
+      <c r="Z22" s="15"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="10"/>
       <c r="AC22" s="10"/>
-      <c r="AD22" s="25" t="str">
-        <f t="shared" si="0"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="25" t="str">
+        <f>CONCATENATE(V22," ",W22," ",X22)</f>
         <v>Шилонцева Татьяна Александровна</v>
       </c>
-      <c r="AE22" s="10"/>
       <c r="AF22" s="10"/>
-    </row>
-    <row r="23" spans="2:32">
+      <c r="AG22" s="10"/>
+    </row>
+    <row r="23" spans="2:33">
       <c r="B23" s="6" t="s">
         <v>403</v>
       </c>
@@ -6245,79 +6342,82 @@
       <c r="D23" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="6">
         <v>1</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="10">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6">
         <v>20</v>
       </c>
-      <c r="G23" s="6">
+      <c r="H23" s="6">
         <v>4</v>
       </c>
-      <c r="H23" s="6">
+      <c r="I23" s="6">
         <v>14</v>
       </c>
-      <c r="I23" s="6">
+      <c r="J23" s="6">
         <v>5</v>
       </c>
-      <c r="J23" s="37"/>
-      <c r="K23" s="10"/>
+      <c r="K23" s="37"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="6">
+      <c r="M23" s="10"/>
+      <c r="N23" s="6">
         <v>43</v>
       </c>
-      <c r="N23" s="6">
+      <c r="O23" s="6">
         <v>6</v>
       </c>
-      <c r="O23" s="6">
+      <c r="P23" s="6">
         <v>89819793731</v>
       </c>
-      <c r="P23" s="6" t="s">
+      <c r="Q23" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="Q23" s="12">
+      <c r="R23" s="12">
         <v>39987</v>
       </c>
-      <c r="R23" s="25" t="s">
-        <v>550</v>
-      </c>
-      <c r="S23" s="6" t="s">
+      <c r="S23" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="T23" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="T23" s="10" t="s">
-        <v>620</v>
-      </c>
-      <c r="U23" s="6" t="s">
-        <v>621</v>
+      <c r="U23" s="10" t="s">
+        <v>625</v>
       </c>
       <c r="V23" s="6" t="s">
-        <v>574</v>
+        <v>626</v>
       </c>
       <c r="W23" s="6" t="s">
-        <v>622</v>
-      </c>
-      <c r="X23" s="45" t="s">
-        <v>623</v>
-      </c>
-      <c r="Y23" s="31" t="s">
-        <v>563</v>
-      </c>
-      <c r="Z23" s="6" t="s">
-        <v>624</v>
+        <v>576</v>
+      </c>
+      <c r="X23" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="Y23" s="48" t="s">
+        <v>628</v>
+      </c>
+      <c r="Z23" s="31" t="s">
+        <v>564</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>624</v>
-      </c>
-      <c r="AB23" s="10"/>
+        <v>629</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>629</v>
+      </c>
       <c r="AC23" s="10"/>
-      <c r="AD23" s="25" t="str">
-        <f t="shared" si="0"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="25" t="str">
+        <f>CONCATENATE(V23," ",W23," ",X23)</f>
         <v>Шишкина  Ирина Викторовна</v>
       </c>
-      <c r="AE23" s="10"/>
       <c r="AF23" s="10"/>
-    </row>
-    <row r="24" spans="2:30">
+      <c r="AG23" s="10"/>
+    </row>
+    <row r="24" spans="2:31">
       <c r="B24" s="6" t="s">
         <v>403</v>
       </c>
@@ -6327,208 +6427,188 @@
       <c r="D24" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="6">
         <v>1</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="25">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6">
         <v>18</v>
       </c>
-      <c r="G24" s="25">
+      <c r="H24" s="25">
         <v>8</v>
       </c>
-      <c r="H24" s="6">
+      <c r="I24" s="6">
         <v>13</v>
       </c>
-      <c r="I24" s="6">
+      <c r="J24" s="6">
         <v>10</v>
       </c>
-      <c r="J24" s="37"/>
-      <c r="M24" s="5">
+      <c r="K24" s="37"/>
+      <c r="N24" s="5">
         <v>246</v>
       </c>
-      <c r="N24" s="24">
+      <c r="O24" s="24">
         <v>11</v>
       </c>
-      <c r="O24" s="5">
+      <c r="P24" s="5">
         <v>89312711134</v>
       </c>
-      <c r="P24" s="6" t="s">
+      <c r="Q24" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="R24" s="11">
         <v>38070</v>
       </c>
-      <c r="R24" s="25" t="s">
-        <v>543</v>
-      </c>
-      <c r="S24" s="5">
+      <c r="S24" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="T24" s="5">
         <v>4018029738</v>
       </c>
-      <c r="U24" s="6" t="s">
-        <v>625</v>
-      </c>
       <c r="V24" s="6" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="W24" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="X24" s="5">
+        <v>631</v>
+      </c>
+      <c r="X24" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="Y24" s="5">
         <v>89218717677</v>
       </c>
-      <c r="Y24" s="6" t="s">
-        <v>628</v>
-      </c>
-      <c r="AD24" s="25" t="str">
-        <f t="shared" si="0"/>
+      <c r="Z24" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="AE24" s="25" t="str">
+        <f>CONCATENATE(V24," ",W24," ",X24)</f>
         <v>Шишкин Денис Витальевич</v>
       </c>
     </row>
-    <row r="25" spans="2:30">
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="37"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="15"/>
-      <c r="AD25" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>  </v>
-      </c>
-    </row>
-    <row r="26" spans="2:30">
-      <c r="B26" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>630</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>631</v>
-      </c>
-      <c r="F26" s="6">
+    <row r="25" spans="2:31">
+      <c r="B25" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="E25" s="6">
         <v>1</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="N25" s="6">
+        <v>12</v>
+      </c>
+      <c r="O25" s="24">
+        <v>7</v>
+      </c>
+      <c r="P25" s="6">
+        <v>89319803214</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="R25" s="11">
+        <v>39485</v>
+      </c>
+      <c r="T25" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="V25" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="W25" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="X25" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>89213132221</v>
+      </c>
+      <c r="Z25" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="AE25" s="25" t="str">
+        <f>CONCATENATE(V25," ",W25," ",X25)</f>
+        <v>Халтурин Михаил Дмитриевич</v>
+      </c>
+    </row>
+    <row r="29" spans="2:31">
+      <c r="B29" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="G29" s="6">
         <v>1</v>
       </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="37"/>
-      <c r="M26" s="6" t="s">
-        <v>632</v>
-      </c>
-      <c r="N26" s="24">
+      <c r="H29" s="6">
+        <v>1</v>
+      </c>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="37"/>
+      <c r="N29" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="O29" s="24">
         <v>7</v>
       </c>
-      <c r="O26" s="6">
+      <c r="P29" s="6">
         <v>89111291746</v>
       </c>
-      <c r="P26" s="6" t="s">
-        <v>633</v>
-      </c>
-      <c r="Q26" s="11">
+      <c r="Q29" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="R29" s="11">
         <v>39606</v>
       </c>
-      <c r="S26" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="U26" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="V26" s="6" t="s">
-        <v>635</v>
-      </c>
-      <c r="W26" s="6" t="s">
+      <c r="T29" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="V29" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="W29" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="X29" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="X26" s="6">
+      <c r="Y29" s="6">
         <v>79119331333</v>
       </c>
-      <c r="Y26" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="AD26" s="25" t="str">
-        <f t="shared" si="0"/>
+      <c r="Z29" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="AE29" s="25" t="str">
+        <f>CONCATENATE(V29," ",W29," ",X29)</f>
         <v>Богатушин Антон Игоревич</v>
       </c>
     </row>
-    <row r="27" spans="2:30">
-      <c r="B27" s="6" t="s">
-        <v>637</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>638</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>639</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="37"/>
-      <c r="M27" s="6">
-        <v>12</v>
-      </c>
-      <c r="N27" s="24">
-        <v>7</v>
-      </c>
-      <c r="O27" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="P27" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="Q27" s="11">
-        <v>39485</v>
-      </c>
-      <c r="S27" s="6" t="s">
-        <v>642</v>
-      </c>
-      <c r="U27" s="6" t="s">
-        <v>643</v>
-      </c>
-      <c r="V27" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="W27" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="X27" s="5">
-        <v>89213132221</v>
-      </c>
-      <c r="Y27" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="AD27" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>Халтурин Михаил Дмитриевич</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:Y24">
-    <filterColumn colId="4">
-      <customFilters>
-        <customFilter operator="equal" val="1"/>
-      </customFilters>
-    </filterColumn>
+  <autoFilter ref="A1:Z25">
     <extLst/>
   </autoFilter>
-  <sortState ref="B2:AE24">
+  <sortState ref="B2:AF24">
     <sortCondition ref="B2:B24"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6537,6 +6617,359 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="12.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="11.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="13.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="18.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:7">
+      <c r="C1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D1" t="s">
+        <v>650</v>
+      </c>
+      <c r="E1" t="s">
+        <v>651</v>
+      </c>
+      <c r="F1" t="s">
+        <v>652</v>
+      </c>
+      <c r="G1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F124"/>
@@ -6567,13 +7000,13 @@
         <v>303</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6590,7 +7023,7 @@
         <v>322</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F2" s="5">
         <v>4018281460</v>
@@ -6610,7 +7043,7 @@
         <v>39367</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F3" s="6">
         <v>4022050606</v>
@@ -6630,7 +7063,7 @@
         <v>39857</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>334</v>
@@ -6650,7 +7083,7 @@
         <v>38553</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F5" s="5">
         <v>4019397258</v>
@@ -6670,7 +7103,7 @@
         <v>39849</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>345</v>
@@ -6690,7 +7123,7 @@
         <v>39462</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>425</v>
@@ -6710,7 +7143,7 @@
         <v>38137</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F8" s="5">
         <v>4018085917</v>
@@ -6730,7 +7163,7 @@
         <v>39166</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F9" s="6">
         <v>4020831130</v>
@@ -6750,7 +7183,7 @@
         <v>38917</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F10" s="20">
         <v>4002634542</v>
@@ -6770,7 +7203,7 @@
         <v>40363</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>367</v>
@@ -6790,7 +7223,7 @@
         <v>38434</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F12" s="5">
         <v>4018287872</v>
@@ -6810,7 +7243,7 @@
         <v>39581</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>430</v>
@@ -6830,7 +7263,7 @@
         <v>39916</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F14" s="32" t="s">
         <v>435</v>
@@ -6850,7 +7283,7 @@
         <v>38933</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F15" s="6">
         <v>4020668443</v>
@@ -6870,7 +7303,7 @@
         <v>40070</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>377</v>
@@ -6890,7 +7323,7 @@
         <v>39331</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F17" s="6">
         <v>4021966729</v>
@@ -6910,7 +7343,7 @@
         <v>38982</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F18" s="20">
         <v>4020691039</v>
@@ -6930,7 +7363,7 @@
         <v>39810</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>443</v>
@@ -6950,7 +7383,7 @@
         <v>40195</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>392</v>
@@ -6970,7 +7403,7 @@
         <v>39529</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>398</v>
@@ -6990,7 +7423,7 @@
         <v>38989</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F22" s="5">
         <v>4020684651</v>
@@ -7010,7 +7443,7 @@
         <v>39987</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>408</v>
@@ -7030,7 +7463,7 @@
         <v>38070</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F24" s="5">
         <v>4018029738</v>
@@ -7054,19 +7487,19 @@
     </row>
     <row r="27" s="29" customFormat="1" ht="13.2" spans="1:4">
       <c r="A27" s="35" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="D27" s="36"/>
     </row>
     <row r="28" s="29" customFormat="1" ht="13.2" spans="1:4">
       <c r="A28" s="29" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="D28" s="36"/>
     </row>
@@ -7845,7 +8278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E145"/>
@@ -7865,25 +8298,25 @@
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>513</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>532</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="2" ht="15.15" spans="1:5">
       <c r="A2" s="4"/>
       <c r="B2" s="3" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>322</v>
@@ -7898,7 +8331,7 @@
     <row r="3" ht="15.15" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="C3" s="7">
         <v>39367</v>
@@ -7913,7 +8346,7 @@
     <row r="4" ht="15.15" spans="1:5">
       <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="C4" s="9">
         <v>39857</v>
@@ -7928,7 +8361,7 @@
     <row r="5" ht="15.15" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="C5" s="11">
         <v>38553</v>
@@ -7943,7 +8376,7 @@
     <row r="6" ht="15.15" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="3" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
       <c r="C6" s="12">
         <v>39849</v>
@@ -7958,7 +8391,7 @@
     <row r="7" ht="15.15" spans="1:5">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="C7" s="12">
         <v>39462</v>
@@ -7967,13 +8400,13 @@
         <v>9112625350</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="8" ht="15.15" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="3" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="C8" s="11">
         <v>38137</v>
@@ -7988,7 +8421,7 @@
     <row r="9" ht="15.15" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="C9" s="11">
         <v>39166</v>
@@ -8003,7 +8436,7 @@
     <row r="10" ht="15.15" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
       <c r="C10" s="13">
         <v>38917</v>
@@ -8018,7 +8451,7 @@
     <row r="11" ht="15.15" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="C11" s="12">
         <v>40363</v>
@@ -8033,7 +8466,7 @@
     <row r="12" ht="15.15" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="C12" s="11">
         <v>38434</v>
@@ -8042,13 +8475,13 @@
         <v>9111652301</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="13" ht="15.15" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="C13" s="11">
         <v>39581</v>
@@ -8057,13 +8490,13 @@
         <v>9259175393</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="14" ht="15.15" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="C14" s="12">
         <v>39916</v>
@@ -8078,7 +8511,7 @@
     <row r="15" ht="15.15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="C15" s="16">
         <v>38933</v>
@@ -8093,7 +8526,7 @@
     <row r="16" ht="15.15" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="C16" s="11">
         <v>40070</v>
@@ -8102,13 +8535,13 @@
         <v>9313127300</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="17" ht="15.15" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="C17" s="11">
         <v>39331</v>
@@ -8123,7 +8556,7 @@
     <row r="18" ht="15.15" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="C18" s="19">
         <v>38982</v>
@@ -8138,7 +8571,7 @@
     <row r="19" ht="15.15" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="C19" s="12">
         <v>39810</v>
@@ -8147,13 +8580,13 @@
         <v>9200043637</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
     </row>
     <row r="20" ht="15.15" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="3" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="C20" s="11">
         <v>40195</v>
@@ -8168,7 +8601,7 @@
     <row r="21" ht="15.15" spans="1:5">
       <c r="A21" s="21"/>
       <c r="B21" s="3" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="C21" s="12">
         <v>39529</v>
@@ -8183,7 +8616,7 @@
     <row r="22" ht="15.15" spans="1:5">
       <c r="A22" s="21"/>
       <c r="B22" s="3" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="C22" s="22">
         <v>38989</v>
@@ -8198,7 +8631,7 @@
     <row r="23" ht="15.15" spans="1:5">
       <c r="A23" s="21"/>
       <c r="B23" s="3" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="C23" s="12">
         <v>39987</v>
@@ -8213,7 +8646,7 @@
     <row r="24" ht="15.15" spans="1:5">
       <c r="A24" s="21"/>
       <c r="B24" s="3" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="C24" s="11">
         <v>38070</v>
@@ -8228,7 +8661,7 @@
     <row r="25" ht="15.15" spans="1:5">
       <c r="A25" s="21"/>
       <c r="B25" s="3" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="C25" s="11">
         <v>39606</v>
@@ -8237,13 +8670,13 @@
         <v>9111291746</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
     </row>
     <row r="26" ht="15.15" spans="1:5">
       <c r="A26" s="21"/>
       <c r="B26" s="3" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="C26" s="11">
         <v>39485</v>
@@ -8252,7 +8685,7 @@
         <v>9312244315</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>641</v>
+        <v>688</v>
       </c>
     </row>
     <row r="27" ht="15.15" spans="1:5">
@@ -8265,7 +8698,7 @@
     <row r="28" ht="15.15" spans="1:5">
       <c r="A28" s="21"/>
       <c r="B28" s="3" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="8"/>
@@ -8274,7 +8707,7 @@
     <row r="29" ht="15.15" spans="1:5">
       <c r="A29" s="21"/>
       <c r="B29" s="3" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
@@ -8283,7 +8716,7 @@
     <row r="30" ht="15.15" spans="1:5">
       <c r="A30" s="21"/>
       <c r="B30" s="3" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
@@ -8292,7 +8725,7 @@
     <row r="31" ht="15.15" spans="1:5">
       <c r="A31" s="21"/>
       <c r="B31" s="3" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="3"/>
@@ -8301,7 +8734,7 @@
     <row r="32" ht="15.15" spans="1:5">
       <c r="A32" s="21"/>
       <c r="B32" s="3" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="3"/>
@@ -9107,7 +9540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C6"/>
@@ -9131,7 +9564,7 @@
         <v>388</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -9142,7 +9575,7 @@
         <v>336</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="3" ht="79.2" spans="1:3">
@@ -9153,7 +9586,7 @@
         <v>409</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4" ht="39.6" spans="1:3">
@@ -9164,18 +9597,18 @@
         <v>379</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>681</v>
+        <v>692</v>
       </c>
     </row>
     <row r="6" ht="52.8" spans="1:3">
@@ -9186,7 +9619,7 @@
         <v>317</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -11530,7 +11963,7 @@
       <c r="N16" s="5">
         <v>89610717771</v>
       </c>
-      <c r="O16" s="47">
+      <c r="O16" s="46">
         <v>4021966729</v>
       </c>
       <c r="P16" s="11">
@@ -11911,7 +12344,7 @@
       <c r="L34" s="147"/>
       <c r="M34" s="148"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="47" t="s">
+      <c r="O34" s="46" t="s">
         <v>430</v>
       </c>
       <c r="P34" s="11">
@@ -11945,7 +12378,7 @@
       </c>
       <c r="L35" s="147"/>
       <c r="N35" s="8"/>
-      <c r="O35" s="48" t="s">
+      <c r="O35" s="47" t="s">
         <v>435</v>
       </c>
       <c r="P35" s="12">
@@ -14326,8 +14759,8 @@
   <sheetPr/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2" outlineLevelCol="3"/>

--- a/Jashera 2022/Jashera 2022.xlsx
+++ b/Jashera 2022/Jashera 2022.xlsx
@@ -2212,11 +2212,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
-    <numFmt numFmtId="176" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="dd\.mm\.yyyy\ h:mm"/>
     <numFmt numFmtId="178" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy\ h:mm"/>
+    <numFmt numFmtId="180" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="181" formatCode="dd\.mm\.yyyy"/>
     <numFmt numFmtId="182" formatCode="dd\.mm\.yyyy;@"/>
     <numFmt numFmtId="183" formatCode="dd\.mmm"/>
@@ -2415,6 +2415,43 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -2431,40 +2468,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2478,24 +2493,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2523,10 +2523,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2537,9 +2538,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2598,7 +2598,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2610,73 +2724,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2688,7 +2742,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2700,79 +2760,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2979,6 +2979,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -3026,21 +3041,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -3054,85 +3054,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="28" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3141,65 +3141,65 @@
     <xf numFmtId="0" fontId="47" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -3215,7 +3215,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4855,7 +4855,7 @@
         <v>Атаманов Иван Валерьевич</v>
       </c>
     </row>
-    <row r="3" spans="2:33">
+    <row r="3" ht="15.15" spans="2:33">
       <c r="B3" s="31" t="s">
         <v>323</v>
       </c>
@@ -6172,7 +6172,7 @@
       <c r="AC20" s="10"/>
       <c r="AD20" s="10"/>
       <c r="AE20" s="25" t="str">
-        <f>CONCATENATE(V20," ",W20," ",X20)</f>
+        <f t="shared" ref="AE20:AE25" si="0">CONCATENATE(V20," ",W20," ",X20)</f>
         <v>Федорова Марина Александровна</v>
       </c>
       <c r="AF20" s="10"/>
@@ -6257,13 +6257,13 @@
       <c r="AC21" s="10"/>
       <c r="AD21" s="10"/>
       <c r="AE21" s="25" t="str">
-        <f>CONCATENATE(V21," ",W21," ",X21)</f>
+        <f t="shared" si="0"/>
         <v>Шеламова Галина Анатольевна</v>
       </c>
       <c r="AF21" s="10"/>
       <c r="AG21" s="10"/>
     </row>
-    <row r="22" spans="2:33">
+    <row r="22" ht="15.15" spans="2:33">
       <c r="B22" s="24" t="s">
         <v>399</v>
       </c>
@@ -6326,7 +6326,7 @@
       <c r="AC22" s="10"/>
       <c r="AD22" s="10"/>
       <c r="AE22" s="25" t="str">
-        <f>CONCATENATE(V22," ",W22," ",X22)</f>
+        <f t="shared" si="0"/>
         <v>Шилонцева Татьяна Александровна</v>
       </c>
       <c r="AF22" s="10"/>
@@ -6411,7 +6411,7 @@
       <c r="AC23" s="10"/>
       <c r="AD23" s="10"/>
       <c r="AE23" s="25" t="str">
-        <f>CONCATENATE(V23," ",W23," ",X23)</f>
+        <f t="shared" si="0"/>
         <v>Шишкина  Ирина Викторовна</v>
       </c>
       <c r="AF23" s="10"/>
@@ -6483,7 +6483,7 @@
         <v>633</v>
       </c>
       <c r="AE24" s="25" t="str">
-        <f>CONCATENATE(V24," ",W24," ",X24)</f>
+        <f t="shared" si="0"/>
         <v>Шишкин Денис Витальевич</v>
       </c>
     </row>
@@ -6542,7 +6542,7 @@
         <v>585</v>
       </c>
       <c r="AE25" s="25" t="str">
-        <f>CONCATENATE(V25," ",W25," ",X25)</f>
+        <f t="shared" si="0"/>
         <v>Халтурин Михаил Дмитриевич</v>
       </c>
     </row>
@@ -6622,7 +6622,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -6945,9 +6945,7 @@
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
+      <c r="E24"/>
       <c r="G24">
         <v>1</v>
       </c>

--- a/Jashera 2022/Jashera 2022.xlsx
+++ b/Jashera 2022/Jashera 2022.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VM_space\Text\Article\Lab-processings\Jashera 2022\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9270" tabRatio="804" firstSheet="4" activeTab="8"/>
+    <workbookView windowWidth="22368" windowHeight="9264" tabRatio="804" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Список оборудования" sheetId="12" r:id="rId1"/>
@@ -33,10 +28,10 @@
     <externalReference r:id="rId17"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Участники!$A$1:$Y$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Список для страховки'!$A$1:$F$25</definedName>
     <definedName name="_ftn1" localSheetId="6">'Маршлист внешняя сторона'!$H$29</definedName>
     <definedName name="_ftnref1" localSheetId="6">'Маршлист внешняя сторона'!$H$26</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Список для страховки'!$A$1:$F$25</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Участники!$A$1:$Y$24</definedName>
     <definedName name="class" localSheetId="7">[1]Справочник!$H$2:$H$14</definedName>
     <definedName name="class" localSheetId="2">[2]Справочник!$H$2:$H$14</definedName>
     <definedName name="class">[3]Справочник!$H$2:$H$14</definedName>
@@ -44,7 +39,7 @@
     <definedName name="dist" localSheetId="2">[2]Справочник!$F$2:$F$19</definedName>
     <definedName name="dist">[4]Справочник!$F$2:$F$19</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -2181,17 +2176,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="7">
-    <numFmt numFmtId="168" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="169" formatCode="dd\.mm\.yyyy\ h:mm"/>
-    <numFmt numFmtId="170" formatCode="dd\.mm\.yyyy;@"/>
-    <numFmt numFmtId="171" formatCode="dd\.mmm"/>
-    <numFmt numFmtId="172" formatCode="[$-419]d\ mm\ yyyy;@"/>
-    <numFmt numFmtId="173" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
-    <numFmt numFmtId="174" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="11">
+    <numFmt numFmtId="176" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="181" formatCode="dd\.mm\.yyyy\ h:mm"/>
+    <numFmt numFmtId="182" formatCode="dd\.mm\.yyyy;@"/>
+    <numFmt numFmtId="183" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="184" formatCode="[$-419]d\ mm\ yyyy;@"/>
+    <numFmt numFmtId="185" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
+    <numFmt numFmtId="186" formatCode="0.0"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="52">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2383,9 +2382,146 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2395,7 +2531,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2426,8 +2562,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -2601,23 +2917,262 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="47" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="30" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2626,28 +3181,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -2656,7 +3211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2665,7 +3220,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2674,7 +3229,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2686,7 +3241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2704,7 +3259,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2732,7 +3287,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
@@ -2746,7 +3301,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2762,15 +3317,57 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2779,13 +3376,22 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2798,17 +3404,32 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2818,26 +3439,47 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2846,16 +3488,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2864,18 +3506,27 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="25" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2895,17 +3546,32 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="183" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="183" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="25" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="186" fontId="25" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2916,167 +3582,90 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="36" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="36" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="56">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный_Jaschera_07" xfId="6"/>
-    <cellStyle name="Обычный_Jashera 2018" xfId="7"/>
-    <cellStyle name="Обычный_Внутренняя таблица марш. листа" xfId="8"/>
-    <cellStyle name="Обычный_МАРШ.ЛИСТ ПЕРВАЯ ЯЩЕРА" xfId="3"/>
-    <cellStyle name="Обычный_общий список" xfId="2"/>
-    <cellStyle name="Обычный_СПИСОК ОБОРУДОВАНИЯ" xfId="5"/>
-    <cellStyle name="Обычный_СПИСОК ОБОРУДОВАНИЯ_1" xfId="1"/>
-    <cellStyle name="Плохой" xfId="4" builtinId="27"/>
+    <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
+    <cellStyle name="Обычный_СПИСОК ОБОРУДОВАНИЯ_1" xfId="2"/>
+    <cellStyle name="Денежный [0]" xfId="3" builtinId="7"/>
+    <cellStyle name="40% — Акцент5" xfId="4" builtinId="47"/>
+    <cellStyle name="Хороший" xfId="5" builtinId="26"/>
+    <cellStyle name="Запятая [0]" xfId="6" builtinId="6"/>
+    <cellStyle name="Денежный" xfId="7" builtinId="4"/>
+    <cellStyle name="Запятая" xfId="8" builtinId="3"/>
+    <cellStyle name="Обычный_общий список" xfId="9"/>
+    <cellStyle name="40% — Акцент6" xfId="10" builtinId="51"/>
+    <cellStyle name="Процент" xfId="11" builtinId="5"/>
+    <cellStyle name="20% — Акцент2" xfId="12" builtinId="34"/>
+    <cellStyle name="Итого" xfId="13" builtinId="25"/>
+    <cellStyle name="Вывод" xfId="14" builtinId="21"/>
+    <cellStyle name="Гиперссылка" xfId="15" builtinId="8"/>
+    <cellStyle name="40% — Акцент4" xfId="16" builtinId="43"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="17" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="18" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="19" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="20" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="21" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="22" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="23" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="24" builtinId="18"/>
+    <cellStyle name="Обычный_МАРШ.ЛИСТ ПЕРВАЯ ЯЩЕРА" xfId="25"/>
+    <cellStyle name="Заголовок 4" xfId="26" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="27" builtinId="20"/>
+    <cellStyle name="Проверить ячейку" xfId="28" builtinId="23"/>
+    <cellStyle name="Вычисление" xfId="29" builtinId="22"/>
+    <cellStyle name="Связанная ячейка" xfId="30" builtinId="24"/>
+    <cellStyle name="Плохой" xfId="31" builtinId="27"/>
+    <cellStyle name="Акцент5" xfId="32" builtinId="45"/>
+    <cellStyle name="Нейтральный" xfId="33" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="35" builtinId="30"/>
+    <cellStyle name="Обычный_СПИСОК ОБОРУДОВАНИЯ" xfId="36"/>
+    <cellStyle name="40% — Акцент1" xfId="37" builtinId="31"/>
+    <cellStyle name="20% — Акцент5" xfId="38" builtinId="46"/>
+    <cellStyle name="60% — Акцент1" xfId="39" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="40" builtinId="33"/>
+    <cellStyle name="40% — Акцент2" xfId="41" builtinId="35"/>
+    <cellStyle name="20% — Акцент6" xfId="42" builtinId="50"/>
+    <cellStyle name="60% — Акцент2" xfId="43" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="44" builtinId="37"/>
+    <cellStyle name="40% — Акцент3" xfId="45" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="46" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="47" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="48" builtinId="42"/>
+    <cellStyle name="60% — Акцент4" xfId="49" builtinId="44"/>
+    <cellStyle name="60% — Акцент5" xfId="50" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="51" builtinId="49"/>
+    <cellStyle name="60% — Акцент6" xfId="52" builtinId="52"/>
+    <cellStyle name="Обычный_Jaschera_07" xfId="53"/>
+    <cellStyle name="Обычный_Jashera 2018" xfId="54"/>
+    <cellStyle name="Обычный_Внутренняя таблица марш. листа" xfId="55"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Шаблон"/>
@@ -3097,7 +3686,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Шаблон"/>
@@ -3118,7 +3707,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Шаблон"/>
@@ -3139,7 +3728,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Шаблон"/>
@@ -3411,664 +4000,665 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="7.85185185185185" defaultRowHeight="13.2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="134" customWidth="1"/>
-    <col min="2" max="2" width="29" style="134" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="134" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="134" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="134" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="134" customWidth="1"/>
-    <col min="7" max="16384" width="7.85546875" style="134"/>
+    <col min="1" max="1" width="4.13888888888889" style="171" customWidth="1"/>
+    <col min="2" max="2" width="29" style="171" customWidth="1"/>
+    <col min="3" max="3" width="14.712962962963" style="171" customWidth="1"/>
+    <col min="4" max="4" width="10.4259259259259" style="171" customWidth="1"/>
+    <col min="5" max="5" width="17.8518518518519" style="171" customWidth="1"/>
+    <col min="6" max="6" width="7.85185185185185" style="171" customWidth="1"/>
+    <col min="7" max="16384" width="7.85185185185185" style="171"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="135"/>
-      <c r="B1" s="136" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="172"/>
+      <c r="B1" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="136" t="s">
+      <c r="D1" s="173" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="135"/>
-      <c r="B2" s="137" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="172"/>
+      <c r="B2" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="139" t="s">
+      <c r="C2" s="175"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="176" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="B3" s="137" t="s">
+    <row r="3" spans="2:6">
+      <c r="B3" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136" t="s">
+      <c r="C3" s="175"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="134">
+      <c r="F3" s="171">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="140" t="s">
+    <row r="4" spans="2:6">
+      <c r="B4" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="138"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136" t="s">
+      <c r="C4" s="175"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="134">
+      <c r="F4" s="171">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="B5" s="137" t="s">
+    <row r="5" spans="2:6">
+      <c r="B5" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="138"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136" t="s">
+      <c r="C5" s="175"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="173" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="134">
+      <c r="F5" s="171">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="137" t="s">
+    <row r="6" spans="2:6">
+      <c r="B6" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="138"/>
-      <c r="E6" s="136" t="s">
+      <c r="C6" s="175"/>
+      <c r="E6" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="134">
+      <c r="F6" s="171">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="B7" s="137" t="s">
+    <row r="7" spans="2:6">
+      <c r="B7" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="138"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136" t="s">
+      <c r="C7" s="175"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="173" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="134">
+      <c r="F7" s="171">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="B8" s="137" t="s">
+    <row r="8" spans="2:6">
+      <c r="B8" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="138"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="134" t="s">
+      <c r="C8" s="175"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="134">
+      <c r="F8" s="171">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.9" customHeight="1">
-      <c r="B9" s="137" t="s">
+    <row r="9" ht="13.9" customHeight="1" spans="2:6">
+      <c r="B9" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="138"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="134" t="s">
+      <c r="C9" s="175"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="134">
+      <c r="F9" s="171">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.9" customHeight="1">
-      <c r="B10" s="140" t="s">
+    <row r="10" ht="13.9" customHeight="1" spans="2:6">
+      <c r="B10" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="138"/>
-      <c r="E10" s="134" t="s">
+      <c r="C10" s="175"/>
+      <c r="E10" s="171" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="134">
+      <c r="F10" s="171">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="137" t="s">
+    <row r="11" spans="2:4">
+      <c r="B11" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="138"/>
-      <c r="D11" s="136"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="B12" s="137" t="s">
+      <c r="C11" s="175"/>
+      <c r="D11" s="173"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="174" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="138"/>
-      <c r="E12" s="141" t="s">
+      <c r="C12" s="175"/>
+      <c r="E12" s="178" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="B13" s="137" t="s">
+    <row r="13" spans="2:6">
+      <c r="B13" s="174" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="138"/>
-      <c r="E13" s="134" t="s">
+      <c r="C13" s="175"/>
+      <c r="E13" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="134">
+      <c r="F13" s="171">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="B14" s="137" t="s">
+    <row r="14" spans="2:3">
+      <c r="B14" s="174" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="138"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="B15" s="137" t="s">
+      <c r="C14" s="175"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="174" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="138"/>
-      <c r="E15" s="136" t="s">
+      <c r="C15" s="175"/>
+      <c r="E15" s="173" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="134" t="s">
+      <c r="F15" s="171" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="B16" s="137" t="s">
+    <row r="16" spans="2:3">
+      <c r="B16" s="174" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="138"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="B17" s="137" t="s">
+      <c r="C16" s="175"/>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="174" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="138"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" s="137" t="s">
+      <c r="C17" s="175"/>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="138"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="B19" s="137" t="s">
+      <c r="C18" s="175"/>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="174" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="138"/>
+      <c r="C19" s="175"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="142"/>
-      <c r="B20" s="137" t="s">
+      <c r="A20" s="179"/>
+      <c r="B20" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="138"/>
+      <c r="C20" s="175"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="142"/>
-      <c r="B21" s="137" t="s">
+      <c r="A21" s="179"/>
+      <c r="B21" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="138"/>
+      <c r="C21" s="175"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="142"/>
-      <c r="B22" s="137" t="s">
+      <c r="A22" s="179"/>
+      <c r="B22" s="174" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="138"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="137" t="s">
+      <c r="C22" s="175"/>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="174" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="138"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="137" t="s">
+      <c r="C23" s="175"/>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="174" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="138"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" s="137" t="s">
+      <c r="C24" s="175"/>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="174" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="138"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" s="137" t="s">
+      <c r="C25" s="175"/>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="174" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="138"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="B27" s="137" t="s">
+      <c r="C26" s="175"/>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="174" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="138"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="B28" s="137" t="s">
+      <c r="C27" s="175"/>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="174" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="138"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" s="137" t="s">
+      <c r="C28" s="175"/>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="174" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="138"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="B30" s="138" t="s">
+      <c r="C29" s="175"/>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="138"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="B31" s="137" t="s">
+      <c r="C30" s="175"/>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="174" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="138"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="B32" s="137" t="s">
+      <c r="C31" s="175"/>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="174" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="138"/>
+      <c r="C32" s="175"/>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="137" t="s">
+      <c r="B33" s="174" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="138"/>
+      <c r="C33" s="175"/>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="137" t="s">
+      <c r="B34" s="174" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="138"/>
+      <c r="C34" s="175"/>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="137" t="s">
+      <c r="B35" s="174" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="138"/>
+      <c r="C35" s="175"/>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="140" t="s">
+      <c r="B36" s="177" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="138"/>
+      <c r="C36" s="175"/>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="137" t="s">
+      <c r="B37" s="174" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="138"/>
+      <c r="C37" s="175"/>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="137" t="s">
+      <c r="B38" s="174" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="138"/>
+      <c r="C38" s="175"/>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="137" t="s">
+      <c r="B39" s="174" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="138"/>
+      <c r="C39" s="175"/>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="137" t="s">
+      <c r="B40" s="174" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="138"/>
+      <c r="C40" s="175"/>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="137" t="s">
+      <c r="B41" s="174" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="138"/>
+      <c r="C41" s="175"/>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="137" t="s">
+      <c r="B42" s="174" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="138"/>
+      <c r="C42" s="175"/>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="137" t="s">
+      <c r="B43" s="174" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="138"/>
+      <c r="C43" s="175"/>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="137" t="s">
+      <c r="B44" s="174" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="138"/>
+      <c r="C44" s="175"/>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="137" t="s">
+      <c r="B45" s="174" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="138"/>
+      <c r="C45" s="175"/>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="137" t="s">
+      <c r="B46" s="174" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="138"/>
+      <c r="C46" s="175"/>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="137" t="s">
+      <c r="B47" s="174" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="138"/>
+      <c r="C47" s="175"/>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="137" t="s">
+      <c r="B48" s="174" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="138"/>
+      <c r="C48" s="175"/>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="140" t="s">
+      <c r="B49" s="177" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="138"/>
+      <c r="C49" s="175"/>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="137" t="s">
+      <c r="B50" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="138"/>
+      <c r="C50" s="175"/>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="137" t="s">
+      <c r="B51" s="174" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="138"/>
+      <c r="C51" s="175"/>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="137" t="s">
+      <c r="B52" s="174" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="138"/>
+      <c r="C52" s="175"/>
     </row>
     <row r="53" spans="2:3">
-      <c r="B53" s="143" t="s">
+      <c r="B53" s="180" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="138"/>
+      <c r="C53" s="175"/>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="137" t="s">
+      <c r="B54" s="174" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="138"/>
+      <c r="C54" s="175"/>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="137" t="s">
+      <c r="B55" s="174" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="138"/>
+      <c r="C55" s="175"/>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="137" t="s">
+      <c r="B56" s="174" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="138"/>
+      <c r="C56" s="175"/>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="137" t="s">
+      <c r="B57" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="138"/>
+      <c r="C57" s="175"/>
     </row>
     <row r="58" spans="2:3">
-      <c r="B58" s="137" t="s">
+      <c r="B58" s="174" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="138"/>
+      <c r="C58" s="175"/>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="138" t="s">
+      <c r="B59" s="175" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="138"/>
+      <c r="C59" s="175"/>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="137" t="s">
+      <c r="B60" s="174" t="s">
         <v>72</v>
       </c>
-      <c r="C60" s="138"/>
+      <c r="C60" s="175"/>
     </row>
     <row r="61" spans="2:3">
-      <c r="B61" s="137" t="s">
+      <c r="B61" s="174" t="s">
         <v>73</v>
       </c>
-      <c r="C61" s="138"/>
+      <c r="C61" s="175"/>
     </row>
     <row r="62" spans="2:3">
-      <c r="B62" s="137" t="s">
+      <c r="B62" s="174" t="s">
         <v>74</v>
       </c>
-      <c r="C62" s="138"/>
+      <c r="C62" s="175"/>
     </row>
     <row r="63" spans="2:3">
-      <c r="B63" s="137" t="s">
+      <c r="B63" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="C63" s="138"/>
+      <c r="C63" s="175"/>
     </row>
     <row r="64" spans="2:3">
-      <c r="B64" s="137" t="s">
+      <c r="B64" s="174" t="s">
         <v>76</v>
       </c>
-      <c r="C64" s="138"/>
+      <c r="C64" s="175"/>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="137" t="s">
+      <c r="B65" s="174" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="138"/>
+      <c r="C65" s="175"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="137" t="s">
+      <c r="B66" s="174" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="138"/>
+      <c r="C66" s="175"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="138" t="s">
+      <c r="B67" s="175" t="s">
         <v>79</v>
       </c>
-      <c r="C67" s="138"/>
+      <c r="C67" s="175"/>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="137" t="s">
+      <c r="B68" s="174" t="s">
         <v>80</v>
       </c>
-      <c r="C68" s="138"/>
+      <c r="C68" s="175"/>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="137" t="s">
+      <c r="B69" s="174" t="s">
         <v>81</v>
       </c>
-      <c r="C69" s="138"/>
+      <c r="C69" s="175"/>
     </row>
     <row r="70" spans="2:3">
-      <c r="B70" s="137" t="s">
+      <c r="B70" s="174" t="s">
         <v>82</v>
       </c>
-      <c r="C70" s="138"/>
+      <c r="C70" s="175"/>
     </row>
     <row r="71" spans="2:3">
-      <c r="B71" s="137" t="s">
+      <c r="B71" s="174" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="138"/>
+      <c r="C71" s="175"/>
     </row>
     <row r="72" spans="2:3">
-      <c r="B72" s="137" t="s">
+      <c r="B72" s="174" t="s">
         <v>84</v>
       </c>
-      <c r="C72" s="138"/>
+      <c r="C72" s="175"/>
     </row>
     <row r="73" spans="2:3">
-      <c r="B73" s="137" t="s">
+      <c r="B73" s="174" t="s">
         <v>85</v>
       </c>
-      <c r="C73" s="138"/>
+      <c r="C73" s="175"/>
     </row>
     <row r="74" spans="2:3">
-      <c r="B74" s="137" t="s">
+      <c r="B74" s="174" t="s">
         <v>86</v>
       </c>
-      <c r="C74" s="138"/>
+      <c r="C74" s="175"/>
     </row>
     <row r="75" spans="2:3">
-      <c r="B75" s="137" t="s">
+      <c r="B75" s="174" t="s">
         <v>87</v>
       </c>
-      <c r="C75" s="138"/>
+      <c r="C75" s="175"/>
     </row>
     <row r="76" spans="2:3">
-      <c r="B76" s="137" t="s">
+      <c r="B76" s="174" t="s">
         <v>88</v>
       </c>
-      <c r="C76" s="138"/>
+      <c r="C76" s="175"/>
     </row>
     <row r="77" spans="2:3">
-      <c r="B77" s="140" t="s">
+      <c r="B77" s="177" t="s">
         <v>89</v>
       </c>
-      <c r="C77" s="138"/>
+      <c r="C77" s="175"/>
     </row>
     <row r="78" spans="2:3">
-      <c r="B78" s="138" t="s">
+      <c r="B78" s="175" t="s">
         <v>90</v>
       </c>
-      <c r="C78" s="138"/>
-    </row>
-    <row r="80" spans="2:3">
-      <c r="B80" s="139" t="s">
+      <c r="C78" s="175"/>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="176" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="134" t="s">
+      <c r="B81" s="171" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="134" t="s">
+      <c r="B82" s="171" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="134" t="s">
+      <c r="B83" s="171" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="134" t="s">
+      <c r="B84" s="171" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="134" t="s">
+      <c r="B85" s="171" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="134" t="s">
+      <c r="B86" s="171" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="134" t="s">
+      <c r="B87" s="171" t="s">
         <v>97</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AF27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozenSplit"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="25"/>
-    <col min="2" max="2" width="19.140625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="25" customWidth="1"/>
-    <col min="4" max="5" width="19.5703125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="25" customWidth="1"/>
-    <col min="7" max="8" width="9.7109375" style="25" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" style="25" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="25" customWidth="1"/>
+    <col min="1" max="1" width="8.85185185185185" style="25"/>
+    <col min="2" max="2" width="19.1388888888889" style="25" customWidth="1"/>
+    <col min="3" max="3" width="14.4259259259259" style="25" customWidth="1"/>
+    <col min="4" max="5" width="19.5740740740741" style="25" customWidth="1"/>
+    <col min="6" max="6" width="8.71296296296296" style="25" customWidth="1"/>
+    <col min="7" max="8" width="9.71296296296296" style="25" customWidth="1"/>
+    <col min="9" max="9" width="27.4259259259259" style="25" customWidth="1"/>
+    <col min="10" max="10" width="9.71296296296296" style="25" customWidth="1"/>
     <col min="11" max="11" width="36" style="25" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="25" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" style="25" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" style="25"/>
-    <col min="15" max="15" width="29.7109375" style="25" customWidth="1"/>
-    <col min="16" max="16" width="37.140625" style="25" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" style="25" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" style="25" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="25"/>
-    <col min="20" max="20" width="10.85546875" style="25"/>
-    <col min="21" max="23" width="8.85546875" style="25"/>
-    <col min="24" max="24" width="12.85546875" style="25"/>
-    <col min="25" max="25" width="8.85546875" style="25"/>
-    <col min="26" max="26" width="27.28515625" style="25" customWidth="1"/>
-    <col min="27" max="29" width="8.85546875" style="25"/>
-    <col min="30" max="30" width="12.85546875" style="25"/>
-    <col min="31" max="16384" width="8.85546875" style="25"/>
+    <col min="12" max="12" width="20.5740740740741" style="25" customWidth="1"/>
+    <col min="13" max="13" width="10.1388888888889" style="25" customWidth="1"/>
+    <col min="14" max="14" width="8.85185185185185" style="25"/>
+    <col min="15" max="15" width="29.712962962963" style="25" customWidth="1"/>
+    <col min="16" max="16" width="37.1388888888889" style="25" customWidth="1"/>
+    <col min="17" max="17" width="16.8518518518519" style="25" customWidth="1"/>
+    <col min="18" max="18" width="11.1388888888889" style="25" customWidth="1"/>
+    <col min="19" max="19" width="11.712962962963" style="25"/>
+    <col min="20" max="20" width="10.8518518518519" style="25"/>
+    <col min="21" max="23" width="8.85185185185185" style="25"/>
+    <col min="24" max="24" width="12.8888888888889" style="25"/>
+    <col min="25" max="25" width="8.85185185185185" style="25"/>
+    <col min="26" max="26" width="27.287037037037" style="25" customWidth="1"/>
+    <col min="27" max="29" width="8.85185185185185" style="25"/>
+    <col min="30" max="30" width="12.8518518518519" style="25"/>
+    <col min="31" max="16384" width="8.85185185185185" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:32">
@@ -4156,7 +4746,7 @@
       <c r="AE1" s="10"/>
       <c r="AF1" s="10"/>
     </row>
-    <row r="2" spans="2:32">
+    <row r="2" ht="15.15" spans="2:30">
       <c r="B2" s="6" t="s">
         <v>316</v>
       </c>
@@ -4225,7 +4815,7 @@
         <v>Атаманов Иван Валерьевич</v>
       </c>
     </row>
-    <row r="3" spans="2:32">
+    <row r="3" ht="15.15" spans="2:32">
       <c r="B3" s="31" t="s">
         <v>323</v>
       </c>
@@ -4531,7 +5121,7 @@
       <c r="AE6" s="10"/>
       <c r="AF6" s="10"/>
     </row>
-    <row r="7" spans="2:32" hidden="1">
+    <row r="7" hidden="1" spans="2:32">
       <c r="B7" s="6" t="s">
         <v>422</v>
       </c>
@@ -4674,7 +5264,7 @@
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
     </row>
-    <row r="9" spans="2:32">
+    <row r="9" spans="2:30">
       <c r="B9" s="6" t="s">
         <v>351</v>
       </c>
@@ -4739,7 +5329,7 @@
         <v>Ершова Ирина Алексеевна</v>
       </c>
     </row>
-    <row r="10" spans="2:32">
+    <row r="10" spans="2:30">
       <c r="B10" s="15" t="s">
         <v>356</v>
       </c>
@@ -4958,7 +5548,7 @@
       <c r="AE12" s="10"/>
       <c r="AF12" s="10"/>
     </row>
-    <row r="13" spans="2:32" hidden="1">
+    <row r="13" hidden="1" spans="2:25">
       <c r="B13" s="6" t="s">
         <v>426</v>
       </c>
@@ -5017,7 +5607,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="14" spans="2:32" hidden="1">
+    <row r="14" hidden="1" spans="2:32">
       <c r="B14" s="6" t="s">
         <v>431</v>
       </c>
@@ -5092,7 +5682,7 @@
       <c r="AE14" s="10"/>
       <c r="AF14" s="10"/>
     </row>
-    <row r="15" spans="2:32" hidden="1">
+    <row r="15" hidden="1" spans="2:25">
       <c r="B15" s="20" t="s">
         <v>436</v>
       </c>
@@ -5222,7 +5812,7 @@
       <c r="AE16" s="10"/>
       <c r="AF16" s="10"/>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="2:30">
       <c r="B17" s="6" t="s">
         <v>378</v>
       </c>
@@ -5289,7 +5879,7 @@
         <v>Попова Юлия Юрьевна</v>
       </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="2:30">
       <c r="B18" s="20" t="s">
         <v>382</v>
       </c>
@@ -5354,7 +5944,7 @@
         <v>Сайчик Татьяна Борисовна</v>
       </c>
     </row>
-    <row r="19" spans="1:32" hidden="1">
+    <row r="19" hidden="1" spans="2:32">
       <c r="B19" s="6" t="s">
         <v>439</v>
       </c>
@@ -5425,7 +6015,7 @@
       <c r="AE19" s="10"/>
       <c r="AF19" s="10"/>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="2:32">
       <c r="B20" s="6" t="s">
         <v>387</v>
       </c>
@@ -5497,7 +6087,7 @@
       <c r="AE20" s="10"/>
       <c r="AF20" s="10"/>
     </row>
-    <row r="21" spans="1:32" s="37" customFormat="1">
+    <row r="21" s="37" customFormat="1" ht="15.15" spans="1:32">
       <c r="A21" s="14"/>
       <c r="B21" s="6" t="s">
         <v>393</v>
@@ -5579,7 +6169,7 @@
       <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" ht="15.15" spans="2:32">
       <c r="B22" s="24" t="s">
         <v>399</v>
       </c>
@@ -5645,7 +6235,7 @@
       <c r="AE22" s="10"/>
       <c r="AF22" s="10"/>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="2:32">
       <c r="B23" s="6" t="s">
         <v>403</v>
       </c>
@@ -5727,7 +6317,7 @@
       <c r="AE23" s="10"/>
       <c r="AF23" s="10"/>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="2:30">
       <c r="B24" s="6" t="s">
         <v>403</v>
       </c>
@@ -5794,7 +6384,7 @@
         <v>Шишкин Денис Витальевич</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="2:30">
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -5816,10 +6406,10 @@
       <c r="Y25" s="15"/>
       <c r="AD25" s="25" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:32">
+        <v>  </v>
+      </c>
+    </row>
+    <row r="26" spans="2:30">
       <c r="B26" s="6" t="s">
         <v>629</v>
       </c>
@@ -5876,7 +6466,7 @@
         <v>Богатушин Антон Игоревич</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="2:30">
       <c r="B27" s="6" t="s">
         <v>637</v>
       </c>
@@ -5932,35 +6522,38 @@
   </sheetData>
   <autoFilter ref="A1:Y24">
     <filterColumn colId="4">
-      <filters>
-        <filter val="1"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="equal" val="1"/>
+      </customFilters>
     </filterColumn>
+    <extLst/>
   </autoFilter>
   <sortState ref="B2:AE24">
     <sortCondition ref="B2:B24"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="14" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="14" customWidth="1"/>
-    <col min="5" max="5" width="37.140625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="14" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="14"/>
+    <col min="1" max="1" width="19.1388888888889" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18.712962962963" style="14" customWidth="1"/>
+    <col min="3" max="3" width="14.287037037037" style="14" customWidth="1"/>
+    <col min="4" max="4" width="23.712962962963" style="14" customWidth="1"/>
+    <col min="5" max="5" width="37.1388888888889" style="14" customWidth="1"/>
+    <col min="6" max="6" width="31.712962962963" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="8.85185185185185" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6459,13 +7052,13 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" s="29" customFormat="1" ht="12.75">
+    <row r="27" s="29" customFormat="1" ht="13.2" spans="1:4">
       <c r="A27" s="35" t="s">
         <v>648</v>
       </c>
       <c r="D27" s="36"/>
     </row>
-    <row r="28" spans="1:6" s="29" customFormat="1" ht="12.75">
+    <row r="28" s="29" customFormat="1" ht="13.2" spans="1:4">
       <c r="A28" s="29" t="s">
         <v>649</v>
       </c>
@@ -6477,7 +7070,7 @@
       </c>
       <c r="D28" s="36"/>
     </row>
-    <row r="29" spans="1:6" s="29" customFormat="1" ht="12.75">
+    <row r="29" s="29" customFormat="1" ht="13.2" spans="1:4">
       <c r="A29" s="29">
         <v>89217427984</v>
       </c>
@@ -7244,29 +7837,33 @@
       <c r="F124" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F25"/>
+  <autoFilter ref="A1:F25">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.7109375"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="72.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.712962962963"/>
+    <col min="2" max="2" width="35.712962962963" customWidth="1"/>
+    <col min="3" max="3" width="21.8518518518519" customWidth="1"/>
+    <col min="4" max="4" width="22.287037037037" customWidth="1"/>
+    <col min="5" max="5" width="72.5740740740741" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" ht="15.15" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>652</v>
       </c>
@@ -7283,7 +7880,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" ht="15.15" spans="1:5">
       <c r="A2" s="4"/>
       <c r="B2" s="3" t="s">
         <v>653</v>
@@ -7298,7 +7895,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" ht="15.15" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>654</v>
@@ -7313,7 +7910,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="15.15" spans="1:5">
       <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
         <v>655</v>
@@ -7328,7 +7925,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="15.15" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>656</v>
@@ -7343,7 +7940,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="15.15" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="3" t="s">
         <v>657</v>
@@ -7358,7 +7955,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" ht="15.15" spans="1:5">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>658</v>
@@ -7373,7 +7970,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" ht="15.15" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="3" t="s">
         <v>659</v>
@@ -7388,7 +7985,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" ht="15.15" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>660</v>
@@ -7403,7 +8000,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" ht="15.15" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
         <v>661</v>
@@ -7418,7 +8015,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" ht="15.15" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
         <v>662</v>
@@ -7433,7 +8030,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" ht="15.15" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
         <v>663</v>
@@ -7448,7 +8045,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" ht="15.15" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
         <v>664</v>
@@ -7463,7 +8060,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" ht="15.15" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
         <v>665</v>
@@ -7478,7 +8075,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" ht="15.15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
         <v>666</v>
@@ -7493,7 +8090,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" ht="15.15" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
         <v>667</v>
@@ -7508,7 +8105,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" ht="15.15" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
         <v>668</v>
@@ -7523,7 +8120,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" ht="15.15" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
         <v>669</v>
@@ -7538,7 +8135,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" ht="15.15" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
         <v>670</v>
@@ -7553,7 +8150,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" ht="15.15" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="3" t="s">
         <v>671</v>
@@ -7568,7 +8165,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" ht="15.15" spans="1:5">
       <c r="A21" s="21"/>
       <c r="B21" s="3" t="s">
         <v>672</v>
@@ -7583,7 +8180,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" ht="15.15" spans="1:5">
       <c r="A22" s="21"/>
       <c r="B22" s="3" t="s">
         <v>673</v>
@@ -7598,7 +8195,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" ht="15.15" spans="1:5">
       <c r="A23" s="21"/>
       <c r="B23" s="3" t="s">
         <v>674</v>
@@ -7613,7 +8210,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" ht="15.15" spans="1:5">
       <c r="A24" s="21"/>
       <c r="B24" s="3" t="s">
         <v>675</v>
@@ -7628,7 +8225,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" ht="15.15" spans="1:5">
       <c r="A25" s="21"/>
       <c r="B25" s="3" t="s">
         <v>676</v>
@@ -7643,7 +8240,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" ht="15.15" spans="1:5">
       <c r="A26" s="21"/>
       <c r="B26" s="3" t="s">
         <v>677</v>
@@ -7658,14 +8255,14 @@
         <v>641</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" ht="15.15" spans="1:5">
       <c r="A27" s="21"/>
       <c r="B27" s="3"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" ht="15.15" spans="1:5">
       <c r="A28" s="21"/>
       <c r="B28" s="3" t="s">
         <v>678</v>
@@ -7674,7 +8271,7 @@
       <c r="D28" s="8"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" ht="15.15" spans="1:5">
       <c r="A29" s="21"/>
       <c r="B29" s="3" t="s">
         <v>678</v>
@@ -7683,7 +8280,7 @@
       <c r="D29" s="8"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" ht="15.15" spans="1:5">
       <c r="A30" s="21"/>
       <c r="B30" s="3" t="s">
         <v>678</v>
@@ -7692,7 +8289,7 @@
       <c r="D30" s="8"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" ht="15.15" spans="1:5">
       <c r="A31" s="21"/>
       <c r="B31" s="3" t="s">
         <v>678</v>
@@ -7701,7 +8298,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" ht="15.15" spans="1:5">
       <c r="A32" s="21"/>
       <c r="B32" s="3" t="s">
         <v>678</v>
@@ -7710,791 +8307,791 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" ht="15.15" spans="1:5">
       <c r="A33" s="21"/>
       <c r="B33" s="3"/>
       <c r="C33" s="7"/>
       <c r="D33" s="8"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" ht="15.15" spans="1:5">
       <c r="A34" s="21"/>
       <c r="B34" s="3"/>
       <c r="C34" s="7"/>
       <c r="D34" s="8"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" ht="15.15" spans="1:5">
       <c r="A35" s="21"/>
       <c r="B35" s="3"/>
       <c r="C35" s="7"/>
       <c r="D35" s="8"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" ht="15.15" spans="1:5">
       <c r="A36" s="21"/>
       <c r="B36" s="3"/>
       <c r="C36" s="7"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" ht="15.15" spans="1:5">
       <c r="A37" s="21"/>
       <c r="B37" s="3"/>
       <c r="C37" s="7"/>
       <c r="D37" s="8"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" ht="15.15" spans="1:5">
       <c r="A38" s="21"/>
       <c r="B38" s="3"/>
       <c r="C38" s="7"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" ht="15.15" spans="1:5">
       <c r="A39" s="21"/>
       <c r="B39" s="3"/>
       <c r="C39" s="7"/>
       <c r="D39" s="8"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" ht="15.15" spans="1:5">
       <c r="A40" s="21"/>
       <c r="B40" s="3"/>
       <c r="C40" s="7"/>
       <c r="D40" s="8"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" ht="15.15" spans="1:5">
       <c r="A41" s="21"/>
       <c r="B41" s="3"/>
       <c r="C41" s="7"/>
       <c r="D41" s="8"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" ht="15.15" spans="1:5">
       <c r="A42" s="21"/>
       <c r="B42" s="3"/>
       <c r="C42" s="7"/>
       <c r="D42" s="8"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" ht="15.15" spans="1:5">
       <c r="A43" s="21"/>
       <c r="B43" s="3"/>
       <c r="C43" s="7"/>
       <c r="D43" s="8"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" ht="15.15" spans="1:5">
       <c r="A44" s="21"/>
       <c r="B44" s="3"/>
       <c r="C44" s="7"/>
       <c r="D44" s="8"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" ht="15.15" spans="1:5">
       <c r="A45" s="21"/>
       <c r="B45" s="3"/>
       <c r="C45" s="7"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" ht="15.15" spans="1:5">
       <c r="A46" s="25"/>
       <c r="B46" s="3"/>
       <c r="C46" s="26"/>
       <c r="D46" s="27"/>
       <c r="E46" s="28"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" ht="15.15" spans="1:5">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" ht="15.15" spans="1:5">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" ht="15.15" spans="1:5">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" ht="15.15" spans="1:5">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" ht="15.15" spans="1:5">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" ht="15.15" spans="1:5">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" ht="15.15" spans="1:5">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" ht="15.15" spans="1:5">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" ht="15.15" spans="1:5">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" ht="15.15" spans="1:5">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" ht="15.15" spans="1:5">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" ht="15.15" spans="1:5">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" ht="15.15" spans="1:5">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" ht="15.15" spans="1:5">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" ht="15.15" spans="1:5">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" ht="15.15" spans="1:5">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" ht="15.15" spans="1:5">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" ht="15.15" spans="1:5">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" ht="15.15" spans="1:5">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" ht="15.15" spans="1:5">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" ht="15.15" spans="1:5">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" ht="15.15" spans="1:5">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" ht="15.15" spans="1:5">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" ht="15.15" spans="1:5">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" ht="15.15" spans="1:5">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" ht="15.15" spans="1:5">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" ht="15.15" spans="1:5">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" ht="15.15" spans="1:5">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" ht="15.15" spans="1:5">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" ht="15.15" spans="1:5">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" ht="15.15" spans="1:5">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" ht="15.15" spans="1:5">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" ht="15.15" spans="1:5">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" ht="15.15" spans="1:5">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" ht="15.15" spans="1:5">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" ht="15.15" spans="1:5">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" ht="15.15" spans="1:5">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" ht="15.15" spans="1:5">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" ht="15.15" spans="1:5">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" ht="15.15" spans="1:5">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" ht="15.15" spans="1:5">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" ht="15.15" spans="1:5">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" ht="15.15" spans="1:5">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" ht="15.15" spans="1:5">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" ht="15.15" spans="1:5">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" ht="15.15" spans="1:5">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" ht="15.15" spans="1:5">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" ht="15.15" spans="1:5">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" ht="15.15" spans="1:5">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" ht="15.15" spans="1:5">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" ht="15.15" spans="1:5">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" ht="15.15" spans="1:5">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" ht="15.15" spans="1:5">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" ht="15.15" spans="1:5">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" ht="15.15" spans="1:5">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" ht="15.15" spans="1:5">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" ht="15.15" spans="1:5">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" ht="15.15" spans="1:5">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" ht="15.15" spans="1:5">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" ht="15.15" spans="1:5">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" ht="15.15" spans="1:5">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" ht="15.15" spans="1:5">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" ht="15.15" spans="1:5">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" ht="15.15" spans="1:5">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" ht="15.15" spans="1:5">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" ht="15.15" spans="1:5">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" ht="15.15" spans="1:5">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" ht="15.15" spans="1:5">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" ht="15.15" spans="1:5">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" ht="15.15" spans="1:5">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" ht="15.15" spans="1:5">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" ht="15.15" spans="1:5">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" ht="15.15" spans="1:5">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" ht="15.15" spans="1:5">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" ht="15.15" spans="1:5">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" ht="15.15" spans="1:5">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" ht="15.15" spans="1:5">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" ht="15.15" spans="1:5">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" ht="15.15" spans="1:5">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" ht="15.15" spans="1:5">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" ht="15.15" spans="1:5">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" ht="15.15" spans="1:5">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" ht="15.15" spans="1:5">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" ht="15.15" spans="1:5">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" ht="15.15" spans="1:5">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" ht="15.15" spans="1:5">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" ht="15.15" spans="1:5">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" ht="15.15" spans="1:5">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" ht="15.15" spans="1:5">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" ht="15.15" spans="1:5">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" ht="15.15" spans="1:5">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" ht="15.15" spans="1:5">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" ht="15.15" spans="1:5">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" ht="15.15" spans="1:5">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" ht="15.15" spans="1:5">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" ht="15.15" spans="1:5">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" ht="15.15" spans="1:5">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" ht="15.15" spans="1:5">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" ht="15.15" spans="1:5">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -8503,25 +9100,27 @@
     </row>
   </sheetData>
   <sortState ref="A3:L46">
-    <sortCondition descending="1" ref="A3"/>
+    <sortCondition ref="A3" descending="1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="47.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.4259259259259" customWidth="1"/>
+    <col min="2" max="2" width="13.1388888888889" customWidth="1"/>
+    <col min="3" max="3" width="47.287037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8546,7 +9145,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="76.5">
+    <row r="3" ht="79.2" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>403</v>
       </c>
@@ -8557,7 +9156,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="38.25">
+    <row r="4" ht="39.6" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>378</v>
       </c>
@@ -8579,7 +9178,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="51">
+    <row r="6" ht="52.8" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>316</v>
       </c>
@@ -8592,34 +9191,36 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D46"/>
+      <selection activeCell="A1" sqref="A1:D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="25.85546875" style="117" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="130" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" style="117" customWidth="1"/>
-    <col min="5" max="7" width="9" style="117"/>
-    <col min="8" max="8" width="22.7109375" style="117" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" style="131" customWidth="1"/>
-    <col min="10" max="11" width="8.85546875" style="131"/>
-    <col min="12" max="16384" width="9" style="117"/>
+    <col min="2" max="2" width="25.8518518518519" style="149" customWidth="1"/>
+    <col min="3" max="3" width="15.8518518518519" style="167" customWidth="1"/>
+    <col min="4" max="4" width="29.5740740740741" style="149" customWidth="1"/>
+    <col min="5" max="7" width="9" style="149"/>
+    <col min="8" max="8" width="22.712962962963" style="149" customWidth="1"/>
+    <col min="9" max="9" width="22.712962962963" style="168" customWidth="1"/>
+    <col min="10" max="11" width="8.85185185185185" style="168"/>
+    <col min="12" max="16384" width="9" style="149"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="117" t="s">
+    <row r="1" spans="2:3">
+      <c r="B1" s="149" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="130" t="s">
+      <c r="C1" s="167" t="s">
         <v>99</v>
       </c>
     </row>
@@ -8627,10 +9228,10 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="169" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="133" t="s">
+      <c r="C2" s="170" t="s">
         <v>101</v>
       </c>
       <c r="D2" s="25"/>
@@ -8639,13 +9240,13 @@
       <c r="A3" s="25">
         <v>1</v>
       </c>
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="169" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="170" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="117" t="s">
+      <c r="D3" s="149" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8653,13 +9254,13 @@
       <c r="A4" s="25">
         <v>1</v>
       </c>
-      <c r="B4" s="132" t="s">
+      <c r="B4" s="169" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="133" t="s">
+      <c r="C4" s="170" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="117" t="s">
+      <c r="D4" s="149" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8667,38 +9268,38 @@
       <c r="A5" s="25">
         <v>1</v>
       </c>
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="169" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="133" t="s">
+      <c r="C5" s="170" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="117" t="s">
+      <c r="D5" s="149" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6" customHeight="1">
+    <row r="6" ht="15.6" customHeight="1" spans="1:4">
       <c r="A6" s="25">
         <v>1</v>
       </c>
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="169" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="133">
+      <c r="C6" s="170">
         <v>4</v>
       </c>
-      <c r="D6" s="117" t="s">
+      <c r="D6" s="149" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" customHeight="1">
+    <row r="7" ht="15.6" customHeight="1" spans="1:3">
       <c r="A7" s="25">
         <v>1</v>
       </c>
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="133" t="s">
+      <c r="C7" s="170" t="s">
         <v>110</v>
       </c>
     </row>
@@ -8706,13 +9307,13 @@
       <c r="A8" s="25">
         <v>1</v>
       </c>
-      <c r="B8" s="132" t="s">
+      <c r="B8" s="169" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="130">
+      <c r="C8" s="167">
         <v>2</v>
       </c>
-      <c r="D8" s="117" t="s">
+      <c r="D8" s="149" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8720,32 +9321,32 @@
       <c r="A9" s="25">
         <v>1</v>
       </c>
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="169" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="133" t="s">
+      <c r="C9" s="170" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="117" t="s">
+      <c r="D9" s="149" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:3">
       <c r="A10" s="25">
         <v>1</v>
       </c>
-      <c r="B10" s="132" t="s">
+      <c r="B10" s="169" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="133">
+      <c r="C10" s="170">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="169" t="s">
         <v>115</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -8756,24 +9357,24 @@
       <c r="A12" s="25">
         <v>2</v>
       </c>
-      <c r="B12" s="132" t="s">
+      <c r="B12" s="169" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="133" t="s">
+      <c r="C12" s="170" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="117" t="s">
+      <c r="D12" s="149" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>2</v>
       </c>
-      <c r="B13" s="117" t="s">
+      <c r="B13" s="149" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="130">
+      <c r="C13" s="167">
         <v>2</v>
       </c>
     </row>
@@ -8781,35 +9382,35 @@
       <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14" s="117" t="s">
+      <c r="B14" s="149" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="130" t="s">
+      <c r="C14" s="167" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="149" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15" s="117" t="s">
+      <c r="B15" s="149" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="130">
+      <c r="C15" s="167">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="B16" s="117" t="s">
+      <c r="B16" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="130">
+      <c r="C16" s="167">
         <v>2</v>
       </c>
     </row>
@@ -8817,333 +9418,333 @@
       <c r="A17">
         <v>2</v>
       </c>
-      <c r="B17" s="132" t="s">
+      <c r="B17" s="169" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="133">
+      <c r="C17" s="170">
         <v>10</v>
       </c>
-      <c r="D17" s="117" t="s">
+      <c r="D17" s="149" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:3">
       <c r="A18" s="25">
         <v>2</v>
       </c>
-      <c r="B18" s="132" t="s">
+      <c r="B18" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="133" t="s">
+      <c r="C18" s="170" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:3">
       <c r="A19" s="25">
         <v>2</v>
       </c>
-      <c r="B19" s="132" t="s">
+      <c r="B19" s="169" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="170" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:3">
       <c r="A20" s="25">
         <v>2</v>
       </c>
-      <c r="B20" s="132" t="s">
+      <c r="B20" s="169" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="133" t="s">
+      <c r="C20" s="170" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:3">
       <c r="A21" s="25">
         <v>2</v>
       </c>
-      <c r="B21" s="132" t="s">
+      <c r="B21" s="169" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="133" t="s">
+      <c r="C21" s="170" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:3">
       <c r="A22" s="25">
         <v>2</v>
       </c>
-      <c r="B22" s="132" t="s">
+      <c r="B22" s="169" t="s">
         <v>134</v>
       </c>
-      <c r="C22" s="133" t="s">
+      <c r="C22" s="170" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:3">
       <c r="A23" s="25">
         <v>3</v>
       </c>
-      <c r="B23" s="132" t="s">
+      <c r="B23" s="169" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="133" t="s">
+      <c r="C23" s="170" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:3">
       <c r="A24" s="25">
         <v>3</v>
       </c>
-      <c r="B24" s="132" t="s">
+      <c r="B24" s="169" t="s">
         <v>137</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:3">
       <c r="A25" s="25">
         <v>3</v>
       </c>
-      <c r="B25" s="132" t="s">
+      <c r="B25" s="169" t="s">
         <v>139</v>
       </c>
-      <c r="C25" s="133" t="s">
+      <c r="C25" s="170" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:3">
       <c r="A26" s="25">
         <v>3</v>
       </c>
-      <c r="B26" s="132" t="s">
+      <c r="B26" s="169" t="s">
         <v>141</v>
       </c>
-      <c r="C26" s="133">
+      <c r="C26" s="170">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:3">
       <c r="A27" s="25">
         <v>3</v>
       </c>
-      <c r="B27" s="132" t="s">
+      <c r="B27" s="169" t="s">
         <v>142</v>
       </c>
-      <c r="C27" s="130" t="s">
+      <c r="C27" s="167" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:3">
       <c r="A28" s="25">
         <v>3</v>
       </c>
-      <c r="B28" s="132" t="s">
+      <c r="B28" s="169" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="133" t="s">
+      <c r="C28" s="170" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:3">
       <c r="A29" s="25">
         <v>3</v>
       </c>
-      <c r="B29" s="132" t="s">
+      <c r="B29" s="169" t="s">
         <v>146</v>
       </c>
-      <c r="C29" s="133" t="s">
+      <c r="C29" s="170" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:3">
       <c r="A30" s="25">
         <v>3</v>
       </c>
-      <c r="B30" s="132" t="s">
+      <c r="B30" s="169" t="s">
         <v>148</v>
       </c>
-      <c r="C30" s="133" t="s">
+      <c r="C30" s="170" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:3">
       <c r="A31" s="25">
         <v>3</v>
       </c>
-      <c r="B31" s="132" t="s">
+      <c r="B31" s="169" t="s">
         <v>150</v>
       </c>
-      <c r="C31" s="133">
+      <c r="C31" s="170">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:3">
       <c r="A32" s="25">
         <v>4</v>
       </c>
-      <c r="B32" s="132" t="s">
+      <c r="B32" s="169" t="s">
         <v>151</v>
       </c>
-      <c r="C32" s="133" t="s">
+      <c r="C32" s="170" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:3">
       <c r="A33" s="25">
         <v>4</v>
       </c>
-      <c r="B33" s="132" t="s">
+      <c r="B33" s="169" t="s">
         <v>153</v>
       </c>
-      <c r="C33" s="130" t="s">
+      <c r="C33" s="167" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:3">
       <c r="A34" s="25">
         <v>4</v>
       </c>
-      <c r="B34" s="132" t="s">
+      <c r="B34" s="169" t="s">
         <v>155</v>
       </c>
-      <c r="C34" s="133" t="s">
+      <c r="C34" s="170" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:3">
       <c r="A35" s="25">
         <v>4</v>
       </c>
-      <c r="B35" s="132" t="s">
+      <c r="B35" s="169" t="s">
         <v>157</v>
       </c>
-      <c r="C35" s="133" t="s">
+      <c r="C35" s="170" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>4</v>
       </c>
-      <c r="B36" s="132" t="s">
+      <c r="B36" s="169" t="s">
         <v>159</v>
       </c>
-      <c r="C36" s="133" t="s">
+      <c r="C36" s="170" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:3">
       <c r="A37" s="25">
         <v>4</v>
       </c>
-      <c r="B37" s="132" t="s">
+      <c r="B37" s="169" t="s">
         <v>161</v>
       </c>
-      <c r="C37" s="133" t="s">
+      <c r="C37" s="170" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>4</v>
       </c>
-      <c r="B38" s="132" t="s">
+      <c r="B38" s="169" t="s">
         <v>162</v>
       </c>
-      <c r="C38" s="133">
+      <c r="C38" s="170">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:3">
       <c r="A39" s="25">
         <v>4</v>
       </c>
-      <c r="B39" s="132" t="s">
+      <c r="B39" s="169" t="s">
         <v>163</v>
       </c>
-      <c r="C39" s="133" t="s">
+      <c r="C39" s="170" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:3">
       <c r="A40" s="25"/>
-      <c r="B40" s="132" t="s">
+      <c r="B40" s="169" t="s">
         <v>165</v>
       </c>
-      <c r="C40" s="133" t="s">
+      <c r="C40" s="170" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:3">
       <c r="A41" s="25"/>
-      <c r="B41" s="132" t="s">
+      <c r="B41" s="169" t="s">
         <v>167</v>
       </c>
-      <c r="C41" s="133" t="s">
+      <c r="C41" s="170" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:3">
       <c r="A42" s="25"/>
-      <c r="B42" s="132" t="s">
+      <c r="B42" s="169" t="s">
         <v>169</v>
       </c>
-      <c r="C42" s="133" t="s">
+      <c r="C42" s="170" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="B43" s="117" t="s">
+    <row r="43" spans="2:3">
+      <c r="B43" s="149" t="s">
         <v>170</v>
       </c>
-      <c r="C43" s="130" t="s">
+      <c r="C43" s="167" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="25"/>
-      <c r="B45" s="132" t="s">
+      <c r="B45" s="169" t="s">
         <v>172</v>
       </c>
-      <c r="C45" s="133" t="s">
+      <c r="C45" s="170" t="s">
         <v>173</v>
       </c>
-      <c r="D45" s="117" t="s">
+      <c r="D45" s="149" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:3">
       <c r="A46" s="25"/>
-      <c r="B46" s="132" t="s">
+      <c r="B46" s="169" t="s">
         <v>175</v>
       </c>
-      <c r="C46" s="133" t="s">
+      <c r="C46" s="170" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="B48" s="117" t="s">
+    <row r="48" spans="2:4">
+      <c r="B48" s="149" t="s">
         <v>177</v>
       </c>
-      <c r="C48" s="130" t="s">
+      <c r="C48" s="167" t="s">
         <v>178</v>
       </c>
-      <c r="D48" s="117" t="s">
+      <c r="D48" s="149" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="B49" s="117" t="s">
+    <row r="49" spans="2:4">
+      <c r="B49" s="149" t="s">
         <v>180</v>
       </c>
-      <c r="C49" s="130">
+      <c r="C49" s="167">
         <v>4</v>
       </c>
-      <c r="D49" s="117" t="s">
+      <c r="D49" s="149" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9151,964 +9752,966 @@
       <c r="A50" s="25">
         <v>4</v>
       </c>
-      <c r="B50" s="132" t="s">
+      <c r="B50" s="169" t="s">
         <v>181</v>
       </c>
       <c r="C50" s="25"/>
-      <c r="D50" s="117" t="s">
+      <c r="D50" s="149" t="s">
         <v>179</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="122"/>
-    <col min="2" max="2" width="18.28515625" style="122" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="122" customWidth="1"/>
-    <col min="4" max="4" width="22" style="122"/>
-    <col min="5" max="5" width="14.5703125" style="122" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="122" customWidth="1"/>
-    <col min="7" max="7" width="13" style="122" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="122" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" style="122"/>
-    <col min="10" max="10" width="10.5703125" style="122"/>
-    <col min="11" max="11" width="18.42578125" style="122" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="122"/>
+    <col min="1" max="1" width="6.85185185185185" style="154"/>
+    <col min="2" max="2" width="18.287037037037" style="154" customWidth="1"/>
+    <col min="3" max="3" width="17.712962962963" style="154" customWidth="1"/>
+    <col min="4" max="4" width="22" style="154"/>
+    <col min="5" max="5" width="14.5740740740741" style="154" customWidth="1"/>
+    <col min="6" max="6" width="12.287037037037" style="154" customWidth="1"/>
+    <col min="7" max="7" width="13" style="154" customWidth="1"/>
+    <col min="8" max="8" width="17.4259259259259" style="154" customWidth="1"/>
+    <col min="9" max="9" width="19.712962962963" style="154"/>
+    <col min="10" max="10" width="10.5740740740741" style="154"/>
+    <col min="11" max="11" width="18.4259259259259" style="154" customWidth="1"/>
+    <col min="12" max="16384" width="8.85185185185185" style="154"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="123"/>
-      <c r="B1" s="144" t="s">
+      <c r="A1" s="155"/>
+      <c r="B1" s="156" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="147" t="s">
+      <c r="C1" s="157"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="159" t="s">
         <v>183</v>
       </c>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147" t="s">
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159" t="s">
         <v>184</v>
       </c>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="123"/>
-      <c r="B2" s="124" t="s">
+      <c r="A2" s="155"/>
+      <c r="B2" s="160" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="160" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="160" t="s">
         <v>187</v>
       </c>
-      <c r="E2" s="124" t="s">
+      <c r="E2" s="160" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="124" t="s">
+      <c r="F2" s="160" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="124" t="s">
+      <c r="G2" s="160" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="124" t="s">
+      <c r="H2" s="160" t="s">
         <v>186</v>
       </c>
-      <c r="I2" s="124" t="s">
+      <c r="I2" s="160" t="s">
         <v>190</v>
       </c>
-      <c r="J2" s="124" t="s">
+      <c r="J2" s="160" t="s">
         <v>191</v>
       </c>
-      <c r="K2" s="124" t="s">
+      <c r="K2" s="160" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="125">
+      <c r="A3" s="161">
         <v>41759</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="148" t="s">
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="163" t="s">
         <v>192</v>
       </c>
-      <c r="J3" s="147"/>
-      <c r="K3" s="147"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="125">
+      <c r="A4" s="161">
         <v>41760</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="155" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="123" t="s">
+      <c r="C4" s="155" t="s">
         <v>194</v>
       </c>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="154" t="s">
         <v>195</v>
       </c>
-      <c r="E4" s="122" t="s">
+      <c r="E4" s="154" t="s">
         <v>196</v>
       </c>
-      <c r="F4" s="123" t="s">
+      <c r="F4" s="155" t="s">
         <v>197</v>
       </c>
-      <c r="G4" s="123" t="s">
+      <c r="G4" s="155" t="s">
         <v>198</v>
       </c>
-      <c r="H4" s="123" t="s">
+      <c r="H4" s="155" t="s">
         <v>194</v>
       </c>
-      <c r="I4" s="123" t="s">
+      <c r="I4" s="155" t="s">
         <v>199</v>
       </c>
-      <c r="J4" s="123" t="s">
+      <c r="J4" s="155" t="s">
         <v>200</v>
       </c>
-      <c r="K4" s="123" t="s">
+      <c r="K4" s="155" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="125">
+      <c r="A5" s="161">
         <v>41761</v>
       </c>
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="155" t="s">
         <v>201</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="155" t="s">
         <v>194</v>
       </c>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="155" t="s">
         <v>202</v>
       </c>
-      <c r="E5" s="123" t="s">
+      <c r="E5" s="155" t="s">
         <v>203</v>
       </c>
-      <c r="F5" s="123" t="s">
+      <c r="F5" s="155" t="s">
         <v>204</v>
       </c>
-      <c r="G5" s="123" t="s">
+      <c r="G5" s="155" t="s">
         <v>205</v>
       </c>
-      <c r="H5" s="123" t="s">
+      <c r="H5" s="155" t="s">
         <v>194</v>
       </c>
-      <c r="I5" s="123" t="s">
+      <c r="I5" s="155" t="s">
         <v>206</v>
       </c>
-      <c r="J5" s="123" t="s">
+      <c r="J5" s="155" t="s">
         <v>207</v>
       </c>
-      <c r="K5" s="123" t="s">
+      <c r="K5" s="155" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="125">
+      <c r="A6" s="161">
         <v>41762</v>
       </c>
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="155" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="155" t="s">
         <v>194</v>
       </c>
-      <c r="D6" s="123" t="s">
+      <c r="D6" s="155" t="s">
         <v>208</v>
       </c>
-      <c r="E6" s="123" t="s">
+      <c r="E6" s="155" t="s">
         <v>209</v>
       </c>
-      <c r="F6" s="123" t="s">
+      <c r="F6" s="155" t="s">
         <v>201</v>
       </c>
-      <c r="G6" s="123" t="s">
+      <c r="G6" s="155" t="s">
         <v>198</v>
       </c>
-      <c r="H6" s="123" t="s">
+      <c r="H6" s="155" t="s">
         <v>194</v>
       </c>
-      <c r="I6" s="123" t="s">
+      <c r="I6" s="155" t="s">
         <v>210</v>
       </c>
-      <c r="J6" s="123" t="s">
+      <c r="J6" s="155" t="s">
         <v>211</v>
       </c>
-      <c r="K6" s="123" t="s">
+      <c r="K6" s="155" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="125">
+      <c r="A7" s="161">
         <v>41763</v>
       </c>
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="155" t="s">
         <v>204</v>
       </c>
-      <c r="C7" s="123" t="s">
+      <c r="C7" s="155" t="s">
         <v>194</v>
       </c>
-      <c r="D7" s="123" t="s">
+      <c r="D7" s="155" t="s">
         <v>202</v>
       </c>
-      <c r="E7" s="124" t="s">
+      <c r="E7" s="160" t="s">
         <v>212</v>
       </c>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="155"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="155"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="125">
+      <c r="A8" s="161">
         <v>41764</v>
       </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
+      <c r="B8" s="155"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="155"/>
+      <c r="J8" s="155"/>
+      <c r="K8" s="155"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="125">
+      <c r="A9" s="161">
         <v>41765</v>
       </c>
-      <c r="B9" s="123"/>
-      <c r="C9" s="123"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="123"/>
+      <c r="B9" s="155"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="155"/>
+      <c r="J9" s="155"/>
+      <c r="K9" s="155"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="126">
+      <c r="A10" s="162">
         <v>41766</v>
       </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123" t="s">
+      <c r="B10" s="155"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="155" t="s">
         <v>199</v>
       </c>
-      <c r="J10" s="122" t="s">
+      <c r="J10" s="154" t="s">
         <v>213</v>
       </c>
-      <c r="K10" s="123" t="s">
+      <c r="K10" s="155" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="126">
+      <c r="A11" s="162">
         <v>41767</v>
       </c>
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="155" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="155" t="s">
         <v>194</v>
       </c>
-      <c r="D11" s="122" t="s">
+      <c r="D11" s="154" t="s">
         <v>202</v>
       </c>
-      <c r="E11" s="122" t="s">
+      <c r="E11" s="154" t="s">
         <v>214</v>
       </c>
-      <c r="F11" s="123" t="s">
+      <c r="F11" s="155" t="s">
         <v>197</v>
       </c>
-      <c r="G11" s="123" t="s">
+      <c r="G11" s="155" t="s">
         <v>198</v>
       </c>
-      <c r="H11" s="123" t="s">
+      <c r="H11" s="155" t="s">
         <v>194</v>
       </c>
-      <c r="I11" s="123" t="s">
+      <c r="I11" s="155" t="s">
         <v>215</v>
       </c>
-      <c r="J11" s="123"/>
-      <c r="K11" s="123" t="s">
+      <c r="J11" s="155"/>
+      <c r="K11" s="155" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="126">
+      <c r="A12" s="162">
         <v>41768</v>
       </c>
-      <c r="B12" s="123" t="s">
+      <c r="B12" s="155" t="s">
         <v>201</v>
       </c>
-      <c r="C12" s="123" t="s">
+      <c r="C12" s="155" t="s">
         <v>194</v>
       </c>
-      <c r="D12" s="123" t="s">
+      <c r="D12" s="155" t="s">
         <v>195</v>
       </c>
-      <c r="E12" s="123" t="s">
+      <c r="E12" s="155" t="s">
         <v>216</v>
       </c>
-      <c r="F12" s="123" t="s">
+      <c r="F12" s="155" t="s">
         <v>204</v>
       </c>
-      <c r="G12" s="123" t="s">
+      <c r="G12" s="155" t="s">
         <v>205</v>
       </c>
-      <c r="H12" s="123" t="s">
+      <c r="H12" s="155" t="s">
         <v>194</v>
       </c>
-      <c r="I12" s="123" t="s">
+      <c r="I12" s="155" t="s">
         <v>217</v>
       </c>
-      <c r="K12" s="123" t="s">
+      <c r="K12" s="155" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="126">
+      <c r="A13" s="162">
         <v>41769</v>
       </c>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="155" t="s">
         <v>218</v>
       </c>
-      <c r="C13" s="123" t="s">
+      <c r="C13" s="155" t="s">
         <v>194</v>
       </c>
-      <c r="D13" s="123" t="s">
+      <c r="D13" s="155" t="s">
         <v>219</v>
       </c>
-      <c r="E13" s="148" t="s">
+      <c r="E13" s="163" t="s">
         <v>220</v>
       </c>
-      <c r="F13" s="147"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="123"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="125"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="C15" s="122" t="s">
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="155"/>
+      <c r="K13" s="155"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="161"/>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="C15" s="154" t="s">
         <v>221</v>
       </c>
-      <c r="E15" s="122" t="s">
+      <c r="E15" s="154" t="s">
         <v>222</v>
       </c>
-      <c r="F15" s="122" t="s">
+      <c r="F15" s="154" t="s">
         <v>223</v>
       </c>
-      <c r="G15" s="122" t="s">
+      <c r="G15" s="154" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="B16" s="122" t="s">
+    <row r="16" spans="2:7">
+      <c r="B16" s="154" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="122">
+      <c r="C16" s="154">
         <v>5</v>
       </c>
-      <c r="E16" s="127">
+      <c r="E16" s="164">
         <v>2.5</v>
       </c>
-      <c r="F16" s="122">
+      <c r="F16" s="154">
         <f t="shared" ref="F16:F18" si="0">C16*E16</f>
         <v>12.5</v>
       </c>
-      <c r="G16" s="122" t="s">
+      <c r="G16" s="154" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="122" t="s">
+      <c r="B17" s="154" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="122">
+      <c r="C17" s="154">
         <v>3</v>
       </c>
-      <c r="E17" s="127">
+      <c r="E17" s="164">
         <v>2.5</v>
       </c>
-      <c r="F17" s="122">
+      <c r="F17" s="154">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="G17" s="128" t="s">
+      <c r="G17" s="165" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="122" t="s">
+      <c r="B18" s="154" t="s">
         <v>226</v>
       </c>
-      <c r="C18" s="122">
+      <c r="C18" s="154">
         <v>4</v>
       </c>
-      <c r="E18" s="127">
+      <c r="E18" s="164">
         <v>3</v>
       </c>
-      <c r="F18" s="122">
+      <c r="F18" s="154">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G18" s="122" t="s">
+      <c r="G18" s="154" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="122" t="s">
+    <row r="19" spans="2:5">
+      <c r="B19" s="154" t="s">
         <v>206</v>
       </c>
-      <c r="C19" s="122">
+      <c r="C19" s="154">
         <v>1</v>
       </c>
-      <c r="E19" s="127"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="122" t="s">
+      <c r="E19" s="164"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="154" t="s">
         <v>210</v>
       </c>
-      <c r="C20" s="122">
+      <c r="C20" s="154">
         <v>1</v>
       </c>
-      <c r="E20" s="127"/>
+      <c r="E20" s="164"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="122" t="s">
+      <c r="B21" s="154" t="s">
         <v>227</v>
       </c>
-      <c r="C21" s="122">
+      <c r="C21" s="154">
         <v>2</v>
       </c>
-      <c r="E21" s="127">
+      <c r="E21" s="164">
         <v>2.5</v>
       </c>
-      <c r="F21" s="122">
+      <c r="F21" s="154">
         <f t="shared" ref="F21:F23" si="1">C21*E21</f>
         <v>5</v>
       </c>
-      <c r="G21" s="122" t="s">
+      <c r="G21" s="154" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="122" t="s">
+      <c r="B22" s="154" t="s">
         <v>228</v>
       </c>
-      <c r="C22" s="122">
+      <c r="C22" s="154">
         <v>7</v>
       </c>
-      <c r="E22" s="127">
+      <c r="E22" s="164">
         <v>5</v>
       </c>
-      <c r="F22" s="122">
+      <c r="F22" s="154">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="G22" s="122" t="s">
+      <c r="G22" s="154" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="122" t="s">
+      <c r="B23" s="154" t="s">
         <v>230</v>
       </c>
-      <c r="C23" s="122">
+      <c r="C23" s="154">
         <v>5</v>
       </c>
-      <c r="E23" s="127">
+      <c r="E23" s="164">
         <v>3</v>
       </c>
-      <c r="F23" s="122">
+      <c r="F23" s="154">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G23" s="122" t="s">
+      <c r="G23" s="154" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="122" t="s">
+    <row r="24" spans="2:5">
+      <c r="B24" s="154" t="s">
         <v>231</v>
       </c>
-      <c r="C24" s="122">
+      <c r="C24" s="154">
         <v>5</v>
       </c>
-      <c r="E24" s="127"/>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="122" t="s">
+      <c r="E24" s="164"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="154" t="s">
         <v>232</v>
       </c>
-      <c r="C25" s="122">
+      <c r="C25" s="154">
         <v>3</v>
       </c>
-      <c r="E25" s="127"/>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="122" t="s">
+      <c r="E25" s="164"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="154" t="s">
         <v>233</v>
       </c>
-      <c r="C26" s="122">
+      <c r="C26" s="154">
         <v>5</v>
       </c>
-      <c r="E26" s="127"/>
+      <c r="E26" s="164"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="122" t="s">
+      <c r="B27" s="154" t="s">
         <v>234</v>
       </c>
-      <c r="C27" s="122">
+      <c r="C27" s="154">
         <v>1</v>
       </c>
-      <c r="E27" s="129">
+      <c r="E27" s="166">
         <v>1.5</v>
       </c>
-      <c r="F27" s="122">
+      <c r="F27" s="154">
         <f>C27*E27</f>
         <v>1.5</v>
       </c>
-      <c r="G27" s="122" t="s">
+      <c r="G27" s="154" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="122" t="s">
+    <row r="28" spans="2:5">
+      <c r="B28" s="154" t="s">
         <v>235</v>
       </c>
-      <c r="C28" s="122">
+      <c r="C28" s="154">
         <v>1</v>
       </c>
-      <c r="E28" s="129"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="122" t="s">
+      <c r="E28" s="166"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="154" t="s">
         <v>236</v>
       </c>
-      <c r="C29" s="122">
+      <c r="C29" s="154">
         <v>1</v>
       </c>
-      <c r="E29" s="129"/>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="122" t="s">
+      <c r="E29" s="166"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="154" t="s">
         <v>237</v>
       </c>
-      <c r="C30" s="122">
+      <c r="C30" s="154">
         <v>12</v>
       </c>
-      <c r="E30" s="129"/>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="122" t="s">
+      <c r="E30" s="166"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="154" t="s">
         <v>238</v>
       </c>
-      <c r="C31" s="122">
+      <c r="C31" s="154">
         <v>12</v>
       </c>
-      <c r="E31" s="129"/>
+      <c r="E31" s="166"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="122" t="s">
+      <c r="B32" s="154" t="s">
         <v>239</v>
       </c>
-      <c r="C32" s="122">
+      <c r="C32" s="154">
         <v>8</v>
       </c>
-      <c r="E32" s="127">
+      <c r="E32" s="164">
         <v>2</v>
       </c>
-      <c r="F32" s="122">
+      <c r="F32" s="154">
         <f t="shared" ref="F32:F40" si="2">C32*E32</f>
         <v>16</v>
       </c>
-      <c r="G32" s="122" t="s">
+      <c r="G32" s="154" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="122" t="s">
+      <c r="B33" s="154" t="s">
         <v>241</v>
       </c>
-      <c r="C33" s="122">
+      <c r="C33" s="154">
         <v>5</v>
       </c>
-      <c r="E33" s="127">
+      <c r="E33" s="164">
         <v>1</v>
       </c>
-      <c r="F33" s="122">
+      <c r="F33" s="154">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="G33" s="122" t="s">
+      <c r="G33" s="154" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="122" t="s">
+      <c r="B34" s="154" t="s">
         <v>242</v>
       </c>
-      <c r="C34" s="122">
+      <c r="C34" s="154">
         <v>5</v>
       </c>
-      <c r="E34" s="127">
+      <c r="E34" s="164">
         <v>3</v>
       </c>
-      <c r="F34" s="122">
+      <c r="F34" s="154">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="G34" s="122" t="s">
+      <c r="G34" s="154" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="122" t="s">
+      <c r="B35" s="154" t="s">
         <v>243</v>
       </c>
-      <c r="C35" s="122">
+      <c r="C35" s="154">
         <v>23</v>
       </c>
-      <c r="E35" s="127">
+      <c r="E35" s="164">
         <v>0.15</v>
       </c>
-      <c r="F35" s="122">
+      <c r="F35" s="154">
         <f t="shared" si="2"/>
-        <v>3.4499999999999997</v>
-      </c>
-      <c r="G35" s="122" t="s">
+        <v>3.45</v>
+      </c>
+      <c r="G35" s="154" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="122" t="s">
+      <c r="B36" s="154" t="s">
         <v>244</v>
       </c>
-      <c r="C36" s="122">
+      <c r="C36" s="154">
         <v>1</v>
       </c>
-      <c r="E36" s="127">
+      <c r="E36" s="164">
         <v>2</v>
       </c>
-      <c r="F36" s="122">
+      <c r="F36" s="154">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G36" s="122" t="s">
+      <c r="G36" s="154" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="122" t="s">
+      <c r="B37" s="154" t="s">
         <v>245</v>
       </c>
-      <c r="C37" s="122">
+      <c r="C37" s="154">
         <v>4</v>
       </c>
-      <c r="E37" s="127">
+      <c r="E37" s="164">
         <v>1</v>
       </c>
-      <c r="F37" s="122">
+      <c r="F37" s="154">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G37" s="122" t="s">
+      <c r="G37" s="154" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="122" t="s">
+      <c r="B38" s="154" t="s">
         <v>246</v>
       </c>
-      <c r="C38" s="122">
+      <c r="C38" s="154">
         <v>18</v>
       </c>
-      <c r="E38" s="127">
+      <c r="E38" s="164">
         <v>0.6</v>
       </c>
-      <c r="F38" s="122">
+      <c r="F38" s="154">
         <f t="shared" si="2"/>
-        <v>10.799999999999999</v>
-      </c>
-      <c r="G38" s="122" t="s">
+        <v>10.8</v>
+      </c>
+      <c r="G38" s="154" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="122" t="s">
+      <c r="B39" s="154" t="s">
         <v>247</v>
       </c>
-      <c r="C39" s="122">
+      <c r="C39" s="154">
         <v>3</v>
       </c>
-      <c r="E39" s="127">
+      <c r="E39" s="164">
         <v>5</v>
       </c>
-      <c r="F39" s="122">
+      <c r="F39" s="154">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="G39" s="122" t="s">
+      <c r="G39" s="154" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="122" t="s">
+      <c r="B40" s="154" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="122">
+      <c r="C40" s="154">
         <v>5</v>
       </c>
-      <c r="D40" s="122" t="s">
+      <c r="D40" s="154" t="s">
         <v>249</v>
       </c>
-      <c r="E40" s="127">
+      <c r="E40" s="164">
         <v>0.5</v>
       </c>
-      <c r="F40" s="122">
+      <c r="F40" s="154">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="G40" s="122" t="s">
+      <c r="G40" s="154" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="2:7">
-      <c r="B41" s="122" t="s">
+    <row r="41" spans="2:5">
+      <c r="B41" s="154" t="s">
         <v>250</v>
       </c>
-      <c r="C41" s="122">
+      <c r="C41" s="154">
         <v>3</v>
       </c>
-      <c r="E41" s="127"/>
+      <c r="E41" s="164"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="122" t="s">
+      <c r="B42" s="154" t="s">
         <v>117</v>
       </c>
-      <c r="C42" s="122">
+      <c r="C42" s="154">
         <v>5</v>
       </c>
-      <c r="D42" s="122" t="s">
+      <c r="D42" s="154" t="s">
         <v>251</v>
       </c>
-      <c r="E42" s="127">
+      <c r="E42" s="164">
         <v>0.2</v>
       </c>
-      <c r="F42" s="122">
+      <c r="F42" s="154">
         <v>3</v>
       </c>
-      <c r="G42" s="122" t="s">
+      <c r="G42" s="154" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="122" t="s">
+      <c r="B43" s="154" t="s">
         <v>252</v>
       </c>
-      <c r="C43" s="122">
+      <c r="C43" s="154">
         <v>3</v>
       </c>
-      <c r="E43" s="127">
+      <c r="E43" s="164">
         <v>1.5</v>
       </c>
-      <c r="F43" s="122">
+      <c r="F43" s="154">
         <f t="shared" ref="F43:F47" si="3">C43*E43</f>
         <v>4.5</v>
       </c>
-      <c r="G43" s="122" t="s">
+      <c r="G43" s="154" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="122" t="s">
+      <c r="B44" s="154" t="s">
         <v>253</v>
       </c>
-      <c r="C44" s="122">
+      <c r="C44" s="154">
         <v>3</v>
       </c>
-      <c r="E44" s="127">
+      <c r="E44" s="164">
         <v>1</v>
       </c>
-      <c r="F44" s="122">
+      <c r="F44" s="154">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="G44" s="122" t="s">
+      <c r="G44" s="154" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="122" t="s">
+      <c r="B45" s="154" t="s">
         <v>254</v>
       </c>
-      <c r="C45" s="122">
+      <c r="C45" s="154">
         <v>3</v>
       </c>
-      <c r="E45" s="127">
+      <c r="E45" s="164">
         <v>2</v>
       </c>
-      <c r="F45" s="122">
+      <c r="F45" s="154">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="G45" s="122" t="s">
+      <c r="G45" s="154" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="46" spans="2:7">
-      <c r="B46" s="122" t="s">
+    <row r="46" spans="2:6">
+      <c r="B46" s="154" t="s">
         <v>175</v>
       </c>
-      <c r="F46" s="122">
+      <c r="F46" s="154">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:7">
-      <c r="B47" s="122" t="s">
+    <row r="47" spans="2:6">
+      <c r="B47" s="154" t="s">
         <v>172</v>
       </c>
-      <c r="F47" s="122">
+      <c r="F47" s="154">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:7">
-      <c r="B48" s="122" t="s">
+    <row r="48" spans="2:2">
+      <c r="B48" s="154" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="122" t="s">
+    <row r="49" spans="2:3">
+      <c r="B49" s="154" t="s">
         <v>194</v>
       </c>
-      <c r="C49" s="122">
+      <c r="C49" s="154">
         <v>20</v>
       </c>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="122" t="s">
+      <c r="B50" s="154" t="s">
         <v>256</v>
       </c>
-      <c r="C50" s="122">
+      <c r="C50" s="154">
         <v>4</v>
       </c>
-      <c r="D50" s="122" t="s">
+      <c r="D50" s="154" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="51" spans="2:4">
-      <c r="B51" s="122" t="s">
+    <row r="51" spans="2:2">
+      <c r="B51" s="154" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="52" spans="2:4">
-      <c r="B52" s="122" t="s">
+    <row r="52" spans="2:2">
+      <c r="B52" s="154" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="53" spans="2:4">
-      <c r="B53" s="122" t="s">
+    <row r="53" spans="2:3">
+      <c r="B53" s="154" t="s">
         <v>259</v>
       </c>
-      <c r="C53" s="122" t="s">
+      <c r="C53" s="154" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="54" spans="2:4">
-      <c r="B54" s="122" t="s">
+    <row r="54" spans="2:2">
+      <c r="B54" s="154" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="55" spans="2:4">
-      <c r="B55" s="122" t="s">
+    <row r="55" spans="2:2">
+      <c r="B55" s="154" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="56" spans="2:4">
-      <c r="B56" s="122" t="s">
+    <row r="56" spans="2:2">
+      <c r="B56" s="154" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="57" spans="2:4">
-      <c r="B57" s="122" t="s">
+    <row r="57" spans="2:2">
+      <c r="B57" s="154" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="58" spans="2:4">
-      <c r="B58" s="122" t="s">
+    <row r="58" spans="2:2">
+      <c r="B58" s="154" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="59" spans="2:4">
-      <c r="B59" s="122" t="s">
+    <row r="59" spans="2:2">
+      <c r="B59" s="154" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="60" spans="2:4">
-      <c r="B60" s="122" t="s">
+    <row r="60" spans="2:2">
+      <c r="B60" s="154" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="61" spans="2:4">
-      <c r="B61" s="122" t="s">
+    <row r="61" spans="2:2">
+      <c r="B61" s="154" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="62" spans="2:4">
-      <c r="B62" s="122" t="s">
+    <row r="62" spans="2:2">
+      <c r="B62" s="154" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="63" spans="2:4">
-      <c r="B63" s="122" t="s">
+    <row r="63" spans="2:2">
+      <c r="B63" s="154" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="64" spans="2:4">
-      <c r="B64" s="122" t="s">
+    <row r="64" spans="2:2">
+      <c r="B64" s="154" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="122" t="s">
+      <c r="B65" s="154" t="s">
         <v>272</v>
       </c>
     </row>
@@ -10120,232 +10723,235 @@
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="E13:H13"/>
   </mergeCells>
-  <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.31" bottom="0.32" header="0.19" footer="0.32"/>
+  <pageMargins left="0.78740157480315" right="0.78740157480315" top="0.31" bottom="0.32" header="0.19" footer="0.32"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="B4 J6 J6 J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="117"/>
-    <col min="2" max="2" width="30.28515625" style="118" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="118" customWidth="1"/>
-    <col min="4" max="4" width="47.28515625" style="118" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="117"/>
+    <col min="1" max="1" width="9" style="149"/>
+    <col min="2" max="2" width="30.287037037037" style="150" customWidth="1"/>
+    <col min="3" max="3" width="24.4259259259259" style="150" customWidth="1"/>
+    <col min="4" max="4" width="47.287037037037" style="150" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="149"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="151" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="152" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="152" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="152" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30">
-      <c r="A2" s="119">
+    <row r="2" spans="1:4">
+      <c r="A2" s="151">
         <v>1.05</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="120" t="s">
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="152" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45">
-      <c r="A3" s="119">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="B3" s="120" t="s">
+    <row r="3" ht="43.2" spans="1:4">
+      <c r="A3" s="151">
+        <v>2.05</v>
+      </c>
+      <c r="B3" s="152" t="s">
         <v>275</v>
       </c>
-      <c r="C3" s="120" t="s">
+      <c r="C3" s="152" t="s">
         <v>276</v>
       </c>
-      <c r="D3" s="120" t="s">
+      <c r="D3" s="152" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30">
-      <c r="A4" s="119">
+    <row r="4" ht="28.8" spans="1:4">
+      <c r="A4" s="151">
         <v>3.05</v>
       </c>
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="152" t="s">
         <v>278</v>
       </c>
-      <c r="C4" s="120" t="s">
+      <c r="C4" s="152" t="s">
         <v>279</v>
       </c>
-      <c r="D4" s="120" t="s">
+      <c r="D4" s="152" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45">
-      <c r="A5" s="119">
+    <row r="5" ht="28.8" spans="1:4">
+      <c r="A5" s="151">
         <v>4.05</v>
       </c>
-      <c r="B5" s="120" t="s">
+      <c r="B5" s="152" t="s">
         <v>281</v>
       </c>
-      <c r="C5" s="120" t="s">
+      <c r="C5" s="152" t="s">
         <v>282</v>
       </c>
-      <c r="D5" s="120" t="s">
+      <c r="D5" s="152" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30">
-      <c r="A6" s="119">
+    <row r="6" ht="28.8" spans="1:4">
+      <c r="A6" s="151">
         <v>5.05</v>
       </c>
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="152" t="s">
         <v>284</v>
       </c>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-    </row>
-    <row r="7" spans="1:4" ht="30">
-      <c r="A7" s="119">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="120" t="s">
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+    </row>
+    <row r="7" ht="28.8" spans="1:4">
+      <c r="A7" s="151">
+        <v>8.05</v>
+      </c>
+      <c r="B7" s="153"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="152" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30">
-      <c r="A8" s="119">
-        <v>9.0500000000000007</v>
-      </c>
-      <c r="B8" s="120" t="s">
+    <row r="8" ht="28.8" spans="1:4">
+      <c r="A8" s="151">
+        <v>9.05</v>
+      </c>
+      <c r="B8" s="152" t="s">
         <v>286</v>
       </c>
-      <c r="C8" s="120" t="s">
+      <c r="C8" s="152" t="s">
         <v>287</v>
       </c>
-      <c r="D8" s="120" t="s">
+      <c r="D8" s="152" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="45">
-      <c r="A9" s="119">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="B9" s="120" t="s">
+    <row r="9" ht="43.2" spans="1:4">
+      <c r="A9" s="151">
+        <v>10.05</v>
+      </c>
+      <c r="B9" s="152" t="s">
         <v>289</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="152" t="s">
         <v>290</v>
       </c>
-      <c r="D9" s="120" t="s">
+      <c r="D9" s="152" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30">
-      <c r="A10" s="119">
+    <row r="10" ht="28.8" spans="1:4">
+      <c r="A10" s="151">
         <v>11.05</v>
       </c>
-      <c r="B10" s="120" t="s">
+      <c r="B10" s="152" t="s">
         <v>292</v>
       </c>
-      <c r="C10" s="120" t="s">
+      <c r="C10" s="152" t="s">
         <v>293</v>
       </c>
-      <c r="D10" s="120" t="s">
+      <c r="D10" s="152" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30">
-      <c r="A11" s="119">
+    <row r="11" spans="1:4">
+      <c r="A11" s="151">
         <v>12.05</v>
       </c>
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="152" t="s">
         <v>295</v>
       </c>
-      <c r="C11" s="120" t="s">
+      <c r="C11" s="152" t="s">
         <v>296</v>
       </c>
-      <c r="D11" s="121"/>
+      <c r="D11" s="153"/>
     </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:X42"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J6" sqref="B4 J6 J6 J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="8" style="29"/>
-    <col min="2" max="2" width="28.85546875" style="29" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="29"/>
-    <col min="4" max="4" width="13.140625" style="29"/>
-    <col min="5" max="5" width="21.42578125" style="29"/>
-    <col min="6" max="6" width="12.85546875" style="29"/>
-    <col min="7" max="7" width="9.28515625" style="29"/>
+    <col min="2" max="2" width="28.8518518518519" style="29" customWidth="1"/>
+    <col min="3" max="3" width="10.8518518518519" style="29"/>
+    <col min="4" max="4" width="13.1388888888889" style="29"/>
+    <col min="5" max="5" width="21.4259259259259" style="29"/>
+    <col min="6" max="6" width="12.8518518518519" style="29"/>
+    <col min="7" max="7" width="9.28703703703704" style="29"/>
     <col min="8" max="8" width="9" style="29"/>
-    <col min="9" max="9" width="12.140625" style="36"/>
-    <col min="10" max="10" width="19.42578125" style="29"/>
-    <col min="11" max="11" width="28.140625" style="29"/>
-    <col min="12" max="12" width="31.42578125" style="29"/>
-    <col min="13" max="13" width="18.5703125" style="29" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="29"/>
-    <col min="15" max="15" width="14.5703125" style="29" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" style="29"/>
-    <col min="17" max="17" width="14.140625" style="29"/>
+    <col min="9" max="9" width="12.1388888888889" style="36"/>
+    <col min="10" max="10" width="19.4259259259259" style="29"/>
+    <col min="11" max="11" width="28.1388888888889" style="29"/>
+    <col min="12" max="12" width="31.4259259259259" style="29"/>
+    <col min="13" max="13" width="18.5740740740741" style="29" customWidth="1"/>
+    <col min="14" max="14" width="14.1388888888889" style="29"/>
+    <col min="15" max="15" width="14.5740740740741" style="29" customWidth="1"/>
+    <col min="16" max="16" width="18.8518518518519" style="29"/>
+    <col min="17" max="17" width="14.1388888888889" style="29"/>
     <col min="18" max="16384" width="8" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="2:2">
       <c r="B1" s="35" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="2:5">
       <c r="B2" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="C2" s="105">
+      <c r="C2" s="137">
         <v>44680</v>
       </c>
-      <c r="D2" s="105">
+      <c r="D2" s="137">
         <v>44685</v>
       </c>
-      <c r="E2" s="106"/>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="E2" s="138"/>
+    </row>
+    <row r="3" spans="2:4">
       <c r="B3" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="137" t="s">
         <v>300</v>
       </c>
-      <c r="D3" s="106"/>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="D3" s="138"/>
+    </row>
+    <row r="4" spans="2:16">
       <c r="B4" s="35" t="s">
         <v>301</v>
       </c>
@@ -10364,13 +10970,13 @@
       <c r="G4" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="H4" s="107" t="s">
+      <c r="H4" s="139" t="s">
         <v>307</v>
       </c>
       <c r="I4" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="J4" s="113" t="s">
+      <c r="J4" s="145" t="s">
         <v>309</v>
       </c>
       <c r="K4" s="35" t="s">
@@ -10385,14 +10991,14 @@
       <c r="N4" s="35" t="s">
         <v>313</v>
       </c>
-      <c r="O4" s="114" t="s">
+      <c r="O4" s="146" t="s">
         <v>314</v>
       </c>
       <c r="P4" s="35" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15">
+    <row r="5" ht="15.15" spans="1:16">
       <c r="A5" s="29">
         <v>1</v>
       </c>
@@ -10411,7 +11017,7 @@
       <c r="F5" s="6">
         <v>13</v>
       </c>
-      <c r="G5" s="108"/>
+      <c r="G5" s="140"/>
       <c r="H5" s="6">
         <v>630</v>
       </c>
@@ -10437,7 +11043,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15">
+    <row r="6" ht="15.15" spans="1:16">
       <c r="A6" s="29">
         <v>2</v>
       </c>
@@ -10456,7 +11062,7 @@
       <c r="F6" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="G6" s="109"/>
+      <c r="G6" s="141"/>
       <c r="H6" s="20">
         <v>197</v>
       </c>
@@ -10482,7 +11088,7 @@
         <v>39367</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15">
+    <row r="7" ht="14.4" spans="1:16">
       <c r="A7" s="29">
         <v>3</v>
       </c>
@@ -10501,7 +11107,7 @@
       <c r="F7" s="6">
         <v>5</v>
       </c>
-      <c r="G7" s="109"/>
+      <c r="G7" s="141"/>
       <c r="H7" s="5">
         <v>503</v>
       </c>
@@ -10527,7 +11133,7 @@
         <v>39857</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15">
+    <row r="8" ht="14.4" spans="1:16">
       <c r="A8" s="29">
         <v>4</v>
       </c>
@@ -10572,7 +11178,7 @@
         <v>38553</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15">
+    <row r="9" ht="14.4" spans="1:16">
       <c r="A9" s="29">
         <v>5</v>
       </c>
@@ -10591,7 +11197,7 @@
       <c r="F9" s="6">
         <v>16</v>
       </c>
-      <c r="G9" s="109"/>
+      <c r="G9" s="141"/>
       <c r="H9" s="6">
         <v>56</v>
       </c>
@@ -10617,7 +11223,7 @@
         <v>39849</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15">
+    <row r="10" ht="14.4" spans="1:16">
       <c r="A10" s="29">
         <v>6</v>
       </c>
@@ -10661,7 +11267,7 @@
         <v>38137</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15">
+    <row r="11" ht="14.4" spans="1:16">
       <c r="A11" s="29">
         <v>7</v>
       </c>
@@ -10680,7 +11286,7 @@
       <c r="F11" s="6">
         <v>9</v>
       </c>
-      <c r="G11" s="108"/>
+      <c r="G11" s="140"/>
       <c r="H11" s="5">
         <v>441</v>
       </c>
@@ -10706,7 +11312,7 @@
         <v>39166</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15">
+    <row r="12" ht="14.4" spans="1:16">
       <c r="A12" s="29">
         <v>8</v>
       </c>
@@ -10725,7 +11331,7 @@
       <c r="F12" s="20">
         <v>3</v>
       </c>
-      <c r="G12" s="109"/>
+      <c r="G12" s="141"/>
       <c r="H12" s="24">
         <v>56</v>
       </c>
@@ -10751,7 +11357,7 @@
         <v>38917</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15">
+    <row r="13" ht="14.4" spans="1:16">
       <c r="A13" s="29">
         <v>9</v>
       </c>
@@ -10796,7 +11402,7 @@
         <v>40363</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15">
+    <row r="14" ht="14.4" spans="1:16">
       <c r="A14" s="29">
         <v>10</v>
       </c>
@@ -10841,7 +11447,7 @@
         <v>38434</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15">
+    <row r="15" ht="14.4" spans="1:16">
       <c r="A15" s="29">
         <v>11</v>
       </c>
@@ -10886,7 +11492,7 @@
         <v>40070</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15">
+    <row r="16" ht="14.4" spans="1:16">
       <c r="A16" s="29">
         <v>12</v>
       </c>
@@ -10931,7 +11537,7 @@
         <v>39331</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15">
+    <row r="17" ht="14.4" spans="1:16">
       <c r="A17" s="29">
         <v>13</v>
       </c>
@@ -10950,7 +11556,7 @@
       <c r="F17" s="20">
         <v>15</v>
       </c>
-      <c r="G17" s="109"/>
+      <c r="G17" s="141"/>
       <c r="H17" s="20">
         <v>586</v>
       </c>
@@ -10976,7 +11582,7 @@
         <v>38982</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15">
+    <row r="18" ht="14.4" spans="1:16">
       <c r="A18" s="29">
         <v>14</v>
       </c>
@@ -10995,7 +11601,7 @@
       <c r="F18" s="6">
         <v>1</v>
       </c>
-      <c r="G18" s="109"/>
+      <c r="G18" s="141"/>
       <c r="H18" s="5">
         <v>64</v>
       </c>
@@ -11021,7 +11627,7 @@
         <v>40195</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15">
+    <row r="19" ht="15.15" spans="1:16">
       <c r="A19" s="29">
         <v>15</v>
       </c>
@@ -11066,7 +11672,7 @@
         <v>39529</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15">
+    <row r="20" ht="15.15" spans="1:16">
       <c r="A20" s="29">
         <v>16</v>
       </c>
@@ -11106,7 +11712,7 @@
         <v>38989</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15">
+    <row r="21" ht="14.4" spans="1:16">
       <c r="A21" s="29">
         <v>17</v>
       </c>
@@ -11150,7 +11756,7 @@
         <v>39987</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15">
+    <row r="22" ht="14.4" spans="1:16">
       <c r="A22" s="29">
         <v>18</v>
       </c>
@@ -11194,62 +11800,62 @@
         <v>38070</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="2:6">
       <c r="B25" s="29" t="s">
         <v>413</v>
       </c>
-      <c r="C25" s="110" t="s">
+      <c r="C25" s="142" t="s">
         <v>414</v>
       </c>
       <c r="E25" s="36" t="s">
         <v>415</v>
       </c>
-      <c r="F25" s="110">
+      <c r="F25" s="142">
         <v>89217427984</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="2:6">
       <c r="B26" s="29" t="s">
         <v>416</v>
       </c>
-      <c r="C26" s="110" t="s">
+      <c r="C26" s="142" t="s">
         <v>417</v>
       </c>
       <c r="E26" s="36" t="s">
         <v>415</v>
       </c>
-      <c r="F26" s="110">
+      <c r="F26" s="142">
         <v>89679796720</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="2:3">
       <c r="B28" s="29" t="s">
         <v>418</v>
       </c>
-      <c r="C28" s="105">
+      <c r="C28" s="137">
         <v>44669</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="2:3">
       <c r="B29" s="29" t="s">
         <v>419</v>
       </c>
-      <c r="C29" s="110">
+      <c r="C29" s="142">
         <v>2022</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="2:3">
       <c r="B30" s="29" t="s">
         <v>420</v>
       </c>
-      <c r="C30" s="111"/>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="B32" s="112" t="s">
+      <c r="C30" s="143"/>
+    </row>
+    <row r="32" ht="13.95" spans="2:2">
+      <c r="B32" s="144" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="33" spans="2:24" ht="15">
+    <row r="33" ht="15.15" spans="2:16">
       <c r="B33" s="6" t="s">
         <v>422</v>
       </c>
@@ -11271,7 +11877,7 @@
       <c r="K33" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="L33" s="115"/>
+      <c r="L33" s="147"/>
       <c r="N33" s="3"/>
       <c r="O33" s="6" t="s">
         <v>425</v>
@@ -11280,7 +11886,7 @@
         <v>39462</v>
       </c>
     </row>
-    <row r="34" spans="2:24" ht="15">
+    <row r="34" ht="15.75" spans="2:24">
       <c r="B34" s="6" t="s">
         <v>426</v>
       </c>
@@ -11302,8 +11908,8 @@
       <c r="K34" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="L34" s="115"/>
-      <c r="M34" s="116"/>
+      <c r="L34" s="147"/>
+      <c r="M34" s="148"/>
       <c r="N34" s="3"/>
       <c r="O34" s="47" t="s">
         <v>430</v>
@@ -11311,11 +11917,11 @@
       <c r="P34" s="11">
         <v>39581</v>
       </c>
-      <c r="V34" s="116"/>
-      <c r="W34" s="116"/>
-      <c r="X34" s="116"/>
-    </row>
-    <row r="35" spans="2:24" ht="15">
+      <c r="V34" s="148"/>
+      <c r="W34" s="148"/>
+      <c r="X34" s="148"/>
+    </row>
+    <row r="35" ht="15.15" spans="2:16">
       <c r="B35" s="6" t="s">
         <v>431</v>
       </c>
@@ -11337,7 +11943,7 @@
       <c r="K35" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="L35" s="115"/>
+      <c r="L35" s="147"/>
       <c r="N35" s="8"/>
       <c r="O35" s="48" t="s">
         <v>435</v>
@@ -11346,7 +11952,7 @@
         <v>39916</v>
       </c>
     </row>
-    <row r="36" spans="2:24" ht="15">
+    <row r="36" ht="15.15" spans="2:16">
       <c r="B36" s="20" t="s">
         <v>436</v>
       </c>
@@ -11368,14 +11974,14 @@
       <c r="K36" s="18" t="s">
         <v>438</v>
       </c>
-      <c r="L36" s="115"/>
+      <c r="L36" s="147"/>
       <c r="N36" s="8"/>
       <c r="O36" s="15"/>
       <c r="P36" s="16">
         <v>38933</v>
       </c>
     </row>
-    <row r="37" spans="2:24" ht="15">
+    <row r="37" ht="15.15" spans="2:16">
       <c r="B37" s="6" t="s">
         <v>439</v>
       </c>
@@ -11397,7 +12003,7 @@
       <c r="K37" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="L37" s="115"/>
+      <c r="L37" s="147"/>
       <c r="N37" s="8"/>
       <c r="O37" s="6" t="s">
         <v>443</v>
@@ -11406,7 +12012,7 @@
         <v>39810</v>
       </c>
     </row>
-    <row r="38" spans="2:24" ht="15">
+    <row r="38" ht="15.15" spans="2:16">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -11414,12 +12020,12 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="115"/>
+      <c r="L38" s="147"/>
       <c r="N38" s="3"/>
       <c r="O38" s="8"/>
       <c r="P38" s="7"/>
     </row>
-    <row r="39" spans="2:24" ht="15">
+    <row r="39" ht="15.15" spans="2:16">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -11427,12 +12033,12 @@
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="115"/>
+      <c r="L39" s="147"/>
       <c r="N39" s="8"/>
       <c r="O39" s="3"/>
       <c r="P39" s="7"/>
     </row>
-    <row r="40" spans="2:24" ht="15">
+    <row r="40" ht="15.15" spans="2:16">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -11440,12 +12046,12 @@
       <c r="I40" s="3"/>
       <c r="J40" s="8"/>
       <c r="K40" s="3"/>
-      <c r="L40" s="115"/>
+      <c r="L40" s="147"/>
       <c r="N40" s="8"/>
       <c r="O40" s="3"/>
       <c r="P40" s="7"/>
     </row>
-    <row r="41" spans="2:24" ht="15">
+    <row r="41" ht="15.15" spans="2:16">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -11453,12 +12059,12 @@
       <c r="I41" s="3"/>
       <c r="J41" s="8"/>
       <c r="K41" s="3"/>
-      <c r="L41" s="115"/>
+      <c r="L41" s="147"/>
       <c r="N41" s="8"/>
       <c r="O41" s="3"/>
       <c r="P41" s="7"/>
     </row>
-    <row r="42" spans="2:24" ht="15">
+    <row r="42" ht="15.15" spans="2:16">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -11466,7 +12072,7 @@
       <c r="I42" s="3"/>
       <c r="J42" s="8"/>
       <c r="K42" s="3"/>
-      <c r="L42" s="115"/>
+      <c r="L42" s="147"/>
       <c r="N42" s="8"/>
       <c r="O42" s="3"/>
       <c r="P42" s="7"/>
@@ -11474,12 +12080,12 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -11489,46 +12095,46 @@
       <selection activeCell="J6" sqref="B4 J6 J6 J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="50" customWidth="1"/>
+    <col min="1" max="1" width="3.42592592592593" style="50" customWidth="1"/>
     <col min="2" max="2" width="18" style="50" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="50"/>
-    <col min="4" max="4" width="11.140625" style="50" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="50" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" style="50" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="50" customWidth="1"/>
+    <col min="3" max="3" width="10.8518518518519" style="50"/>
+    <col min="4" max="4" width="11.1388888888889" style="50" customWidth="1"/>
+    <col min="5" max="5" width="6.71296296296296" style="50" customWidth="1"/>
+    <col min="6" max="6" width="29.8518518518519" style="50" customWidth="1"/>
+    <col min="7" max="7" width="8.42592592592593" style="50" customWidth="1"/>
     <col min="8" max="8" width="11" style="50" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" style="50" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" style="50"/>
-    <col min="11" max="11" width="17.85546875" style="50" customWidth="1"/>
+    <col min="9" max="9" width="3.71296296296296" style="50" customWidth="1"/>
+    <col min="10" max="10" width="7.85185185185185" style="50"/>
+    <col min="11" max="11" width="17.8518518518519" style="50" customWidth="1"/>
     <col min="12" max="12" width="5" style="50" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="50" customWidth="1"/>
-    <col min="14" max="256" width="8.28515625" style="50"/>
+    <col min="13" max="13" width="12.5740740740741" style="50" customWidth="1"/>
+    <col min="14" max="256" width="8.28703703703704" style="50"/>
     <col min="257" max="16384" width="8" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A1" s="149" t="s">
+    <row r="1" ht="14.25" customHeight="1" spans="1:13">
+      <c r="A1" s="92" t="s">
         <v>444</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92" t="s">
         <v>445</v>
       </c>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-    </row>
-    <row r="2" spans="1:14" ht="51.95" customHeight="1">
-      <c r="A2" s="76" t="s">
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+    </row>
+    <row r="2" ht="51.95" customHeight="1" spans="1:13">
+      <c r="A2" s="93" t="s">
         <v>446</v>
       </c>
       <c r="B2" s="53" t="s">
@@ -11546,37 +12152,37 @@
       <c r="F2" s="53" t="s">
         <v>450</v>
       </c>
-      <c r="G2" s="77" t="s">
+      <c r="G2" s="94" t="s">
         <v>451</v>
       </c>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="95" t="s">
         <v>452</v>
       </c>
-      <c r="I2" s="76" t="s">
+      <c r="I2" s="93" t="s">
         <v>446</v>
       </c>
       <c r="J2" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="K2" s="96" t="s">
+      <c r="K2" s="125" t="s">
         <v>453</v>
       </c>
       <c r="L2" s="53" t="s">
         <v>454</v>
       </c>
-      <c r="M2" s="97" t="s">
+      <c r="M2" s="126" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="68" customFormat="1" ht="15.75">
-      <c r="A3" s="79">
+    <row r="3" s="82" customFormat="1" ht="15.6" spans="1:14">
+      <c r="A3" s="96">
         <v>1</v>
       </c>
-      <c r="B3" s="80" t="str">
+      <c r="B3" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B5," ",'Информация для бумаг'!C5)</f>
         <v>Атаманов Андрей</v>
       </c>
-      <c r="C3" s="81" t="str">
+      <c r="C3" s="98" t="str">
         <f>'Информация для бумаг'!P5</f>
         <v>02.03.0005</v>
       </c>
@@ -11588,42 +12194,42 @@
         <f>'Информация для бумаг'!I5</f>
         <v>10</v>
       </c>
-      <c r="F3" s="66" t="str">
+      <c r="F3" s="80" t="str">
         <f>'Информация для бумаг'!K5</f>
         <v>Шуваловский пр. д. 90 к. кв.180</v>
       </c>
-      <c r="G3" s="82" t="s">
+      <c r="G3" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H3" s="162" t="s">
+      <c r="H3" s="100" t="s">
         <v>457</v>
       </c>
-      <c r="I3" s="83">
+      <c r="I3" s="101">
         <v>1</v>
       </c>
-      <c r="J3" s="98" t="s">
+      <c r="J3" s="127" t="s">
         <v>458</v>
       </c>
-      <c r="K3" s="99" t="s">
+      <c r="K3" s="128" t="s">
         <v>459</v>
       </c>
-      <c r="L3" s="100">
+      <c r="L3" s="129">
         <v>117</v>
       </c>
-      <c r="M3" s="100" t="s">
+      <c r="M3" s="129" t="s">
         <v>460</v>
       </c>
-      <c r="N3" s="101"/>
-    </row>
-    <row r="4" spans="1:14" s="68" customFormat="1" ht="25.5">
-      <c r="A4" s="83">
+      <c r="N3" s="130"/>
+    </row>
+    <row r="4" s="82" customFormat="1" ht="26.4" spans="1:14">
+      <c r="A4" s="101">
         <v>2</v>
       </c>
-      <c r="B4" s="80" t="str">
+      <c r="B4" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B6," ",'Информация для бумаг'!C6)</f>
         <v>Башилов Константин</v>
       </c>
-      <c r="C4" s="81">
+      <c r="C4" s="98">
         <f>'Информация для бумаг'!P6</f>
         <v>39367</v>
       </c>
@@ -11635,38 +12241,38 @@
         <f>'Информация для бумаг'!I6</f>
         <v>7</v>
       </c>
-      <c r="F4" s="66" t="str">
+      <c r="F4" s="80" t="str">
         <f>'Информация для бумаг'!K6</f>
         <v>СПб, Пестеля д. 13-15 кв. 108</v>
       </c>
-      <c r="G4" s="82" t="s">
+      <c r="G4" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H4" s="163"/>
-      <c r="I4" s="79">
+      <c r="H4" s="102"/>
+      <c r="I4" s="96">
         <v>2</v>
       </c>
-      <c r="J4" s="98" t="s">
+      <c r="J4" s="127" t="s">
         <v>461</v>
       </c>
-      <c r="K4" s="99" t="s">
+      <c r="K4" s="128" t="s">
         <v>462</v>
       </c>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100" t="s">
+      <c r="L4" s="129"/>
+      <c r="M4" s="129" t="s">
         <v>463</v>
       </c>
-      <c r="N4" s="101"/>
-    </row>
-    <row r="5" spans="1:14" s="68" customFormat="1" ht="24">
-      <c r="A5" s="79">
+      <c r="N4" s="130"/>
+    </row>
+    <row r="5" s="82" customFormat="1" ht="24" spans="1:14">
+      <c r="A5" s="96">
         <v>3</v>
       </c>
-      <c r="B5" s="80" t="str">
+      <c r="B5" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B7," ",'Информация для бумаг'!C7)</f>
         <v>Бекасов Емельян</v>
       </c>
-      <c r="C5" s="81">
+      <c r="C5" s="98">
         <f>'Информация для бумаг'!P7</f>
         <v>39857</v>
       </c>
@@ -11678,40 +12284,40 @@
         <f>'Информация для бумаг'!I7</f>
         <v>6</v>
       </c>
-      <c r="F5" s="66" t="str">
+      <c r="F5" s="80" t="str">
         <f>'Информация для бумаг'!K7</f>
         <v>Г. Санкт-Петербург, проспект Ветеранов д.3 к.3 лит.А кв.167</v>
       </c>
-      <c r="G5" s="82" t="s">
+      <c r="G5" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H5" s="163"/>
-      <c r="I5" s="83">
+      <c r="H5" s="102"/>
+      <c r="I5" s="101">
         <v>3</v>
       </c>
-      <c r="J5" s="102" t="s">
+      <c r="J5" s="131" t="s">
         <v>464</v>
       </c>
-      <c r="K5" s="99" t="s">
+      <c r="K5" s="128" t="s">
         <v>465</v>
       </c>
-      <c r="L5" s="100">
+      <c r="L5" s="129">
         <v>117</v>
       </c>
-      <c r="M5" s="100" t="s">
+      <c r="M5" s="129" t="s">
         <v>460</v>
       </c>
-      <c r="N5" s="101"/>
-    </row>
-    <row r="6" spans="1:14" s="68" customFormat="1" ht="15.75">
-      <c r="A6" s="83">
+      <c r="N5" s="130"/>
+    </row>
+    <row r="6" s="82" customFormat="1" ht="15.6" spans="1:14">
+      <c r="A6" s="101">
         <v>4</v>
       </c>
-      <c r="B6" s="80" t="str">
+      <c r="B6" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B8," ",'Информация для бумаг'!C8)</f>
         <v>Белокуров Михаил</v>
       </c>
-      <c r="C6" s="81">
+      <c r="C6" s="98">
         <f>'Информация для бумаг'!P8</f>
         <v>38553</v>
       </c>
@@ -11723,30 +12329,30 @@
         <f>'Информация для бумаг'!I8</f>
         <v>10</v>
       </c>
-      <c r="F6" s="66" t="str">
+      <c r="F6" s="80" t="str">
         <f>'Информация для бумаг'!K8</f>
         <v>ул. Ставропольская д. 12/15 кв. 46</v>
       </c>
-      <c r="G6" s="82" t="s">
+      <c r="G6" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H6" s="163"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="101"/>
-    </row>
-    <row r="7" spans="1:14" s="68" customFormat="1" ht="15.75">
-      <c r="A7" s="79">
+      <c r="H6" s="102"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="130"/>
+    </row>
+    <row r="7" s="82" customFormat="1" ht="15.6" spans="1:14">
+      <c r="A7" s="96">
         <v>5</v>
       </c>
-      <c r="B7" s="80" t="str">
+      <c r="B7" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B9," ",'Информация для бумаг'!C9)</f>
         <v>Бритиков Александр</v>
       </c>
-      <c r="C7" s="81">
+      <c r="C7" s="98">
         <f>'Информация для бумаг'!P9</f>
         <v>39849</v>
       </c>
@@ -11758,30 +12364,30 @@
         <f>'Информация для бумаг'!I9</f>
         <v>7</v>
       </c>
-      <c r="F7" s="84" t="str">
+      <c r="F7" s="103" t="str">
         <f>'Информация для бумаг'!K9</f>
         <v>Ул. Лахтинская 20-36</v>
       </c>
-      <c r="G7" s="82" t="s">
+      <c r="G7" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H7" s="163"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="101"/>
-    </row>
-    <row r="8" spans="1:14" s="68" customFormat="1">
-      <c r="A8" s="83">
+      <c r="H7" s="102"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="130"/>
+    </row>
+    <row r="8" s="82" customFormat="1" spans="1:14">
+      <c r="A8" s="101">
         <v>6</v>
       </c>
-      <c r="B8" s="80" t="str">
+      <c r="B8" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B10," ",'Информация для бумаг'!C10)</f>
         <v>Евдокимова Алёна</v>
       </c>
-      <c r="C8" s="81">
+      <c r="C8" s="98">
         <f>'Информация для бумаг'!P10</f>
         <v>38137</v>
       </c>
@@ -11793,25 +12399,25 @@
         <f>'Информация для бумаг'!I10</f>
         <v>11</v>
       </c>
-      <c r="F8" s="66" t="str">
+      <c r="F8" s="80" t="str">
         <f>'Информация для бумаг'!K12</f>
         <v>Каменноостровский 69-29</v>
       </c>
-      <c r="G8" s="82" t="s">
+      <c r="G8" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H8" s="163"/>
-      <c r="N8" s="103"/>
-    </row>
-    <row r="9" spans="1:14" s="68" customFormat="1">
-      <c r="A9" s="79">
+      <c r="H8" s="102"/>
+      <c r="N8" s="132"/>
+    </row>
+    <row r="9" s="82" customFormat="1" spans="1:13">
+      <c r="A9" s="96">
         <v>7</v>
       </c>
-      <c r="B9" s="80" t="str">
+      <c r="B9" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B11," ",'Информация для бумаг'!C11)</f>
         <v>Ершова Татьяна</v>
       </c>
-      <c r="C9" s="81">
+      <c r="C9" s="98">
         <f>'Информация для бумаг'!P11</f>
         <v>39166</v>
       </c>
@@ -11823,29 +12429,29 @@
         <f>'Информация для бумаг'!I11</f>
         <v>8</v>
       </c>
-      <c r="F9" s="66" t="str">
+      <c r="F9" s="80" t="str">
         <f>'Информация для бумаг'!K11</f>
         <v>ул. Малая Карпатская д.17 кв 275</v>
       </c>
-      <c r="G9" s="82" t="s">
+      <c r="G9" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H9" s="163"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-    </row>
-    <row r="10" spans="1:14" s="68" customFormat="1">
-      <c r="A10" s="83">
+      <c r="H9" s="102"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
+    </row>
+    <row r="10" s="82" customFormat="1" spans="1:13">
+      <c r="A10" s="101">
         <v>8</v>
       </c>
-      <c r="B10" s="80" t="str">
+      <c r="B10" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B12," ",'Информация для бумаг'!C12)</f>
         <v>Иванов Тимофей</v>
       </c>
-      <c r="C10" s="81">
+      <c r="C10" s="98">
         <f>'Информация для бумаг'!P12</f>
         <v>38917</v>
       </c>
@@ -11857,29 +12463,29 @@
         <f>'Информация для бумаг'!I12</f>
         <v>9</v>
       </c>
-      <c r="F10" s="66" t="str">
+      <c r="F10" s="80" t="str">
         <f>'Информация для бумаг'!K12</f>
         <v>Каменноостровский 69-29</v>
       </c>
-      <c r="G10" s="82" t="s">
+      <c r="G10" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H10" s="163"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-    </row>
-    <row r="11" spans="1:14" s="68" customFormat="1">
-      <c r="A11" s="79">
+      <c r="H10" s="102"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
+    </row>
+    <row r="11" s="82" customFormat="1" spans="1:13">
+      <c r="A11" s="96">
         <v>9</v>
       </c>
-      <c r="B11" s="80" t="str">
+      <c r="B11" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B13," ",'Информация для бумаг'!C13)</f>
         <v>Киселев Вениамин</v>
       </c>
-      <c r="C11" s="81">
+      <c r="C11" s="98">
         <f>'Информация для бумаг'!P13</f>
         <v>40363</v>
       </c>
@@ -11891,29 +12497,29 @@
         <f>'Информация для бумаг'!I13</f>
         <v>5</v>
       </c>
-      <c r="F11" s="66" t="str">
+      <c r="F11" s="80" t="str">
         <f>'Информация для бумаг'!K13</f>
         <v>пр.Тореза, д.80, кв.78</v>
       </c>
-      <c r="G11" s="82" t="s">
+      <c r="G11" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H11" s="163"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-    </row>
-    <row r="12" spans="1:14" s="68" customFormat="1">
-      <c r="A12" s="83">
+      <c r="H11" s="102"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="101"/>
+    </row>
+    <row r="12" s="82" customFormat="1" spans="1:13">
+      <c r="A12" s="101">
         <v>10</v>
       </c>
-      <c r="B12" s="80" t="str">
+      <c r="B12" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B14," ",'Информация для бумаг'!C14)</f>
         <v>Кудряшов Тимофей</v>
       </c>
-      <c r="C12" s="81">
+      <c r="C12" s="98">
         <f>'Информация для бумаг'!P14</f>
         <v>38434</v>
       </c>
@@ -11925,29 +12531,29 @@
         <f>'Информация для бумаг'!I14</f>
         <v>11</v>
       </c>
-      <c r="F12" s="66" t="str">
+      <c r="F12" s="80" t="str">
         <f>'Информация для бумаг'!K14</f>
         <v>пр. Маршала Жукова, д.45, кв 222</v>
       </c>
-      <c r="G12" s="82" t="s">
+      <c r="G12" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H12" s="163"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-    </row>
-    <row r="13" spans="1:14" s="68" customFormat="1">
-      <c r="A13" s="79">
+      <c r="H12" s="102"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="101"/>
+    </row>
+    <row r="13" s="82" customFormat="1" spans="1:13">
+      <c r="A13" s="96">
         <v>11</v>
       </c>
-      <c r="B13" s="80" t="str">
+      <c r="B13" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B15," ",'Информация для бумаг'!C15)</f>
         <v>Островский Виктор</v>
       </c>
-      <c r="C13" s="81">
+      <c r="C13" s="98">
         <f>'Информация для бумаг'!P15</f>
         <v>40070</v>
       </c>
@@ -11959,29 +12565,29 @@
         <f>'Информация для бумаг'!I15</f>
         <v>6</v>
       </c>
-      <c r="F13" s="66" t="str">
+      <c r="F13" s="80" t="str">
         <f>'Информация для бумаг'!K15</f>
         <v>Парголово ул.Шишкина 58</v>
       </c>
-      <c r="G13" s="82" t="s">
+      <c r="G13" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H13" s="163"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
-    </row>
-    <row r="14" spans="1:14" s="68" customFormat="1">
-      <c r="A14" s="83">
+      <c r="H13" s="102"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="101"/>
+    </row>
+    <row r="14" s="82" customFormat="1" spans="1:13">
+      <c r="A14" s="101">
         <v>12</v>
       </c>
-      <c r="B14" s="80" t="str">
+      <c r="B14" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B16," ",'Информация для бумаг'!C16)</f>
         <v>Попов Василий</v>
       </c>
-      <c r="C14" s="81">
+      <c r="C14" s="98">
         <f>'Информация для бумаг'!P16</f>
         <v>39331</v>
       </c>
@@ -11993,29 +12599,29 @@
         <f>'Информация для бумаг'!I16</f>
         <v>8</v>
       </c>
-      <c r="F14" s="66" t="str">
+      <c r="F14" s="80" t="str">
         <f>'Информация для бумаг'!K16</f>
         <v>Ул.Бутлерова, 11 к.4 , кв 385</v>
       </c>
-      <c r="G14" s="82" t="s">
+      <c r="G14" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H14" s="163"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-    </row>
-    <row r="15" spans="1:14" s="68" customFormat="1">
-      <c r="A15" s="79">
+      <c r="H14" s="102"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="101"/>
+    </row>
+    <row r="15" s="82" customFormat="1" spans="1:13">
+      <c r="A15" s="96">
         <v>13</v>
       </c>
-      <c r="B15" s="80" t="str">
+      <c r="B15" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B17," ",'Информация для бумаг'!C17)</f>
         <v>Сайчик Мария</v>
       </c>
-      <c r="C15" s="81">
+      <c r="C15" s="98">
         <f>'Информация для бумаг'!P17</f>
         <v>38982</v>
       </c>
@@ -12027,29 +12633,29 @@
         <f>'Информация для бумаг'!I17</f>
         <v>9</v>
       </c>
-      <c r="F15" s="66" t="str">
+      <c r="F15" s="80" t="str">
         <f>'Информация для бумаг'!K17</f>
         <v>Кораблестроителей 39-871</v>
       </c>
-      <c r="G15" s="82" t="s">
+      <c r="G15" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H15" s="163"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="83"/>
-    </row>
-    <row r="16" spans="1:14" s="68" customFormat="1">
-      <c r="A16" s="83">
+      <c r="H15" s="102"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="101"/>
+    </row>
+    <row r="16" s="82" customFormat="1" spans="1:13">
+      <c r="A16" s="101">
         <v>14</v>
       </c>
-      <c r="B16" s="80" t="str">
+      <c r="B16" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B18," ",'Информация для бумаг'!C18)</f>
         <v>Федорова Ксения</v>
       </c>
-      <c r="C16" s="81">
+      <c r="C16" s="98">
         <f>'Информация для бумаг'!P18</f>
         <v>40195</v>
       </c>
@@ -12061,29 +12667,29 @@
         <f>'Информация для бумаг'!I18</f>
         <v>6</v>
       </c>
-      <c r="F16" s="66" t="str">
+      <c r="F16" s="80" t="str">
         <f>'Информация для бумаг'!K18</f>
         <v>Камышовая 14 КВ 163</v>
       </c>
-      <c r="G16" s="82" t="s">
+      <c r="G16" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H16" s="163"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-    </row>
-    <row r="17" spans="1:13" s="68" customFormat="1" ht="24">
-      <c r="A17" s="79">
+      <c r="H16" s="102"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="101"/>
+    </row>
+    <row r="17" s="82" customFormat="1" ht="24" spans="1:13">
+      <c r="A17" s="96">
         <v>15</v>
       </c>
-      <c r="B17" s="80" t="str">
+      <c r="B17" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B19," ",'Информация для бумаг'!C19)</f>
         <v>Шеламова Виктория</v>
       </c>
-      <c r="C17" s="81">
+      <c r="C17" s="98">
         <f>'Информация для бумаг'!P19</f>
         <v>39529</v>
       </c>
@@ -12095,29 +12701,29 @@
         <f>'Информация для бумаг'!I19</f>
         <v>7</v>
       </c>
-      <c r="F17" s="66" t="str">
+      <c r="F17" s="80" t="str">
         <f>'Информация для бумаг'!K19</f>
         <v>п. Парголово, Приозерское шоссе (Осиновая роща),  д.16 к.4 кв.46</v>
       </c>
-      <c r="G17" s="82" t="s">
+      <c r="G17" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H17" s="163"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-    </row>
-    <row r="18" spans="1:13" s="68" customFormat="1">
-      <c r="A18" s="83">
+      <c r="H17" s="102"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="101"/>
+    </row>
+    <row r="18" s="82" customFormat="1" spans="1:13">
+      <c r="A18" s="101">
         <v>16</v>
       </c>
-      <c r="B18" s="80" t="str">
+      <c r="B18" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B20," ",'Информация для бумаг'!C20)</f>
         <v>Шилонцев Андрей</v>
       </c>
-      <c r="C18" s="81">
+      <c r="C18" s="98">
         <f>'Информация для бумаг'!P20</f>
         <v>38989</v>
       </c>
@@ -12129,29 +12735,29 @@
         <f>'Информация для бумаг'!I20</f>
         <v>0</v>
       </c>
-      <c r="F18" s="66" t="str">
+      <c r="F18" s="80" t="str">
         <f>'Информация для бумаг'!K20</f>
         <v>Ленинский пр. 117-1-603</v>
       </c>
-      <c r="G18" s="82" t="s">
+      <c r="G18" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H18" s="163"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-    </row>
-    <row r="19" spans="1:13" s="68" customFormat="1">
-      <c r="A19" s="79">
+      <c r="H18" s="102"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="101"/>
+    </row>
+    <row r="19" s="82" customFormat="1" spans="1:13">
+      <c r="A19" s="96">
         <v>17</v>
       </c>
-      <c r="B19" s="80" t="str">
+      <c r="B19" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B21," ",'Информация для бумаг'!C21)</f>
         <v>Шишкина Анна</v>
       </c>
-      <c r="C19" s="81">
+      <c r="C19" s="98">
         <f>'Информация для бумаг'!P21</f>
         <v>39987</v>
       </c>
@@ -12163,29 +12769,29 @@
         <f>'Информация для бумаг'!I21</f>
         <v>6</v>
       </c>
-      <c r="F19" s="66" t="str">
+      <c r="F19" s="80" t="str">
         <f>'Информация для бумаг'!K21</f>
         <v>Проспект Сизова 14 кв.90</v>
       </c>
-      <c r="G19" s="82" t="s">
+      <c r="G19" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H19" s="163"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-    </row>
-    <row r="20" spans="1:13" s="68" customFormat="1" ht="24">
-      <c r="A20" s="83">
+      <c r="H19" s="102"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="101"/>
+    </row>
+    <row r="20" s="82" customFormat="1" ht="24" spans="1:13">
+      <c r="A20" s="101">
         <v>18</v>
       </c>
-      <c r="B20" s="80" t="str">
+      <c r="B20" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B22," ",'Информация для бумаг'!C22)</f>
         <v>Шишкина Алина</v>
       </c>
-      <c r="C20" s="81">
+      <c r="C20" s="98">
         <f>'Информация для бумаг'!P22</f>
         <v>38070</v>
       </c>
@@ -12197,48 +12803,48 @@
         <f>'Информация для бумаг'!I22</f>
         <v>11</v>
       </c>
-      <c r="F20" s="66" t="str">
+      <c r="F20" s="80" t="str">
         <f>'Информация для бумаг'!K22</f>
         <v>Проспект Авиаконструкторов, дом 47, квартира 4</v>
       </c>
-      <c r="G20" s="82" t="s">
+      <c r="G20" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H20" s="163"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
-    </row>
-    <row r="21" spans="1:13" s="68" customFormat="1" ht="24" customHeight="1">
-      <c r="A21" s="79"/>
-      <c r="B21" s="150" t="s">
+      <c r="H20" s="102"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="101"/>
+    </row>
+    <row r="21" s="82" customFormat="1" ht="24" customHeight="1" spans="1:13">
+      <c r="A21" s="96"/>
+      <c r="B21" s="104" t="s">
         <v>421</v>
       </c>
-      <c r="C21" s="151"/>
-      <c r="D21" s="151"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="152"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="163"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
-    </row>
-    <row r="22" spans="1:13" s="68" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A22" s="83"/>
-      <c r="B22" s="80" t="str">
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="101"/>
+      <c r="M21" s="101"/>
+    </row>
+    <row r="22" s="82" customFormat="1" ht="21.95" customHeight="1" spans="1:13">
+      <c r="A22" s="101"/>
+      <c r="B22" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B33," ",'Информация для бумаг'!C33)</f>
         <v>Васильев Илья</v>
       </c>
-      <c r="C22" s="81">
+      <c r="C22" s="98">
         <f>'Информация для бумаг'!P33</f>
         <v>39462</v>
       </c>
-      <c r="D22" s="85">
+      <c r="D22" s="107">
         <f>'Информация для бумаг'!H33</f>
         <v>58</v>
       </c>
@@ -12246,31 +12852,31 @@
         <f>'Информация для бумаг'!I33</f>
         <v>7</v>
       </c>
-      <c r="F22" s="86" t="str">
+      <c r="F22" s="108" t="str">
         <f>'Информация для бумаг'!K33</f>
         <v>алл. Котельникова, д. 6, к. 1, кв. 300</v>
       </c>
-      <c r="G22" s="82" t="s">
+      <c r="G22" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H22" s="163"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
-    </row>
-    <row r="23" spans="1:13" s="68" customFormat="1">
-      <c r="A23" s="79"/>
-      <c r="B23" s="80" t="str">
+      <c r="H22" s="102"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="101"/>
+      <c r="M22" s="101"/>
+    </row>
+    <row r="23" s="82" customFormat="1" spans="1:13">
+      <c r="A23" s="96"/>
+      <c r="B23" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B34," ",'Информация для бумаг'!C34)</f>
         <v>Мелентьева Эмма</v>
       </c>
-      <c r="C23" s="81">
+      <c r="C23" s="98">
         <f>'Информация для бумаг'!P34</f>
         <v>39581</v>
       </c>
-      <c r="D23" s="85">
+      <c r="D23" s="107">
         <f>'Информация для бумаг'!H34</f>
         <v>49</v>
       </c>
@@ -12278,31 +12884,31 @@
         <f>'Информация для бумаг'!I34</f>
         <v>7</v>
       </c>
-      <c r="F23" s="86" t="str">
+      <c r="F23" s="108" t="str">
         <f>'Информация для бумаг'!K34</f>
         <v>ул. Б. Разночинная 4-14</v>
       </c>
-      <c r="G23" s="82" t="s">
+      <c r="G23" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H23" s="163"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="83"/>
-    </row>
-    <row r="24" spans="1:13" s="68" customFormat="1">
-      <c r="A24" s="83"/>
-      <c r="B24" s="80" t="str">
+      <c r="H23" s="102"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="101"/>
+      <c r="K23" s="101"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="101"/>
+    </row>
+    <row r="24" s="82" customFormat="1" spans="1:13">
+      <c r="A24" s="101"/>
+      <c r="B24" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B35," ",'Информация для бумаг'!C35)</f>
         <v>Меньшиков  Савва</v>
       </c>
-      <c r="C24" s="81">
+      <c r="C24" s="98">
         <f>'Информация для бумаг'!P35</f>
         <v>39916</v>
       </c>
-      <c r="D24" s="85" t="str">
+      <c r="D24" s="107" t="str">
         <f>'Информация для бумаг'!H35</f>
         <v>533 лицей</v>
       </c>
@@ -12310,31 +12916,31 @@
         <f>'Информация для бумаг'!I35</f>
         <v>6</v>
       </c>
-      <c r="F24" s="86" t="str">
+      <c r="F24" s="108" t="str">
         <f>'Информация для бумаг'!K35</f>
         <v>г.СПб, Железноводская 62, 98</v>
       </c>
-      <c r="G24" s="82" t="s">
+      <c r="G24" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H24" s="163"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="83"/>
-    </row>
-    <row r="25" spans="1:13" s="68" customFormat="1">
-      <c r="A25" s="79"/>
-      <c r="B25" s="80" t="str">
+      <c r="H24" s="102"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
+      <c r="K24" s="101"/>
+      <c r="L24" s="101"/>
+      <c r="M24" s="101"/>
+    </row>
+    <row r="25" s="82" customFormat="1" spans="1:13">
+      <c r="A25" s="96"/>
+      <c r="B25" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B36," ",'Информация для бумаг'!C36)</f>
         <v>Нужин Илья</v>
       </c>
-      <c r="C25" s="81">
+      <c r="C25" s="98">
         <f>'Информация для бумаг'!P36</f>
         <v>38933</v>
       </c>
-      <c r="D25" s="85">
+      <c r="D25" s="107">
         <f>'Информация для бумаг'!H36</f>
         <v>30</v>
       </c>
@@ -12342,31 +12948,31 @@
         <f>'Информация для бумаг'!I36</f>
         <v>8</v>
       </c>
-      <c r="F25" s="86" t="str">
+      <c r="F25" s="108" t="str">
         <f>'Информация для бумаг'!K36</f>
         <v>Наличная 37-1-4</v>
       </c>
-      <c r="G25" s="82" t="s">
+      <c r="G25" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H25" s="163"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="83"/>
-    </row>
-    <row r="26" spans="1:13" s="68" customFormat="1">
-      <c r="A26" s="79"/>
-      <c r="B26" s="80" t="str">
+      <c r="H25" s="102"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="101"/>
+    </row>
+    <row r="26" s="82" customFormat="1" spans="1:13">
+      <c r="A26" s="96"/>
+      <c r="B26" s="97" t="str">
         <f>CONCATENATE('Информация для бумаг'!B37," ",'Информация для бумаг'!C37)</f>
         <v>Тюпин Арсений</v>
       </c>
-      <c r="C26" s="81">
+      <c r="C26" s="98">
         <f>'Информация для бумаг'!P37</f>
         <v>39810</v>
       </c>
-      <c r="D26" s="85">
+      <c r="D26" s="107">
         <f>'Информация для бумаг'!H37</f>
         <v>555</v>
       </c>
@@ -12374,337 +12980,338 @@
         <f>'Информация для бумаг'!I37</f>
         <v>6</v>
       </c>
-      <c r="F26" s="86" t="str">
+      <c r="F26" s="108" t="str">
         <f>'Информация для бумаг'!K37</f>
         <v>пр.Комендантский д.23 к.1 кв 112</v>
       </c>
-      <c r="G26" s="82" t="s">
+      <c r="G26" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="H26" s="163"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="83"/>
-    </row>
-    <row r="27" spans="1:13" s="68" customFormat="1" ht="12">
-      <c r="A27" s="87"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="163"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="83"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="83"/>
-    </row>
-    <row r="28" spans="1:13" s="68" customFormat="1">
-      <c r="A28" s="79"/>
-      <c r="B28" s="89" t="str">
+      <c r="H26" s="102"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="101"/>
+      <c r="L26" s="101"/>
+      <c r="M26" s="101"/>
+    </row>
+    <row r="27" s="82" customFormat="1" ht="12" spans="1:13">
+      <c r="A27" s="109"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="101"/>
+      <c r="J27" s="101"/>
+      <c r="K27" s="101"/>
+      <c r="L27" s="101"/>
+      <c r="M27" s="101"/>
+    </row>
+    <row r="28" s="82" customFormat="1" spans="1:13">
+      <c r="A28" s="96"/>
+      <c r="B28" s="111" t="str">
         <f>'Информация для бумаг'!C25</f>
         <v>Хайтов Вадим Михайлович</v>
       </c>
-      <c r="C28" s="81"/>
-      <c r="D28" s="153" t="s">
+      <c r="C28" s="98"/>
+      <c r="D28" s="112" t="s">
         <v>466</v>
       </c>
-      <c r="E28" s="154"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="163"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="83"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="101"/>
+      <c r="K28" s="101"/>
+      <c r="L28" s="101"/>
+      <c r="M28" s="101"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="83"/>
+      <c r="A29" s="101"/>
       <c r="B29" s="52" t="str">
         <f>'Информация для бумаг'!C26</f>
         <v>Котельникова Валентина Сергеевна</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="155" t="s">
+      <c r="C29" s="98"/>
+      <c r="D29" s="115" t="s">
         <v>467</v>
       </c>
-      <c r="E29" s="156"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="163"/>
-      <c r="I29" s="157" t="s">
+      <c r="E29" s="116"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="133" t="s">
         <v>468</v>
       </c>
-      <c r="J29" s="158"/>
-      <c r="K29" s="158"/>
-      <c r="L29" s="158"/>
-      <c r="M29" s="159"/>
-    </row>
-    <row r="30" spans="1:13" ht="15.75">
-      <c r="A30" s="91" t="s">
+      <c r="J29" s="134"/>
+      <c r="K29" s="134"/>
+      <c r="L29" s="134"/>
+      <c r="M29" s="135"/>
+    </row>
+    <row r="30" ht="15.6" spans="1:13">
+      <c r="A30" s="117" t="s">
         <v>469</v>
       </c>
-      <c r="B30" s="92"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="164"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="118"/>
+      <c r="H30" s="119"/>
       <c r="I30" s="52"/>
       <c r="J30" s="52"/>
       <c r="K30" s="52"/>
       <c r="L30" s="52"/>
       <c r="M30" s="52"/>
     </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A31" s="160" t="s">
+    <row r="31" ht="15.75" customHeight="1" spans="1:13">
+      <c r="A31" s="120" t="s">
         <v>470</v>
       </c>
-      <c r="B31" s="161"/>
+      <c r="B31" s="121"/>
       <c r="C31" s="50">
         <f>'Информация для бумаг'!C30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="93"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="92"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="118"/>
       <c r="I31" s="52"/>
       <c r="J31" s="52"/>
       <c r="K31" s="52"/>
       <c r="L31" s="52"/>
       <c r="M31" s="52"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1">
+    <row r="32" ht="15.75" customHeight="1" spans="1:13">
       <c r="A32" s="50" t="s">
         <v>471</v>
       </c>
-      <c r="H32" s="95" t="s">
+      <c r="H32" s="124" t="s">
         <v>472</v>
       </c>
-      <c r="I32" s="95"/>
-      <c r="J32" s="95"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="104"/>
-      <c r="M32" s="104"/>
-    </row>
-    <row r="33" spans="8:8" ht="15.75" customHeight="1">
+      <c r="I32" s="124"/>
+      <c r="J32" s="124"/>
+      <c r="K32" s="124"/>
+      <c r="L32" s="136"/>
+      <c r="M32" s="136"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1" spans="8:8">
       <c r="H33" s="50" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="34" spans="8:8" ht="23.25" customHeight="1"/>
-    <row r="35" spans="8:8" ht="23.25" customHeight="1"/>
-    <row r="36" spans="8:8" ht="23.25" customHeight="1"/>
-    <row r="37" spans="8:8" ht="23.25" customHeight="1"/>
-    <row r="38" spans="8:8" ht="23.25" customHeight="1"/>
-    <row r="39" spans="8:8" ht="23.25" customHeight="1"/>
-    <row r="40" spans="8:8" ht="23.25" customHeight="1"/>
-    <row r="41" spans="8:8" ht="23.25" customHeight="1"/>
-    <row r="42" spans="8:8" ht="23.25" customHeight="1"/>
+    <row r="34" ht="23.25" customHeight="1"/>
+    <row r="35" ht="23.25" customHeight="1"/>
+    <row r="36" ht="23.25" customHeight="1"/>
+    <row r="37" ht="23.25" customHeight="1"/>
+    <row r="38" ht="23.25" customHeight="1"/>
+    <row r="39" ht="23.25" customHeight="1"/>
+    <row r="40" ht="23.25" customHeight="1"/>
+    <row r="41" ht="23.25" customHeight="1"/>
+    <row r="42" ht="23.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="H3:H30"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="I29:M29"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="H3:H30"/>
   </mergeCells>
-  <pageMargins left="0.2" right="0.22916666666666699" top="0.25" bottom="0.25" header="0" footer="0"/>
+  <pageMargins left="0.2" right="0.229166666666667" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="97" orientation="landscape"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="A2:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" style="50" customWidth="1"/>
     <col min="2" max="6" width="8" style="50"/>
-    <col min="7" max="7" width="23.5703125" style="50" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="50" customWidth="1"/>
-    <col min="9" max="9" width="3.85546875" style="50" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" style="50" customWidth="1"/>
+    <col min="7" max="7" width="23.5740740740741" style="50" customWidth="1"/>
+    <col min="8" max="8" width="10.712962962963" style="50" customWidth="1"/>
+    <col min="9" max="9" width="3.85185185185185" style="50" customWidth="1"/>
+    <col min="10" max="10" width="9.42592592592593" style="50" customWidth="1"/>
     <col min="11" max="11" width="8" style="50"/>
-    <col min="12" max="12" width="13.140625" style="50"/>
-    <col min="13" max="13" width="9.85546875" style="50"/>
+    <col min="12" max="12" width="13.1388888888889" style="50"/>
+    <col min="13" max="13" width="9.85185185185185" style="50"/>
     <col min="14" max="14" width="8" style="50"/>
-    <col min="15" max="15" width="1.5703125" style="50" customWidth="1"/>
+    <col min="15" max="15" width="1.57407407407407" style="50" customWidth="1"/>
     <col min="16" max="16384" width="8" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="12.75" customHeight="1">
+    <row r="1" ht="12.75" customHeight="1" spans="1:14">
       <c r="A1" s="60" t="s">
         <v>474</v>
       </c>
-      <c r="H1" s="165" t="s">
+      <c r="H1" s="61" t="s">
         <v>475</v>
       </c>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="165"/>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A2" s="174" t="s">
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" spans="1:14">
+      <c r="A2" s="62" t="s">
         <v>476</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="165" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="61" t="s">
         <v>477</v>
       </c>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
-      <c r="N2" s="165"/>
-    </row>
-    <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="175"/>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="62"/>
-    </row>
-    <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="175"/>
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="166" t="s">
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" spans="1:7">
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="64"/>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" spans="1:14">
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="65" t="s">
         <v>478</v>
       </c>
-      <c r="I4" s="166"/>
-      <c r="J4" s="166"/>
-      <c r="K4" s="166"/>
-      <c r="L4" s="166"/>
-      <c r="M4" s="166"/>
-      <c r="N4" s="166"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="175"/>
-      <c r="B5" s="175"/>
-      <c r="C5" s="175"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="175"/>
-      <c r="F5" s="175"/>
-    </row>
-    <row r="6" spans="1:14" ht="18.75">
-      <c r="A6" s="175"/>
-      <c r="B6" s="175"/>
-      <c r="C6" s="175"/>
-      <c r="D6" s="175"/>
-      <c r="E6" s="175"/>
-      <c r="F6" s="175"/>
-      <c r="H6" s="165" t="s">
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+    </row>
+    <row r="6" ht="18" spans="1:14">
+      <c r="A6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="H6" s="61" t="s">
         <v>479</v>
       </c>
-      <c r="I6" s="165"/>
-      <c r="J6" s="165"/>
-      <c r="K6" s="165"/>
-      <c r="L6" s="165"/>
-      <c r="M6" s="165"/>
-      <c r="N6" s="165"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="B7" s="63" t="s">
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="66" t="s">
         <v>480</v>
       </c>
-      <c r="I7" s="70" t="s">
+      <c r="I7" s="84" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A8" s="172" t="s">
+    <row r="8" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A8" s="67" t="s">
         <v>482</v>
       </c>
-      <c r="B8" s="176" t="s">
+      <c r="B8" s="68" t="s">
         <v>483</v>
       </c>
-      <c r="C8" s="177"/>
-      <c r="D8" s="177"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="178"/>
-      <c r="H8" s="64" t="s">
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
+      <c r="H8" s="71" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75">
-      <c r="A9" s="172"/>
-      <c r="B9" s="179"/>
-      <c r="C9" s="180"/>
-      <c r="D9" s="180"/>
-      <c r="E9" s="180"/>
-      <c r="F9" s="181"/>
+    <row r="9" ht="15.6" spans="1:10">
+      <c r="A9" s="67"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="74"/>
       <c r="H9" s="61" t="s">
         <v>485</v>
       </c>
       <c r="I9" s="50">
         <v>18</v>
       </c>
-      <c r="J9" s="67" t="s">
+      <c r="J9" s="81" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="45" customHeight="1">
-      <c r="A10" s="173" t="s">
+    <row r="10" ht="45" customHeight="1" spans="1:14">
+      <c r="A10" s="75" t="s">
         <v>487</v>
       </c>
-      <c r="B10" s="182" t="s">
+      <c r="B10" s="76" t="s">
         <v>488</v>
       </c>
-      <c r="C10" s="182"/>
-      <c r="D10" s="182"/>
-      <c r="E10" s="182"/>
-      <c r="F10" s="182"/>
-      <c r="H10" s="62" t="s">
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="H10" s="64" t="s">
         <v>489</v>
       </c>
-      <c r="J10" s="167" t="str">
+      <c r="J10" s="85" t="str">
         <f>'Информация для бумаг'!C3</f>
         <v>Санкт-Петербург - Толмачево- д.Ящера-Толмачево- Санкт-Петербург</v>
       </c>
-      <c r="K10" s="168"/>
-      <c r="L10" s="168"/>
-      <c r="M10" s="168"/>
-      <c r="N10" s="168"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="173"/>
-      <c r="B11" s="182"/>
-      <c r="C11" s="182"/>
-      <c r="D11" s="182"/>
-      <c r="E11" s="182"/>
-      <c r="F11" s="182"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="75"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
       <c r="H11" s="55" t="s">
         <v>490</v>
       </c>
-      <c r="I11" s="71">
+      <c r="I11" s="87">
         <f>DAYS360('Информация для бумаг'!C2,'Информация для бумаг'!D2)-1</f>
         <v>4</v>
       </c>
@@ -12712,66 +13319,66 @@
         <v>491</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75">
-      <c r="A12" s="65">
+    <row r="12" ht="15.6" spans="1:12">
+      <c r="A12" s="77">
         <v>44320</v>
       </c>
-      <c r="B12" s="169" t="s">
+      <c r="B12" s="78" t="s">
         <v>492</v>
       </c>
-      <c r="C12" s="169"/>
-      <c r="D12" s="169"/>
-      <c r="E12" s="169"/>
-      <c r="F12" s="169"/>
-      <c r="H12" s="170" t="s">
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="H12" s="79" t="s">
         <v>493</v>
       </c>
-      <c r="I12" s="170"/>
-      <c r="J12" s="72">
+      <c r="I12" s="79"/>
+      <c r="J12" s="88">
         <f>'Информация для бумаг'!C2</f>
         <v>44680</v>
       </c>
-      <c r="K12" s="73" t="s">
+      <c r="K12" s="89" t="s">
         <v>494</v>
       </c>
-      <c r="L12" s="74">
+      <c r="L12" s="90">
         <f>'Информация для бумаг'!D2</f>
         <v>44685</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A13" s="173"/>
-      <c r="B13" s="183"/>
-      <c r="C13" s="183"/>
-      <c r="D13" s="183"/>
-      <c r="E13" s="183"/>
-      <c r="F13" s="183"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.75">
-      <c r="A14" s="173"/>
-      <c r="B14" s="183"/>
-      <c r="C14" s="183"/>
-      <c r="D14" s="183"/>
-      <c r="E14" s="183"/>
-      <c r="F14" s="183"/>
-      <c r="H14" s="67" t="s">
+    <row r="13" ht="12.75" customHeight="1" spans="1:6">
+      <c r="A13" s="75"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+    </row>
+    <row r="14" ht="15.6" spans="1:14">
+      <c r="A14" s="75"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="H14" s="81" t="s">
         <v>495</v>
       </c>
-      <c r="K14" s="171" t="str">
+      <c r="K14" s="89" t="str">
         <f>'Информация для бумаг'!C25</f>
         <v>Хайтов Вадим Михайлович</v>
       </c>
-      <c r="L14" s="171"/>
-      <c r="M14" s="171"/>
-      <c r="N14" s="171"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="173"/>
-      <c r="B15" s="183"/>
-      <c r="C15" s="183"/>
-      <c r="D15" s="183"/>
-      <c r="E15" s="183"/>
-      <c r="F15" s="183"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="75"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
       <c r="K15" s="55" t="s">
         <v>415</v>
       </c>
@@ -12780,55 +13387,55 @@
         <v>89217427984</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A16" s="173"/>
-      <c r="B16" s="182"/>
-      <c r="C16" s="182"/>
-      <c r="D16" s="182"/>
-      <c r="E16" s="182"/>
-      <c r="F16" s="182"/>
-      <c r="H16" s="68" t="s">
+    <row r="16" ht="12.75" customHeight="1" spans="1:8">
+      <c r="A16" s="75"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="H16" s="82" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="173"/>
-      <c r="B17" s="182"/>
-      <c r="C17" s="182"/>
-      <c r="D17" s="182"/>
-      <c r="E17" s="182"/>
-      <c r="F17" s="182"/>
-      <c r="H17" s="69" t="s">
+    <row r="17" spans="1:8">
+      <c r="A17" s="75"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="H17" s="83" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="173"/>
-      <c r="B18" s="182"/>
-      <c r="C18" s="182"/>
-      <c r="D18" s="182"/>
-      <c r="E18" s="182"/>
-      <c r="F18" s="182"/>
-    </row>
-    <row r="19" spans="1:14" ht="15.75">
-      <c r="A19" s="173"/>
-      <c r="B19" s="182"/>
-      <c r="C19" s="182"/>
-      <c r="D19" s="182"/>
-      <c r="E19" s="182"/>
-      <c r="F19" s="182"/>
-      <c r="H19" s="67" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" s="75"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+    </row>
+    <row r="19" ht="15.6" spans="1:14">
+      <c r="A19" s="75"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="H19" s="81" t="s">
         <v>498</v>
       </c>
-      <c r="K19" s="171" t="str">
+      <c r="K19" s="89" t="str">
         <f>'Информация для бумаг'!C26</f>
         <v>Котельникова Валентина Сергеевна</v>
       </c>
-      <c r="L19" s="171"/>
-      <c r="M19" s="171"/>
-      <c r="N19" s="171"/>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="89"/>
+    </row>
+    <row r="20" spans="11:12">
       <c r="K20" s="55" t="s">
         <v>415</v>
       </c>
@@ -12837,53 +13444,53 @@
         <v>89679796720</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="12.75" customHeight="1">
-      <c r="H22" s="165" t="s">
+    <row r="22" ht="12.75" customHeight="1" spans="8:14">
+      <c r="H22" s="61" t="s">
         <v>499</v>
       </c>
-      <c r="I22" s="165"/>
-      <c r="J22" s="165"/>
-      <c r="K22" s="165"/>
-      <c r="L22" s="165"/>
-      <c r="M22" s="165"/>
-      <c r="N22" s="165"/>
-    </row>
-    <row r="23" spans="1:14" ht="12.75" customHeight="1">
-      <c r="H23" s="165" t="s">
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+    </row>
+    <row r="23" ht="12.75" customHeight="1" spans="8:14">
+      <c r="H23" s="61" t="s">
         <v>500</v>
       </c>
-      <c r="I23" s="165"/>
-      <c r="J23" s="165"/>
-      <c r="K23" s="165"/>
-      <c r="L23" s="165"/>
-      <c r="M23" s="165"/>
-      <c r="N23" s="165"/>
-    </row>
-    <row r="25" spans="1:14" ht="15.75">
-      <c r="H25" s="67" t="s">
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+    </row>
+    <row r="25" ht="15.6" spans="8:13">
+      <c r="H25" s="81" t="s">
         <v>501</v>
       </c>
-      <c r="M25" s="75">
+      <c r="M25" s="91">
         <f>'Информация для бумаг'!C28</f>
         <v>44669</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15.75">
-      <c r="A26" s="67" t="s">
+    <row r="26" ht="15.6" spans="1:9">
+      <c r="A26" s="81" t="s">
         <v>502</v>
       </c>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67" t="s">
+      <c r="H26" s="81"/>
+      <c r="I26" s="81" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15.75">
-      <c r="H28" s="67" t="s">
+    <row r="28" ht="15.6" spans="8:8">
+      <c r="H28" s="81" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15.75">
-      <c r="H29" s="67" t="s">
+    <row r="29" ht="15.6" spans="8:12">
+      <c r="H29" s="81" t="s">
         <v>505</v>
       </c>
       <c r="K29" s="50">
@@ -12894,19 +13501,19 @@
         <v>506</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15.75">
-      <c r="A30" s="67" t="s">
+    <row r="30" ht="15.6" spans="1:8">
+      <c r="A30" s="81" t="s">
         <v>507</v>
       </c>
-      <c r="H30" s="67"/>
-    </row>
-    <row r="31" spans="1:14" ht="15.75">
-      <c r="H31" s="67" t="s">
+      <c r="H30" s="81"/>
+    </row>
+    <row r="31" ht="15.6" spans="8:8">
+      <c r="H31" s="81" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15.75">
-      <c r="H32" s="67" t="s">
+    <row r="32" ht="15.6" spans="8:12">
+      <c r="H32" s="81" t="s">
         <v>509</v>
       </c>
       <c r="K32" s="50">
@@ -12917,42 +13524,42 @@
         <v>506</v>
       </c>
     </row>
-    <row r="33" spans="8:8" ht="15.75">
-      <c r="H33" s="69" t="s">
+    <row r="33" ht="15.6" spans="8:8">
+      <c r="H33" s="83" t="s">
         <v>510</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="H23:N23"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A19"/>
     <mergeCell ref="A2:F6"/>
     <mergeCell ref="B8:F9"/>
     <mergeCell ref="B10:F11"/>
     <mergeCell ref="B13:F15"/>
     <mergeCell ref="B16:F19"/>
-    <mergeCell ref="H23:N23"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="H1:N1"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="J10:N10"/>
   </mergeCells>
-  <pageMargins left="0.38888888888888901" right="0.38888888888888901" top="0.38888888888888901" bottom="0.58888888888888902" header="0" footer="0.50902777777777797"/>
+  <pageMargins left="0.388888888888889" right="0.388888888888889" top="0.388888888888889" bottom="0.588888888888889" header="0" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -12962,25 +13569,25 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="50"/>
-    <col min="2" max="2" width="35.7109375" style="50" customWidth="1"/>
+    <col min="1" max="1" width="3.42592592592593" style="50"/>
+    <col min="2" max="2" width="35.712962962963" style="50" customWidth="1"/>
     <col min="3" max="4" width="8" style="50"/>
-    <col min="5" max="5" width="12.85546875" style="50"/>
-    <col min="6" max="6" width="27.42578125" style="50" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="55" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" style="50" customWidth="1"/>
-    <col min="9" max="9" width="24.28515625" style="50" customWidth="1"/>
+    <col min="5" max="5" width="12.8518518518519" style="50"/>
+    <col min="6" max="6" width="27.4259259259259" style="50" customWidth="1"/>
+    <col min="7" max="7" width="17.287037037037" style="55" customWidth="1"/>
+    <col min="8" max="8" width="30.287037037037" style="50" customWidth="1"/>
+    <col min="9" max="9" width="24.287037037037" style="50" customWidth="1"/>
     <col min="10" max="16384" width="8" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="2:2">
       <c r="B1" s="50" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="2:2">
       <c r="B2" s="50" t="s">
         <v>512</v>
       </c>
@@ -13086,7 +13693,7 @@
         <v>89052006465</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="25.5">
+    <row r="7" ht="26.4" spans="1:9">
       <c r="A7" s="52">
         <v>3</v>
       </c>
@@ -13123,7 +13730,7 @@
         <v>89213414725</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="25.5">
+    <row r="8" ht="26.4" spans="1:9">
       <c r="A8" s="52">
         <v>4</v>
       </c>
@@ -13345,7 +13952,7 @@
         <v>89213323160</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="25.5">
+    <row r="14" ht="26.4" spans="1:9">
       <c r="A14" s="52">
         <v>10</v>
       </c>
@@ -13530,7 +14137,7 @@
         <v>89657737525</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="38.25">
+    <row r="19" ht="39.6" spans="1:9">
       <c r="A19" s="52">
         <v>15</v>
       </c>
@@ -13641,7 +14248,7 @@
         <v>89118110171</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="25.5">
+    <row r="22" ht="26.4" spans="1:9">
       <c r="A22" s="52">
         <v>18</v>
       </c>
@@ -13689,7 +14296,7 @@
       <c r="H23" s="52"/>
       <c r="I23" s="52"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="2:3">
       <c r="B25" s="50" t="str">
         <f>'Информация для бумаг'!C25</f>
         <v>Хайтов Вадим Михайлович</v>
@@ -13698,7 +14305,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="2:3">
       <c r="B27" s="50" t="str">
         <f>'Информация для бумаг'!C26</f>
         <v>Котельникова Валентина Сергеевна</v>
@@ -13710,33 +14317,34 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="32.140625" style="50" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="50" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="50" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="50" customWidth="1"/>
+    <col min="1" max="1" width="32.1388888888889" style="50" customWidth="1"/>
+    <col min="2" max="2" width="16.8518518518519" style="50" customWidth="1"/>
+    <col min="3" max="3" width="18.712962962963" style="50" customWidth="1"/>
+    <col min="4" max="4" width="13.1388888888889" style="50" customWidth="1"/>
     <col min="5" max="16384" width="8" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:1">
       <c r="A1" s="51" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="82.5" customHeight="1">
+    <row r="2" ht="82.5" customHeight="1" spans="1:4">
       <c r="A2" s="52" t="s">
         <v>513</v>
       </c>
@@ -14058,7 +14666,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>
--- a/Jashera 2022/Jashera 2022.xlsx
+++ b/Jashera 2022/Jashera 2022.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" tabRatio="804" firstSheet="4" activeTab="10"/>
+    <workbookView windowWidth="22368" windowHeight="9264" tabRatio="804" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Список оборудования" sheetId="12" r:id="rId1"/>
@@ -21,12 +21,13 @@
     <sheet name="Список для страховки" sheetId="8" r:id="rId12"/>
     <sheet name="МЧС" sheetId="9" r:id="rId13"/>
     <sheet name="Ограничения" sheetId="17" r:id="rId14"/>
+    <sheet name="Темы занятий" sheetId="19" r:id="rId15"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
     <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Участники!$A$1:$Z$25</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="708">
   <si>
     <t>ОБОРУДОВАНИЕ</t>
   </si>
@@ -2206,23 +2207,68 @@
   <si>
     <t>Аллергия на пыльцу растений</t>
   </si>
+  <si>
+    <t>Клопы</t>
+  </si>
+  <si>
+    <t>Алена, Эмма</t>
+  </si>
+  <si>
+    <t>Двукрылые</t>
+  </si>
+  <si>
+    <t>Ракообразные</t>
+  </si>
+  <si>
+    <t>Вася, Андрей</t>
+  </si>
+  <si>
+    <t>Моллюски</t>
+  </si>
+  <si>
+    <t>Жуки</t>
+  </si>
+  <si>
+    <t>Ручейники</t>
+  </si>
+  <si>
+    <t>Пиявки</t>
+  </si>
+  <si>
+    <t>Планарии</t>
+  </si>
+  <si>
+    <t>Костя, Миша</t>
+  </si>
+  <si>
+    <t>Стрекозы</t>
+  </si>
+  <si>
+    <t>Тимофей, Ксюша</t>
+  </si>
+  <si>
+    <t>Поденки</t>
+  </si>
+  <si>
+    <t>Таня</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
-    <numFmt numFmtId="176" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="dd\.mm\.yyyy\ h:mm"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="182" formatCode="dd\.mm\.yyyy;@"/>
-    <numFmt numFmtId="183" formatCode="dd\.mmm"/>
-    <numFmt numFmtId="184" formatCode="[$-419]d\ mm\ yyyy;@"/>
-    <numFmt numFmtId="185" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
-    <numFmt numFmtId="186" formatCode="0.0"/>
+    <numFmt numFmtId="179" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="180" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="182" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="183" formatCode="dd\.mm\.yyyy\ h:mm"/>
+    <numFmt numFmtId="184" formatCode="dd\.mm\.yyyy;@"/>
+    <numFmt numFmtId="185" formatCode="[$-419]d\ mm\ yyyy;@"/>
+    <numFmt numFmtId="186" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
   </numFmts>
   <fonts count="52">
     <font>
@@ -2416,63 +2462,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2491,9 +2483,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2504,6 +2523,46 @@
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2523,28 +2582,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -2552,8 +2589,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2598,7 +2644,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2610,37 +2716,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2658,19 +2740,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2682,31 +2800,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2718,61 +2812,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2952,28 +2998,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2993,17 +3028,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3035,17 +3075,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3054,152 +3100,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="30" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -3215,28 +3261,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -3245,7 +3291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -3254,7 +3300,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3263,7 +3309,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3275,7 +3321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3293,7 +3339,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3318,7 +3364,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
@@ -3364,7 +3410,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3394,7 +3440,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3410,19 +3456,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3441,7 +3487,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3552,8 +3598,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="25" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3598,14 +3644,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="183" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="183" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="186" fontId="25" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="25" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4659,11 +4705,11 @@
   <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q14" sqref="Q14"/>
+      <selection pane="bottomRight" activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
@@ -4783,7 +4829,7 @@
       <c r="AF1" s="10"/>
       <c r="AG1" s="10"/>
     </row>
-    <row r="2" ht="15.15" spans="2:31">
+    <row r="2" spans="2:31">
       <c r="B2" s="6" t="s">
         <v>316</v>
       </c>
@@ -4813,7 +4859,9 @@
       </c>
       <c r="K2" s="37"/>
       <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
+      <c r="M2" s="14">
+        <v>6000</v>
+      </c>
       <c r="N2" s="6">
         <v>630</v>
       </c>
@@ -4855,7 +4903,7 @@
         <v>Атаманов Иван Валерьевич</v>
       </c>
     </row>
-    <row r="3" ht="15.15" spans="2:33">
+    <row r="3" spans="2:33">
       <c r="B3" s="31" t="s">
         <v>323</v>
       </c>
@@ -4885,7 +4933,9 @@
       </c>
       <c r="K3" s="37"/>
       <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
+      <c r="M3" s="14">
+        <v>6000</v>
+      </c>
       <c r="N3" s="20">
         <v>225</v>
       </c>
@@ -4964,7 +5014,9 @@
       </c>
       <c r="K4" s="37"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
+      <c r="M4" s="6">
+        <v>6000</v>
+      </c>
       <c r="N4" s="5">
         <v>503</v>
       </c>
@@ -5041,7 +5093,9 @@
       </c>
       <c r="K5" s="37"/>
       <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="M5" s="10">
+        <v>5700</v>
+      </c>
       <c r="N5" s="6">
         <v>225</v>
       </c>
@@ -5120,7 +5174,9 @@
       </c>
       <c r="K6" s="37"/>
       <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
+      <c r="M6" s="10">
+        <v>6000</v>
+      </c>
       <c r="N6" s="6">
         <v>56</v>
       </c>
@@ -5199,7 +5255,9 @@
       <c r="L7" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="M7" s="10"/>
+      <c r="M7" s="10">
+        <v>6000</v>
+      </c>
       <c r="N7" s="6">
         <v>58</v>
       </c>
@@ -5351,6 +5409,9 @@
         <v>6</v>
       </c>
       <c r="K9" s="37"/>
+      <c r="M9" s="25">
+        <v>6000</v>
+      </c>
       <c r="N9" s="5">
         <v>441</v>
       </c>
@@ -5484,7 +5545,9 @@
       </c>
       <c r="K11" s="37"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
+      <c r="M11" s="10">
+        <v>6000</v>
+      </c>
       <c r="N11" s="6" t="s">
         <v>364</v>
       </c>
@@ -5779,11 +5842,14 @@
       <c r="L15" s="6" t="s">
         <v>594</v>
       </c>
+      <c r="M15" s="25">
+        <v>6000</v>
+      </c>
       <c r="N15" s="15">
         <v>30</v>
       </c>
       <c r="O15" s="15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P15" s="40">
         <v>89219583612</v>
@@ -5844,7 +5910,9 @@
       </c>
       <c r="K16" s="37"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
+      <c r="M16" s="10">
+        <v>6000</v>
+      </c>
       <c r="N16" s="5">
         <v>518</v>
       </c>
@@ -5922,6 +5990,9 @@
         <v>2</v>
       </c>
       <c r="K17" s="37"/>
+      <c r="M17" s="25">
+        <v>6000</v>
+      </c>
       <c r="N17" s="5">
         <v>183</v>
       </c>
@@ -6208,7 +6279,9 @@
         <v>11</v>
       </c>
       <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
+      <c r="M21" s="10">
+        <v>6000</v>
+      </c>
       <c r="N21" s="6" t="s">
         <v>395</v>
       </c>
@@ -6227,8 +6300,8 @@
       <c r="S21" s="25" t="s">
         <v>551</v>
       </c>
-      <c r="T21" s="6" t="s">
-        <v>398</v>
+      <c r="T21" s="6">
+        <v>4022149794</v>
       </c>
       <c r="U21" s="10" t="s">
         <v>617</v>
@@ -6362,7 +6435,9 @@
       </c>
       <c r="K23" s="37"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
+      <c r="M23" s="10">
+        <v>6000</v>
+      </c>
       <c r="N23" s="6">
         <v>43</v>
       </c>
@@ -6621,8 +6696,8 @@
   <sheetPr/>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -6679,14 +6754,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
         <v>329</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="F4">
+      <c r="D4">
         <v>1</v>
       </c>
     </row>
@@ -6945,7 +7020,6 @@
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24"/>
       <c r="G24">
         <v>1</v>
       </c>
@@ -9626,12 +9700,110 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="28.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="20.4444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>696</v>
+      </c>
+      <c r="B4" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>698</v>
+      </c>
+      <c r="B5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>699</v>
+      </c>
+      <c r="B6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>700</v>
+      </c>
+      <c r="B7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>701</v>
+      </c>
+      <c r="B8" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>702</v>
+      </c>
+      <c r="B9" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>704</v>
+      </c>
+      <c r="B10" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>706</v>
+      </c>
+      <c r="B11" t="s">
+        <v>707</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:D46"/>
     </sheetView>
   </sheetViews>
@@ -10202,7 +10374,7 @@
   <sheetPr/>
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -11166,7 +11338,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="B4 J6 J6 J6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>

--- a/Jashera 2022/Jashera 2022.xlsx
+++ b/Jashera 2022/Jashera 2022.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" tabRatio="804" firstSheet="7" activeTab="14"/>
+    <workbookView windowWidth="22368" windowHeight="9264" tabRatio="804"/>
   </bookViews>
   <sheets>
     <sheet name="Список оборудования" sheetId="12" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="709">
   <si>
     <t>ОБОРУДОВАНИЕ</t>
   </si>
@@ -63,75 +63,75 @@
     <t xml:space="preserve">Банки материальные </t>
   </si>
   <si>
-    <t>Желтуха</t>
+    <t>Sh2</t>
   </si>
   <si>
     <t>Брусок</t>
   </si>
   <si>
-    <t>Желтопузик</t>
+    <t>Серуф</t>
   </si>
   <si>
     <t>Будильник</t>
   </si>
   <si>
-    <t>Танк1</t>
+    <t>Жаба</t>
   </si>
   <si>
     <t>Бинокли</t>
   </si>
   <si>
+    <t>Змей</t>
+  </si>
+  <si>
+    <t>Ведра полиэтиленовые</t>
+  </si>
+  <si>
+    <t>Синяя дыра</t>
+  </si>
+  <si>
+    <t>Веревка бельевая</t>
+  </si>
+  <si>
+    <t>Зеленка</t>
+  </si>
+  <si>
+    <t>Веревка упаковочная</t>
+  </si>
+  <si>
+    <t>Квакша</t>
+  </si>
+  <si>
+    <t>Гвозди</t>
+  </si>
+  <si>
+    <t>Sh1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Капроновый фал </t>
+  </si>
+  <si>
     <t>Танк2</t>
   </si>
   <si>
-    <t>Ведра полиэтиленовые</t>
-  </si>
-  <si>
-    <t>Новая зеленандия</t>
-  </si>
-  <si>
-    <t>Веревка бельевая</t>
-  </si>
-  <si>
-    <t>Синяя дыра</t>
-  </si>
-  <si>
-    <t>Веревка упаковочная</t>
-  </si>
-  <si>
-    <t>Олегово 1</t>
-  </si>
-  <si>
-    <t>Гвозди</t>
-  </si>
-  <si>
-    <t>Олегово 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Капроновый фал </t>
+    <t>ВМ</t>
   </si>
   <si>
     <t>Капроновый фал запасной</t>
   </si>
   <si>
-    <t>резервы</t>
+    <t>Непонятная палатка типа "Серуф"</t>
   </si>
   <si>
     <t>Карандаши простые</t>
   </si>
   <si>
-    <t>Яшино</t>
-  </si>
-  <si>
     <t>Кнги (Полоскин-Хайтов)</t>
   </si>
   <si>
     <t>Книги (Хейсин)</t>
   </si>
   <si>
-    <t>ВМ</t>
-  </si>
-  <si>
     <t>Коврики для доски</t>
   </si>
   <si>
@@ -319,6 +319,9 @@
   </si>
   <si>
     <t>Клей Момент</t>
+  </si>
+  <si>
+    <t>Полиспаст</t>
   </si>
   <si>
     <t>Оборудование для форпоста</t>
@@ -2258,17 +2261,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
-    <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="177" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="180" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="182" formatCode="dd\.mmm"/>
-    <numFmt numFmtId="183" formatCode="dd\.mm\.yyyy\ h:mm"/>
-    <numFmt numFmtId="184" formatCode="dd\.mm\.yyyy;@"/>
-    <numFmt numFmtId="185" formatCode="[$-419]d\ mm\ yyyy;@"/>
-    <numFmt numFmtId="186" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
+    <numFmt numFmtId="176" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy\ h:mm"/>
+    <numFmt numFmtId="181" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="182" formatCode="dd\.mm\.yyyy;@"/>
+    <numFmt numFmtId="183" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="184" formatCode="[$-419]d\ mm\ yyyy;@"/>
+    <numFmt numFmtId="185" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
+    <numFmt numFmtId="186" formatCode="0.0"/>
   </numFmts>
   <fonts count="52">
     <font>
@@ -2462,43 +2465,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2513,14 +2480,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2544,7 +2503,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2552,7 +2519,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2563,6 +2537,14 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2579,6 +2561,13 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2600,6 +2589,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2644,85 +2647,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2740,6 +2671,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2752,37 +2761,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2800,13 +2785,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2818,7 +2809,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2998,6 +3001,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3009,41 +3023,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3075,6 +3054,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -3100,152 +3103,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="30" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="27" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="20" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -3261,28 +3264,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -3291,7 +3294,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -3300,7 +3303,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3309,7 +3312,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3321,7 +3324,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3339,7 +3342,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3364,7 +3367,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
@@ -3410,7 +3413,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3440,7 +3443,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3456,19 +3459,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3487,7 +3490,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3598,8 +3601,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="25" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3644,14 +3647,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="183" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="183" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="25" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="186" fontId="25" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4086,10 +4089,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85185185185185" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -4127,7 +4130,9 @@
       <c r="B3" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="175"/>
+      <c r="C3" s="175">
+        <v>1</v>
+      </c>
       <c r="D3" s="173"/>
       <c r="E3" s="173" t="s">
         <v>5</v>
@@ -4140,7 +4145,9 @@
       <c r="B4" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="175"/>
+      <c r="C4" s="175">
+        <v>1</v>
+      </c>
       <c r="D4" s="173"/>
       <c r="E4" s="173" t="s">
         <v>7</v>
@@ -4153,7 +4160,9 @@
       <c r="B5" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="175"/>
+      <c r="C5" s="175">
+        <v>1</v>
+      </c>
       <c r="D5" s="173"/>
       <c r="E5" s="173" t="s">
         <v>9</v>
@@ -4178,33 +4187,39 @@
       <c r="B7" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="175"/>
+      <c r="C7" s="175">
+        <v>1</v>
+      </c>
       <c r="D7" s="173"/>
       <c r="E7" s="173" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="171">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="175"/>
+      <c r="C8" s="175">
+        <v>1</v>
+      </c>
       <c r="D8" s="173"/>
       <c r="E8" s="171" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="171">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" ht="13.9" customHeight="1" spans="2:6">
       <c r="B9" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="175"/>
+      <c r="C9" s="175">
+        <v>1</v>
+      </c>
       <c r="D9" s="173"/>
       <c r="E9" s="171" t="s">
         <v>17</v>
@@ -4217,116 +4232,142 @@
       <c r="B10" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="175"/>
+      <c r="C10" s="175">
+        <v>1</v>
+      </c>
       <c r="E10" s="171" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="171">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
       <c r="B11" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="175"/>
+      <c r="C11" s="175">
+        <v>1</v>
+      </c>
       <c r="D11" s="173"/>
-    </row>
-    <row r="12" spans="2:5">
+      <c r="E11" s="171" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="171" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
       <c r="B12" s="174" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="175"/>
+        <v>23</v>
+      </c>
+      <c r="C12" s="175">
+        <v>1</v>
+      </c>
       <c r="E12" s="178" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
+        <v>24</v>
+      </c>
+      <c r="F12" s="171">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
       <c r="B13" s="174" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="175"/>
-      <c r="E13" s="171" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="171">
-        <v>3</v>
+        <v>25</v>
+      </c>
+      <c r="C13" s="175">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="174" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="175"/>
-    </row>
-    <row r="15" spans="2:6">
+        <v>26</v>
+      </c>
+      <c r="C14" s="175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
       <c r="B15" s="174" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="175"/>
-      <c r="E15" s="173" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="171" t="s">
-        <v>27</v>
-      </c>
+      <c r="E15" s="173"/>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="174" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="175"/>
+      <c r="C16" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="174" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="175"/>
+      <c r="C17" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="175"/>
+      <c r="C18" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="174" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="175"/>
+      <c r="C19" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="179"/>
       <c r="B20" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="175"/>
+      <c r="C20" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="179"/>
       <c r="B21" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="175"/>
+      <c r="C21" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="179"/>
       <c r="B22" s="174" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="175"/>
+      <c r="C22" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="174" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="175"/>
+      <c r="C23" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="174" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="175"/>
+      <c r="C24" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="174" t="s">
@@ -4338,19 +4379,25 @@
       <c r="B26" s="174" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="175"/>
+      <c r="C26" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="174" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="175"/>
+      <c r="C27" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="174" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="175"/>
+      <c r="C28" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="174" t="s">
@@ -4368,7 +4415,9 @@
       <c r="B31" s="174" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="175"/>
+      <c r="C31" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="174" t="s">
@@ -4392,7 +4441,9 @@
       <c r="B35" s="174" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="175"/>
+      <c r="C35" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="177" t="s">
@@ -4410,7 +4461,9 @@
       <c r="B38" s="174" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="175"/>
+      <c r="C38" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="174" t="s">
@@ -4428,13 +4481,17 @@
       <c r="B41" s="174" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="175"/>
+      <c r="C41" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="174" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="175"/>
+      <c r="C42" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" s="174" t="s">
@@ -4446,13 +4503,17 @@
       <c r="B44" s="174" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="175"/>
+      <c r="C44" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" s="174" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="175"/>
+      <c r="C45" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" s="174" t="s">
@@ -4476,13 +4537,17 @@
       <c r="B49" s="177" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="175"/>
+      <c r="C49" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="175"/>
+      <c r="C50" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="174" t="s">
@@ -4500,7 +4565,9 @@
       <c r="B53" s="180" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="175"/>
+      <c r="C53" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="174" t="s">
@@ -4518,25 +4585,33 @@
       <c r="B56" s="174" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="175"/>
+      <c r="C56" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="2:3">
       <c r="B57" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="175"/>
+      <c r="C57" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" s="174" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="175"/>
+      <c r="C58" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" s="175" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="175"/>
+      <c r="C59" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" s="174" t="s">
@@ -4548,73 +4623,97 @@
       <c r="B61" s="174" t="s">
         <v>73</v>
       </c>
-      <c r="C61" s="175"/>
+      <c r="C61" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="2:3">
       <c r="B62" s="174" t="s">
         <v>74</v>
       </c>
-      <c r="C62" s="175"/>
+      <c r="C62" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="2:3">
       <c r="B63" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="C63" s="175"/>
+      <c r="C63" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="2:3">
       <c r="B64" s="174" t="s">
         <v>76</v>
       </c>
-      <c r="C64" s="175"/>
+      <c r="C64" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" s="174" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="175"/>
+      <c r="C65" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" s="174" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="175"/>
+      <c r="C66" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" s="175" t="s">
         <v>79</v>
       </c>
-      <c r="C67" s="175"/>
+      <c r="C67" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" s="174" t="s">
         <v>80</v>
       </c>
-      <c r="C68" s="175"/>
+      <c r="C68" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" s="174" t="s">
         <v>81</v>
       </c>
-      <c r="C69" s="175"/>
+      <c r="C69" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="2:3">
       <c r="B70" s="174" t="s">
         <v>82</v>
       </c>
-      <c r="C70" s="175"/>
+      <c r="C70" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" s="174" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="175"/>
+      <c r="C71" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" s="174" t="s">
         <v>84</v>
       </c>
-      <c r="C72" s="175"/>
+      <c r="C72" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" s="174" t="s">
@@ -4632,13 +4731,17 @@
       <c r="B75" s="174" t="s">
         <v>87</v>
       </c>
-      <c r="C75" s="175"/>
+      <c r="C75" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" s="174" t="s">
         <v>88</v>
       </c>
-      <c r="C76" s="175"/>
+      <c r="C76" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="2:3">
       <c r="B77" s="177" t="s">
@@ -4652,19 +4755,17 @@
       </c>
       <c r="C78" s="175"/>
     </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="176" t="s">
+    <row r="79" spans="2:3">
+      <c r="B79" s="171" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="171" t="s">
+      <c r="C79" s="171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="176" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="171" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="83" spans="2:2">
@@ -4674,22 +4775,32 @@
     </row>
     <row r="84" spans="2:2">
       <c r="B84" s="171" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" s="171" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="171" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="171" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="171" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="171" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -4705,11 +4816,11 @@
   <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T21" sqref="T21"/>
+      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
@@ -4743,85 +4854,85 @@
   <sheetData>
     <row r="1" spans="2:33">
       <c r="B1" s="10" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="V1" s="10" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="W1" s="10" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="X1" s="10" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="Y1" s="10" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Z1" s="10" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AA1" s="10" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AB1" s="10" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AC1" s="10"/>
       <c r="AD1" s="10"/>
@@ -4829,15 +4940,15 @@
       <c r="AF1" s="10"/>
       <c r="AG1" s="10"/>
     </row>
-    <row r="2" spans="2:31">
+    <row r="2" ht="15.15" spans="2:31">
       <c r="B2" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E2" s="6">
         <v>1</v>
@@ -4872,46 +4983,46 @@
         <v>89118124048</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="S2" s="25" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="T2" s="5">
         <v>4018281460</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AE2" s="25" t="str">
         <f>CONCATENATE(V2," ",W2," ",X2)</f>
         <v>Атаманов Иван Валерьевич</v>
       </c>
     </row>
-    <row r="3" spans="2:33">
+    <row r="3" ht="15.15" spans="2:33">
       <c r="B3" s="31" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E3" s="31">
         <v>1</v>
@@ -4923,7 +5034,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I3" s="31">
         <v>5</v>
@@ -4946,32 +5057,32 @@
         <v>89650953153</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R3" s="7">
         <v>39367</v>
       </c>
       <c r="S3" s="25" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="T3" s="42">
         <v>4022050606</v>
       </c>
       <c r="U3" s="43"/>
       <c r="V3" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="Y3" s="8">
         <v>89052006465</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AA3" s="43"/>
       <c r="AB3" s="37"/>
@@ -4986,13 +5097,13 @@
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
@@ -5027,34 +5138,34 @@
         <v>89818295984</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R4" s="9">
         <v>39857</v>
       </c>
       <c r="S4" s="25" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="U4" s="10"/>
       <c r="V4" s="10" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="X4" s="10" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Y4" s="10" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Z4" s="15"/>
       <c r="AA4" s="10"/>
       <c r="AB4" s="10" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AC4" s="10"/>
       <c r="AD4" s="10"/>
@@ -5067,13 +5178,13 @@
     </row>
     <row r="5" spans="2:33">
       <c r="B5" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
@@ -5106,32 +5217,32 @@
         <v>89215575265</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="R5" s="11">
         <v>38553</v>
       </c>
       <c r="S5" s="25" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="T5" s="5">
         <v>4019397258</v>
       </c>
       <c r="U5" s="10"/>
       <c r="V5" s="6" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="W5" s="6" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="X5" s="6" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="Y5" s="5">
         <v>89213205528</v>
       </c>
       <c r="Z5" s="6" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AA5" s="10"/>
       <c r="AB5" s="10"/>
@@ -5146,13 +5257,13 @@
     </row>
     <row r="6" spans="2:33">
       <c r="B6" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
@@ -5187,38 +5298,38 @@
         <v>89291040939</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="R6" s="12">
         <v>39849</v>
       </c>
       <c r="S6" s="25" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="T6" s="44" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="U6" s="10"/>
       <c r="V6" s="6" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="W6" s="6" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="X6" s="6" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="Y6" s="48" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Z6" s="31" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AA6" s="6" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AB6" s="6" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AC6" s="10"/>
       <c r="AD6" s="10"/>
@@ -5231,13 +5342,13 @@
     </row>
     <row r="7" spans="2:33">
       <c r="B7" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
@@ -5253,7 +5364,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="39"/>
       <c r="L7" s="6" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M7" s="10">
         <v>6000</v>
@@ -5268,35 +5379,35 @@
         <v>89112625350</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="R7" s="12">
         <v>39462</v>
       </c>
       <c r="S7" s="25" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="U7" s="10"/>
       <c r="V7" s="6" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="W7" s="6" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="X7" s="6" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="Y7" s="48" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="Z7" s="31" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AA7" s="6" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AB7" s="31"/>
       <c r="AC7" s="10"/>
@@ -5307,13 +5418,13 @@
     </row>
     <row r="8" spans="2:33">
       <c r="B8" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E8" s="6">
         <v>1</v>
@@ -5344,26 +5455,26 @@
         <v>89818346175</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="R8" s="11">
         <v>38137</v>
       </c>
       <c r="S8" s="25" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="T8" s="5">
         <v>4018085917</v>
       </c>
       <c r="U8" s="10"/>
       <c r="V8" s="6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="W8" s="6" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="X8" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Y8" s="5">
         <v>89117966505</v>
@@ -5382,13 +5493,13 @@
     </row>
     <row r="9" spans="2:31">
       <c r="B9" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
@@ -5422,25 +5533,25 @@
         <v>89213354865</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="R9" s="11">
         <v>39166</v>
       </c>
       <c r="S9" s="25" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="T9" s="6">
         <v>4020831130</v>
       </c>
       <c r="V9" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="W9" s="6" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="X9" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Y9" s="6">
         <v>9522270284</v>
@@ -5453,13 +5564,13 @@
     </row>
     <row r="10" spans="2:31">
       <c r="B10" s="15" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="25">
@@ -5486,25 +5597,25 @@
         <v>89214136722</v>
       </c>
       <c r="Q10" s="15" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="R10" s="13">
         <v>38917</v>
       </c>
       <c r="S10" s="25" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="T10" s="20">
         <v>4002634542</v>
       </c>
       <c r="V10" s="15" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="W10" s="15" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="X10" s="15" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Y10" s="15">
         <v>9219312294</v>
@@ -5517,13 +5628,13 @@
     </row>
     <row r="11" spans="2:33">
       <c r="B11" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
@@ -5549,7 +5660,7 @@
         <v>6000</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O11" s="6">
         <v>5</v>
@@ -5558,37 +5669,37 @@
         <v>89219845986</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="R11" s="12">
         <v>40363</v>
       </c>
       <c r="S11" s="25" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="U11" s="45" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="V11" s="6" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="W11" s="6" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="X11" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Y11" s="48" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Z11" s="31" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AA11" s="6" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AB11" s="31"/>
       <c r="AC11" s="10"/>
@@ -5602,13 +5713,13 @@
     </row>
     <row r="12" spans="2:33">
       <c r="B12" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E12" s="6">
         <v>1</v>
@@ -5630,7 +5741,9 @@
       </c>
       <c r="K12" s="37"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
+      <c r="M12" s="10">
+        <v>6000</v>
+      </c>
       <c r="N12" s="5">
         <v>504</v>
       </c>
@@ -5641,32 +5754,32 @@
         <v>89111652301</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="R12" s="11">
         <v>38434</v>
       </c>
       <c r="S12" s="25" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="T12" s="5">
         <v>4018287872</v>
       </c>
       <c r="U12" s="10"/>
       <c r="V12" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="W12" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="X12" s="6" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="Y12" s="5">
         <v>89817910834</v>
       </c>
       <c r="Z12" s="6" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
@@ -5681,13 +5794,13 @@
     </row>
     <row r="13" spans="2:26">
       <c r="B13" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E13" s="6">
         <v>1</v>
@@ -5702,7 +5815,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="37"/>
       <c r="L13" s="6" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N13" s="6">
         <v>49</v>
@@ -5714,42 +5827,42 @@
         <v>89259175393</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="R13" s="11">
         <v>39581</v>
       </c>
       <c r="S13" s="25" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="T13" s="46" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="V13" s="6" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="W13" s="6" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="X13" s="6" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="Y13" s="5">
         <v>89165382822</v>
       </c>
       <c r="Z13" s="6" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="14" spans="2:33">
       <c r="B14" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E14" s="6">
         <v>1</v>
@@ -5765,11 +5878,11 @@
       <c r="J14" s="6"/>
       <c r="K14" s="37"/>
       <c r="L14" s="6" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M14" s="10"/>
       <c r="N14" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O14" s="6">
         <v>6</v>
@@ -5782,34 +5895,34 @@
         <v>39916</v>
       </c>
       <c r="S14" s="25" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="T14" s="47" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="W14" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="X14" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Y14" s="48">
         <v>79213290657</v>
       </c>
       <c r="Z14" s="31" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AA14" s="6" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AB14" s="6" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AC14" s="10"/>
       <c r="AD14" s="10"/>
@@ -5819,13 +5932,13 @@
     </row>
     <row r="15" spans="2:26">
       <c r="B15" s="20" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E15" s="20">
         <v>1</v>
@@ -5840,7 +5953,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M15" s="25">
         <v>6000</v>
@@ -5855,25 +5968,25 @@
         <v>89219583612</v>
       </c>
       <c r="Q15" s="18" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="R15" s="16">
         <v>38933</v>
       </c>
       <c r="S15" s="25" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="T15" s="10">
         <v>4020668443</v>
       </c>
       <c r="V15" s="18" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="W15" s="18" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="X15" s="18" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Y15" s="18">
         <v>89213827100</v>
@@ -5882,13 +5995,13 @@
     </row>
     <row r="16" spans="2:33">
       <c r="B16" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E16" s="6">
         <v>1</v>
@@ -5923,32 +6036,32 @@
         <v>89313127300</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="R16" s="11">
         <v>40070</v>
       </c>
       <c r="S16" s="25" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="U16" s="10"/>
       <c r="V16" s="6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="W16" s="6" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="X16" s="6" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="Y16" s="5">
         <v>89213409406</v>
       </c>
       <c r="Z16" s="6" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AA16" s="10"/>
       <c r="AB16" s="10"/>
@@ -5963,13 +6076,13 @@
     </row>
     <row r="17" spans="2:31">
       <c r="B17" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E17" s="6">
         <v>1</v>
@@ -6003,31 +6116,31 @@
         <v>89610752525</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="R17" s="11">
         <v>39331</v>
       </c>
       <c r="S17" s="25" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="T17" s="46">
         <v>4021966729</v>
       </c>
       <c r="V17" s="6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="W17" s="6" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="X17" s="6" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="Y17" s="5">
         <v>89610717771</v>
       </c>
       <c r="Z17" s="6" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AE17" s="25" t="str">
         <f>CONCATENATE(V17," ",W17," ",X17)</f>
@@ -6036,13 +6149,13 @@
     </row>
     <row r="18" spans="2:31">
       <c r="B18" s="20" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="25">
@@ -6071,25 +6184,25 @@
         <v>89818723635</v>
       </c>
       <c r="Q18" s="20" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="R18" s="19">
         <v>38982</v>
       </c>
       <c r="S18" s="25" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="T18" s="15">
         <v>4020691039</v>
       </c>
       <c r="V18" s="20" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="W18" s="20" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="X18" s="20" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="Y18" s="20">
         <v>9818417041</v>
@@ -6102,13 +6215,13 @@
     </row>
     <row r="19" spans="2:33">
       <c r="B19" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
@@ -6122,7 +6235,7 @@
       <c r="J19" s="6"/>
       <c r="K19" s="39"/>
       <c r="L19" s="6" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M19" s="10"/>
       <c r="N19" s="6">
@@ -6135,37 +6248,37 @@
         <v>89200043637</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="R19" s="12">
         <v>39810</v>
       </c>
       <c r="S19" s="25" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="T19" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="V19" s="6" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="W19" s="6" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="X19" s="6" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="Y19" s="48" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="Z19" s="31" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AB19" s="31"/>
       <c r="AC19" s="10"/>
@@ -6176,13 +6289,13 @@
     </row>
     <row r="20" spans="2:33">
       <c r="B20" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E20" s="6">
         <v>1</v>
@@ -6211,32 +6324,32 @@
         <v>89633411161</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="R20" s="11">
         <v>40195</v>
       </c>
       <c r="S20" s="25" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="T20" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="U20" s="10"/>
       <c r="V20" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W20" s="6" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="X20" s="6" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="Y20" s="5">
         <v>89657737525</v>
       </c>
       <c r="Z20" s="6" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AA20" s="10"/>
       <c r="AB20" s="10"/>
@@ -6252,13 +6365,13 @@
     <row r="21" s="37" customFormat="1" ht="15.15" spans="1:33">
       <c r="A21" s="14"/>
       <c r="B21" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E21" s="6">
         <v>1</v>
@@ -6283,7 +6396,7 @@
         <v>6000</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O21" s="6">
         <v>7</v>
@@ -6292,40 +6405,40 @@
         <v>89817032760</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="R21" s="12">
         <v>39529</v>
       </c>
       <c r="S21" s="25" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="T21" s="6">
         <v>4022149794</v>
       </c>
       <c r="U21" s="10" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="V21" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="W21" s="6" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="X21" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Y21" s="48" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="Z21" s="31" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AA21" s="6" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AC21" s="10"/>
       <c r="AD21" s="10"/>
@@ -6338,13 +6451,13 @@
     </row>
     <row r="22" ht="15.15" spans="2:33">
       <c r="B22" s="24" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E22" s="24">
         <v>1</v>
@@ -6366,32 +6479,32 @@
       <c r="N22" s="24"/>
       <c r="O22" s="24"/>
       <c r="P22" s="23" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="Q22" s="24" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="R22" s="22">
         <v>38989</v>
       </c>
       <c r="S22" s="25" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="T22" s="8">
         <v>4020684651</v>
       </c>
       <c r="U22" s="10"/>
       <c r="V22" s="24" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="W22" s="24" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="X22" s="24" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="Y22" s="49" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="Z22" s="15"/>
       <c r="AA22" s="10"/>
@@ -6407,13 +6520,13 @@
     </row>
     <row r="23" spans="2:33">
       <c r="B23" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E23" s="6">
         <v>1</v>
@@ -6448,40 +6561,40 @@
         <v>89819793731</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="R23" s="12">
         <v>39987</v>
       </c>
       <c r="S23" s="25" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="T23" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="V23" s="6" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="W23" s="6" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="X23" s="6" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Y23" s="48" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="Z23" s="31" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AC23" s="10"/>
       <c r="AD23" s="10"/>
@@ -6494,13 +6607,13 @@
     </row>
     <row r="24" spans="2:31">
       <c r="B24" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E24" s="6">
         <v>1</v>
@@ -6531,31 +6644,31 @@
         <v>89312711134</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="R24" s="11">
         <v>38070</v>
       </c>
       <c r="S24" s="25" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="T24" s="5">
         <v>4018029738</v>
       </c>
       <c r="V24" s="6" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="W24" s="6" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="X24" s="6" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="Y24" s="5">
         <v>89218717677</v>
       </c>
       <c r="Z24" s="6" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AE24" s="25" t="str">
         <f t="shared" si="0"/>
@@ -6564,13 +6677,13 @@
     </row>
     <row r="25" spans="2:31">
       <c r="B25" s="6" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E25" s="6">
         <v>1</v>
@@ -6581,7 +6694,7 @@
       <c r="J25" s="6"/>
       <c r="K25" s="37"/>
       <c r="L25" s="6" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="N25" s="6">
         <v>12</v>
@@ -6593,28 +6706,28 @@
         <v>89319803214</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="R25" s="11">
         <v>39485</v>
       </c>
       <c r="T25" s="6" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="V25" s="6" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="W25" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="X25" s="6" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="Y25" s="5">
         <v>89213132221</v>
       </c>
       <c r="Z25" s="6" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AE25" s="25" t="str">
         <f t="shared" si="0"/>
@@ -6623,13 +6736,13 @@
     </row>
     <row r="29" spans="2:31">
       <c r="B29" s="6" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E29" s="6"/>
       <c r="G29" s="6">
@@ -6642,7 +6755,7 @@
       <c r="J29" s="6"/>
       <c r="K29" s="37"/>
       <c r="N29" s="6" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="O29" s="24">
         <v>7</v>
@@ -6651,28 +6764,28 @@
         <v>89111291746</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="R29" s="11">
         <v>39606</v>
       </c>
       <c r="T29" s="6" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="V29" s="6" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="W29" s="6" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="X29" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Y29" s="6">
         <v>79119331333</v>
       </c>
       <c r="Z29" s="6" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AE29" s="25" t="str">
         <f>CONCATENATE(V29," ",W29," ",X29)</f>
@@ -6711,27 +6824,27 @@
   <sheetData>
     <row r="1" spans="3:7">
       <c r="C1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -6739,10 +6852,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="31" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -6756,10 +6869,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -6767,10 +6880,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -6784,10 +6897,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -6798,10 +6911,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -6809,10 +6922,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -6823,10 +6936,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -6840,10 +6953,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="15" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -6857,10 +6970,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -6871,10 +6984,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -6888,10 +7001,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -6899,10 +7012,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -6910,10 +7023,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="20" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -6924,10 +7037,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -6935,10 +7048,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -6946,18 +7059,18 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="20" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -6968,10 +7081,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -6979,10 +7092,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -6990,10 +7103,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="24" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -7001,10 +7114,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -7012,10 +7125,10 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -7026,10 +7139,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="6" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -7063,39 +7176,39 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="30" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F2" s="5">
         <v>4018281460</v>
@@ -7103,19 +7216,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="31" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D3" s="11">
         <v>39367</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F3" s="6">
         <v>4022050606</v>
@@ -7123,39 +7236,39 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D4" s="9">
         <v>39857</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D5" s="11">
         <v>38553</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F5" s="5">
         <v>4019397258</v>
@@ -7163,59 +7276,59 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D6" s="12">
         <v>39849</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D7" s="12">
         <v>39462</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D8" s="11">
         <v>38137</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F8" s="5">
         <v>4018085917</v>
@@ -7223,19 +7336,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D9" s="11">
         <v>39166</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F9" s="6">
         <v>4020831130</v>
@@ -7243,19 +7356,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="20" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D10" s="19">
         <v>38917</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F10" s="20">
         <v>4002634542</v>
@@ -7263,39 +7376,39 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D11" s="12">
         <v>40363</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D12" s="11">
         <v>38434</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F12" s="5">
         <v>4018287872</v>
@@ -7303,59 +7416,59 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D13" s="11">
         <v>39581</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D14" s="12">
         <v>39916</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="20" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D15" s="22">
         <v>38933</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F15" s="6">
         <v>4020668443</v>
@@ -7363,39 +7476,39 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D16" s="11">
         <v>40070</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D17" s="11">
         <v>39331</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F17" s="6">
         <v>4021966729</v>
@@ -7403,19 +7516,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="20" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D18" s="19">
         <v>38982</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F18" s="20">
         <v>4020691039</v>
@@ -7423,79 +7536,79 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D19" s="12">
         <v>39810</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D20" s="11">
         <v>40195</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D21" s="12">
         <v>39529</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="24" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D22" s="22">
         <v>38989</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F22" s="5">
         <v>4020684651</v>
@@ -7503,39 +7616,39 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D23" s="12">
         <v>39987</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D24" s="11">
         <v>38070</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F24" s="5">
         <v>4018029738</v>
@@ -7559,19 +7672,19 @@
     </row>
     <row r="27" s="29" customFormat="1" ht="13.2" spans="1:4">
       <c r="A27" s="35" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D27" s="36"/>
     </row>
     <row r="28" s="29" customFormat="1" ht="13.2" spans="1:4">
       <c r="A28" s="29" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D28" s="36"/>
     </row>
@@ -8370,40 +8483,40 @@
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>533</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="2" ht="15.15" spans="1:5">
       <c r="A2" s="4"/>
       <c r="B2" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D2" s="5">
         <v>89118124048</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" ht="15.15" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C3" s="7">
         <v>39367</v>
@@ -8412,13 +8525,13 @@
         <v>89650953153</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" ht="15.15" spans="1:5">
       <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C4" s="9">
         <v>39857</v>
@@ -8427,13 +8540,13 @@
         <v>89818295984</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" ht="15.15" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C5" s="11">
         <v>38553</v>
@@ -8442,13 +8555,13 @@
         <v>89215575265</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" ht="15.15" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="3" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C6" s="12">
         <v>39849</v>
@@ -8457,13 +8570,13 @@
         <v>9291040939</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" ht="15.15" spans="1:5">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C7" s="12">
         <v>39462</v>
@@ -8472,13 +8585,13 @@
         <v>9112625350</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="8" ht="15.15" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="3" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C8" s="11">
         <v>38137</v>
@@ -8487,13 +8600,13 @@
         <v>9818346175</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" ht="15.15" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C9" s="11">
         <v>39166</v>
@@ -8502,13 +8615,13 @@
         <v>9213354865</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" ht="15.15" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C10" s="13">
         <v>38917</v>
@@ -8517,13 +8630,13 @@
         <v>9214136722</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" ht="15.15" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C11" s="12">
         <v>40363</v>
@@ -8532,13 +8645,13 @@
         <v>9219845986</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" ht="15.15" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C12" s="11">
         <v>38434</v>
@@ -8547,13 +8660,13 @@
         <v>9111652301</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="13" ht="15.15" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C13" s="11">
         <v>39581</v>
@@ -8562,13 +8675,13 @@
         <v>9259175393</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="14" ht="15.15" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C14" s="12">
         <v>39916</v>
@@ -8577,13 +8690,13 @@
         <v>9218718088</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" ht="15.15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C15" s="16">
         <v>38933</v>
@@ -8592,13 +8705,13 @@
         <v>9313625109</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="16" ht="15.15" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C16" s="11">
         <v>40070</v>
@@ -8607,13 +8720,13 @@
         <v>9313127300</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="17" ht="15.15" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C17" s="11">
         <v>39331</v>
@@ -8622,13 +8735,13 @@
         <v>9610752525</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" ht="15.15" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C18" s="19">
         <v>38982</v>
@@ -8637,13 +8750,13 @@
         <v>9818723635</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" ht="15.15" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C19" s="12">
         <v>39810</v>
@@ -8652,13 +8765,13 @@
         <v>9200043637</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="20" ht="15.15" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C20" s="11">
         <v>40195</v>
@@ -8667,13 +8780,13 @@
         <v>9633411161</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" ht="15.15" spans="1:5">
       <c r="A21" s="21"/>
       <c r="B21" s="3" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C21" s="12">
         <v>39529</v>
@@ -8682,13 +8795,13 @@
         <v>9817032760</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="22" ht="15.15" spans="1:5">
       <c r="A22" s="21"/>
       <c r="B22" s="3" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C22" s="22">
         <v>38989</v>
@@ -8697,13 +8810,13 @@
         <v>9213026506</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" ht="15.15" spans="1:5">
       <c r="A23" s="21"/>
       <c r="B23" s="3" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C23" s="12">
         <v>39987</v>
@@ -8712,13 +8825,13 @@
         <v>9819793731</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="24" ht="15.15" spans="1:5">
       <c r="A24" s="21"/>
       <c r="B24" s="3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C24" s="11">
         <v>38070</v>
@@ -8727,13 +8840,13 @@
         <v>9312711134</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25" ht="15.15" spans="1:5">
       <c r="A25" s="21"/>
       <c r="B25" s="3" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C25" s="11">
         <v>39606</v>
@@ -8742,13 +8855,13 @@
         <v>9111291746</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="26" ht="15.15" spans="1:5">
       <c r="A26" s="21"/>
       <c r="B26" s="3" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C26" s="11">
         <v>39485</v>
@@ -8757,7 +8870,7 @@
         <v>9312244315</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="27" ht="15.15" spans="1:5">
@@ -8770,7 +8883,7 @@
     <row r="28" ht="15.15" spans="1:5">
       <c r="A28" s="21"/>
       <c r="B28" s="3" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="8"/>
@@ -8779,7 +8892,7 @@
     <row r="29" ht="15.15" spans="1:5">
       <c r="A29" s="21"/>
       <c r="B29" s="3" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
@@ -8788,7 +8901,7 @@
     <row r="30" ht="15.15" spans="1:5">
       <c r="A30" s="21"/>
       <c r="B30" s="3" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
@@ -8797,7 +8910,7 @@
     <row r="31" ht="15.15" spans="1:5">
       <c r="A31" s="21"/>
       <c r="B31" s="3" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="3"/>
@@ -8806,7 +8919,7 @@
     <row r="32" ht="15.15" spans="1:5">
       <c r="A32" s="21"/>
       <c r="B32" s="3" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="3"/>
@@ -9630,68 +9743,68 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="3" ht="79.2" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="4" ht="39.6" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="6" ht="52.8" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -9705,8 +9818,8 @@
   <sheetPr/>
   <dimension ref="A2:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -9717,79 +9830,79 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B4" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B8" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B9" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B10" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B11" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
   </sheetData>
@@ -9821,10 +9934,10 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="149" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C1" s="167" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -9832,10 +9945,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="169" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C2" s="170" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D2" s="25"/>
     </row>
@@ -9844,13 +9957,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="169" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C3" s="170" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D3" s="149" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -9858,13 +9971,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="169" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="170" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="149" t="s">
         <v>105</v>
-      </c>
-      <c r="C4" s="170" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="149" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9872,13 +9985,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="169" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C5" s="170" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D5" s="149" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" ht="15.6" customHeight="1" spans="1:4">
@@ -9886,13 +9999,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="169" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C6" s="170">
         <v>4</v>
       </c>
       <c r="D6" s="149" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" ht="15.6" customHeight="1" spans="1:3">
@@ -9900,10 +10013,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="169" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C7" s="170" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9911,13 +10024,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="169" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C8" s="167">
         <v>2</v>
       </c>
       <c r="D8" s="149" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9925,13 +10038,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="169" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C9" s="170" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D9" s="149" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -9939,7 +10052,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="169" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C10" s="170">
         <v>1</v>
@@ -9950,10 +10063,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="169" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -9961,13 +10074,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="169" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C12" s="170" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D12" s="149" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -9975,7 +10088,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="149" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C13" s="167">
         <v>2</v>
@@ -9986,13 +10099,13 @@
         <v>2</v>
       </c>
       <c r="B14" s="149" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="167" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D14" s="149" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -10000,7 +10113,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="149" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C15" s="167">
         <v>2</v>
@@ -10011,7 +10124,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="149" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C16" s="167">
         <v>2</v>
@@ -10022,13 +10135,13 @@
         <v>2</v>
       </c>
       <c r="B17" s="169" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C17" s="170">
         <v>10</v>
       </c>
       <c r="D17" s="149" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -10036,10 +10149,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="169" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C18" s="170" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -10047,10 +10160,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="169" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C19" s="170" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -10058,10 +10171,10 @@
         <v>2</v>
       </c>
       <c r="B20" s="169" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C20" s="170" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -10069,10 +10182,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="169" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C21" s="170" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -10080,10 +10193,10 @@
         <v>2</v>
       </c>
       <c r="B22" s="169" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C22" s="170" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -10091,10 +10204,10 @@
         <v>3</v>
       </c>
       <c r="B23" s="169" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C23" s="170" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -10102,10 +10215,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="169" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -10113,10 +10226,10 @@
         <v>3</v>
       </c>
       <c r="B25" s="169" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C25" s="170" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -10124,7 +10237,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="169" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C26" s="170">
         <v>15</v>
@@ -10135,10 +10248,10 @@
         <v>3</v>
       </c>
       <c r="B27" s="169" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C27" s="167" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -10146,10 +10259,10 @@
         <v>3</v>
       </c>
       <c r="B28" s="169" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C28" s="170" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -10157,10 +10270,10 @@
         <v>3</v>
       </c>
       <c r="B29" s="169" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C29" s="170" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -10168,10 +10281,10 @@
         <v>3</v>
       </c>
       <c r="B30" s="169" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C30" s="170" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -10179,7 +10292,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="169" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C31" s="170">
         <v>2</v>
@@ -10190,10 +10303,10 @@
         <v>4</v>
       </c>
       <c r="B32" s="169" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C32" s="170" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -10201,10 +10314,10 @@
         <v>4</v>
       </c>
       <c r="B33" s="169" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C33" s="167" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -10212,10 +10325,10 @@
         <v>4</v>
       </c>
       <c r="B34" s="169" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C34" s="170" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -10223,10 +10336,10 @@
         <v>4</v>
       </c>
       <c r="B35" s="169" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C35" s="170" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -10234,10 +10347,10 @@
         <v>4</v>
       </c>
       <c r="B36" s="169" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C36" s="170" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -10245,10 +10358,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="169" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C37" s="170" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -10256,7 +10369,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="169" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C38" s="170">
         <v>8</v>
@@ -10267,88 +10380,88 @@
         <v>4</v>
       </c>
       <c r="B39" s="169" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C39" s="170" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="25"/>
       <c r="B40" s="169" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C40" s="170" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="25"/>
       <c r="B41" s="169" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C41" s="170" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="25"/>
       <c r="B42" s="169" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C42" s="170" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" s="149" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C43" s="167" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="25"/>
       <c r="B45" s="169" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C45" s="170" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D45" s="149" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="25"/>
       <c r="B46" s="169" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C46" s="170" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="B48" s="149" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C48" s="167" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D48" s="149" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="149" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C49" s="167">
         <v>4</v>
       </c>
       <c r="D49" s="149" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -10356,11 +10469,11 @@
         <v>4</v>
       </c>
       <c r="B50" s="169" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C50" s="25"/>
       <c r="D50" s="149" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -10397,18 +10510,18 @@
     <row r="1" spans="1:11">
       <c r="A1" s="155"/>
       <c r="B1" s="156" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C1" s="157"/>
       <c r="D1" s="158"/>
       <c r="E1" s="159" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F1" s="159"/>
       <c r="G1" s="159"/>
       <c r="H1" s="159"/>
       <c r="I1" s="159" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J1" s="159"/>
       <c r="K1" s="159"/>
@@ -10416,34 +10529,34 @@
     <row r="2" spans="1:11">
       <c r="A2" s="155"/>
       <c r="B2" s="160" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="160" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="160" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="160" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="160" t="s">
+      <c r="F2" s="160" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="160" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2" s="160" t="s">
         <v>187</v>
       </c>
-      <c r="E2" s="160" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="160" t="s">
-        <v>188</v>
-      </c>
-      <c r="G2" s="160" t="s">
-        <v>189</v>
-      </c>
-      <c r="H2" s="160" t="s">
-        <v>186</v>
-      </c>
       <c r="I2" s="160" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J2" s="160" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K2" s="160" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -10458,7 +10571,7 @@
       <c r="G3" s="155"/>
       <c r="H3" s="155"/>
       <c r="I3" s="163" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J3" s="159"/>
       <c r="K3" s="159"/>
@@ -10468,34 +10581,34 @@
         <v>41760</v>
       </c>
       <c r="B4" s="155" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C4" s="155" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D4" s="154" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" s="154" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="155" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" s="155" t="s">
+        <v>199</v>
+      </c>
+      <c r="H4" s="155" t="s">
         <v>195</v>
       </c>
-      <c r="E4" s="154" t="s">
-        <v>196</v>
-      </c>
-      <c r="F4" s="155" t="s">
-        <v>197</v>
-      </c>
-      <c r="G4" s="155" t="s">
-        <v>198</v>
-      </c>
-      <c r="H4" s="155" t="s">
-        <v>194</v>
-      </c>
       <c r="I4" s="155" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J4" s="155" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K4" s="155" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -10503,34 +10616,34 @@
         <v>41761</v>
       </c>
       <c r="B5" s="155" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C5" s="155" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D5" s="155" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E5" s="155" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F5" s="155" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G5" s="155" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H5" s="155" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I5" s="155" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J5" s="155" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K5" s="155" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -10538,34 +10651,34 @@
         <v>41762</v>
       </c>
       <c r="B6" s="155" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C6" s="155" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D6" s="155" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E6" s="155" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F6" s="155" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G6" s="155" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H6" s="155" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I6" s="155" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J6" s="155" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K6" s="155" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -10573,16 +10686,16 @@
         <v>41763</v>
       </c>
       <c r="B7" s="155" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C7" s="155" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D7" s="155" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E7" s="160" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F7" s="155"/>
       <c r="G7" s="155"/>
@@ -10629,13 +10742,13 @@
       <c r="G10" s="155"/>
       <c r="H10" s="155"/>
       <c r="I10" s="155" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J10" s="154" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K10" s="155" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -10643,32 +10756,32 @@
         <v>41767</v>
       </c>
       <c r="B11" s="155" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C11" s="155" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D11" s="154" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E11" s="154" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F11" s="155" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G11" s="155" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H11" s="155" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I11" s="155" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J11" s="155"/>
       <c r="K11" s="155" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -10676,31 +10789,31 @@
         <v>41768</v>
       </c>
       <c r="B12" s="155" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C12" s="155" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D12" s="155" t="s">
+        <v>196</v>
+      </c>
+      <c r="E12" s="155" t="s">
+        <v>217</v>
+      </c>
+      <c r="F12" s="155" t="s">
+        <v>205</v>
+      </c>
+      <c r="G12" s="155" t="s">
+        <v>206</v>
+      </c>
+      <c r="H12" s="155" t="s">
         <v>195</v>
       </c>
-      <c r="E12" s="155" t="s">
-        <v>216</v>
-      </c>
-      <c r="F12" s="155" t="s">
-        <v>204</v>
-      </c>
-      <c r="G12" s="155" t="s">
-        <v>205</v>
-      </c>
-      <c r="H12" s="155" t="s">
-        <v>194</v>
-      </c>
       <c r="I12" s="155" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K12" s="155" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -10708,16 +10821,16 @@
         <v>41769</v>
       </c>
       <c r="B13" s="155" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C13" s="155" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D13" s="155" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E13" s="163" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F13" s="159"/>
       <c r="G13" s="159"/>
@@ -10731,21 +10844,21 @@
     </row>
     <row r="15" spans="3:7">
       <c r="C15" s="154" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E15" s="154" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F15" s="154" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G15" s="154" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="154" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C16" s="154">
         <v>5</v>
@@ -10758,12 +10871,12 @@
         <v>12.5</v>
       </c>
       <c r="G16" s="154" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="154" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C17" s="154">
         <v>3</v>
@@ -10776,12 +10889,12 @@
         <v>7.5</v>
       </c>
       <c r="G17" s="165" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="154" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C18" s="154">
         <v>4</v>
@@ -10794,12 +10907,12 @@
         <v>12</v>
       </c>
       <c r="G18" s="154" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="154" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C19" s="154">
         <v>1</v>
@@ -10808,7 +10921,7 @@
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="154" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C20" s="154">
         <v>1</v>
@@ -10817,7 +10930,7 @@
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="154" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C21" s="154">
         <v>2</v>
@@ -10830,12 +10943,12 @@
         <v>5</v>
       </c>
       <c r="G21" s="154" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="154" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C22" s="154">
         <v>7</v>
@@ -10848,12 +10961,12 @@
         <v>35</v>
       </c>
       <c r="G22" s="154" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="154" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C23" s="154">
         <v>5</v>
@@ -10866,12 +10979,12 @@
         <v>15</v>
       </c>
       <c r="G23" s="154" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="154" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C24" s="154">
         <v>5</v>
@@ -10880,7 +10993,7 @@
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="154" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C25" s="154">
         <v>3</v>
@@ -10889,7 +11002,7 @@
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="154" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C26" s="154">
         <v>5</v>
@@ -10898,7 +11011,7 @@
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="154" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C27" s="154">
         <v>1</v>
@@ -10911,12 +11024,12 @@
         <v>1.5</v>
       </c>
       <c r="G27" s="154" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="154" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C28" s="154">
         <v>1</v>
@@ -10925,7 +11038,7 @@
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="154" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C29" s="154">
         <v>1</v>
@@ -10934,7 +11047,7 @@
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="154" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C30" s="154">
         <v>12</v>
@@ -10943,7 +11056,7 @@
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="154" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C31" s="154">
         <v>12</v>
@@ -10952,7 +11065,7 @@
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="154" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C32" s="154">
         <v>8</v>
@@ -10965,12 +11078,12 @@
         <v>16</v>
       </c>
       <c r="G32" s="154" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="154" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C33" s="154">
         <v>5</v>
@@ -10983,12 +11096,12 @@
         <v>5</v>
       </c>
       <c r="G33" s="154" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="154" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C34" s="154">
         <v>5</v>
@@ -11001,12 +11114,12 @@
         <v>15</v>
       </c>
       <c r="G34" s="154" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="154" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C35" s="154">
         <v>23</v>
@@ -11019,12 +11132,12 @@
         <v>3.45</v>
       </c>
       <c r="G35" s="154" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="154" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C36" s="154">
         <v>1</v>
@@ -11037,12 +11150,12 @@
         <v>2</v>
       </c>
       <c r="G36" s="154" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="154" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C37" s="154">
         <v>4</v>
@@ -11055,12 +11168,12 @@
         <v>4</v>
       </c>
       <c r="G37" s="154" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="154" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C38" s="154">
         <v>18</v>
@@ -11073,12 +11186,12 @@
         <v>10.8</v>
       </c>
       <c r="G38" s="154" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="154" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C39" s="154">
         <v>3</v>
@@ -11091,18 +11204,18 @@
         <v>15</v>
       </c>
       <c r="G39" s="154" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="154" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C40" s="154">
         <v>5</v>
       </c>
       <c r="D40" s="154" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E40" s="164">
         <v>0.5</v>
@@ -11112,12 +11225,12 @@
         <v>2.5</v>
       </c>
       <c r="G40" s="154" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="154" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C41" s="154">
         <v>3</v>
@@ -11126,13 +11239,13 @@
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="154" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C42" s="154">
         <v>5</v>
       </c>
       <c r="D42" s="154" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E42" s="164">
         <v>0.2</v>
@@ -11141,12 +11254,12 @@
         <v>3</v>
       </c>
       <c r="G42" s="154" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="154" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C43" s="154">
         <v>3</v>
@@ -11159,12 +11272,12 @@
         <v>4.5</v>
       </c>
       <c r="G43" s="154" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="154" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C44" s="154">
         <v>3</v>
@@ -11177,12 +11290,12 @@
         <v>3</v>
       </c>
       <c r="G44" s="154" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="154" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C45" s="154">
         <v>3</v>
@@ -11195,12 +11308,12 @@
         <v>6</v>
       </c>
       <c r="G45" s="154" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="154" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F46" s="154">
         <f t="shared" si="3"/>
@@ -11209,7 +11322,7 @@
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="154" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F47" s="154">
         <f t="shared" si="3"/>
@@ -11218,12 +11331,12 @@
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="154" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="154" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C49" s="154">
         <v>20</v>
@@ -11231,91 +11344,91 @@
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="154" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C50" s="154">
         <v>4</v>
       </c>
       <c r="D50" s="154" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="154" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="154" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" s="154" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C53" s="154" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="154" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="154" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="154" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="154" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="154" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="154" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="154" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="154" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="154" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="154" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="154" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="154" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -11352,16 +11465,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="151" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B1" s="152" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C1" s="152" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D1" s="152" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -11371,7 +11484,7 @@
       <c r="B2" s="153"/>
       <c r="C2" s="153"/>
       <c r="D2" s="152" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" ht="43.2" spans="1:4">
@@ -11379,13 +11492,13 @@
         <v>2.05</v>
       </c>
       <c r="B3" s="152" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C3" s="152" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D3" s="152" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="1:4">
@@ -11393,13 +11506,13 @@
         <v>3.05</v>
       </c>
       <c r="B4" s="152" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C4" s="152" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D4" s="152" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:4">
@@ -11407,13 +11520,13 @@
         <v>4.05</v>
       </c>
       <c r="B5" s="152" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C5" s="152" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D5" s="152" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:4">
@@ -11421,7 +11534,7 @@
         <v>5.05</v>
       </c>
       <c r="B6" s="152" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C6" s="153"/>
       <c r="D6" s="153"/>
@@ -11433,7 +11546,7 @@
       <c r="B7" s="153"/>
       <c r="C7" s="153"/>
       <c r="D7" s="152" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" ht="28.8" spans="1:4">
@@ -11441,13 +11554,13 @@
         <v>9.05</v>
       </c>
       <c r="B8" s="152" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C8" s="152" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D8" s="152" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" ht="43.2" spans="1:4">
@@ -11455,13 +11568,13 @@
         <v>10.05</v>
       </c>
       <c r="B9" s="152" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C9" s="152" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D9" s="152" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:4">
@@ -11469,13 +11582,13 @@
         <v>11.05</v>
       </c>
       <c r="B10" s="152" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C10" s="152" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D10" s="152" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -11483,10 +11596,10 @@
         <v>12.05</v>
       </c>
       <c r="B11" s="152" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C11" s="152" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D11" s="153"/>
     </row>
@@ -11530,12 +11643,12 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" s="35" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C2" s="137">
         <v>44680</v>
@@ -11547,58 +11660,58 @@
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C3" s="137" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D3" s="138"/>
     </row>
     <row r="4" spans="2:16">
       <c r="B4" s="35" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H4" s="139" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J4" s="145" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M4" s="35" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N4" s="35" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O4" s="146" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" ht="15.15" spans="1:16">
@@ -11606,13 +11719,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E5" s="6">
         <v>13</v>
@@ -11631,19 +11744,19 @@
         <v>89118124048</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O5" s="5">
         <v>4018281460</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" ht="15.15" spans="1:16">
@@ -11651,19 +11764,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E6" s="31">
         <v>10</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G6" s="141"/>
       <c r="H6" s="20">
@@ -11676,10 +11789,10 @@
         <v>89650953153</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N6" s="8">
         <v>89052006465</v>
@@ -11696,13 +11809,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E7" s="6">
         <v>22</v>
@@ -11721,16 +11834,16 @@
         <v>89818295984</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N7" s="10">
         <v>89213414725</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P7" s="9">
         <v>39857</v>
@@ -11741,13 +11854,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E8" s="6">
         <v>16</v>
@@ -11766,10 +11879,10 @@
         <v>89215575265</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L8" s="25" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N8" s="5">
         <v>89213205528</v>
@@ -11786,13 +11899,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E9" s="6">
         <v>4</v>
@@ -11811,16 +11924,16 @@
         <v>89291040939</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L9" s="25" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N9" s="5">
         <v>89052622652</v>
       </c>
       <c r="O9" s="44" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P9" s="12">
         <v>39849</v>
@@ -11831,13 +11944,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E10" s="6">
         <v>1</v>
@@ -11855,10 +11968,10 @@
         <v>89818346175</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L10" s="25" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N10" s="5">
         <v>89117966505</v>
@@ -11875,13 +11988,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E11" s="6">
         <v>5</v>
@@ -11900,10 +12013,10 @@
         <v>89213354865</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L11" s="25" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N11" s="6">
         <v>89522270284</v>
@@ -11920,13 +12033,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E12" s="15">
         <v>11</v>
@@ -11945,10 +12058,10 @@
         <v>89214136722</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L12" s="25" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N12" s="15">
         <v>89533722040</v>
@@ -11965,13 +12078,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E13" s="6">
         <v>6</v>
@@ -11981,7 +12094,7 @@
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I13" s="6">
         <v>5</v>
@@ -11990,16 +12103,16 @@
         <v>89219845986</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L13" s="25" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N13" s="5">
         <v>89213323160</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P13" s="12">
         <v>40363</v>
@@ -12010,13 +12123,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E14" s="6">
         <v>12</v>
@@ -12035,10 +12148,10 @@
         <v>89111652301</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L14" s="25" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N14" s="5">
         <v>89817910834</v>
@@ -12055,13 +12168,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E15" s="6">
         <v>9</v>
@@ -12080,16 +12193,16 @@
         <v>89313127300</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L15" s="25" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N15" s="5">
         <v>89213409406</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P15" s="11">
         <v>40070</v>
@@ -12100,13 +12213,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E16" s="6">
         <v>8</v>
@@ -12125,10 +12238,10 @@
         <v>89610752525</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L16" s="25" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N16" s="5">
         <v>89610717771</v>
@@ -12145,13 +12258,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E17" s="6">
         <v>2</v>
@@ -12170,10 +12283,10 @@
         <v>89818723635</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L17" s="25" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N17" s="20">
         <v>89818417041</v>
@@ -12190,13 +12303,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E18" s="6">
         <v>14</v>
@@ -12215,16 +12328,16 @@
         <v>89633411161</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L18" s="25" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N18" s="5">
         <v>89657737525</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P18" s="11">
         <v>40195</v>
@@ -12235,13 +12348,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E19" s="6">
         <v>7</v>
@@ -12251,7 +12364,7 @@
       </c>
       <c r="G19" s="25"/>
       <c r="H19" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I19" s="6">
         <v>7</v>
@@ -12260,16 +12373,16 @@
         <v>89817032760</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L19" s="25" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N19" s="5">
         <v>89111407222</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P19" s="12">
         <v>39529</v>
@@ -12280,13 +12393,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E20" s="25">
         <v>17</v>
@@ -12300,10 +12413,10 @@
         <v>89213026506</v>
       </c>
       <c r="K20" s="24" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L20" s="25" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N20" s="23">
         <v>89213026506</v>
@@ -12320,13 +12433,13 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E21" s="6">
         <v>20</v>
@@ -12344,16 +12457,16 @@
         <v>89819793731</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L21" s="25" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N21" s="5">
         <v>89118110171</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P21" s="12">
         <v>39987</v>
@@ -12364,13 +12477,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E22" s="6">
         <v>18</v>
@@ -12388,10 +12501,10 @@
         <v>89312711134</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L22" s="25" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N22" s="5">
         <v>89218717677</v>
@@ -12405,13 +12518,13 @@
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="29" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C25" s="142" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F25" s="142">
         <v>89217427984</v>
@@ -12419,13 +12532,13 @@
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="C26" s="142" t="s">
+        <v>418</v>
+      </c>
+      <c r="E26" s="36" t="s">
         <v>416</v>
-      </c>
-      <c r="C26" s="142" t="s">
-        <v>417</v>
-      </c>
-      <c r="E26" s="36" t="s">
-        <v>415</v>
       </c>
       <c r="F26" s="142">
         <v>89679796720</v>
@@ -12433,7 +12546,7 @@
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="29" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C28" s="137">
         <v>44669</v>
@@ -12441,7 +12554,7 @@
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="29" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C29" s="142">
         <v>2022</v>
@@ -12449,24 +12562,24 @@
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="29" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C30" s="143"/>
     </row>
     <row r="32" ht="13.95" spans="2:2">
       <c r="B32" s="144" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="33" ht="15.15" spans="2:16">
       <c r="B33" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H33" s="6">
         <v>58</v>
@@ -12478,12 +12591,12 @@
         <v>89112625350</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L33" s="147"/>
       <c r="N33" s="3"/>
       <c r="O33" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P33" s="12">
         <v>39462</v>
@@ -12491,13 +12604,13 @@
     </row>
     <row r="34" ht="15.75" spans="2:24">
       <c r="B34" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H34" s="6">
         <v>49</v>
@@ -12509,13 +12622,13 @@
         <v>89259175393</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L34" s="147"/>
       <c r="M34" s="148"/>
       <c r="N34" s="3"/>
       <c r="O34" s="46" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P34" s="11">
         <v>39581</v>
@@ -12526,16 +12639,16 @@
     </row>
     <row r="35" ht="15.15" spans="2:16">
       <c r="B35" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I35" s="6">
         <v>6</v>
@@ -12544,12 +12657,12 @@
         <v>89218718088</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L35" s="147"/>
       <c r="N35" s="8"/>
       <c r="O35" s="47" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P35" s="12">
         <v>39916</v>
@@ -12557,13 +12670,13 @@
     </row>
     <row r="36" ht="15.15" spans="2:16">
       <c r="B36" s="20" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H36" s="15">
         <v>30</v>
@@ -12575,7 +12688,7 @@
         <v>89313625109</v>
       </c>
       <c r="K36" s="18" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L36" s="147"/>
       <c r="N36" s="8"/>
@@ -12586,13 +12699,13 @@
     </row>
     <row r="37" ht="15.15" spans="2:16">
       <c r="B37" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H37" s="6">
         <v>555</v>
@@ -12604,12 +12717,12 @@
         <v>89200043637</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L37" s="147"/>
       <c r="N37" s="8"/>
       <c r="O37" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P37" s="12">
         <v>39810</v>
@@ -12719,7 +12832,7 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" spans="1:13">
       <c r="A1" s="92" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B1" s="92"/>
       <c r="C1" s="92"/>
@@ -12729,7 +12842,7 @@
       <c r="G1" s="92"/>
       <c r="H1" s="92"/>
       <c r="I1" s="92" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="J1" s="92"/>
       <c r="K1" s="92"/>
@@ -12738,43 +12851,43 @@
     </row>
     <row r="2" ht="51.95" customHeight="1" spans="1:13">
       <c r="A2" s="93" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B2" s="53" t="s">
+        <v>448</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>449</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>450</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>309</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>451</v>
+      </c>
+      <c r="G2" s="94" t="s">
+        <v>452</v>
+      </c>
+      <c r="H2" s="95" t="s">
+        <v>453</v>
+      </c>
+      <c r="I2" s="93" t="s">
         <v>447</v>
       </c>
-      <c r="C2" s="53" t="s">
-        <v>448</v>
-      </c>
-      <c r="D2" s="53" t="s">
-        <v>449</v>
-      </c>
-      <c r="E2" s="53" t="s">
-        <v>308</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>450</v>
-      </c>
-      <c r="G2" s="94" t="s">
-        <v>451</v>
-      </c>
-      <c r="H2" s="95" t="s">
-        <v>452</v>
-      </c>
-      <c r="I2" s="93" t="s">
-        <v>446</v>
-      </c>
       <c r="J2" s="53" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K2" s="125" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L2" s="53" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M2" s="126" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" s="82" customFormat="1" ht="15.6" spans="1:14">
@@ -12802,25 +12915,25 @@
         <v>Шуваловский пр. д. 90 к. кв.180</v>
       </c>
       <c r="G3" s="99" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H3" s="100" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="I3" s="101">
         <v>1</v>
       </c>
       <c r="J3" s="127" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K3" s="128" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L3" s="129">
         <v>117</v>
       </c>
       <c r="M3" s="129" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N3" s="130"/>
     </row>
@@ -12849,21 +12962,21 @@
         <v>СПб, Пестеля д. 13-15 кв. 108</v>
       </c>
       <c r="G4" s="99" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H4" s="102"/>
       <c r="I4" s="96">
         <v>2</v>
       </c>
       <c r="J4" s="127" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K4" s="128" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L4" s="129"/>
       <c r="M4" s="129" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N4" s="130"/>
     </row>
@@ -12892,23 +13005,23 @@
         <v>Г. Санкт-Петербург, проспект Ветеранов д.3 к.3 лит.А кв.167</v>
       </c>
       <c r="G5" s="99" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H5" s="102"/>
       <c r="I5" s="101">
         <v>3</v>
       </c>
       <c r="J5" s="131" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K5" s="128" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L5" s="129">
         <v>117</v>
       </c>
       <c r="M5" s="129" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N5" s="130"/>
     </row>
@@ -12937,7 +13050,7 @@
         <v>ул. Ставропольская д. 12/15 кв. 46</v>
       </c>
       <c r="G6" s="99" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H6" s="102"/>
       <c r="I6" s="101"/>
@@ -12972,7 +13085,7 @@
         <v>Ул. Лахтинская 20-36</v>
       </c>
       <c r="G7" s="99" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H7" s="102"/>
       <c r="I7" s="96"/>
@@ -13007,7 +13120,7 @@
         <v>Каменноостровский 69-29</v>
       </c>
       <c r="G8" s="99" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H8" s="102"/>
       <c r="N8" s="132"/>
@@ -13037,7 +13150,7 @@
         <v>ул. Малая Карпатская д.17 кв 275</v>
       </c>
       <c r="G9" s="99" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H9" s="102"/>
       <c r="I9" s="101"/>
@@ -13071,7 +13184,7 @@
         <v>Каменноостровский 69-29</v>
       </c>
       <c r="G10" s="99" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H10" s="102"/>
       <c r="I10" s="101"/>
@@ -13105,7 +13218,7 @@
         <v>пр.Тореза, д.80, кв.78</v>
       </c>
       <c r="G11" s="99" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H11" s="102"/>
       <c r="I11" s="101"/>
@@ -13139,7 +13252,7 @@
         <v>пр. Маршала Жукова, д.45, кв 222</v>
       </c>
       <c r="G12" s="99" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H12" s="102"/>
       <c r="I12" s="101"/>
@@ -13173,7 +13286,7 @@
         <v>Парголово ул.Шишкина 58</v>
       </c>
       <c r="G13" s="99" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H13" s="102"/>
       <c r="I13" s="101"/>
@@ -13207,7 +13320,7 @@
         <v>Ул.Бутлерова, 11 к.4 , кв 385</v>
       </c>
       <c r="G14" s="99" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H14" s="102"/>
       <c r="I14" s="101"/>
@@ -13241,7 +13354,7 @@
         <v>Кораблестроителей 39-871</v>
       </c>
       <c r="G15" s="99" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H15" s="102"/>
       <c r="I15" s="101"/>
@@ -13275,7 +13388,7 @@
         <v>Камышовая 14 КВ 163</v>
       </c>
       <c r="G16" s="99" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H16" s="102"/>
       <c r="I16" s="101"/>
@@ -13309,7 +13422,7 @@
         <v>п. Парголово, Приозерское шоссе (Осиновая роща),  д.16 к.4 кв.46</v>
       </c>
       <c r="G17" s="99" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H17" s="102"/>
       <c r="I17" s="101"/>
@@ -13343,7 +13456,7 @@
         <v>Ленинский пр. 117-1-603</v>
       </c>
       <c r="G18" s="99" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H18" s="102"/>
       <c r="I18" s="101"/>
@@ -13377,7 +13490,7 @@
         <v>Проспект Сизова 14 кв.90</v>
       </c>
       <c r="G19" s="99" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H19" s="102"/>
       <c r="I19" s="101"/>
@@ -13411,7 +13524,7 @@
         <v>Проспект Авиаконструкторов, дом 47, квартира 4</v>
       </c>
       <c r="G20" s="99" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H20" s="102"/>
       <c r="I20" s="101"/>
@@ -13423,7 +13536,7 @@
     <row r="21" s="82" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A21" s="96"/>
       <c r="B21" s="104" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C21" s="105"/>
       <c r="D21" s="105"/>
@@ -13460,7 +13573,7 @@
         <v>алл. Котельникова, д. 6, к. 1, кв. 300</v>
       </c>
       <c r="G22" s="99" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H22" s="102"/>
       <c r="I22" s="101"/>
@@ -13492,7 +13605,7 @@
         <v>ул. Б. Разночинная 4-14</v>
       </c>
       <c r="G23" s="99" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H23" s="102"/>
       <c r="I23" s="101"/>
@@ -13524,7 +13637,7 @@
         <v>г.СПб, Железноводская 62, 98</v>
       </c>
       <c r="G24" s="99" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H24" s="102"/>
       <c r="I24" s="101"/>
@@ -13556,7 +13669,7 @@
         <v>Наличная 37-1-4</v>
       </c>
       <c r="G25" s="99" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H25" s="102"/>
       <c r="I25" s="101"/>
@@ -13588,7 +13701,7 @@
         <v>пр.Комендантский д.23 к.1 кв 112</v>
       </c>
       <c r="G26" s="99" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H26" s="102"/>
       <c r="I26" s="101"/>
@@ -13615,7 +13728,7 @@
       </c>
       <c r="C28" s="98"/>
       <c r="D28" s="112" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E28" s="113"/>
       <c r="F28" s="114"/>
@@ -13635,14 +13748,14 @@
       </c>
       <c r="C29" s="98"/>
       <c r="D29" s="115" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E29" s="116"/>
       <c r="F29" s="114"/>
       <c r="G29" s="99"/>
       <c r="H29" s="102"/>
       <c r="I29" s="133" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J29" s="134"/>
       <c r="K29" s="134"/>
@@ -13651,7 +13764,7 @@
     </row>
     <row r="30" ht="15.6" spans="1:13">
       <c r="A30" s="117" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B30" s="118"/>
       <c r="C30" s="118"/>
@@ -13668,7 +13781,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1" spans="1:13">
       <c r="A31" s="120" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B31" s="121"/>
       <c r="C31" s="50">
@@ -13688,10 +13801,10 @@
     </row>
     <row r="32" ht="15.75" customHeight="1" spans="1:13">
       <c r="A32" s="50" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H32" s="124" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I32" s="124"/>
       <c r="J32" s="124"/>
@@ -13701,7 +13814,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1" spans="8:8">
       <c r="H33" s="50" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="34" ht="23.25" customHeight="1"/>
@@ -13757,10 +13870,10 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1" spans="1:14">
       <c r="A1" s="60" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1" s="61" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="I1" s="61"/>
       <c r="J1" s="61"/>
@@ -13771,7 +13884,7 @@
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:14">
       <c r="A2" s="62" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -13780,7 +13893,7 @@
       <c r="F2" s="63"/>
       <c r="G2" s="64"/>
       <c r="H2" s="61" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="I2" s="61"/>
       <c r="J2" s="61"/>
@@ -13807,7 +13920,7 @@
       <c r="F4" s="63"/>
       <c r="G4" s="64"/>
       <c r="H4" s="65" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="I4" s="65"/>
       <c r="J4" s="65"/>
@@ -13832,7 +13945,7 @@
       <c r="E6" s="63"/>
       <c r="F6" s="63"/>
       <c r="H6" s="61" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="I6" s="61"/>
       <c r="J6" s="61"/>
@@ -13843,25 +13956,25 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="66" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="I7" s="84" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:8">
       <c r="A8" s="67" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B8" s="68" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C8" s="69"/>
       <c r="D8" s="69"/>
       <c r="E8" s="69"/>
       <c r="F8" s="70"/>
       <c r="H8" s="71" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" ht="15.6" spans="1:10">
@@ -13872,28 +13985,28 @@
       <c r="E9" s="73"/>
       <c r="F9" s="74"/>
       <c r="H9" s="61" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="I9" s="50">
         <v>18</v>
       </c>
       <c r="J9" s="81" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10" ht="45" customHeight="1" spans="1:14">
       <c r="A10" s="75" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B10" s="76" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C10" s="76"/>
       <c r="D10" s="76"/>
       <c r="E10" s="76"/>
       <c r="F10" s="76"/>
       <c r="H10" s="64" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J10" s="85" t="str">
         <f>'Информация для бумаг'!C3</f>
@@ -13912,14 +14025,14 @@
       <c r="E11" s="76"/>
       <c r="F11" s="76"/>
       <c r="H11" s="55" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="I11" s="87">
         <f>DAYS360('Информация для бумаг'!C2,'Информация для бумаг'!D2)-1</f>
         <v>4</v>
       </c>
       <c r="J11" s="50" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" ht="15.6" spans="1:12">
@@ -13927,14 +14040,14 @@
         <v>44320</v>
       </c>
       <c r="B12" s="78" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C12" s="78"/>
       <c r="D12" s="78"/>
       <c r="E12" s="78"/>
       <c r="F12" s="78"/>
       <c r="H12" s="79" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="I12" s="79"/>
       <c r="J12" s="88">
@@ -13942,7 +14055,7 @@
         <v>44680</v>
       </c>
       <c r="K12" s="89" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L12" s="90">
         <f>'Информация для бумаг'!D2</f>
@@ -13965,7 +14078,7 @@
       <c r="E14" s="80"/>
       <c r="F14" s="80"/>
       <c r="H14" s="81" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K14" s="89" t="str">
         <f>'Информация для бумаг'!C25</f>
@@ -13983,7 +14096,7 @@
       <c r="E15" s="80"/>
       <c r="F15" s="80"/>
       <c r="K15" s="55" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L15" s="50">
         <f>'Информация для бумаг'!F25</f>
@@ -13998,7 +14111,7 @@
       <c r="E16" s="76"/>
       <c r="F16" s="76"/>
       <c r="H16" s="82" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -14009,7 +14122,7 @@
       <c r="E17" s="76"/>
       <c r="F17" s="76"/>
       <c r="H17" s="83" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -14028,7 +14141,7 @@
       <c r="E19" s="76"/>
       <c r="F19" s="76"/>
       <c r="H19" s="81" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K19" s="89" t="str">
         <f>'Информация для бумаг'!C26</f>
@@ -14040,7 +14153,7 @@
     </row>
     <row r="20" spans="11:12">
       <c r="K20" s="55" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L20" s="50">
         <f>'Информация для бумаг'!F26</f>
@@ -14049,7 +14162,7 @@
     </row>
     <row r="22" ht="12.75" customHeight="1" spans="8:14">
       <c r="H22" s="61" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="I22" s="61"/>
       <c r="J22" s="61"/>
@@ -14060,7 +14173,7 @@
     </row>
     <row r="23" ht="12.75" customHeight="1" spans="8:14">
       <c r="H23" s="61" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I23" s="61"/>
       <c r="J23" s="61"/>
@@ -14071,7 +14184,7 @@
     </row>
     <row r="25" ht="15.6" spans="8:13">
       <c r="H25" s="81" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M25" s="91">
         <f>'Информация для бумаг'!C28</f>
@@ -14080,56 +14193,56 @@
     </row>
     <row r="26" ht="15.6" spans="1:9">
       <c r="A26" s="81" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H26" s="81"/>
       <c r="I26" s="81" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="28" ht="15.6" spans="8:8">
       <c r="H28" s="81" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="29" ht="15.6" spans="8:12">
       <c r="H29" s="81" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K29" s="50">
         <f>'Информация для бумаг'!C29</f>
         <v>2022</v>
       </c>
       <c r="L29" s="50" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="30" ht="15.6" spans="1:8">
       <c r="A30" s="81" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H30" s="81"/>
     </row>
     <row r="31" ht="15.6" spans="8:8">
       <c r="H31" s="81" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="32" ht="15.6" spans="8:12">
       <c r="H32" s="81" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K32" s="50">
         <f>'Информация для бумаг'!C29</f>
         <v>2022</v>
       </c>
       <c r="L32" s="50" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="33" ht="15.6" spans="8:8">
       <c r="H33" s="83" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -14187,39 +14300,39 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" s="50" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="50" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="56"/>
       <c r="B4" s="56" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F4" s="56" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G4" s="57" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H4" s="52" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I4" s="52" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -14905,7 +15018,7 @@
         <v>Хайтов Вадим Михайлович</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -14914,7 +15027,7 @@
         <v>Котельникова Валентина Сергеевна</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -14944,21 +15057,21 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="51" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" ht="82.5" customHeight="1" spans="1:4">
       <c r="A2" s="52" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -14971,7 +15084,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D3" s="54">
         <f>'Информация для бумаг'!F5</f>
@@ -14988,7 +15101,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D4" s="54" t="str">
         <f>'Информация для бумаг'!F6</f>
@@ -15005,7 +15118,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D5" s="54">
         <f>'Информация для бумаг'!F7</f>
@@ -15022,7 +15135,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D6" s="54">
         <f>'Информация для бумаг'!F8</f>
@@ -15039,7 +15152,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D7" s="54">
         <f>'Информация для бумаг'!F9</f>
@@ -15056,7 +15169,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D8" s="54">
         <f>'Информация для бумаг'!F10</f>
@@ -15073,7 +15186,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D9" s="54">
         <f>'Информация для бумаг'!F11</f>
@@ -15090,7 +15203,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D10" s="54">
         <f>'Информация для бумаг'!F12</f>
@@ -15107,7 +15220,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D11" s="54">
         <f>'Информация для бумаг'!F13</f>
@@ -15124,7 +15237,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="54" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D12" s="54">
         <f>'Информация для бумаг'!F14</f>
@@ -15141,7 +15254,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D13" s="54">
         <f>'Информация для бумаг'!F15</f>
@@ -15158,7 +15271,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D14" s="54">
         <f>'Информация для бумаг'!F16</f>
@@ -15175,7 +15288,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D15" s="54">
         <f>'Информация для бумаг'!F17</f>
@@ -15192,7 +15305,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D16" s="54">
         <f>'Информация для бумаг'!F18</f>
@@ -15209,7 +15322,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D17" s="54">
         <f>'Информация для бумаг'!F19</f>
@@ -15226,7 +15339,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D18" s="54">
         <f>'Информация для бумаг'!F20</f>
@@ -15243,7 +15356,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D19" s="54">
         <f>'Информация для бумаг'!F21</f>
@@ -15260,7 +15373,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="54" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D20" s="54">
         <f>'Информация для бумаг'!F22</f>

--- a/Jashera 2022/Jashera 2022.xlsx
+++ b/Jashera 2022/Jashera 2022.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" tabRatio="804"/>
+    <workbookView windowWidth="22368" windowHeight="9264" tabRatio="804" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Список оборудования" sheetId="12" r:id="rId1"/>
@@ -17,21 +17,22 @@
     <sheet name="Cписок для приказа" sheetId="4" r:id="rId8"/>
     <sheet name="Ведомость документов" sheetId="5" r:id="rId9"/>
     <sheet name="Участники" sheetId="10" r:id="rId10"/>
-    <sheet name="Дежурство и форпост" sheetId="18" r:id="rId11"/>
-    <sheet name="Список для страховки" sheetId="8" r:id="rId12"/>
-    <sheet name="МЧС" sheetId="9" r:id="rId13"/>
-    <sheet name="Ограничения" sheetId="17" r:id="rId14"/>
-    <sheet name="Темы занятий" sheetId="19" r:id="rId15"/>
+    <sheet name="Траты" sheetId="20" r:id="rId11"/>
+    <sheet name="Дежурство и форпост" sheetId="18" r:id="rId12"/>
+    <sheet name="Список для страховки" sheetId="8" r:id="rId13"/>
+    <sheet name="МЧС" sheetId="9" r:id="rId14"/>
+    <sheet name="Ограничения" sheetId="17" r:id="rId15"/>
+    <sheet name="Темы занятий" sheetId="19" r:id="rId16"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
     <externalReference r:id="rId18"/>
     <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Участники!$A$1:$Z$25</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Список для страховки'!$A$1:$F$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Список для страховки'!$A$1:$F$25</definedName>
     <definedName name="_ftn1" localSheetId="6">'Маршлист внешняя сторона'!$H$29</definedName>
     <definedName name="_ftnref1" localSheetId="6">'Маршлист внешняя сторона'!$H$26</definedName>
     <definedName name="class" localSheetId="7">[1]Справочник!$H$2:$H$14</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="715">
   <si>
     <t>ОБОРУДОВАНИЕ</t>
   </si>
@@ -2079,6 +2080,21 @@
     <t>Врожденная косолапость крайне тяжелой степени (прооперирован до ремиссии), привычный вывих надколенников. Не рекомендованы физ нагрузки с переносом тяжелых грузов.</t>
   </si>
   <si>
+    <t>Продукты</t>
+  </si>
+  <si>
+    <t>продукты</t>
+  </si>
+  <si>
+    <t>хоз</t>
+  </si>
+  <si>
+    <t>Билеты</t>
+  </si>
+  <si>
+    <t>Аптека</t>
+  </si>
+  <si>
     <t>Понедельник</t>
   </si>
   <si>
@@ -2218,6 +2234,9 @@
   </si>
   <si>
     <t>Двукрылые</t>
+  </si>
+  <si>
+    <t>Маша</t>
   </si>
   <si>
     <t>Ракообразные</t>
@@ -2262,10 +2281,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
     <numFmt numFmtId="176" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy\ h:mm"/>
+    <numFmt numFmtId="177" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="dd\.mm\.yyyy\ h:mm"/>
+    <numFmt numFmtId="180" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="181" formatCode="dd\.mm\.yyyy"/>
     <numFmt numFmtId="182" formatCode="dd\.mm\.yyyy;@"/>
     <numFmt numFmtId="183" formatCode="dd\.mmm"/>
@@ -2478,6 +2497,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -2487,23 +2521,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2517,9 +2543,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2549,14 +2590,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -2571,18 +2604,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2591,13 +2617,6 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2647,37 +2666,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2695,7 +2702,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2707,7 +2774,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2719,109 +2840,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3003,6 +3022,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -3027,6 +3070,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3038,24 +3090,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3078,23 +3112,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3103,152 +3122,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="30" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="27" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="20" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -3264,7 +3283,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4091,8 +4110,8 @@
   <sheetPr/>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85185185185185" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -4175,7 +4194,9 @@
       <c r="B6" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="175"/>
+      <c r="C6" s="175">
+        <v>1</v>
+      </c>
       <c r="E6" s="173" t="s">
         <v>11</v>
       </c>
@@ -4373,7 +4394,9 @@
       <c r="B25" s="174" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="175"/>
+      <c r="C25" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="174" t="s">
@@ -4423,13 +4446,17 @@
       <c r="B32" s="174" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="175"/>
+      <c r="C32" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="174" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="175"/>
+      <c r="C33" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="174" t="s">
@@ -4455,7 +4482,9 @@
       <c r="B37" s="174" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="175"/>
+      <c r="C37" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="174" t="s">
@@ -4469,7 +4498,9 @@
       <c r="B39" s="174" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="175"/>
+      <c r="C39" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="174" t="s">
@@ -4519,7 +4550,9 @@
       <c r="B46" s="174" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="175"/>
+      <c r="C46" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="174" t="s">
@@ -4531,7 +4564,9 @@
       <c r="B48" s="174" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="175"/>
+      <c r="C48" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="177" t="s">
@@ -4559,7 +4594,9 @@
       <c r="B52" s="174" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="175"/>
+      <c r="C52" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" s="180" t="s">
@@ -4719,13 +4756,17 @@
       <c r="B73" s="174" t="s">
         <v>85</v>
       </c>
-      <c r="C73" s="175"/>
+      <c r="C73" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" spans="2:3">
       <c r="B74" s="174" t="s">
         <v>86</v>
       </c>
-      <c r="C74" s="175"/>
+      <c r="C74" s="175">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="2:3">
       <c r="B75" s="174" t="s">
@@ -4815,12 +4856,12 @@
   <sheetPr/>
   <dimension ref="A1:AG29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2:M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
@@ -5444,7 +5485,9 @@
       </c>
       <c r="K8" s="37"/>
       <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
+      <c r="M8" s="10">
+        <v>6000</v>
+      </c>
       <c r="N8" s="6">
         <v>225</v>
       </c>
@@ -5587,6 +5630,9 @@
         <v>16</v>
       </c>
       <c r="K10" s="37"/>
+      <c r="M10" s="25">
+        <v>6000</v>
+      </c>
       <c r="N10" s="24">
         <v>56</v>
       </c>
@@ -5817,6 +5863,9 @@
       <c r="L13" s="6" t="s">
         <v>568</v>
       </c>
+      <c r="M13" s="25">
+        <v>4000</v>
+      </c>
       <c r="N13" s="6">
         <v>49</v>
       </c>
@@ -5880,7 +5929,9 @@
       <c r="L14" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="M14" s="10"/>
+      <c r="M14" s="10">
+        <v>5700</v>
+      </c>
       <c r="N14" s="6" t="s">
         <v>434</v>
       </c>
@@ -6174,6 +6225,9 @@
         <v>9</v>
       </c>
       <c r="K18" s="37"/>
+      <c r="M18" s="25">
+        <v>6000</v>
+      </c>
       <c r="N18" s="20">
         <v>586</v>
       </c>
@@ -6237,7 +6291,9 @@
       <c r="L19" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="M19" s="10"/>
+      <c r="M19" s="10">
+        <v>5700</v>
+      </c>
       <c r="N19" s="6">
         <v>555</v>
       </c>
@@ -6313,7 +6369,9 @@
       <c r="J20" s="39"/>
       <c r="K20" s="37"/>
       <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
+      <c r="M20" s="10">
+        <v>6000</v>
+      </c>
       <c r="N20" s="5">
         <v>64</v>
       </c>
@@ -6449,7 +6507,7 @@
       <c r="AF21" s="10"/>
       <c r="AG21" s="10"/>
     </row>
-    <row r="22" ht="15.15" spans="2:33">
+    <row r="22" spans="2:33">
       <c r="B22" s="24" t="s">
         <v>400</v>
       </c>
@@ -6475,7 +6533,9 @@
       <c r="J22" s="41"/>
       <c r="K22" s="37"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
+      <c r="M22" s="10">
+        <v>6000</v>
+      </c>
       <c r="N22" s="24"/>
       <c r="O22" s="24"/>
       <c r="P22" s="23" t="s">
@@ -6634,6 +6694,9 @@
         <v>10</v>
       </c>
       <c r="K24" s="37"/>
+      <c r="M24" s="25">
+        <v>6000</v>
+      </c>
       <c r="N24" s="5">
         <v>246</v>
       </c>
@@ -6695,6 +6758,9 @@
       <c r="K25" s="37"/>
       <c r="L25" s="6" t="s">
         <v>595</v>
+      </c>
+      <c r="M25" s="25">
+        <v>6000</v>
       </c>
       <c r="N25" s="6">
         <v>12</v>
@@ -6807,10 +6873,147 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A2:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B2">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>650</v>
+      </c>
+      <c r="B3">
+        <v>33220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>651</v>
+      </c>
+      <c r="B4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>651</v>
+      </c>
+      <c r="B5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>651</v>
+      </c>
+      <c r="B6">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>651</v>
+      </c>
+      <c r="B7">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>652</v>
+      </c>
+      <c r="B8">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>651</v>
+      </c>
+      <c r="B9">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>651</v>
+      </c>
+      <c r="B10">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>651</v>
+      </c>
+      <c r="B11">
+        <v>4934</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>651</v>
+      </c>
+      <c r="B12">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>651</v>
+      </c>
+      <c r="B13">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>653</v>
+      </c>
+      <c r="B14">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>653</v>
+      </c>
+      <c r="B15">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>654</v>
+      </c>
+      <c r="B16">
+        <v>700</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -6824,19 +7027,19 @@
   <sheetData>
     <row r="1" spans="3:7">
       <c r="C1" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="D1" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="E1" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="F1" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="G1" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6850,7 +7053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3" s="31" t="s">
         <v>324</v>
       </c>
@@ -6861,9 +7064,6 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
         <v>1</v>
       </c>
     </row>
@@ -6956,7 +7156,7 @@
         <v>357</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -7154,7 +7354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F124"/>
@@ -7185,13 +7385,13 @@
         <v>304</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7672,19 +7872,19 @@
     </row>
     <row r="27" s="29" customFormat="1" ht="13.2" spans="1:4">
       <c r="A27" s="35" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="D27" s="36"/>
     </row>
     <row r="28" s="29" customFormat="1" ht="13.2" spans="1:4">
       <c r="A28" s="29" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="D28" s="36"/>
     </row>
@@ -8463,7 +8663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E145"/>
@@ -8483,7 +8683,7 @@
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>514</v>
@@ -8501,7 +8701,7 @@
     <row r="2" ht="15.15" spans="1:5">
       <c r="A2" s="4"/>
       <c r="B2" s="3" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>323</v>
@@ -8516,7 +8716,7 @@
     <row r="3" ht="15.15" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="C3" s="7">
         <v>39367</v>
@@ -8531,7 +8731,7 @@
     <row r="4" ht="15.15" spans="1:5">
       <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="C4" s="9">
         <v>39857</v>
@@ -8546,7 +8746,7 @@
     <row r="5" ht="15.15" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="C5" s="11">
         <v>38553</v>
@@ -8561,7 +8761,7 @@
     <row r="6" ht="15.15" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="3" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="C6" s="12">
         <v>39849</v>
@@ -8576,7 +8776,7 @@
     <row r="7" ht="15.15" spans="1:5">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="C7" s="12">
         <v>39462</v>
@@ -8591,7 +8791,7 @@
     <row r="8" ht="15.15" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="3" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="C8" s="11">
         <v>38137</v>
@@ -8606,7 +8806,7 @@
     <row r="9" ht="15.15" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="C9" s="11">
         <v>39166</v>
@@ -8621,7 +8821,7 @@
     <row r="10" ht="15.15" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="C10" s="13">
         <v>38917</v>
@@ -8636,7 +8836,7 @@
     <row r="11" ht="15.15" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="C11" s="12">
         <v>40363</v>
@@ -8651,7 +8851,7 @@
     <row r="12" ht="15.15" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="C12" s="11">
         <v>38434</v>
@@ -8666,7 +8866,7 @@
     <row r="13" ht="15.15" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="C13" s="11">
         <v>39581</v>
@@ -8681,7 +8881,7 @@
     <row r="14" ht="15.15" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="C14" s="12">
         <v>39916</v>
@@ -8696,7 +8896,7 @@
     <row r="15" ht="15.15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="C15" s="16">
         <v>38933</v>
@@ -8711,7 +8911,7 @@
     <row r="16" ht="15.15" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="C16" s="11">
         <v>40070</v>
@@ -8726,7 +8926,7 @@
     <row r="17" ht="15.15" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="C17" s="11">
         <v>39331</v>
@@ -8741,7 +8941,7 @@
     <row r="18" ht="15.15" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="C18" s="19">
         <v>38982</v>
@@ -8756,7 +8956,7 @@
     <row r="19" ht="15.15" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="C19" s="12">
         <v>39810</v>
@@ -8771,7 +8971,7 @@
     <row r="20" ht="15.15" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="3" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="C20" s="11">
         <v>40195</v>
@@ -8786,7 +8986,7 @@
     <row r="21" ht="15.15" spans="1:5">
       <c r="A21" s="21"/>
       <c r="B21" s="3" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="C21" s="12">
         <v>39529</v>
@@ -8801,7 +9001,7 @@
     <row r="22" ht="15.15" spans="1:5">
       <c r="A22" s="21"/>
       <c r="B22" s="3" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="C22" s="22">
         <v>38989</v>
@@ -8816,7 +9016,7 @@
     <row r="23" ht="15.15" spans="1:5">
       <c r="A23" s="21"/>
       <c r="B23" s="3" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="C23" s="12">
         <v>39987</v>
@@ -8831,7 +9031,7 @@
     <row r="24" ht="15.15" spans="1:5">
       <c r="A24" s="21"/>
       <c r="B24" s="3" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="C24" s="11">
         <v>38070</v>
@@ -8846,7 +9046,7 @@
     <row r="25" ht="15.15" spans="1:5">
       <c r="A25" s="21"/>
       <c r="B25" s="3" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="C25" s="11">
         <v>39606</v>
@@ -8861,7 +9061,7 @@
     <row r="26" ht="15.15" spans="1:5">
       <c r="A26" s="21"/>
       <c r="B26" s="3" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="C26" s="11">
         <v>39485</v>
@@ -8870,7 +9070,7 @@
         <v>9312244315</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
     </row>
     <row r="27" ht="15.15" spans="1:5">
@@ -8883,7 +9083,7 @@
     <row r="28" ht="15.15" spans="1:5">
       <c r="A28" s="21"/>
       <c r="B28" s="3" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="8"/>
@@ -8892,7 +9092,7 @@
     <row r="29" ht="15.15" spans="1:5">
       <c r="A29" s="21"/>
       <c r="B29" s="3" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
@@ -8901,7 +9101,7 @@
     <row r="30" ht="15.15" spans="1:5">
       <c r="A30" s="21"/>
       <c r="B30" s="3" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
@@ -8910,7 +9110,7 @@
     <row r="31" ht="15.15" spans="1:5">
       <c r="A31" s="21"/>
       <c r="B31" s="3" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="3"/>
@@ -8919,7 +9119,7 @@
     <row r="32" ht="15.15" spans="1:5">
       <c r="A32" s="21"/>
       <c r="B32" s="3" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="3"/>
@@ -9725,7 +9925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C6"/>
@@ -9787,13 +9987,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
     </row>
     <row r="6" ht="52.8" spans="1:3">
@@ -9813,13 +10013,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -9830,28 +10030,31 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="B2" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>696</v>
+        <v>701</v>
+      </c>
+      <c r="B3" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="B4" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="B5" t="s">
         <v>318</v>
@@ -9859,7 +10062,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="B6" t="s">
         <v>410</v>
@@ -9867,7 +10070,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="B7" t="s">
         <v>424</v>
@@ -9875,34 +10078,34 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="B8" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="B9" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="B10" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="B11" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
     </row>
   </sheetData>

--- a/Jashera 2022/Jashera 2022.xlsx
+++ b/Jashera 2022/Jashera 2022.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" tabRatio="804" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9270" tabRatio="804" firstSheet="8" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Список оборудования" sheetId="12" r:id="rId1"/>
@@ -23,18 +23,19 @@
     <sheet name="МЧС" sheetId="9" r:id="rId14"/>
     <sheet name="Ограничения" sheetId="17" r:id="rId15"/>
     <sheet name="Темы занятий" sheetId="19" r:id="rId16"/>
+    <sheet name="Лист1" sheetId="21" r:id="rId17"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId17"/>
     <externalReference r:id="rId18"/>
     <externalReference r:id="rId19"/>
     <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Участники!$A$1:$Z$25</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Список для страховки'!$A$1:$F$25</definedName>
     <definedName name="_ftn1" localSheetId="6">'Маршлист внешняя сторона'!$H$29</definedName>
     <definedName name="_ftnref1" localSheetId="6">'Маршлист внешняя сторона'!$H$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Список для страховки'!$A$1:$F$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Участники!$A$1:$Z$25</definedName>
     <definedName name="class" localSheetId="7">[1]Справочник!$H$2:$H$14</definedName>
     <definedName name="class" localSheetId="2">[2]Справочник!$H$2:$H$14</definedName>
     <definedName name="class">[3]Справочник!$H$2:$H$14</definedName>
@@ -1480,6 +1481,7 @@
         <i/>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
         <charset val="204"/>
       </rPr>
       <t>Все участники застрахованы от несчастного случая и  умеют плавать</t>
@@ -1488,6 +1490,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
         <charset val="204"/>
       </rPr>
       <t>.</t>
@@ -1525,6 +1528,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
         <charset val="204"/>
       </rPr>
       <t>ТМ</t>
@@ -1534,6 +1538,7 @@
         <i/>
         <sz val="14"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
         <charset val="204"/>
       </rPr>
       <t>__экспедиция__________</t>
@@ -1634,6 +1639,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Штамп МКК </t>
@@ -1642,6 +1648,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">  </t>
@@ -2019,7 +2026,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Бывает аллергия на пыль или на пыльцу. В таком случае принимаются таблетки от аллергии.(зодак) Никаких проблем со здоровьем больше нет, физических ограничений тоже. </t>
     </r>
@@ -2028,7 +2036,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2279,20 +2288,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="11">
-    <numFmt numFmtId="176" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="dd\.mm\.yyyy\ h:mm"/>
-    <numFmt numFmtId="180" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="182" formatCode="dd\.mm\.yyyy;@"/>
-    <numFmt numFmtId="183" formatCode="dd\.mmm"/>
-    <numFmt numFmtId="184" formatCode="[$-419]d\ mm\ yyyy;@"/>
-    <numFmt numFmtId="185" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
-    <numFmt numFmtId="186" formatCode="0.0"/>
+  <numFmts count="7">
+    <numFmt numFmtId="167" formatCode="dd\.mm\.yyyy\ h:mm"/>
+    <numFmt numFmtId="169" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="170" formatCode="dd\.mm\.yyyy;@"/>
+    <numFmt numFmtId="171" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="172" formatCode="[$-419]d\ mm\ yyyy;@"/>
+    <numFmt numFmtId="173" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
+    <numFmt numFmtId="174" formatCode="0.0"/>
   </numFmts>
-  <fonts count="52">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2304,17 +2309,20 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
@@ -2322,34 +2330,40 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
@@ -2357,56 +2371,66 @@
       <u/>
       <sz val="10"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="7"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="7"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
@@ -2414,23 +2438,27 @@
       <u/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
@@ -2438,6 +2466,7 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
@@ -2484,156 +2513,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="14"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2664,188 +2558,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="23">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -3019,262 +2733,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="56">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="30" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3283,28 +2758,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -3313,7 +2788,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -3322,7 +2797,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3331,7 +2806,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3343,7 +2818,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3361,7 +2836,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3386,7 +2861,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
@@ -3403,7 +2878,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3419,57 +2894,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3478,22 +2911,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3506,31 +2930,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3541,24 +2950,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3566,22 +2963,13 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3590,16 +2978,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3608,27 +2996,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="25" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3648,11 +3027,41 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="25" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3665,98 +3074,127 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="183" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="183" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="186" fontId="25" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="36" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="36" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="56">
+  <cellStyles count="9">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
-    <cellStyle name="Обычный_СПИСОК ОБОРУДОВАНИЯ_1" xfId="2"/>
-    <cellStyle name="Денежный [0]" xfId="3" builtinId="7"/>
-    <cellStyle name="40% — Акцент5" xfId="4" builtinId="47"/>
-    <cellStyle name="Хороший" xfId="5" builtinId="26"/>
-    <cellStyle name="Запятая [0]" xfId="6" builtinId="6"/>
-    <cellStyle name="Денежный" xfId="7" builtinId="4"/>
-    <cellStyle name="Запятая" xfId="8" builtinId="3"/>
-    <cellStyle name="Обычный_общий список" xfId="9"/>
-    <cellStyle name="40% — Акцент6" xfId="10" builtinId="51"/>
-    <cellStyle name="Процент" xfId="11" builtinId="5"/>
-    <cellStyle name="20% — Акцент2" xfId="12" builtinId="34"/>
-    <cellStyle name="Итого" xfId="13" builtinId="25"/>
-    <cellStyle name="Вывод" xfId="14" builtinId="21"/>
-    <cellStyle name="Гиперссылка" xfId="15" builtinId="8"/>
-    <cellStyle name="40% — Акцент4" xfId="16" builtinId="43"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="17" builtinId="9"/>
-    <cellStyle name="Примечание" xfId="18" builtinId="10"/>
-    <cellStyle name="Предупреждающий текст" xfId="19" builtinId="11"/>
-    <cellStyle name="Заголовок" xfId="20" builtinId="15"/>
-    <cellStyle name="Пояснительный текст" xfId="21" builtinId="53"/>
-    <cellStyle name="Заголовок 1" xfId="22" builtinId="16"/>
-    <cellStyle name="Заголовок 2" xfId="23" builtinId="17"/>
-    <cellStyle name="Заголовок 3" xfId="24" builtinId="18"/>
-    <cellStyle name="Обычный_МАРШ.ЛИСТ ПЕРВАЯ ЯЩЕРА" xfId="25"/>
-    <cellStyle name="Заголовок 4" xfId="26" builtinId="19"/>
-    <cellStyle name="Ввод" xfId="27" builtinId="20"/>
-    <cellStyle name="Проверить ячейку" xfId="28" builtinId="23"/>
-    <cellStyle name="Вычисление" xfId="29" builtinId="22"/>
-    <cellStyle name="Связанная ячейка" xfId="30" builtinId="24"/>
-    <cellStyle name="Плохой" xfId="31" builtinId="27"/>
-    <cellStyle name="Акцент5" xfId="32" builtinId="45"/>
-    <cellStyle name="Нейтральный" xfId="33" builtinId="28"/>
-    <cellStyle name="Акцент1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% — Акцент1" xfId="35" builtinId="30"/>
-    <cellStyle name="Обычный_СПИСОК ОБОРУДОВАНИЯ" xfId="36"/>
-    <cellStyle name="40% — Акцент1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% — Акцент5" xfId="38" builtinId="46"/>
-    <cellStyle name="60% — Акцент1" xfId="39" builtinId="32"/>
-    <cellStyle name="Акцент2" xfId="40" builtinId="33"/>
-    <cellStyle name="40% — Акцент2" xfId="41" builtinId="35"/>
-    <cellStyle name="20% — Акцент6" xfId="42" builtinId="50"/>
-    <cellStyle name="60% — Акцент2" xfId="43" builtinId="36"/>
-    <cellStyle name="Акцент3" xfId="44" builtinId="37"/>
-    <cellStyle name="40% — Акцент3" xfId="45" builtinId="39"/>
-    <cellStyle name="60% — Акцент3" xfId="46" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="47" builtinId="41"/>
-    <cellStyle name="20% — Акцент4" xfId="48" builtinId="42"/>
-    <cellStyle name="60% — Акцент4" xfId="49" builtinId="44"/>
-    <cellStyle name="60% — Акцент5" xfId="50" builtinId="48"/>
-    <cellStyle name="Акцент6" xfId="51" builtinId="49"/>
-    <cellStyle name="60% — Акцент6" xfId="52" builtinId="52"/>
-    <cellStyle name="Обычный_Jaschera_07" xfId="53"/>
-    <cellStyle name="Обычный_Jashera 2018" xfId="54"/>
-    <cellStyle name="Обычный_Внутренняя таблица марш. листа" xfId="55"/>
+    <cellStyle name="Обычный_Jaschera_07" xfId="6"/>
+    <cellStyle name="Обычный_Jashera 2018" xfId="7"/>
+    <cellStyle name="Обычный_Внутренняя таблица марш. листа" xfId="8"/>
+    <cellStyle name="Обычный_МАРШ.ЛИСТ ПЕРВАЯ ЯЩЕРА" xfId="3"/>
+    <cellStyle name="Обычный_общий список" xfId="2"/>
+    <cellStyle name="Обычный_СПИСОК ОБОРУДОВАНИЯ" xfId="5"/>
+    <cellStyle name="Обычный_СПИСОК ОБОРУДОВАНИЯ_1" xfId="1"/>
+    <cellStyle name="Плохой" xfId="4" builtinId="27"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4102,795 +3540,793 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.85185185185185" defaultRowHeight="13.2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.13888888888889" style="171" customWidth="1"/>
-    <col min="2" max="2" width="29" style="171" customWidth="1"/>
-    <col min="3" max="3" width="14.712962962963" style="171" customWidth="1"/>
-    <col min="4" max="4" width="10.4259259259259" style="171" customWidth="1"/>
-    <col min="5" max="5" width="17.8518518518519" style="171" customWidth="1"/>
-    <col min="6" max="6" width="7.85185185185185" style="171" customWidth="1"/>
-    <col min="7" max="16384" width="7.85185185185185" style="171"/>
+    <col min="1" max="1" width="4.140625" style="134" customWidth="1"/>
+    <col min="2" max="2" width="29" style="134" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="134" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="134" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="134" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="134" customWidth="1"/>
+    <col min="7" max="16384" width="7.85546875" style="134"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="172"/>
-      <c r="B1" s="173" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="135"/>
+      <c r="B1" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="173" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="172"/>
-      <c r="B2" s="174" t="s">
+      <c r="D1" s="136" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="135"/>
+      <c r="B2" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="175"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="176" t="s">
+      <c r="C2" s="138"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="139" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="174" t="s">
+    <row r="3" spans="1:6">
+      <c r="B3" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="175">
-        <v>1</v>
-      </c>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173" t="s">
+      <c r="C3" s="138">
+        <v>1</v>
+      </c>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="171">
+      <c r="F3" s="134">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="177" t="s">
+    <row r="4" spans="1:6">
+      <c r="B4" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="175">
-        <v>1</v>
-      </c>
-      <c r="D4" s="173"/>
-      <c r="E4" s="173" t="s">
+      <c r="C4" s="138">
+        <v>1</v>
+      </c>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="171">
+      <c r="F4" s="134">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="174" t="s">
+    <row r="5" spans="1:6">
+      <c r="B5" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="175">
-        <v>1</v>
-      </c>
-      <c r="D5" s="173"/>
-      <c r="E5" s="173" t="s">
+      <c r="C5" s="138">
+        <v>1</v>
+      </c>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="171">
+      <c r="F5" s="134">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="174" t="s">
+    <row r="6" spans="1:6">
+      <c r="B6" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="175">
-        <v>1</v>
-      </c>
-      <c r="E6" s="173" t="s">
+      <c r="C6" s="138">
+        <v>1</v>
+      </c>
+      <c r="E6" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="171">
+      <c r="F6" s="134">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="174" t="s">
+    <row r="7" spans="1:6">
+      <c r="B7" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="175">
-        <v>1</v>
-      </c>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173" t="s">
+      <c r="C7" s="138">
+        <v>1</v>
+      </c>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="174" t="s">
+      <c r="F7" s="134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="175">
-        <v>1</v>
-      </c>
-      <c r="D8" s="173"/>
-      <c r="E8" s="171" t="s">
+      <c r="C8" s="138">
+        <v>1</v>
+      </c>
+      <c r="D8" s="136"/>
+      <c r="E8" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="171">
+      <c r="F8" s="134">
         <v>4</v>
       </c>
     </row>
-    <row r="9" ht="13.9" customHeight="1" spans="2:6">
-      <c r="B9" s="174" t="s">
+    <row r="9" spans="1:6" ht="13.9" customHeight="1">
+      <c r="B9" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="175">
-        <v>1</v>
-      </c>
-      <c r="D9" s="173"/>
-      <c r="E9" s="171" t="s">
+      <c r="C9" s="138">
+        <v>1</v>
+      </c>
+      <c r="D9" s="136"/>
+      <c r="E9" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="171">
+      <c r="F9" s="134">
         <v>4</v>
       </c>
     </row>
-    <row r="10" ht="13.9" customHeight="1" spans="2:6">
-      <c r="B10" s="177" t="s">
+    <row r="10" spans="1:6" ht="13.9" customHeight="1">
+      <c r="B10" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="175">
-        <v>1</v>
-      </c>
-      <c r="E10" s="171" t="s">
+      <c r="C10" s="138">
+        <v>1</v>
+      </c>
+      <c r="E10" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="171">
+      <c r="F10" s="134">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="174" t="s">
+    <row r="11" spans="1:6">
+      <c r="B11" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="175">
-        <v>1</v>
-      </c>
-      <c r="D11" s="173"/>
-      <c r="E11" s="171" t="s">
+      <c r="C11" s="138">
+        <v>1</v>
+      </c>
+      <c r="D11" s="136"/>
+      <c r="E11" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="171" t="s">
+      <c r="F11" s="134" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="174" t="s">
+    <row r="12" spans="1:6">
+      <c r="B12" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="175">
-        <v>1</v>
-      </c>
-      <c r="E12" s="178" t="s">
+      <c r="C12" s="138">
+        <v>1</v>
+      </c>
+      <c r="E12" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="171">
+      <c r="F12" s="134">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="174" t="s">
+    <row r="13" spans="1:6">
+      <c r="B13" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="174" t="s">
+      <c r="C13" s="138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="174" t="s">
+      <c r="C14" s="138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="175"/>
-      <c r="E15" s="173"/>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="174" t="s">
+      <c r="C15" s="138"/>
+      <c r="E15" s="136"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="174" t="s">
+      <c r="C16" s="138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="174" t="s">
+      <c r="C17" s="138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="174" t="s">
+      <c r="C18" s="138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="175">
+      <c r="C19" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="179"/>
-      <c r="B20" s="174" t="s">
+      <c r="A20" s="142"/>
+      <c r="B20" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="175">
+      <c r="C20" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="179"/>
-      <c r="B21" s="174" t="s">
+      <c r="A21" s="142"/>
+      <c r="B21" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="175">
+      <c r="C21" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="179"/>
-      <c r="B22" s="174" t="s">
+      <c r="A22" s="142"/>
+      <c r="B22" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="174" t="s">
+      <c r="C22" s="138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="174" t="s">
+      <c r="C23" s="138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="174" t="s">
+      <c r="C24" s="138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="174" t="s">
+      <c r="C25" s="138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="174" t="s">
+      <c r="C26" s="138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="174" t="s">
+      <c r="C27" s="138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="174" t="s">
+      <c r="C28" s="138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="175"/>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="175" t="s">
+      <c r="C29" s="138"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="175"/>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="174" t="s">
+      <c r="C30" s="138"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="B31" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="174" t="s">
+      <c r="C31" s="138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="B32" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="175">
+      <c r="C32" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="174" t="s">
+      <c r="B33" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="175">
+      <c r="C33" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="174" t="s">
+      <c r="B34" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="175"/>
+      <c r="C34" s="138"/>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="174" t="s">
+      <c r="B35" s="137" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="175">
+      <c r="C35" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="177" t="s">
+      <c r="B36" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="175"/>
+      <c r="C36" s="138"/>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="174" t="s">
+      <c r="B37" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="175">
+      <c r="C37" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="174" t="s">
+      <c r="B38" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="175">
+      <c r="C38" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="174" t="s">
+      <c r="B39" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="175">
+      <c r="C39" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="174" t="s">
+      <c r="B40" s="137" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="175"/>
+      <c r="C40" s="138"/>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="174" t="s">
+      <c r="B41" s="137" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="175">
+      <c r="C41" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="174" t="s">
+      <c r="B42" s="137" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="175">
+      <c r="C42" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="174" t="s">
+      <c r="B43" s="137" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="175"/>
+      <c r="C43" s="138"/>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="174" t="s">
+      <c r="B44" s="137" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="175">
+      <c r="C44" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="174" t="s">
+      <c r="B45" s="137" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="175">
+      <c r="C45" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="174" t="s">
+      <c r="B46" s="137" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="175">
+      <c r="C46" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="174" t="s">
+      <c r="B47" s="137" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="175"/>
+      <c r="C47" s="138"/>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="174" t="s">
+      <c r="B48" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="175">
+      <c r="C48" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="177" t="s">
+      <c r="B49" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="175">
+      <c r="C49" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="174" t="s">
+      <c r="B50" s="137" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="175">
+      <c r="C50" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="174" t="s">
+      <c r="B51" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="175"/>
+      <c r="C51" s="138"/>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="174" t="s">
+      <c r="B52" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="175">
+      <c r="C52" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="2:3">
-      <c r="B53" s="180" t="s">
+      <c r="B53" s="143" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="175">
+      <c r="C53" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="174" t="s">
+      <c r="B54" s="137" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="175"/>
+      <c r="C54" s="138"/>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="174" t="s">
+      <c r="B55" s="137" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="175"/>
+      <c r="C55" s="138"/>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="174" t="s">
+      <c r="B56" s="137" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="175">
+      <c r="C56" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="174" t="s">
+      <c r="B57" s="137" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="175">
+      <c r="C57" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="2:3">
-      <c r="B58" s="174" t="s">
+      <c r="B58" s="137" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="175">
+      <c r="C58" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="175" t="s">
+      <c r="B59" s="138" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="175">
+      <c r="C59" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="174" t="s">
+      <c r="B60" s="137" t="s">
         <v>72</v>
       </c>
-      <c r="C60" s="175"/>
+      <c r="C60" s="138"/>
     </row>
     <row r="61" spans="2:3">
-      <c r="B61" s="174" t="s">
+      <c r="B61" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="C61" s="175">
+      <c r="C61" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="2:3">
-      <c r="B62" s="174" t="s">
+      <c r="B62" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="C62" s="175">
+      <c r="C62" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="2:3">
-      <c r="B63" s="174" t="s">
+      <c r="B63" s="137" t="s">
         <v>75</v>
       </c>
-      <c r="C63" s="175">
+      <c r="C63" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="2:3">
-      <c r="B64" s="174" t="s">
+      <c r="B64" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="C64" s="175">
+      <c r="C64" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="174" t="s">
+      <c r="B65" s="137" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="175">
+      <c r="C65" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="174" t="s">
+      <c r="B66" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="175">
+      <c r="C66" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="175" t="s">
+      <c r="B67" s="138" t="s">
         <v>79</v>
       </c>
-      <c r="C67" s="175">
+      <c r="C67" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="174" t="s">
+      <c r="B68" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="C68" s="175">
+      <c r="C68" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="174" t="s">
+      <c r="B69" s="137" t="s">
         <v>81</v>
       </c>
-      <c r="C69" s="175">
+      <c r="C69" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="2:3">
-      <c r="B70" s="174" t="s">
+      <c r="B70" s="137" t="s">
         <v>82</v>
       </c>
-      <c r="C70" s="175">
+      <c r="C70" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="2:3">
-      <c r="B71" s="174" t="s">
+      <c r="B71" s="137" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="175">
+      <c r="C71" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="2:3">
-      <c r="B72" s="174" t="s">
+      <c r="B72" s="137" t="s">
         <v>84</v>
       </c>
-      <c r="C72" s="175">
+      <c r="C72" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="2:3">
-      <c r="B73" s="174" t="s">
+      <c r="B73" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="C73" s="175">
+      <c r="C73" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="2:3">
-      <c r="B74" s="174" t="s">
+      <c r="B74" s="137" t="s">
         <v>86</v>
       </c>
-      <c r="C74" s="175">
+      <c r="C74" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="2:3">
-      <c r="B75" s="174" t="s">
+      <c r="B75" s="137" t="s">
         <v>87</v>
       </c>
-      <c r="C75" s="175">
+      <c r="C75" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="2:3">
-      <c r="B76" s="174" t="s">
+      <c r="B76" s="137" t="s">
         <v>88</v>
       </c>
-      <c r="C76" s="175">
+      <c r="C76" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="2:3">
-      <c r="B77" s="177" t="s">
+      <c r="B77" s="140" t="s">
         <v>89</v>
       </c>
-      <c r="C77" s="175"/>
+      <c r="C77" s="138"/>
     </row>
     <row r="78" spans="2:3">
-      <c r="B78" s="175" t="s">
+      <c r="B78" s="138" t="s">
         <v>90</v>
       </c>
-      <c r="C78" s="175"/>
+      <c r="C78" s="138"/>
     </row>
     <row r="79" spans="2:3">
-      <c r="B79" s="171" t="s">
+      <c r="B79" s="134" t="s">
         <v>91</v>
       </c>
-      <c r="C79" s="171">
+      <c r="C79" s="134">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="176" t="s">
+      <c r="B82" s="139" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="171" t="s">
+      <c r="B83" s="134" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="171" t="s">
+      <c r="B84" s="134" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="171" t="s">
+      <c r="B85" s="134" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="171" t="s">
+      <c r="B86" s="134" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="171" t="s">
+      <c r="B87" s="134" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="171" t="s">
+      <c r="B88" s="134" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="171" t="s">
+      <c r="B89" s="134" t="s">
         <v>98</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2:M25"/>
+      <selection pane="bottomRight" activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.85185185185185" style="25"/>
-    <col min="2" max="2" width="19.1388888888889" style="25" customWidth="1"/>
-    <col min="3" max="3" width="14.4259259259259" style="25" customWidth="1"/>
-    <col min="4" max="6" width="19.5740740740741" style="25" customWidth="1"/>
-    <col min="7" max="7" width="8.71296296296296" style="25" customWidth="1"/>
-    <col min="8" max="9" width="9.71296296296296" style="25" customWidth="1"/>
-    <col min="10" max="10" width="27.4259259259259" style="25" customWidth="1"/>
-    <col min="11" max="11" width="9.71296296296296" style="25" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="25"/>
+    <col min="2" max="2" width="19.140625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="25" customWidth="1"/>
+    <col min="4" max="6" width="19.5703125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="25" customWidth="1"/>
+    <col min="8" max="9" width="9.7109375" style="25" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" style="25" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="25" customWidth="1"/>
     <col min="12" max="12" width="36" style="25" customWidth="1"/>
-    <col min="13" max="13" width="20.5740740740741" style="25" customWidth="1"/>
-    <col min="14" max="14" width="10.1388888888889" style="25" customWidth="1"/>
-    <col min="15" max="15" width="8.85185185185185" style="25"/>
-    <col min="16" max="16" width="29.712962962963" style="25" customWidth="1"/>
-    <col min="17" max="17" width="37.1388888888889" style="25" customWidth="1"/>
-    <col min="18" max="18" width="16.8518518518519" style="25" customWidth="1"/>
-    <col min="19" max="19" width="11.1388888888889" style="25" customWidth="1"/>
-    <col min="20" max="20" width="11.7777777777778" style="25"/>
-    <col min="21" max="21" width="10.8518518518519" style="25"/>
-    <col min="22" max="24" width="8.85185185185185" style="25"/>
-    <col min="25" max="25" width="26.6574074074074" style="25" customWidth="1"/>
-    <col min="26" max="26" width="8.85185185185185" style="25"/>
-    <col min="27" max="27" width="27.287037037037" style="25" customWidth="1"/>
-    <col min="28" max="30" width="8.85185185185185" style="25"/>
-    <col min="31" max="31" width="12.8518518518519" style="25"/>
-    <col min="32" max="16384" width="8.85185185185185" style="25"/>
+    <col min="13" max="13" width="20.5703125" style="25" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="25" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" style="25"/>
+    <col min="16" max="16" width="29.7109375" style="25" customWidth="1"/>
+    <col min="17" max="17" width="37.140625" style="25" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" style="25" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" style="25" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="25"/>
+    <col min="21" max="21" width="10.85546875" style="25"/>
+    <col min="22" max="24" width="8.85546875" style="25"/>
+    <col min="25" max="25" width="26.7109375" style="25" customWidth="1"/>
+    <col min="26" max="26" width="8.85546875" style="25"/>
+    <col min="27" max="27" width="27.28515625" style="25" customWidth="1"/>
+    <col min="28" max="30" width="8.85546875" style="25"/>
+    <col min="31" max="31" width="12.85546875" style="25"/>
+    <col min="32" max="16384" width="8.85546875" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:33">
@@ -4981,7 +4417,7 @@
       <c r="AF1" s="10"/>
       <c r="AG1" s="10"/>
     </row>
-    <row r="2" ht="15.15" spans="2:31">
+    <row r="2" spans="2:33">
       <c r="B2" s="6" t="s">
         <v>317</v>
       </c>
@@ -5055,7 +4491,7 @@
         <v>Атаманов Иван Валерьевич</v>
       </c>
     </row>
-    <row r="3" ht="15.15" spans="2:33">
+    <row r="3" spans="2:33">
       <c r="B3" s="31" t="s">
         <v>324</v>
       </c>
@@ -5534,7 +4970,7 @@
       <c r="AF8" s="10"/>
       <c r="AG8" s="10"/>
     </row>
-    <row r="9" spans="2:31">
+    <row r="9" spans="2:33">
       <c r="B9" s="6" t="s">
         <v>352</v>
       </c>
@@ -5605,7 +5041,7 @@
         <v>Ершова Ирина Алексеевна</v>
       </c>
     </row>
-    <row r="10" spans="2:31">
+    <row r="10" spans="2:33">
       <c r="B10" s="15" t="s">
         <v>357</v>
       </c>
@@ -5838,7 +5274,7 @@
       <c r="AF12" s="10"/>
       <c r="AG12" s="10"/>
     </row>
-    <row r="13" spans="2:26">
+    <row r="13" spans="2:33">
       <c r="B13" s="6" t="s">
         <v>427</v>
       </c>
@@ -5981,7 +5417,7 @@
       <c r="AF14" s="10"/>
       <c r="AG14" s="10"/>
     </row>
-    <row r="15" spans="2:26">
+    <row r="15" spans="2:33">
       <c r="B15" s="20" t="s">
         <v>437</v>
       </c>
@@ -6125,7 +5561,7 @@
       <c r="AF16" s="10"/>
       <c r="AG16" s="10"/>
     </row>
-    <row r="17" spans="2:31">
+    <row r="17" spans="1:33">
       <c r="B17" s="6" t="s">
         <v>379</v>
       </c>
@@ -6198,7 +5634,7 @@
         <v>Попова Юлия Юрьевна</v>
       </c>
     </row>
-    <row r="18" spans="2:31">
+    <row r="18" spans="1:33">
       <c r="B18" s="20" t="s">
         <v>383</v>
       </c>
@@ -6267,7 +5703,7 @@
         <v>Сайчик Татьяна Борисовна</v>
       </c>
     </row>
-    <row r="19" spans="2:33">
+    <row r="19" spans="1:33">
       <c r="B19" s="6" t="s">
         <v>440</v>
       </c>
@@ -6343,7 +5779,7 @@
       <c r="AF19" s="10"/>
       <c r="AG19" s="10"/>
     </row>
-    <row r="20" spans="2:33">
+    <row r="20" spans="1:33">
       <c r="B20" s="6" t="s">
         <v>388</v>
       </c>
@@ -6420,7 +5856,7 @@
       <c r="AF20" s="10"/>
       <c r="AG20" s="10"/>
     </row>
-    <row r="21" s="37" customFormat="1" ht="15.15" spans="1:33">
+    <row r="21" spans="1:33" s="37" customFormat="1">
       <c r="A21" s="14"/>
       <c r="B21" s="6" t="s">
         <v>394</v>
@@ -6507,7 +5943,7 @@
       <c r="AF21" s="10"/>
       <c r="AG21" s="10"/>
     </row>
-    <row r="22" spans="2:33">
+    <row r="22" spans="1:33">
       <c r="B22" s="24" t="s">
         <v>400</v>
       </c>
@@ -6578,7 +6014,7 @@
       <c r="AF22" s="10"/>
       <c r="AG22" s="10"/>
     </row>
-    <row r="23" spans="2:33">
+    <row r="23" spans="1:33">
       <c r="B23" s="6" t="s">
         <v>404</v>
       </c>
@@ -6665,7 +6101,7 @@
       <c r="AF23" s="10"/>
       <c r="AG23" s="10"/>
     </row>
-    <row r="24" spans="2:31">
+    <row r="24" spans="1:33">
       <c r="B24" s="6" t="s">
         <v>404</v>
       </c>
@@ -6738,7 +6174,7 @@
         <v>Шишкин Денис Витальевич</v>
       </c>
     </row>
-    <row r="25" spans="2:31">
+    <row r="25" spans="1:33">
       <c r="B25" s="6" t="s">
         <v>635</v>
       </c>
@@ -6800,7 +6236,7 @@
         <v>Халтурин Михаил Дмитриевич</v>
       </c>
     </row>
-    <row r="29" spans="2:31">
+    <row r="29" spans="1:33">
       <c r="B29" s="6" t="s">
         <v>642</v>
       </c>
@@ -6866,20 +6302,18 @@
     <sortCondition ref="B2:B24"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -7003,29 +6437,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="11.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="13.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="18.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:7">
+    <row r="1" spans="1:7">
       <c r="C1" t="s">
         <v>655</v>
       </c>
@@ -7042,7 +6474,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" s="6" t="s">
         <v>317</v>
       </c>
@@ -7053,7 +6485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="31" t="s">
         <v>324</v>
       </c>
@@ -7067,7 +6499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:7">
       <c r="A4" s="6" t="s">
         <v>330</v>
       </c>
@@ -7095,7 +6527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
         <v>341</v>
       </c>
@@ -7109,7 +6541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
         <v>423</v>
       </c>
@@ -7168,7 +6600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="6" t="s">
         <v>362</v>
       </c>
@@ -7199,7 +6631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:7">
       <c r="A13" s="6" t="s">
         <v>427</v>
       </c>
@@ -7210,7 +6642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="6" t="s">
         <v>432</v>
       </c>
@@ -7221,7 +6653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:7">
       <c r="A15" s="20" t="s">
         <v>437</v>
       </c>
@@ -7235,7 +6667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:7">
       <c r="A16" s="6" t="s">
         <v>373</v>
       </c>
@@ -7246,7 +6678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:7">
       <c r="A17" s="6" t="s">
         <v>379</v>
       </c>
@@ -7257,7 +6689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:7">
       <c r="A18" s="20" t="s">
         <v>383</v>
       </c>
@@ -7265,7 +6697,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
         <v>440</v>
       </c>
@@ -7279,7 +6711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:7">
       <c r="A20" s="6" t="s">
         <v>388</v>
       </c>
@@ -7290,7 +6722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
         <v>394</v>
       </c>
@@ -7301,7 +6733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:7">
       <c r="A22" s="24" t="s">
         <v>400</v>
       </c>
@@ -7312,7 +6744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:7">
       <c r="A23" s="6" t="s">
         <v>404</v>
       </c>
@@ -7337,7 +6769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:7">
       <c r="A25" s="6" t="s">
         <v>635</v>
       </c>
@@ -7350,28 +6782,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.1388888888889" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18.712962962963" style="14" customWidth="1"/>
-    <col min="3" max="3" width="14.287037037037" style="14" customWidth="1"/>
-    <col min="4" max="4" width="23.712962962963" style="14" customWidth="1"/>
-    <col min="5" max="5" width="37.1388888888889" style="14" customWidth="1"/>
-    <col min="6" max="6" width="31.712962962963" style="14" customWidth="1"/>
-    <col min="7" max="16384" width="8.85185185185185" style="14"/>
+    <col min="1" max="1" width="19.140625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -7870,13 +7300,13 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" s="29" customFormat="1" ht="13.2" spans="1:4">
+    <row r="27" spans="1:6" s="29" customFormat="1" ht="12.75">
       <c r="A27" s="35" t="s">
         <v>664</v>
       </c>
       <c r="D27" s="36"/>
     </row>
-    <row r="28" s="29" customFormat="1" ht="13.2" spans="1:4">
+    <row r="28" spans="1:6" s="29" customFormat="1" ht="12.75">
       <c r="A28" s="29" t="s">
         <v>665</v>
       </c>
@@ -7888,7 +7318,7 @@
       </c>
       <c r="D28" s="36"/>
     </row>
-    <row r="29" s="29" customFormat="1" ht="13.2" spans="1:4">
+    <row r="29" spans="1:6" s="29" customFormat="1" ht="12.75">
       <c r="A29" s="29">
         <v>89217427984</v>
       </c>
@@ -8659,29 +8089,27 @@
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.712962962963"/>
-    <col min="2" max="2" width="35.712962962963" customWidth="1"/>
-    <col min="3" max="3" width="21.8518518518519" customWidth="1"/>
-    <col min="4" max="4" width="22.287037037037" customWidth="1"/>
-    <col min="5" max="5" width="72.5740740740741" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="72.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15" spans="1:5">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>668</v>
       </c>
@@ -8698,7 +8126,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="2" ht="15.15" spans="1:5">
+    <row r="2" spans="1:5">
       <c r="A2" s="4"/>
       <c r="B2" s="3" t="s">
         <v>669</v>
@@ -8713,7 +8141,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" ht="15.15" spans="1:5">
+    <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>670</v>
@@ -8728,7 +8156,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="4" ht="15.15" spans="1:5">
+    <row r="4" spans="1:5">
       <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
         <v>671</v>
@@ -8743,7 +8171,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="5" ht="15.15" spans="1:5">
+    <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>672</v>
@@ -8758,7 +8186,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="6" ht="15.15" spans="1:5">
+    <row r="6" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="3" t="s">
         <v>673</v>
@@ -8773,7 +8201,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="7" ht="15.15" spans="1:5">
+    <row r="7" spans="1:5">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>674</v>
@@ -8788,7 +8216,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="8" ht="15.15" spans="1:5">
+    <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="3" t="s">
         <v>675</v>
@@ -8803,7 +8231,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="9" ht="15.15" spans="1:5">
+    <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>676</v>
@@ -8818,7 +8246,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="10" ht="15.15" spans="1:5">
+    <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
         <v>677</v>
@@ -8833,7 +8261,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="11" ht="15.15" spans="1:5">
+    <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
         <v>678</v>
@@ -8848,7 +8276,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="12" ht="15.15" spans="1:5">
+    <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
         <v>679</v>
@@ -8863,7 +8291,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="13" ht="15.15" spans="1:5">
+    <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
         <v>680</v>
@@ -8878,7 +8306,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="14" ht="15.15" spans="1:5">
+    <row r="14" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
         <v>681</v>
@@ -8893,7 +8321,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="15" ht="15.15" spans="1:5">
+    <row r="15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
         <v>682</v>
@@ -8908,7 +8336,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="16" ht="15.15" spans="1:5">
+    <row r="16" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
         <v>683</v>
@@ -8923,7 +8351,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="17" ht="15.15" spans="1:5">
+    <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
         <v>684</v>
@@ -8938,7 +8366,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="18" ht="15.15" spans="1:5">
+    <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
         <v>685</v>
@@ -8953,7 +8381,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="19" ht="15.15" spans="1:5">
+    <row r="19" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
         <v>686</v>
@@ -8968,7 +8396,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="20" ht="15.15" spans="1:5">
+    <row r="20" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="3" t="s">
         <v>687</v>
@@ -8983,7 +8411,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="21" ht="15.15" spans="1:5">
+    <row r="21" spans="1:5">
       <c r="A21" s="21"/>
       <c r="B21" s="3" t="s">
         <v>688</v>
@@ -8998,7 +8426,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="22" ht="15.15" spans="1:5">
+    <row r="22" spans="1:5">
       <c r="A22" s="21"/>
       <c r="B22" s="3" t="s">
         <v>689</v>
@@ -9013,7 +8441,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="23" ht="15.15" spans="1:5">
+    <row r="23" spans="1:5">
       <c r="A23" s="21"/>
       <c r="B23" s="3" t="s">
         <v>690</v>
@@ -9028,7 +8456,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="24" ht="15.15" spans="1:5">
+    <row r="24" spans="1:5">
       <c r="A24" s="21"/>
       <c r="B24" s="3" t="s">
         <v>691</v>
@@ -9043,7 +8471,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="25" ht="15.15" spans="1:5">
+    <row r="25" spans="1:5">
       <c r="A25" s="21"/>
       <c r="B25" s="3" t="s">
         <v>692</v>
@@ -9058,7 +8486,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="26" ht="15.15" spans="1:5">
+    <row r="26" spans="1:5">
       <c r="A26" s="21"/>
       <c r="B26" s="3" t="s">
         <v>693</v>
@@ -9073,14 +8501,14 @@
         <v>694</v>
       </c>
     </row>
-    <row r="27" ht="15.15" spans="1:5">
+    <row r="27" spans="1:5">
       <c r="A27" s="21"/>
       <c r="B27" s="3"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" ht="15.15" spans="1:5">
+    <row r="28" spans="1:5">
       <c r="A28" s="21"/>
       <c r="B28" s="3" t="s">
         <v>695</v>
@@ -9089,7 +8517,7 @@
       <c r="D28" s="8"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" ht="15.15" spans="1:5">
+    <row r="29" spans="1:5">
       <c r="A29" s="21"/>
       <c r="B29" s="3" t="s">
         <v>695</v>
@@ -9098,7 +8526,7 @@
       <c r="D29" s="8"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" ht="15.15" spans="1:5">
+    <row r="30" spans="1:5">
       <c r="A30" s="21"/>
       <c r="B30" s="3" t="s">
         <v>695</v>
@@ -9107,7 +8535,7 @@
       <c r="D30" s="8"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" ht="15.15" spans="1:5">
+    <row r="31" spans="1:5">
       <c r="A31" s="21"/>
       <c r="B31" s="3" t="s">
         <v>695</v>
@@ -9116,7 +8544,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" ht="15.15" spans="1:5">
+    <row r="32" spans="1:5">
       <c r="A32" s="21"/>
       <c r="B32" s="3" t="s">
         <v>695</v>
@@ -9125,791 +8553,791 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" ht="15.15" spans="1:5">
+    <row r="33" spans="1:5">
       <c r="A33" s="21"/>
       <c r="B33" s="3"/>
       <c r="C33" s="7"/>
       <c r="D33" s="8"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" ht="15.15" spans="1:5">
+    <row r="34" spans="1:5">
       <c r="A34" s="21"/>
       <c r="B34" s="3"/>
       <c r="C34" s="7"/>
       <c r="D34" s="8"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" ht="15.15" spans="1:5">
+    <row r="35" spans="1:5">
       <c r="A35" s="21"/>
       <c r="B35" s="3"/>
       <c r="C35" s="7"/>
       <c r="D35" s="8"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" ht="15.15" spans="1:5">
+    <row r="36" spans="1:5">
       <c r="A36" s="21"/>
       <c r="B36" s="3"/>
       <c r="C36" s="7"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" ht="15.15" spans="1:5">
+    <row r="37" spans="1:5">
       <c r="A37" s="21"/>
       <c r="B37" s="3"/>
       <c r="C37" s="7"/>
       <c r="D37" s="8"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" ht="15.15" spans="1:5">
+    <row r="38" spans="1:5">
       <c r="A38" s="21"/>
       <c r="B38" s="3"/>
       <c r="C38" s="7"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" ht="15.15" spans="1:5">
+    <row r="39" spans="1:5">
       <c r="A39" s="21"/>
       <c r="B39" s="3"/>
       <c r="C39" s="7"/>
       <c r="D39" s="8"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" ht="15.15" spans="1:5">
+    <row r="40" spans="1:5">
       <c r="A40" s="21"/>
       <c r="B40" s="3"/>
       <c r="C40" s="7"/>
       <c r="D40" s="8"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" ht="15.15" spans="1:5">
+    <row r="41" spans="1:5">
       <c r="A41" s="21"/>
       <c r="B41" s="3"/>
       <c r="C41" s="7"/>
       <c r="D41" s="8"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" ht="15.15" spans="1:5">
+    <row r="42" spans="1:5">
       <c r="A42" s="21"/>
       <c r="B42" s="3"/>
       <c r="C42" s="7"/>
       <c r="D42" s="8"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" ht="15.15" spans="1:5">
+    <row r="43" spans="1:5">
       <c r="A43" s="21"/>
       <c r="B43" s="3"/>
       <c r="C43" s="7"/>
       <c r="D43" s="8"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" ht="15.15" spans="1:5">
+    <row r="44" spans="1:5">
       <c r="A44" s="21"/>
       <c r="B44" s="3"/>
       <c r="C44" s="7"/>
       <c r="D44" s="8"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" ht="15.15" spans="1:5">
+    <row r="45" spans="1:5">
       <c r="A45" s="21"/>
       <c r="B45" s="3"/>
       <c r="C45" s="7"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" ht="15.15" spans="1:5">
+    <row r="46" spans="1:5">
       <c r="A46" s="25"/>
       <c r="B46" s="3"/>
       <c r="C46" s="26"/>
       <c r="D46" s="27"/>
       <c r="E46" s="28"/>
     </row>
-    <row r="47" ht="15.15" spans="1:5">
+    <row r="47" spans="1:5">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" ht="15.15" spans="1:5">
+    <row r="48" spans="1:5">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" ht="15.15" spans="1:5">
+    <row r="49" spans="1:5">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" ht="15.15" spans="1:5">
+    <row r="50" spans="1:5">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" ht="15.15" spans="1:5">
+    <row r="51" spans="1:5">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" ht="15.15" spans="1:5">
+    <row r="52" spans="1:5">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" ht="15.15" spans="1:5">
+    <row r="53" spans="1:5">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" ht="15.15" spans="1:5">
+    <row r="54" spans="1:5">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" ht="15.15" spans="1:5">
+    <row r="55" spans="1:5">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" ht="15.15" spans="1:5">
+    <row r="56" spans="1:5">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" ht="15.15" spans="1:5">
+    <row r="57" spans="1:5">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" ht="15.15" spans="1:5">
+    <row r="58" spans="1:5">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" ht="15.15" spans="1:5">
+    <row r="59" spans="1:5">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" ht="15.15" spans="1:5">
+    <row r="60" spans="1:5">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" ht="15.15" spans="1:5">
+    <row r="61" spans="1:5">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" ht="15.15" spans="1:5">
+    <row r="62" spans="1:5">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" ht="15.15" spans="1:5">
+    <row r="63" spans="1:5">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" ht="15.15" spans="1:5">
+    <row r="64" spans="1:5">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" ht="15.15" spans="1:5">
+    <row r="65" spans="1:5">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" ht="15.15" spans="1:5">
+    <row r="66" spans="1:5">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" ht="15.15" spans="1:5">
+    <row r="67" spans="1:5">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" ht="15.15" spans="1:5">
+    <row r="68" spans="1:5">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" ht="15.15" spans="1:5">
+    <row r="69" spans="1:5">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" ht="15.15" spans="1:5">
+    <row r="70" spans="1:5">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" ht="15.15" spans="1:5">
+    <row r="71" spans="1:5">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" ht="15.15" spans="1:5">
+    <row r="72" spans="1:5">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" ht="15.15" spans="1:5">
+    <row r="73" spans="1:5">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" ht="15.15" spans="1:5">
+    <row r="74" spans="1:5">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" ht="15.15" spans="1:5">
+    <row r="75" spans="1:5">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" ht="15.15" spans="1:5">
+    <row r="76" spans="1:5">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" ht="15.15" spans="1:5">
+    <row r="77" spans="1:5">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" ht="15.15" spans="1:5">
+    <row r="78" spans="1:5">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" ht="15.15" spans="1:5">
+    <row r="79" spans="1:5">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" ht="15.15" spans="1:5">
+    <row r="80" spans="1:5">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" ht="15.15" spans="1:5">
+    <row r="81" spans="1:5">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" ht="15.15" spans="1:5">
+    <row r="82" spans="1:5">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" ht="15.15" spans="1:5">
+    <row r="83" spans="1:5">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" ht="15.15" spans="1:5">
+    <row r="84" spans="1:5">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" ht="15.15" spans="1:5">
+    <row r="85" spans="1:5">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" ht="15.15" spans="1:5">
+    <row r="86" spans="1:5">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" ht="15.15" spans="1:5">
+    <row r="87" spans="1:5">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" ht="15.15" spans="1:5">
+    <row r="88" spans="1:5">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" ht="15.15" spans="1:5">
+    <row r="89" spans="1:5">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" ht="15.15" spans="1:5">
+    <row r="90" spans="1:5">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" ht="15.15" spans="1:5">
+    <row r="91" spans="1:5">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" ht="15.15" spans="1:5">
+    <row r="92" spans="1:5">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" ht="15.15" spans="1:5">
+    <row r="93" spans="1:5">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" ht="15.15" spans="1:5">
+    <row r="94" spans="1:5">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" ht="15.15" spans="1:5">
+    <row r="95" spans="1:5">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" ht="15.15" spans="1:5">
+    <row r="96" spans="1:5">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" ht="15.15" spans="1:5">
+    <row r="97" spans="1:5">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" ht="15.15" spans="1:5">
+    <row r="98" spans="1:5">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" ht="15.15" spans="1:5">
+    <row r="99" spans="1:5">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" ht="15.15" spans="1:5">
+    <row r="100" spans="1:5">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" ht="15.15" spans="1:5">
+    <row r="101" spans="1:5">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" ht="15.15" spans="1:5">
+    <row r="102" spans="1:5">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" ht="15.15" spans="1:5">
+    <row r="103" spans="1:5">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
     </row>
-    <row r="104" ht="15.15" spans="1:5">
+    <row r="104" spans="1:5">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
     </row>
-    <row r="105" ht="15.15" spans="1:5">
+    <row r="105" spans="1:5">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
     </row>
-    <row r="106" ht="15.15" spans="1:5">
+    <row r="106" spans="1:5">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
     </row>
-    <row r="107" ht="15.15" spans="1:5">
+    <row r="107" spans="1:5">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
     </row>
-    <row r="108" ht="15.15" spans="1:5">
+    <row r="108" spans="1:5">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
     </row>
-    <row r="109" ht="15.15" spans="1:5">
+    <row r="109" spans="1:5">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
     </row>
-    <row r="110" ht="15.15" spans="1:5">
+    <row r="110" spans="1:5">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
     </row>
-    <row r="111" ht="15.15" spans="1:5">
+    <row r="111" spans="1:5">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
     </row>
-    <row r="112" ht="15.15" spans="1:5">
+    <row r="112" spans="1:5">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
     </row>
-    <row r="113" ht="15.15" spans="1:5">
+    <row r="113" spans="1:5">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
     </row>
-    <row r="114" ht="15.15" spans="1:5">
+    <row r="114" spans="1:5">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
     </row>
-    <row r="115" ht="15.15" spans="1:5">
+    <row r="115" spans="1:5">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
     </row>
-    <row r="116" ht="15.15" spans="1:5">
+    <row r="116" spans="1:5">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
     </row>
-    <row r="117" ht="15.15" spans="1:5">
+    <row r="117" spans="1:5">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
     </row>
-    <row r="118" ht="15.15" spans="1:5">
+    <row r="118" spans="1:5">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
     </row>
-    <row r="119" ht="15.15" spans="1:5">
+    <row r="119" spans="1:5">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
     </row>
-    <row r="120" ht="15.15" spans="1:5">
+    <row r="120" spans="1:5">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
     </row>
-    <row r="121" ht="15.15" spans="1:5">
+    <row r="121" spans="1:5">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
     </row>
-    <row r="122" ht="15.15" spans="1:5">
+    <row r="122" spans="1:5">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
     </row>
-    <row r="123" ht="15.15" spans="1:5">
+    <row r="123" spans="1:5">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
     </row>
-    <row r="124" ht="15.15" spans="1:5">
+    <row r="124" spans="1:5">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
     </row>
-    <row r="125" ht="15.15" spans="1:5">
+    <row r="125" spans="1:5">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
     </row>
-    <row r="126" ht="15.15" spans="1:5">
+    <row r="126" spans="1:5">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
     </row>
-    <row r="127" ht="15.15" spans="1:5">
+    <row r="127" spans="1:5">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
     </row>
-    <row r="128" ht="15.15" spans="1:5">
+    <row r="128" spans="1:5">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
     </row>
-    <row r="129" ht="15.15" spans="1:5">
+    <row r="129" spans="1:5">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
     </row>
-    <row r="130" ht="15.15" spans="1:5">
+    <row r="130" spans="1:5">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
     </row>
-    <row r="131" ht="15.15" spans="1:5">
+    <row r="131" spans="1:5">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
     </row>
-    <row r="132" ht="15.15" spans="1:5">
+    <row r="132" spans="1:5">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
     </row>
-    <row r="133" ht="15.15" spans="1:5">
+    <row r="133" spans="1:5">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
     </row>
-    <row r="134" ht="15.15" spans="1:5">
+    <row r="134" spans="1:5">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
     </row>
-    <row r="135" ht="15.15" spans="1:5">
+    <row r="135" spans="1:5">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
     </row>
-    <row r="136" ht="15.15" spans="1:5">
+    <row r="136" spans="1:5">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
     </row>
-    <row r="137" ht="15.15" spans="1:5">
+    <row r="137" spans="1:5">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
     </row>
-    <row r="138" ht="15.15" spans="1:5">
+    <row r="138" spans="1:5">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
     </row>
-    <row r="139" ht="15.15" spans="1:5">
+    <row r="139" spans="1:5">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
     </row>
-    <row r="140" ht="15.15" spans="1:5">
+    <row r="140" spans="1:5">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
     </row>
-    <row r="141" ht="15.15" spans="1:5">
+    <row r="141" spans="1:5">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
     </row>
-    <row r="142" ht="15.15" spans="1:5">
+    <row r="142" spans="1:5">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
     </row>
-    <row r="143" ht="15.15" spans="1:5">
+    <row r="143" spans="1:5">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
     </row>
-    <row r="144" ht="15.15" spans="1:5">
+    <row r="144" spans="1:5">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
     </row>
-    <row r="145" ht="15.15" spans="1:5">
+    <row r="145" spans="1:5">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -9918,27 +9346,25 @@
     </row>
   </sheetData>
   <sortState ref="A3:L46">
-    <sortCondition ref="A3" descending="1"/>
+    <sortCondition descending="1" ref="A3"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.4259259259259" customWidth="1"/>
-    <col min="2" max="2" width="13.1388888888889" customWidth="1"/>
-    <col min="3" max="3" width="47.287037037037" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9963,7 +9389,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="3" ht="79.2" spans="1:3">
+    <row r="3" spans="1:3" ht="76.5">
       <c r="A3" s="1" t="s">
         <v>404</v>
       </c>
@@ -9974,7 +9400,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="4" ht="39.6" spans="1:3">
+    <row r="4" spans="1:3" ht="38.25">
       <c r="A4" s="1" t="s">
         <v>379</v>
       </c>
@@ -9996,7 +9422,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="6" ht="52.8" spans="1:3">
+    <row r="6" spans="1:3" ht="51">
       <c r="A6" s="1" t="s">
         <v>317</v>
       </c>
@@ -10009,23 +9435,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="20.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
@@ -10110,36 +9534,48 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D46"/>
+      <selection sqref="A1:D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="25.8518518518519" style="149" customWidth="1"/>
-    <col min="3" max="3" width="15.8518518518519" style="167" customWidth="1"/>
-    <col min="4" max="4" width="29.5740740740741" style="149" customWidth="1"/>
-    <col min="5" max="7" width="9" style="149"/>
-    <col min="8" max="8" width="22.712962962963" style="149" customWidth="1"/>
-    <col min="9" max="9" width="22.712962962963" style="168" customWidth="1"/>
-    <col min="10" max="11" width="8.85185185185185" style="168"/>
-    <col min="12" max="16384" width="9" style="149"/>
+    <col min="2" max="2" width="25.85546875" style="117" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="130" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" style="117" customWidth="1"/>
+    <col min="5" max="7" width="9" style="117"/>
+    <col min="8" max="8" width="22.7109375" style="117" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" style="131" customWidth="1"/>
+    <col min="10" max="11" width="8.85546875" style="131"/>
+    <col min="12" max="16384" width="9" style="117"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="149" t="s">
+    <row r="1" spans="1:4">
+      <c r="B1" s="117" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="167" t="s">
+      <c r="C1" s="130" t="s">
         <v>100</v>
       </c>
     </row>
@@ -10147,10 +9583,10 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="132" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="170" t="s">
+      <c r="C2" s="133" t="s">
         <v>102</v>
       </c>
       <c r="D2" s="25"/>
@@ -10159,13 +9595,13 @@
       <c r="A3" s="25">
         <v>1</v>
       </c>
-      <c r="B3" s="169" t="s">
+      <c r="B3" s="132" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="170" t="s">
+      <c r="C3" s="133" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="149" t="s">
+      <c r="D3" s="117" t="s">
         <v>105</v>
       </c>
     </row>
@@ -10173,13 +9609,13 @@
       <c r="A4" s="25">
         <v>1</v>
       </c>
-      <c r="B4" s="169" t="s">
+      <c r="B4" s="132" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="170" t="s">
+      <c r="C4" s="133" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="149" t="s">
+      <c r="D4" s="117" t="s">
         <v>105</v>
       </c>
     </row>
@@ -10187,38 +9623,38 @@
       <c r="A5" s="25">
         <v>1</v>
       </c>
-      <c r="B5" s="169" t="s">
+      <c r="B5" s="132" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="170" t="s">
+      <c r="C5" s="133" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="149" t="s">
+      <c r="D5" s="117" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" ht="15.6" customHeight="1" spans="1:4">
+    <row r="6" spans="1:4" ht="15.6" customHeight="1">
       <c r="A6" s="25">
         <v>1</v>
       </c>
-      <c r="B6" s="169" t="s">
+      <c r="B6" s="132" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="170">
+      <c r="C6" s="133">
         <v>4</v>
       </c>
-      <c r="D6" s="149" t="s">
+      <c r="D6" s="117" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" ht="15.6" customHeight="1" spans="1:3">
+    <row r="7" spans="1:4" ht="15.6" customHeight="1">
       <c r="A7" s="25">
         <v>1</v>
       </c>
-      <c r="B7" s="169" t="s">
+      <c r="B7" s="132" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="170" t="s">
+      <c r="C7" s="133" t="s">
         <v>111</v>
       </c>
     </row>
@@ -10226,13 +9662,13 @@
       <c r="A8" s="25">
         <v>1</v>
       </c>
-      <c r="B8" s="169" t="s">
+      <c r="B8" s="132" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="167">
+      <c r="C8" s="130">
         <v>2</v>
       </c>
-      <c r="D8" s="149" t="s">
+      <c r="D8" s="117" t="s">
         <v>105</v>
       </c>
     </row>
@@ -10240,32 +9676,32 @@
       <c r="A9" s="25">
         <v>1</v>
       </c>
-      <c r="B9" s="169" t="s">
+      <c r="B9" s="132" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="170" t="s">
+      <c r="C9" s="133" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="149" t="s">
+      <c r="D9" s="117" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="25">
         <v>1</v>
       </c>
-      <c r="B10" s="169" t="s">
+      <c r="B10" s="132" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" s="133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="169" t="s">
+      <c r="B11" s="132" t="s">
         <v>116</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -10276,24 +9712,24 @@
       <c r="A12" s="25">
         <v>2</v>
       </c>
-      <c r="B12" s="169" t="s">
+      <c r="B12" s="132" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="170" t="s">
+      <c r="C12" s="133" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="149" t="s">
+      <c r="D12" s="117" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>2</v>
       </c>
-      <c r="B13" s="149" t="s">
+      <c r="B13" s="117" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="167">
+      <c r="C13" s="130">
         <v>2</v>
       </c>
     </row>
@@ -10301,35 +9737,35 @@
       <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14" s="149" t="s">
+      <c r="B14" s="117" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="167" t="s">
+      <c r="C14" s="130" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="149" t="s">
+      <c r="D14" s="117" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15" s="149" t="s">
+      <c r="B15" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="167">
+      <c r="C15" s="130">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="B16" s="149" t="s">
+      <c r="B16" s="117" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="167">
+      <c r="C16" s="130">
         <v>2</v>
       </c>
     </row>
@@ -10337,333 +9773,333 @@
       <c r="A17">
         <v>2</v>
       </c>
-      <c r="B17" s="169" t="s">
+      <c r="B17" s="132" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="170">
+      <c r="C17" s="133">
         <v>10</v>
       </c>
-      <c r="D17" s="149" t="s">
+      <c r="D17" s="117" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" s="25">
         <v>2</v>
       </c>
-      <c r="B18" s="169" t="s">
+      <c r="B18" s="132" t="s">
         <v>128</v>
       </c>
-      <c r="C18" s="170" t="s">
+      <c r="C18" s="133" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" s="25">
         <v>2</v>
       </c>
-      <c r="B19" s="169" t="s">
+      <c r="B19" s="132" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="170" t="s">
+      <c r="C19" s="133" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" s="25">
         <v>2</v>
       </c>
-      <c r="B20" s="169" t="s">
+      <c r="B20" s="132" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="170" t="s">
+      <c r="C20" s="133" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" s="25">
         <v>2</v>
       </c>
-      <c r="B21" s="169" t="s">
+      <c r="B21" s="132" t="s">
         <v>133</v>
       </c>
-      <c r="C21" s="170" t="s">
+      <c r="C21" s="133" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" s="25">
         <v>2</v>
       </c>
-      <c r="B22" s="169" t="s">
+      <c r="B22" s="132" t="s">
         <v>135</v>
       </c>
-      <c r="C22" s="170" t="s">
+      <c r="C22" s="133" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" s="25">
         <v>3</v>
       </c>
-      <c r="B23" s="169" t="s">
+      <c r="B23" s="132" t="s">
         <v>137</v>
       </c>
-      <c r="C23" s="170" t="s">
+      <c r="C23" s="133" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" s="25">
         <v>3</v>
       </c>
-      <c r="B24" s="169" t="s">
+      <c r="B24" s="132" t="s">
         <v>138</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" s="25">
         <v>3</v>
       </c>
-      <c r="B25" s="169" t="s">
+      <c r="B25" s="132" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="170" t="s">
+      <c r="C25" s="133" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" s="25">
         <v>3</v>
       </c>
-      <c r="B26" s="169" t="s">
+      <c r="B26" s="132" t="s">
         <v>142</v>
       </c>
-      <c r="C26" s="170">
+      <c r="C26" s="133">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" s="25">
         <v>3</v>
       </c>
-      <c r="B27" s="169" t="s">
+      <c r="B27" s="132" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="167" t="s">
+      <c r="C27" s="130" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" s="25">
         <v>3</v>
       </c>
-      <c r="B28" s="169" t="s">
+      <c r="B28" s="132" t="s">
         <v>145</v>
       </c>
-      <c r="C28" s="170" t="s">
+      <c r="C28" s="133" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" s="25">
         <v>3</v>
       </c>
-      <c r="B29" s="169" t="s">
+      <c r="B29" s="132" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="170" t="s">
+      <c r="C29" s="133" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30" s="25">
         <v>3</v>
       </c>
-      <c r="B30" s="169" t="s">
+      <c r="B30" s="132" t="s">
         <v>149</v>
       </c>
-      <c r="C30" s="170" t="s">
+      <c r="C30" s="133" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" s="25">
         <v>3</v>
       </c>
-      <c r="B31" s="169" t="s">
+      <c r="B31" s="132" t="s">
         <v>151</v>
       </c>
-      <c r="C31" s="170">
+      <c r="C31" s="133">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="A32" s="25">
         <v>4</v>
       </c>
-      <c r="B32" s="169" t="s">
+      <c r="B32" s="132" t="s">
         <v>152</v>
       </c>
-      <c r="C32" s="170" t="s">
+      <c r="C32" s="133" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" s="25">
         <v>4</v>
       </c>
-      <c r="B33" s="169" t="s">
+      <c r="B33" s="132" t="s">
         <v>154</v>
       </c>
-      <c r="C33" s="167" t="s">
+      <c r="C33" s="130" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" s="25">
         <v>4</v>
       </c>
-      <c r="B34" s="169" t="s">
+      <c r="B34" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="C34" s="170" t="s">
+      <c r="C34" s="133" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="A35" s="25">
         <v>4</v>
       </c>
-      <c r="B35" s="169" t="s">
+      <c r="B35" s="132" t="s">
         <v>158</v>
       </c>
-      <c r="C35" s="170" t="s">
+      <c r="C35" s="133" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>4</v>
       </c>
-      <c r="B36" s="169" t="s">
+      <c r="B36" s="132" t="s">
         <v>160</v>
       </c>
-      <c r="C36" s="170" t="s">
+      <c r="C36" s="133" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4">
       <c r="A37" s="25">
         <v>4</v>
       </c>
-      <c r="B37" s="169" t="s">
+      <c r="B37" s="132" t="s">
         <v>162</v>
       </c>
-      <c r="C37" s="170" t="s">
+      <c r="C37" s="133" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>4</v>
       </c>
-      <c r="B38" s="169" t="s">
+      <c r="B38" s="132" t="s">
         <v>163</v>
       </c>
-      <c r="C38" s="170">
+      <c r="C38" s="133">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="A39" s="25">
         <v>4</v>
       </c>
-      <c r="B39" s="169" t="s">
+      <c r="B39" s="132" t="s">
         <v>164</v>
       </c>
-      <c r="C39" s="170" t="s">
+      <c r="C39" s="133" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4">
       <c r="A40" s="25"/>
-      <c r="B40" s="169" t="s">
+      <c r="B40" s="132" t="s">
         <v>166</v>
       </c>
-      <c r="C40" s="170" t="s">
+      <c r="C40" s="133" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:4">
       <c r="A41" s="25"/>
-      <c r="B41" s="169" t="s">
+      <c r="B41" s="132" t="s">
         <v>168</v>
       </c>
-      <c r="C41" s="170" t="s">
+      <c r="C41" s="133" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:4">
       <c r="A42" s="25"/>
-      <c r="B42" s="169" t="s">
+      <c r="B42" s="132" t="s">
         <v>170</v>
       </c>
-      <c r="C42" s="170" t="s">
+      <c r="C42" s="133" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
-      <c r="B43" s="149" t="s">
+    <row r="43" spans="1:4">
+      <c r="B43" s="117" t="s">
         <v>171</v>
       </c>
-      <c r="C43" s="167" t="s">
+      <c r="C43" s="130" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="25"/>
-      <c r="B45" s="169" t="s">
+      <c r="B45" s="132" t="s">
         <v>173</v>
       </c>
-      <c r="C45" s="170" t="s">
+      <c r="C45" s="133" t="s">
         <v>174</v>
       </c>
-      <c r="D45" s="149" t="s">
+      <c r="D45" s="117" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:4">
       <c r="A46" s="25"/>
-      <c r="B46" s="169" t="s">
+      <c r="B46" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="C46" s="170" t="s">
+      <c r="C46" s="133" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="149" t="s">
+    <row r="48" spans="1:4">
+      <c r="B48" s="117" t="s">
         <v>178</v>
       </c>
-      <c r="C48" s="167" t="s">
+      <c r="C48" s="130" t="s">
         <v>179</v>
       </c>
-      <c r="D48" s="149" t="s">
+      <c r="D48" s="117" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="149" t="s">
+    <row r="49" spans="1:4">
+      <c r="B49" s="117" t="s">
         <v>181</v>
       </c>
-      <c r="C49" s="167">
+      <c r="C49" s="130">
         <v>4</v>
       </c>
-      <c r="D49" s="149" t="s">
+      <c r="D49" s="117" t="s">
         <v>180</v>
       </c>
     </row>
@@ -10671,966 +10107,964 @@
       <c r="A50" s="25">
         <v>4</v>
       </c>
-      <c r="B50" s="169" t="s">
+      <c r="B50" s="132" t="s">
         <v>182</v>
       </c>
       <c r="C50" s="25"/>
-      <c r="D50" s="149" t="s">
+      <c r="D50" s="117" t="s">
         <v>180</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="6.85185185185185" style="154"/>
-    <col min="2" max="2" width="18.287037037037" style="154" customWidth="1"/>
-    <col min="3" max="3" width="17.712962962963" style="154" customWidth="1"/>
-    <col min="4" max="4" width="22" style="154"/>
-    <col min="5" max="5" width="14.5740740740741" style="154" customWidth="1"/>
-    <col min="6" max="6" width="12.287037037037" style="154" customWidth="1"/>
-    <col min="7" max="7" width="13" style="154" customWidth="1"/>
-    <col min="8" max="8" width="17.4259259259259" style="154" customWidth="1"/>
-    <col min="9" max="9" width="19.712962962963" style="154"/>
-    <col min="10" max="10" width="10.5740740740741" style="154"/>
-    <col min="11" max="11" width="18.4259259259259" style="154" customWidth="1"/>
-    <col min="12" max="16384" width="8.85185185185185" style="154"/>
+    <col min="1" max="1" width="6.85546875" style="122"/>
+    <col min="2" max="2" width="18.28515625" style="122" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="122" customWidth="1"/>
+    <col min="4" max="4" width="22" style="122"/>
+    <col min="5" max="5" width="14.5703125" style="122" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="122" customWidth="1"/>
+    <col min="7" max="7" width="13" style="122" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="122" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" style="122"/>
+    <col min="10" max="10" width="10.5703125" style="122"/>
+    <col min="11" max="11" width="18.42578125" style="122" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="122"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="155"/>
-      <c r="B1" s="156" t="s">
+      <c r="A1" s="123"/>
+      <c r="B1" s="144" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="157"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="159" t="s">
+      <c r="C1" s="145"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="147" t="s">
         <v>184</v>
       </c>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159" t="s">
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="155"/>
-      <c r="B2" s="160" t="s">
+      <c r="A2" s="123"/>
+      <c r="B2" s="124" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="160" t="s">
+      <c r="C2" s="124" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="160" t="s">
+      <c r="D2" s="124" t="s">
         <v>188</v>
       </c>
-      <c r="E2" s="160" t="s">
+      <c r="E2" s="124" t="s">
         <v>186</v>
       </c>
-      <c r="F2" s="160" t="s">
+      <c r="F2" s="124" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="160" t="s">
+      <c r="G2" s="124" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="160" t="s">
+      <c r="H2" s="124" t="s">
         <v>187</v>
       </c>
-      <c r="I2" s="160" t="s">
+      <c r="I2" s="124" t="s">
         <v>191</v>
       </c>
-      <c r="J2" s="160" t="s">
+      <c r="J2" s="124" t="s">
         <v>192</v>
       </c>
-      <c r="K2" s="160" t="s">
+      <c r="K2" s="124" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="161">
+      <c r="A3" s="125">
         <v>41759</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="163" t="s">
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="148" t="s">
         <v>193</v>
       </c>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="161">
+      <c r="A4" s="125">
         <v>41760</v>
       </c>
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="123" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="155" t="s">
+      <c r="C4" s="123" t="s">
         <v>195</v>
       </c>
-      <c r="D4" s="154" t="s">
+      <c r="D4" s="122" t="s">
         <v>196</v>
       </c>
-      <c r="E4" s="154" t="s">
+      <c r="E4" s="122" t="s">
         <v>197</v>
       </c>
-      <c r="F4" s="155" t="s">
+      <c r="F4" s="123" t="s">
         <v>198</v>
       </c>
-      <c r="G4" s="155" t="s">
+      <c r="G4" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="H4" s="155" t="s">
+      <c r="H4" s="123" t="s">
         <v>195</v>
       </c>
-      <c r="I4" s="155" t="s">
+      <c r="I4" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="J4" s="155" t="s">
+      <c r="J4" s="123" t="s">
         <v>201</v>
       </c>
-      <c r="K4" s="155" t="s">
+      <c r="K4" s="123" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="161">
+      <c r="A5" s="125">
         <v>41761</v>
       </c>
-      <c r="B5" s="155" t="s">
+      <c r="B5" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="155" t="s">
+      <c r="C5" s="123" t="s">
         <v>195</v>
       </c>
-      <c r="D5" s="155" t="s">
+      <c r="D5" s="123" t="s">
         <v>203</v>
       </c>
-      <c r="E5" s="155" t="s">
+      <c r="E5" s="123" t="s">
         <v>204</v>
       </c>
-      <c r="F5" s="155" t="s">
+      <c r="F5" s="123" t="s">
         <v>205</v>
       </c>
-      <c r="G5" s="155" t="s">
+      <c r="G5" s="123" t="s">
         <v>206</v>
       </c>
-      <c r="H5" s="155" t="s">
+      <c r="H5" s="123" t="s">
         <v>195</v>
       </c>
-      <c r="I5" s="155" t="s">
+      <c r="I5" s="123" t="s">
         <v>207</v>
       </c>
-      <c r="J5" s="155" t="s">
+      <c r="J5" s="123" t="s">
         <v>208</v>
       </c>
-      <c r="K5" s="155" t="s">
+      <c r="K5" s="123" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="161">
+      <c r="A6" s="125">
         <v>41762</v>
       </c>
-      <c r="B6" s="155" t="s">
+      <c r="B6" s="123" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="155" t="s">
+      <c r="C6" s="123" t="s">
         <v>195</v>
       </c>
-      <c r="D6" s="155" t="s">
+      <c r="D6" s="123" t="s">
         <v>209</v>
       </c>
-      <c r="E6" s="155" t="s">
+      <c r="E6" s="123" t="s">
         <v>210</v>
       </c>
-      <c r="F6" s="155" t="s">
+      <c r="F6" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="G6" s="155" t="s">
+      <c r="G6" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="H6" s="155" t="s">
+      <c r="H6" s="123" t="s">
         <v>195</v>
       </c>
-      <c r="I6" s="155" t="s">
+      <c r="I6" s="123" t="s">
         <v>211</v>
       </c>
-      <c r="J6" s="155" t="s">
+      <c r="J6" s="123" t="s">
         <v>212</v>
       </c>
-      <c r="K6" s="155" t="s">
+      <c r="K6" s="123" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="161">
+      <c r="A7" s="125">
         <v>41763</v>
       </c>
-      <c r="B7" s="155" t="s">
+      <c r="B7" s="123" t="s">
         <v>205</v>
       </c>
-      <c r="C7" s="155" t="s">
+      <c r="C7" s="123" t="s">
         <v>195</v>
       </c>
-      <c r="D7" s="155" t="s">
+      <c r="D7" s="123" t="s">
         <v>203</v>
       </c>
-      <c r="E7" s="160" t="s">
+      <c r="E7" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="155"/>
-      <c r="J7" s="155"/>
-      <c r="K7" s="155"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="123"/>
+      <c r="J7" s="123"/>
+      <c r="K7" s="123"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="161">
+      <c r="A8" s="125">
         <v>41764</v>
       </c>
-      <c r="B8" s="155"/>
-      <c r="C8" s="155"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="155"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="155"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="123"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="161">
+      <c r="A9" s="125">
         <v>41765</v>
       </c>
-      <c r="B9" s="155"/>
-      <c r="C9" s="155"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="155"/>
-      <c r="J9" s="155"/>
-      <c r="K9" s="155"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="123"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="162">
+      <c r="A10" s="126">
         <v>41766</v>
       </c>
-      <c r="B10" s="155"/>
-      <c r="C10" s="155"/>
-      <c r="D10" s="155"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="155"/>
-      <c r="I10" s="155" t="s">
+      <c r="B10" s="123"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="J10" s="154" t="s">
+      <c r="J10" s="122" t="s">
         <v>214</v>
       </c>
-      <c r="K10" s="155" t="s">
+      <c r="K10" s="123" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="162">
+      <c r="A11" s="126">
         <v>41767</v>
       </c>
-      <c r="B11" s="155" t="s">
+      <c r="B11" s="123" t="s">
         <v>205</v>
       </c>
-      <c r="C11" s="155" t="s">
+      <c r="C11" s="123" t="s">
         <v>195</v>
       </c>
-      <c r="D11" s="154" t="s">
+      <c r="D11" s="122" t="s">
         <v>203</v>
       </c>
-      <c r="E11" s="154" t="s">
+      <c r="E11" s="122" t="s">
         <v>215</v>
       </c>
-      <c r="F11" s="155" t="s">
+      <c r="F11" s="123" t="s">
         <v>198</v>
       </c>
-      <c r="G11" s="155" t="s">
+      <c r="G11" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="H11" s="155" t="s">
+      <c r="H11" s="123" t="s">
         <v>195</v>
       </c>
-      <c r="I11" s="155" t="s">
+      <c r="I11" s="123" t="s">
         <v>216</v>
       </c>
-      <c r="J11" s="155"/>
-      <c r="K11" s="155" t="s">
+      <c r="J11" s="123"/>
+      <c r="K11" s="123" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="162">
+      <c r="A12" s="126">
         <v>41768</v>
       </c>
-      <c r="B12" s="155" t="s">
+      <c r="B12" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="C12" s="155" t="s">
+      <c r="C12" s="123" t="s">
         <v>195</v>
       </c>
-      <c r="D12" s="155" t="s">
+      <c r="D12" s="123" t="s">
         <v>196</v>
       </c>
-      <c r="E12" s="155" t="s">
+      <c r="E12" s="123" t="s">
         <v>217</v>
       </c>
-      <c r="F12" s="155" t="s">
+      <c r="F12" s="123" t="s">
         <v>205</v>
       </c>
-      <c r="G12" s="155" t="s">
+      <c r="G12" s="123" t="s">
         <v>206</v>
       </c>
-      <c r="H12" s="155" t="s">
+      <c r="H12" s="123" t="s">
         <v>195</v>
       </c>
-      <c r="I12" s="155" t="s">
+      <c r="I12" s="123" t="s">
         <v>218</v>
       </c>
-      <c r="K12" s="155" t="s">
+      <c r="K12" s="123" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="162">
+      <c r="A13" s="126">
         <v>41769</v>
       </c>
-      <c r="B13" s="155" t="s">
+      <c r="B13" s="123" t="s">
         <v>219</v>
       </c>
-      <c r="C13" s="155" t="s">
+      <c r="C13" s="123" t="s">
         <v>195</v>
       </c>
-      <c r="D13" s="155" t="s">
+      <c r="D13" s="123" t="s">
         <v>220</v>
       </c>
-      <c r="E13" s="163" t="s">
+      <c r="E13" s="148" t="s">
         <v>221</v>
       </c>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="155"/>
-      <c r="J13" s="155"/>
-      <c r="K13" s="155"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="161"/>
-    </row>
-    <row r="15" spans="3:7">
-      <c r="C15" s="154" t="s">
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="125"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="C15" s="122" t="s">
         <v>222</v>
       </c>
-      <c r="E15" s="154" t="s">
+      <c r="E15" s="122" t="s">
         <v>223</v>
       </c>
-      <c r="F15" s="154" t="s">
+      <c r="F15" s="122" t="s">
         <v>224</v>
       </c>
-      <c r="G15" s="154" t="s">
+      <c r="G15" s="122" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="154" t="s">
+    <row r="16" spans="1:11">
+      <c r="B16" s="122" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="154">
+      <c r="C16" s="122">
         <v>5</v>
       </c>
-      <c r="E16" s="164">
+      <c r="E16" s="127">
         <v>2.5</v>
       </c>
-      <c r="F16" s="154">
+      <c r="F16" s="122">
         <f t="shared" ref="F16:F18" si="0">C16*E16</f>
         <v>12.5</v>
       </c>
-      <c r="G16" s="154" t="s">
+      <c r="G16" s="122" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="154" t="s">
+      <c r="B17" s="122" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="154">
+      <c r="C17" s="122">
         <v>3</v>
       </c>
-      <c r="E17" s="164">
+      <c r="E17" s="127">
         <v>2.5</v>
       </c>
-      <c r="F17" s="154">
+      <c r="F17" s="122">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="G17" s="165" t="s">
+      <c r="G17" s="128" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="154" t="s">
+      <c r="B18" s="122" t="s">
         <v>227</v>
       </c>
-      <c r="C18" s="154">
+      <c r="C18" s="122">
         <v>4</v>
       </c>
-      <c r="E18" s="164">
+      <c r="E18" s="127">
         <v>3</v>
       </c>
-      <c r="F18" s="154">
+      <c r="F18" s="122">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G18" s="154" t="s">
+      <c r="G18" s="122" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="154" t="s">
+    <row r="19" spans="2:7">
+      <c r="B19" s="122" t="s">
         <v>207</v>
       </c>
-      <c r="C19" s="154">
-        <v>1</v>
-      </c>
-      <c r="E19" s="164"/>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="154" t="s">
+      <c r="C19" s="122">
+        <v>1</v>
+      </c>
+      <c r="E19" s="127"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="122" t="s">
         <v>211</v>
       </c>
-      <c r="C20" s="154">
-        <v>1</v>
-      </c>
-      <c r="E20" s="164"/>
+      <c r="C20" s="122">
+        <v>1</v>
+      </c>
+      <c r="E20" s="127"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="154" t="s">
+      <c r="B21" s="122" t="s">
         <v>228</v>
       </c>
-      <c r="C21" s="154">
+      <c r="C21" s="122">
         <v>2</v>
       </c>
-      <c r="E21" s="164">
+      <c r="E21" s="127">
         <v>2.5</v>
       </c>
-      <c r="F21" s="154">
+      <c r="F21" s="122">
         <f t="shared" ref="F21:F23" si="1">C21*E21</f>
         <v>5</v>
       </c>
-      <c r="G21" s="154" t="s">
+      <c r="G21" s="122" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="154" t="s">
+      <c r="B22" s="122" t="s">
         <v>229</v>
       </c>
-      <c r="C22" s="154">
+      <c r="C22" s="122">
         <v>7</v>
       </c>
-      <c r="E22" s="164">
+      <c r="E22" s="127">
         <v>5</v>
       </c>
-      <c r="F22" s="154">
+      <c r="F22" s="122">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="G22" s="154" t="s">
+      <c r="G22" s="122" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="154" t="s">
+      <c r="B23" s="122" t="s">
         <v>231</v>
       </c>
-      <c r="C23" s="154">
+      <c r="C23" s="122">
         <v>5</v>
       </c>
-      <c r="E23" s="164">
+      <c r="E23" s="127">
         <v>3</v>
       </c>
-      <c r="F23" s="154">
+      <c r="F23" s="122">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G23" s="154" t="s">
+      <c r="G23" s="122" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="154" t="s">
+    <row r="24" spans="2:7">
+      <c r="B24" s="122" t="s">
         <v>232</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="122">
         <v>5</v>
       </c>
-      <c r="E24" s="164"/>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="154" t="s">
+      <c r="E24" s="127"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="122" t="s">
         <v>233</v>
       </c>
-      <c r="C25" s="154">
+      <c r="C25" s="122">
         <v>3</v>
       </c>
-      <c r="E25" s="164"/>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="154" t="s">
+      <c r="E25" s="127"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="122" t="s">
         <v>234</v>
       </c>
-      <c r="C26" s="154">
+      <c r="C26" s="122">
         <v>5</v>
       </c>
-      <c r="E26" s="164"/>
+      <c r="E26" s="127"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="154" t="s">
+      <c r="B27" s="122" t="s">
         <v>235</v>
       </c>
-      <c r="C27" s="154">
-        <v>1</v>
-      </c>
-      <c r="E27" s="166">
+      <c r="C27" s="122">
+        <v>1</v>
+      </c>
+      <c r="E27" s="129">
         <v>1.5</v>
       </c>
-      <c r="F27" s="154">
+      <c r="F27" s="122">
         <f>C27*E27</f>
         <v>1.5</v>
       </c>
-      <c r="G27" s="154" t="s">
+      <c r="G27" s="122" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="154" t="s">
+    <row r="28" spans="2:7">
+      <c r="B28" s="122" t="s">
         <v>236</v>
       </c>
-      <c r="C28" s="154">
-        <v>1</v>
-      </c>
-      <c r="E28" s="166"/>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="154" t="s">
+      <c r="C28" s="122">
+        <v>1</v>
+      </c>
+      <c r="E28" s="129"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="122" t="s">
         <v>237</v>
       </c>
-      <c r="C29" s="154">
-        <v>1</v>
-      </c>
-      <c r="E29" s="166"/>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="154" t="s">
+      <c r="C29" s="122">
+        <v>1</v>
+      </c>
+      <c r="E29" s="129"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="122" t="s">
         <v>238</v>
       </c>
-      <c r="C30" s="154">
+      <c r="C30" s="122">
         <v>12</v>
       </c>
-      <c r="E30" s="166"/>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="154" t="s">
+      <c r="E30" s="129"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="122" t="s">
         <v>239</v>
       </c>
-      <c r="C31" s="154">
+      <c r="C31" s="122">
         <v>12</v>
       </c>
-      <c r="E31" s="166"/>
+      <c r="E31" s="129"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="154" t="s">
+      <c r="B32" s="122" t="s">
         <v>240</v>
       </c>
-      <c r="C32" s="154">
+      <c r="C32" s="122">
         <v>8</v>
       </c>
-      <c r="E32" s="164">
+      <c r="E32" s="127">
         <v>2</v>
       </c>
-      <c r="F32" s="154">
+      <c r="F32" s="122">
         <f t="shared" ref="F32:F40" si="2">C32*E32</f>
         <v>16</v>
       </c>
-      <c r="G32" s="154" t="s">
+      <c r="G32" s="122" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="154" t="s">
+      <c r="B33" s="122" t="s">
         <v>242</v>
       </c>
-      <c r="C33" s="154">
+      <c r="C33" s="122">
         <v>5</v>
       </c>
-      <c r="E33" s="164">
-        <v>1</v>
-      </c>
-      <c r="F33" s="154">
+      <c r="E33" s="127">
+        <v>1</v>
+      </c>
+      <c r="F33" s="122">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="G33" s="154" t="s">
+      <c r="G33" s="122" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="154" t="s">
+      <c r="B34" s="122" t="s">
         <v>243</v>
       </c>
-      <c r="C34" s="154">
+      <c r="C34" s="122">
         <v>5</v>
       </c>
-      <c r="E34" s="164">
+      <c r="E34" s="127">
         <v>3</v>
       </c>
-      <c r="F34" s="154">
+      <c r="F34" s="122">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="G34" s="154" t="s">
+      <c r="G34" s="122" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="154" t="s">
+      <c r="B35" s="122" t="s">
         <v>244</v>
       </c>
-      <c r="C35" s="154">
+      <c r="C35" s="122">
         <v>23</v>
       </c>
-      <c r="E35" s="164">
+      <c r="E35" s="127">
         <v>0.15</v>
       </c>
-      <c r="F35" s="154">
+      <c r="F35" s="122">
         <f t="shared" si="2"/>
         <v>3.45</v>
       </c>
-      <c r="G35" s="154" t="s">
+      <c r="G35" s="122" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="154" t="s">
+      <c r="B36" s="122" t="s">
         <v>245</v>
       </c>
-      <c r="C36" s="154">
-        <v>1</v>
-      </c>
-      <c r="E36" s="164">
+      <c r="C36" s="122">
+        <v>1</v>
+      </c>
+      <c r="E36" s="127">
         <v>2</v>
       </c>
-      <c r="F36" s="154">
+      <c r="F36" s="122">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G36" s="154" t="s">
+      <c r="G36" s="122" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="154" t="s">
+      <c r="B37" s="122" t="s">
         <v>246</v>
       </c>
-      <c r="C37" s="154">
+      <c r="C37" s="122">
         <v>4</v>
       </c>
-      <c r="E37" s="164">
-        <v>1</v>
-      </c>
-      <c r="F37" s="154">
+      <c r="E37" s="127">
+        <v>1</v>
+      </c>
+      <c r="F37" s="122">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G37" s="154" t="s">
+      <c r="G37" s="122" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="154" t="s">
+      <c r="B38" s="122" t="s">
         <v>247</v>
       </c>
-      <c r="C38" s="154">
+      <c r="C38" s="122">
         <v>18</v>
       </c>
-      <c r="E38" s="164">
+      <c r="E38" s="127">
         <v>0.6</v>
       </c>
-      <c r="F38" s="154">
+      <c r="F38" s="122">
         <f t="shared" si="2"/>
         <v>10.8</v>
       </c>
-      <c r="G38" s="154" t="s">
+      <c r="G38" s="122" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="154" t="s">
+      <c r="B39" s="122" t="s">
         <v>248</v>
       </c>
-      <c r="C39" s="154">
+      <c r="C39" s="122">
         <v>3</v>
       </c>
-      <c r="E39" s="164">
+      <c r="E39" s="127">
         <v>5</v>
       </c>
-      <c r="F39" s="154">
+      <c r="F39" s="122">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="G39" s="154" t="s">
+      <c r="G39" s="122" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="154" t="s">
+      <c r="B40" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="C40" s="154">
+      <c r="C40" s="122">
         <v>5</v>
       </c>
-      <c r="D40" s="154" t="s">
+      <c r="D40" s="122" t="s">
         <v>250</v>
       </c>
-      <c r="E40" s="164">
+      <c r="E40" s="127">
         <v>0.5</v>
       </c>
-      <c r="F40" s="154">
+      <c r="F40" s="122">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="G40" s="154" t="s">
+      <c r="G40" s="122" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="41" spans="2:5">
-      <c r="B41" s="154" t="s">
+    <row r="41" spans="2:7">
+      <c r="B41" s="122" t="s">
         <v>251</v>
       </c>
-      <c r="C41" s="154">
+      <c r="C41" s="122">
         <v>3</v>
       </c>
-      <c r="E41" s="164"/>
+      <c r="E41" s="127"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="154" t="s">
+      <c r="B42" s="122" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="154">
+      <c r="C42" s="122">
         <v>5</v>
       </c>
-      <c r="D42" s="154" t="s">
+      <c r="D42" s="122" t="s">
         <v>252</v>
       </c>
-      <c r="E42" s="164">
+      <c r="E42" s="127">
         <v>0.2</v>
       </c>
-      <c r="F42" s="154">
+      <c r="F42" s="122">
         <v>3</v>
       </c>
-      <c r="G42" s="154" t="s">
+      <c r="G42" s="122" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="154" t="s">
+      <c r="B43" s="122" t="s">
         <v>253</v>
       </c>
-      <c r="C43" s="154">
+      <c r="C43" s="122">
         <v>3</v>
       </c>
-      <c r="E43" s="164">
+      <c r="E43" s="127">
         <v>1.5</v>
       </c>
-      <c r="F43" s="154">
+      <c r="F43" s="122">
         <f t="shared" ref="F43:F47" si="3">C43*E43</f>
         <v>4.5</v>
       </c>
-      <c r="G43" s="154" t="s">
+      <c r="G43" s="122" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="154" t="s">
+      <c r="B44" s="122" t="s">
         <v>254</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="122">
         <v>3</v>
       </c>
-      <c r="E44" s="164">
-        <v>1</v>
-      </c>
-      <c r="F44" s="154">
+      <c r="E44" s="127">
+        <v>1</v>
+      </c>
+      <c r="F44" s="122">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="G44" s="154" t="s">
+      <c r="G44" s="122" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="154" t="s">
+      <c r="B45" s="122" t="s">
         <v>255</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="122">
         <v>3</v>
       </c>
-      <c r="E45" s="164">
+      <c r="E45" s="127">
         <v>2</v>
       </c>
-      <c r="F45" s="154">
+      <c r="F45" s="122">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="G45" s="154" t="s">
+      <c r="G45" s="122" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="154" t="s">
+    <row r="46" spans="2:7">
+      <c r="B46" s="122" t="s">
         <v>176</v>
       </c>
-      <c r="F46" s="154">
+      <c r="F46" s="122">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:6">
-      <c r="B47" s="154" t="s">
+    <row r="47" spans="2:7">
+      <c r="B47" s="122" t="s">
         <v>173</v>
       </c>
-      <c r="F47" s="154">
+      <c r="F47" s="122">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="154" t="s">
+    <row r="48" spans="2:7">
+      <c r="B48" s="122" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
-      <c r="B49" s="154" t="s">
+    <row r="49" spans="2:4">
+      <c r="B49" s="122" t="s">
         <v>195</v>
       </c>
-      <c r="C49" s="154">
+      <c r="C49" s="122">
         <v>20</v>
       </c>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="154" t="s">
+      <c r="B50" s="122" t="s">
         <v>257</v>
       </c>
-      <c r="C50" s="154">
+      <c r="C50" s="122">
         <v>4</v>
       </c>
-      <c r="D50" s="154" t="s">
+      <c r="D50" s="122" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="154" t="s">
+    <row r="51" spans="2:4">
+      <c r="B51" s="122" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="154" t="s">
+    <row r="52" spans="2:4">
+      <c r="B52" s="122" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="53" spans="2:3">
-      <c r="B53" s="154" t="s">
+    <row r="53" spans="2:4">
+      <c r="B53" s="122" t="s">
         <v>260</v>
       </c>
-      <c r="C53" s="154" t="s">
+      <c r="C53" s="122" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="154" t="s">
+    <row r="54" spans="2:4">
+      <c r="B54" s="122" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="154" t="s">
+    <row r="55" spans="2:4">
+      <c r="B55" s="122" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="154" t="s">
+    <row r="56" spans="2:4">
+      <c r="B56" s="122" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="154" t="s">
+    <row r="57" spans="2:4">
+      <c r="B57" s="122" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="154" t="s">
+    <row r="58" spans="2:4">
+      <c r="B58" s="122" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="154" t="s">
+    <row r="59" spans="2:4">
+      <c r="B59" s="122" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="154" t="s">
+    <row r="60" spans="2:4">
+      <c r="B60" s="122" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="154" t="s">
+    <row r="61" spans="2:4">
+      <c r="B61" s="122" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="154" t="s">
+    <row r="62" spans="2:4">
+      <c r="B62" s="122" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="154" t="s">
+    <row r="63" spans="2:4">
+      <c r="B63" s="122" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="154" t="s">
+    <row r="64" spans="2:4">
+      <c r="B64" s="122" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="154" t="s">
+      <c r="B65" s="122" t="s">
         <v>273</v>
       </c>
     </row>
@@ -11642,235 +11076,232 @@
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="E13:H13"/>
   </mergeCells>
-  <pageMargins left="0.78740157480315" right="0.78740157480315" top="0.31" bottom="0.32" header="0.19" footer="0.32"/>
+  <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.31" bottom="0.32" header="0.19" footer="0.32"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" style="149"/>
-    <col min="2" max="2" width="30.287037037037" style="150" customWidth="1"/>
-    <col min="3" max="3" width="24.4259259259259" style="150" customWidth="1"/>
-    <col min="4" max="4" width="47.287037037037" style="150" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="149"/>
+    <col min="1" max="1" width="9" style="117"/>
+    <col min="2" max="2" width="30.28515625" style="118" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="118" customWidth="1"/>
+    <col min="4" max="4" width="47.28515625" style="118" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="117"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="119" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="120" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="152" t="s">
+      <c r="C1" s="120" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="152" t="s">
+      <c r="D1" s="120" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="151">
+    <row r="2" spans="1:4" ht="30">
+      <c r="A2" s="119">
         <v>1.05</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="152" t="s">
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="120" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="3" ht="43.2" spans="1:4">
-      <c r="A3" s="151">
-        <v>2.05</v>
-      </c>
-      <c r="B3" s="152" t="s">
+    <row r="3" spans="1:4" ht="45">
+      <c r="A3" s="119">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="B3" s="120" t="s">
         <v>276</v>
       </c>
-      <c r="C3" s="152" t="s">
+      <c r="C3" s="120" t="s">
         <v>277</v>
       </c>
-      <c r="D3" s="152" t="s">
+      <c r="D3" s="120" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="4" ht="28.8" spans="1:4">
-      <c r="A4" s="151">
+    <row r="4" spans="1:4" ht="30">
+      <c r="A4" s="119">
         <v>3.05</v>
       </c>
-      <c r="B4" s="152" t="s">
+      <c r="B4" s="120" t="s">
         <v>279</v>
       </c>
-      <c r="C4" s="152" t="s">
+      <c r="C4" s="120" t="s">
         <v>280</v>
       </c>
-      <c r="D4" s="152" t="s">
+      <c r="D4" s="120" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="5" ht="28.8" spans="1:4">
-      <c r="A5" s="151">
+    <row r="5" spans="1:4" ht="45">
+      <c r="A5" s="119">
         <v>4.05</v>
       </c>
-      <c r="B5" s="152" t="s">
+      <c r="B5" s="120" t="s">
         <v>282</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="120" t="s">
         <v>283</v>
       </c>
-      <c r="D5" s="152" t="s">
+      <c r="D5" s="120" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="6" ht="28.8" spans="1:4">
-      <c r="A6" s="151">
+    <row r="6" spans="1:4" ht="30">
+      <c r="A6" s="119">
         <v>5.05</v>
       </c>
-      <c r="B6" s="152" t="s">
+      <c r="B6" s="120" t="s">
         <v>285</v>
       </c>
-      <c r="C6" s="153"/>
-      <c r="D6" s="153"/>
-    </row>
-    <row r="7" ht="28.8" spans="1:4">
-      <c r="A7" s="151">
-        <v>8.05</v>
-      </c>
-      <c r="B7" s="153"/>
-      <c r="C7" s="153"/>
-      <c r="D7" s="152" t="s">
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+    </row>
+    <row r="7" spans="1:4" ht="30">
+      <c r="A7" s="119">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="120" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="8" ht="28.8" spans="1:4">
-      <c r="A8" s="151">
-        <v>9.05</v>
-      </c>
-      <c r="B8" s="152" t="s">
+    <row r="8" spans="1:4" ht="30">
+      <c r="A8" s="119">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="B8" s="120" t="s">
         <v>287</v>
       </c>
-      <c r="C8" s="152" t="s">
+      <c r="C8" s="120" t="s">
         <v>288</v>
       </c>
-      <c r="D8" s="152" t="s">
+      <c r="D8" s="120" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="9" ht="43.2" spans="1:4">
-      <c r="A9" s="151">
-        <v>10.05</v>
-      </c>
-      <c r="B9" s="152" t="s">
+    <row r="9" spans="1:4" ht="45">
+      <c r="A9" s="119">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="B9" s="120" t="s">
         <v>290</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="120" t="s">
         <v>291</v>
       </c>
-      <c r="D9" s="152" t="s">
+      <c r="D9" s="120" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="10" ht="28.8" spans="1:4">
-      <c r="A10" s="151">
+    <row r="10" spans="1:4" ht="30">
+      <c r="A10" s="119">
         <v>11.05</v>
       </c>
-      <c r="B10" s="152" t="s">
+      <c r="B10" s="120" t="s">
         <v>293</v>
       </c>
-      <c r="C10" s="152" t="s">
+      <c r="C10" s="120" t="s">
         <v>294</v>
       </c>
-      <c r="D10" s="152" t="s">
+      <c r="D10" s="120" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="151">
+    <row r="11" spans="1:4" ht="30">
+      <c r="A11" s="119">
         <v>12.05</v>
       </c>
-      <c r="B11" s="152" t="s">
+      <c r="B11" s="120" t="s">
         <v>296</v>
       </c>
-      <c r="C11" s="152" t="s">
+      <c r="C11" s="120" t="s">
         <v>297</v>
       </c>
-      <c r="D11" s="153"/>
+      <c r="D11" s="121"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X42"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J6" sqref="B4 J6 J6 J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8" style="29"/>
-    <col min="2" max="2" width="28.8518518518519" style="29" customWidth="1"/>
-    <col min="3" max="3" width="10.8518518518519" style="29"/>
-    <col min="4" max="4" width="13.1388888888889" style="29"/>
-    <col min="5" max="5" width="21.4259259259259" style="29"/>
-    <col min="6" max="6" width="12.8518518518519" style="29"/>
-    <col min="7" max="7" width="9.28703703703704" style="29"/>
+    <col min="2" max="2" width="28.85546875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="29"/>
+    <col min="4" max="4" width="13.140625" style="29"/>
+    <col min="5" max="5" width="21.42578125" style="29"/>
+    <col min="6" max="6" width="12.85546875" style="29"/>
+    <col min="7" max="7" width="9.28515625" style="29"/>
     <col min="8" max="8" width="9" style="29"/>
-    <col min="9" max="9" width="12.1388888888889" style="36"/>
-    <col min="10" max="10" width="19.4259259259259" style="29"/>
-    <col min="11" max="11" width="28.1388888888889" style="29"/>
-    <col min="12" max="12" width="31.4259259259259" style="29"/>
-    <col min="13" max="13" width="18.5740740740741" style="29" customWidth="1"/>
-    <col min="14" max="14" width="14.1388888888889" style="29"/>
-    <col min="15" max="15" width="14.5740740740741" style="29" customWidth="1"/>
-    <col min="16" max="16" width="18.8518518518519" style="29"/>
-    <col min="17" max="17" width="14.1388888888889" style="29"/>
+    <col min="9" max="9" width="12.140625" style="36"/>
+    <col min="10" max="10" width="19.42578125" style="29"/>
+    <col min="11" max="11" width="28.140625" style="29"/>
+    <col min="12" max="12" width="31.42578125" style="29"/>
+    <col min="13" max="13" width="18.5703125" style="29" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="29"/>
+    <col min="15" max="15" width="14.5703125" style="29" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" style="29"/>
+    <col min="17" max="17" width="14.140625" style="29"/>
     <col min="18" max="16384" width="8" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:16">
       <c r="B1" s="35" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="1:16">
       <c r="B2" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="C2" s="137">
+      <c r="C2" s="105">
         <v>44680</v>
       </c>
-      <c r="D2" s="137">
+      <c r="D2" s="105">
         <v>44685</v>
       </c>
-      <c r="E2" s="138"/>
-    </row>
-    <row r="3" spans="2:4">
+      <c r="E2" s="106"/>
+    </row>
+    <row r="3" spans="1:16">
       <c r="B3" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="C3" s="137" t="s">
+      <c r="C3" s="105" t="s">
         <v>301</v>
       </c>
-      <c r="D3" s="138"/>
-    </row>
-    <row r="4" spans="2:16">
+      <c r="D3" s="106"/>
+    </row>
+    <row r="4" spans="1:16">
       <c r="B4" s="35" t="s">
         <v>302</v>
       </c>
@@ -11889,13 +11320,13 @@
       <c r="G4" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="H4" s="139" t="s">
+      <c r="H4" s="107" t="s">
         <v>308</v>
       </c>
       <c r="I4" s="35" t="s">
         <v>309</v>
       </c>
-      <c r="J4" s="145" t="s">
+      <c r="J4" s="113" t="s">
         <v>310</v>
       </c>
       <c r="K4" s="35" t="s">
@@ -11910,14 +11341,14 @@
       <c r="N4" s="35" t="s">
         <v>314</v>
       </c>
-      <c r="O4" s="146" t="s">
+      <c r="O4" s="114" t="s">
         <v>315</v>
       </c>
       <c r="P4" s="35" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="5" ht="15.15" spans="1:16">
+    <row r="5" spans="1:16" ht="15">
       <c r="A5" s="29">
         <v>1</v>
       </c>
@@ -11936,7 +11367,7 @@
       <c r="F5" s="6">
         <v>13</v>
       </c>
-      <c r="G5" s="140"/>
+      <c r="G5" s="108"/>
       <c r="H5" s="6">
         <v>630</v>
       </c>
@@ -11962,7 +11393,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="6" ht="15.15" spans="1:16">
+    <row r="6" spans="1:16" ht="15">
       <c r="A6" s="29">
         <v>2</v>
       </c>
@@ -11981,7 +11412,7 @@
       <c r="F6" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="G6" s="141"/>
+      <c r="G6" s="109"/>
       <c r="H6" s="20">
         <v>197</v>
       </c>
@@ -12007,7 +11438,7 @@
         <v>39367</v>
       </c>
     </row>
-    <row r="7" ht="14.4" spans="1:16">
+    <row r="7" spans="1:16" ht="15">
       <c r="A7" s="29">
         <v>3</v>
       </c>
@@ -12026,7 +11457,7 @@
       <c r="F7" s="6">
         <v>5</v>
       </c>
-      <c r="G7" s="141"/>
+      <c r="G7" s="109"/>
       <c r="H7" s="5">
         <v>503</v>
       </c>
@@ -12052,7 +11483,7 @@
         <v>39857</v>
       </c>
     </row>
-    <row r="8" ht="14.4" spans="1:16">
+    <row r="8" spans="1:16" ht="15">
       <c r="A8" s="29">
         <v>4</v>
       </c>
@@ -12097,7 +11528,7 @@
         <v>38553</v>
       </c>
     </row>
-    <row r="9" ht="14.4" spans="1:16">
+    <row r="9" spans="1:16" ht="15">
       <c r="A9" s="29">
         <v>5</v>
       </c>
@@ -12116,7 +11547,7 @@
       <c r="F9" s="6">
         <v>16</v>
       </c>
-      <c r="G9" s="141"/>
+      <c r="G9" s="109"/>
       <c r="H9" s="6">
         <v>56</v>
       </c>
@@ -12142,7 +11573,7 @@
         <v>39849</v>
       </c>
     </row>
-    <row r="10" ht="14.4" spans="1:16">
+    <row r="10" spans="1:16" ht="15">
       <c r="A10" s="29">
         <v>6</v>
       </c>
@@ -12186,7 +11617,7 @@
         <v>38137</v>
       </c>
     </row>
-    <row r="11" ht="14.4" spans="1:16">
+    <row r="11" spans="1:16" ht="15">
       <c r="A11" s="29">
         <v>7</v>
       </c>
@@ -12205,7 +11636,7 @@
       <c r="F11" s="6">
         <v>9</v>
       </c>
-      <c r="G11" s="140"/>
+      <c r="G11" s="108"/>
       <c r="H11" s="5">
         <v>441</v>
       </c>
@@ -12231,7 +11662,7 @@
         <v>39166</v>
       </c>
     </row>
-    <row r="12" ht="14.4" spans="1:16">
+    <row r="12" spans="1:16" ht="15">
       <c r="A12" s="29">
         <v>8</v>
       </c>
@@ -12250,7 +11681,7 @@
       <c r="F12" s="20">
         <v>3</v>
       </c>
-      <c r="G12" s="141"/>
+      <c r="G12" s="109"/>
       <c r="H12" s="24">
         <v>56</v>
       </c>
@@ -12276,7 +11707,7 @@
         <v>38917</v>
       </c>
     </row>
-    <row r="13" ht="14.4" spans="1:16">
+    <row r="13" spans="1:16" ht="15">
       <c r="A13" s="29">
         <v>9</v>
       </c>
@@ -12321,7 +11752,7 @@
         <v>40363</v>
       </c>
     </row>
-    <row r="14" ht="14.4" spans="1:16">
+    <row r="14" spans="1:16" ht="15">
       <c r="A14" s="29">
         <v>10</v>
       </c>
@@ -12366,7 +11797,7 @@
         <v>38434</v>
       </c>
     </row>
-    <row r="15" ht="14.4" spans="1:16">
+    <row r="15" spans="1:16" ht="15">
       <c r="A15" s="29">
         <v>11</v>
       </c>
@@ -12411,7 +11842,7 @@
         <v>40070</v>
       </c>
     </row>
-    <row r="16" ht="14.4" spans="1:16">
+    <row r="16" spans="1:16" ht="15">
       <c r="A16" s="29">
         <v>12</v>
       </c>
@@ -12456,7 +11887,7 @@
         <v>39331</v>
       </c>
     </row>
-    <row r="17" ht="14.4" spans="1:16">
+    <row r="17" spans="1:16" ht="15">
       <c r="A17" s="29">
         <v>13</v>
       </c>
@@ -12475,7 +11906,7 @@
       <c r="F17" s="20">
         <v>15</v>
       </c>
-      <c r="G17" s="141"/>
+      <c r="G17" s="109"/>
       <c r="H17" s="20">
         <v>586</v>
       </c>
@@ -12501,7 +11932,7 @@
         <v>38982</v>
       </c>
     </row>
-    <row r="18" ht="14.4" spans="1:16">
+    <row r="18" spans="1:16" ht="15">
       <c r="A18" s="29">
         <v>14</v>
       </c>
@@ -12520,7 +11951,7 @@
       <c r="F18" s="6">
         <v>1</v>
       </c>
-      <c r="G18" s="141"/>
+      <c r="G18" s="109"/>
       <c r="H18" s="5">
         <v>64</v>
       </c>
@@ -12546,7 +11977,7 @@
         <v>40195</v>
       </c>
     </row>
-    <row r="19" ht="15.15" spans="1:16">
+    <row r="19" spans="1:16" ht="15">
       <c r="A19" s="29">
         <v>15</v>
       </c>
@@ -12591,7 +12022,7 @@
         <v>39529</v>
       </c>
     </row>
-    <row r="20" ht="15.15" spans="1:16">
+    <row r="20" spans="1:16" ht="15">
       <c r="A20" s="29">
         <v>16</v>
       </c>
@@ -12631,7 +12062,7 @@
         <v>38989</v>
       </c>
     </row>
-    <row r="21" ht="14.4" spans="1:16">
+    <row r="21" spans="1:16" ht="15">
       <c r="A21" s="29">
         <v>17</v>
       </c>
@@ -12675,7 +12106,7 @@
         <v>39987</v>
       </c>
     </row>
-    <row r="22" ht="14.4" spans="1:16">
+    <row r="22" spans="1:16" ht="15">
       <c r="A22" s="29">
         <v>18</v>
       </c>
@@ -12719,62 +12150,62 @@
         <v>38070</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="1:16">
       <c r="B25" s="29" t="s">
         <v>414</v>
       </c>
-      <c r="C25" s="142" t="s">
+      <c r="C25" s="110" t="s">
         <v>415</v>
       </c>
       <c r="E25" s="36" t="s">
         <v>416</v>
       </c>
-      <c r="F25" s="142">
+      <c r="F25" s="110">
         <v>89217427984</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="1:16">
       <c r="B26" s="29" t="s">
         <v>417</v>
       </c>
-      <c r="C26" s="142" t="s">
+      <c r="C26" s="110" t="s">
         <v>418</v>
       </c>
       <c r="E26" s="36" t="s">
         <v>416</v>
       </c>
-      <c r="F26" s="142">
+      <c r="F26" s="110">
         <v>89679796720</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="1:16">
       <c r="B28" s="29" t="s">
         <v>419</v>
       </c>
-      <c r="C28" s="137">
+      <c r="C28" s="105">
         <v>44669</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:16">
       <c r="B29" s="29" t="s">
         <v>420</v>
       </c>
-      <c r="C29" s="142">
+      <c r="C29" s="110">
         <v>2022</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="1:16">
       <c r="B30" s="29" t="s">
         <v>421</v>
       </c>
-      <c r="C30" s="143"/>
-    </row>
-    <row r="32" ht="13.95" spans="2:2">
-      <c r="B32" s="144" t="s">
+      <c r="C30" s="111"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="B32" s="112" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="33" ht="15.15" spans="2:16">
+    <row r="33" spans="2:24" ht="15">
       <c r="B33" s="6" t="s">
         <v>423</v>
       </c>
@@ -12796,7 +12227,7 @@
       <c r="K33" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="L33" s="147"/>
+      <c r="L33" s="115"/>
       <c r="N33" s="3"/>
       <c r="O33" s="6" t="s">
         <v>426</v>
@@ -12805,7 +12236,7 @@
         <v>39462</v>
       </c>
     </row>
-    <row r="34" ht="15.75" spans="2:24">
+    <row r="34" spans="2:24" ht="15">
       <c r="B34" s="6" t="s">
         <v>427</v>
       </c>
@@ -12827,8 +12258,8 @@
       <c r="K34" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="L34" s="147"/>
-      <c r="M34" s="148"/>
+      <c r="L34" s="115"/>
+      <c r="M34" s="116"/>
       <c r="N34" s="3"/>
       <c r="O34" s="46" t="s">
         <v>431</v>
@@ -12836,11 +12267,11 @@
       <c r="P34" s="11">
         <v>39581</v>
       </c>
-      <c r="V34" s="148"/>
-      <c r="W34" s="148"/>
-      <c r="X34" s="148"/>
-    </row>
-    <row r="35" ht="15.15" spans="2:16">
+      <c r="V34" s="116"/>
+      <c r="W34" s="116"/>
+      <c r="X34" s="116"/>
+    </row>
+    <row r="35" spans="2:24" ht="15">
       <c r="B35" s="6" t="s">
         <v>432</v>
       </c>
@@ -12862,7 +12293,7 @@
       <c r="K35" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="L35" s="147"/>
+      <c r="L35" s="115"/>
       <c r="N35" s="8"/>
       <c r="O35" s="47" t="s">
         <v>436</v>
@@ -12871,7 +12302,7 @@
         <v>39916</v>
       </c>
     </row>
-    <row r="36" ht="15.15" spans="2:16">
+    <row r="36" spans="2:24" ht="15">
       <c r="B36" s="20" t="s">
         <v>437</v>
       </c>
@@ -12893,14 +12324,14 @@
       <c r="K36" s="18" t="s">
         <v>439</v>
       </c>
-      <c r="L36" s="147"/>
+      <c r="L36" s="115"/>
       <c r="N36" s="8"/>
       <c r="O36" s="15"/>
       <c r="P36" s="16">
         <v>38933</v>
       </c>
     </row>
-    <row r="37" ht="15.15" spans="2:16">
+    <row r="37" spans="2:24" ht="15">
       <c r="B37" s="6" t="s">
         <v>440</v>
       </c>
@@ -12922,7 +12353,7 @@
       <c r="K37" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="L37" s="147"/>
+      <c r="L37" s="115"/>
       <c r="N37" s="8"/>
       <c r="O37" s="6" t="s">
         <v>444</v>
@@ -12931,7 +12362,7 @@
         <v>39810</v>
       </c>
     </row>
-    <row r="38" ht="15.15" spans="2:16">
+    <row r="38" spans="2:24" ht="15">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -12939,12 +12370,12 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="147"/>
+      <c r="L38" s="115"/>
       <c r="N38" s="3"/>
       <c r="O38" s="8"/>
       <c r="P38" s="7"/>
     </row>
-    <row r="39" ht="15.15" spans="2:16">
+    <row r="39" spans="2:24" ht="15">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -12952,12 +12383,12 @@
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="147"/>
+      <c r="L39" s="115"/>
       <c r="N39" s="8"/>
       <c r="O39" s="3"/>
       <c r="P39" s="7"/>
     </row>
-    <row r="40" ht="15.15" spans="2:16">
+    <row r="40" spans="2:24" ht="15">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -12965,12 +12396,12 @@
       <c r="I40" s="3"/>
       <c r="J40" s="8"/>
       <c r="K40" s="3"/>
-      <c r="L40" s="147"/>
+      <c r="L40" s="115"/>
       <c r="N40" s="8"/>
       <c r="O40" s="3"/>
       <c r="P40" s="7"/>
     </row>
-    <row r="41" ht="15.15" spans="2:16">
+    <row r="41" spans="2:24" ht="15">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -12978,12 +12409,12 @@
       <c r="I41" s="3"/>
       <c r="J41" s="8"/>
       <c r="K41" s="3"/>
-      <c r="L41" s="147"/>
+      <c r="L41" s="115"/>
       <c r="N41" s="8"/>
       <c r="O41" s="3"/>
       <c r="P41" s="7"/>
     </row>
-    <row r="42" ht="15.15" spans="2:16">
+    <row r="42" spans="2:24" ht="15">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -12991,7 +12422,7 @@
       <c r="I42" s="3"/>
       <c r="J42" s="8"/>
       <c r="K42" s="3"/>
-      <c r="L42" s="147"/>
+      <c r="L42" s="115"/>
       <c r="N42" s="8"/>
       <c r="O42" s="3"/>
       <c r="P42" s="7"/>
@@ -12999,12 +12430,12 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -13014,46 +12445,46 @@
       <selection activeCell="J6" sqref="B4 J6 J6 J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.42592592592593" style="50" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="50" customWidth="1"/>
     <col min="2" max="2" width="18" style="50" customWidth="1"/>
-    <col min="3" max="3" width="10.8518518518519" style="50"/>
-    <col min="4" max="4" width="11.1388888888889" style="50" customWidth="1"/>
-    <col min="5" max="5" width="6.71296296296296" style="50" customWidth="1"/>
-    <col min="6" max="6" width="29.8518518518519" style="50" customWidth="1"/>
-    <col min="7" max="7" width="8.42592592592593" style="50" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="50"/>
+    <col min="4" max="4" width="11.140625" style="50" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="50" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" style="50" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="50" customWidth="1"/>
     <col min="8" max="8" width="11" style="50" customWidth="1"/>
-    <col min="9" max="9" width="3.71296296296296" style="50" customWidth="1"/>
-    <col min="10" max="10" width="7.85185185185185" style="50"/>
-    <col min="11" max="11" width="17.8518518518519" style="50" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" style="50" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="50"/>
+    <col min="11" max="11" width="17.85546875" style="50" customWidth="1"/>
     <col min="12" max="12" width="5" style="50" customWidth="1"/>
-    <col min="13" max="13" width="12.5740740740741" style="50" customWidth="1"/>
-    <col min="14" max="256" width="8.28703703703704" style="50"/>
+    <col min="13" max="13" width="12.5703125" style="50" customWidth="1"/>
+    <col min="14" max="256" width="8.28515625" style="50"/>
     <col min="257" max="16384" width="8" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" spans="1:13">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A1" s="149" t="s">
         <v>445</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92" t="s">
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149" t="s">
         <v>446</v>
       </c>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-    </row>
-    <row r="2" ht="51.95" customHeight="1" spans="1:13">
-      <c r="A2" s="93" t="s">
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+    </row>
+    <row r="2" spans="1:14" ht="51.95" customHeight="1">
+      <c r="A2" s="76" t="s">
         <v>447</v>
       </c>
       <c r="B2" s="53" t="s">
@@ -13071,37 +12502,37 @@
       <c r="F2" s="53" t="s">
         <v>451</v>
       </c>
-      <c r="G2" s="94" t="s">
+      <c r="G2" s="77" t="s">
         <v>452</v>
       </c>
-      <c r="H2" s="95" t="s">
+      <c r="H2" s="78" t="s">
         <v>453</v>
       </c>
-      <c r="I2" s="93" t="s">
+      <c r="I2" s="76" t="s">
         <v>447</v>
       </c>
       <c r="J2" s="53" t="s">
         <v>274</v>
       </c>
-      <c r="K2" s="125" t="s">
+      <c r="K2" s="96" t="s">
         <v>454</v>
       </c>
       <c r="L2" s="53" t="s">
         <v>455</v>
       </c>
-      <c r="M2" s="126" t="s">
+      <c r="M2" s="97" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="3" s="82" customFormat="1" ht="15.6" spans="1:14">
-      <c r="A3" s="96">
-        <v>1</v>
-      </c>
-      <c r="B3" s="97" t="str">
+    <row r="3" spans="1:14" s="68" customFormat="1" ht="15.75">
+      <c r="A3" s="79">
+        <v>1</v>
+      </c>
+      <c r="B3" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B5," ",'Информация для бумаг'!C5)</f>
         <v>Атаманов Андрей</v>
       </c>
-      <c r="C3" s="98" t="str">
+      <c r="C3" s="81" t="str">
         <f>'Информация для бумаг'!P5</f>
         <v>02.03.0005</v>
       </c>
@@ -13113,42 +12544,42 @@
         <f>'Информация для бумаг'!I5</f>
         <v>10</v>
       </c>
-      <c r="F3" s="80" t="str">
+      <c r="F3" s="66" t="str">
         <f>'Информация для бумаг'!K5</f>
         <v>Шуваловский пр. д. 90 к. кв.180</v>
       </c>
-      <c r="G3" s="99" t="s">
+      <c r="G3" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H3" s="100" t="s">
+      <c r="H3" s="162" t="s">
         <v>458</v>
       </c>
-      <c r="I3" s="101">
-        <v>1</v>
-      </c>
-      <c r="J3" s="127" t="s">
+      <c r="I3" s="83">
+        <v>1</v>
+      </c>
+      <c r="J3" s="98" t="s">
         <v>459</v>
       </c>
-      <c r="K3" s="128" t="s">
+      <c r="K3" s="99" t="s">
         <v>460</v>
       </c>
-      <c r="L3" s="129">
+      <c r="L3" s="100">
         <v>117</v>
       </c>
-      <c r="M3" s="129" t="s">
+      <c r="M3" s="100" t="s">
         <v>461</v>
       </c>
-      <c r="N3" s="130"/>
-    </row>
-    <row r="4" s="82" customFormat="1" ht="26.4" spans="1:14">
-      <c r="A4" s="101">
+      <c r="N3" s="101"/>
+    </row>
+    <row r="4" spans="1:14" s="68" customFormat="1" ht="25.5">
+      <c r="A4" s="83">
         <v>2</v>
       </c>
-      <c r="B4" s="97" t="str">
+      <c r="B4" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B6," ",'Информация для бумаг'!C6)</f>
         <v>Башилов Константин</v>
       </c>
-      <c r="C4" s="98">
+      <c r="C4" s="81">
         <f>'Информация для бумаг'!P6</f>
         <v>39367</v>
       </c>
@@ -13160,38 +12591,38 @@
         <f>'Информация для бумаг'!I6</f>
         <v>7</v>
       </c>
-      <c r="F4" s="80" t="str">
+      <c r="F4" s="66" t="str">
         <f>'Информация для бумаг'!K6</f>
         <v>СПб, Пестеля д. 13-15 кв. 108</v>
       </c>
-      <c r="G4" s="99" t="s">
+      <c r="G4" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H4" s="102"/>
-      <c r="I4" s="96">
+      <c r="H4" s="163"/>
+      <c r="I4" s="79">
         <v>2</v>
       </c>
-      <c r="J4" s="127" t="s">
+      <c r="J4" s="98" t="s">
         <v>462</v>
       </c>
-      <c r="K4" s="128" t="s">
+      <c r="K4" s="99" t="s">
         <v>463</v>
       </c>
-      <c r="L4" s="129"/>
-      <c r="M4" s="129" t="s">
+      <c r="L4" s="100"/>
+      <c r="M4" s="100" t="s">
         <v>464</v>
       </c>
-      <c r="N4" s="130"/>
-    </row>
-    <row r="5" s="82" customFormat="1" ht="24" spans="1:14">
-      <c r="A5" s="96">
+      <c r="N4" s="101"/>
+    </row>
+    <row r="5" spans="1:14" s="68" customFormat="1" ht="24">
+      <c r="A5" s="79">
         <v>3</v>
       </c>
-      <c r="B5" s="97" t="str">
+      <c r="B5" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B7," ",'Информация для бумаг'!C7)</f>
         <v>Бекасов Емельян</v>
       </c>
-      <c r="C5" s="98">
+      <c r="C5" s="81">
         <f>'Информация для бумаг'!P7</f>
         <v>39857</v>
       </c>
@@ -13203,40 +12634,40 @@
         <f>'Информация для бумаг'!I7</f>
         <v>6</v>
       </c>
-      <c r="F5" s="80" t="str">
+      <c r="F5" s="66" t="str">
         <f>'Информация для бумаг'!K7</f>
         <v>Г. Санкт-Петербург, проспект Ветеранов д.3 к.3 лит.А кв.167</v>
       </c>
-      <c r="G5" s="99" t="s">
+      <c r="G5" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H5" s="102"/>
-      <c r="I5" s="101">
+      <c r="H5" s="163"/>
+      <c r="I5" s="83">
         <v>3</v>
       </c>
-      <c r="J5" s="131" t="s">
+      <c r="J5" s="102" t="s">
         <v>465</v>
       </c>
-      <c r="K5" s="128" t="s">
+      <c r="K5" s="99" t="s">
         <v>466</v>
       </c>
-      <c r="L5" s="129">
+      <c r="L5" s="100">
         <v>117</v>
       </c>
-      <c r="M5" s="129" t="s">
+      <c r="M5" s="100" t="s">
         <v>461</v>
       </c>
-      <c r="N5" s="130"/>
-    </row>
-    <row r="6" s="82" customFormat="1" ht="15.6" spans="1:14">
-      <c r="A6" s="101">
+      <c r="N5" s="101"/>
+    </row>
+    <row r="6" spans="1:14" s="68" customFormat="1" ht="15.75">
+      <c r="A6" s="83">
         <v>4</v>
       </c>
-      <c r="B6" s="97" t="str">
+      <c r="B6" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B8," ",'Информация для бумаг'!C8)</f>
         <v>Белокуров Михаил</v>
       </c>
-      <c r="C6" s="98">
+      <c r="C6" s="81">
         <f>'Информация для бумаг'!P8</f>
         <v>38553</v>
       </c>
@@ -13248,30 +12679,30 @@
         <f>'Информация для бумаг'!I8</f>
         <v>10</v>
       </c>
-      <c r="F6" s="80" t="str">
+      <c r="F6" s="66" t="str">
         <f>'Информация для бумаг'!K8</f>
         <v>ул. Ставропольская д. 12/15 кв. 46</v>
       </c>
-      <c r="G6" s="99" t="s">
+      <c r="G6" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H6" s="102"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="129"/>
-      <c r="N6" s="130"/>
-    </row>
-    <row r="7" s="82" customFormat="1" ht="15.6" spans="1:14">
-      <c r="A7" s="96">
+      <c r="H6" s="163"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="101"/>
+    </row>
+    <row r="7" spans="1:14" s="68" customFormat="1" ht="15.75">
+      <c r="A7" s="79">
         <v>5</v>
       </c>
-      <c r="B7" s="97" t="str">
+      <c r="B7" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B9," ",'Информация для бумаг'!C9)</f>
         <v>Бритиков Александр</v>
       </c>
-      <c r="C7" s="98">
+      <c r="C7" s="81">
         <f>'Информация для бумаг'!P9</f>
         <v>39849</v>
       </c>
@@ -13283,30 +12714,30 @@
         <f>'Информация для бумаг'!I9</f>
         <v>7</v>
       </c>
-      <c r="F7" s="103" t="str">
+      <c r="F7" s="84" t="str">
         <f>'Информация для бумаг'!K9</f>
         <v>Ул. Лахтинская 20-36</v>
       </c>
-      <c r="G7" s="99" t="s">
+      <c r="G7" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H7" s="102"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="130"/>
-    </row>
-    <row r="8" s="82" customFormat="1" spans="1:14">
-      <c r="A8" s="101">
+      <c r="H7" s="163"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="101"/>
+    </row>
+    <row r="8" spans="1:14" s="68" customFormat="1">
+      <c r="A8" s="83">
         <v>6</v>
       </c>
-      <c r="B8" s="97" t="str">
+      <c r="B8" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B10," ",'Информация для бумаг'!C10)</f>
         <v>Евдокимова Алёна</v>
       </c>
-      <c r="C8" s="98">
+      <c r="C8" s="81">
         <f>'Информация для бумаг'!P10</f>
         <v>38137</v>
       </c>
@@ -13318,25 +12749,25 @@
         <f>'Информация для бумаг'!I10</f>
         <v>11</v>
       </c>
-      <c r="F8" s="80" t="str">
+      <c r="F8" s="66" t="str">
         <f>'Информация для бумаг'!K12</f>
         <v>Каменноостровский 69-29</v>
       </c>
-      <c r="G8" s="99" t="s">
+      <c r="G8" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H8" s="102"/>
-      <c r="N8" s="132"/>
-    </row>
-    <row r="9" s="82" customFormat="1" spans="1:13">
-      <c r="A9" s="96">
+      <c r="H8" s="163"/>
+      <c r="N8" s="103"/>
+    </row>
+    <row r="9" spans="1:14" s="68" customFormat="1">
+      <c r="A9" s="79">
         <v>7</v>
       </c>
-      <c r="B9" s="97" t="str">
+      <c r="B9" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B11," ",'Информация для бумаг'!C11)</f>
         <v>Ершова Татьяна</v>
       </c>
-      <c r="C9" s="98">
+      <c r="C9" s="81">
         <f>'Информация для бумаг'!P11</f>
         <v>39166</v>
       </c>
@@ -13348,29 +12779,29 @@
         <f>'Информация для бумаг'!I11</f>
         <v>8</v>
       </c>
-      <c r="F9" s="80" t="str">
+      <c r="F9" s="66" t="str">
         <f>'Информация для бумаг'!K11</f>
         <v>ул. Малая Карпатская д.17 кв 275</v>
       </c>
-      <c r="G9" s="99" t="s">
+      <c r="G9" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H9" s="102"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-    </row>
-    <row r="10" s="82" customFormat="1" spans="1:13">
-      <c r="A10" s="101">
+      <c r="H9" s="163"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+    </row>
+    <row r="10" spans="1:14" s="68" customFormat="1">
+      <c r="A10" s="83">
         <v>8</v>
       </c>
-      <c r="B10" s="97" t="str">
+      <c r="B10" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B12," ",'Информация для бумаг'!C12)</f>
         <v>Иванов Тимофей</v>
       </c>
-      <c r="C10" s="98">
+      <c r="C10" s="81">
         <f>'Информация для бумаг'!P12</f>
         <v>38917</v>
       </c>
@@ -13382,29 +12813,29 @@
         <f>'Информация для бумаг'!I12</f>
         <v>9</v>
       </c>
-      <c r="F10" s="80" t="str">
+      <c r="F10" s="66" t="str">
         <f>'Информация для бумаг'!K12</f>
         <v>Каменноостровский 69-29</v>
       </c>
-      <c r="G10" s="99" t="s">
+      <c r="G10" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H10" s="102"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-    </row>
-    <row r="11" s="82" customFormat="1" spans="1:13">
-      <c r="A11" s="96">
+      <c r="H10" s="163"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+    </row>
+    <row r="11" spans="1:14" s="68" customFormat="1">
+      <c r="A11" s="79">
         <v>9</v>
       </c>
-      <c r="B11" s="97" t="str">
+      <c r="B11" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B13," ",'Информация для бумаг'!C13)</f>
         <v>Киселев Вениамин</v>
       </c>
-      <c r="C11" s="98">
+      <c r="C11" s="81">
         <f>'Информация для бумаг'!P13</f>
         <v>40363</v>
       </c>
@@ -13416,29 +12847,29 @@
         <f>'Информация для бумаг'!I13</f>
         <v>5</v>
       </c>
-      <c r="F11" s="80" t="str">
+      <c r="F11" s="66" t="str">
         <f>'Информация для бумаг'!K13</f>
         <v>пр.Тореза, д.80, кв.78</v>
       </c>
-      <c r="G11" s="99" t="s">
+      <c r="G11" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H11" s="102"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-    </row>
-    <row r="12" s="82" customFormat="1" spans="1:13">
-      <c r="A12" s="101">
+      <c r="H11" s="163"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+    </row>
+    <row r="12" spans="1:14" s="68" customFormat="1">
+      <c r="A12" s="83">
         <v>10</v>
       </c>
-      <c r="B12" s="97" t="str">
+      <c r="B12" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B14," ",'Информация для бумаг'!C14)</f>
         <v>Кудряшов Тимофей</v>
       </c>
-      <c r="C12" s="98">
+      <c r="C12" s="81">
         <f>'Информация для бумаг'!P14</f>
         <v>38434</v>
       </c>
@@ -13450,29 +12881,29 @@
         <f>'Информация для бумаг'!I14</f>
         <v>11</v>
       </c>
-      <c r="F12" s="80" t="str">
+      <c r="F12" s="66" t="str">
         <f>'Информация для бумаг'!K14</f>
         <v>пр. Маршала Жукова, д.45, кв 222</v>
       </c>
-      <c r="G12" s="99" t="s">
+      <c r="G12" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H12" s="102"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-    </row>
-    <row r="13" s="82" customFormat="1" spans="1:13">
-      <c r="A13" s="96">
+      <c r="H12" s="163"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="83"/>
+    </row>
+    <row r="13" spans="1:14" s="68" customFormat="1">
+      <c r="A13" s="79">
         <v>11</v>
       </c>
-      <c r="B13" s="97" t="str">
+      <c r="B13" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B15," ",'Информация для бумаг'!C15)</f>
         <v>Островский Виктор</v>
       </c>
-      <c r="C13" s="98">
+      <c r="C13" s="81">
         <f>'Информация для бумаг'!P15</f>
         <v>40070</v>
       </c>
@@ -13484,29 +12915,29 @@
         <f>'Информация для бумаг'!I15</f>
         <v>6</v>
       </c>
-      <c r="F13" s="80" t="str">
+      <c r="F13" s="66" t="str">
         <f>'Информация для бумаг'!K15</f>
         <v>Парголово ул.Шишкина 58</v>
       </c>
-      <c r="G13" s="99" t="s">
+      <c r="G13" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H13" s="102"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-    </row>
-    <row r="14" s="82" customFormat="1" spans="1:13">
-      <c r="A14" s="101">
+      <c r="H13" s="163"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+    </row>
+    <row r="14" spans="1:14" s="68" customFormat="1">
+      <c r="A14" s="83">
         <v>12</v>
       </c>
-      <c r="B14" s="97" t="str">
+      <c r="B14" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B16," ",'Информация для бумаг'!C16)</f>
         <v>Попов Василий</v>
       </c>
-      <c r="C14" s="98">
+      <c r="C14" s="81">
         <f>'Информация для бумаг'!P16</f>
         <v>39331</v>
       </c>
@@ -13518,29 +12949,29 @@
         <f>'Информация для бумаг'!I16</f>
         <v>8</v>
       </c>
-      <c r="F14" s="80" t="str">
+      <c r="F14" s="66" t="str">
         <f>'Информация для бумаг'!K16</f>
         <v>Ул.Бутлерова, 11 к.4 , кв 385</v>
       </c>
-      <c r="G14" s="99" t="s">
+      <c r="G14" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H14" s="102"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-    </row>
-    <row r="15" s="82" customFormat="1" spans="1:13">
-      <c r="A15" s="96">
+      <c r="H14" s="163"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+    </row>
+    <row r="15" spans="1:14" s="68" customFormat="1">
+      <c r="A15" s="79">
         <v>13</v>
       </c>
-      <c r="B15" s="97" t="str">
+      <c r="B15" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B17," ",'Информация для бумаг'!C17)</f>
         <v>Сайчик Мария</v>
       </c>
-      <c r="C15" s="98">
+      <c r="C15" s="81">
         <f>'Информация для бумаг'!P17</f>
         <v>38982</v>
       </c>
@@ -13552,29 +12983,29 @@
         <f>'Информация для бумаг'!I17</f>
         <v>9</v>
       </c>
-      <c r="F15" s="80" t="str">
+      <c r="F15" s="66" t="str">
         <f>'Информация для бумаг'!K17</f>
         <v>Кораблестроителей 39-871</v>
       </c>
-      <c r="G15" s="99" t="s">
+      <c r="G15" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H15" s="102"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-    </row>
-    <row r="16" s="82" customFormat="1" spans="1:13">
-      <c r="A16" s="101">
+      <c r="H15" s="163"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="83"/>
+    </row>
+    <row r="16" spans="1:14" s="68" customFormat="1">
+      <c r="A16" s="83">
         <v>14</v>
       </c>
-      <c r="B16" s="97" t="str">
+      <c r="B16" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B18," ",'Информация для бумаг'!C18)</f>
         <v>Федорова Ксения</v>
       </c>
-      <c r="C16" s="98">
+      <c r="C16" s="81">
         <f>'Информация для бумаг'!P18</f>
         <v>40195</v>
       </c>
@@ -13586,29 +13017,29 @@
         <f>'Информация для бумаг'!I18</f>
         <v>6</v>
       </c>
-      <c r="F16" s="80" t="str">
+      <c r="F16" s="66" t="str">
         <f>'Информация для бумаг'!K18</f>
         <v>Камышовая 14 КВ 163</v>
       </c>
-      <c r="G16" s="99" t="s">
+      <c r="G16" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H16" s="102"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-    </row>
-    <row r="17" s="82" customFormat="1" ht="24" spans="1:13">
-      <c r="A17" s="96">
+      <c r="H16" s="163"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="83"/>
+    </row>
+    <row r="17" spans="1:13" s="68" customFormat="1" ht="24">
+      <c r="A17" s="79">
         <v>15</v>
       </c>
-      <c r="B17" s="97" t="str">
+      <c r="B17" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B19," ",'Информация для бумаг'!C19)</f>
         <v>Шеламова Виктория</v>
       </c>
-      <c r="C17" s="98">
+      <c r="C17" s="81">
         <f>'Информация для бумаг'!P19</f>
         <v>39529</v>
       </c>
@@ -13620,29 +13051,29 @@
         <f>'Информация для бумаг'!I19</f>
         <v>7</v>
       </c>
-      <c r="F17" s="80" t="str">
+      <c r="F17" s="66" t="str">
         <f>'Информация для бумаг'!K19</f>
         <v>п. Парголово, Приозерское шоссе (Осиновая роща),  д.16 к.4 кв.46</v>
       </c>
-      <c r="G17" s="99" t="s">
+      <c r="G17" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H17" s="102"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-    </row>
-    <row r="18" s="82" customFormat="1" spans="1:13">
-      <c r="A18" s="101">
+      <c r="H17" s="163"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
+    </row>
+    <row r="18" spans="1:13" s="68" customFormat="1">
+      <c r="A18" s="83">
         <v>16</v>
       </c>
-      <c r="B18" s="97" t="str">
+      <c r="B18" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B20," ",'Информация для бумаг'!C20)</f>
         <v>Шилонцев Андрей</v>
       </c>
-      <c r="C18" s="98">
+      <c r="C18" s="81">
         <f>'Информация для бумаг'!P20</f>
         <v>38989</v>
       </c>
@@ -13654,29 +13085,29 @@
         <f>'Информация для бумаг'!I20</f>
         <v>0</v>
       </c>
-      <c r="F18" s="80" t="str">
+      <c r="F18" s="66" t="str">
         <f>'Информация для бумаг'!K20</f>
         <v>Ленинский пр. 117-1-603</v>
       </c>
-      <c r="G18" s="99" t="s">
+      <c r="G18" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H18" s="102"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-    </row>
-    <row r="19" s="82" customFormat="1" spans="1:13">
-      <c r="A19" s="96">
+      <c r="H18" s="163"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+    </row>
+    <row r="19" spans="1:13" s="68" customFormat="1">
+      <c r="A19" s="79">
         <v>17</v>
       </c>
-      <c r="B19" s="97" t="str">
+      <c r="B19" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B21," ",'Информация для бумаг'!C21)</f>
         <v>Шишкина Анна</v>
       </c>
-      <c r="C19" s="98">
+      <c r="C19" s="81">
         <f>'Информация для бумаг'!P21</f>
         <v>39987</v>
       </c>
@@ -13688,29 +13119,29 @@
         <f>'Информация для бумаг'!I21</f>
         <v>6</v>
       </c>
-      <c r="F19" s="80" t="str">
+      <c r="F19" s="66" t="str">
         <f>'Информация для бумаг'!K21</f>
         <v>Проспект Сизова 14 кв.90</v>
       </c>
-      <c r="G19" s="99" t="s">
+      <c r="G19" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H19" s="102"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
-    </row>
-    <row r="20" s="82" customFormat="1" ht="24" spans="1:13">
-      <c r="A20" s="101">
+      <c r="H19" s="163"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+    </row>
+    <row r="20" spans="1:13" s="68" customFormat="1" ht="24">
+      <c r="A20" s="83">
         <v>18</v>
       </c>
-      <c r="B20" s="97" t="str">
+      <c r="B20" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B22," ",'Информация для бумаг'!C22)</f>
         <v>Шишкина Алина</v>
       </c>
-      <c r="C20" s="98">
+      <c r="C20" s="81">
         <f>'Информация для бумаг'!P22</f>
         <v>38070</v>
       </c>
@@ -13722,48 +13153,48 @@
         <f>'Информация для бумаг'!I22</f>
         <v>11</v>
       </c>
-      <c r="F20" s="80" t="str">
+      <c r="F20" s="66" t="str">
         <f>'Информация для бумаг'!K22</f>
         <v>Проспект Авиаконструкторов, дом 47, квартира 4</v>
       </c>
-      <c r="G20" s="99" t="s">
+      <c r="G20" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H20" s="102"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
-    </row>
-    <row r="21" s="82" customFormat="1" ht="24" customHeight="1" spans="1:13">
-      <c r="A21" s="96"/>
-      <c r="B21" s="104" t="s">
+      <c r="H20" s="163"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+    </row>
+    <row r="21" spans="1:13" s="68" customFormat="1" ht="24" customHeight="1">
+      <c r="A21" s="79"/>
+      <c r="B21" s="150" t="s">
         <v>422</v>
       </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="101"/>
-    </row>
-    <row r="22" s="82" customFormat="1" ht="21.95" customHeight="1" spans="1:13">
-      <c r="A22" s="101"/>
-      <c r="B22" s="97" t="str">
+      <c r="C21" s="151"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="163"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="83"/>
+    </row>
+    <row r="22" spans="1:13" s="68" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A22" s="83"/>
+      <c r="B22" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B33," ",'Информация для бумаг'!C33)</f>
         <v>Васильев Илья</v>
       </c>
-      <c r="C22" s="98">
+      <c r="C22" s="81">
         <f>'Информация для бумаг'!P33</f>
         <v>39462</v>
       </c>
-      <c r="D22" s="107">
+      <c r="D22" s="85">
         <f>'Информация для бумаг'!H33</f>
         <v>58</v>
       </c>
@@ -13771,31 +13202,31 @@
         <f>'Информация для бумаг'!I33</f>
         <v>7</v>
       </c>
-      <c r="F22" s="108" t="str">
+      <c r="F22" s="86" t="str">
         <f>'Информация для бумаг'!K33</f>
         <v>алл. Котельникова, д. 6, к. 1, кв. 300</v>
       </c>
-      <c r="G22" s="99" t="s">
+      <c r="G22" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H22" s="102"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="101"/>
-      <c r="L22" s="101"/>
-      <c r="M22" s="101"/>
-    </row>
-    <row r="23" s="82" customFormat="1" spans="1:13">
-      <c r="A23" s="96"/>
-      <c r="B23" s="97" t="str">
+      <c r="H22" s="163"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="83"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="83"/>
+    </row>
+    <row r="23" spans="1:13" s="68" customFormat="1">
+      <c r="A23" s="79"/>
+      <c r="B23" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B34," ",'Информация для бумаг'!C34)</f>
         <v>Мелентьева Эмма</v>
       </c>
-      <c r="C23" s="98">
+      <c r="C23" s="81">
         <f>'Информация для бумаг'!P34</f>
         <v>39581</v>
       </c>
-      <c r="D23" s="107">
+      <c r="D23" s="85">
         <f>'Информация для бумаг'!H34</f>
         <v>49</v>
       </c>
@@ -13803,31 +13234,31 @@
         <f>'Информация для бумаг'!I34</f>
         <v>7</v>
       </c>
-      <c r="F23" s="108" t="str">
+      <c r="F23" s="86" t="str">
         <f>'Информация для бумаг'!K34</f>
         <v>ул. Б. Разночинная 4-14</v>
       </c>
-      <c r="G23" s="99" t="s">
+      <c r="G23" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H23" s="102"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="101"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="101"/>
-    </row>
-    <row r="24" s="82" customFormat="1" spans="1:13">
-      <c r="A24" s="101"/>
-      <c r="B24" s="97" t="str">
+      <c r="H23" s="163"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="83"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="83"/>
+    </row>
+    <row r="24" spans="1:13" s="68" customFormat="1">
+      <c r="A24" s="83"/>
+      <c r="B24" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B35," ",'Информация для бумаг'!C35)</f>
         <v>Меньшиков  Савва</v>
       </c>
-      <c r="C24" s="98">
+      <c r="C24" s="81">
         <f>'Информация для бумаг'!P35</f>
         <v>39916</v>
       </c>
-      <c r="D24" s="107" t="str">
+      <c r="D24" s="85" t="str">
         <f>'Информация для бумаг'!H35</f>
         <v>533 лицей</v>
       </c>
@@ -13835,31 +13266,31 @@
         <f>'Информация для бумаг'!I35</f>
         <v>6</v>
       </c>
-      <c r="F24" s="108" t="str">
+      <c r="F24" s="86" t="str">
         <f>'Информация для бумаг'!K35</f>
         <v>г.СПб, Железноводская 62, 98</v>
       </c>
-      <c r="G24" s="99" t="s">
+      <c r="G24" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H24" s="102"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="101"/>
-      <c r="M24" s="101"/>
-    </row>
-    <row r="25" s="82" customFormat="1" spans="1:13">
-      <c r="A25" s="96"/>
-      <c r="B25" s="97" t="str">
+      <c r="H24" s="163"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="83"/>
+    </row>
+    <row r="25" spans="1:13" s="68" customFormat="1">
+      <c r="A25" s="79"/>
+      <c r="B25" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B36," ",'Информация для бумаг'!C36)</f>
         <v>Нужин Илья</v>
       </c>
-      <c r="C25" s="98">
+      <c r="C25" s="81">
         <f>'Информация для бумаг'!P36</f>
         <v>38933</v>
       </c>
-      <c r="D25" s="107">
+      <c r="D25" s="85">
         <f>'Информация для бумаг'!H36</f>
         <v>30</v>
       </c>
@@ -13867,31 +13298,31 @@
         <f>'Информация для бумаг'!I36</f>
         <v>8</v>
       </c>
-      <c r="F25" s="108" t="str">
+      <c r="F25" s="86" t="str">
         <f>'Информация для бумаг'!K36</f>
         <v>Наличная 37-1-4</v>
       </c>
-      <c r="G25" s="99" t="s">
+      <c r="G25" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H25" s="102"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="101"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="101"/>
-    </row>
-    <row r="26" s="82" customFormat="1" spans="1:13">
-      <c r="A26" s="96"/>
-      <c r="B26" s="97" t="str">
+      <c r="H25" s="163"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="83"/>
+    </row>
+    <row r="26" spans="1:13" s="68" customFormat="1">
+      <c r="A26" s="79"/>
+      <c r="B26" s="80" t="str">
         <f>CONCATENATE('Информация для бумаг'!B37," ",'Информация для бумаг'!C37)</f>
         <v>Тюпин Арсений</v>
       </c>
-      <c r="C26" s="98">
+      <c r="C26" s="81">
         <f>'Информация для бумаг'!P37</f>
         <v>39810</v>
       </c>
-      <c r="D26" s="107">
+      <c r="D26" s="85">
         <f>'Информация для бумаг'!H37</f>
         <v>555</v>
       </c>
@@ -13899,338 +13330,337 @@
         <f>'Информация для бумаг'!I37</f>
         <v>6</v>
       </c>
-      <c r="F26" s="108" t="str">
+      <c r="F26" s="86" t="str">
         <f>'Информация для бумаг'!K37</f>
         <v>пр.Комендантский д.23 к.1 кв 112</v>
       </c>
-      <c r="G26" s="99" t="s">
+      <c r="G26" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H26" s="102"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="101"/>
-      <c r="K26" s="101"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="101"/>
-    </row>
-    <row r="27" s="82" customFormat="1" ht="12" spans="1:13">
-      <c r="A27" s="109"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="101"/>
-      <c r="L27" s="101"/>
-      <c r="M27" s="101"/>
-    </row>
-    <row r="28" s="82" customFormat="1" spans="1:13">
-      <c r="A28" s="96"/>
-      <c r="B28" s="111" t="str">
+      <c r="H26" s="163"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="83"/>
+      <c r="L26" s="83"/>
+      <c r="M26" s="83"/>
+    </row>
+    <row r="27" spans="1:13" s="68" customFormat="1" ht="12">
+      <c r="A27" s="87"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="163"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="83"/>
+    </row>
+    <row r="28" spans="1:13" s="68" customFormat="1">
+      <c r="A28" s="79"/>
+      <c r="B28" s="89" t="str">
         <f>'Информация для бумаг'!C25</f>
         <v>Хайтов Вадим Михайлович</v>
       </c>
-      <c r="C28" s="98"/>
-      <c r="D28" s="112" t="s">
+      <c r="C28" s="81"/>
+      <c r="D28" s="153" t="s">
         <v>467</v>
       </c>
-      <c r="E28" s="113"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="101"/>
-      <c r="J28" s="101"/>
-      <c r="K28" s="101"/>
-      <c r="L28" s="101"/>
-      <c r="M28" s="101"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="83"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="101"/>
+      <c r="A29" s="83"/>
       <c r="B29" s="52" t="str">
         <f>'Информация для бумаг'!C26</f>
         <v>Котельникова Валентина Сергеевна</v>
       </c>
-      <c r="C29" s="98"/>
-      <c r="D29" s="115" t="s">
+      <c r="C29" s="81"/>
+      <c r="D29" s="155" t="s">
         <v>468</v>
       </c>
-      <c r="E29" s="116"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="102"/>
-      <c r="I29" s="133" t="s">
+      <c r="E29" s="156"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="163"/>
+      <c r="I29" s="157" t="s">
         <v>469</v>
       </c>
-      <c r="J29" s="134"/>
-      <c r="K29" s="134"/>
-      <c r="L29" s="134"/>
-      <c r="M29" s="135"/>
-    </row>
-    <row r="30" ht="15.6" spans="1:13">
-      <c r="A30" s="117" t="s">
+      <c r="J29" s="158"/>
+      <c r="K29" s="158"/>
+      <c r="L29" s="158"/>
+      <c r="M29" s="159"/>
+    </row>
+    <row r="30" spans="1:13" ht="15.75">
+      <c r="A30" s="91" t="s">
         <v>470</v>
       </c>
-      <c r="B30" s="118"/>
-      <c r="C30" s="118"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="118"/>
-      <c r="G30" s="118"/>
-      <c r="H30" s="119"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="164"/>
       <c r="I30" s="52"/>
       <c r="J30" s="52"/>
       <c r="K30" s="52"/>
       <c r="L30" s="52"/>
       <c r="M30" s="52"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1" spans="1:13">
-      <c r="A31" s="120" t="s">
+    <row r="31" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A31" s="160" t="s">
         <v>471</v>
       </c>
-      <c r="B31" s="121"/>
+      <c r="B31" s="161"/>
       <c r="C31" s="50">
         <f>'Информация для бумаг'!C30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="122"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="118"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="92"/>
       <c r="I31" s="52"/>
       <c r="J31" s="52"/>
       <c r="K31" s="52"/>
       <c r="L31" s="52"/>
       <c r="M31" s="52"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1" spans="1:13">
+    <row r="32" spans="1:13" ht="15.75" customHeight="1">
       <c r="A32" s="50" t="s">
         <v>472</v>
       </c>
-      <c r="H32" s="124" t="s">
+      <c r="H32" s="95" t="s">
         <v>473</v>
       </c>
-      <c r="I32" s="124"/>
-      <c r="J32" s="124"/>
-      <c r="K32" s="124"/>
-      <c r="L32" s="136"/>
-      <c r="M32" s="136"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1" spans="8:8">
+      <c r="I32" s="95"/>
+      <c r="J32" s="95"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="104"/>
+      <c r="M32" s="104"/>
+    </row>
+    <row r="33" spans="8:8" ht="15.75" customHeight="1">
       <c r="H33" s="50" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="34" ht="23.25" customHeight="1"/>
-    <row r="35" ht="23.25" customHeight="1"/>
-    <row r="36" ht="23.25" customHeight="1"/>
-    <row r="37" ht="23.25" customHeight="1"/>
-    <row r="38" ht="23.25" customHeight="1"/>
-    <row r="39" ht="23.25" customHeight="1"/>
-    <row r="40" ht="23.25" customHeight="1"/>
-    <row r="41" ht="23.25" customHeight="1"/>
-    <row r="42" ht="23.25" customHeight="1"/>
+    <row r="34" spans="8:8" ht="23.25" customHeight="1"/>
+    <row r="35" spans="8:8" ht="23.25" customHeight="1"/>
+    <row r="36" spans="8:8" ht="23.25" customHeight="1"/>
+    <row r="37" spans="8:8" ht="23.25" customHeight="1"/>
+    <row r="38" spans="8:8" ht="23.25" customHeight="1"/>
+    <row r="39" spans="8:8" ht="23.25" customHeight="1"/>
+    <row r="40" spans="8:8" ht="23.25" customHeight="1"/>
+    <row r="41" spans="8:8" ht="23.25" customHeight="1"/>
+    <row r="42" spans="8:8" ht="23.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="H3:H30"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="I29:M29"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="H3:H30"/>
   </mergeCells>
-  <pageMargins left="0.2" right="0.229166666666667" top="0.25" bottom="0.25" header="0" footer="0"/>
+  <pageMargins left="0.2" right="0.22916666666666699" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="97" orientation="landscape"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="A2:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" style="50" customWidth="1"/>
     <col min="2" max="6" width="8" style="50"/>
-    <col min="7" max="7" width="23.5740740740741" style="50" customWidth="1"/>
-    <col min="8" max="8" width="10.712962962963" style="50" customWidth="1"/>
-    <col min="9" max="9" width="3.85185185185185" style="50" customWidth="1"/>
-    <col min="10" max="10" width="9.42592592592593" style="50" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="50" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="50" customWidth="1"/>
+    <col min="9" max="9" width="3.85546875" style="50" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="50" customWidth="1"/>
     <col min="11" max="11" width="8" style="50"/>
-    <col min="12" max="12" width="13.1388888888889" style="50"/>
-    <col min="13" max="13" width="9.85185185185185" style="50"/>
+    <col min="12" max="12" width="13.140625" style="50"/>
+    <col min="13" max="13" width="9.85546875" style="50"/>
     <col min="14" max="14" width="8" style="50"/>
-    <col min="15" max="15" width="1.57407407407407" style="50" customWidth="1"/>
+    <col min="15" max="15" width="1.5703125" style="50" customWidth="1"/>
     <col min="16" max="16384" width="8" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" spans="1:14">
+    <row r="1" spans="1:14" ht="12.75" customHeight="1">
       <c r="A1" s="60" t="s">
         <v>475</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="165" t="s">
         <v>476</v>
       </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:14">
-      <c r="A2" s="62" t="s">
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A2" s="174" t="s">
         <v>477</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="61" t="s">
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="165" t="s">
         <v>478</v>
       </c>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-    </row>
-    <row r="3" ht="12.75" customHeight="1" spans="1:7">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="64"/>
-    </row>
-    <row r="4" ht="12.75" customHeight="1" spans="1:14">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="65" t="s">
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+    </row>
+    <row r="3" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A3" s="175"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="62"/>
+    </row>
+    <row r="4" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A4" s="175"/>
+      <c r="B4" s="175"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="166" t="s">
         <v>479</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-    </row>
-    <row r="6" ht="18" spans="1:14">
-      <c r="A6" s="63"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="H6" s="61" t="s">
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="166"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="175"/>
+      <c r="B5" s="175"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+    </row>
+    <row r="6" spans="1:14" ht="18.75">
+      <c r="A6" s="175"/>
+      <c r="B6" s="175"/>
+      <c r="C6" s="175"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="175"/>
+      <c r="F6" s="175"/>
+      <c r="H6" s="165" t="s">
         <v>480</v>
       </c>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="66" t="s">
+      <c r="I6" s="165"/>
+      <c r="J6" s="165"/>
+      <c r="K6" s="165"/>
+      <c r="L6" s="165"/>
+      <c r="M6" s="165"/>
+      <c r="N6" s="165"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" s="63" t="s">
         <v>481</v>
       </c>
-      <c r="I7" s="84" t="s">
+      <c r="I7" s="70" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1" spans="1:8">
-      <c r="A8" s="67" t="s">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A8" s="172" t="s">
         <v>483</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="176" t="s">
         <v>484</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
-      <c r="H8" s="71" t="s">
+      <c r="C8" s="177"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="178"/>
+      <c r="H8" s="64" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="1:10">
-      <c r="A9" s="67"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="74"/>
+    <row r="9" spans="1:14" ht="15.75">
+      <c r="A9" s="172"/>
+      <c r="B9" s="179"/>
+      <c r="C9" s="180"/>
+      <c r="D9" s="180"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="181"/>
       <c r="H9" s="61" t="s">
         <v>486</v>
       </c>
       <c r="I9" s="50">
         <v>18</v>
       </c>
-      <c r="J9" s="81" t="s">
+      <c r="J9" s="67" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="10" ht="45" customHeight="1" spans="1:14">
-      <c r="A10" s="75" t="s">
+    <row r="10" spans="1:14" ht="45" customHeight="1">
+      <c r="A10" s="173" t="s">
         <v>488</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="182" t="s">
         <v>489</v>
       </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="H10" s="64" t="s">
+      <c r="C10" s="182"/>
+      <c r="D10" s="182"/>
+      <c r="E10" s="182"/>
+      <c r="F10" s="182"/>
+      <c r="H10" s="62" t="s">
         <v>490</v>
       </c>
-      <c r="J10" s="85" t="str">
+      <c r="J10" s="167" t="str">
         <f>'Информация для бумаг'!C3</f>
         <v>Санкт-Петербург - Толмачево- д.Ящера-Толмачево- Санкт-Петербург</v>
       </c>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="75"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
+      <c r="K10" s="168"/>
+      <c r="L10" s="168"/>
+      <c r="M10" s="168"/>
+      <c r="N10" s="168"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="173"/>
+      <c r="B11" s="182"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="182"/>
+      <c r="F11" s="182"/>
       <c r="H11" s="55" t="s">
         <v>491</v>
       </c>
-      <c r="I11" s="87">
+      <c r="I11" s="71">
         <f>DAYS360('Информация для бумаг'!C2,'Информация для бумаг'!D2)-1</f>
         <v>4</v>
       </c>
@@ -14238,66 +13668,66 @@
         <v>492</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="1:12">
-      <c r="A12" s="77">
+    <row r="12" spans="1:14" ht="15.75">
+      <c r="A12" s="65">
         <v>44320</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="169" t="s">
         <v>493</v>
       </c>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="H12" s="79" t="s">
+      <c r="C12" s="169"/>
+      <c r="D12" s="169"/>
+      <c r="E12" s="169"/>
+      <c r="F12" s="169"/>
+      <c r="H12" s="170" t="s">
         <v>494</v>
       </c>
-      <c r="I12" s="79"/>
-      <c r="J12" s="88">
+      <c r="I12" s="170"/>
+      <c r="J12" s="72">
         <f>'Информация для бумаг'!C2</f>
         <v>44680</v>
       </c>
-      <c r="K12" s="89" t="s">
+      <c r="K12" s="73" t="s">
         <v>495</v>
       </c>
-      <c r="L12" s="90">
+      <c r="L12" s="74">
         <f>'Информация для бумаг'!D2</f>
         <v>44685</v>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1" spans="1:6">
-      <c r="A13" s="75"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-    </row>
-    <row r="14" ht="15.6" spans="1:14">
-      <c r="A14" s="75"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="H14" s="81" t="s">
+    <row r="13" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A13" s="173"/>
+      <c r="B13" s="183"/>
+      <c r="C13" s="183"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="183"/>
+      <c r="F13" s="183"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75">
+      <c r="A14" s="173"/>
+      <c r="B14" s="183"/>
+      <c r="C14" s="183"/>
+      <c r="D14" s="183"/>
+      <c r="E14" s="183"/>
+      <c r="F14" s="183"/>
+      <c r="H14" s="67" t="s">
         <v>496</v>
       </c>
-      <c r="K14" s="89" t="str">
+      <c r="K14" s="171" t="str">
         <f>'Информация для бумаг'!C25</f>
         <v>Хайтов Вадим Михайлович</v>
       </c>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="75"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
+      <c r="L14" s="171"/>
+      <c r="M14" s="171"/>
+      <c r="N14" s="171"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="173"/>
+      <c r="B15" s="183"/>
+      <c r="C15" s="183"/>
+      <c r="D15" s="183"/>
+      <c r="E15" s="183"/>
+      <c r="F15" s="183"/>
       <c r="K15" s="55" t="s">
         <v>416</v>
       </c>
@@ -14306,55 +13736,55 @@
         <v>89217427984</v>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A16" s="75"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="H16" s="82" t="s">
+    <row r="16" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A16" s="173"/>
+      <c r="B16" s="182"/>
+      <c r="C16" s="182"/>
+      <c r="D16" s="182"/>
+      <c r="E16" s="182"/>
+      <c r="F16" s="182"/>
+      <c r="H16" s="68" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="75"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="H17" s="83" t="s">
+    <row r="17" spans="1:14">
+      <c r="A17" s="173"/>
+      <c r="B17" s="182"/>
+      <c r="C17" s="182"/>
+      <c r="D17" s="182"/>
+      <c r="E17" s="182"/>
+      <c r="F17" s="182"/>
+      <c r="H17" s="69" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="75"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-    </row>
-    <row r="19" ht="15.6" spans="1:14">
-      <c r="A19" s="75"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="H19" s="81" t="s">
+    <row r="18" spans="1:14">
+      <c r="A18" s="173"/>
+      <c r="B18" s="182"/>
+      <c r="C18" s="182"/>
+      <c r="D18" s="182"/>
+      <c r="E18" s="182"/>
+      <c r="F18" s="182"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75">
+      <c r="A19" s="173"/>
+      <c r="B19" s="182"/>
+      <c r="C19" s="182"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="182"/>
+      <c r="F19" s="182"/>
+      <c r="H19" s="67" t="s">
         <v>499</v>
       </c>
-      <c r="K19" s="89" t="str">
+      <c r="K19" s="171" t="str">
         <f>'Информация для бумаг'!C26</f>
         <v>Котельникова Валентина Сергеевна</v>
       </c>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="89"/>
-    </row>
-    <row r="20" spans="11:12">
+      <c r="L19" s="171"/>
+      <c r="M19" s="171"/>
+      <c r="N19" s="171"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="K20" s="55" t="s">
         <v>416</v>
       </c>
@@ -14363,53 +13793,53 @@
         <v>89679796720</v>
       </c>
     </row>
-    <row r="22" ht="12.75" customHeight="1" spans="8:14">
-      <c r="H22" s="61" t="s">
+    <row r="22" spans="1:14" ht="12.75" customHeight="1">
+      <c r="H22" s="165" t="s">
         <v>500</v>
       </c>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-    </row>
-    <row r="23" ht="12.75" customHeight="1" spans="8:14">
-      <c r="H23" s="61" t="s">
+      <c r="I22" s="165"/>
+      <c r="J22" s="165"/>
+      <c r="K22" s="165"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="165"/>
+      <c r="N22" s="165"/>
+    </row>
+    <row r="23" spans="1:14" ht="12.75" customHeight="1">
+      <c r="H23" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-    </row>
-    <row r="25" ht="15.6" spans="8:13">
-      <c r="H25" s="81" t="s">
+      <c r="I23" s="165"/>
+      <c r="J23" s="165"/>
+      <c r="K23" s="165"/>
+      <c r="L23" s="165"/>
+      <c r="M23" s="165"/>
+      <c r="N23" s="165"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75">
+      <c r="H25" s="67" t="s">
         <v>502</v>
       </c>
-      <c r="M25" s="91">
+      <c r="M25" s="75">
         <f>'Информация для бумаг'!C28</f>
         <v>44669</v>
       </c>
     </row>
-    <row r="26" ht="15.6" spans="1:9">
-      <c r="A26" s="81" t="s">
+    <row r="26" spans="1:14" ht="15.75">
+      <c r="A26" s="67" t="s">
         <v>503</v>
       </c>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81" t="s">
+      <c r="H26" s="67"/>
+      <c r="I26" s="67" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="28" ht="15.6" spans="8:8">
-      <c r="H28" s="81" t="s">
+    <row r="28" spans="1:14" ht="15.75">
+      <c r="H28" s="67" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="29" ht="15.6" spans="8:12">
-      <c r="H29" s="81" t="s">
+    <row r="29" spans="1:14" ht="15.75">
+      <c r="H29" s="67" t="s">
         <v>506</v>
       </c>
       <c r="K29" s="50">
@@ -14420,19 +13850,19 @@
         <v>507</v>
       </c>
     </row>
-    <row r="30" ht="15.6" spans="1:8">
-      <c r="A30" s="81" t="s">
+    <row r="30" spans="1:14" ht="15.75">
+      <c r="A30" s="67" t="s">
         <v>508</v>
       </c>
-      <c r="H30" s="81"/>
-    </row>
-    <row r="31" ht="15.6" spans="8:8">
-      <c r="H31" s="81" t="s">
+      <c r="H30" s="67"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.75">
+      <c r="H31" s="67" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="32" ht="15.6" spans="8:12">
-      <c r="H32" s="81" t="s">
+    <row r="32" spans="1:14" ht="15.75">
+      <c r="H32" s="67" t="s">
         <v>510</v>
       </c>
       <c r="K32" s="50">
@@ -14443,42 +13873,42 @@
         <v>507</v>
       </c>
     </row>
-    <row r="33" ht="15.6" spans="8:8">
-      <c r="H33" s="83" t="s">
+    <row r="33" spans="8:8" ht="15.75">
+      <c r="H33" s="69" t="s">
         <v>511</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A2:F6"/>
+    <mergeCell ref="B8:F9"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="B13:F15"/>
+    <mergeCell ref="B16:F19"/>
+    <mergeCell ref="H23:N23"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="H22:N22"/>
     <mergeCell ref="H1:N1"/>
     <mergeCell ref="H2:N2"/>
     <mergeCell ref="H4:N4"/>
     <mergeCell ref="H6:N6"/>
     <mergeCell ref="J10:N10"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="H23:N23"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A2:F6"/>
-    <mergeCell ref="B8:F9"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="B13:F15"/>
-    <mergeCell ref="B16:F19"/>
   </mergeCells>
-  <pageMargins left="0.388888888888889" right="0.388888888888889" top="0.388888888888889" bottom="0.588888888888889" header="0" footer="0.509027777777778"/>
+  <pageMargins left="0.38888888888888901" right="0.38888888888888901" top="0.38888888888888901" bottom="0.58888888888888902" header="0" footer="0.50902777777777797"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -14488,25 +13918,25 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.42592592592593" style="50"/>
-    <col min="2" max="2" width="35.712962962963" style="50" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="50"/>
+    <col min="2" max="2" width="35.7109375" style="50" customWidth="1"/>
     <col min="3" max="4" width="8" style="50"/>
-    <col min="5" max="5" width="12.8518518518519" style="50"/>
-    <col min="6" max="6" width="27.4259259259259" style="50" customWidth="1"/>
-    <col min="7" max="7" width="17.287037037037" style="55" customWidth="1"/>
-    <col min="8" max="8" width="30.287037037037" style="50" customWidth="1"/>
-    <col min="9" max="9" width="24.287037037037" style="50" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="50"/>
+    <col min="6" max="6" width="27.42578125" style="50" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="55" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" style="50" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" style="50" customWidth="1"/>
     <col min="10" max="16384" width="8" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:9">
       <c r="B1" s="50" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:9">
       <c r="B2" s="50" t="s">
         <v>513</v>
       </c>
@@ -14612,7 +14042,7 @@
         <v>89052006465</v>
       </c>
     </row>
-    <row r="7" ht="26.4" spans="1:9">
+    <row r="7" spans="1:9" ht="25.5">
       <c r="A7" s="52">
         <v>3</v>
       </c>
@@ -14649,7 +14079,7 @@
         <v>89213414725</v>
       </c>
     </row>
-    <row r="8" ht="26.4" spans="1:9">
+    <row r="8" spans="1:9" ht="25.5">
       <c r="A8" s="52">
         <v>4</v>
       </c>
@@ -14871,7 +14301,7 @@
         <v>89213323160</v>
       </c>
     </row>
-    <row r="14" ht="26.4" spans="1:9">
+    <row r="14" spans="1:9" ht="25.5">
       <c r="A14" s="52">
         <v>10</v>
       </c>
@@ -15056,7 +14486,7 @@
         <v>89657737525</v>
       </c>
     </row>
-    <row r="19" ht="39.6" spans="1:9">
+    <row r="19" spans="1:9" ht="38.25">
       <c r="A19" s="52">
         <v>15</v>
       </c>
@@ -15167,7 +14597,7 @@
         <v>89118110171</v>
       </c>
     </row>
-    <row r="22" ht="26.4" spans="1:9">
+    <row r="22" spans="1:9" ht="25.5">
       <c r="A22" s="52">
         <v>18</v>
       </c>
@@ -15215,7 +14645,7 @@
       <c r="H23" s="52"/>
       <c r="I23" s="52"/>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:9">
       <c r="B25" s="50" t="str">
         <f>'Информация для бумаг'!C25</f>
         <v>Хайтов Вадим Михайлович</v>
@@ -15224,7 +14654,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="1:9">
       <c r="B27" s="50" t="str">
         <f>'Информация для бумаг'!C26</f>
         <v>Котельникова Валентина Сергеевна</v>
@@ -15236,34 +14666,33 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="32.1388888888889" style="50" customWidth="1"/>
-    <col min="2" max="2" width="16.8518518518519" style="50" customWidth="1"/>
-    <col min="3" max="3" width="18.712962962963" style="50" customWidth="1"/>
-    <col min="4" max="4" width="13.1388888888889" style="50" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" style="50" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="50" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="50" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="50" customWidth="1"/>
     <col min="5" max="16384" width="8" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1" s="51" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="2" ht="82.5" customHeight="1" spans="1:4">
+    <row r="2" spans="1:4" ht="82.5" customHeight="1">
       <c r="A2" s="52" t="s">
         <v>514</v>
       </c>
@@ -15586,6 +15015,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/Jashera 2022/Jashera 2022.xlsx
+++ b/Jashera 2022/Jashera 2022.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9270" tabRatio="804" firstSheet="8" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9270" tabRatio="653" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Список оборудования" sheetId="12" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <definedName name="_ftn1" localSheetId="6">'Маршлист внешняя сторона'!$H$29</definedName>
     <definedName name="_ftnref1" localSheetId="6">'Маршлист внешняя сторона'!$H$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Список для страховки'!$A$1:$F$25</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Участники!$A$1:$Z$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Участники!$F$1:$F$29</definedName>
     <definedName name="class" localSheetId="7">[1]Справочник!$H$2:$H$14</definedName>
     <definedName name="class" localSheetId="2">[2]Справочник!$H$2:$H$14</definedName>
     <definedName name="class">[3]Справочник!$H$2:$H$14</definedName>
@@ -43,7 +43,7 @@
     <definedName name="dist" localSheetId="2">[2]Справочник!$F$2:$F$19</definedName>
     <definedName name="dist">[4]Справочник!$F$2:$F$19</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -2289,13 +2289,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="167" formatCode="dd\.mm\.yyyy\ h:mm"/>
-    <numFmt numFmtId="169" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="170" formatCode="dd\.mm\.yyyy;@"/>
-    <numFmt numFmtId="171" formatCode="dd\.mmm"/>
-    <numFmt numFmtId="172" formatCode="[$-419]d\ mm\ yyyy;@"/>
-    <numFmt numFmtId="173" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
-    <numFmt numFmtId="174" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy\ h:mm"/>
+    <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="166" formatCode="dd\.mm\.yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="168" formatCode="[$-419]d\ mm\ yyyy;@"/>
+    <numFmt numFmtId="169" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -2758,28 +2758,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -2788,7 +2788,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2797,7 +2797,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2806,7 +2806,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2818,7 +2818,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2836,7 +2836,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2861,7 +2861,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
@@ -2901,7 +2901,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2912,12 +2912,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2933,7 +2933,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2999,8 +2999,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3033,11 +3033,11 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="25" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="25" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3077,6 +3077,21 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3110,48 +3125,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3181,6 +3154,33 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4293,11 +4293,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M25" sqref="M25"/>
+      <selection pane="bottomRight" activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -6295,9 +6295,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z25">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="F1:F29"/>
   <sortState ref="B2:AF24">
     <sortCondition ref="B2:B24"/>
   </sortState>
@@ -9541,7 +9539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
@@ -12465,23 +12463,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="154" t="s">
         <v>445</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149" t="s">
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154" t="s">
         <v>446</v>
       </c>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
     </row>
     <row r="2" spans="1:14" ht="51.95" customHeight="1">
       <c r="A2" s="76" t="s">
@@ -12551,7 +12549,7 @@
       <c r="G3" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H3" s="162" t="s">
+      <c r="H3" s="151" t="s">
         <v>458</v>
       </c>
       <c r="I3" s="83">
@@ -12598,7 +12596,7 @@
       <c r="G4" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H4" s="163"/>
+      <c r="H4" s="152"/>
       <c r="I4" s="79">
         <v>2</v>
       </c>
@@ -12641,7 +12639,7 @@
       <c r="G5" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H5" s="163"/>
+      <c r="H5" s="152"/>
       <c r="I5" s="83">
         <v>3</v>
       </c>
@@ -12686,7 +12684,7 @@
       <c r="G6" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H6" s="163"/>
+      <c r="H6" s="152"/>
       <c r="I6" s="83"/>
       <c r="J6" s="98"/>
       <c r="K6" s="99"/>
@@ -12721,7 +12719,7 @@
       <c r="G7" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H7" s="163"/>
+      <c r="H7" s="152"/>
       <c r="I7" s="79"/>
       <c r="J7" s="98"/>
       <c r="K7" s="99"/>
@@ -12756,7 +12754,7 @@
       <c r="G8" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H8" s="163"/>
+      <c r="H8" s="152"/>
       <c r="N8" s="103"/>
     </row>
     <row r="9" spans="1:14" s="68" customFormat="1">
@@ -12786,7 +12784,7 @@
       <c r="G9" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H9" s="163"/>
+      <c r="H9" s="152"/>
       <c r="I9" s="83"/>
       <c r="J9" s="83"/>
       <c r="K9" s="83"/>
@@ -12820,7 +12818,7 @@
       <c r="G10" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H10" s="163"/>
+      <c r="H10" s="152"/>
       <c r="I10" s="83"/>
       <c r="J10" s="83"/>
       <c r="K10" s="83"/>
@@ -12854,7 +12852,7 @@
       <c r="G11" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H11" s="163"/>
+      <c r="H11" s="152"/>
       <c r="I11" s="83"/>
       <c r="J11" s="83"/>
       <c r="K11" s="83"/>
@@ -12888,7 +12886,7 @@
       <c r="G12" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H12" s="163"/>
+      <c r="H12" s="152"/>
       <c r="I12" s="83"/>
       <c r="J12" s="83"/>
       <c r="K12" s="83"/>
@@ -12922,7 +12920,7 @@
       <c r="G13" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H13" s="163"/>
+      <c r="H13" s="152"/>
       <c r="I13" s="83"/>
       <c r="J13" s="83"/>
       <c r="K13" s="83"/>
@@ -12956,7 +12954,7 @@
       <c r="G14" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H14" s="163"/>
+      <c r="H14" s="152"/>
       <c r="I14" s="83"/>
       <c r="J14" s="83"/>
       <c r="K14" s="83"/>
@@ -12990,7 +12988,7 @@
       <c r="G15" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H15" s="163"/>
+      <c r="H15" s="152"/>
       <c r="I15" s="83"/>
       <c r="J15" s="83"/>
       <c r="K15" s="83"/>
@@ -13024,7 +13022,7 @@
       <c r="G16" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H16" s="163"/>
+      <c r="H16" s="152"/>
       <c r="I16" s="83"/>
       <c r="J16" s="83"/>
       <c r="K16" s="83"/>
@@ -13058,7 +13056,7 @@
       <c r="G17" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H17" s="163"/>
+      <c r="H17" s="152"/>
       <c r="I17" s="83"/>
       <c r="J17" s="83"/>
       <c r="K17" s="83"/>
@@ -13092,7 +13090,7 @@
       <c r="G18" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H18" s="163"/>
+      <c r="H18" s="152"/>
       <c r="I18" s="83"/>
       <c r="J18" s="83"/>
       <c r="K18" s="83"/>
@@ -13126,7 +13124,7 @@
       <c r="G19" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H19" s="163"/>
+      <c r="H19" s="152"/>
       <c r="I19" s="83"/>
       <c r="J19" s="83"/>
       <c r="K19" s="83"/>
@@ -13160,7 +13158,7 @@
       <c r="G20" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H20" s="163"/>
+      <c r="H20" s="152"/>
       <c r="I20" s="83"/>
       <c r="J20" s="83"/>
       <c r="K20" s="83"/>
@@ -13169,15 +13167,15 @@
     </row>
     <row r="21" spans="1:13" s="68" customFormat="1" ht="24" customHeight="1">
       <c r="A21" s="79"/>
-      <c r="B21" s="150" t="s">
+      <c r="B21" s="155" t="s">
         <v>422</v>
       </c>
-      <c r="C21" s="151"/>
-      <c r="D21" s="151"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="152"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="156"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="157"/>
       <c r="G21" s="82"/>
-      <c r="H21" s="163"/>
+      <c r="H21" s="152"/>
       <c r="I21" s="83"/>
       <c r="J21" s="83"/>
       <c r="K21" s="83"/>
@@ -13209,7 +13207,7 @@
       <c r="G22" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H22" s="163"/>
+      <c r="H22" s="152"/>
       <c r="I22" s="83"/>
       <c r="J22" s="83"/>
       <c r="K22" s="83"/>
@@ -13241,7 +13239,7 @@
       <c r="G23" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H23" s="163"/>
+      <c r="H23" s="152"/>
       <c r="I23" s="83"/>
       <c r="J23" s="83"/>
       <c r="K23" s="83"/>
@@ -13273,7 +13271,7 @@
       <c r="G24" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H24" s="163"/>
+      <c r="H24" s="152"/>
       <c r="I24" s="83"/>
       <c r="J24" s="83"/>
       <c r="K24" s="83"/>
@@ -13305,7 +13303,7 @@
       <c r="G25" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H25" s="163"/>
+      <c r="H25" s="152"/>
       <c r="I25" s="83"/>
       <c r="J25" s="83"/>
       <c r="K25" s="83"/>
@@ -13337,7 +13335,7 @@
       <c r="G26" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="H26" s="163"/>
+      <c r="H26" s="152"/>
       <c r="I26" s="83"/>
       <c r="J26" s="83"/>
       <c r="K26" s="83"/>
@@ -13347,7 +13345,7 @@
     <row r="27" spans="1:13" s="68" customFormat="1" ht="12">
       <c r="A27" s="87"/>
       <c r="G27" s="88"/>
-      <c r="H27" s="163"/>
+      <c r="H27" s="152"/>
       <c r="I27" s="83"/>
       <c r="J27" s="83"/>
       <c r="K27" s="83"/>
@@ -13361,13 +13359,13 @@
         <v>Хайтов Вадим Михайлович</v>
       </c>
       <c r="C28" s="81"/>
-      <c r="D28" s="153" t="s">
+      <c r="D28" s="158" t="s">
         <v>467</v>
       </c>
-      <c r="E28" s="154"/>
+      <c r="E28" s="159"/>
       <c r="F28" s="90"/>
       <c r="G28" s="82"/>
-      <c r="H28" s="163"/>
+      <c r="H28" s="152"/>
       <c r="I28" s="83"/>
       <c r="J28" s="83"/>
       <c r="K28" s="83"/>
@@ -13381,20 +13379,20 @@
         <v>Котельникова Валентина Сергеевна</v>
       </c>
       <c r="C29" s="81"/>
-      <c r="D29" s="155" t="s">
+      <c r="D29" s="160" t="s">
         <v>468</v>
       </c>
-      <c r="E29" s="156"/>
+      <c r="E29" s="161"/>
       <c r="F29" s="90"/>
       <c r="G29" s="82"/>
-      <c r="H29" s="163"/>
-      <c r="I29" s="157" t="s">
+      <c r="H29" s="152"/>
+      <c r="I29" s="162" t="s">
         <v>469</v>
       </c>
-      <c r="J29" s="158"/>
-      <c r="K29" s="158"/>
-      <c r="L29" s="158"/>
-      <c r="M29" s="159"/>
+      <c r="J29" s="163"/>
+      <c r="K29" s="163"/>
+      <c r="L29" s="163"/>
+      <c r="M29" s="164"/>
     </row>
     <row r="30" spans="1:13" ht="15.75">
       <c r="A30" s="91" t="s">
@@ -13406,7 +13404,7 @@
       <c r="E30" s="92"/>
       <c r="F30" s="92"/>
       <c r="G30" s="92"/>
-      <c r="H30" s="164"/>
+      <c r="H30" s="153"/>
       <c r="I30" s="52"/>
       <c r="J30" s="52"/>
       <c r="K30" s="52"/>
@@ -13414,10 +13412,10 @@
       <c r="M30" s="52"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A31" s="160" t="s">
+      <c r="A31" s="149" t="s">
         <v>471</v>
       </c>
-      <c r="B31" s="161"/>
+      <c r="B31" s="150"/>
       <c r="C31" s="50">
         <f>'Информация для бумаг'!C30</f>
         <v>0</v>
@@ -13505,87 +13503,87 @@
       <c r="A1" s="60" t="s">
         <v>475</v>
       </c>
-      <c r="H1" s="165" t="s">
+      <c r="H1" s="175" t="s">
         <v>476</v>
       </c>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="165"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
+      <c r="M1" s="175"/>
+      <c r="N1" s="175"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="165" t="s">
         <v>477</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
       <c r="G2" s="62"/>
-      <c r="H2" s="165" t="s">
+      <c r="H2" s="175" t="s">
         <v>478</v>
       </c>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
-      <c r="N2" s="165"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="175"/>
+      <c r="N2" s="175"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="175"/>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
+      <c r="A3" s="166"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
       <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="175"/>
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
+      <c r="A4" s="166"/>
+      <c r="B4" s="166"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
       <c r="G4" s="62"/>
-      <c r="H4" s="166" t="s">
+      <c r="H4" s="181" t="s">
         <v>479</v>
       </c>
-      <c r="I4" s="166"/>
-      <c r="J4" s="166"/>
-      <c r="K4" s="166"/>
-      <c r="L4" s="166"/>
-      <c r="M4" s="166"/>
-      <c r="N4" s="166"/>
+      <c r="I4" s="181"/>
+      <c r="J4" s="181"/>
+      <c r="K4" s="181"/>
+      <c r="L4" s="181"/>
+      <c r="M4" s="181"/>
+      <c r="N4" s="181"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="175"/>
-      <c r="B5" s="175"/>
-      <c r="C5" s="175"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="175"/>
-      <c r="F5" s="175"/>
+      <c r="A5" s="166"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
     </row>
     <row r="6" spans="1:14" ht="18.75">
-      <c r="A6" s="175"/>
-      <c r="B6" s="175"/>
-      <c r="C6" s="175"/>
-      <c r="D6" s="175"/>
-      <c r="E6" s="175"/>
-      <c r="F6" s="175"/>
-      <c r="H6" s="165" t="s">
+      <c r="A6" s="166"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="166"/>
+      <c r="H6" s="175" t="s">
         <v>480</v>
       </c>
-      <c r="I6" s="165"/>
-      <c r="J6" s="165"/>
-      <c r="K6" s="165"/>
-      <c r="L6" s="165"/>
-      <c r="M6" s="165"/>
-      <c r="N6" s="165"/>
+      <c r="I6" s="175"/>
+      <c r="J6" s="175"/>
+      <c r="K6" s="175"/>
+      <c r="L6" s="175"/>
+      <c r="M6" s="175"/>
+      <c r="N6" s="175"/>
     </row>
     <row r="7" spans="1:14">
       <c r="B7" s="63" t="s">
@@ -13596,27 +13594,27 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A8" s="172" t="s">
+      <c r="A8" s="176" t="s">
         <v>483</v>
       </c>
-      <c r="B8" s="176" t="s">
+      <c r="B8" s="167" t="s">
         <v>484</v>
       </c>
-      <c r="C8" s="177"/>
-      <c r="D8" s="177"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="178"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="169"/>
       <c r="H8" s="64" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75">
-      <c r="A9" s="172"/>
-      <c r="B9" s="179"/>
-      <c r="C9" s="180"/>
-      <c r="D9" s="180"/>
-      <c r="E9" s="180"/>
-      <c r="F9" s="181"/>
+      <c r="A9" s="176"/>
+      <c r="B9" s="170"/>
+      <c r="C9" s="171"/>
+      <c r="D9" s="171"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="172"/>
       <c r="H9" s="61" t="s">
         <v>486</v>
       </c>
@@ -13628,35 +13626,35 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="45" customHeight="1">
-      <c r="A10" s="173" t="s">
+      <c r="A10" s="177" t="s">
         <v>488</v>
       </c>
-      <c r="B10" s="182" t="s">
+      <c r="B10" s="173" t="s">
         <v>489</v>
       </c>
-      <c r="C10" s="182"/>
-      <c r="D10" s="182"/>
-      <c r="E10" s="182"/>
-      <c r="F10" s="182"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="173"/>
       <c r="H10" s="62" t="s">
         <v>490</v>
       </c>
-      <c r="J10" s="167" t="str">
+      <c r="J10" s="182" t="str">
         <f>'Информация для бумаг'!C3</f>
         <v>Санкт-Петербург - Толмачево- д.Ящера-Толмачево- Санкт-Петербург</v>
       </c>
-      <c r="K10" s="168"/>
-      <c r="L10" s="168"/>
-      <c r="M10" s="168"/>
-      <c r="N10" s="168"/>
+      <c r="K10" s="183"/>
+      <c r="L10" s="183"/>
+      <c r="M10" s="183"/>
+      <c r="N10" s="183"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="173"/>
-      <c r="B11" s="182"/>
-      <c r="C11" s="182"/>
-      <c r="D11" s="182"/>
-      <c r="E11" s="182"/>
-      <c r="F11" s="182"/>
+      <c r="A11" s="177"/>
+      <c r="B11" s="173"/>
+      <c r="C11" s="173"/>
+      <c r="D11" s="173"/>
+      <c r="E11" s="173"/>
+      <c r="F11" s="173"/>
       <c r="H11" s="55" t="s">
         <v>491</v>
       </c>
@@ -13672,17 +13670,17 @@
       <c r="A12" s="65">
         <v>44320</v>
       </c>
-      <c r="B12" s="169" t="s">
+      <c r="B12" s="178" t="s">
         <v>493</v>
       </c>
-      <c r="C12" s="169"/>
-      <c r="D12" s="169"/>
-      <c r="E12" s="169"/>
-      <c r="F12" s="169"/>
-      <c r="H12" s="170" t="s">
+      <c r="C12" s="178"/>
+      <c r="D12" s="178"/>
+      <c r="E12" s="178"/>
+      <c r="F12" s="178"/>
+      <c r="H12" s="179" t="s">
         <v>494</v>
       </c>
-      <c r="I12" s="170"/>
+      <c r="I12" s="179"/>
       <c r="J12" s="72">
         <f>'Информация для бумаг'!C2</f>
         <v>44680</v>
@@ -13696,38 +13694,38 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A13" s="173"/>
-      <c r="B13" s="183"/>
-      <c r="C13" s="183"/>
-      <c r="D13" s="183"/>
-      <c r="E13" s="183"/>
-      <c r="F13" s="183"/>
+      <c r="A13" s="177"/>
+      <c r="B13" s="174"/>
+      <c r="C13" s="174"/>
+      <c r="D13" s="174"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="174"/>
     </row>
     <row r="14" spans="1:14" ht="15.75">
-      <c r="A14" s="173"/>
-      <c r="B14" s="183"/>
-      <c r="C14" s="183"/>
-      <c r="D14" s="183"/>
-      <c r="E14" s="183"/>
-      <c r="F14" s="183"/>
+      <c r="A14" s="177"/>
+      <c r="B14" s="174"/>
+      <c r="C14" s="174"/>
+      <c r="D14" s="174"/>
+      <c r="E14" s="174"/>
+      <c r="F14" s="174"/>
       <c r="H14" s="67" t="s">
         <v>496</v>
       </c>
-      <c r="K14" s="171" t="str">
+      <c r="K14" s="180" t="str">
         <f>'Информация для бумаг'!C25</f>
         <v>Хайтов Вадим Михайлович</v>
       </c>
-      <c r="L14" s="171"/>
-      <c r="M14" s="171"/>
-      <c r="N14" s="171"/>
+      <c r="L14" s="180"/>
+      <c r="M14" s="180"/>
+      <c r="N14" s="180"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="173"/>
-      <c r="B15" s="183"/>
-      <c r="C15" s="183"/>
-      <c r="D15" s="183"/>
-      <c r="E15" s="183"/>
-      <c r="F15" s="183"/>
+      <c r="A15" s="177"/>
+      <c r="B15" s="174"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="174"/>
       <c r="K15" s="55" t="s">
         <v>416</v>
       </c>
@@ -13737,52 +13735,52 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A16" s="173"/>
-      <c r="B16" s="182"/>
-      <c r="C16" s="182"/>
-      <c r="D16" s="182"/>
-      <c r="E16" s="182"/>
-      <c r="F16" s="182"/>
+      <c r="A16" s="177"/>
+      <c r="B16" s="173"/>
+      <c r="C16" s="173"/>
+      <c r="D16" s="173"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="173"/>
       <c r="H16" s="68" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="173"/>
-      <c r="B17" s="182"/>
-      <c r="C17" s="182"/>
-      <c r="D17" s="182"/>
-      <c r="E17" s="182"/>
-      <c r="F17" s="182"/>
+      <c r="A17" s="177"/>
+      <c r="B17" s="173"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
       <c r="H17" s="69" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="173"/>
-      <c r="B18" s="182"/>
-      <c r="C18" s="182"/>
-      <c r="D18" s="182"/>
-      <c r="E18" s="182"/>
-      <c r="F18" s="182"/>
+      <c r="A18" s="177"/>
+      <c r="B18" s="173"/>
+      <c r="C18" s="173"/>
+      <c r="D18" s="173"/>
+      <c r="E18" s="173"/>
+      <c r="F18" s="173"/>
     </row>
     <row r="19" spans="1:14" ht="15.75">
-      <c r="A19" s="173"/>
-      <c r="B19" s="182"/>
-      <c r="C19" s="182"/>
-      <c r="D19" s="182"/>
-      <c r="E19" s="182"/>
-      <c r="F19" s="182"/>
+      <c r="A19" s="177"/>
+      <c r="B19" s="173"/>
+      <c r="C19" s="173"/>
+      <c r="D19" s="173"/>
+      <c r="E19" s="173"/>
+      <c r="F19" s="173"/>
       <c r="H19" s="67" t="s">
         <v>499</v>
       </c>
-      <c r="K19" s="171" t="str">
+      <c r="K19" s="180" t="str">
         <f>'Информация для бумаг'!C26</f>
         <v>Котельникова Валентина Сергеевна</v>
       </c>
-      <c r="L19" s="171"/>
-      <c r="M19" s="171"/>
-      <c r="N19" s="171"/>
+      <c r="L19" s="180"/>
+      <c r="M19" s="180"/>
+      <c r="N19" s="180"/>
     </row>
     <row r="20" spans="1:14">
       <c r="K20" s="55" t="s">
@@ -13794,26 +13792,26 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
-      <c r="H22" s="165" t="s">
+      <c r="H22" s="175" t="s">
         <v>500</v>
       </c>
-      <c r="I22" s="165"/>
-      <c r="J22" s="165"/>
-      <c r="K22" s="165"/>
-      <c r="L22" s="165"/>
-      <c r="M22" s="165"/>
-      <c r="N22" s="165"/>
+      <c r="I22" s="175"/>
+      <c r="J22" s="175"/>
+      <c r="K22" s="175"/>
+      <c r="L22" s="175"/>
+      <c r="M22" s="175"/>
+      <c r="N22" s="175"/>
     </row>
     <row r="23" spans="1:14" ht="12.75" customHeight="1">
-      <c r="H23" s="165" t="s">
+      <c r="H23" s="175" t="s">
         <v>501</v>
       </c>
-      <c r="I23" s="165"/>
-      <c r="J23" s="165"/>
-      <c r="K23" s="165"/>
-      <c r="L23" s="165"/>
-      <c r="M23" s="165"/>
-      <c r="N23" s="165"/>
+      <c r="I23" s="175"/>
+      <c r="J23" s="175"/>
+      <c r="K23" s="175"/>
+      <c r="L23" s="175"/>
+      <c r="M23" s="175"/>
+      <c r="N23" s="175"/>
     </row>
     <row r="25" spans="1:14" ht="15.75">
       <c r="H25" s="67" t="s">
@@ -13880,11 +13878,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A2:F6"/>
-    <mergeCell ref="B8:F9"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="B13:F15"/>
-    <mergeCell ref="B16:F19"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="J10:N10"/>
     <mergeCell ref="H23:N23"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
@@ -13895,11 +13893,11 @@
     <mergeCell ref="K14:N14"/>
     <mergeCell ref="K19:N19"/>
     <mergeCell ref="H22:N22"/>
-    <mergeCell ref="H1:N1"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="A2:F6"/>
+    <mergeCell ref="B8:F9"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="B13:F15"/>
+    <mergeCell ref="B16:F19"/>
   </mergeCells>
   <pageMargins left="0.38888888888888901" right="0.38888888888888901" top="0.38888888888888901" bottom="0.58888888888888902" header="0" footer="0.50902777777777797"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
